--- a/DBLP-OpenAlex-testing/fewshot-DBLP-OpenAlex/few_shot_mistral_dblp_openalex_results_comparison.xlsx
+++ b/DBLP-OpenAlex-testing/fewshot-DBLP-OpenAlex/few_shot_mistral_dblp_openalex_results_comparison.xlsx
@@ -310,154 +310,154 @@
     <t>Which papers did author Gerard J. M. Janssen publish and in which year?</t>
   </si>
   <si>
-    <t>['https://semopenalex.org/work/W188103252', 'https://semopenalex.org/work/W2799918114', 'https://semopenalex.org/work/W4389476656', 'https://semopenalex.org/work/W2164985294', 'https://semopenalex.org/work/W2133946031', 'https://semopenalex.org/work/W3082909461', 'https://semopenalex.org/work/W2005948381', 'https://semopenalex.org/work/W2883183026', 'https://semopenalex.org/work/W3013847853', 'https://semopenalex.org/work/W1996261192', 'https://semopenalex.org/work/W2557406903', 'https://semopenalex.org/work/W2098589561', 'https://semopenalex.org/work/W2901265490', 'https://semopenalex.org/work/W3030243522', 'https://semopenalex.org/work/W1542429709', 'https://semopenalex.org/work/W2080393976', 'https://semopenalex.org/work/W2182446967', 'https://semopenalex.org/work/W3082121147', 'https://semopenalex.org/work/W2170327195', 'https://semopenalex.org/work/W2137367494', 'https://semopenalex.org/work/W2122784464', 'https://semopenalex.org/work/W2059580911', 'https://semopenalex.org/work/W2277916629', 'https://semopenalex.org/work/W2226738307', 'https://semopenalex.org/work/W2171671453', 'https://semopenalex.org/work/W1755261004', 'https://semopenalex.org/work/W2000850157', 'https://semopenalex.org/work/W2138588147', 'https://semopenalex.org/work/W2234365651', 'https://semopenalex.org/work/W2587222093', 'https://semopenalex.org/work/W1041461969', 'https://semopenalex.org/work/W3081685983', 'https://semopenalex.org/work/W4301447820', 'https://semopenalex.org/work/W54673566', 'https://semopenalex.org/work/W2995567949', 'https://semopenalex.org/work/W4396695389', 'https://semopenalex.org/work/W2150505652', 'https://semopenalex.org/work/W2140243124', 'https://semopenalex.org/work/W2113868440', 'https://semopenalex.org/work/W1929232145', 'https://semopenalex.org/work/W4247737681', 'https://semopenalex.org/work/W2514533441', 'https://semopenalex.org/work/W2112753023', 'https://semopenalex.org/work/W2752026712', 'https://semopenalex.org/work/W2181900851', 'https://semopenalex.org/work/W2757690399', 'https://semopenalex.org/work/W1963759754', 'https://semopenalex.org/work/W2136645836', 'https://semopenalex.org/work/W2736157438', 'https://semopenalex.org/work/W146984990', 'https://semopenalex.org/work/W2073156145', 'https://semopenalex.org/work/W2152670036', 'https://semopenalex.org/work/W2740907063', 'https://semopenalex.org/work/W2138250189', 'https://semopenalex.org/work/W3147662830', 'https://semopenalex.org/work/W2166763164', 'https://semopenalex.org/work/W2959129322', 'https://semopenalex.org/work/W2173102402', 'https://semopenalex.org/work/W4300748512', 'https://semopenalex.org/work/W2055827744', 'https://semopenalex.org/work/W4295779216', 'https://semopenalex.org/work/W171991278', 'https://semopenalex.org/work/W2182785605', 'https://semopenalex.org/work/W3016154199', 'https://semopenalex.org/work/W4210813334', 'https://semopenalex.org/work/W4247029563', 'https://semopenalex.org/work/W1729906464', 'https://semopenalex.org/work/W2274206371', 'https://semopenalex.org/work/W2321428856', 'https://semopenalex.org/work/W2067686570', 'https://semopenalex.org/work/W2605122712', 'https://semopenalex.org/work/W3022514883', 'https://semopenalex.org/work/W2167424492', 'https://semopenalex.org/work/W2125654576', 'https://semopenalex.org/work/W2738446327', 'https://semopenalex.org/work/W47444322', 'https://semopenalex.org/work/W2018708687', 'https://semopenalex.org/work/W3037521446', 'https://semopenalex.org/work/W4248877513', 'https://semopenalex.org/work/W562425896', 'https://semopenalex.org/work/W4281490671', 'https://semopenalex.org/work/W4238264174', 'https://semopenalex.org/work/W2608090064', 'https://semopenalex.org/work/W2069469539', 'https://semopenalex.org/work/W1625275222', 'https://semopenalex.org/work/W4205742677', 'https://semopenalex.org/work/W2023289472', 'https://semopenalex.org/work/W3082574538', 'https://semopenalex.org/work/W2165195120', 'https://semopenalex.org/work/W2103364709', 'https://semopenalex.org/work/W2152754828', 'https://semopenalex.org/work/W2105281328', 'https://semopenalex.org/work/W1702815980', 'https://semopenalex.org/work/W2124921180', 'https://semopenalex.org/work/W4210298342', 'https://semopenalex.org/work/W2892078924', 'https://semopenalex.org/work/W1552374822', 'https://semopenalex.org/work/W4238511116', 'https://semopenalex.org/work/W4384263461', 'https://semopenalex.org/work/W3023079907', 'https://semopenalex.org/work/W653390160', 'https://semopenalex.org/work/W3114823909', 'https://semopenalex.org/work/W2182093612', 'https://semopenalex.org/work/W2113694234', 'https://semopenalex.org/work/W1753483902', 'https://semopenalex.org/work/W2028031999', 'https://semopenalex.org/work/W3096817374', 'https://semopenalex.org/work/W2005357327', 'https://semopenalex.org/work/W2133171495', 'https://semopenalex.org/work/W4247632977', 'https://semopenalex.org/work/W1972362582', 'https://semopenalex.org/work/W3164080097', 'https://semopenalex.org/work/W2044023590', 'https://semopenalex.org/work/W4251349925', 'https://semopenalex.org/work/W2163312800', 'https://semopenalex.org/work/W13024336', 'https://semopenalex.org/work/W2100777852', 'https://semopenalex.org/work/W2122538412', 'https://semopenalex.org/work/W2968697710', 'https://semopenalex.org/work/W2512077429', 'https://semopenalex.org/work/W1990776069', 'https://semopenalex.org/work/W2594497686', 'https://semopenalex.org/work/W1817463943', 'https://semopenalex.org/work/W100499533', 'https://semopenalex.org/work/W4360604687', 'https://semopenalex.org/work/W3037487054', 'https://semopenalex.org/work/W4237274094', 'https://semopenalex.org/work/W202954270', 'https://semopenalex.org/work/W2099077058', 'https://semopenalex.org/work/W2906284509', 'https://semopenalex.org/work/W2804810577', 'https://semopenalex.org/work/W2728862777', 'https://semopenalex.org/work/W1558485007', 'https://semopenalex.org/work/W2792227230', 'https://semopenalex.org/work/W1990740853', 'https://semopenalex.org/work/W2128936252', 'https://semopenalex.org/work/W155674873', 'https://semopenalex.org/work/W2034937923', 'https://semopenalex.org/work/W1912056476', 'https://semopenalex.org/work/W1980476288', 'https://semopenalex.org/work/W2584513564', 'https://semopenalex.org/work/W2003205683', 'https://semopenalex.org/work/W2123134063', 'https://semopenalex.org/work/W128593825', 'https://semopenalex.org/work/W4392979894', 'https://semopenalex.org/work/W2117451136', 'https://semopenalex.org/work/W1533919275', 'https://semopenalex.org/work/W4404250201', 'https://semopenalex.org/work/W2990422891', 'https://semopenalex.org/work/W3081749826', 'https://semopenalex.org/work/W4244775271', 'https://semopenalex.org/work/W2530516535', 'https://semopenalex.org/work/W2753693229', 'https://semopenalex.org/work/W961274400', 'https://semopenalex.org/work/W4220992118', 'https://semopenalex.org/work/W201713607', 'https://semopenalex.org/work/W2023479938', 'https://semopenalex.org/work/W2619174663', 'https://semopenalex.org/work/W4320000513', 'https://semopenalex.org/work/W2804317122', 'https://semopenalex.org/work/W4287815821', 'https://semopenalex.org/work/W4394518676', 'https://semopenalex.org/work/W2104167274', 'https://semopenalex.org/work/W2186313366', 'https://semopenalex.org/work/W49930183', 'https://semopenalex.org/work/W3082938327', 'https://semopenalex.org/work/W2149509417', 'https://semopenalex.org/work/W190600666', 'https://semopenalex.org/work/W2029661605', 'https://semopenalex.org/work/W2038517887', 'https://semopenalex.org/work/W1980799317', 'https://semopenalex.org/work/W2591501322', 'https://semopenalex.org/work/W67844065', 'https://semopenalex.org/work/W4312182041', 'https://semopenalex.org/work/W2077513328', 'https://semopenalex.org/work/W2957946622', 'https://semopenalex.org/work/W3120515165', 'https://semopenalex.org/work/W2001775984', 'https://semopenalex.org/work/W2114791275', 'https://semopenalex.org/work/W2599387809', 'https://semopenalex.org/work/W2151304280', 'https://semopenalex.org/work/W2338530657', 'https://semopenalex.org/work/W2143284629', 'https://semopenalex.org/work/W2135586389', 'https://semopenalex.org/work/W2130391582', 'https://semopenalex.org/work/W4235499751', 'https://semopenalex.org/work/W2141115795', 'https://semopenalex.org/work/W2074682051', 'https://semopenalex.org/work/W2401739586', 'https://semopenalex.org/work/W2620095341', 'https://semopenalex.org/work/W3011781542', 'https://semopenalex.org/work/W3149746193', 'https://semopenalex.org/work/W3012737141', 'https://semopenalex.org/work/W2616948544', 'https://semopenalex.org/work/W2018345398', 'https://semopenalex.org/work/W2898552906', 'https://semopenalex.org/work/W4282914661', 'https://semopenalex.org/work/W1516345628', 'https://semopenalex.org/work/W160337249', 'https://semopenalex.org/work/W4299834590', 'https://semopenalex.org/work/W30482722', 'https://semopenalex.org/work/W2023846135', 'https://semopenalex.org/work/W2775903912', 'https://semopenalex.org/work/W2128135249', 'https://semopenalex.org/work/W2005096286', 'https://semopenalex.org/work/W2154216058', 'https://semopenalex.org/work/W3082943899', 'https://semopenalex.org/work/W2745733921', 'https://semopenalex.org/work/W3081898781', 'https://semopenalex.org/work/W3127482518', 'https://semopenalex.org/work/W1986257701', 'https://semopenalex.org/work/W3024342691', 'https://semopenalex.org/work/W2185694006', 'https://semopenalex.org/work/W4237431914', 'https://semopenalex.org/work/W2320884143', 'https://semopenalex.org/work/W2013165801', 'https://semopenalex.org/work/W2153940791', 'https://semopenalex.org/work/W3081541487', 'https://semopenalex.org/work/W2026960907', 'https://semopenalex.org/work/W2771147402', 'https://semopenalex.org/work/W2039210571', 'https://semopenalex.org/work/W2095908354', 'https://semopenalex.org/work/W3027665269', 'https://semopenalex.org/work/W2151573792', 'https://semopenalex.org/work/W3015578022', 'https://semopenalex.org/work/W4378234403', 'https://semopenalex.org/work/W3013220518', 'https://semopenalex.org/work/W2110324005', 'https://semopenalex.org/work/W2969940663', 'https://semopenalex.org/work/W2766450143', 'https://semopenalex.org/work/W67119066', 'https://semopenalex.org/work/W4302424645', 'https://semopenalex.org/work/W4210257758', 'https://semopenalex.org/work/W2724228083', 'https://semopenalex.org/work/W2133819144', 'https://semopenalex.org/work/W2741748074', 'https://semopenalex.org/work/W2937671906', 'https://semopenalex.org/work/W2085864217', 'https://semopenalex.org/work/W2093352090', 'https://semopenalex.org/work/W2038509977', 'https://semopenalex.org/work/W2999466582', 'https://semopenalex.org/work/W4226457422', 'https://semopenalex.org/work/W2968316987', 'https://semopenalex.org/work/W2970449937', 'https://semopenalex.org/work/W2105424397', 'https://semopenalex.org/work/W2096582083', 'https://semopenalex.org/work/W2166662555', 'https://semopenalex.org/work/W4236983726', 'https://semopenalex.org/work/W73405584', 'https://semopenalex.org/work/W2072049173', 'https://semopenalex.org/work/W2061486817', 'https://semopenalex.org/work/W3036157671', 'https://semopenalex.org/work/W1096039644', 'https://semopenalex.org/work/W2593472651', 'https://semopenalex.org/work/W2922365273', 'https://semopenalex.org/work/W2805444673', 'https://semopenalex.org/work/W2588193771', 'https://semopenalex.org/work/W2952764074', 'https://semopenalex.org/work/W626749138', 'https://semopenalex.org/work/W2605190822', 'https://semopenalex.org/work/W2003148032', 'https://semopenalex.org/work/W1979704442', 'https://semopenalex.org/work/W3082188274', 'https://semopenalex.org/work/W2171958563', 'https://semopenalex.org/work/W3082672072', 'https://semopenalex.org/work/W4386776420', 'https://semopenalex.org/work/W1965117376', 'https://semopenalex.org/work/W2123582261', 'https://semopenalex.org/work/W2162395962', 'https://semopenalex.org/work/W2810861266', 'https://semopenalex.org/work/W2514686722', 'https://semopenalex.org/work/W4387589621', 'https://semopenalex.org/work/W3038115327', 'https://semopenalex.org/work/W4239519246', 'https://semopenalex.org/work/W2399215436', 'https://semopenalex.org/work/W1552561574', 'https://semopenalex.org/work/W4383065806', 'https://semopenalex.org/work/W1527768716', 'https://semopenalex.org/work/W2009658718', 'https://semopenalex.org/work/W200396823', 'https://semopenalex.org/work/W2021648931', 'https://semopenalex.org/work/W2943865318', 'https://semopenalex.org/work/W1990062657', 'https://semopenalex.org/work/W1417422537', 'https://semopenalex.org/work/W2774855312', 'https://semopenalex.org/work/W2123551394', 'https://semopenalex.org/work/W2906330222', 'https://semopenalex.org/work/W2901026025', 'https://semopenalex.org/work/W4386220934', 'https://semopenalex.org/work/W2063989480', 'https://semopenalex.org/work/W4400132771', 'https://semopenalex.org/work/W2035958911', 'https://semopenalex.org/work/W2017767972', 'https://semopenalex.org/work/W1870353999', 'https://semopenalex.org/work/W2122677844', 'https://semopenalex.org/work/W2403047599', 'https://semopenalex.org/work/W1963502684', 'https://semopenalex.org/work/W3082580655', 'https://semopenalex.org/work/W3081531507', 'https://semopenalex.org/work/W2024202481', 'https://semopenalex.org/work/W2004149428', 'https://semopenalex.org/work/W2041337419', 'https://semopenalex.org/work/W2143084783', 'https://semopenalex.org/work/W90104346', 'https://semopenalex.org/work/W4364358025', 'https://semopenalex.org/work/W2016652422', 'https://semopenalex.org/work/W1829136368', 'https://semopenalex.org/work/W3007663200', 'https://semopenalex.org/work/W2116449320', 'https://semopenalex.org/work/W2033918799', 'https://semopenalex.org/work/W3154255967', 'https://semopenalex.org/work/W2626706700', 'https://semopenalex.org/work/W2065302863', 'https://semopenalex.org/work/W2888859618', 'https://semopenalex.org/work/W4249463326', 'https://semopenalex.org/work/W2074444313', 'https://semopenalex.org/work/W2407173971', 'https://semopenalex.org/work/W2901545557', 'https://semopenalex.org/work/W3009745595', 'https://semopenalex.org/work/W2986447659', 'https://semopenalex.org/work/W2051791551', 'https://semopenalex.org/work/W2962540522', 'https://semopenalex.org/work/W3126358682', 'https://semopenalex.org/work/W2054518304', 'https://semopenalex.org/work/W1536091370', 'https://semopenalex.org/work/W2309635847', 'https://semopenalex.org/work/W2094867236', 'https://semopenalex.org/work/W2788844524', 'https://semopenalex.org/work/W3173715284', 'https://semopenalex.org/work/W2988464819', 'https://semopenalex.org/work/W2103430250', 'https://semopenalex.org/work/W2141665828', 'https://semopenalex.org/work/W4404250088', 'https://semopenalex.org/work/W4405944965', 'https://semopenalex.org/work/W2019966888', 'https://semopenalex.org/work/W2507172825', 'https://semopenalex.org/work/W2242995227', 'https://semopenalex.org/work/W3021831361', 'https://semopenalex.org/work/W4251952567', 'https://semopenalex.org/work/W1552001157', 'https://semopenalex.org/work/W2004009311', 'https://semopenalex.org/work/W2729343995', 'https://semopenalex.org/work/W1972453858', 'https://semopenalex.org/work/W2049855663', 'https://semopenalex.org/work/W1735274207', 'https://semopenalex.org/work/W2034235801', 'https://semopenalex.org/work/W4386157387', 'https://semopenalex.org/work/W2003067257']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W3047312767', 'https://semopenalex.org/work/W2784045768', 'https://semopenalex.org/work/W3017267450', 'https://semopenalex.org/work/W2754398119', 'https://semopenalex.org/work/W4319980430', 'https://semopenalex.org/work/W4393424568', 'https://semopenalex.org/work/W2809907824', 'https://semopenalex.org/work/W2598695409', 'https://semopenalex.org/work/W4393821610', 'https://semopenalex.org/work/W2964346923']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2809425916', 'https://semopenalex.org/work/W2967175067', 'https://semopenalex.org/work/W2967526509', 'https://semopenalex.org/work/W4249431654', 'https://semopenalex.org/work/W2549612717', 'https://semopenalex.org/work/W2971173586', 'https://semopenalex.org/work/W4313563578', 'https://semopenalex.org/work/W4287668995', 'https://semopenalex.org/work/W4287392742', 'https://semopenalex.org/work/W3169232032', 'https://semopenalex.org/work/W4293065025', 'https://semopenalex.org/work/W3206231781', 'https://semopenalex.org/work/W4321796319', 'https://semopenalex.org/work/W2330908417', 'https://semopenalex.org/work/W3014769903', 'https://semopenalex.org/work/W3127585016', 'https://semopenalex.org/work/W2059943739', 'https://semopenalex.org/work/W2889555883', 'https://semopenalex.org/work/W2967719799', 'https://semopenalex.org/work/W2044633418', 'https://semopenalex.org/work/W2345531317', 'https://semopenalex.org/work/W4213248384', 'https://semopenalex.org/work/W4363671915', 'https://semopenalex.org/work/W4402426748', 'https://semopenalex.org/work/W4240535267', 'https://semopenalex.org/work/W4288261968', 'https://semopenalex.org/work/W2899596954', 'https://semopenalex.org/work/W3209991164', 'https://semopenalex.org/work/W2110499608', 'https://semopenalex.org/work/W2272844336', 'https://semopenalex.org/work/W3121391869', 'https://semopenalex.org/work/W2049381173', 'https://semopenalex.org/work/W3084859057', 'https://semopenalex.org/work/W2293962294', 'https://semopenalex.org/work/W4287235540', 'https://semopenalex.org/work/W2142174774', 'https://semopenalex.org/work/W4280592120', 'https://semopenalex.org/work/W2905847388', 'https://semopenalex.org/work/W4312667018', 'https://semopenalex.org/work/W2119804349', 'https://semopenalex.org/work/W4406157430', 'https://semopenalex.org/work/W3121852636', 'https://semopenalex.org/work/W4400675898', 'https://semopenalex.org/work/W2900603753', 'https://semopenalex.org/work/W3153041448', 'https://semopenalex.org/work/W2077664520', 'https://semopenalex.org/work/W3174473101', 'https://semopenalex.org/work/W2158735282', 'https://semopenalex.org/work/W4283641599', 'https://semopenalex.org/work/W4235240618', 'https://semopenalex.org/work/W4287668646', 'https://semopenalex.org/work/W2340333180', 'https://semopenalex.org/work/W2211800868', 'https://semopenalex.org/work/W1517398235', 'https://semopenalex.org/work/W2530456191', 'https://semopenalex.org/work/W4251429682', 'https://semopenalex.org/work/W3043915370', 'https://semopenalex.org/work/W3033737646', 'https://semopenalex.org/work/W2293309991', 'https://semopenalex.org/work/W4319653723', 'https://semopenalex.org/work/W4367628070', 'https://semopenalex.org/work/W4318159625', 'https://semopenalex.org/work/W3145532460', 'https://semopenalex.org/work/W2055489377', 'https://semopenalex.org/work/W2788992245', 'https://semopenalex.org/work/W2171240869', 'https://semopenalex.org/work/W4320896439', 'https://semopenalex.org/work/W2093284392', 'https://semopenalex.org/work/W4319264802', 'https://semopenalex.org/work/W2893263830', 'https://semopenalex.org/work/W2062032381', 'https://semopenalex.org/work/W3085432304', 'https://semopenalex.org/work/W1908449836', 'https://semopenalex.org/work/W4381713892', 'https://semopenalex.org/work/W3126838471', 'https://semopenalex.org/work/W1810972023', 'https://semopenalex.org/work/W1851000371', 'https://semopenalex.org/work/W3110545566', 'https://semopenalex.org/work/W1593690673', 'https://semopenalex.org/work/W4387737248', 'https://semopenalex.org/work/W4287667875', 'https://semopenalex.org/work/W4225781798', 'https://semopenalex.org/work/W2145330693', 'https://semopenalex.org/work/W4399872440', 'https://semopenalex.org/work/W1568212182', 'https://semopenalex.org/work/W2898811429', 'https://semopenalex.org/work/W2901106555', 'https://semopenalex.org/work/W4312757941', 'https://semopenalex.org/work/W3010403426', 'https://semopenalex.org/work/W4229517606', 'https://semopenalex.org/work/W3119454628', 'https://semopenalex.org/work/W4301582020', 'https://semopenalex.org/work/W3084710058', 'https://semopenalex.org/work/W2272672851', 'https://semopenalex.org/work/W2333194490', 'https://semopenalex.org/work/W3130260207', 'https://semopenalex.org/work/W2135584970']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W4390737683', 'https://semopenalex.org/work/W2996971450', 'https://semopenalex.org/work/W2772966323', 'https://semopenalex.org/work/W4396568545', 'https://semopenalex.org/work/W4206136166', 'https://semopenalex.org/work/W2957110867', 'https://semopenalex.org/work/W4238294234', 'https://semopenalex.org/work/W3134422373', 'https://semopenalex.org/work/W2996342798', 'https://semopenalex.org/work/W3205075200', 'https://semopenalex.org/work/W2897762537', 'https://semopenalex.org/work/W2979701877', 'https://semopenalex.org/work/W2100407406', 'https://semopenalex.org/work/W1999760195', 'https://semopenalex.org/work/W4367671449', 'https://semopenalex.org/work/W2788968669', 'https://semopenalex.org/work/W2974444355', 'https://semopenalex.org/work/W3048792033', 'https://semopenalex.org/work/W2844810377', 'https://semopenalex.org/work/W2903944530', 'https://semopenalex.org/work/W4406267825', 'https://semopenalex.org/work/W2805460435', 'https://semopenalex.org/work/W3202715770', 'https://semopenalex.org/work/W2780277126', 'https://semopenalex.org/work/W2792290921', 'https://semopenalex.org/work/W2948196949', 'https://semopenalex.org/work/W2397277866', 'https://semopenalex.org/work/W4293863370', 'https://semopenalex.org/work/W3158463786', 'https://semopenalex.org/work/W2226359063']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2941573428', 'https://semopenalex.org/work/W3160945783', 'https://semopenalex.org/work/W3168652588', 'https://semopenalex.org/work/W294448757', 'https://semopenalex.org/work/W2162555816', 'https://semopenalex.org/work/W3048770428', 'https://semopenalex.org/work/W2343779160', 'https://semopenalex.org/work/W3201845268', 'https://semopenalex.org/work/W4292798214', 'https://semopenalex.org/work/W1966445952', 'https://semopenalex.org/work/W2022832873', 'https://semopenalex.org/work/W2546536770', 'https://semopenalex.org/work/W1977295820', 'https://semopenalex.org/work/W3131298139', 'https://semopenalex.org/work/W2014168043', 'https://semopenalex.org/work/W4287900890', 'https://semopenalex.org/work/W2473751517', 'https://semopenalex.org/work/W2462370865', 'https://semopenalex.org/work/W4393911083', 'https://semopenalex.org/work/W2073791116', 'https://semopenalex.org/work/W2905242827', 'https://semopenalex.org/work/W4398157632', 'https://semopenalex.org/work/W4221159459', 'https://semopenalex.org/work/W4308083526', 'https://semopenalex.org/work/W4367297631', 'https://semopenalex.org/work/W4233099794', 'https://semopenalex.org/work/W3008746569', 'https://semopenalex.org/work/W4368353176', 'https://semopenalex.org/work/W4379933304', 'https://semopenalex.org/work/W2945856475', 'https://semopenalex.org/work/W4287691869', 'https://semopenalex.org/work/W4210597606', 'https://semopenalex.org/work/W4284892042', 'https://semopenalex.org/work/W1965596253', 'https://semopenalex.org/work/W3194018690', 'https://semopenalex.org/work/W4287241484', 'https://semopenalex.org/work/W3128506819', 'https://semopenalex.org/work/W4287690348', 'https://semopenalex.org/work/W4385292569', 'https://semopenalex.org/work/W3210446150', 'https://semopenalex.org/work/W2244659594', 'https://semopenalex.org/work/W2509887407', 'https://semopenalex.org/work/W2559181347', 'https://semopenalex.org/work/W4288364801', 'https://semopenalex.org/work/W3004806403', 'https://semopenalex.org/work/W2954507353', 'https://semopenalex.org/work/W2525851376', 'https://semopenalex.org/work/W3210764291', 'https://semopenalex.org/work/W2606709877', 'https://semopenalex.org/work/W4287726151', 'https://semopenalex.org/work/W1972302881', 'https://semopenalex.org/work/W4323038447', 'https://semopenalex.org/work/W3156189202', 'https://semopenalex.org/work/W4226302796', 'https://semopenalex.org/work/W97884251', 'https://semopenalex.org/work/W2214980064', 'https://semopenalex.org/work/W4396243491', 'https://semopenalex.org/work/W3027839759', 'https://semopenalex.org/work/W4287776928', 'https://semopenalex.org/work/W3003928672', 'https://semopenalex.org/work/W4404395434', 'https://semopenalex.org/work/W4231137968', 'https://semopenalex.org/work/W2343495200', 'https://semopenalex.org/work/W2184966923', 'https://semopenalex.org/work/W3211048833', 'https://semopenalex.org/work/W2163036976', 'https://semopenalex.org/work/W4406193279', 'https://semopenalex.org/work/W4287746776', 'https://semopenalex.org/work/W2997497769', 'https://semopenalex.org/work/W4230850676', 'https://semopenalex.org/work/W2929118134', 'https://semopenalex.org/work/W2137100320', 'https://semopenalex.org/work/W2467368527', 'https://semopenalex.org/work/W2472426210', 'https://semopenalex.org/work/W3018835489', 'https://semopenalex.org/work/W4287123914', 'https://semopenalex.org/work/W2316889284', 'https://semopenalex.org/work/W2145997469', 'https://semopenalex.org/work/W2297325673', 'https://semopenalex.org/work/W3093436911', 'https://semopenalex.org/work/W2739601332', 'https://semopenalex.org/work/W4387799594', 'https://semopenalex.org/work/W2754395205', 'https://semopenalex.org/work/W1572192454', 'https://semopenalex.org/work/W3049640275', 'https://semopenalex.org/work/W2804309962', 'https://semopenalex.org/work/W4320341944', 'https://semopenalex.org/work/W4389261110', 'https://semopenalex.org/work/W2123140882', 'https://semopenalex.org/work/W2460754307', 'https://semopenalex.org/work/W3043093753', 'https://semopenalex.org/work/W2558974524', 'https://semopenalex.org/work/W2979711838', 'https://semopenalex.org/work/W3101755570', 'https://semopenalex.org/work/W3091415435', 'https://semopenalex.org/work/W2084071117', 'https://semopenalex.org/work/W4377298398', 'https://semopenalex.org/work/W4286953522', 'https://semopenalex.org/work/W3177180018', 'https://semopenalex.org/work/W2900566525', 'https://semopenalex.org/work/W2059743020', 'https://semopenalex.org/work/W2973151896', 'https://semopenalex.org/work/W3096308497', 'https://semopenalex.org/work/W4280611212', 'https://semopenalex.org/work/W3207608819', 'https://semopenalex.org/work/W3034646170', 'https://semopenalex.org/work/W4399986811', 'https://semopenalex.org/work/W1982467666', 'https://semopenalex.org/work/W3174807969', 'https://semopenalex.org/work/W2464529301', 'https://semopenalex.org/work/W3201319033', 'https://semopenalex.org/work/W2995556886', 'https://semopenalex.org/work/W4306703516', 'https://semopenalex.org/work/W2552048974', 'https://semopenalex.org/work/W144502943', 'https://semopenalex.org/work/W3093421867', 'https://semopenalex.org/work/W1805881796', 'https://semopenalex.org/work/W2625157458', 'https://semopenalex.org/work/W4320341743', 'https://semopenalex.org/work/W2039557327', 'https://semopenalex.org/work/W2548547123', 'https://semopenalex.org/work/W3048856089', 'https://semopenalex.org/work/W2572480678', 'https://semopenalex.org/work/W3106951738', 'https://semopenalex.org/work/W4226041925', 'https://semopenalex.org/work/W2914677765', 'https://semopenalex.org/work/W2004314166', 'https://semopenalex.org/work/W4200081143', 'https://semopenalex.org/work/W2038323322', 'https://semopenalex.org/work/W4297060365', 'https://semopenalex.org/work/W2469325223', 'https://semopenalex.org/work/W2784298189', 'https://semopenalex.org/work/W2911439292', 'https://semopenalex.org/work/W4245299688', 'https://semopenalex.org/work/W4390872486', 'https://semopenalex.org/work/W2059502067', 'https://semopenalex.org/work/W2090465764', 'https://semopenalex.org/work/W3041585044', 'https://semopenalex.org/work/W3101164610', 'https://semopenalex.org/work/W169568933', 'https://semopenalex.org/work/W2519804223', 'https://semopenalex.org/work/W4284710143', 'https://semopenalex.org/work/W3104328743', 'https://semopenalex.org/work/W2905715248', 'https://semopenalex.org/work/W4319862456', 'https://semopenalex.org/work/W4296070200', 'https://semopenalex.org/work/W4210756135', 'https://semopenalex.org/work/W3007493000', 'https://semopenalex.org/work/W4283823243', 'https://semopenalex.org/work/W3030459553', 'https://semopenalex.org/work/W3134509799', 'https://semopenalex.org/work/W4378942243', 'https://semopenalex.org/work/W3183881674', 'https://semopenalex.org/work/W2122005484', 'https://semopenalex.org/work/W4324116704', 'https://semopenalex.org/work/W1587612576', 'https://semopenalex.org/work/W4221120919', 'https://semopenalex.org/work/W4286902665', 'https://semopenalex.org/work/W3202872895', 'https://semopenalex.org/work/W4311007713', 'https://semopenalex.org/work/W4287279053', 'https://semopenalex.org/work/W2991253882', 'https://semopenalex.org/work/W3145938895', 'https://semopenalex.org/work/W3008634715', 'https://semopenalex.org/work/W2999276659', 'https://semopenalex.org/work/W1966530006', 'https://semopenalex.org/work/W2939129451', 'https://semopenalex.org/work/W2820922764', 'https://semopenalex.org/work/W1980119762', 'https://semopenalex.org/work/W2043475427', 'https://semopenalex.org/work/W2825911140', 'https://semopenalex.org/work/W2114925746', 'https://semopenalex.org/work/W4287023576', 'https://semopenalex.org/work/W1579732497', 'https://semopenalex.org/work/W2038134612', 'https://semopenalex.org/work/W3173111918', 'https://semopenalex.org/work/W3216699651', 'https://semopenalex.org/work/W4398809881', 'https://semopenalex.org/work/W2142857396', 'https://semopenalex.org/work/W3212849404', 'https://semopenalex.org/work/W2131147042', 'https://semopenalex.org/work/W4400266996', 'https://semopenalex.org/work/W3126679255', 'https://semopenalex.org/work/W4287391921', 'https://semopenalex.org/work/W2972736078', 'https://semopenalex.org/work/W2951433015', 'https://semopenalex.org/work/W2026124805', 'https://semopenalex.org/work/W4406482035', 'https://semopenalex.org/work/W2108950108', 'https://semopenalex.org/work/W2626549485', 'https://semopenalex.org/work/W2972760949', 'https://semopenalex.org/work/W2899181049', 'https://semopenalex.org/work/W2132391423', 'https://semopenalex.org/work/W3096998353', 'https://semopenalex.org/work/W4384919669', 'https://semopenalex.org/work/W3046183292', 'https://semopenalex.org/work/W3210294081', 'https://semopenalex.org/work/W4312473456', 'https://semopenalex.org/work/W2798926091', 'https://semopenalex.org/work/W4385584193', 'https://semopenalex.org/work/W3097384956', 'https://semopenalex.org/work/W4387321281', 'https://semopenalex.org/work/W1997430507', 'https://semopenalex.org/work/W4323038488', 'https://semopenalex.org/work/W1991539813', 'https://semopenalex.org/work/W2041454412', 'https://semopenalex.org/work/W3085924585', 'https://semopenalex.org/work/W3093453792', 'https://semopenalex.org/work/W2898907473', 'https://semopenalex.org/work/W3015838662', 'https://semopenalex.org/work/W4236853429', 'https://semopenalex.org/work/W2150882603', 'https://semopenalex.org/work/W4206707377', 'https://semopenalex.org/work/W4297060071', 'https://semopenalex.org/work/W3028984135', 'https://semopenalex.org/work/W4391766346', 'https://semopenalex.org/work/W4383046641', 'https://semopenalex.org/work/W2027952077', 'https://semopenalex.org/work/W4391901288', 'https://semopenalex.org/work/W2924522543', 'https://semopenalex.org/work/W4283024182', 'https://semopenalex.org/work/W4287902355', 'https://semopenalex.org/work/W4384392951', 'https://semopenalex.org/work/W2060122457', 'https://semopenalex.org/work/W2971872524', 'https://semopenalex.org/work/W2916044424', 'https://semopenalex.org/work/W4403635745', 'https://semopenalex.org/work/W3110875274', 'https://semopenalex.org/work/W3007227736', 'https://semopenalex.org/work/W3203846187', 'https://semopenalex.org/work/W2156740813', 'https://semopenalex.org/work/W3047893908', 'https://semopenalex.org/work/W816337693', 'https://semopenalex.org/work/W3147053158', 'https://semopenalex.org/work/W3095459301', 'https://semopenalex.org/work/W3176114075', 'https://semopenalex.org/work/W2972393922', 'https://semopenalex.org/work/W4310562517', 'https://semopenalex.org/work/W3001208429', 'https://semopenalex.org/work/W3133606938', 'https://semopenalex.org/work/W3038185437', 'https://semopenalex.org/work/W1975771789', 'https://semopenalex.org/work/W75304744', 'https://semopenalex.org/work/W4287123862', 'https://semopenalex.org/work/W3107781032', 'https://semopenalex.org/work/W3121327306', 'https://semopenalex.org/work/W2898863929', 'https://semopenalex.org/work/W2760871008', 'https://semopenalex.org/work/W1753084818', 'https://semopenalex.org/work/W4296596641', 'https://semopenalex.org/work/W2403591241', 'https://semopenalex.org/work/W2732107624', 'https://semopenalex.org/work/W2086755418', 'https://semopenalex.org/work/W4400447326', 'https://semopenalex.org/work/W4403964510', 'https://semopenalex.org/work/W3124523586', 'https://semopenalex.org/work/W3209796046', 'https://semopenalex.org/work/W2154718966', 'https://semopenalex.org/work/W1494996644', 'https://semopenalex.org/work/W3129635911', 'https://semopenalex.org/work/W2337546824', 'https://semopenalex.org/work/W3083323811', 'https://semopenalex.org/work/W2786460214', 'https://semopenalex.org/work/W4392617501', 'https://semopenalex.org/work/W3128789131', 'https://semopenalex.org/work/W3167824842', 'https://semopenalex.org/work/W4394931310', 'https://semopenalex.org/work/W4399317854', 'https://semopenalex.org/work/W4255912054', 'https://semopenalex.org/work/W4406676443', 'https://semopenalex.org/work/W2157747589', 'https://semopenalex.org/work/W4322099461', 'https://semopenalex.org/work/W2996860607', 'https://semopenalex.org/work/W2808145095', 'https://semopenalex.org/work/W2466191378', 'https://semopenalex.org/work/W2164297046', 'https://semopenalex.org/work/W3025540705', 'https://semopenalex.org/work/W2096948221', 'https://semopenalex.org/work/W4385804769', 'https://semopenalex.org/work/W3005828390', 'https://semopenalex.org/work/W2152423878', 'https://semopenalex.org/work/W4366342364', 'https://semopenalex.org/work/W3203181771', 'https://semopenalex.org/work/W4384615920', 'https://semopenalex.org/work/W2969671163', 'https://semopenalex.org/work/W4403786771', 'https://semopenalex.org/work/W2777460464', 'https://semopenalex.org/work/W2117788706', 'https://semopenalex.org/work/W3092216346', 'https://semopenalex.org/work/W2463050926', 'https://semopenalex.org/work/W3106656598', 'https://semopenalex.org/work/W3171100434', 'https://semopenalex.org/work/W1246540336', 'https://semopenalex.org/work/W4384561507', 'https://semopenalex.org/work/W4295253548', 'https://semopenalex.org/work/W2056591916', 'https://semopenalex.org/work/W3198808971', 'https://semopenalex.org/work/W3096783252', 'https://semopenalex.org/work/W3127829048', 'https://semopenalex.org/work/W3099785009', 'https://semopenalex.org/work/W4386082512', 'https://semopenalex.org/work/W4290059224', 'https://semopenalex.org/work/W3207505502', 'https://semopenalex.org/work/W2879029702', 'https://semopenalex.org/work/W2171559681', 'https://semopenalex.org/work/W2120761625', 'https://semopenalex.org/work/W4285827783', 'https://semopenalex.org/work/W4382464396', 'https://semopenalex.org/work/W3001949026', 'https://semopenalex.org/work/W87063158', 'https://semopenalex.org/work/W3176780274', 'https://semopenalex.org/work/W3110177420', 'https://semopenalex.org/work/W3121924028', 'https://semopenalex.org/work/W2087611087']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2202885265', 'https://semopenalex.org/work/W2604384156', 'https://semopenalex.org/work/W176895944', 'https://semopenalex.org/work/W4360907566', 'https://semopenalex.org/work/W2169103252', 'https://semopenalex.org/work/W3020423550', 'https://semopenalex.org/work/W3014966924', 'https://semopenalex.org/work/W2077753966', 'https://semopenalex.org/work/W3090262174', 'https://semopenalex.org/work/W4285207151', 'https://semopenalex.org/work/W2109392297', 'https://semopenalex.org/work/W2210737596', 'https://semopenalex.org/work/W2907905966', 'https://semopenalex.org/work/W2901482574', 'https://semopenalex.org/work/W4200533036', 'https://semopenalex.org/work/W2383025629', 'https://semopenalex.org/work/W1989814488', 'https://semopenalex.org/work/W4386919989', 'https://semopenalex.org/work/W2964541684', 'https://semopenalex.org/work/W2996592540', 'https://semopenalex.org/work/W2330731982', 'https://semopenalex.org/work/W2624719059', 'https://semopenalex.org/work/W2168189713', 'https://semopenalex.org/work/W3005571193', 'https://semopenalex.org/work/W1986594812', 'https://semopenalex.org/work/W2013087313', 'https://semopenalex.org/work/W4404480496', 'https://semopenalex.org/work/W2804263862', 'https://semopenalex.org/work/W2058599944', 'https://semopenalex.org/work/W3199993893', 'https://semopenalex.org/work/W4404459004', 'https://semopenalex.org/work/W4386249920', 'https://semopenalex.org/work/W2947280819', 'https://semopenalex.org/work/W1972504394', 'https://semopenalex.org/work/W4389879531', 'https://semopenalex.org/work/W4386572358', 'https://semopenalex.org/work/W3210281673', 'https://semopenalex.org/work/W3134664381', 'https://semopenalex.org/work/W4404576824', 'https://semopenalex.org/work/W2783829353', 'https://semopenalex.org/work/W2149743901', 'https://semopenalex.org/work/W2058842944', 'https://semopenalex.org/work/W2909902231', 'https://semopenalex.org/work/W2038007991', 'https://semopenalex.org/work/W3145628585', 'https://semopenalex.org/work/W2904413102', 'https://semopenalex.org/work/W2794180747', 'https://semopenalex.org/work/W282835794', 'https://semopenalex.org/work/W2969688740', 'https://semopenalex.org/work/W2528857590', 'https://semopenalex.org/work/W4323663048', 'https://semopenalex.org/work/W4385826750', 'https://semopenalex.org/work/W4402835717', 'https://semopenalex.org/work/W3176567159', 'https://semopenalex.org/work/W4386307089', 'https://semopenalex.org/work/W2037720083', 'https://semopenalex.org/work/W4376142881', 'https://semopenalex.org/work/W3094268044', 'https://semopenalex.org/work/W2476848331', 'https://semopenalex.org/work/W4388675409', 'https://semopenalex.org/work/W3133842302', 'https://semopenalex.org/work/W4367147910', 'https://semopenalex.org/work/W4401990766', 'https://semopenalex.org/work/W2072045292', 'https://semopenalex.org/work/W4387869863', 'https://semopenalex.org/work/W4308342707', 'https://semopenalex.org/work/W2559992739', 'https://semopenalex.org/work/W2556195709', 'https://semopenalex.org/work/W2055657753', 'https://semopenalex.org/work/W4213068964', 'https://semopenalex.org/work/W4312385873', 'https://semopenalex.org/work/W4285211669', 'https://semopenalex.org/work/W4282826154', 'https://semopenalex.org/work/W2151517333', 'https://semopenalex.org/work/W2804348493', 'https://semopenalex.org/work/W4398152845', 'https://semopenalex.org/work/W2912634456', 'https://semopenalex.org/work/W2530101013', 'https://semopenalex.org/work/W4206824496', 'https://semopenalex.org/work/W4288391286', 'https://semopenalex.org/work/W2130027208', 'https://semopenalex.org/work/W4401210873', 'https://semopenalex.org/work/W2805010740', 'https://semopenalex.org/work/W4391429213', 'https://semopenalex.org/work/W4318603270', 'https://semopenalex.org/work/W2965197902', 'https://semopenalex.org/work/W2077093994', 'https://semopenalex.org/work/W2804501132', 'https://semopenalex.org/work/W2292837460', 'https://semopenalex.org/work/W2109565528', 'https://semopenalex.org/work/W4312235824', 'https://semopenalex.org/work/W4399910027', 'https://semopenalex.org/work/W4379983689', 'https://semopenalex.org/work/W4392460796', 'https://semopenalex.org/work/W2789498674', 'https://semopenalex.org/work/W4367148405', 'https://semopenalex.org/work/W3012171841', 'https://semopenalex.org/work/W2269062875', 'https://semopenalex.org/work/W4388213914', 'https://semopenalex.org/work/W4401548819', 'https://semopenalex.org/work/W4387886204', 'https://semopenalex.org/work/W1991496323', 'https://semopenalex.org/work/W4213097356', 'https://semopenalex.org/work/W2988764224', 'https://semopenalex.org/work/W2911885303', 'https://semopenalex.org/work/W3213340154', 'https://semopenalex.org/work/W4313291203', 'https://semopenalex.org/work/W1980855612', 'https://semopenalex.org/work/W3005715390', 'https://semopenalex.org/work/W1489929835', 'https://semopenalex.org/work/W4318601869', 'https://semopenalex.org/work/W4389471415', 'https://semopenalex.org/work/W2052206457', 'https://semopenalex.org/work/W4403646133', 'https://semopenalex.org/work/W976487463', 'https://semopenalex.org/work/W4391326572', 'https://semopenalex.org/work/W4289203223', 'https://semopenalex.org/work/W2068489330', 'https://semopenalex.org/work/W2066271829', 'https://semopenalex.org/work/W4396505344', 'https://semopenalex.org/work/W4386920758', 'https://semopenalex.org/work/W2763111898', 'https://semopenalex.org/work/W2990735505', 'https://semopenalex.org/work/W2047610380', 'https://semopenalex.org/work/W2891934018', 'https://semopenalex.org/work/W2118051735', 'https://semopenalex.org/work/W2052995625', 'https://semopenalex.org/work/W131277285', 'https://semopenalex.org/work/W2012087113', 'https://semopenalex.org/work/W4382119833', 'https://semopenalex.org/work/W2903850618', 'https://semopenalex.org/work/W2912046801', 'https://semopenalex.org/work/W3001204101', 'https://semopenalex.org/work/W2096177399', 'https://semopenalex.org/work/W2073648968', 'https://semopenalex.org/work/W2085023162', 'https://semopenalex.org/work/W4386918403', 'https://semopenalex.org/work/W2139900006', 'https://semopenalex.org/work/W2291494764', 'https://semopenalex.org/work/W4388519971', 'https://semopenalex.org/work/W4282836627', 'https://semopenalex.org/work/W2024504253', 'https://semopenalex.org/work/W4392573792', 'https://semopenalex.org/work/W1967335608', 'https://semopenalex.org/work/W4388666963', 'https://semopenalex.org/work/W2551664773', 'https://semopenalex.org/work/W2095857057', 'https://semopenalex.org/work/W2137422967', 'https://semopenalex.org/work/W2017065682', 'https://semopenalex.org/work/W4403233403', 'https://semopenalex.org/work/W3139325069', 'https://semopenalex.org/work/W4304203349', 'https://semopenalex.org/work/W3129170312', 'https://semopenalex.org/work/W2784259369', 'https://semopenalex.org/work/W2958283264', 'https://semopenalex.org/work/W2313795635', 'https://semopenalex.org/work/W1904270298', 'https://semopenalex.org/work/W2554849750', 'https://semopenalex.org/work/W4394858588', 'https://semopenalex.org/work/W2018860951', 'https://semopenalex.org/work/W4380451175', 'https://semopenalex.org/work/W4306793569', 'https://semopenalex.org/work/W4387714873', 'https://semopenalex.org/work/W3040063675', 'https://semopenalex.org/work/W2171432711', 'https://semopenalex.org/work/W2076890843', 'https://semopenalex.org/work/W4400112330', 'https://semopenalex.org/work/W2566656454', 'https://semopenalex.org/work/W2389323797', 'https://semopenalex.org/work/W2792380105', 'https://semopenalex.org/work/W4388953015', 'https://semopenalex.org/work/W2042556111', 'https://semopenalex.org/work/W3133466818', 'https://semopenalex.org/work/W2520653549', 'https://semopenalex.org/work/W2891734979', 'https://semopenalex.org/work/W4402834678', 'https://semopenalex.org/work/W2727836510', 'https://semopenalex.org/work/W3104724617', 'https://semopenalex.org/work/W4391878166', 'https://semopenalex.org/work/W2793708954', 'https://semopenalex.org/work/W3213939512', 'https://semopenalex.org/work/W2797561181', 'https://semopenalex.org/work/W2085741604', 'https://semopenalex.org/work/W2892268308', 'https://semopenalex.org/work/W2113578263', 'https://semopenalex.org/work/W4296270284', 'https://semopenalex.org/work/W4388145646', 'https://semopenalex.org/work/W2012725729', 'https://semopenalex.org/work/W4388133782', 'https://semopenalex.org/work/W4389076217', 'https://semopenalex.org/work/W4379034010', 'https://semopenalex.org/work/W2971778528', 'https://semopenalex.org/work/W3006413083', 'https://semopenalex.org/work/W2753440200', 'https://semopenalex.org/work/W2101911810', 'https://semopenalex.org/work/W2570577251', 'https://semopenalex.org/work/W2334282167', 'https://semopenalex.org/work/W4387714613', 'https://semopenalex.org/work/W2036764408', 'https://semopenalex.org/work/W2167929182', 'https://semopenalex.org/work/W2175711660', 'https://semopenalex.org/work/W2967954306', 'https://semopenalex.org/work/W2982613775', 'https://semopenalex.org/work/W2100586747', 'https://semopenalex.org/work/W2038570675', 'https://semopenalex.org/work/W4390758153', 'https://semopenalex.org/work/W2573269249', 'https://semopenalex.org/work/W3147589610', 'https://semopenalex.org/work/W2011087369', 'https://semopenalex.org/work/W3196284684', 'https://semopenalex.org/work/W1485445045', 'https://semopenalex.org/work/W4391770026', 'https://semopenalex.org/work/W3156877779', 'https://semopenalex.org/work/W2473242321', 'https://semopenalex.org/work/W3006046181', 'https://semopenalex.org/work/W4402836042', 'https://semopenalex.org/work/W2473454588', 'https://semopenalex.org/work/W4224994268', 'https://semopenalex.org/work/W2768420153', 'https://semopenalex.org/work/W4393252675', 'https://semopenalex.org/work/W3141789341', 'https://semopenalex.org/work/W2143818732', 'https://semopenalex.org/work/W2759469946', 'https://semopenalex.org/work/W4225826211', 'https://semopenalex.org/work/W2695892072', 'https://semopenalex.org/work/W2327416585', 'https://semopenalex.org/work/W4399463135', 'https://semopenalex.org/work/W2785923962', 'https://semopenalex.org/work/W2115198688', 'https://semopenalex.org/work/W2095378229', 'https://semopenalex.org/work/W2903985815', 'https://semopenalex.org/work/W2335568438', 'https://semopenalex.org/work/W2951051768', 'https://semopenalex.org/work/W2783173327', 'https://semopenalex.org/work/W2964463995', 'https://semopenalex.org/work/W2393603173', 'https://semopenalex.org/work/W2089235671', 'https://semopenalex.org/work/W2533270794', 'https://semopenalex.org/work/W1781921775', 'https://semopenalex.org/work/W4386249995', 'https://semopenalex.org/work/W4387319244', 'https://semopenalex.org/work/W2522766745', 'https://semopenalex.org/work/W4402125734', 'https://semopenalex.org/work/W4317555541', 'https://semopenalex.org/work/W2920325736', 'https://semopenalex.org/work/W4390204058', 'https://semopenalex.org/work/W3210031557', 'https://semopenalex.org/work/W2519882343', 'https://semopenalex.org/work/W2045885650', 'https://semopenalex.org/work/W4399341408', 'https://semopenalex.org/work/W3156800857', 'https://semopenalex.org/work/W4385832244', 'https://semopenalex.org/work/W2990794959', 'https://semopenalex.org/work/W4386920013', 'https://semopenalex.org/work/W4403182200', 'https://semopenalex.org/work/W3197793222', 'https://semopenalex.org/work/W4282825011', 'https://semopenalex.org/work/W2557139677', 'https://semopenalex.org/work/W3013399598', 'https://semopenalex.org/work/W3160686564', 'https://semopenalex.org/work/W3004954023', 'https://semopenalex.org/work/W2797953332', 'https://semopenalex.org/work/W4403724277', 'https://semopenalex.org/work/W3152943384', 'https://semopenalex.org/work/W4229028795', 'https://semopenalex.org/work/W2511146638', 'https://semopenalex.org/work/W4213077479', 'https://semopenalex.org/work/W2966498804', 'https://semopenalex.org/work/W2022326160', 'https://semopenalex.org/work/W2341987404', 'https://semopenalex.org/work/W4225497412', 'https://semopenalex.org/work/W4390778221', 'https://semopenalex.org/work/W3143148447', 'https://semopenalex.org/work/W2023637192', 'https://semopenalex.org/work/W3080639911', 'https://semopenalex.org/work/W1991274348', 'https://semopenalex.org/work/W4212902180', 'https://semopenalex.org/work/W2383377836', 'https://semopenalex.org/work/W1990457279', 'https://semopenalex.org/work/W4387715010', 'https://semopenalex.org/work/W2277015358', 'https://semopenalex.org/work/W4386918818', 'https://semopenalex.org/work/W2605870759', 'https://semopenalex.org/work/W2063160426', 'https://semopenalex.org/work/W1492042394', 'https://semopenalex.org/work/W2271825901', 'https://semopenalex.org/work/W2037815363', 'https://semopenalex.org/work/W2076438760', 'https://semopenalex.org/work/W2792002389', 'https://semopenalex.org/work/W2137563824', 'https://semopenalex.org/work/W2518984475', 'https://semopenalex.org/work/W3140868540', 'https://semopenalex.org/work/W4390763328', 'https://semopenalex.org/work/W4391895094', 'https://semopenalex.org/work/W4285251260', 'https://semopenalex.org/work/W2046114048', 'https://semopenalex.org/work/W3152870376', 'https://semopenalex.org/work/W2029284131', 'https://semopenalex.org/work/W2621374881', 'https://semopenalex.org/work/W2144892219', 'https://semopenalex.org/work/W2023195652', 'https://semopenalex.org/work/W2804609139', 'https://semopenalex.org/work/W2712995990', 'https://semopenalex.org/work/W4386260739', 'https://semopenalex.org/work/W2887601228', 'https://semopenalex.org/work/W4289821472', 'https://semopenalex.org/work/W2121795575', 'https://semopenalex.org/work/W2349466730', 'https://semopenalex.org/work/W4367663134', 'https://semopenalex.org/work/W4313244937', 'https://semopenalex.org/work/W2932650350', 'https://semopenalex.org/work/W2535549373', 'https://semopenalex.org/work/W1978699422', 'https://semopenalex.org/work/W4367148109', 'https://semopenalex.org/work/W2116800013', 'https://semopenalex.org/work/W4312427776', 'https://semopenalex.org/work/W2056907372', 'https://semopenalex.org/work/W4396783549', 'https://semopenalex.org/work/W2373453410', 'https://semopenalex.org/work/W2972948959', 'https://semopenalex.org/work/W4367148398', 'https://semopenalex.org/work/W4401806242', 'https://semopenalex.org/work/W43217051', 'https://semopenalex.org/work/W4389961028', 'https://semopenalex.org/work/W2114540871', 'https://semopenalex.org/work/W4405937034', 'https://semopenalex.org/work/W2326531986', 'https://semopenalex.org/work/W2800408116', 'https://semopenalex.org/work/W2078714953', 'https://semopenalex.org/work/W2119212601', 'https://semopenalex.org/work/W4205838995', 'https://semopenalex.org/work/W2810470829', 'https://semopenalex.org/work/W4399339526', 'https://semopenalex.org/work/W2966346292', 'https://semopenalex.org/work/W4405270053', 'https://semopenalex.org/work/W3089077757', 'https://semopenalex.org/work/W2921446145', 'https://semopenalex.org/work/W4312837885', 'https://semopenalex.org/work/W2290066430', 'https://semopenalex.org/work/W2803338056', 'https://semopenalex.org/work/W3176436409', 'https://semopenalex.org/work/W2156848415', 'https://semopenalex.org/work/W4390602383', 'https://semopenalex.org/work/W1991497382', 'https://semopenalex.org/work/W2757377912', 'https://semopenalex.org/work/W3115725655', 'https://semopenalex.org/work/W4388551259', 'https://semopenalex.org/work/W1981489703', 'https://semopenalex.org/work/W3193875369', 'https://semopenalex.org/work/W2122864277', 'https://semopenalex.org/work/W4403124399', 'https://semopenalex.org/work/W4386736850', 'https://semopenalex.org/work/W2055837742', 'https://semopenalex.org/work/W4385214694', 'https://semopenalex.org/work/W2561275332', 'https://semopenalex.org/work/W4312466007', 'https://semopenalex.org/work/W4328027566', 'https://semopenalex.org/work/W2887358166', 'https://semopenalex.org/work/W1556213926', 'https://semopenalex.org/work/W4389303997', 'https://semopenalex.org/work/W3040766658', 'https://semopenalex.org/work/W4404670877', 'https://semopenalex.org/work/W2589296175', 'https://semopenalex.org/work/W4392096060', 'https://semopenalex.org/work/W4396817519', 'https://semopenalex.org/work/W4402978247', 'https://semopenalex.org/work/W2624040609', 'https://semopenalex.org/work/W3186776699', 'https://semopenalex.org/work/W4226107162', 'https://semopenalex.org/work/W4401069975', 'https://semopenalex.org/work/W2986174999', 'https://semopenalex.org/work/W1993621621', 'https://semopenalex.org/work/W2547271336', 'https://semopenalex.org/work/W4390777144', 'https://semopenalex.org/work/W2152003934', 'https://semopenalex.org/work/W4296912939', 'https://semopenalex.org/work/W4391877334', 'https://semopenalex.org/work/W4213143207', 'https://semopenalex.org/work/W2085645466', 'https://semopenalex.org/work/W1984984026', 'https://semopenalex.org/work/W2419608502', 'https://semopenalex.org/work/W4387714561', 'https://semopenalex.org/work/W2495190596', 'https://semopenalex.org/work/W2298711843', 'https://semopenalex.org/work/W3206648460', 'https://semopenalex.org/work/W2010955203', 'https://semopenalex.org/work/W4405179870', 'https://semopenalex.org/work/W2104385531', 'https://semopenalex.org/work/W2769916035', 'https://semopenalex.org/work/W2613801228', 'https://semopenalex.org/work/W4389317944', 'https://semopenalex.org/work/W2535129896', 'https://semopenalex.org/work/W2549420274', 'https://semopenalex.org/work/W4392024074', 'https://semopenalex.org/work/W2538882601', 'https://semopenalex.org/work/W3199970339', 'https://semopenalex.org/work/W3197269278', 'https://semopenalex.org/work/W2518181354', 'https://semopenalex.org/work/W3088595531', 'https://semopenalex.org/work/W2395017188', 'https://semopenalex.org/work/W4213429388', 'https://semopenalex.org/work/W2332928857', 'https://semopenalex.org/work/W4210569910', 'https://semopenalex.org/work/W2143110402', 'https://semopenalex.org/work/W2027931215', 'https://semopenalex.org/work/W4400515993', 'https://semopenalex.org/work/W2977054173', 'https://semopenalex.org/work/W4387322936', 'https://semopenalex.org/work/W2539966993', 'https://semopenalex.org/work/W2540006586', 'https://semopenalex.org/work/W1990148059', 'https://semopenalex.org/work/W2804410540', 'https://semopenalex.org/work/W2066280901', 'https://semopenalex.org/work/W2999941952', 'https://semopenalex.org/work/W2983906786', 'https://semopenalex.org/work/W4312614504', 'https://semopenalex.org/work/W3083528472', 'https://semopenalex.org/work/W2912334744', 'https://semopenalex.org/work/W2620634483', 'https://semopenalex.org/work/W3205428400', 'https://semopenalex.org/work/W4396604650', 'https://semopenalex.org/work/W3133565115', 'https://semopenalex.org/work/W2784241930', 'https://semopenalex.org/work/W2154039139', 'https://semopenalex.org/work/W2064850826', 'https://semopenalex.org/work/W2782998407', 'https://semopenalex.org/work/W2799485966', 'https://semopenalex.org/work/W2118701267', 'https://semopenalex.org/work/W2344052410', 'https://semopenalex.org/work/W3085844533', 'https://semopenalex.org/work/W2039365023', 'https://semopenalex.org/work/W2779973510', 'https://semopenalex.org/work/W3144172827', 'https://semopenalex.org/work/W4367147664', 'https://semopenalex.org/work/W2916900328', 'https://semopenalex.org/work/W2010049933', 'https://semopenalex.org/work/W2949306598', 'https://semopenalex.org/work/W2321042880', 'https://semopenalex.org/work/W4296916443', 'https://semopenalex.org/work/W2946047926', 'https://semopenalex.org/work/W2100819606', 'https://semopenalex.org/work/W2004984354', 'https://semopenalex.org/work/W2905616463', 'https://semopenalex.org/work/W4393033575', 'https://semopenalex.org/work/W2964765424', 'https://semopenalex.org/work/W2900379070', 'https://semopenalex.org/work/W4390778218', 'https://semopenalex.org/work/W2906372377', 'https://semopenalex.org/work/W2129096944', 'https://semopenalex.org/work/W3181963703', 'https://semopenalex.org/work/W1972594074', 'https://semopenalex.org/work/W2737405495', 'https://semopenalex.org/work/W4205522738', 'https://semopenalex.org/work/W2017487069', 'https://semopenalex.org/work/W4328028090', 'https://semopenalex.org/work/W3142830832', 'https://semopenalex.org/work/W2528623020', 'https://semopenalex.org/work/W4392207726', 'https://semopenalex.org/work/W3135039935', 'https://semopenalex.org/work/W2051784811', 'https://semopenalex.org/work/W2145101624', 'https://semopenalex.org/work/W4313306257', 'https://semopenalex.org/work/W2786607830', 'https://semopenalex.org/work/W2036128771', 'https://semopenalex.org/work/W4288039534', 'https://semopenalex.org/work/W4393034258', 'https://semopenalex.org/work/W2883689704', 'https://semopenalex.org/work/W4378805022', 'https://semopenalex.org/work/W2808159133', 'https://semopenalex.org/work/W4365808277', 'https://semopenalex.org/work/W4285548139', 'https://semopenalex.org/work/W2158244986', 'https://semopenalex.org/work/W2016629668', 'https://semopenalex.org/work/W3117499383', 'https://semopenalex.org/work/W4328012044', 'https://semopenalex.org/work/W4293211890', 'https://semopenalex.org/work/W4282837228', 'https://semopenalex.org/work/W2564919106', 'https://semopenalex.org/work/W4285055114', 'https://semopenalex.org/work/W2128477511', 'https://semopenalex.org/work/W4296441394', 'https://semopenalex.org/work/W4206221314', 'https://semopenalex.org/work/W2737288996', 'https://semopenalex.org/work/W2137121156', 'https://semopenalex.org/work/W3200805258', 'https://semopenalex.org/work/W1968665462', 'https://semopenalex.org/work/W2141441280', 'https://semopenalex.org/work/W4388837994', 'https://semopenalex.org/work/W3086256320', 'https://semopenalex.org/work/W2031326270', 'https://semopenalex.org/work/W4393174751', 'https://semopenalex.org/work/W2116843437', 'https://semopenalex.org/work/W1971957085', 'https://semopenalex.org/work/W2028756273', 'https://semopenalex.org/work/W2188557470', 'https://semopenalex.org/work/W2995016007', 'https://semopenalex.org/work/W2928810931', 'https://semopenalex.org/work/W4312265249', 'https://semopenalex.org/work/W3167125565', 'https://semopenalex.org/work/W4387023949', 'https://semopenalex.org/work/W2034325389', 'https://semopenalex.org/work/W2167210003', 'https://semopenalex.org/work/W4384917079', 'https://semopenalex.org/work/W4406355769', 'https://semopenalex.org/work/W2095529201', 'https://semopenalex.org/work/W4224321673', 'https://semopenalex.org/work/W2051236310', 'https://semopenalex.org/work/W2289776346', 'https://semopenalex.org/work/W1968455523', 'https://semopenalex.org/work/W4392513104', 'https://semopenalex.org/work/W1990178810', 'https://semopenalex.org/work/W2991588661', 'https://semopenalex.org/work/W4367146924', 'https://semopenalex.org/work/W4295127425', 'https://semopenalex.org/work/W2548217541', 'https://semopenalex.org/work/W2289770078', 'https://semopenalex.org/work/W2174090751', 'https://semopenalex.org/work/W2905349707', 'https://semopenalex.org/work/W2103606916', 'https://semopenalex.org/work/W2533548130', 'https://semopenalex.org/work/W2145337100', 'https://semopenalex.org/work/W4213269113', 'https://semopenalex.org/work/W4210326058', 'https://semopenalex.org/work/W3112944858', 'https://semopenalex.org/work/W4307405043', 'https://semopenalex.org/work/W4385267612', 'https://semopenalex.org/work/W4404958656', 'https://semopenalex.org/work/W4386528085', 'https://semopenalex.org/work/W4386790563', 'https://semopenalex.org/work/W4391072497', 'https://semopenalex.org/work/W2466861718', 'https://semopenalex.org/work/W2081488658', 'https://semopenalex.org/work/W2124863572', 'https://semopenalex.org/work/W3139378559', 'https://semopenalex.org/work/W2181697561', 'https://semopenalex.org/work/W4313534837', 'https://semopenalex.org/work/W4226219986', 'https://semopenalex.org/work/W3005600351', 'https://semopenalex.org/work/W4387697022', 'https://semopenalex.org/work/W2566503827', 'https://semopenalex.org/work/W4328011761', 'https://semopenalex.org/work/W2473050328', 'https://semopenalex.org/work/W4212865190', 'https://semopenalex.org/work/W4387714660', 'https://semopenalex.org/work/W2887046167', 'https://semopenalex.org/work/W2547677547', 'https://semopenalex.org/work/W2529348703', 'https://semopenalex.org/work/W2401510428', 'https://semopenalex.org/work/W4400904607', 'https://semopenalex.org/work/W2151584377', 'https://semopenalex.org/work/W2796524784', 'https://semopenalex.org/work/W4390938914', 'https://semopenalex.org/work/W2120904939', 'https://semopenalex.org/work/W3040466764', 'https://semopenalex.org/work/W1978499995', 'https://semopenalex.org/work/W2118451262', 'https://semopenalex.org/work/W2800613805', 'https://semopenalex.org/work/W2060045560', 'https://semopenalex.org/work/W2605389968', 'https://semopenalex.org/work/W2258995161', 'https://semopenalex.org/work/W4389888434', 'https://semopenalex.org/work/W2562454548', 'https://semopenalex.org/work/W4295046603', 'https://semopenalex.org/work/W3125270863', 'https://semopenalex.org/work/W1525424336', 'https://semopenalex.org/work/W2591061174', 'https://semopenalex.org/work/W2138141935', 'https://semopenalex.org/work/W4402264038', 'https://semopenalex.org/work/W2768917932', 'https://semopenalex.org/work/W2889572683', 'https://semopenalex.org/work/W4297989904', 'https://semopenalex.org/work/W2551309437', 'https://semopenalex.org/work/W3004718696', 'https://semopenalex.org/work/W3110950550', 'https://semopenalex.org/work/W4389692495', 'https://semopenalex.org/work/W2059373588', 'https://semopenalex.org/work/W3016347687', 'https://semopenalex.org/work/W4402466985', 'https://semopenalex.org/work/W2413354569', 'https://semopenalex.org/work/W2292434057', 'https://semopenalex.org/work/W3143088633', 'https://semopenalex.org/work/W2001792450', 'https://semopenalex.org/work/W2002064143', 'https://semopenalex.org/work/W3214254401', 'https://semopenalex.org/work/W2966881022', 'https://semopenalex.org/work/W4404210445', 'https://semopenalex.org/work/W4366987396', 'https://semopenalex.org/work/W4226250318', 'https://semopenalex.org/work/W2000486418', 'https://semopenalex.org/work/W4224245749', 'https://semopenalex.org/work/W4285122724', 'https://semopenalex.org/work/W2997612014', 'https://semopenalex.org/work/W2154565949', 'https://semopenalex.org/work/W4323644072', 'https://semopenalex.org/work/W4318603823', 'https://semopenalex.org/work/W2910852288', 'https://semopenalex.org/work/W4294690843', 'https://semopenalex.org/work/W4312643037', 'https://semopenalex.org/work/W2967537836', 'https://semopenalex.org/work/W2520379429', 'https://semopenalex.org/work/W4386494434', 'https://semopenalex.org/work/W4386352842', 'https://semopenalex.org/work/W4386361261', 'https://semopenalex.org/work/W4367148069', 'https://semopenalex.org/work/W1966645219', 'https://semopenalex.org/work/W2035601794', 'https://semopenalex.org/work/W1857828242', 'https://semopenalex.org/work/W1971616362', 'https://semopenalex.org/work/W2919497189', 'https://semopenalex.org/work/W2964505054', 'https://semopenalex.org/work/W4389161163', 'https://semopenalex.org/work/W2351972364', 'https://semopenalex.org/work/W2139368697', 'https://semopenalex.org/work/W2743477693', 'https://semopenalex.org/work/W4367147772', 'https://semopenalex.org/work/W4392939659', 'https://semopenalex.org/work/W3076344446', 'https://semopenalex.org/work/W2135168342', 'https://semopenalex.org/work/W4220782062', 'https://semopenalex.org/work/W2115497161', 'https://semopenalex.org/work/W2391301195', 'https://semopenalex.org/work/W4205304527', 'https://semopenalex.org/work/W1035642985', 'https://semopenalex.org/work/W2069882645', 'https://semopenalex.org/work/W3215103574', 'https://semopenalex.org/work/W2901820813', 'https://semopenalex.org/work/W2593161952', 'https://semopenalex.org/work/W4387714810', 'https://semopenalex.org/work/W2535770837', 'https://semopenalex.org/work/W4312161546', 'https://semopenalex.org/work/W2538847865', 'https://semopenalex.org/work/W2905049939', 'https://semopenalex.org/work/W2289803878', 'https://semopenalex.org/work/W3134544950', 'https://semopenalex.org/work/W4403635673', 'https://semopenalex.org/work/W3127926476', 'https://semopenalex.org/work/W3163178830', 'https://semopenalex.org/work/W4388286311', 'https://semopenalex.org/work/W4360901644', 'https://semopenalex.org/work/W2168624747', 'https://semopenalex.org/work/W2060658651', 'https://semopenalex.org/work/W3105144424', 'https://semopenalex.org/work/W2557492665', 'https://semopenalex.org/work/W1964959731', 'https://semopenalex.org/work/W4392607874', 'https://semopenalex.org/work/W2887838626', 'https://semopenalex.org/work/W4386766558', 'https://semopenalex.org/work/W4311533450', 'https://semopenalex.org/work/W3184809481', 'https://semopenalex.org/work/W4393034150', 'https://semopenalex.org/work/W4367148117', 'https://semopenalex.org/work/W2291553515', 'https://semopenalex.org/work/W2765287619', 'https://semopenalex.org/work/W3192507507', 'https://semopenalex.org/work/W2110460866', 'https://semopenalex.org/work/W4395684973', 'https://semopenalex.org/work/W2898562797', 'https://semopenalex.org/work/W2941782253', 'https://semopenalex.org/work/W2556760577', 'https://semopenalex.org/work/W4392175577', 'https://semopenalex.org/work/W2115836030', 'https://semopenalex.org/work/W1497963603', 'https://semopenalex.org/work/W2561915240', 'https://semopenalex.org/work/W2120547457', 'https://semopenalex.org/work/W2134725794', 'https://semopenalex.org/work/W2289787480', 'https://semopenalex.org/work/W2901539986', 'https://semopenalex.org/work/W3017282193', 'https://semopenalex.org/work/W4404979988', 'https://semopenalex.org/work/W4320068529', 'https://semopenalex.org/work/W2920565953', 'https://semopenalex.org/work/W1963528679', 'https://semopenalex.org/work/W3201511537', 'https://semopenalex.org/work/W2291708615', 'https://semopenalex.org/work/W4282831232', 'https://semopenalex.org/work/W3018428182', 'https://semopenalex.org/work/W3033096606', 'https://semopenalex.org/work/W3047065943', 'https://semopenalex.org/work/W2970760542', 'https://semopenalex.org/work/W2782853409', 'https://semopenalex.org/work/W4402834371', 'https://semopenalex.org/work/W1505692277', 'https://semopenalex.org/work/W2517312722', 'https://semopenalex.org/work/W2915318915', 'https://semopenalex.org/work/W2904825736', 'https://semopenalex.org/work/W4399881765', 'https://semopenalex.org/work/W2782839007', 'https://semopenalex.org/work/W3216386918', 'https://semopenalex.org/work/W4312363564', 'https://semopenalex.org/work/W4213124543', 'https://semopenalex.org/work/W2729083427', 'https://semopenalex.org/work/W3023366540', 'https://semopenalex.org/work/W3041302202', 'https://semopenalex.org/work/W3196195396', 'https://semopenalex.org/work/W2029634930', 'https://semopenalex.org/work/W2888258411', 'https://semopenalex.org/work/W4312387367', 'https://semopenalex.org/work/W3034006897', 'https://semopenalex.org/work/W2719102196', 'https://semopenalex.org/work/W2566566708', 'https://semopenalex.org/work/W2998591860', 'https://semopenalex.org/work/W2168645783']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2787117880', 'https://semopenalex.org/work/W3114189270', 'https://semopenalex.org/work/W4400527808', 'https://semopenalex.org/work/W4221162127', 'https://semopenalex.org/work/W2888163892', 'https://semopenalex.org/work/W4385489024', 'https://semopenalex.org/work/W3188528620', 'https://semopenalex.org/work/W4386044088', 'https://semopenalex.org/work/W3014613652', 'https://semopenalex.org/work/W2986822919', 'https://semopenalex.org/work/W3101597364', 'https://semopenalex.org/work/W4404988180', 'https://semopenalex.org/work/W2997573805', 'https://semopenalex.org/work/W2972424355', 'https://semopenalex.org/work/W3035684383', 'https://semopenalex.org/work/W3022437633', 'https://semopenalex.org/work/W4320009753', 'https://semopenalex.org/work/W2913466142', 'https://semopenalex.org/work/W3137123492', 'https://semopenalex.org/work/W4224014834', 'https://semopenalex.org/work/W3136579074', 'https://semopenalex.org/work/W3126451397', 'https://semopenalex.org/work/W3007894033', 'https://semopenalex.org/work/W3139499926', 'https://semopenalex.org/work/W3195437714', 'https://semopenalex.org/work/W2996574577', 'https://semopenalex.org/work/W4394948067', 'https://semopenalex.org/work/W3212725128', 'https://semopenalex.org/work/W3209110530', 'https://semopenalex.org/work/W4252150734', 'https://semopenalex.org/work/W3088160891', 'https://semopenalex.org/work/W2969182950', 'https://semopenalex.org/work/W4293585133', 'https://semopenalex.org/work/W3207776446', 'https://semopenalex.org/work/W4312293932', 'https://semopenalex.org/work/W4287068220', 'https://semopenalex.org/work/W4395687580', 'https://semopenalex.org/work/W4200628991', 'https://semopenalex.org/work/W3156185860', 'https://semopenalex.org/work/W4398156585', 'https://semopenalex.org/work/W4391980038', 'https://semopenalex.org/work/W4402904139', 'https://semopenalex.org/work/W4200560875', 'https://semopenalex.org/work/W3182129567', 'https://semopenalex.org/work/W3215869014', 'https://semopenalex.org/work/W3158615621', 'https://semopenalex.org/work/W3185989052', 'https://semopenalex.org/work/W4287822968', 'https://semopenalex.org/work/W3184989806', 'https://semopenalex.org/work/W4400527492', 'https://semopenalex.org/work/W3187413453', 'https://semopenalex.org/work/W4298544123', 'https://semopenalex.org/work/W4389519214', 'https://semopenalex.org/work/W4390874790', 'https://semopenalex.org/work/W4312262410', 'https://semopenalex.org/work/W4200338016', 'https://semopenalex.org/work/W4251566388', 'https://semopenalex.org/work/W3008209689', 'https://semopenalex.org/work/W4301131967', 'https://semopenalex.org/work/W3178180605', 'https://semopenalex.org/work/W4293161686', 'https://semopenalex.org/work/W3170528657', 'https://semopenalex.org/work/W4394647969', 'https://semopenalex.org/work/W3203158837', 'https://semopenalex.org/work/W4385764233', 'https://semopenalex.org/work/W3034765865', 'https://semopenalex.org/work/W4312705355', 'https://semopenalex.org/work/W3158336705', 'https://semopenalex.org/work/W4287081849', 'https://semopenalex.org/work/W4396913892', 'https://semopenalex.org/work/W3046138787', 'https://semopenalex.org/work/W4287822736', 'https://semopenalex.org/work/W4286783899', 'https://semopenalex.org/work/W4312541592', 'https://semopenalex.org/work/W3126473778', 'https://semopenalex.org/work/W4288864169', 'https://semopenalex.org/work/W4312987540', 'https://semopenalex.org/work/W4221139182', 'https://semopenalex.org/work/W4384807954', 'https://semopenalex.org/work/W3100717519', 'https://semopenalex.org/work/W3013080309', 'https://semopenalex.org/work/W4392933323', 'https://semopenalex.org/work/W4289785280', 'https://semopenalex.org/work/W4283695942', 'https://semopenalex.org/work/W3204322065', 'https://semopenalex.org/work/W4394948053', 'https://semopenalex.org/work/W4287141413', 'https://semopenalex.org/work/W3181073899', 'https://semopenalex.org/work/W3161716357', 'https://semopenalex.org/work/W3175370919', 'https://semopenalex.org/work/W3153883354', 'https://semopenalex.org/work/W3021881370', 'https://semopenalex.org/work/W4288853838', 'https://semopenalex.org/work/W4386044022', 'https://semopenalex.org/work/W3015075688', 'https://semopenalex.org/work/W3089582082', 'https://semopenalex.org/work/W4230527737', 'https://semopenalex.org/work/W3013092573', 'https://semopenalex.org/work/W4287822940', 'https://semopenalex.org/work/W4287990567', 'https://semopenalex.org/work/W4287263991', 'https://semopenalex.org/work/W4400527591', 'https://semopenalex.org/work/W3195626503', 'https://semopenalex.org/work/W4292829106', 'https://semopenalex.org/work/W4306178227', 'https://semopenalex.org/work/W3209714413', 'https://semopenalex.org/work/W4386069017', 'https://semopenalex.org/work/W2941870244', 'https://semopenalex.org/work/W2799020610', 'https://semopenalex.org/work/W4287208746', 'https://semopenalex.org/work/W4297823196', 'https://semopenalex.org/work/W4385002722', 'https://semopenalex.org/work/W4288897652', 'https://semopenalex.org/work/W4400527813', 'https://semopenalex.org/work/W4319336332', 'https://semopenalex.org/work/W4237531552', 'https://semopenalex.org/work/W4385484931', 'https://semopenalex.org/work/W3128169604', 'https://semopenalex.org/work/W4285563099', 'https://semopenalex.org/work/W4391630218', 'https://semopenalex.org/work/W4392488099', 'https://semopenalex.org/work/W2976881356', 'https://semopenalex.org/work/W3120808211', 'https://semopenalex.org/work/W4287070342', 'https://semopenalex.org/work/W4402502660', 'https://semopenalex.org/work/W2972050850', 'https://semopenalex.org/work/W4312903731', 'https://semopenalex.org/work/W4289550833', 'https://semopenalex.org/work/W2937532208', 'https://semopenalex.org/work/W4309873272', 'https://semopenalex.org/work/W4406524575', 'https://semopenalex.org/work/W3120604548', 'https://semopenalex.org/work/W4390190325', 'https://semopenalex.org/work/W4287271714', 'https://semopenalex.org/work/W4302012844', 'https://semopenalex.org/work/W3161569725', 'https://semopenalex.org/work/W4390189793', 'https://semopenalex.org/work/W3139116348', 'https://semopenalex.org/work/W4226484154', 'https://semopenalex.org/work/W3103017991', 'https://semopenalex.org/work/W4390190222', 'https://semopenalex.org/work/W3081562204', 'https://semopenalex.org/work/W4361807104', 'https://semopenalex.org/work/W2781902187', 'https://semopenalex.org/work/W3193694068', 'https://semopenalex.org/work/W3133932964', 'https://semopenalex.org/work/W4366198559', 'https://semopenalex.org/work/W2962689474', 'https://semopenalex.org/work/W3034875137', 'https://semopenalex.org/work/W4287864395', 'https://semopenalex.org/work/W4287854900', 'https://semopenalex.org/work/W4287659757', 'https://semopenalex.org/work/W4287679359', 'https://semopenalex.org/work/W4390874573', 'https://semopenalex.org/work/W2983383098', 'https://semopenalex.org/work/W4392971989', 'https://semopenalex.org/work/W4385714105', 'https://semopenalex.org/work/W3000280594', 'https://semopenalex.org/work/W4396814528', 'https://semopenalex.org/work/W4297748315', 'https://semopenalex.org/work/W3035434014', 'https://semopenalex.org/work/W4385801394', 'https://semopenalex.org/work/W4288854368', 'https://semopenalex.org/work/W2895638065', 'https://semopenalex.org/work/W4226112052', 'https://semopenalex.org/work/W4287205368', 'https://semopenalex.org/work/W2995697759', 'https://semopenalex.org/work/W3205150709', 'https://semopenalex.org/work/W3013912585', 'https://semopenalex.org/work/W3107972479', 'https://semopenalex.org/work/W4287081323', 'https://semopenalex.org/work/W3136988982', 'https://semopenalex.org/work/W4288023982', 'https://semopenalex.org/work/W4401415202', 'https://semopenalex.org/work/W4200024628', 'https://semopenalex.org/work/W4320036968', 'https://semopenalex.org/work/W4224928639', 'https://semopenalex.org/work/W4386114434', 'https://semopenalex.org/work/W3185096436', 'https://semopenalex.org/work/W3210107892', 'https://semopenalex.org/work/W4286911846']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W4224295260', 'https://semopenalex.org/work/W4399991068', 'https://semopenalex.org/work/W4213455810', 'https://semopenalex.org/work/W4392473011', 'https://semopenalex.org/work/W4200494113', 'https://semopenalex.org/work/W4281670064', 'https://semopenalex.org/work/W3158973558', 'https://semopenalex.org/work/W3172648176']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W4390604119', 'https://semopenalex.org/work/W4403094633', 'https://semopenalex.org/work/W4312804251', 'https://semopenalex.org/work/W4386065896']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W4406802119', 'https://semopenalex.org/work/W4392180008', 'https://semopenalex.org/work/W4406620652', 'https://semopenalex.org/work/W4405564152', 'https://semopenalex.org/work/W4391680987', 'https://semopenalex.org/work/W4401879044', 'https://semopenalex.org/work/W4405643736', 'https://semopenalex.org/work/W4396509789', 'https://semopenalex.org/work/W4404839780', 'https://semopenalex.org/work/W4404849982', 'https://semopenalex.org/work/W4405718129', 'https://semopenalex.org/work/W4391903798']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W4397028829', 'https://semopenalex.org/work/W4283820999', 'https://semopenalex.org/work/W4225563550', 'https://semopenalex.org/work/W4390214908', 'https://semopenalex.org/work/W2890113545', 'https://semopenalex.org/work/W2896288697', 'https://semopenalex.org/work/W4287125868', 'https://semopenalex.org/work/W2971887426', 'https://semopenalex.org/work/W2911917123', 'https://semopenalex.org/work/W4387976170', 'https://semopenalex.org/work/W2965199304', 'https://semopenalex.org/work/W2831356539', 'https://semopenalex.org/work/W2898415992', 'https://semopenalex.org/work/W4387390186', 'https://semopenalex.org/work/W3128979101', 'https://semopenalex.org/work/W2893252084', 'https://semopenalex.org/work/W4206480932', 'https://semopenalex.org/work/W2949627261', 'https://semopenalex.org/work/W2918439752', 'https://semopenalex.org/work/W2999025119', 'https://semopenalex.org/work/W4399910979', 'https://semopenalex.org/work/W4206564787', 'https://semopenalex.org/work/W4377130595', 'https://semopenalex.org/work/W4287830420']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W4400410445', 'https://semopenalex.org/work/W4399070942', 'https://semopenalex.org/work/W4391010236', 'https://semopenalex.org/work/W4400410989', 'https://semopenalex.org/work/W4396787938', 'https://semopenalex.org/work/W4391928869']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W4283322066', 'https://semopenalex.org/work/W4376171783', 'https://semopenalex.org/work/W4376210033', 'https://semopenalex.org/work/W3108935870', 'https://semopenalex.org/work/W3008842679', 'https://semopenalex.org/work/W3140085153', 'https://semopenalex.org/work/W3095401597', 'https://semopenalex.org/work/W4283320724', 'https://semopenalex.org/work/W4362502510', 'https://semopenalex.org/work/W4321503169', 'https://semopenalex.org/work/W4362464651', 'https://semopenalex.org/work/W4362464600', 'https://semopenalex.org/work/W4321230650']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/source/S4363608993', 'https://semopenalex.org/source/S130363450', 'https://semopenalex.org/source/S4306401429', 'https://semopenalex.org/source/S97147119', 'https://semopenalex.org/source/S166722454', 'https://semopenalex.org/source/S4306401476', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S4308707206', 'https://semopenalex.org/source/S86033158', 'https://semopenalex.org/source/S89276529', 'https://semopenalex.org/source/S4306400834', 'https://semopenalex.org/source/S2764691006', 'https://semopenalex.org/source/S4306401353', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S4306402512', 'https://semopenalex.org/source/S94821547', 'https://semopenalex.org/source/S73201230', 'https://semopenalex.org/source/S4363608825', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S4306401716', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S4363608709', 'https://semopenalex.org/source/S4306524001', 'https://semopenalex.org/source/S4306498881', 'https://semopenalex.org/source/S4306522928', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S4306401163', 'https://semopenalex.org/source/S4306508766', 'https://semopenalex.org/source/S6725529', 'https://semopenalex.org/source/S142259175', 'https://semopenalex.org/source/S4306498714', 'https://semopenalex.org/source/S4220651901', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S4306401649', 'https://semopenalex.org/source/S103482838', 'https://semopenalex.org/source/S4306417782', 'https://semopenalex.org/source/S4210170956', 'https://semopenalex.org/source/S4306402566', 'https://semopenalex.org/source/S2764465379', 'https://semopenalex.org/source/S4306464149', 'https://semopenalex.org/source/S4306525036']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/source/S89023782', 'https://semopenalex.org/source/S4363607719', 'https://semopenalex.org/source/S414566', 'https://semopenalex.org/source/S105424869', 'https://semopenalex.org/source/S110206669', 'https://semopenalex.org/source/S2765071880', 'https://semopenalex.org/source/S4210175330', 'https://semopenalex.org/source/S137030581', 'https://semopenalex.org/source/S2596394214', 'https://semopenalex.org/source/S177430994', 'https://semopenalex.org/source/S4363608757', 'https://semopenalex.org/source/S153378518', 'https://semopenalex.org/source/S182038535', 'https://semopenalex.org/source/S6505649', 'https://semopenalex.org/source/S4306402512', 'https://semopenalex.org/source/S4363607795', 'https://semopenalex.org/source/S2765052158', 'https://semopenalex.org/source/S4210215848', 'https://semopenalex.org/source/S4306498492', 'https://semopenalex.org/source/S4210224179', 'https://semopenalex.org/source/S116775814', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S2764878997', 'https://semopenalex.org/source/S161516442', 'https://semopenalex.org/source/S4306419272', 'https://semopenalex.org/source/S4393916651', 'https://semopenalex.org/source/S189700591', 'https://semopenalex.org/source/S4363607879', 'https://semopenalex.org/source/S4306506385', 'https://semopenalex.org/source/S166095821', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S155209994', 'https://semopenalex.org/source/S4210217284', 'https://semopenalex.org/source/S45693802', 'https://semopenalex.org/source/S2764900261', 'https://semopenalex.org/source/S4363607799', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S184777250', 'https://semopenalex.org/source/S4306500161', 'https://semopenalex.org/source/S2764645039', 'https://semopenalex.org/source/S4387283722', 'https://semopenalex.org/source/S72873717', 'https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S4210198061', 'https://semopenalex.org/source/S125677163', 'https://semopenalex.org/source/S4210197184', 'https://semopenalex.org/source/S110785341', 'https://semopenalex.org/source/S2764802425', 'https://semopenalex.org/source/S4210191458', 'https://semopenalex.org/source/S4306402450', 'https://semopenalex.org/source/S4210185969', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S4306463409', 'https://semopenalex.org/source/S4306401925', 'https://semopenalex.org/source/S19610489', 'https://semopenalex.org/source/S4210172589', 'https://semopenalex.org/source/S4363607701', 'https://semopenalex.org/source/S4363608128', 'https://semopenalex.org/source/S169266912', 'https://semopenalex.org/source/S98026630', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S183492911', 'https://semopenalex.org/source/S151820558', 'https://semopenalex.org/source/S199944782', 'https://semopenalex.org/source/S81330323', 'https://semopenalex.org/source/S157921468', 'https://semopenalex.org/source/S113449338', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S2764462749', 'https://semopenalex.org/source/S4306499256', 'https://semopenalex.org/source/S4393917449', 'https://semopenalex.org/source/S4210200093', 'https://semopenalex.org/source/S4210173141', 'https://semopenalex.org/source/S4363607764', 'https://semopenalex.org/source/S4363607734', 'https://semopenalex.org/source/S4306535968', 'https://semopenalex.org/source/S115173108', 'https://semopenalex.org/source/S112262039', 'https://semopenalex.org/source/S4387282845', 'https://semopenalex.org/source/S4306420609', 'https://semopenalex.org/source/S4306417896', 'https://semopenalex.org/source/S115304631', 'https://semopenalex.org/source/S2764884854', 'https://semopenalex.org/source/S4363608440', 'https://semopenalex.org/source/S2911247321', 'https://semopenalex.org/source/S2737939966', 'https://semopenalex.org/source/S185008460', 'https://semopenalex.org/source/S7560371']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/source/S101949793', 'https://semopenalex.org/source/S4210184905', 'https://semopenalex.org/source/S4210177502', 'https://semopenalex.org/source/S1250476', 'https://semopenalex.org/source/S4306402641', 'https://semopenalex.org/source/S4306417563', 'https://semopenalex.org/source/S4210219776', 'https://semopenalex.org/source/S34838331', 'https://semopenalex.org/source/S4306418564', 'https://semopenalex.org/source/S4306402512', 'https://semopenalex.org/source/S30128005', 'https://semopenalex.org/source/S85375271', 'https://semopenalex.org/source/S153984684', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S4210233398', 'https://semopenalex.org/source/S37879656', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S4210177346', 'https://semopenalex.org/source/S4210187232', 'https://semopenalex.org/source/S86192639', 'https://semopenalex.org/source/S4210191760', 'https://semopenalex.org/source/S4306418113', 'https://semopenalex.org/source/S2738664114', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S4306400562', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S4363608934', 'https://semopenalex.org/source/S63392143', 'https://semopenalex.org/source/S4210170441', 'https://semopenalex.org/source/S52395412', 'https://semopenalex.org/source/S116972989', 'https://semopenalex.org/source/S136993123', 'https://semopenalex.org/source/S120348307', 'https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S11065456', 'https://semopenalex.org/source/S4210187899', 'https://semopenalex.org/source/S4306421096', 'https://semopenalex.org/source/S4210197804', 'https://semopenalex.org/source/S4306417857', 'https://semopenalex.org/source/S4306402450', 'https://semopenalex.org/source/S60711021', 'https://semopenalex.org/source/S140982614', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S4306400483', 'https://semopenalex.org/source/S4306419550', 'https://semopenalex.org/source/S4210175514', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S186357190', 'https://semopenalex.org/source/S157921468', 'https://semopenalex.org/source/S4210174798', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S157146593', 'https://semopenalex.org/source/S4363605881', 'https://semopenalex.org/source/S4210175912', 'https://semopenalex.org/source/S4210177528', 'https://semopenalex.org/source/S4306524001', 'https://semopenalex.org/source/S2485537415', 'https://semopenalex.org/source/S158797327', 'https://semopenalex.org/source/S129236917', 'https://semopenalex.org/source/S157670870', 'https://semopenalex.org/source/S4306420911', 'https://semopenalex.org/source/S4306419875', 'https://semopenalex.org/source/S64245694', 'https://semopenalex.org/source/S207090427', 'https://semopenalex.org/source/S96783963', 'https://semopenalex.org/source/S2764435056', 'https://semopenalex.org/source/S115004586', 'https://semopenalex.org/source/S4306419921', 'https://semopenalex.org/source/S4306421051', 'https://semopenalex.org/source/S97833917', 'https://semopenalex.org/source/S58563349', 'https://semopenalex.org/source/S126644992', 'https://semopenalex.org/source/S4210194901', 'https://semopenalex.org/source/S36560696', 'https://semopenalex.org/source/S106148199', 'https://semopenalex.org/source/S147790641']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/source/S81770430', 'https://semopenalex.org/source/S58832373', 'https://semopenalex.org/source/S71857517', 'https://semopenalex.org/source/S414566', 'https://semopenalex.org/source/S110206669', 'https://semopenalex.org/source/S4363607873', 'https://semopenalex.org/source/S11479521', 'https://semopenalex.org/source/S2595131146', 'https://semopenalex.org/source/S33781645', 'https://semopenalex.org/source/S106685023', 'https://semopenalex.org/source/S4306515065', 'https://semopenalex.org/source/S4306533040', 'https://semopenalex.org/source/S4210177381', 'https://semopenalex.org/source/S4210226185', 'https://semopenalex.org/source/S35927321', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S161516442', 'https://semopenalex.org/source/S4363608755', 'https://semopenalex.org/source/S4306402492', 'https://semopenalex.org/source/S4306531565', 'https://semopenalex.org/source/S4306401809', 'https://semopenalex.org/source/S4363607857', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S2764900261', 'https://semopenalex.org/source/S45693802', 'https://semopenalex.org/source/S2486411021', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S207319443', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S4363608762', 'https://semopenalex.org/source/S4306401596', 'https://semopenalex.org/source/S4121844', 'https://semopenalex.org/source/S4306400806', 'https://semopenalex.org/source/S4306500161', 'https://semopenalex.org/source/S4210168194', 'https://semopenalex.org/source/S4363607707', 'https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S11065456', 'https://semopenalex.org/source/S4363607862', 'https://semopenalex.org/source/S191726168', 'https://semopenalex.org/source/S27924493', 'https://semopenalex.org/source/S150382113', 'https://semopenalex.org/source/S4210191458', 'https://semopenalex.org/source/S144771191', 'https://semopenalex.org/source/S2764461748', 'https://semopenalex.org/source/S47192491', 'https://semopenalex.org/source/S4210202905', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S4210172589', 'https://semopenalex.org/source/S4306402579', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S186357190', 'https://semopenalex.org/source/S4363607726', 'https://semopenalex.org/source/S30698027', 'https://semopenalex.org/source/S2492086750', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S4306536006', 'https://semopenalex.org/source/S4306402607', 'https://semopenalex.org/source/S2485537415', 'https://semopenalex.org/source/S129236917', 'https://semopenalex.org/source/S36033921', 'https://semopenalex.org/source/S4306401843', 'https://semopenalex.org/source/S10169007', 'https://semopenalex.org/source/S4363608845', 'https://semopenalex.org/source/S4306402105', 'https://semopenalex.org/source/S4210170305', 'https://semopenalex.org/source/S4306402523', 'https://semopenalex.org/source/S4210231404', 'https://semopenalex.org/source/S78082969', 'https://semopenalex.org/source/S4363608767', 'https://semopenalex.org/source/S4363608094', 'https://semopenalex.org/source/S4363608109', 'https://semopenalex.org/source/S60779006', 'https://semopenalex.org/source/S127900037']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/source/S4210212400', 'https://semopenalex.org/source/S4363608614', 'https://semopenalex.org/source/S4363607711', 'https://semopenalex.org/source/S2495878607', 'https://semopenalex.org/source/S975621743', 'https://semopenalex.org/source/S4363608918', 'https://semopenalex.org/source/S4210214825', 'https://semopenalex.org/source/S4210213674', 'https://semopenalex.org/source/S21313077', 'https://semopenalex.org/source/S177430994', 'https://semopenalex.org/source/S4363607705', 'https://semopenalex.org/source/S68719679', 'https://semopenalex.org/source/S4210226272', 'https://semopenalex.org/source/S4363607712', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S178916657', 'https://semopenalex.org/source/S4210195248', 'https://semopenalex.org/source/S2595095599', 'https://semopenalex.org/source/S4210171255', 'https://semopenalex.org/source/S4306497580', 'https://semopenalex.org/source/S4210211936', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S91329792', 'https://semopenalex.org/source/S56112914', 'https://semopenalex.org/source/S4363608116', 'https://semopenalex.org/source/S4306401722', 'https://semopenalex.org/source/S92163612', 'https://semopenalex.org/source/S131921510', 'https://semopenalex.org/source/S2764900261', 'https://semopenalex.org/source/S4210169774', 'https://semopenalex.org/source/S2764905038', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S4363608034', 'https://semopenalex.org/source/S4306464320', 'https://semopenalex.org/source/S4363607702', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S4363608199', 'https://semopenalex.org/source/S45696439', 'https://semopenalex.org/source/S4306400806', 'https://semopenalex.org/source/S76152103', 'https://semopenalex.org/source/S131145815', 'https://semopenalex.org/source/S41486457', 'https://semopenalex.org/source/S4210233094', 'https://semopenalex.org/source/S58778951', 'https://semopenalex.org/source/S2764763012', 'https://semopenalex.org/source/S4210212235', 'https://semopenalex.org/source/S124503262', 'https://semopenalex.org/source/S15952048', 'https://semopenalex.org/source/S144091109', 'https://semopenalex.org/source/S111927887', 'https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S4363608837', 'https://semopenalex.org/source/S52732750', 'https://semopenalex.org/source/S179591353', 'https://semopenalex.org/source/S45281609', 'https://semopenalex.org/source/S4306402118', 'https://semopenalex.org/source/S195488530', 'https://semopenalex.org/source/S4210191458', 'https://semopenalex.org/source/S4306400385', 'https://semopenalex.org/source/S133768115', 'https://semopenalex.org/source/S4210211086', 'https://semopenalex.org/source/S34730769', 'https://semopenalex.org/source/S4306462788', 'https://semopenalex.org/source/S62507282', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S4363607828', 'https://semopenalex.org/source/S4306463409', 'https://semopenalex.org/source/S4363607759', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S4306463687', 'https://semopenalex.org/source/S137468011', 'https://semopenalex.org/source/S201921491', 'https://semopenalex.org/source/S116420536', 'https://semopenalex.org/source/S4210240769', 'https://semopenalex.org/source/S183492911', 'https://semopenalex.org/source/S157664362', 'https://semopenalex.org/source/S4306402651', 'https://semopenalex.org/source/S4306419999', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S4306419250', 'https://semopenalex.org/source/S202381698', 'https://semopenalex.org/source/S11296630', 'https://semopenalex.org/source/S4210224236', 'https://semopenalex.org/source/S4363607734', 'https://semopenalex.org/source/S4306462995', 'https://semopenalex.org/source/S2764696622', 'https://semopenalex.org/source/S84339699', 'https://semopenalex.org/source/S4210179954', 'https://semopenalex.org/source/S4306417879', 'https://semopenalex.org/source/S104717114', 'https://semopenalex.org/source/S4210212310', 'https://semopenalex.org/source/S4306533995', 'https://semopenalex.org/source/S4306463708', 'https://semopenalex.org/source/S170217976', 'https://semopenalex.org/source/S185008460', 'https://semopenalex.org/source/S107964287', 'https://semopenalex.org/source/S4210205812']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2951337996', 'https://semopenalex.org/work/W2893632568']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2952648029', 'https://semopenalex.org/work/W2535846100', 'https://semopenalex.org/work/W3037554454', 'https://semopenalex.org/work/W2797304630', 'https://semopenalex.org/work/W2770068518', 'https://semopenalex.org/work/W2973574727', 'https://semopenalex.org/work/W2917509290', 'https://semopenalex.org/work/W2579543964', 'https://semopenalex.org/work/W2793980407', 'https://semopenalex.org/work/W2901496061', 'https://semopenalex.org/work/W4230018104', 'https://semopenalex.org/work/W3022089151', 'https://semopenalex.org/work/W2903327589', 'https://semopenalex.org/work/W2789779636']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W3136039572', 'https://semopenalex.org/work/W3091137588', 'https://semopenalex.org/work/W2966722901', 'https://semopenalex.org/work/W2517398904', 'https://semopenalex.org/work/W3090190726', 'https://semopenalex.org/work/W2899253255', 'https://semopenalex.org/work/W2531687916', 'https://semopenalex.org/work/W2411915861', 'https://semopenalex.org/work/W2757796760', 'https://semopenalex.org/work/W2738349648', 'https://semopenalex.org/work/W2971488950', 'https://semopenalex.org/work/W2902328474']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W70616053', 'https://semopenalex.org/work/W1973831520', 'https://semopenalex.org/work/W2319292411', 'https://semopenalex.org/work/W2158181764', 'https://semopenalex.org/work/W1590316067', 'https://semopenalex.org/work/W2109885309', 'https://semopenalex.org/work/W1850858835', 'https://semopenalex.org/work/W2116825370']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2056596857', 'https://semopenalex.org/work/W2100356383', 'https://semopenalex.org/work/W1971453213', 'https://semopenalex.org/work/W2146830885', 'https://semopenalex.org/work/W2155878381', 'https://semopenalex.org/work/W4292013335', 'https://semopenalex.org/work/W1584905179', 'https://semopenalex.org/work/W2087682696', 'https://semopenalex.org/work/W2322381474', 'https://semopenalex.org/work/W1536752040', 'https://semopenalex.org/work/W2023461062', 'https://semopenalex.org/work/W2497935614', 'https://semopenalex.org/work/W1575176919', 'https://semopenalex.org/work/W1576645054', 'https://semopenalex.org/work/W1481479141', 'https://semopenalex.org/work/W2402284853', 'https://semopenalex.org/work/W2113401317', 'https://semopenalex.org/work/W1510701494', 'https://semopenalex.org/work/W1815020819', 'https://semopenalex.org/work/W1533819156', 'https://semopenalex.org/work/W2398987174', 'https://semopenalex.org/work/W2768865949', 'https://semopenalex.org/work/W61308258', 'https://semopenalex.org/work/W2055897235', 'https://semopenalex.org/work/W2501927875', 'https://semopenalex.org/work/W2159677278', 'https://semopenalex.org/work/W1575252762', 'https://semopenalex.org/work/W1591196343', 'https://semopenalex.org/work/W1582766542', 'https://semopenalex.org/work/W1504849558', 'https://semopenalex.org/work/W2157877717', 'https://semopenalex.org/work/W2126729622', 'https://semopenalex.org/work/W2274048031', 'https://semopenalex.org/work/W2912169901', 'https://semopenalex.org/work/W2241306549', 'https://semopenalex.org/work/W1482090313', 'https://semopenalex.org/work/W1489802521', 'https://semopenalex.org/work/W2258785380', 'https://semopenalex.org/work/W2001181659', 'https://semopenalex.org/work/W1528198126', 'https://semopenalex.org/work/W1555904986', 'https://semopenalex.org/work/W177260087', 'https://semopenalex.org/work/W1976471311', 'https://semopenalex.org/work/W4236474819', 'https://semopenalex.org/work/W116884602']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2889884420', 'https://semopenalex.org/work/W3159979295', 'https://semopenalex.org/work/W2748314524', 'https://semopenalex.org/work/W2992981726', 'https://semopenalex.org/work/W1655873221', 'https://semopenalex.org/work/W3187215878', 'https://semopenalex.org/work/W3006566709', 'https://semopenalex.org/work/W4285110082', 'https://semopenalex.org/work/W2768870947', 'https://semopenalex.org/work/W2550759882', 'https://semopenalex.org/work/W3021110371', 'https://semopenalex.org/work/W4388516580', 'https://semopenalex.org/work/W2954810672', 'https://semopenalex.org/work/W2891512295', 'https://semopenalex.org/work/W2972785924', 'https://semopenalex.org/work/W2953737621', 'https://semopenalex.org/work/W2896117075', 'https://semopenalex.org/work/W2897786071', 'https://semopenalex.org/work/W2956698489', 'https://semopenalex.org/work/W3165640481']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W1984905848', 'https://semopenalex.org/work/W2077395955', 'https://semopenalex.org/work/W1912917402', 'https://semopenalex.org/work/W2114233612', 'https://semopenalex.org/work/W1500154637', 'https://semopenalex.org/work/W2102195169', 'https://semopenalex.org/work/W2147427359', 'https://semopenalex.org/work/W2057938070', 'https://semopenalex.org/work/W2084452057', 'https://semopenalex.org/work/W1983778833', 'https://semopenalex.org/work/W1967044695', 'https://semopenalex.org/work/W2146661121', 'https://semopenalex.org/work/W3146442409', 'https://semopenalex.org/work/W1978468648', 'https://semopenalex.org/work/W2058758829', 'https://semopenalex.org/work/W2029593259', 'https://semopenalex.org/work/W2014659753', 'https://semopenalex.org/work/W2005155776', 'https://semopenalex.org/work/W1522292253', 'https://semopenalex.org/work/W2032444227']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/author/A5013110001', 'https://semopenalex.org/author/A5058247387', 'https://semopenalex.org/author/A5075932839', 'https://semopenalex.org/author/A5110460780', 'https://semopenalex.org/author/A5080836461', 'https://semopenalex.org/author/A5090449185', 'https://semopenalex.org/author/A5035580428', 'https://semopenalex.org/author/A5077257267', 'https://semopenalex.org/author/A5105909288', 'https://semopenalex.org/author/A5065832212', 'https://semopenalex.org/author/A5040600354', 'https://semopenalex.org/author/A5003377833', 'https://semopenalex.org/author/A5063808461', 'https://semopenalex.org/author/A5043204660', 'https://semopenalex.org/author/A5036435300', 'https://semopenalex.org/author/A5000625068', 'https://semopenalex.org/author/A5100746068', 'https://semopenalex.org/author/A5028549991', 'https://semopenalex.org/author/A5001965218', 'https://semopenalex.org/author/A5001142566', 'https://semopenalex.org/author/A5086336877', 'https://semopenalex.org/author/A5007195926', 'https://semopenalex.org/author/A5041301436', 'https://semopenalex.org/author/A5031511752', 'https://semopenalex.org/author/A5005993212', 'https://semopenalex.org/author/A5050062467', 'https://semopenalex.org/author/A5039651585', 'https://semopenalex.org/author/A5033311124', 'https://semopenalex.org/author/A5084821293', 'https://semopenalex.org/author/A5049954115', 'https://semopenalex.org/author/A5048273330', 'https://semopenalex.org/author/A5032703090', 'https://semopenalex.org/author/A5088359990', 'https://semopenalex.org/author/A5013955991', 'https://semopenalex.org/author/A5087238275', 'https://semopenalex.org/author/A5004960011', 'https://semopenalex.org/author/A5038296283', 'https://semopenalex.org/author/A5080334275', 'https://semopenalex.org/author/A5074093929', 'https://semopenalex.org/author/A5050938227', 'https://semopenalex.org/author/A5066907092', 'https://semopenalex.org/author/A5037735021', 'https://semopenalex.org/author/A5008995859', 'https://semopenalex.org/author/A5025631482', 'https://semopenalex.org/author/A5026577233', 'https://semopenalex.org/author/A5065490876', 'https://semopenalex.org/author/A5009439432', 'https://semopenalex.org/author/A5068664163', 'https://semopenalex.org/author/A5073723754', 'https://semopenalex.org/author/A5080729232', 'https://semopenalex.org/author/A5018323496', 'https://semopenalex.org/author/A5081468313', 'https://semopenalex.org/author/A5076497670', 'https://semopenalex.org/author/A5028596543', 'https://semopenalex.org/author/A5015327313', 'https://semopenalex.org/author/A5040706665', 'https://semopenalex.org/author/A5108075115', 'https://semopenalex.org/author/A5057375178', 'https://semopenalex.org/author/A5091510486', 'https://semopenalex.org/author/A5032218136', 'https://semopenalex.org/author/A5098014068', 'https://semopenalex.org/author/A5022523197', 'https://semopenalex.org/author/A5002385420', 'https://semopenalex.org/author/A5070920982', 'https://semopenalex.org/author/A5049320278', 'https://semopenalex.org/author/A5041856505', 'https://semopenalex.org/author/A5079336821', 'https://semopenalex.org/author/A5051593939', 'https://semopenalex.org/author/A5106099412', 'https://semopenalex.org/author/A5016116024', 'https://semopenalex.org/author/A5016671506', 'https://semopenalex.org/author/A5053751744', 'https://semopenalex.org/author/A5108282938', 'https://semopenalex.org/author/A5111572354', 'https://semopenalex.org/author/A5016577686', 'https://semopenalex.org/author/A5016964202', 'https://semopenalex.org/author/A5028491017', 'https://semopenalex.org/author/A5043305706', 'https://semopenalex.org/author/A5033957848', 'https://semopenalex.org/author/A5045376373', 'https://semopenalex.org/author/A5084600567', 'https://semopenalex.org/author/A5080758138', 'https://semopenalex.org/author/A5005238560', 'https://semopenalex.org/author/A5065696246', 'https://semopenalex.org/author/A5039693029', 'https://semopenalex.org/author/A5105388814', 'https://semopenalex.org/author/A5019247404', 'https://semopenalex.org/author/A5001183868', 'https://semopenalex.org/author/A5110589505', 'https://semopenalex.org/author/A5083984866', 'https://semopenalex.org/author/A5108261926', 'https://semopenalex.org/author/A5055271621', 'https://semopenalex.org/author/A5078581206', 'https://semopenalex.org/author/A5075723995', 'https://semopenalex.org/author/A5030117072', 'https://semopenalex.org/author/A5021985940', 'https://semopenalex.org/author/A5019200294', 'https://semopenalex.org/author/A5014610321', 'https://semopenalex.org/author/A5043739847', 'https://semopenalex.org/author/A5050428872', 'https://semopenalex.org/author/A5050865451', 'https://semopenalex.org/author/A5105200360', 'https://semopenalex.org/author/A5051905013', 'https://semopenalex.org/author/A5067143355', 'https://semopenalex.org/author/A5076283229', 'https://semopenalex.org/author/A5069790131', 'https://semopenalex.org/author/A5071409817', 'https://semopenalex.org/author/A5023950939', 'https://semopenalex.org/author/A5046764771', 'https://semopenalex.org/author/A5056693273', 'https://semopenalex.org/author/A5010474859', 'https://semopenalex.org/author/A5035549347', 'https://semopenalex.org/author/A5062807811', 'https://semopenalex.org/author/A5103031174', 'https://semopenalex.org/author/A5113449899', 'https://semopenalex.org/author/A5009615869', 'https://semopenalex.org/author/A5053771056', 'https://semopenalex.org/author/A5044052548', 'https://semopenalex.org/author/A5003446912', 'https://semopenalex.org/author/A5040950908', 'https://semopenalex.org/author/A5029499420', 'https://semopenalex.org/author/A5069762894', 'https://semopenalex.org/author/A5074238659', 'https://semopenalex.org/author/A5086827100', 'https://semopenalex.org/author/A5049148828', 'https://semopenalex.org/author/A5048660804', 'https://semopenalex.org/author/A5059658943', 'https://semopenalex.org/author/A5022335468', 'https://semopenalex.org/author/A5014866425', 'https://semopenalex.org/author/A5057380928', 'https://semopenalex.org/author/A5102610102', 'https://semopenalex.org/author/A5089975103', 'https://semopenalex.org/author/A5103532312', 'https://semopenalex.org/author/A5003945685', 'https://semopenalex.org/author/A5105862010', 'https://semopenalex.org/author/A5080127754', 'https://semopenalex.org/author/A5012311258', 'https://semopenalex.org/author/A5011141399', 'https://semopenalex.org/author/A5073656007', 'https://semopenalex.org/author/A5026157285', 'https://semopenalex.org/author/A5035398709', 'https://semopenalex.org/author/A5106076507', 'https://semopenalex.org/author/A5017760976', 'https://semopenalex.org/author/A5070832388', 'https://semopenalex.org/author/A5071834503', 'https://semopenalex.org/author/A5109878293', 'https://semopenalex.org/author/A5045837667', 'https://semopenalex.org/author/A5072220967', 'https://semopenalex.org/author/A5072706564', 'https://semopenalex.org/author/A5076861704', 'https://semopenalex.org/author/A5082591195', 'https://semopenalex.org/author/A5058021214', 'https://semopenalex.org/author/A5015154091', 'https://semopenalex.org/author/A5023469137', 'https://semopenalex.org/author/A5081184066', 'https://semopenalex.org/author/A5069650964', 'https://semopenalex.org/author/A5106082584', 'https://semopenalex.org/author/A5009207700', 'https://semopenalex.org/author/A5087477331', 'https://semopenalex.org/author/A5110328496', 'https://semopenalex.org/author/A5011572373', 'https://semopenalex.org/author/A5057682767', 'https://semopenalex.org/author/A5018214600', 'https://semopenalex.org/author/A5074789240']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/author/A5051221846', 'https://semopenalex.org/author/A5075061218', 'https://semopenalex.org/author/A5062261441', 'https://semopenalex.org/author/A5069922587', 'https://semopenalex.org/author/A5091453565', 'https://semopenalex.org/author/A5064622877', 'https://semopenalex.org/author/A5015356632', 'https://semopenalex.org/author/A5038581932', 'https://semopenalex.org/author/A5023645490', 'https://semopenalex.org/author/A5012375687', 'https://semopenalex.org/author/A5078555911', 'https://semopenalex.org/author/A5086346640', 'https://semopenalex.org/author/A5064387363', 'https://semopenalex.org/author/A5024584252', 'https://semopenalex.org/author/A5034037954', 'https://semopenalex.org/author/A5020939308', 'https://semopenalex.org/author/A5089362779', 'https://semopenalex.org/author/A5042413456', 'https://semopenalex.org/author/A5074486298', 'https://semopenalex.org/author/A5089914165', 'https://semopenalex.org/author/A5093413149', 'https://semopenalex.org/author/A5102720885', 'https://semopenalex.org/author/A5061675674', 'https://semopenalex.org/author/A5112900377', 'https://semopenalex.org/author/A5031601776', 'https://semopenalex.org/author/A5004507308', 'https://semopenalex.org/author/A5093415912', 'https://semopenalex.org/author/A5025632720', 'https://semopenalex.org/author/A5078921853', 'https://semopenalex.org/author/A5093495936', 'https://semopenalex.org/author/A5078461261', 'https://semopenalex.org/author/A5017353478', 'https://semopenalex.org/author/A5028395580', 'https://semopenalex.org/author/A5089983554', 'https://semopenalex.org/author/A5108988435', 'https://semopenalex.org/author/A5044578275', 'https://semopenalex.org/author/A5112907430', 'https://semopenalex.org/author/A5101845418', 'https://semopenalex.org/author/A5092276801', 'https://semopenalex.org/author/A5074393288', 'https://semopenalex.org/author/A5001454735', 'https://semopenalex.org/author/A5043204400', 'https://semopenalex.org/author/A5090529701', 'https://semopenalex.org/author/A5091298748', 'https://semopenalex.org/author/A5082863339', 'https://semopenalex.org/author/A5060768396', 'https://semopenalex.org/author/A5015144665', 'https://semopenalex.org/author/A5101619735', 'https://semopenalex.org/author/A5106808077', 'https://semopenalex.org/author/A5013421545', 'https://semopenalex.org/author/A5112596472', 'https://semopenalex.org/author/A5092106609', 'https://semopenalex.org/author/A5024581040', 'https://semopenalex.org/author/A5111252081', 'https://semopenalex.org/author/A5025631312', 'https://semopenalex.org/author/A5028750310', 'https://semopenalex.org/author/A5051642217', 'https://semopenalex.org/author/A5084373522', 'https://semopenalex.org/author/A5112387040', 'https://semopenalex.org/author/A5084631861', 'https://semopenalex.org/author/A5062553581', 'https://semopenalex.org/author/A5014205279', 'https://semopenalex.org/author/A5074316484', 'https://semopenalex.org/author/A5035247809', 'https://semopenalex.org/author/A5048521450', 'https://semopenalex.org/author/A5114057383', 'https://semopenalex.org/author/A5092276800', 'https://semopenalex.org/author/A5027096307', 'https://semopenalex.org/author/A5071109276', 'https://semopenalex.org/author/A5086787573', 'https://semopenalex.org/author/A5040925885', 'https://semopenalex.org/author/A5080374319', 'https://semopenalex.org/author/A5006430488']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/author/A5083965446', 'https://semopenalex.org/author/A5100329846', 'https://semopenalex.org/author/A5009296051', 'https://semopenalex.org/author/A5065892913', 'https://semopenalex.org/author/A5113994806', 'https://semopenalex.org/author/A5041317074', 'https://semopenalex.org/author/A5104016331', 'https://semopenalex.org/author/A5026731126', 'https://semopenalex.org/author/A5009158005', 'https://semopenalex.org/author/A5059675637', 'https://semopenalex.org/author/A5052745480', 'https://semopenalex.org/author/A5079749382', 'https://semopenalex.org/author/A5074596026', 'https://semopenalex.org/author/A5038114517', 'https://semopenalex.org/author/A5059726739', 'https://semopenalex.org/author/A5073803240', 'https://semopenalex.org/author/A5090679545', 'https://semopenalex.org/author/A5074598788', 'https://semopenalex.org/author/A5100421943', 'https://semopenalex.org/author/A5058321053', 'https://semopenalex.org/author/A5055129023', 'https://semopenalex.org/author/A5112770923', 'https://semopenalex.org/author/A5052423481', 'https://semopenalex.org/author/A5084014359', 'https://semopenalex.org/author/A5030785463', 'https://semopenalex.org/author/A5022617975', 'https://semopenalex.org/author/A5086959491', 'https://semopenalex.org/author/A5003399501', 'https://semopenalex.org/author/A5114257544', 'https://semopenalex.org/author/A5032959229', 'https://semopenalex.org/author/A5062356522', 'https://semopenalex.org/author/A5016341376', 'https://semopenalex.org/author/A5051357966', 'https://semopenalex.org/author/A5018309977', 'https://semopenalex.org/author/A5024594245', 'https://semopenalex.org/author/A5091752605', 'https://semopenalex.org/author/A5109557603', 'https://semopenalex.org/author/A5041359027', 'https://semopenalex.org/author/A5003775830', 'https://semopenalex.org/author/A5070127492', 'https://semopenalex.org/author/A5064864099', 'https://semopenalex.org/author/A5043857690', 'https://semopenalex.org/author/A5109550726', 'https://semopenalex.org/author/A5021047347', 'https://semopenalex.org/author/A5023277983', 'https://semopenalex.org/author/A5074082047', 'https://semopenalex.org/author/A5074308388', 'https://semopenalex.org/author/A5111957985', 'https://semopenalex.org/author/A5005835278', 'https://semopenalex.org/author/A5113653050', 'https://semopenalex.org/author/A5054255632', 'https://semopenalex.org/author/A5088742299', 'https://semopenalex.org/author/A5042981767', 'https://semopenalex.org/author/A5051949776', 'https://semopenalex.org/author/A5084114117', 'https://semopenalex.org/author/A5057228007', 'https://semopenalex.org/author/A5039019367', 'https://semopenalex.org/author/A5024942519', 'https://semopenalex.org/author/A5089722845', 'https://semopenalex.org/author/A5019114258', 'https://semopenalex.org/author/A5103256649', 'https://semopenalex.org/author/A5109557605', 'https://semopenalex.org/author/A5113537073', 'https://semopenalex.org/author/A5102756198', 'https://semopenalex.org/author/A5031002895', 'https://semopenalex.org/author/A5070309508', 'https://semopenalex.org/author/A5040682720', 'https://semopenalex.org/author/A5091510633', 'https://semopenalex.org/author/A5110866135', 'https://semopenalex.org/author/A5110468084', 'https://semopenalex.org/author/A5101223282', 'https://semopenalex.org/author/A5046291387', 'https://semopenalex.org/author/A5025298438', 'https://semopenalex.org/author/A5069142363', 'https://semopenalex.org/author/A5006986556', 'https://semopenalex.org/author/A5040540194', 'https://semopenalex.org/author/A5094850556', 'https://semopenalex.org/author/A5106121692', 'https://semopenalex.org/author/A5026925615', 'https://semopenalex.org/author/A5085424530', 'https://semopenalex.org/author/A5039203221', 'https://semopenalex.org/author/A5016070230', 'https://semopenalex.org/author/A5016460678', 'https://semopenalex.org/author/A5011271066', 'https://semopenalex.org/author/A5108795666', 'https://semopenalex.org/author/A5057173697', 'https://semopenalex.org/author/A5077501197', 'https://semopenalex.org/author/A5100678452', 'https://semopenalex.org/author/A5074735289', 'https://semopenalex.org/author/A5070045696', 'https://semopenalex.org/author/A5042175742', 'https://semopenalex.org/author/A5062087243', 'https://semopenalex.org/author/A5068502658', 'https://semopenalex.org/author/A5044086454', 'https://semopenalex.org/author/A5094966955', 'https://semopenalex.org/author/A5020691490', 'https://semopenalex.org/author/A5026504154', 'https://semopenalex.org/author/A5113750346', 'https://semopenalex.org/author/A5082559019', 'https://semopenalex.org/author/A5061625295', 'https://semopenalex.org/author/A5061791546', 'https://semopenalex.org/author/A5050603750', 'https://semopenalex.org/author/A5035713595', 'https://semopenalex.org/author/A5047323924', 'https://semopenalex.org/author/A5077182059', 'https://semopenalex.org/author/A5056796690', 'https://semopenalex.org/author/A5035328623', 'https://semopenalex.org/author/A5046521916', 'https://semopenalex.org/author/A5013290328', 'https://semopenalex.org/author/A5009095435', 'https://semopenalex.org/author/A5034482692', 'https://semopenalex.org/author/A5101159423', 'https://semopenalex.org/author/A5079894695', 'https://semopenalex.org/author/A5101815353', 'https://semopenalex.org/author/A5002874750', 'https://semopenalex.org/author/A5072916330', 'https://semopenalex.org/author/A5112789076', 'https://semopenalex.org/author/A5018301889', 'https://semopenalex.org/author/A5052057125', 'https://semopenalex.org/author/A5015881314', 'https://semopenalex.org/author/A5029701178', 'https://semopenalex.org/author/A5026800235', 'https://semopenalex.org/author/A5002400587', 'https://semopenalex.org/author/A5066279170', 'https://semopenalex.org/author/A5086794491', 'https://semopenalex.org/author/A5010063800', 'https://semopenalex.org/author/A5100434965', 'https://semopenalex.org/author/A5109056620', 'https://semopenalex.org/author/A5003817085', 'https://semopenalex.org/author/A5070025348', 'https://semopenalex.org/author/A5068131388', 'https://semopenalex.org/author/A5021385837', 'https://semopenalex.org/author/A5079760641', 'https://semopenalex.org/author/A5051259649', 'https://semopenalex.org/author/A5102461997', 'https://semopenalex.org/author/A5075931954', 'https://semopenalex.org/author/A5075602267', 'https://semopenalex.org/author/A5016479362', 'https://semopenalex.org/author/A5033142925', 'https://semopenalex.org/author/A5069695344', 'https://semopenalex.org/author/A5100613030', 'https://semopenalex.org/author/A5110866137', 'https://semopenalex.org/author/A5009982918', 'https://semopenalex.org/author/A5074589032', 'https://semopenalex.org/author/A5112307831', 'https://semopenalex.org/author/A5087123689', 'https://semopenalex.org/author/A5065844089', 'https://semopenalex.org/author/A5052097686', 'https://semopenalex.org/author/A5046366918', 'https://semopenalex.org/author/A5057833118', 'https://semopenalex.org/author/A5007832994', 'https://semopenalex.org/author/A5104053257', 'https://semopenalex.org/author/A5087538704', 'https://semopenalex.org/author/A5043740841', 'https://semopenalex.org/author/A5076209207', 'https://semopenalex.org/author/A5113723639', 'https://semopenalex.org/author/A5047735602', 'https://semopenalex.org/author/A5100458893', 'https://semopenalex.org/author/A5016245222', 'https://semopenalex.org/author/A5088731092', 'https://semopenalex.org/author/A5030988174', 'https://semopenalex.org/author/A5073410087', 'https://semopenalex.org/author/A5109550729', 'https://semopenalex.org/author/A5071699360', 'https://semopenalex.org/author/A5072837074', 'https://semopenalex.org/author/A5110867527', 'https://semopenalex.org/author/A5082724929', 'https://semopenalex.org/author/A5058644115', 'https://semopenalex.org/author/A5103622490', 'https://semopenalex.org/author/A5033256132', 'https://semopenalex.org/author/A5037435544', 'https://semopenalex.org/author/A5030803226', 'https://semopenalex.org/author/A5039816605', 'https://semopenalex.org/author/A5078631705', 'https://semopenalex.org/author/A5100425978', 'https://semopenalex.org/author/A5108112356', 'https://semopenalex.org/author/A5046114637', 'https://semopenalex.org/author/A5069616469', 'https://semopenalex.org/author/A5014845685', 'https://semopenalex.org/author/A5056986371', 'https://semopenalex.org/author/A5059350239', 'https://semopenalex.org/author/A5049348869', 'https://semopenalex.org/author/A5034996813', 'https://semopenalex.org/author/A5111965782', 'https://semopenalex.org/author/A5108795667', 'https://semopenalex.org/author/A5058422878', 'https://semopenalex.org/author/A5109401743', 'https://semopenalex.org/author/A5038398097', 'https://semopenalex.org/author/A5052558062', 'https://semopenalex.org/author/A5044500644', 'https://semopenalex.org/author/A5086046410', 'https://semopenalex.org/author/A5034690905', 'https://semopenalex.org/author/A5094966956', 'https://semopenalex.org/author/A5110126701', 'https://semopenalex.org/author/A5029808771', 'https://semopenalex.org/author/A5017704096', 'https://semopenalex.org/author/A5090065459', 'https://semopenalex.org/author/A5012514876', 'https://semopenalex.org/author/A5083689259', 'https://semopenalex.org/author/A5094850564', 'https://semopenalex.org/author/A5100307045', 'https://semopenalex.org/author/A5072902302', 'https://semopenalex.org/author/A5083067976', 'https://semopenalex.org/author/A5000810401', 'https://semopenalex.org/author/A5025747170', 'https://semopenalex.org/author/A5053913249', 'https://semopenalex.org/author/A5082861248', 'https://semopenalex.org/author/A5061090738', 'https://semopenalex.org/author/A5001078030', 'https://semopenalex.org/author/A5058288079', 'https://semopenalex.org/author/A5035052603', 'https://semopenalex.org/author/A5031522111', 'https://semopenalex.org/author/A5100729482', 'https://semopenalex.org/author/A5100866986', 'https://semopenalex.org/author/A5085024439', 'https://semopenalex.org/author/A5044696172', 'https://semopenalex.org/author/A5021741380', 'https://semopenalex.org/author/A5005357612', 'https://semopenalex.org/author/A5108609396', 'https://semopenalex.org/author/A5035241917', 'https://semopenalex.org/author/A5063043381', 'https://semopenalex.org/author/A5101159425', 'https://semopenalex.org/author/A5021976057', 'https://semopenalex.org/author/A5006412870', 'https://semopenalex.org/author/A5058048101', 'https://semopenalex.org/author/A5060428445', 'https://semopenalex.org/author/A5089032178', 'https://semopenalex.org/author/A5106691602', 'https://semopenalex.org/author/A5081082953', 'https://semopenalex.org/author/A5102836787', 'https://semopenalex.org/author/A5010873632', 'https://semopenalex.org/author/A5055397205', 'https://semopenalex.org/author/A5083460317', 'https://semopenalex.org/author/A5042185262', 'https://semopenalex.org/author/A5048205587', 'https://semopenalex.org/author/A5061146101', 'https://semopenalex.org/author/A5011958240', 'https://semopenalex.org/author/A5041758250', 'https://semopenalex.org/author/A5055281326', 'https://semopenalex.org/author/A5027703220', 'https://semopenalex.org/author/A5094634113', 'https://semopenalex.org/author/A5094850562', 'https://semopenalex.org/author/A5008144788', 'https://semopenalex.org/author/A5080362727', 'https://semopenalex.org/author/A5011287069', 'https://semopenalex.org/author/A5030807574', 'https://semopenalex.org/author/A5081588858', 'https://semopenalex.org/author/A5050944699', 'https://semopenalex.org/author/A5088694364', 'https://semopenalex.org/author/A5094966959', 'https://semopenalex.org/author/A5020453572', 'https://semopenalex.org/author/A5094850550', 'https://semopenalex.org/author/A5072330498', 'https://semopenalex.org/author/A5076724937', 'https://semopenalex.org/author/A5075748306', 'https://semopenalex.org/author/A5109550727', 'https://semopenalex.org/author/A5032100463', 'https://semopenalex.org/author/A5088083982', 'https://semopenalex.org/author/A5101159427', 'https://semopenalex.org/author/A5070430119', 'https://semopenalex.org/author/A5062934322', 'https://semopenalex.org/author/A5054624012', 'https://semopenalex.org/author/A5033517451', 'https://semopenalex.org/author/A5028602300', 'https://semopenalex.org/author/A5028142123', 'https://semopenalex.org/author/A5013993834', 'https://semopenalex.org/author/A5103141604', 'https://semopenalex.org/author/A5046196600', 'https://semopenalex.org/author/A5100698896', 'https://semopenalex.org/author/A5112845086', 'https://semopenalex.org/author/A5045518977', 'https://semopenalex.org/author/A5067664620', 'https://semopenalex.org/author/A5009425558', 'https://semopenalex.org/author/A5031841696', 'https://semopenalex.org/author/A5034384834', 'https://semopenalex.org/author/A5046423444', 'https://semopenalex.org/author/A5100681023', 'https://semopenalex.org/author/A5100353457', 'https://semopenalex.org/author/A5100436760', 'https://semopenalex.org/author/A5013759413', 'https://semopenalex.org/author/A5072570670', 'https://semopenalex.org/author/A5090735746', 'https://semopenalex.org/author/A5094850558', 'https://semopenalex.org/author/A5086297102', 'https://semopenalex.org/author/A5088202063', 'https://semopenalex.org/author/A5021964111', 'https://semopenalex.org/author/A5045348077', 'https://semopenalex.org/author/A5054687162', 'https://semopenalex.org/author/A5015400278', 'https://semopenalex.org/author/A5112770924', 'https://semopenalex.org/author/A5057579122', 'https://semopenalex.org/author/A5042204813', 'https://semopenalex.org/author/A5076828229', 'https://semopenalex.org/author/A5101843778', 'https://semopenalex.org/author/A5087025037', 'https://semopenalex.org/author/A5094850549', 'https://semopenalex.org/author/A5042669324', 'https://semopenalex.org/author/A5041033177', 'https://semopenalex.org/author/A5113619301', 'https://semopenalex.org/author/A5047487369', 'https://semopenalex.org/author/A5087961115', 'https://semopenalex.org/author/A5050785938', 'https://semopenalex.org/author/A5074969316', 'https://semopenalex.org/author/A5052771319', 'https://semopenalex.org/author/A5054904146', 'https://semopenalex.org/author/A5042070270', 'https://semopenalex.org/author/A5101080554', 'https://semopenalex.org/author/A5033806544', 'https://semopenalex.org/author/A5082652832', 'https://semopenalex.org/author/A5019634121', 'https://semopenalex.org/author/A5030697774', 'https://semopenalex.org/author/A5012951140', 'https://semopenalex.org/author/A5047335465', 'https://semopenalex.org/author/A5102455066', 'https://semopenalex.org/author/A5094850559', 'https://semopenalex.org/author/A5110866136', 'https://semopenalex.org/author/A5093323202', 'https://semopenalex.org/author/A5030954130', 'https://semopenalex.org/author/A5074074791', 'https://semopenalex.org/author/A5005192499', 'https://semopenalex.org/author/A5089085275', 'https://semopenalex.org/author/A5001294898', 'https://semopenalex.org/author/A5013031003', 'https://semopenalex.org/author/A5008094693', 'https://semopenalex.org/author/A5102864970', 'https://semopenalex.org/author/A5079962386', 'https://semopenalex.org/author/A5090533480', 'https://semopenalex.org/author/A5101159424', 'https://semopenalex.org/author/A5094850554', 'https://semopenalex.org/author/A5088803193', 'https://semopenalex.org/author/A5014706612', 'https://semopenalex.org/author/A5015977158', 'https://semopenalex.org/author/A5112789075', 'https://semopenalex.org/author/A5052127146', 'https://semopenalex.org/author/A5031092968', 'https://semopenalex.org/author/A5069815943', 'https://semopenalex.org/author/A5102146502', 'https://semopenalex.org/author/A5091888698', 'https://semopenalex.org/author/A5025998224', 'https://semopenalex.org/author/A5033607252', 'https://semopenalex.org/author/A5017841368', 'https://semopenalex.org/author/A5112194416', 'https://semopenalex.org/author/A5031901931', 'https://semopenalex.org/author/A5009102574', 'https://semopenalex.org/author/A5094966947', 'https://semopenalex.org/author/A5001699131', 'https://semopenalex.org/author/A5057083638', 'https://semopenalex.org/author/A5113667088', 'https://semopenalex.org/author/A5007943091', 'https://semopenalex.org/author/A5080195917', 'https://semopenalex.org/author/A5020565600', 'https://semopenalex.org/author/A5063124631', 'https://semopenalex.org/author/A5035030619', 'https://semopenalex.org/author/A5083759644', 'https://semopenalex.org/author/A5075544010', 'https://semopenalex.org/author/A5068682897', 'https://semopenalex.org/author/A5021496374', 'https://semopenalex.org/author/A5020549462', 'https://semopenalex.org/author/A5094966960', 'https://semopenalex.org/author/A5110879810', 'https://semopenalex.org/author/A5102676712', 'https://semopenalex.org/author/A5049244926', 'https://semopenalex.org/author/A5110432474', 'https://semopenalex.org/author/A5044848288', 'https://semopenalex.org/author/A5109550728', 'https://semopenalex.org/author/A5049803081', 'https://semopenalex.org/author/A5094850563', 'https://semopenalex.org/author/A5004978878', 'https://semopenalex.org/author/A5011092157', 'https://semopenalex.org/author/A5035602018', 'https://semopenalex.org/author/A5065215412', 'https://semopenalex.org/author/A5100563292', 'https://semopenalex.org/author/A5089044044', 'https://semopenalex.org/author/A5019863108', 'https://semopenalex.org/author/A5081380385', 'https://semopenalex.org/author/A5017945484', 'https://semopenalex.org/author/A5094850557', 'https://semopenalex.org/author/A5088120976', 'https://semopenalex.org/author/A5065662869', 'https://semopenalex.org/author/A5092591629', 'https://semopenalex.org/author/A5012057735', 'https://semopenalex.org/author/A5100531979', 'https://semopenalex.org/author/A5058506527', 'https://semopenalex.org/author/A5072385590', 'https://semopenalex.org/author/A5102185302', 'https://semopenalex.org/author/A5006842195', 'https://semopenalex.org/author/A5101725214', 'https://semopenalex.org/author/A5058473639', 'https://semopenalex.org/author/A5109232422', 'https://semopenalex.org/author/A5033778949', 'https://semopenalex.org/author/A5004095672', 'https://semopenalex.org/author/A5054875158', 'https://semopenalex.org/author/A5094966951', 'https://semopenalex.org/author/A5003036713', 'https://semopenalex.org/author/A5001888075', 'https://semopenalex.org/author/A5108854968', 'https://semopenalex.org/author/A5100308761', 'https://semopenalex.org/author/A5059112151', 'https://semopenalex.org/author/A5044990862', 'https://semopenalex.org/author/A5100516401', 'https://semopenalex.org/author/A5111299292', 'https://semopenalex.org/author/A5113164291', 'https://semopenalex.org/author/A5089058942', 'https://semopenalex.org/author/A5022809952', 'https://semopenalex.org/author/A5044628664', 'https://semopenalex.org/author/A5044367354', 'https://semopenalex.org/author/A5108754601', 'https://semopenalex.org/author/A5112718452', 'https://semopenalex.org/author/A5028489255', 'https://semopenalex.org/author/A5035708783', 'https://semopenalex.org/author/A5002964350', 'https://semopenalex.org/author/A5112770926', 'https://semopenalex.org/author/A5047576640', 'https://semopenalex.org/author/A5063434943', 'https://semopenalex.org/author/A5040481275', 'https://semopenalex.org/author/A5104356809', 'https://semopenalex.org/author/A5026923870', 'https://semopenalex.org/author/A5089866956', 'https://semopenalex.org/author/A5057180938', 'https://semopenalex.org/author/A5061880585', 'https://semopenalex.org/author/A5011383988', 'https://semopenalex.org/author/A5100976850', 'https://semopenalex.org/author/A5026707758', 'https://semopenalex.org/author/A5059663464', 'https://semopenalex.org/author/A5017310857', 'https://semopenalex.org/author/A5075449266', 'https://semopenalex.org/author/A5070478103', 'https://semopenalex.org/author/A5061668006', 'https://semopenalex.org/author/A5089148668', 'https://semopenalex.org/author/A5073513391', 'https://semopenalex.org/author/A5000203614', 'https://semopenalex.org/author/A5094850561', 'https://semopenalex.org/author/A5094966946', 'https://semopenalex.org/author/A5059992565', 'https://semopenalex.org/author/A5049158387', 'https://semopenalex.org/author/A5073780213', 'https://semopenalex.org/author/A5041111821', 'https://semopenalex.org/author/A5101505215', 'https://semopenalex.org/author/A5060375005', 'https://semopenalex.org/author/A5087402200', 'https://semopenalex.org/author/A5039368373', 'https://semopenalex.org/author/A5101729519', 'https://semopenalex.org/author/A5027345703', 'https://semopenalex.org/author/A5100732392', 'https://semopenalex.org/author/A5111874391', 'https://semopenalex.org/author/A5113721167', 'https://semopenalex.org/author/A5026576007', 'https://semopenalex.org/author/A5011208990', 'https://semopenalex.org/author/A5067291755', 'https://semopenalex.org/author/A5094966952', 'https://semopenalex.org/author/A5079309664', 'https://semopenalex.org/author/A5112770925', 'https://semopenalex.org/author/A5020293284', 'https://semopenalex.org/author/A5040457891', 'https://semopenalex.org/author/A5103267619', 'https://semopenalex.org/author/A5111747866', 'https://semopenalex.org/author/A5020701887', 'https://semopenalex.org/author/A5040926780', 'https://semopenalex.org/author/A5032586796', 'https://semopenalex.org/author/A5111745917', 'https://semopenalex.org/author/A5042189562', 'https://semopenalex.org/author/A5019071895', 'https://semopenalex.org/author/A5057129019', 'https://semopenalex.org/author/A5113555750', 'https://semopenalex.org/author/A5062953965', 'https://semopenalex.org/author/A5021564301', 'https://semopenalex.org/author/A5072296738', 'https://semopenalex.org/author/A5094966945', 'https://semopenalex.org/author/A5077839667', 'https://semopenalex.org/author/A5012860343', 'https://semopenalex.org/author/A5100439502', 'https://semopenalex.org/author/A5112796516', 'https://semopenalex.org/author/A5006284497', 'https://semopenalex.org/author/A5103447072', 'https://semopenalex.org/author/A5064540278', 'https://semopenalex.org/author/A5048999390', 'https://semopenalex.org/author/A5028655113', 'https://semopenalex.org/author/A5015192494', 'https://semopenalex.org/author/A5027348774', 'https://semopenalex.org/author/A5102845298', 'https://semopenalex.org/author/A5101754929', 'https://semopenalex.org/author/A5080079347', 'https://semopenalex.org/author/A5006074944', 'https://semopenalex.org/author/A5020890252', 'https://semopenalex.org/author/A5088560930', 'https://semopenalex.org/author/A5080136207', 'https://semopenalex.org/author/A5112789074', 'https://semopenalex.org/author/A5109040569', 'https://semopenalex.org/author/A5111920218', 'https://semopenalex.org/author/A5103726315', 'https://semopenalex.org/author/A5013796744', 'https://semopenalex.org/author/A5054694688', 'https://semopenalex.org/author/A5109894548', 'https://semopenalex.org/author/A5027694435', 'https://semopenalex.org/author/A5035044634', 'https://semopenalex.org/author/A5100390687', 'https://semopenalex.org/author/A5076222775', 'https://semopenalex.org/author/A5073739308', 'https://semopenalex.org/author/A5017193950', 'https://semopenalex.org/author/A5069829960', 'https://semopenalex.org/author/A5100695007', 'https://semopenalex.org/author/A5054677861', 'https://semopenalex.org/author/A5040341362', 'https://semopenalex.org/author/A5035731144', 'https://semopenalex.org/author/A5003335464', 'https://semopenalex.org/author/A5061493594', 'https://semopenalex.org/author/A5017549278', 'https://semopenalex.org/author/A5112895504', 'https://semopenalex.org/author/A5088935199', 'https://semopenalex.org/author/A5065938167', 'https://semopenalex.org/author/A5000563459', 'https://semopenalex.org/author/A5006214623', 'https://semopenalex.org/author/A5088805136', 'https://semopenalex.org/author/A5088969714', 'https://semopenalex.org/author/A5050409448', 'https://semopenalex.org/author/A5087781429', 'https://semopenalex.org/author/A5010169168', 'https://semopenalex.org/author/A5070309541', 'https://semopenalex.org/author/A5112770922', 'https://semopenalex.org/author/A5065946530', 'https://semopenalex.org/author/A5108322148', 'https://semopenalex.org/author/A5011886931', 'https://semopenalex.org/author/A5007728844', 'https://semopenalex.org/author/A5035879340', 'https://semopenalex.org/author/A5021519204', 'https://semopenalex.org/author/A5057416433', 'https://semopenalex.org/author/A5086630717', 'https://semopenalex.org/author/A5094966953', 'https://semopenalex.org/author/A5057391353', 'https://semopenalex.org/author/A5083932343', 'https://semopenalex.org/author/A5054944358', 'https://semopenalex.org/author/A5022916875', 'https://semopenalex.org/author/A5058021734', 'https://semopenalex.org/author/A5054239026', 'https://semopenalex.org/author/A5003443602', 'https://semopenalex.org/author/A5090198878', 'https://semopenalex.org/author/A5002366144', 'https://semopenalex.org/author/A5112014544', 'https://semopenalex.org/author/A5015181699', 'https://semopenalex.org/author/A5000889165', 'https://semopenalex.org/author/A5004548068', 'https://semopenalex.org/author/A5013975143', 'https://semopenalex.org/author/A5107204848', 'https://semopenalex.org/author/A5002266542', 'https://semopenalex.org/author/A5000045142', 'https://semopenalex.org/author/A5005503619', 'https://semopenalex.org/author/A5065466432', 'https://semopenalex.org/author/A5054833334', 'https://semopenalex.org/author/A5100437036', 'https://semopenalex.org/author/A5080481085', 'https://semopenalex.org/author/A5101558388', 'https://semopenalex.org/author/A5035534381', 'https://semopenalex.org/author/A5101525412', 'https://semopenalex.org/author/A5065213427', 'https://semopenalex.org/author/A5094966948', 'https://semopenalex.org/author/A5110244736', 'https://semopenalex.org/author/A5014584767', 'https://semopenalex.org/author/A5094850551', 'https://semopenalex.org/author/A5019810478', 'https://semopenalex.org/author/A5110866138', 'https://semopenalex.org/author/A5001283900', 'https://semopenalex.org/author/A5007690829', 'https://semopenalex.org/author/A5016680661', 'https://semopenalex.org/author/A5018934854', 'https://semopenalex.org/author/A5071892402', 'https://semopenalex.org/author/A5009940583', 'https://semopenalex.org/author/A5100382191', 'https://semopenalex.org/author/A5075283583', 'https://semopenalex.org/author/A5110225216', 'https://semopenalex.org/author/A5083755757', 'https://semopenalex.org/author/A5075050367', 'https://semopenalex.org/author/A5100350849', 'https://semopenalex.org/author/A5066794150', 'https://semopenalex.org/author/A5048567127', 'https://semopenalex.org/author/A5025851255', 'https://semopenalex.org/author/A5053876673', 'https://semopenalex.org/author/A5072728622', 'https://semopenalex.org/author/A5020223949', 'https://semopenalex.org/author/A5061937018', 'https://semopenalex.org/author/A5048006075', 'https://semopenalex.org/author/A5040920032', 'https://semopenalex.org/author/A5075085355', 'https://semopenalex.org/author/A5094966944', 'https://semopenalex.org/author/A5090185743', 'https://semopenalex.org/author/A5045614803', 'https://semopenalex.org/author/A5049314735', 'https://semopenalex.org/author/A5013806560', 'https://semopenalex.org/author/A5100426981', 'https://semopenalex.org/author/A5025012438', 'https://semopenalex.org/author/A5058899219', 'https://semopenalex.org/author/A5103860234', 'https://semopenalex.org/author/A5101164166', 'https://semopenalex.org/author/A5001240699', 'https://semopenalex.org/author/A5087315126', 'https://semopenalex.org/author/A5030396947', 'https://semopenalex.org/author/A5100610161', 'https://semopenalex.org/author/A5034842369', 'https://semopenalex.org/author/A5010667155', 'https://semopenalex.org/author/A5084544975', 'https://semopenalex.org/author/A5085413987', 'https://semopenalex.org/author/A5039190016', 'https://semopenalex.org/author/A5112770927', 'https://semopenalex.org/author/A5089847337', 'https://semopenalex.org/author/A5087206674', 'https://semopenalex.org/author/A5029732249', 'https://semopenalex.org/author/A5094966950', 'https://semopenalex.org/author/A5029995660', 'https://semopenalex.org/author/A5110970351', 'https://semopenalex.org/author/A5100386180', 'https://semopenalex.org/author/A5069815367', 'https://semopenalex.org/author/A5100428572', 'https://semopenalex.org/author/A5032948315', 'https://semopenalex.org/author/A5059045306', 'https://semopenalex.org/author/A5039301079', 'https://semopenalex.org/author/A5009197679', 'https://semopenalex.org/author/A5076181565', 'https://semopenalex.org/author/A5111246205', 'https://semopenalex.org/author/A5017534073', 'https://semopenalex.org/author/A5004693243', 'https://semopenalex.org/author/A5026946838', 'https://semopenalex.org/author/A5017257513', 'https://semopenalex.org/author/A5001839757', 'https://semopenalex.org/author/A5033358586', 'https://semopenalex.org/author/A5022655755', 'https://semopenalex.org/author/A5025759507', 'https://semopenalex.org/author/A5104053258', 'https://semopenalex.org/author/A5067111142', 'https://semopenalex.org/author/A5114085404', 'https://semopenalex.org/author/A5032040667', 'https://semopenalex.org/author/A5013152760', 'https://semopenalex.org/author/A5009578658', 'https://semopenalex.org/author/A5082932410', 'https://semopenalex.org/author/A5058732387', 'https://semopenalex.org/author/A5021090586', 'https://semopenalex.org/author/A5040530849', 'https://semopenalex.org/author/A5021792918', 'https://semopenalex.org/author/A5077149145', 'https://semopenalex.org/author/A5090437811', 'https://semopenalex.org/author/A5025025481', 'https://semopenalex.org/author/A5039281963', 'https://semopenalex.org/author/A5062058930', 'https://semopenalex.org/author/A5062066146', 'https://semopenalex.org/author/A5082373681', 'https://semopenalex.org/author/A5102775803', 'https://semopenalex.org/author/A5067334214', 'https://semopenalex.org/author/A5072028806', 'https://semopenalex.org/author/A5108134868', 'https://semopenalex.org/author/A5065638410', 'https://semopenalex.org/author/A5005290550', 'https://semopenalex.org/author/A5038742643', 'https://semopenalex.org/author/A5058940849', 'https://semopenalex.org/author/A5058771477', 'https://semopenalex.org/author/A5011092296', 'https://semopenalex.org/author/A5102722569', 'https://semopenalex.org/author/A5038024446', 'https://semopenalex.org/author/A5106680720', 'https://semopenalex.org/author/A5108866418', 'https://semopenalex.org/author/A5088241324', 'https://semopenalex.org/author/A5023770864', 'https://semopenalex.org/author/A5090890994', 'https://semopenalex.org/author/A5023532428', 'https://semopenalex.org/author/A5074788841', 'https://semopenalex.org/author/A5062882537', 'https://semopenalex.org/author/A5094850552', 'https://semopenalex.org/author/A5041661688', 'https://semopenalex.org/author/A5112705691', 'https://semopenalex.org/author/A5041069081', 'https://semopenalex.org/author/A5035006986', 'https://semopenalex.org/author/A5070589510', 'https://semopenalex.org/author/A5100641783', 'https://semopenalex.org/author/A5081846222', 'https://semopenalex.org/author/A5039061395', 'https://semopenalex.org/author/A5083053651', 'https://semopenalex.org/author/A5029196810', 'https://semopenalex.org/author/A5016330520', 'https://semopenalex.org/author/A5112433524', 'https://semopenalex.org/author/A5100418957', 'https://semopenalex.org/author/A5110568866', 'https://semopenalex.org/author/A5015415192', 'https://semopenalex.org/author/A5088485570', 'https://semopenalex.org/author/A5069481232', 'https://semopenalex.org/author/A5036018560', 'https://semopenalex.org/author/A5081627591', 'https://semopenalex.org/author/A5080019669', 'https://semopenalex.org/author/A5013828217', 'https://semopenalex.org/author/A5080593862', 'https://semopenalex.org/author/A5052396894', 'https://semopenalex.org/author/A5110695897', 'https://semopenalex.org/author/A5101941642', 'https://semopenalex.org/author/A5053715191', 'https://semopenalex.org/author/A5066368261', 'https://semopenalex.org/author/A5010466931', 'https://semopenalex.org/author/A5077494978', 'https://semopenalex.org/author/A5027495637', 'https://semopenalex.org/author/A5064932423', 'https://semopenalex.org/author/A5111408885', 'https://semopenalex.org/author/A5016900185', 'https://semopenalex.org/author/A5101466236', 'https://semopenalex.org/author/A5083509514', 'https://semopenalex.org/author/A5067216808', 'https://semopenalex.org/author/A5105408906', 'https://semopenalex.org/author/A5038743559', 'https://semopenalex.org/author/A5087685351', 'https://semopenalex.org/author/A5047925616', 'https://semopenalex.org/author/A5110293736', 'https://semopenalex.org/author/A5032060363', 'https://semopenalex.org/author/A5035676027', 'https://semopenalex.org/author/A5101535147', 'https://semopenalex.org/author/A5046907740', 'https://semopenalex.org/author/A5037590981', 'https://semopenalex.org/author/A5113926166', 'https://semopenalex.org/author/A5005645577', 'https://semop</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/author/A5074307489', 'https://semopenalex.org/author/A5052249316', 'https://semopenalex.org/author/A5100638997', 'https://semopenalex.org/author/A5101601497', 'https://semopenalex.org/author/A5070152860', 'https://semopenalex.org/author/A5050308989', 'https://semopenalex.org/author/A5102928967', 'https://semopenalex.org/author/A5041073042', 'https://semopenalex.org/author/A5018128809', 'https://semopenalex.org/author/A5101617703', 'https://semopenalex.org/author/A5040987266', 'https://semopenalex.org/author/A5002594574', 'https://semopenalex.org/author/A5010181158', 'https://semopenalex.org/author/A5073947585', 'https://semopenalex.org/author/A5101637945', 'https://semopenalex.org/author/A5101812436', 'https://semopenalex.org/author/A5100412598', 'https://semopenalex.org/author/A5005639930', 'https://semopenalex.org/author/A5024456332', 'https://semopenalex.org/author/A5021631329', 'https://semopenalex.org/author/A5101558050', 'https://semopenalex.org/author/A5013325392', 'https://semopenalex.org/author/A5072002680', 'https://semopenalex.org/author/A5058828089', 'https://semopenalex.org/author/A5012621594', 'https://semopenalex.org/author/A5033163346', 'https://semopenalex.org/author/A5068340305', 'https://semopenalex.org/author/A5100375823', 'https://semopenalex.org/author/A5115595561', 'https://semopenalex.org/author/A5077138780', 'https://semopenalex.org/author/A5065848808', 'https://semopenalex.org/author/A5100409885', 'https://semopenalex.org/author/A5103205468', 'https://semopenalex.org/author/A5081145634', 'https://semopenalex.org/author/A5019525050', 'https://semopenalex.org/author/A5081420063', 'https://semopenalex.org/author/A5051192643', 'https://semopenalex.org/author/A5044689090', 'https://semopenalex.org/author/A5030997313', 'https://semopenalex.org/author/A5005007374', 'https://semopenalex.org/author/A5047271595', 'https://semopenalex.org/author/A5100408010', 'https://semopenalex.org/author/A5103047914', 'https://semopenalex.org/author/A5100738980', 'https://semopenalex.org/author/A5025839857', 'https://semopenalex.org/author/A5101468661', 'https://semopenalex.org/author/A5100439996', 'https://semopenalex.org/author/A5100386104', 'https://semopenalex.org/author/A5101264794', 'https://semopenalex.org/author/A5100440010', 'https://semopenalex.org/author/A5107006112', 'https://semopenalex.org/author/A5049142567', 'https://semopenalex.org/author/A5017334961', 'https://semopenalex.org/author/A5026927053', 'https://semopenalex.org/author/A5088725475', 'https://semopenalex.org/author/A5049076146', 'https://semopenalex.org/author/A5103205784', 'https://semopenalex.org/author/A5069596903', 'https://semopenalex.org/author/A5109297018', 'https://semopenalex.org/author/A5050080938', 'https://semopenalex.org/author/A5101660937', 'https://semopenalex.org/author/A5110172698', 'https://semopenalex.org/author/A5033542967', 'https://semopenalex.org/author/A5100301259', 'https://semopenalex.org/author/A5007043113', 'https://semopenalex.org/author/A5102717988', 'https://semopenalex.org/author/A5052199638', 'https://semopenalex.org/author/A5000845080', 'https://semopenalex.org/author/A5100772234', 'https://semopenalex.org/author/A5100349343', 'https://semopenalex.org/author/A5000645139', 'https://semopenalex.org/author/A5032068969', 'https://semopenalex.org/author/A5103761162', 'https://semopenalex.org/author/A5067163535', 'https://semopenalex.org/author/A5100385498', 'https://semopenalex.org/author/A5100758675', 'https://semopenalex.org/author/A5103286574', 'https://semopenalex.org/author/A5103073505', 'https://semopenalex.org/author/A5101636662', 'https://semopenalex.org/author/A5101261545', 'https://semopenalex.org/author/A5077610917', 'https://semopenalex.org/author/A5043798385', 'https://semopenalex.org/author/A5086338440', 'https://semopenalex.org/author/A5081036622', 'https://semopenalex.org/author/A5046237164', 'https://semopenalex.org/author/A5100429004', 'https://semopenalex.org/author/A5084735407', 'https://semopenalex.org/author/A5058738211', 'https://semopenalex.org/author/A5011367069', 'https://semopenalex.org/author/A5101289775', 'https://semopenalex.org/author/A5114778131', 'https://semopenalex.org/author/A5100639062', 'https://semopenalex.org/author/A5033111691', 'https://semopenalex.org/author/A5024821632', 'https://semopenalex.org/author/A5100405159', 'https://semopenalex.org/author/A5015967363', 'https://semopenalex.org/author/A5022677467', 'https://semopenalex.org/author/A5032062525', 'https://semopenalex.org/author/A5103233342', 'https://semopenalex.org/author/A5012561478', 'https://semopenalex.org/author/A5039037722', 'https://semopenalex.org/author/A5060115298', 'https://semopenalex.org/author/A5113160035', 'https://semopenalex.org/author/A5026939932', 'https://semopenalex.org/author/A5101983121', 'https://semopenalex.org/author/A5101655978', 'https://semopenalex.org/author/A5009435651', 'https://semopenalex.org/author/A5087492388', 'https://semopenalex.org/author/A5100365555', 'https://semopenalex.org/author/A5067467896', 'https://semopenalex.org/author/A5077984014', 'https://semopenalex.org/author/A5107864790', 'https://semopenalex.org/author/A5058164381', 'https://semopenalex.org/author/A5069621751', 'https://semopenalex.org/author/A5043801432', 'https://semopenalex.org/author/A5100610450', 'https://semopenalex.org/author/A5049100391', 'https://semopenalex.org/author/A5101556258', 'https://semopenalex.org/author/A5102900280', 'https://semopenalex.org/author/A5100349346', 'https://semopenalex.org/author/A5108459503', 'https://semopenalex.org/author/A5085666756', 'https://semopenalex.org/author/A5072432956', 'https://semopenalex.org/author/A5015836405', 'https://semopenalex.org/author/A5058258996', 'https://semopenalex.org/author/A5100388597', 'https://semopenalex.org/author/A5100401412', 'https://semopenalex.org/author/A5114213934', 'https://semopenalex.org/author/A5000019783', 'https://semopenalex.org/author/A5040272202', 'https://semopenalex.org/author/A5075929099', 'https://semopenalex.org/author/A5022905724', 'https://semopenalex.org/author/A5076516205', 'https://semopenalex.org/author/A5077658936', 'https://semopenalex.org/author/A5100388576', 'https://semopenalex.org/author/A5100426931', 'https://semopenalex.org/author/A5100676331', 'https://semopenalex.org/author/A5101011726', 'https://semopenalex.org/author/A5025292884', 'https://semopenalex.org/author/A5009487151', 'https://semopenalex.org/author/A5100385507', 'https://semopenalex.org/author/A5000381434', 'https://semopenalex.org/author/A5084874990', 'https://semopenalex.org/author/A5100447691', 'https://semopenalex.org/author/A5013438083', 'https://semopenalex.org/author/A5056526226', 'https://semopenalex.org/author/A5100633784', 'https://semopenalex.org/author/A5091706559', 'https://semopenalex.org/author/A5065293581', 'https://semopenalex.org/author/A5102222159', 'https://semopenalex.org/author/A5101555891', 'https://semopenalex.org/author/A5023155310', 'https://semopenalex.org/author/A5100361984', 'https://semopenalex.org/author/A5035359666', 'https://semopenalex.org/author/A5035089987', 'https://semopenalex.org/author/A5027206285', 'https://semopenalex.org/author/A5009455568', 'https://semopenalex.org/author/A5075273130', 'https://semopenalex.org/author/A5040203716', 'https://semopenalex.org/author/A5055422837', 'https://semopenalex.org/author/A5036120394', 'https://semopenalex.org/author/A5002289161', 'https://semopenalex.org/author/A5034057959', 'https://semopenalex.org/author/A5064776947', 'https://semopenalex.org/author/A5090671359', 'https://semopenalex.org/author/A5073965511', 'https://semopenalex.org/author/A5077008083', 'https://semopenalex.org/author/A5047965752', 'https://semopenalex.org/author/A5045087569', 'https://semopenalex.org/author/A5100299966', 'https://semopenalex.org/author/A5048118068', 'https://semopenalex.org/author/A5100388609', 'https://semopenalex.org/author/A5027084532', 'https://semopenalex.org/author/A5100458045', 'https://semopenalex.org/author/A5023035566', 'https://semopenalex.org/author/A5023093639', 'https://semopenalex.org/author/A5100779597', 'https://semopenalex.org/author/A5055149708', 'https://semopenalex.org/author/A5049622460', 'https://semopenalex.org/author/A5110161847', 'https://semopenalex.org/author/A5054115813', 'https://semopenalex.org/author/A5065120715', 'https://semopenalex.org/author/A5100367825', 'https://semopenalex.org/author/A5032194564', 'https://semopenalex.org/author/A5000582109', 'https://semopenalex.org/author/A5090627608', 'https://semopenalex.org/author/A5100523187', 'https://semopenalex.org/author/A5081340873', 'https://semopenalex.org/author/A5053084752', 'https://semopenalex.org/author/A5088708850', 'https://semopenalex.org/author/A5033164669', 'https://semopenalex.org/author/A5102858698', 'https://semopenalex.org/author/A5039326697', 'https://semopenalex.org/author/A5100388581', 'https://semopenalex.org/author/A5024073253', 'https://semopenalex.org/author/A5058257080', 'https://semopenalex.org/author/A5038017715', 'https://semopenalex.org/author/A5052404451', 'https://semopenalex.org/author/A5056980315', 'https://semopenalex.org/author/A5025977354', 'https://semopenalex.org/author/A5009071576', 'https://semopenalex.org/author/A5050748634', 'https://semopenalex.org/author/A5100608460', 'https://semopenalex.org/author/A5077424533', 'https://semopenalex.org/author/A5102014459', 'https://semopenalex.org/author/A5003031253', 'https://semopenalex.org/author/A5101614814', 'https://semopenalex.org/author/A5102859232', 'https://semopenalex.org/author/A5059065212', 'https://semopenalex.org/author/A5079431306', 'https://semopenalex.org/author/A5042235813', 'https://semopenalex.org/author/A5011086593', 'https://semopenalex.org/author/A5103234102', 'https://semopenalex.org/author/A5074540830', 'https://semopenalex.org/author/A5048041198', 'https://semopenalex.org/author/A5089294104', 'https://semopenalex.org/author/A5102987690', 'https://semopenalex.org/author/A5085247180', 'https://semopenalex.org/author/A5101966381', 'https://semopenalex.org/author/A5088498790', 'https://semopenalex.org/author/A5004490190', 'https://semopenalex.org/author/A5100388599', 'https://semopenalex.org/author/A5100447531', 'https://semopenalex.org/author/A5081650066', 'https://semopenalex.org/author/A5100738977', 'https://semopenalex.org/author/A5100408160', 'https://semopenalex.org/author/A5021179945', 'https://semopenalex.org/author/A5100665833', 'https://semopenalex.org/author/A5030490896', 'https://semopenalex.org/author/A5100388617', 'https://semopenalex.org/author/A5042986574', 'https://semopenalex.org/author/A5100458090', 'https://semopenalex.org/author/A5088646345', 'https://semopenalex.org/author/A5006357713', 'https://semopenalex.org/author/A5019450472', 'https://semopenalex.org/author/A5028716858', 'https://semopenalex.org/author/A5069809962', 'https://semopenalex.org/author/A5100443727', 'https://semopenalex.org/author/A5100331488', 'https://semopenalex.org/author/A5100367807', 'https://semopenalex.org/author/A5101308414', 'https://semopenalex.org/author/A5079729956', 'https://semopenalex.org/author/A5059555100', 'https://semopenalex.org/author/A5034794084', 'https://semopenalex.org/author/A5100388627', 'https://semopenalex.org/author/A5102204689', 'https://semopenalex.org/author/A5052981404', 'https://semopenalex.org/author/A5043476448', 'https://semopenalex.org/author/A5100322125', 'https://semopenalex.org/author/A5100394129', 'https://semopenalex.org/author/A5100753041', 'https://semopenalex.org/author/A5100445622', 'https://semopenalex.org/author/A5100447682', 'https://semopenalex.org/author/A5030626281', 'https://semopenalex.org/author/A5101194950', 'https://semopenalex.org/author/A5040850915', 'https://semopenalex.org/author/A5074075949', 'https://semopenalex.org/author/A5102020713', 'https://semopenalex.org/author/A5100459874', 'https://semopenalex.org/author/A5103223639', 'https://semopenalex.org/author/A5100677820', 'https://semopenalex.org/author/A5085393851', 'https://semopenalex.org/author/A5012469172', 'https://semopenalex.org/author/A5100438174', 'https://semopenalex.org/author/A5101540631', 'https://semopenalex.org/author/A5056755949', 'https://semopenalex.org/author/A5100376204', 'https://semopenalex.org/author/A5068122240', 'https://semopenalex.org/author/A5025099559', 'https://semopenalex.org/author/A5010958113', 'https://semopenalex.org/author/A5100753039', 'https://semopenalex.org/author/A5100697624', 'https://semopenalex.org/author/A5016401353', 'https://semopenalex.org/author/A5072456187', 'https://semopenalex.org/author/A5100388716', 'https://semopenalex.org/author/A5101852647', 'https://semopenalex.org/author/A5081886276', 'https://semopenalex.org/author/A5005604635', 'https://semopenalex.org/author/A5067395122', 'https://semopenalex.org/author/A5054753279', 'https://semopenalex.org/author/A5076444296', 'https://semopenalex.org/author/A5021222755', 'https://semopenalex.org/author/A5101612059', 'https://semopenalex.org/author/A5059396373', 'https://semopenalex.org/author/A5045500611', 'https://semopenalex.org/author/A5036986396', 'https://semopenalex.org/author/A5100327487', 'https://semopenalex.org/author/A5061863093', 'https://semopenalex.org/author/A5041961808', 'https://semopenalex.org/author/A5113115887', 'https://semopenalex.org/author/A5100361632', 'https://semopenalex.org/author/A5111956187', 'https://semopenalex.org/author/A5060364305', 'https://semopenalex.org/author/A5115590096', 'https://semopenalex.org/author/A5085611398', 'https://semopenalex.org/author/A5036039721', 'https://semopenalex.org/author/A5011667547', 'https://semopenalex.org/author/A5081449581', 'https://semopenalex.org/author/A5006669765', 'https://semopenalex.org/author/A5066916130', 'https://semopenalex.org/author/A5084868951', 'https://semopenalex.org/author/A5100388644', 'https://semopenalex.org/author/A5100738974', 'https://semopenalex.org/author/A5002503342', 'https://semopenalex.org/author/A5018031899', 'https://semopenalex.org/author/A5043546718', 'https://semopenalex.org/author/A5013103539', 'https://semopenalex.org/author/A5087587101']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2980909386', 'https://semopenalex.org/work/W2108772193', 'https://semopenalex.org/work/W3183223328', 'https://semopenalex.org/work/W2080778070', '2010', 'https://semopenalex.org/work/W3094530900', 'https://semopenalex.org/work/W2768867910', 'https://semopenalex.org/work/W2013683587', 'https://semopenalex.org/work/W4283727356', '2014', '2011', 'https://semopenalex.org/work/W577437274', 'https://semopenalex.org/work/W4229332766', 'https://semopenalex.org/work/W2139123718', 'https://semopenalex.org/work/W4402111012', '2016', '2022', 'https://semopenalex.org/work/W4396774950', 'https://semopenalex.org/work/W2102571324', 'https://semopenalex.org/work/W2898517899', 'https://semopenalex.org/work/W12409091', 'https://semopenalex.org/work/W4200300839', 'https://semopenalex.org/work/W2259681201', 'https://semopenalex.org/work/W3196969850', 'https://semopenalex.org/work/W2979306097', 'https://semopenalex.org/work/W2066079643', 'https://semopenalex.org/work/W2767279489', 'https://semopenalex.org/work/W3042971551', 'https://semopenalex.org/work/W2773748254', 'https://semopenalex.org/work/W3081722247', 'https://semopenalex.org/work/W4283719869', 'https://semopenalex.org/work/W4388442457', 'https://semopenalex.org/work/W2509319904', 'https://semopenalex.org/work/W1992481796', 'https://semopenalex.org/work/W2460327056', 'https://semopenalex.org/work/W1970969056', 'https://semopenalex.org/work/W2166474382', 'https://semopenalex.org/work/W2132176043', 'https://semopenalex.org/work/W4200171350', 'https://semopenalex.org/work/W1997556505', 'https://semopenalex.org/work/W2948301006', 'https://semopenalex.org/work/W1500793049', 'https://semopenalex.org/work/W2948842040', 'https://semopenalex.org/work/W2064795090', '2019', 'https://semopenalex.org/work/W1497260915', 'https://semopenalex.org/work/W4386658225', '2015', '2021', 'https://semopenalex.org/work/W4389542639', 'https://semopenalex.org/work/W2898652465', '2013', 'https://semopenalex.org/work/W2056938644', 'https://semopenalex.org/work/W2883605426', 'https://semopenalex.org/work/W2140663815', 'https://semopenalex.org/work/W2905245385', 'https://semopenalex.org/work/W2810777165', 'https://semopenalex.org/work/W1642534804', 'https://semopenalex.org/work/W3216430907', 'https://semopenalex.org/work/W2469358968', 'https://semopenalex.org/work/W1966638294', 'https://semopenalex.org/work/W4312342218', 'https://semopenalex.org/work/W4405721239', 'https://semopenalex.org/work/W4312466951', '2023', 'https://semopenalex.org/work/W2895960982', 'https://semopenalex.org/work/W2984980523', 'https://semopenalex.org/work/W4225665789', 'https://semopenalex.org/work/W2912718446', 'https://semopenalex.org/work/W2525447956', 'https://semopenalex.org/work/W2137973352', 'https://semopenalex.org/work/W2781983165', '2024', 'https://semopenalex.org/work/W2614777946', 'https://semopenalex.org/work/W2916024294', 'https://semopenalex.org/work/W2062582789', 'https://semopenalex.org/work/W2160324252', 'https://semopenalex.org/work/W2742357289', 'https://semopenalex.org/work/W2574426197', 'https://semopenalex.org/work/W2729358317', 'https://semopenalex.org/work/W2948077456', '2012', 'https://semopenalex.org/work/W4200567986', 'https://semopenalex.org/work/W1517780295', '2008', 'https://semopenalex.org/work/W2040041660', 'https://semopenalex.org/work/W3003315047', 'https://semopenalex.org/work/W2201795542', 'https://semopenalex.org/work/W2943023300', 'https://semopenalex.org/work/W4389542588', 'https://semopenalex.org/work/W3020102474', 'https://semopenalex.org/work/W2146499289', 'https://semopenalex.org/work/W2974391363', 'https://semopenalex.org/work/W2080816360', 'https://semopenalex.org/work/W2103141465', 'https://semopenalex.org/work/W3146074607', 'https://semopenalex.org/work/W2002565472', '2009', 'https://semopenalex.org/work/W2786699184', 'https://semopenalex.org/work/W2056876297', 'https://semopenalex.org/work/W2600317709', 'https://semopenalex.org/work/W1538014482', '2007', 'https://semopenalex.org/work/W2188075483', 'https://semopenalex.org/work/W1524855866', 'https://semopenalex.org/work/W4394843643', 'https://semopenalex.org/work/W1990881389', '2018', 'https://semopenalex.org/work/W2066797554', '2020', '2017', 'https://semopenalex.org/work/W3119942460', 'https://semopenalex.org/work/W2906936538', 'https://semopenalex.org/work/W2559459321', 'https://semopenalex.org/work/W2198531583', 'https://semopenalex.org/work/W1975460851', 'https://semopenalex.org/work/W2517469201', 'https://semopenalex.org/work/W4205142910']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2039177656', 'https://semopenalex.org/work/W1980181148', 'https://semopenalex.org/work/W4391684807', '2010', 'https://semopenalex.org/work/W2013852366', 'https://semopenalex.org/work/W2048594604', 'https://semopenalex.org/work/W2012782208', 'https://semopenalex.org/work/W3164155241', 'https://semopenalex.org/work/W2913016194', 'https://semopenalex.org/work/W2004547728', 'https://semopenalex.org/work/W2329631935', 'https://semopenalex.org/work/W3128935797', '2022', 'https://semopenalex.org/work/W1538532853', 'https://semopenalex.org/work/W2967203127', 'https://semopenalex.org/work/W4394293467', 'https://semopenalex.org/work/W2953838456', '2000', 'https://semopenalex.org/work/W271420439', 'https://semopenalex.org/work/W2036885459', 'https://semopenalex.org/work/W2088364977', 'https://semopenalex.org/work/W2396349253', 'https://semopenalex.org/work/W2519868173', 'https://semopenalex.org/work/W2064750873', 'https://semopenalex.org/work/W2029809197', 'https://semopenalex.org/work/W1978378406', 'https://semopenalex.org/work/W2103980580', 'https://semopenalex.org/work/W2915836981', 'https://semopenalex.org/work/W2991263707', 'https://semopenalex.org/work/W640245575', 'https://semopenalex.org/work/W2034102356', 'https://semopenalex.org/work/W2986810074', 'https://semopenalex.org/work/W2066384515', '2015', '1998', '1993', '2021', 'https://semopenalex.org/work/W228755155', 'https://semopenalex.org/work/W2969418178', 'https://semopenalex.org/work/W2546727279', 'https://semopenalex.org/work/W2060044229', 'https://semopenalex.org/work/W2086040860', 'https://semopenalex.org/work/W2060278984', 'https://semopenalex.org/work/W4220672614', 'https://semopenalex.org/work/W2064071960', 'https://semopenalex.org/work/W3055495201', '1995', 'https://semopenalex.org/work/W4387369259', 'https://semopenalex.org/work/W1967174927', 'https://semopenalex.org/work/W2009119025', 'https://semopenalex.org/work/W2018479594', 'https://semopenalex.org/work/W2021951536', 'https://semopenalex.org/work/W2059404749', 'https://semopenalex.org/work/W2318907015', 'https://semopenalex.org/work/W1568305781', 'https://semopenalex.org/work/W4324359863', 'https://semopenalex.org/work/W1989871831', 'https://semopenalex.org/work/W2052873271', 'https://semopenalex.org/work/W3019575017', '2001', 'https://semopenalex.org/work/W2480234826', 'https://semopenalex.org/work/W1984650460', 'https://semopenalex.org/work/W2741097543', 'https://semopenalex.org/work/W4252122816', '1988', 'https://semopenalex.org/work/W190160164', 'https://semopenalex.org/work/W2093931098', 'https://semopenalex.org/work/W3086185107', 'https://semopenalex.org/work/W2067087217', 'https://semopenalex.org/work/W2068480341', 'https://semopenalex.org/work/W1972674390', '1992', 'https://semopenalex.org/work/W3214447632', 'https://semopenalex.org/work/W2159171681', '2009', '1990', 'https://semopenalex.org/work/W1975309265', 'https://semopenalex.org/work/W163429763', 'https://semopenalex.org/work/W2014643492', 'https://semopenalex.org/work/W1541797976', 'https://semopenalex.org/work/W1482898154', 'https://semopenalex.org/work/W1989356517', 'https://semopenalex.org/work/W2030939912', 'https://semopenalex.org/work/W1993275030', 'https://semopenalex.org/work/W2026432018', '2017', 'https://semopenalex.org/work/W2009454976', 'https://semopenalex.org/work/W4289550469', 'https://semopenalex.org/work/W2010445406', 'https://semopenalex.org/work/W1997386279', 'https://semopenalex.org/work/W2794164678', 'https://semopenalex.org/work/W636573060', 'https://semopenalex.org/work/W2586297834', 'https://semopenalex.org/work/W1991387415', 'https://semopenalex.org/work/W2740307317', 'https://semopenalex.org/work/W2052803038', 'https://semopenalex.org/work/W2181066623', 'https://semopenalex.org/work/W4393866936', 'https://semopenalex.org/work/W2149715509', 'https://semopenalex.org/work/W1968243561', 'https://semopenalex.org/work/W2087554799', 'https://semopenalex.org/work/W2042363186', 'https://semopenalex.org/work/W2077125930', 'https://semopenalex.org/work/W3201942466', 'https://semopenalex.org/work/W3215761223', 'https://semopenalex.org/work/W2341377059', 'https://semopenalex.org/work/W1571746062', '2016', 'https://semopenalex.org/work/W2118421206', 'https://semopenalex.org/work/W1569869406', 'https://semopenalex.org/work/W2154600304', 'https://semopenalex.org/work/W64488262', 'https://semopenalex.org/work/W1984806471', 'https://semopenalex.org/work/W2907116503', 'https://semopenalex.org/work/W2040609124', 'https://semopenalex.org/work/W4400238212', 'https://semopenalex.org/work/W2158287526', 'https://semopenalex.org/work/W2029526684', 'https://semopenalex.org/work/W3041642278', 'https://semopenalex.org/work/W4249450441', 'https://semopenalex.org/work/W2075479682', 'https://semopenalex.org/work/W2000276917', 'https://semopenalex.org/work/W1976208484', 'https://semopenalex.org/work/W4246379538', 'https://semopenalex.org/work/W2082384466', 'https://semopenalex.org/work/W2095348061', 'https://semopenalex.org/work/W2045093348', 'https://semopenalex.org/work/W2740400228', 'https://semopenalex.org/work/W4318317915', 'https://semopenalex.org/work/W1998199254', 'https://semopenalex.org/work/W1984581406', 'https://semopenalex.org/work/W2026838985', 'https://semopenalex.org/work/W3048651111', 'https://semopenalex.org/work/W3161899512', 'https://semopenalex.org/work/W1560941242', 'https://semopenalex.org/work/W2019047238', '2004', 'https://semopenalex.org/work/W1964555225', 'https://semopenalex.org/work/W2294796949', 'https://semopenalex.org/work/W2794398634', 'https://semopenalex.org/work/W3016411318', 'https://semopenalex.org/work/W2038358052', 'https://semopenalex.org/work/W1997306318', 'https://semopenalex.org/work/W3107218220', '2023', 'https://semopenalex.org/work/W2091157920', 'https://semopenalex.org/work/W2043459596', 'https://semopenalex.org/work/W3013319791', 'https://semopenalex.org/work/W2139753795', 'https://semopenalex.org/work/W2139709384', 'https://semopenalex.org/work/W2064203047', 'https://semopenalex.org/work/W2085636994', 'https://semopenalex.org/work/W2981009321', 'https://semopenalex.org/work/W2790855759', 'https://semopenalex.org/work/W37516516', 'https://semopenalex.org/work/W1483874444', 'https://semopenalex.org/work/W44005048', 'https://semopenalex.org/work/W3172391588', 'https://semopenalex.org/work/W1488675150', 'https://semopenalex.org/work/W2117441316', 'https://semopenalex.org/work/W3187719451', 'https://semopenalex.org/work/W2082205855', 'https://semopenalex.org/work/W2068795451', 'https://semopenalex.org/work/W2061225966', 'https://semopenalex.org/work/W2320355062', 'https://semopenalex.org/work/W2024118499', 'https://semopenalex.org/work/W2081767341', 'https://semopenalex.org/work/W2900728215', 'https://semopenalex.org/work/W1980538662', 'https://semopenalex.org/work/W79922955', 'https://semopenalex.org/work/W2908219036', 'https://semopenalex.org/work/W1971442254', 'https://semopenalex.org/work/W2025128474', 'https://semopenalex.org/work/W130774596', 'https://semopenalex.org/work/W3210579564', 'https://semopenalex.org/work/W4390414690', 'https://semopenalex.org/work/W1582123288', 'https://semopenalex.org/work/W2086246711', 'https://semopenalex.org/work/W2122646293', 'https://semopenalex.org/work/W1993189855', 'https://semopenalex.org/work/W1586441079', 'https://semopenalex.org/work/W2075668496', 'https://semopenalex.org/work/W2888133949', 'https://semopenalex.org/work/W2971754524', 'https://semopenalex.org/work/W2049819358', 'https://semopenalex.org/work/W3022018820', 'https://semopenalex.org/work/W2806474598', 'https://semopenalex.org/work/W2079056716', 'https://semopenalex.org/work/W2072934778', 'https://semopenalex.org/work/W2574243370', 'https://semopenalex.org/work/W2018066983', 'https://semopenalex.org/work/W90687014', 'https://semopenalex.org/work/W1627595726', 'https://semopenalex.org/work/W3142609865', 'https://semopenalex.org/work/W1493840483', 'https://semopenalex.org/work/W2184658787', 'https://semopenalex.org/work/W2994628337', 'https://semopenalex.org/work/W2031817635', 'https://semopenalex.org/work/W1968149011', '2006', 'https://semopenalex.org/work/W2911371235', 'https://semopenalex.org/work/W4200283911', 'https://semopenalex.org/work/W2981960449', 'https://semopenalex.org/work/W2060618382', 'https://semopenalex.org/work/W1971381096', 'https://semopenalex.org/work/W4391584745', 'https://semopenalex.org/work/W4391557816', 'https://semopenalex.org/work/W2529218823', 'https://semopenalex.org/work/W2916929771', 'https://semopenalex.org/work/W1517481378', 'https://semopenalex.org/work/W4390692864', 'https://semopenalex.org/work/W1518779212', 'https://semopenalex.org/work/W59566743', 'https://semopenalex.org/work/W2970442706', 'https://semopenalex.org/work/W4394073022', 'https://semopenalex.org/work/W2056299701', 'https://semopenalex.org/work/W2020339925', 'https://semopenalex.org/work/W1642870482', 'https://semopenalex.org/work/W2408459291', 'https://semopenalex.org/work/W3082374779', 'https://semopenalex.org/work/W39620704', 'https://semopenalex.org/work/W2036899994', 'https://semopenalex.org/work/W4234847110', 'https://semopenalex.org/work/W2120673833', 'https://semopenalex.org/work/W2089282138', 'https://semopenalex.org/work/W1534449133', 'https://semopenalex.org/work/W2101249352', 'https://semopenalex.org/work/W1994268719', 'https://semopenalex.org/work/W2901921285', '2013', 'https://semopenalex.org/work/W3111295426', 'https://semopenalex.org/work/W122482311', 'https://semopenalex.org/work/W4391919454', 'https://semopenalex.org/work/W1990837339', 'https://semopenalex.org/work/W2018135193', 'https://semopenalex.org/work/W2006143633', 'https://semopenalex.org/work/W1980398466', 'https://semopenalex.org/work/W1588649624', '1999', 'https://semopenalex.org/work/W3204819535', 'https://semopenalex.org/work/W4233343837', 'https://semopenalex.org/work/W3194232761', 'https://semopenalex.org/work/W2031648687', 'https://semopenalex.org/work/W4386839651', '2024', 'https://semopenalex.org/work/W2321612665', 'https://semopenalex.org/work/W2936573717', 'https://semopenalex.org/work/W2082828794', '2012', 'https://semopenalex.org/work/W3186140780', 'https://semopenalex.org/work/W1571134169', 'https://semopenalex.org/work/W1969945850', 'https://semopenalex.org/work/W4390590432', 'https://semopenalex.org/work/W2033093837', 'https://semopenalex.org/work/W4287181600', 'https://semopenalex.org/work/W2018524889', 'https://semopenalex.org/work/W2005047913', 'https://semopenalex.org/work/W2087976428', 'https://semopenalex.org/work/W628030466', 'https://semopenalex.org/work/W1627805657', 'https://semopenalex.org/work/W2015654341', 'https://semopenalex.org/work/W2189456133', '1989', 'https://semopenalex.org/work/W1984615968', 'https://semopenalex.org/work/W2014778994', 'https://semopenalex.org/work/W960409938', 'https://semopenalex.org/work/W2020099687', 'https://semopenalex.org/work/W4206649883', 'https://semopenalex.org/work/W2053743818', 'https://semopenalex.org/work/W1988313245', 'https://semopenalex.org/work/W2019485788', 'https://semopenalex.org/work/W2147842842', 'https://semopenalex.org/work/W4310675622', 'https://semopenalex.org/work/W1999301998', 'https://semopenalex.org/work/W2063577352', 'https://semopenalex.org/work/W2928015644', 'https://semopenalex.org/work/W1971669936', '2020', 'https://semopenalex.org/work/W2328140270', 'https://semopenalex.org/work/W587725430', 'https://semopenalex.org/work/W2078772434', 'https://semopenalex.org/work/W2058095168', 'https://semopenalex.org/work/W2073607636', 'https://semopenalex.org/work/W2954465656', 'https://semopenalex.org/work/W4244974359', 'https://semopenalex.org/work/W3123688625', 'https://semopenalex.org/work/W2322341239', 'https://semopenalex.org/work/W3134945624', 'https://semopenalex.org/work/W765595559', 'https://semopenalex.org/work/W2015300509', 'https://semopenalex.org/work/W2020712407', 'https://semopenalex.org/work/W2047028790', 'https://semopenalex.org/work/W4396834139', 'https://semopenalex.org/work/W3156243247', '2014', 'https://semopenalex.org/work/W1971692815', '2011', 'https://semopenalex.org/work/W2014780299', 'https://semopenalex.org/work/W2972361592', 'https://semopenalex.org/work/W1532383649', 'https://semopenalex.org/work/W3099956427', 'https://semopenalex.org/work/W1964363507', 'https://semopenalex.org/work/W1522203859', 'https://semopenalex.org/work/W345501370', 'https://semopenalex.org/work/W4224286726', 'https://semopenalex.org/work/W1996943196', 'https://semopenalex.org/work/W4318576546', 'https://semopenalex.org/work/W189886228', 'https://semopenalex.org/work/W1987911893', 'https://semopenalex.org/work/W2188694906', 'https://semopenalex.org/work/W2403016749', 'https://semopenalex.org/work/W2040086856', 'https://semopenalex.org/work/W155659472', '2019', '2002', 'https://semopenalex.org/work/W3164758514', 'https://semopenalex.org/work/W4394769646', 'https://semopenalex.org/work/W2040936263', 'https://semopenalex.org/work/W1980339999', 'https://semopenalex.org/work/W2024862092', 'https://semopenalex.org/work/W2054169789', 'https://semopenalex.org/work/W2040105294', 'https://semopenalex.org/work/W2034879085', 'https://semopenalex.org/work/W1998795403', 'https://semopenalex.org/work/W4200608769', 'https://semopenalex.org/work/W615969866', 'https://semopenalex.org/work/W2368782544', 'https://semopenalex.org/work/W2324664326', 'https://semopenalex.org/work/W3182865346', 'https://semopenalex.org/work/W2099159979', 'https://semopenalex.org/work/W290569047', 'https://semopenalex.org/work/W2046072928', 'https://semopenalex.org/work/W4391576382', 'https://semopenalex.org/work/W2060079309', 'https://semopenalex.org/work/W1982863708', 'https://semopenalex.org/work/W1626960189', 'https://semopenalex.org/work/W2128595589', 'https://semopenalex.org/work/W2016681672', 'https://semopenalex.org/work/W2066159379', 'https://semopenalex.org/work/W1923840883', 'https://semopenalex.org/work/W4205672682', 'https://semopenalex.org/work/W2902178958', 'https://semopenalex.org/work/W3093178321', 'https://semopenalex.org/work/W2171624691', '1996', '2008', 'https://semopenalex.org/work/W1592037243', 'https://semopenalex.org/work/W4236338365', 'https://semopenalex.org/work/W1548136344', 'https://semopenalex.org/work/W2141743206', 'https://semopenalex.org/work/W1529164293', 'https://semopenalex.org/work/W1499410424', 'https://semopenalex.org/work/W1524171891', 'https://semopenalex.org/work/W1963588025', 'https://semopenalex.org/work/W114265811', 'https://semopenalex.org/work/W2132391420', 'https://semopenalex.org/work/W2159096374', '2005', 'https://semopenalex.org/work/W2006066088', 'https://semopenalex.org/work/W2079988974', '2007', 'https://semopenalex.org/work/W2320939443', 'https://semopenalex.org/work/W2605361690', 'https://semopenalex.org/work/W2163782890', '1994', '2018', 'https://semopenalex.org/work/W2045865242', 'https://semopenalex.org/work/W3041037395', 'https://semopenalex.org/work/W2009485101', 'https://semopenalex.org/work/W2027241951', 'https://semopenalex.org/work/W2024647633', 'https://semopenalex.org/work/W3141654796', 'https://semopenalex.org/work/W1534206021', '1997', 'https://semopenalex.org/work/W2056107633', '2003', '1991']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2102192776', 'https://semopenalex.org/work/W3163829155', 'https://semopenalex.org/work/W2159418816', '2010', 'https://semopenalex.org/work/W2543290882', 'https://semopenalex.org/work/W4388269044', 'https://semopenalex.org/work/W1581193980', 'https://semopenalex.org/work/W4230110652', 'https://semopenalex.org/work/W4391020903', '2006', 'https://semopenalex.org/work/W4318970057', '2022', 'https://semopenalex.org/work/W4283717476', 'https://semopenalex.org/work/W2030094243', 'https://semopenalex.org/work/W2496022852', 'https://semopenalex.org/work/W2024684112', '2000', 'https://semopenalex.org/work/W2047881046', 'https://semopenalex.org/work/W4405862515', 'https://semopenalex.org/work/W2105742976', 'https://semopenalex.org/work/W2039356852', 'https://semopenalex.org/work/W4281740428', 'https://semopenalex.org/work/W4312236298', 'https://semopenalex.org/work/W2142587013', 'https://semopenalex.org/work/W2165545803', 'https://semopenalex.org/work/W2141063168', 'https://semopenalex.org/work/W2528925866', 'https://semopenalex.org/work/W2104632120', 'https://semopenalex.org/work/W2105085354', 'https://semopenalex.org/work/W2163543978', 'https://semopenalex.org/work/W2802656234', 'https://semopenalex.org/work/W2106635847', 'https://semopenalex.org/work/W4213448280', 'https://semopenalex.org/work/W1551825080', 'https://semopenalex.org/work/W3163482829', '2015', '1998', 'https://semopenalex.org/work/W1665563077', 'https://semopenalex.org/work/W1531649411', 'https://semopenalex.org/work/W2900792485', '2021', 'https://semopenalex.org/work/W3047123852', 'https://semopenalex.org/work/W2590423002', 'https://semopenalex.org/work/W4239254136', '2013', 'https://semopenalex.org/work/W4213458662', 'https://semopenalex.org/work/W2613874072', 'https://semopenalex.org/work/W2982552167', 'https://semopenalex.org/work/W2122961745', 'https://semopenalex.org/work/W2164538779', 'https://semopenalex.org/work/W2138789181', 'https://semopenalex.org/work/W4287823286', 'https://semopenalex.org/work/W2469706955', 'https://semopenalex.org/work/W3047348337', 'https://semopenalex.org/work/W4285786297', 'https://semopenalex.org/work/W4281256581', '1995', 'https://semopenalex.org/work/W2036723370', 'https://semopenalex.org/work/W4281566630', 'https://semopenalex.org/work/W3168704806', 'https://semopenalex.org/work/W4388273546', 'https://semopenalex.org/work/W4389507468', 'https://semopenalex.org/work/W2550443172', '2024', 'https://semopenalex.org/work/W2585641736', 'https://semopenalex.org/work/W2109866355', 'https://semopenalex.org/work/W2402648086', 'https://semopenalex.org/work/W2171052396', 'https://semopenalex.org/work/W3195484345', 'https://semopenalex.org/work/W2729199241', 'https://semopenalex.org/work/W2127395347', 'https://semopenalex.org/work/W2130342838', 'https://semopenalex.org/work/W2547002293', '2012', 'https://semopenalex.org/work/W3033571371', 'https://semopenalex.org/work/W2154438608', 'https://semopenalex.org/work/W2578853648', 'https://semopenalex.org/work/W1835952791', 'https://semopenalex.org/work/W4318969761', 'https://semopenalex.org/work/W3083229052', 'https://semopenalex.org/work/W4285786294', 'https://semopenalex.org/work/W4210934190', 'https://semopenalex.org/work/W1775831620', 'https://semopenalex.org/work/W2921631969', 'https://semopenalex.org/work/W2133705025', 'https://semopenalex.org/work/W4318970000', 'https://semopenalex.org/work/W2940819770', 'https://semopenalex.org/work/W2576038375', 'https://semopenalex.org/work/W2142294302', 'https://semopenalex.org/work/W1555253378', '2009', 'https://semopenalex.org/work/W3174777116', 'https://semopenalex.org/work/W2218588614', 'https://semopenalex.org/work/W3022673459', 'https://semopenalex.org/work/W4281962661', 'https://semopenalex.org/work/W2531274777', 'https://semopenalex.org/work/W2103890758', 'https://semopenalex.org/work/W1974354735', 'https://semopenalex.org/work/W166240575', 'https://semopenalex.org/work/W4253847908', 'https://semopenalex.org/work/W2497006851', 'https://semopenalex.org/work/W2806226057', 'https://semopenalex.org/work/W2127452154', 'https://semopenalex.org/work/W2100346671', '2020', 'https://semopenalex.org/work/W4393028170', 'https://semopenalex.org/work/W2801259407', '2017', 'https://semopenalex.org/work/W4210903074', 'https://semopenalex.org/work/W2909349515', 'https://semopenalex.org/work/W2096649131', 'https://semopenalex.org/work/W2055767683', 'https://semopenalex.org/work/W2002217711', 'https://semopenalex.org/work/W4312798185', 'https://semopenalex.org/work/W3160912856', 'https://semopenalex.org/work/W2127245662', 'https://semopenalex.org/work/W4318969752', 'https://semopenalex.org/work/W2996961199', 'https://semopenalex.org/work/W4318969650', '2014', 'https://semopenalex.org/work/W4213441020', '2016', 'https://semopenalex.org/work/W1984879444', 'https://semopenalex.org/work/W1494928177', 'https://semopenalex.org/work/W4232849083', 'https://semopenalex.org/work/W3165809824', 'https://semopenalex.org/work/W1486164902', 'https://semopenalex.org/work/W4393062697', 'https://semopenalex.org/work/W2052561647', 'https://semopenalex.org/work/W4210869932', 'https://semopenalex.org/work/W2127370747', 'https://semopenalex.org/work/W4318970119', 'https://semopenalex.org/work/W4388270026', 'https://semopenalex.org/work/W4318970035', 'https://semopenalex.org/work/W2172280166', 'https://semopenalex.org/work/W2138406631', 'https://semopenalex.org/work/W2139703143', 'https://semopenalex.org/work/W2910970594', 'https://semopenalex.org/work/W3016817425', 'https://semopenalex.org/work/W2156453906', 'https://semopenalex.org/work/W2135111007', 'https://semopenalex.org/work/W3012987257', 'https://semopenalex.org/work/W2009832803', 'https://semopenalex.org/work/W3041964291', 'https://semopenalex.org/work/W3204535293', 'https://semopenalex.org/work/W4318969871', 'https://semopenalex.org/work/W2954841661', '2019', '2002', 'https://semopenalex.org/work/W2790642115', 'https://semopenalex.org/work/W2749904014', '2004', 'https://semopenalex.org/work/W3130882128', 'https://semopenalex.org/work/W4318969798', 'https://semopenalex.org/work/W2548922933', 'https://semopenalex.org/work/W1605585784', 'https://semopenalex.org/work/W2043900241', 'https://semopenalex.org/work/W2120493426', 'https://semopenalex.org/work/W2974137617', 'https://semopenalex.org/work/W4318969730', 'https://semopenalex.org/work/W3082483119', 'https://semopenalex.org/work/W3082230612', 'https://semopenalex.org/work/W2027593698', '2023', 'https://semopenalex.org/work/W4285786699', 'https://semopenalex.org/work/W2065425420', 'https://semopenalex.org/work/W3182696462', 'https://semopenalex.org/work/W4378800780', 'https://semopenalex.org/work/W2111184268', 'https://semopenalex.org/work/W2160646603', 'https://semopenalex.org/work/W2098204276', 'https://semopenalex.org/work/W2139742340', 'https://semopenalex.org/work/W2537332380', 'https://semopenalex.org/work/W4378805947', 'https://semopenalex.org/work/W3087107980', 'https://semopenalex.org/work/W3093692137', 'https://semopenalex.org/work/W4233309692', 'https://semopenalex.org/work/W2097791903', 'https://semopenalex.org/work/W2974912160', 'https://semopenalex.org/work/W2296064032', 'https://semopenalex.org/work/W4206136645', 'https://semopenalex.org/work/W3011958521', '1996', 'https://semopenalex.org/work/W2550636813', 'https://semopenalex.org/work/W2160958666', 'https://semopenalex.org/work/W2072604906', 'https://semopenalex.org/work/W2140669431', '2008', 'https://semopenalex.org/work/W2974668559', 'https://semopenalex.org/work/W1589540126', 'https://semopenalex.org/work/W2955275107', 'https://semopenalex.org/work/W3007496018', 'https://semopenalex.org/work/W4391266287', 'https://semopenalex.org/work/W2982483278', 'https://semopenalex.org/work/W2114326457', 'https://semopenalex.org/work/W4318969854', 'https://semopenalex.org/work/W2127054111', 'https://semopenalex.org/work/W2082820802', 'https://semopenalex.org/work/W4210944749', 'https://semopenalex.org/work/W1990261461', 'https://semopenalex.org/work/W2126039936', 'https://semopenalex.org/work/W1567508215', 'https://semopenalex.org/work/W4210873155', 'https://semopenalex.org/work/W3208795980', 'https://semopenalex.org/work/W2154924725', 'https://semopenalex.org/work/W2101836358', 'https://semopenalex.org/work/W2777102041', 'https://semopenalex.org/work/W2105609818', 'https://semopenalex.org/work/W3144747272', 'https://semopenalex.org/work/W815637642', 'https://semopenalex.org/work/W2143352637', '2005', 'https://semopenalex.org/work/W4213442901', 'https://semopenalex.org/work/W3130793703', 'https://semopenalex.org/work/W1977903638', 'https://semopenalex.org/work/W2972407922', 'https://semopenalex.org/work/W2171515050', 'https://semopenalex.org/work/W2101912651', '2007', 'https://semopenalex.org/work/W2160119788', 'https://semopenalex.org/work/W2159712833', '2018', 'https://semopenalex.org/work/W2150450196', 'https://semopenalex.org/work/W3011290436', 'https://semopenalex.org/work/W2604848757', 'https://semopenalex.org/work/W4318969892', 'https://semopenalex.org/work/W4391021065', 'https://semopenalex.org/work/W1574537663', 'https://semopenalex.org/work/W2135271216', 'https://semopenalex.org/work/W4221062726', 'https://semopenalex.org/work/W2920121448', 'https://semopenalex.org/work/W2746421607', '2003', 'https://semopenalex.org/work/W2745907626', 'https://semopenalex.org/work/W2474568886']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W4220866607', '1983', 'https://semopenalex.org/work/W2794552363', 'https://semopenalex.org/work/W2996424405', '2010', 'https://semopenalex.org/work/W1986447757', 'https://semopenalex.org/work/W333159667', 'https://semopenalex.org/work/W4376878797', 'https://semopenalex.org/work/W3001208788', '2014', '2006', '2011', 'https://semopenalex.org/work/W3003870406', '2016', '2022', 'https://semopenalex.org/work/W2069403900', 'https://semopenalex.org/work/W4300809016', 'https://semopenalex.org/work/W4213054152', 'https://semopenalex.org/work/W2586196676', 'https://semopenalex.org/work/W4239059882', 'https://semopenalex.org/work/W2894658205', 'https://semopenalex.org/work/W2086291403', 'https://semopenalex.org/work/W4390951576', 'https://semopenalex.org/work/W2124884294', 'https://semopenalex.org/work/W2058003955', 'https://semopenalex.org/work/W2997254714', 'https://semopenalex.org/work/W2980431486', 'https://semopenalex.org/work/W3170390068', 'https://semopenalex.org/work/W2067220443', 'https://semopenalex.org/work/W4285149163', 'https://semopenalex.org/work/W4321792691', 'https://semopenalex.org/work/W3009651427', 'https://semopenalex.org/work/W4403148167', 'https://semopenalex.org/work/W103992416', 'https://semopenalex.org/work/W2550600565', 'https://semopenalex.org/work/W3018966866', 'https://semopenalex.org/work/W3205969438', 'https://semopenalex.org/work/W1527780249', 'https://semopenalex.org/work/W3129198752', 'https://semopenalex.org/work/W4200295656', 'https://semopenalex.org/work/W3207358793', 'https://semopenalex.org/work/W4232171693', '2019', 'https://semopenalex.org/work/W2970509049', 'https://semopenalex.org/work/W4292378819', '2015', '2021', 'https://semopenalex.org/work/W2171009049', '2004', '2013', 'https://semopenalex.org/work/W2151014511', 'https://semopenalex.org/work/W2004860585', 'https://semopenalex.org/work/W3007487359', 'https://semopenalex.org/work/W2947887973', 'https://semopenalex.org/work/W3120867123', 'https://semopenalex.org/work/W2794346483', 'https://semopenalex.org/work/W3047226873', 'https://semopenalex.org/work/W2610903992', 'https://semopenalex.org/work/W2734683486', 'https://semopenalex.org/work/W3187488983', '2023', 'https://semopenalex.org/work/W84099738', '2024', 'https://semopenalex.org/work/W2246115839', 'https://semopenalex.org/work/W4285585511', 'https://semopenalex.org/work/W3010786249', 'https://semopenalex.org/work/W2010105821', '2012', '2008', 'https://semopenalex.org/work/W644371662', 'https://semopenalex.org/work/W2258710106', 'https://semopenalex.org/work/W1971349525', 'https://semopenalex.org/work/W3069035240', 'https://semopenalex.org/work/W2737958970', 'https://semopenalex.org/work/W1109050', 'https://semopenalex.org/work/W2955996770', 'https://semopenalex.org/work/W1549914272', 'https://semopenalex.org/work/W4214922121', 'https://semopenalex.org/work/W2319667788', 'https://semopenalex.org/work/W3113261051', 'https://semopenalex.org/work/W2004089424', 'https://semopenalex.org/work/W4400851484', 'https://semopenalex.org/work/W2130875118', 'https://semopenalex.org/work/W4287876838', 'https://semopenalex.org/work/W2122737845', 'https://semopenalex.org/work/W2072306533', 'https://semopenalex.org/work/W4239020865', 'https://semopenalex.org/work/W579278758', '2025', 'https://semopenalex.org/work/W4300970433', 'https://semopenalex.org/work/W4221004647', 'https://semopenalex.org/work/W1961387618', '2005', '2009', 'https://semopenalex.org/work/W2140290607', 'https://semopenalex.org/work/W2142335546', 'https://semopenalex.org/work/W2623352630', 'https://semopenalex.org/work/W1756002337', 'https://semopenalex.org/work/W4229334755', 'https://semopenalex.org/work/W2761369579', 'https://semopenalex.org/work/W3123633695', '2007', 'https://semopenalex.org/work/W2165467091', 'https://semopenalex.org/work/W4321105981', 'https://semopenalex.org/work/W3036594918', 'https://semopenalex.org/work/W3111209168', 'https://semopenalex.org/work/W3193926349', '1994', 'https://semopenalex.org/work/W4394351286', '2018', 'https://semopenalex.org/work/W4406613231', '2020', 'https://semopenalex.org/work/W2783561900', 'https://semopenalex.org/work/W4292377875', '2017', 'https://semopenalex.org/work/W2118255469', 'https://semopenalex.org/work/W4229365934', 'https://semopenalex.org/work/W4245961146', 'https://semopenalex.org/work/W1842188952', 'https://semopenalex.org/work/W2059263765', 'https://semopenalex.org/work/W2754831193', 'https://semopenalex.org/work/W2923244310', 'https://semopenalex.org/work/W2893305614', 'https://semopenalex.org/work/W2790216340', 'https://semopenalex.org/work/W2343633423', '1991']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2734345462', 'https://semopenalex.org/work/W4399991973', 'https://semopenalex.org/work/W4287199679', '2010', 'https://semopenalex.org/work/W2990368351', 'https://semopenalex.org/work/W4386439320', 'https://semopenalex.org/work/W2921556996', 'https://semopenalex.org/work/W3005127776', 'https://semopenalex.org/work/W1616031638', '2014', '2006', 'https://semopenalex.org/work/W4401978390', 'https://semopenalex.org/work/W2622265924', 'https://semopenalex.org/work/W2205191101', '2011', 'https://semopenalex.org/work/W4206891293', '2016', '2022', 'https://semopenalex.org/work/W4399985329', 'https://semopenalex.org/work/W2621391193', 'https://semopenalex.org/work/W110984805', 'https://semopenalex.org/work/W2097450352', 'https://semopenalex.org/work/W2498298891', 'https://semopenalex.org/work/W1729130926', 'https://semopenalex.org/work/W4385822382', 'https://semopenalex.org/work/W2171302802', 'https://semopenalex.org/work/W4312690141', 'https://semopenalex.org/work/W3037369523', 'https://semopenalex.org/work/W4206844749', 'https://semopenalex.org/work/W2922616702', 'https://semopenalex.org/work/W2617659622', 'https://semopenalex.org/work/W2396037699', 'https://semopenalex.org/work/W4282823283', 'https://semopenalex.org/work/W4391589175', 'https://semopenalex.org/work/W844598165', 'https://semopenalex.org/work/W4200635145', 'https://semopenalex.org/work/W176670434', 'https://semopenalex.org/work/W2980624012', 'https://semopenalex.org/work/W201066287', 'https://semopenalex.org/work/W4392188516', 'https://semopenalex.org/work/W3135916968', 'https://semopenalex.org/work/W2400864908', 'https://semopenalex.org/work/W4392903219', 'https://semopenalex.org/work/W57476147', '2019', '2002', '2015', 'https://semopenalex.org/work/W2508726376', 'https://semopenalex.org/work/W4400169194', '2021', '2004', 'https://semopenalex.org/work/W1984877205', '2013', 'https://semopenalex.org/work/W4322732827', 'https://semopenalex.org/work/W4361193366', 'https://semopenalex.org/work/W4317487766', 'https://semopenalex.org/work/W4255342101', 'https://semopenalex.org/work/W4391011167', 'https://semopenalex.org/work/W4404609477', 'https://semopenalex.org/work/W2002383345', 'https://semopenalex.org/work/W4205871850', 'https://semopenalex.org/work/W2340829226', 'https://semopenalex.org/work/W4206887950', 'https://semopenalex.org/work/W4319776757', 'https://semopenalex.org/work/W4396819389', 'https://semopenalex.org/work/W2786772600', 'https://semopenalex.org/work/W1603914949', 'https://semopenalex.org/work/W3168497289', 'https://semopenalex.org/work/W4292536319', '2023', 'https://semopenalex.org/work/W2282010801', 'https://semopenalex.org/work/W65353647', 'https://semopenalex.org/work/W3037451085', 'https://semopenalex.org/work/W3031195982', '2024', 'https://semopenalex.org/work/W4399992019', 'https://semopenalex.org/work/W4293229595', 'https://semopenalex.org/work/W2918054698', 'https://semopenalex.org/work/W4402548755', 'https://semopenalex.org/work/W2538817717', 'https://semopenalex.org/work/W4375869296', 'https://semopenalex.org/work/W4309564724', '2001', 'https://semopenalex.org/work/W341170223', 'https://semopenalex.org/work/W4280542824', 'https://semopenalex.org/work/W4386096501', 'https://semopenalex.org/work/W4391940378', 'https://semopenalex.org/work/W2021438034', '2012', 'https://semopenalex.org/work/W2127936745', 'https://semopenalex.org/work/W4253642683', '2008', 'https://semopenalex.org/work/W2787015518', 'https://semopenalex.org/work/W4401568144', 'https://semopenalex.org/work/W4402148308', 'https://semopenalex.org/work/W3088081769', 'https://semopenalex.org/work/W3089124902', 'https://semopenalex.org/work/W2098962393', 'https://semopenalex.org/work/W3049587051', 'https://semopenalex.org/work/W2246393841', 'https://semopenalex.org/work/W2136188588', 'https://semopenalex.org/work/W2613217108', 'https://semopenalex.org/work/W2791275386', 'https://semopenalex.org/work/W4406492175', 'https://semopenalex.org/work/W172033102', 'https://semopenalex.org/work/W2261240196', 'https://semopenalex.org/work/W2735097653', 'https://semopenalex.org/work/W1964676816', 'https://semopenalex.org/work/W2987987546', 'https://semopenalex.org/work/W3048280215', 'https://semopenalex.org/work/W4392931449', 'https://semopenalex.org/work/W2736540096', 'https://semopenalex.org/work/W4296902974', '2005', 'https://semopenalex.org/work/W4400169339', 'https://semopenalex.org/work/W3198527244', 'https://semopenalex.org/work/W4302377316', 'https://semopenalex.org/work/W2056981644', 'https://semopenalex.org/work/W4399991937', '2007', 'https://semopenalex.org/work/W2736149122', 'https://semopenalex.org/work/W2123872165', 'https://semopenalex.org/work/W4360764206', '2018', 'https://semopenalex.org/work/W4311721661', '2020', '2017', 'https://semopenalex.org/work/W2481729578', 'https://semopenalex.org/work/W4404569657', 'https://semopenalex.org/work/W2141047835', 'https://semopenalex.org/work/W3026162943', 'https://semopenalex.org/work/W4400165275', 'https://semopenalex.org/work/W4386406820', 'https://semopenalex.org/work/W2402441967', 'https://semopenalex.org/work/W3006009898', 'https://semopenalex.org/work/W4298259748', 'https://semopenalex.org/work/W3009280029', 'https://semopenalex.org/work/W4280560758', '2003', 'https://semopenalex.org/work/W2095962821', 'https://semopenalex.org/work/W3200101073']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2132574120', 'https://semopenalex.org/work/W2915009967', 'https://semopenalex.org/work/W173156922', 'https://semopenalex.org/work/W2011170798', '2010', 'https://semopenalex.org/work/W1991332789', 'https://semopenalex.org/work/W1997210046', '2006', 'https://semopenalex.org/work/W2154282221', 'https://semopenalex.org/work/W2806131721', 'https://semopenalex.org/work/W2129825950', 'https://semopenalex.org/work/W4398191656', '2022', 'https://semopenalex.org/work/W2915030750', 'https://semopenalex.org/work/W1574950491', 'https://semopenalex.org/work/W3138989164', 'https://semopenalex.org/work/W1579677221', 'https://semopenalex.org/work/W1550675824', '2000', 'https://semopenalex.org/work/W4384155490', 'https://semopenalex.org/work/W4400939550', 'https://semopenalex.org/work/W3216444132', 'https://semopenalex.org/work/W1475955015', 'https://semopenalex.org/work/W2921648886', 'https://semopenalex.org/work/W1679509962', 'https://semopenalex.org/work/W2008620714', 'https://semopenalex.org/work/W2012114748', 'https://semopenalex.org/work/W2400762887', 'https://semopenalex.org/work/W4324007121', 'https://semopenalex.org/work/W4394555057', 'https://semopenalex.org/work/W2189085557', 'https://semopenalex.org/work/W2014199531', 'https://semopenalex.org/work/W1560854026', 'https://semopenalex.org/work/W4393474997', 'https://semopenalex.org/work/W2949504704', 'https://semopenalex.org/work/W991450633', 'https://semopenalex.org/work/W2123904236', 'https://semopenalex.org/work/W2103704182', 'https://semopenalex.org/work/W2206340513', 'https://semopenalex.org/work/W2953255159', 'https://semopenalex.org/work/W4406859981', 'https://semopenalex.org/work/W4253646682', '1998', '2015', '1993', '2021', 'https://semopenalex.org/work/W2754252703', 'https://semopenalex.org/work/W2779900466', '2013', 'https://semopenalex.org/work/W2522928308', 'https://semopenalex.org/work/W4298063358', 'https://semopenalex.org/work/W1579914521', 'https://semopenalex.org/work/W1792464322', 'https://semopenalex.org/work/W2739356170', 'https://semopenalex.org/work/W2055963247', 'https://semopenalex.org/work/W2044926733', 'https://semopenalex.org/work/W2125383988', 'https://semopenalex.org/work/W3033698111', 'https://semopenalex.org/work/W2523177018', '1995', 'https://semopenalex.org/work/W2008732772', 'https://semopenalex.org/work/W2103982927', 'https://semopenalex.org/work/W1811359278', 'https://semopenalex.org/work/W1994977110', 'https://semopenalex.org/work/W2085609918', 'https://semopenalex.org/work/W4393943425', 'https://semopenalex.org/work/W1595752763', '1999', 'https://semopenalex.org/work/W4400976691', 'https://semopenalex.org/work/W2525118715', '2024', 'https://semopenalex.org/work/W2078770126', 'https://semopenalex.org/work/W2915945450', 'https://semopenalex.org/work/W52260594', 'https://semopenalex.org/work/W2632860668', '2001', 'https://semopenalex.org/work/W4282576055', 'https://semopenalex.org/work/W1719093023', 'https://semopenalex.org/work/W2008606555', '2012', 'https://semopenalex.org/work/W2008078972', 'https://semopenalex.org/work/W1710751537', 'https://semopenalex.org/work/W1978847709', 'https://semopenalex.org/work/W2520217242', 'https://semopenalex.org/work/W1572167134', 'https://semopenalex.org/work/W2747419197', 'https://semopenalex.org/work/W2166938786', 'https://semopenalex.org/work/W1573454147', 'https://semopenalex.org/work/W3158293305', 'https://semopenalex.org/work/W2747898780', 'https://semopenalex.org/work/W1588734579', 'https://semopenalex.org/work/W2061236588', 'https://semopenalex.org/work/W3116695505', 'https://semopenalex.org/work/W36371468', 'https://semopenalex.org/work/W1987557201', 'https://semopenalex.org/work/W2139525797', 'https://semopenalex.org/work/W1975908943', 'https://semopenalex.org/work/W2118889869', 'https://semopenalex.org/work/W1253240651', 'https://semopenalex.org/work/W2612371455', 'https://semopenalex.org/work/W2527377534', 'https://semopenalex.org/work/W2899402023', 'https://semopenalex.org/work/W2400182190', 'https://semopenalex.org/work/W2123344956', 'https://semopenalex.org/work/W2912433096', '1800', 'https://semopenalex.org/work/W89291972', 'https://semopenalex.org/work/W4282583221', 'https://semopenalex.org/work/W2041544991', '2009', 'https://semopenalex.org/work/W2612962685', 'https://semopenalex.org/work/W4385473607', 'https://semopenalex.org/work/W1537902892', 'https://semopenalex.org/work/W2958694015', 'https://semopenalex.org/work/W115310691', 'https://semopenalex.org/work/W2515946176', 'https://semopenalex.org/work/W2128127301', 'https://semopenalex.org/work/W2525395252', 'https://semopenalex.org/work/W2401057219', 'https://semopenalex.org/work/W1978640117', 'https://semopenalex.org/work/W3137115172', '2020', '2017', 'https://semopenalex.org/work/W1570916159', 'https://semopenalex.org/work/W2963855145', 'https://semopenalex.org/work/W1517590008', 'https://semopenalex.org/work/W2115447277', 'https://semopenalex.org/work/W1975513208', 'https://semopenalex.org/work/W2171326679', 'https://semopenalex.org/work/W1556803451', 'https://semopenalex.org/work/W2155935413', 'https://semopenalex.org/work/W1511466363', 'https://semopenalex.org/work/W205920923', 'https://semopenalex.org/work/W4249900482', 'https://semopenalex.org/work/W1908231796', 'https://semopenalex.org/work/W2098211566', '2014', 'https://semopenalex.org/work/W3108668383', '2011', 'https://semopenalex.org/work/W4242436304', 'https://semopenalex.org/work/W1520649080', 'https://semopenalex.org/work/W2127281178', 'https://semopenalex.org/work/W4242041539', 'https://semopenalex.org/work/W2520300422', '2016', 'https://semopenalex.org/work/W1971941065', 'https://semopenalex.org/work/W2091478774', 'https://semopenalex.org/work/W2039085252', 'https://semopenalex.org/work/W2466104094', 'https://semopenalex.org/work/W4391272934', 'https://semopenalex.org/work/W2047400318', 'https://semopenalex.org/work/W2794546965', 'https://semopenalex.org/work/W2778029444', 'https://semopenalex.org/work/W2153339030', 'https://semopenalex.org/work/W2181042156', 'https://semopenalex.org/work/W1588297513', 'https://semopenalex.org/work/W2015180219', 'https://semopenalex.org/work/W2980176182', 'https://semopenalex.org/work/W1495962746', 'https://semopenalex.org/work/W2152544235', 'https://semopenalex.org/work/W2122811495', 'https://semopenalex.org/work/W139130934', 'https://semopenalex.org/work/W4238210800', 'https://semopenalex.org/work/W1595761884', 'https://semopenalex.org/work/W2123889292', '2019', '2002', '2004', 'https://semopenalex.org/work/W2087840232', 'https://semopenalex.org/work/W2017269495', 'https://semopenalex.org/work/W2949106240', 'https://semopenalex.org/work/W4404057326', 'https://semopenalex.org/work/W2751928463', 'https://semopenalex.org/work/W4296041368', 'https://semopenalex.org/work/W2071433880', 'https://semopenalex.org/work/W3136236837', 'https://semopenalex.org/work/W2094034408', 'https://semopenalex.org/work/W2112609211', '2023', 'https://semopenalex.org/work/W2734788368', 'https://semopenalex.org/work/W4387755431', 'https://semopenalex.org/work/W2104421582', 'https://semopenalex.org/work/W3195402331', 'https://semopenalex.org/work/W4402442861', 'https://semopenalex.org/work/W48558007', 'https://semopenalex.org/work/W1593317697', 'https://semopenalex.org/work/W2592423893', '1996', 'https://semopenalex.org/work/W2109952361', '2008', 'https://semopenalex.org/work/W2132155852', 'https://semopenalex.org/work/W2952092732', 'https://semopenalex.org/work/W1798073562', 'https://semopenalex.org/work/W4237909807', 'https://semopenalex.org/work/W156157953', 'https://semopenalex.org/work/W1592700375', 'https://semopenalex.org/work/W1775494561', 'https://semopenalex.org/work/W2088263927', 'https://semopenalex.org/work/W4313563519', 'https://semopenalex.org/work/W2077394967', 'https://semopenalex.org/work/W147488175', 'https://semopenalex.org/work/W1633377437', 'https://semopenalex.org/work/W2173733616', 'https://semopenalex.org/work/W2734789924', 'https://semopenalex.org/work/W4403628532', 'https://semopenalex.org/work/W2130495724', '2005', 'https://semopenalex.org/work/W4292761028', 'https://semopenalex.org/work/W2145761885', 'https://semopenalex.org/work/W4393670548', 'https://semopenalex.org/work/W2028893723', 'https://semopenalex.org/work/W371525118', '2007', 'https://semopenalex.org/work/W3009455989', 'https://semopenalex.org/work/W2928532935', 'https://semopenalex.org/work/W3092639686', 'https://semopenalex.org/work/W1996454760', 'https://semopenalex.org/work/W1501840263', '1994', 'https://semopenalex.org/work/W2049801349', '2018', 'https://semopenalex.org/work/W2609404595', 'https://semopenalex.org/work/W3183165251', 'https://semopenalex.org/work/W3028360334', 'https://semopenalex.org/work/W144935353', 'https://semopenalex.org/work/W2809114684', 'https://semopenalex.org/work/W2778798134', 'https://semopenalex.org/work/W4312240104', 'https://semopenalex.org/work/W1531484838', '1997', 'https://semopenalex.org/work/W2101874499', '2003', 'https://semopenalex.org/work/W2581324891', 'https://semopenalex.org/work/W1774324140']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2288736783', 'https://semopenalex.org/work/W2005566507', '2014', '2006', 'https://semopenalex.org/work/W3153438511', '2011', 'https://semopenalex.org/work/W4387044480', 'https://semopenalex.org/work/W2963397319', 'https://semopenalex.org/work/W3091069126', '2016', 'https://semopenalex.org/work/W2410070319', 'https://semopenalex.org/work/W2945121342', 'https://semopenalex.org/work/W2765333185', 'https://semopenalex.org/work/W2945310620', 'https://semopenalex.org/work/W2910443854', 'https://semopenalex.org/work/W2990053912', 'https://semopenalex.org/work/W4372354605', 'https://semopenalex.org/work/W2896815268', 'https://semopenalex.org/work/W2884712575', 'https://semopenalex.org/work/W2886048940', 'https://semopenalex.org/work/W2008502382', '2019', 'https://semopenalex.org/work/W2766801893', 'https://semopenalex.org/work/W2795616157', '2021', '2004', '2013', 'https://semopenalex.org/work/W2727591177', 'https://semopenalex.org/work/W2767197761', 'https://semopenalex.org/work/W4210614302', 'https://semopenalex.org/work/W3127935647', 'https://semopenalex.org/work/W4205329887', 'https://semopenalex.org/work/W2942347568', '2023', 'https://semopenalex.org/work/W3143690675', 'https://semopenalex.org/work/W2547994504', '2024', 'https://semopenalex.org/work/W2963376802', 'https://semopenalex.org/work/W3124643322', 'https://semopenalex.org/work/W4251725129', 'https://semopenalex.org/work/W2508557130', 'https://semopenalex.org/work/W3122248683', 'https://semopenalex.org/work/W3105149221', 'https://semopenalex.org/work/W3101498855', '2012', 'https://semopenalex.org/work/W2964219517', 'https://semopenalex.org/work/W2292300819', 'https://semopenalex.org/work/W2523814601', 'https://semopenalex.org/work/W3138604780', 'https://semopenalex.org/work/W4298852941', 'https://semopenalex.org/work/W2460699422', 'https://semopenalex.org/work/W4288309344', 'https://semopenalex.org/work/W2782387490', 'https://semopenalex.org/work/W4300336860', 'https://semopenalex.org/work/W2952972485', 'https://semopenalex.org/work/W2297368007', 'https://semopenalex.org/work/W2964144552', 'https://semopenalex.org/work/W3023611361', 'https://semopenalex.org/work/W2765260951', 'https://semopenalex.org/work/W4404210569', 'https://semopenalex.org/work/W2911050507', 'https://semopenalex.org/work/W2178046500', 'https://semopenalex.org/work/W2946095671', 'https://semopenalex.org/work/W2897452510', '2007', 'https://semopenalex.org/work/W2955483233', 'https://semopenalex.org/work/W2063061334', 'https://semopenalex.org/work/W2027758022', 'https://semopenalex.org/work/W2789266699', 'https://semopenalex.org/work/W2021618975', '2018', 'https://semopenalex.org/work/W2895112771', '2020', '2017', 'https://semopenalex.org/work/W2624071355', 'https://semopenalex.org/work/W2901245072', 'https://semopenalex.org/work/W3001868690', 'https://semopenalex.org/work/W2935701645', 'https://semopenalex.org/work/W2749697605', 'https://semopenalex.org/work/W3125007533']</t>
-  </si>
-  <si>
-    <t>['On the Use of Reciprocal Filter Against WiFi Packets for Passive Radar', 'Using real data for the implementation of multistatic passive radar geometry optimization procedure', 'Detection performance assessment of the FM-based AULOS® Passive Radar for air surveillance applications', 'A spectral slope-based approach for mitigating bistatic STAP clutter dispersion', 'Lagrange-Polynomial-Interpolation-Based Keystone Transform for a Passive Radar', 'https://semopenalex.org/source/S10936095', 'https://semopenalex.org/source/S4306418573', 'Cramér‐Rao lower bound with &lt;i&gt;P&lt;/i&gt; &lt;sub&gt;d&lt;/sub&gt; &amp;lt; 1 for target localisation accuracy in multistatic passive radar', 'Maritime surveillance via multi-frequency DVB-T based passive radar', 'Passive Radar: A Challenge Where Resourcefulness Is the Key to Success', 'VHF Cross-Range Profiling of Aerial Targets Via Passive ISAR: Signal Processing Schemes and Experimental Results', 'A fast disturbance cancellation scheme for orthogonal frequency division multiplexing‐based passive radar exploiting reciprocal filter', 'https://semopenalex.org/source/S4210172892', 'WiFi-based passive ISAR for high resolution cross-range profiling of moving targets', 'Non-linear and adaptive two-dimensional FIR filters for STAP theory and experimental results', 'Supervised Reciprocal Filter for OFDM Radar Signal Processing', 'https://semopenalex.org/source/S4306402512', 'https://semopenalex.org/source/S4404663355', 'Loaded Reciprocal Filter for OFDM-based Passive Radar Signal Processing', 'WiFi-Based Passive ISAR for High-Resolution Cross-Range Profiling of Moving Targets', 'Optimization of multistatic passive radar geometry based on CRLB with uncertain observations', 'Localization and tracking of moving targets with WiFi-based passive radar', 'Dual adaptive channel STAP: Theory and experimental results', 'Security enhancement in small private airports through active and passive radar sensors', 'https://semopenalex.org/source/S141761900', 'Enhanced WiFi-based passive ISAR for indoor and outdoor surveillance', 'https://semopenalex.org/source/S4306400024', 'https://semopenalex.org/source/S161080992', 'Efficient Detection and Imaging of Moving Targets in SAR Images Based on Chirp Scaling', 'An apodization approach for passive GMTI Radar with Non-Uniform Linear Arrays', 'A new approach for DVB-T Cross-Ambiguity Function evaluation', 'Polarimetric Detection Scheme for Passive Radar based on a 2D Auto-Regressive Disturbance Model', 'https://semopenalex.org/source/S4306498246', 'Passive Bistatic Radar based on mixed DSSS and OFDM WiFi transmissions', 'Effect of Apodization on SAR Image Understanding', 'Supervised DPCA Scheme Based on Reciprocal Filter for Clutter Cancellation From Moving OFDM Radar', 'Experimental results for passive bistatic radar based on DVB-T signals', 'Exploiting long coherent integration times in DVB-T based passive radar systems', 'Passive radar detection of drones with staring illuminators of opportunity', 'Exploitation of Long Coherent Integration Times to Improve Drone Detection in DVB-S based Passive Radar', 'Target DoA estimation in passive radar using non-uniform linear arrays and multiple frequency channels', 'https://semopenalex.org/source/S23688054', 'Parasitic Surveillance Potentialities Based on a GEO-SAR Illuminator', 'Multiband passive radar for drones detection and localization', 'Exploiting polarimetric diversity in FM-based PCL', 'Reference-free Amplitude-based WiFi Passive Sensing', 'https://semopenalex.org/source/S4306400806', 'https://semopenalex.org/source/S4306418371', 'Exploiting polarimetric diversity to mitigate the effect of interferences in FM-based passive radar', 'Preliminary experimental results of polarimetric detection schemes for DVB-T based passive radar', 'A Multistage Processing Algorithm for Disturbance Removal and Target Detection in Passive Bistatic Radar', 'Conclusion', 'Computationally effective range migration compensation in PCL systems for maritime surveillance', 'DVB-T-Based Passive Forward Scatter Radar: Inherent Limitations and Enabling Solutions', 'Automatic vehicles classification approaches for WiFi-based Passive Forward Scatter Radar', 'https://semopenalex.org/source/S4306463440', 'Performance analysis of a multi-frequency FM based Passive Bistatic Radar', 'Threshold Region Performance of Multicarrier Maximum Likelihood Direction of Arrival Estimator', 'Dual Channel Adaptive Antenna Nulling with Auxiliary Selection for Spaceborne Radar', 'https://semopenalex.org/source/S3569471', 'Multi-carrier Adaptive Detection in Polarimetric Passive Radars', 'WiFi emission-based vs passive radar localization of human targets', 'Adaptive beamforming for high-frequency over-the-horizon passive radar', 'https://semopenalex.org/source/S4306402478', 'From the expected scientific applications to the functional specifications, products and performance of the SABRINA missions', 'Foreword to the Special Section on Fully Digital Arrays for Radar', 'Low-cost solutions for mobile passive radar based on multichannel DPCA and NULA configurations', 'A reduced order jammer cancellation scheme based on double adaptivity', 'Facing channel calibration issues affecting passive radar DPCA and STAP for GMTI', 'A Three-Stage Inter-Channel Calibration Approach for Passive Radar on Moving Platforms Exploiting the Minimum Variance Power Spectrum', 'https://semopenalex.org/source/S4306420045', 'Comparison of Clutter and Multipath Cancellation Techniques for Passive Radar', 'Passive Radar DPCA Schemes With Adaptive Channel Calibration', '&amp;lt;title&amp;gt;Passive radar prototypes for multifrequency target detection&amp;lt;/title&amp;gt;', 'Passive Radar: Past, Present, and Future Challenges', 'High resolution cross-range profiling with Passive Radar via ISAR processing', 'A two-stage approach for direct signal and clutter cancellation in passive radar on moving platforms', 'Multi-Frequency Target Detection Techniques for DVB-T Based Passive Radar Sensors', 'https://semopenalex.org/source/S4210171417', 'Parasitic Exploitation of Wi-Fi Signals for Indoor Radar Surveillance', 'Foreword to the Special section on Advances in Radar Imaging', 'Polarimetric passive coherent location', 'Exploiting the Properties of Reciprocal Filter in Low-Complexity OFDM Radar Signal Processing Architectures', 'Multistatic passive radar geometry optimization for target 3D positioning accuracy', 'https://semopenalex.org/source/S4210193624', 'PBR activity at INFOCOM: Adaptive processing techniques and experimental results', 'Antenna Array for Passive Radar: Configuration Design and Adaptive Approaches to Disturbance Cancellation', 'Polarimetric diversity in reference-free amplitude-based Wi-Fi sensing', 'EuMW 2022 Special Issue', 'https://semopenalex.org/source/S189694085', 'WiFi-Based Passive Bistatic Radar: Data Processing Schemes and Experimental Results', 'Comparing phase-locked and non-phase-locked architectures for dual-channel DVB-S passive radar', 'Two‐dimensional location of moving targets within local areas using WiFi‐based multistatic passive radar', 'https://semopenalex.org/source/S111326731', 'Passive Radar STAP Detection and DoA Estimation Under Antenna Calibration Errors', 'Reciprocal-Filter-Based STAP for Passive Radar on Moving Platforms', 'Passive radar concept for automotive applications', 'Passive radar for GMTI', 'https://semopenalex.org/source/S153101029', 'Impact of synchronization on the ambiguity function shape for PBR based on DVB-T signals', 'Quasi-Monostatic Versus Near Forward Scatter Geometry in WiFi-Based Passive Radar Sensors', 'Polarimetric Passive Radar: A Practical Approach to Parametric Adaptive Detection', 'https://semopenalex.org/source/S101949793', 'A procedure for effective receiver positioning in multistatic passive radar', 'Impact of Beacon Interval on the performance of WiFi-based passive radar against human targets', 'Sliding extensive cancellation algorithm for disturbance removal in passive radar', 'DVB-T Signal Ambiguity Function Control for Passive Radars', 'Performance Prediction of the Loaded Reciprocal Filter for OFDM-based Passive Radar', 'DVB-T based Passive Bistatic Radar for maritime surveillance', 'Monitoring and surveillance potentialities obtained by splitting the antenna of the COSMO-SkyMed SAR into multiple sub-apertures', 'Multi‐carrier and multi‐polarimetric model based adaptive target detector for passive radar systems', 'Clutter Suppression Using Thresholded Reciprocal Filter in OFDM Radar', 'IEEE aerospace &amp;amp; electronic systems society organization 2019', 'https://semopenalex.org/source/S4363608562', '2D Localization with WiFi Passive Radar and Device-Based Techniques: An Analysis of Target Measurements Accuracy', 'Short-range passive radar for small private airports surveillance', 'Reducing the computational complexity of WiFi-based passive radar processing', 'Disturbance removal in passive radar via sliding extensive cancellation algorithm (ECA-S)', 'A simple clutter suppression approach for OFDM-based passive radar exploiting reciprocal filter', 'Reduced Order Jammer Cancellation Scheme Based on Double Adaptivity', 'Multi-frequency polarimetric target detection in FM-based passive radar', 'Autoregressive Model Based Polarimetric Adaptive Detection Scheme Part II: Performance Assessment Under Spectral Model Mismatch', 'A practical approach to polarimetric adaptive target detection in Passive Radar', 'WiFi-based PCL for monitoring private airfields', 'https://semopenalex.org/source/S153794155', 'Tackling the different target dynamics issues in counter drone operations using passive radar', 'Advanced Processing Methods for Passive Bistatic Radar Systems', 'Potentialities and challenges of WiFi-based passive radar', 'First experimental results for a WiFi-based passive forward scatter radar', 'https://semopenalex.org/source/S2764455111', 'A Survey on Fundamental Limits of Integrated Sensing and Communication', 'Forward-Looking Passive Radar With Non-Uniform Linear Array for Automotive Applications', 'Inside front cover', '[Front matter]', 'Enabling DPCA via Supervised Reciprocal Filter in OFDM Radar Onboard Moving Platforms', 'Autoregressive Model Based Polarimetric Adaptive Detection Scheme Part I: Theoretical Derivation and Performance Analysis', 'https://semopenalex.org/source/S4377196107', 'Short-range passive radar potentialities', 'https://semopenalex.org/source/S4306401280', 'Experimental evaluation of Supervised Reciprocal Filter Strategies for OFDM-radar signal processing', 'https://semopenalex.org/source/S4210215198', 'Multifrequency integration in FM radio-based passive bistatic radar. Part I: Target detection', 'https://semopenalex.org/source/S4306400194', 'DVB-S based Passive Radar for Short Range Security Application', 'A Study for a Space-Based Passive Multi-Channel SAR', 'https://semopenalex.org/source/S193624734', 'Direction of arrival estimation performance comparison of dual cancelled channels space–time adaptive processing techniques', 'Simultaneous short and long range surveillance of drones and aircrafts with DVB-T based Passive Radar', 'Foreword to the Special Section on Innovations in Radar Spectrum', 'Fusing Measurements from Wi-Fi Emission-Based and Passive Radar Sensors for Short-Range Surveillance', 'DVB-T based Forward Scatter Radar for Small Target Surveillance', 'https://semopenalex.org/source/S4363608355', 'https://semopenalex.org/source/S4306525036', 'Passive Detection Using a Staring Radar Illuminator of Opportunity', 'Ambiguity Function analysis of WiMAX transmissions for passive radar', 'Microphone array based classification for security monitoring in unstructured environments', 'Multifrequency integration in FM radio-based passive bistatic radar. Part II: Direction of arrival estimation', 'Comparing reference‐free WiFi radar sensing approaches for monitoring people and drones', 'Exploiting polarimetric diversity in passive radar', 'A simple NULA design strategy for target detection and DoA estimation in mobile passive radar', 'Ambiguity Function Analysis of Wireless LAN Transmissions for Passive Radar', 'https://semopenalex.org/source/S4306531480', 'Space–time constant modulus algorithm for multipath removal on the reference signal exploited by passive bistatic radar', 'Experimental results of polarimetric detection schemes for DVB‐T‐based passive radar', 'https://semopenalex.org/source/S4363608006', 'Eco-friendly dual-band AULOS® passive radar for air and maritime surveillance applications', 'OFDM based WiFi Passive Sensing: a reference-free non-coherent approach', 'https://semopenalex.org/source/S4377196266', 'Non‐coherent adaptive detection in passive radar exploiting polarimetric and frequency diversity', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S4306418812', 'Analysis and Emulation of FM Radio Signals for Passive Radar', 'https://semopenalex.org/source/S183492911', 'Space-based passive radar enabled by the new generation of geostationary broadcast satellites', 'Minimum variance power spectrum based calibration for improved clutter suppression in PCL on moving platforms', 'Experimental results for OFDM WiFi-based passive bistatic radar', 'Integrated clutter cancellation and high-resolution imaging of moving targets in Multi-channel SAR', 'DVB-T-based passive radar for silent surveillance of drones', 'Dual Cancelled Channel STAP for Target Detection and DOA Estimation in Passive Radar', 'https://semopenalex.org/source/S4306420046', 'Passive radar components of ARGUS 3D', 'Stand-alone WiFi-based Passive Forward Scatter Radar sensor for vehicles classification', 'Exploiting the joint distribution of amplitude and monopulse ratio for chi-square fluctuating targets for target DOA estimation', 'Detection and 3D localization of ultralight aircrafts and drones with a WiFi-based Passive Radar', 'DVB‐T based passive radar for simultaneous counter‐drone operations and civil air traffic surveillance', 'From the EiC: The IEEE Radar Journal is Born', 'https://semopenalex.org/source/S43295729', 'Antenna Sidelobes Level Control in Transmit Subaperturing MIMO Radar', "This Month's Covers....", 'Range sidelobes reduction filters for WiFi-based passive bistatic radar', 'Outlier Rejection Approach for Direction of Arrival Estimation in Low SNR Conditions', 'Passive radar in the high frequency band', 'A Flexible Design Strategy for Three-Element Non-Uniform Linear Arrays', 'Spectral slope-based approach for mitigating bistatic space-time adaptive processing clutter dispersion', 'Exploiting Polarization together with Space-Time Adaptive Processing for GMTI in high resolution SAR images', 'https://semopenalex.org/source/S4387286330', 'Passive STAP approaches for GMTI']</t>
-  </si>
-  <si>
-    <t>['Reliable Communications Over Dependent Fading Wireless Channels.', 'On the Set of Joint Rayleigh Fading Distributions Achieving Positive Zero-Outage Capacities', 'https://semopenalex.org/source/S61310614', 'https://semopenalex.org/source/S4363607711', 'https://semopenalex.org/source/S168680287', 'Frequency Diversity for Ultra-Reliable and Secure Communications in Sub-THz Two-Ray Scenarios', 'Measurements of Wiretap Encoded Image Transmissions over Multi-Mode Fibers', 'On Fading Channel Dependency Structures with a Positive Zero-Outage Capacity', 'https://semopenalex.org/source/S63459445', 'https://semopenalex.org/source/S147316732', 'Deep Learning Based Resource Allocation: How Much Training Data is Needed?', 'https://semopenalex.org/source/S4363607705', 'https://semopenalex.org/source/S4306534978', 'Multi-User Frequency Assignment for Ultra-Reliable mmWave Two-Ray Channels', 'Neural Network Wiretap Code Design for Multi-Mode Fiber Optical Channels', 'On the Zero-Outage Secrecy-Capacity of Dependent Fading Wiretap Channels', 'https://semopenalex.org/source/S2764455111', 'A Simple Frequency Diversity Scheme for Ultra-Reliable Communications in Ground Reflection Scenarios', 'https://semopenalex.org/source/S4363608593', 'Calculation of Bounds on the Ergodic Capacity for Fading Channels with Dependency Uncertainty', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S195231649', 'Learning Based Dynamic Cluster Reconfiguration for UAV Mobility Management with 3D Beamforming', 'https://semopenalex.org/source/S4306400562', 'https://semopenalex.org/source/S4363607702', 'https://semopenalex.org/source/S4306400194', 'Reinforcement Learning Based Dynamic Power Control for UAV Mobility Management', 'RISnet: A Domain-Knowledge Driven Neural Network Architecture for RIS  Optimization with Mutual Coupling and Partial CSI', 'Copula-Based Bounds for Multi-User Communications–Part II: Outage Performance', 'https://semopenalex.org/source/S4210214273', 'Learning Based Dynamic Cluster Reconfiguration for UAV Mobility  Management with 3D Beamforming', 'https://semopenalex.org/source/S4306525036', 'A Globally Optimal Energy-Efficient Power Control Framework and Its Efficient Implementation in Wireless Interference Networks', 'Bounds on the Secrecy Outage Probability for Dependent Fading Channels', 'Securing Data in Multimode Fibers by Exploiting Mode-Dependent Light Propagation Effects', 'Machine Learning Assisted Wiretapping', 'Bounds on the Outage Probability in Dependent Rayleigh Fading Channels', 'Building Resilience in Wireless Communication Systems With a Secret-Key  Budget', 'Wiretap Code Design by Neural Network Autoencoders', 'RISnet: A Scalable Approach for Reconfigurable Intelligent Surface Optimization with Partial CSI', 'Reinforcement Learning-Based Global Programming for Energy Efficiency in Multi-Cell Interference Networks', 'An efficient frequency diversity scheme for ultra-reliable communications in two-path fading channels', 'https://semopenalex.org/source/S4306402617', 'https://semopenalex.org/source/S4393179698', 'Copula-Based Bounds for Multi-User Communications–Part I: Average Performance', 'Achievable Physical-Layer Secrecy in Multi-Mode Fiber Channels using Artificial Noise', 'Reliability and Latency Analysis for Wireless Communication Systems with a Secret-Key Budget', 'https://semopenalex.org/source/S196647941', 'Reliability Bounds for Dependent Fading Wireless Channels', 'Flexible Design of Finite Blocklength Wiretap Codes by Autoencoders', 'Optimal Resource Allocation for Loss-Tolerant Multicast Video Streaming', 'Distributed Combinatorial Optimization of Downlink User Assignment in  mmWave Cell-free Massive MIMO Using Graph Neural Networks', 'Outage Probability Calculation for Two-Ray Ground Reflection Scenarios with Frequency Diversity', 'Reliability and Latency Analysis for Wireless Communication Systems With a Secret-Key Budget', 'Approaching Globally Optimal Energy Efficiency in Interference Networks via Machine Learning', 'Bounds on the Ergodic Secret-Key Capacity for Dependent Fading Channels.', 'On Fading Channel Dependency Structures With a Positive Zero-Outage Capacity', 'https://semopenalex.org/source/S4363608623', 'Non-Convex Optimization of Energy Efficient Power Control in Interference Networks via Machine Learning', 'https://semopenalex.org/source/S173102057', 'https://semopenalex.org/source/S4306402636', 'Artificial Fast Fading from Reconfigurable Surfaces Enables Ultra-Reliable Communications', 'https://semopenalex.org/source/S4210218516', 'Reconfigurable Intelligent Surface Phase Hopping for Ultra-Reliable Communications', 'Reliability and Latency of Wireless Communication Systems with a Secret-Key Budget', 'QMKPy: A Python Testbed for the Quadratic Multiple Knapsack Problem', 'Hierarchical Multi-Agent DRL Based Dynamic Cluster Reconfiguration for  UAV Mobility Management']</t>
-  </si>
-  <si>
-    <t>['A New Benchmark and Reverse Validation Method for Passage-level Hallucination Detection', 'https://semopenalex.org/source/S81770430', 'Learning a Product Relevance Model from Click-Through Data in E-Commerce', 'Evolutionary timeline summarization', 'https://semopenalex.org/source/S192650101', 'Extract Salient Words with WordRank for Effective Similarity Search in Text Data', 'CC-Riddle: A Question Answering Dataset of Chinese Character Riddles', 'Automatic Slides Generation for Scholarly Papers: A Fine-Grained Dataset and Baselines (Student Abstract)', 'https://semopenalex.org/source/S205754296', 'AMR-To-Text Generation with Graph Transformer', 'Analyzing and Evaluating Correlation Measures in NLG Meta-Evaluation', 'Pushing Paraphrase Away from Original Sentence: A Multi-Round Paraphrase Generation Approach', 'Generating Diverse and Descriptive Image Captions Using Visual Paraphrases', 'DPP-Based Adversarial Prompt Searching for Lanugage Models', 'Block-Based Similarity Search on the Web Using Manifold-Ranking', 'Exploiting neighborhood knowledge for single document summarization and keyphrase extraction', 'https://semopenalex.org/source/S4210197613', 'Comparative news summarization using concept-based optimization', 'Neural Content Extraction for Poster Generation of Scientific Papers', 'Cross-language document summarization via extraction and ranking of multiple summaries', 'Chinese Spelling Check with Nearest Neighbors', 'Greedy Flipping for Constrained Word Deletion', 'A Semi-Supervised Approach for Low-Resourced Text Generation', 'https://semopenalex.org/source/S87067389', 'EAMA : Entity-Aware Multimodal Alignment Based Approach for News Image  Captioning', 'Document-Based HITS Model for Multi-document Summarization', 'PPSGen: Learning-Based Presentation Slides Generation for Academic Papers', "x-index: a fantastic new indicator for quantifying a scientist's scientific impact", 'Semantic Dependency Parsing via Book Embedding', 'Adrenergic α1A receptor modulates cultured urothelium structure', 'https://semopenalex.org/source/S56561474', 'Learning to Identify Ambiguous and Misleading News Headlines', 'Learning Diachronic Word Embeddings with Iterative Stable Information Alignment', 'Automatic Labeling of Topic Models Using Text Summaries', 'Recent advances in document summarization', 'Timeline Generation through Evolutionary Trans-Temporal Summarization', 'Overview of the NLPCC 2023 Shared Task: Chinese Spelling Check', 'Transition-Based Parsing for Deep Dependency Structures', 'https://semopenalex.org/source/S4210191458', 'Evaluating Factuality in Cross-lingual Summarization', '$B^4$: A Black-Box Scrubbing Attack on LLM Watermarks', 'BAB-QA: A New Neural Model for Emotion Detection in Multi-party Dialogue', 'Peking: Profiling Syntactic Tree Parsing Techniques for Semantic Graph Parsing', 'A New Dataset and Empirical Study for Sentence Simplification in Chinese', 'https://semopenalex.org/source/S4363607979', 'https://semopenalex.org/source/S29980478', 'A Comprehensive Evaluation of Constrained Text Generation for Large Language Models', 'Microscale and macroscale strength behaviors of blast furnace slag- cement based materials: Modeling and analysis', 'Emotion Classification in Microblog Texts Using Class Sequential Rules', 'Selecting Large Language Model to Fine-tune via Rectified Scaling Law', 'Bilingual Co-Training for Sentiment Classification of Chinese Product Reviews', 'Towards a Novel Association Measure via Web Search Results Mining', 'A Comprehensive Evaluation and Analysis Study for Chinese Spelling Check', 'Defining and Detecting Vulnerability in Human Evaluation Guidelines: A Preliminary Study Towards Reliable NLG Evaluation', 'Pre- and In-Parsing Models for Neural Empty Category Detection', 'Towards Automatic Construction of News Overview Articles by News Synthesis', 'BiRdQA: A Bilingual Dataset for Question Answering on Tricky Riddles', 'https://semopenalex.org/source/S2729999759', 'Tweet Timeline Generation with Determinantal Point Processes', 'WaterPool: A Watermark Mitigating Trade-offs among Imperceptibility,  Efficacy and Robustness', 'Themis: A Reference-free NLG Evaluation Language Model with Flexibility and Interpretability', 'https://semopenalex.org/source/S2501765825', 'Teaching the Pre-trained Model to Generate Simple Texts for Text Simplification', 'https://semopenalex.org/source/S4306421043', 'https://semopenalex.org/source/S4306420006', 'Improving Grammatical Error Correction with Data Augmentation by Editing Latent Representation', 'https://semopenalex.org/source/S4306419142', 'WordRank-Based Lexical Signatures for Finding Lost or Related Web Pages', 'Comparative News Summarization Using Linear Programming', 'https://semopenalex.org/source/S155526855', 'Named Entity Recognition in Chinese News Comments on the Web', 'Collaborative Data Cleaning for Sentiment Classification with Noisy Training Corpus', 'Reference Matters: Benchmarking Factual Error Correction for Dialogue Summarization with Fine-grained Evaluation Framework', 'SimpleBERT: A Pre-trained Model That Learns to Generate Simple Words', 'SMART-RAG: Selection using Determinantal Matrices for Augmented  Retrieval', 'https://semopenalex.org/source/S4306420577', 'PPSGen: learning to generate presentation slides for academic papers', 'Overview of the NLPCC 2017 Shared Task: Single Document Summarization', 'Social Biases in Automatic Evaluation Metrics for NLG', 'Towards a Unified Approach Based on Affinity Graph to Various Multi-document Summarizations', 'Overview of the NLPCC-ICCPOL 2016 Shared Task: Sports News Generation from Live Webcast Scripts', 'BiCWS: Mining Cognitive Differences from Bilingual Web Search Results', 'Towards Document-Level Paraphrase Generation with Sentence Rewriting and Reordering', 'Peking: Building Semantic Dependency Graphs with a Hybrid Parser', 'https://semopenalex.org/source/S4363606669', 'Using Proportional Transportation Distances for Measuring Document Similarity', 'Quasi-Second-Order Parsing for 1-Endpoint-Crossing, Pagenumber-2 Graphs', 'Evaluating Self-Generated Documents for Enhancing Retrieval-Augmented  Generation with Large Language Models', 'MC-MKE: A Fine-Grained Multimodal Knowledge Editing Benchmark  Emphasizing Modality Consistency', 'SemSUM: Semantic Dependency Guided Neural Abstractive Summarization', 'Diversifying Neural Text Generation with Part-of-Speech Guided Softmax and Sampling', 'AMRec: an intelligent system for academic method recommendation', 'Visual Information Guided Zero-Shot Paraphrase Generation', 'Data-driven, PCFG-based and Pseudo-PCFG-based Models for Chinese Dependency Parsing', 'https://semopenalex.org/source/S4363608757', 'A New Retrieval Model Based on TextTiling for Document Similarity Search', 'Enhancing Large Language Models in Coding Through Multi-Perspective Self-Consistency', 'Bridging the Domain Gap: Improve Informal Language Translation via Counterfactual Domain Adaptation', 'Phrase-based Compressive Cross-Language Summarization', 'https://semopenalex.org/source/S4363608852', 'Improving Word Embeddings for Antonym Detection Using Thesauri and SentiWordNet', 'Using only cross-document relationships for both generic and topic-focused multi-document summarizations', "&lt;scp&gt;WL&lt;/scp&gt;‐index: Leveraging citation mention number to quantify an individual's scientific impact", 'https://semopenalex.org/source/S161516442', 'WikiIns: A High-Quality Dataset for Controlled Text Editing by Natural Language Instruction', 'https://semopenalex.org/source/S4363608670', 'Counterfactual Representation Augmentation for Cross-Domain Sentiment Analysis', 'https://semopenalex.org/source/S4387280317', 'Towards Constructing Sports News from Live Text Commentary', 'Mining and Analyzing the Future Works in Scientific Articles', 'Using Bilingual Information for Cross-Language Document Summarization', 'https://semopenalex.org/source/S80113298', 'CMiner: Opinion Extraction and Summarization for Chinese Microblogs', 'https://semopenalex.org/source/S2764825856', 'Automated Chess Commentator Powered by Neural Chess Engine', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S4363607702', 'Continual Learning for Neural Machine Translation', 'Are LLM-based Evaluators Confusing NLG Quality Criteria?', 'Neural Text Generation with Part-of-Speech Guided Softmax.', 'Compressive document summarization via sparse optimization', 'A Neural Approach to Pun Generation', 'How to Describe Images in a More Funny Way? Towards a Modular Approach to Cross-Modal Sarcasm Generation', 'Modeling and prediction of modulus of elasticity of laminated veneer lumber based on laminated plate theory', 'Automatic Text Simplification', 'SUBTOPIC‐BASED MULTIMODALITY RANKING FOR TOPIC‐FOCUSED MULTIDOCUMENT SUMMARIZATION', 'Learning Bilingual Embedding Model for Cross-Language Sentiment Classification', 'Missing Information, Unresponsive Authors, Experimental Flaws: The Impossibility of Assessing the Reproducibility of Previous Human Evaluations in NLP', 'PKUTM participation at TAC 2011 Summarization Track.', 'https://semopenalex.org/source/S4210183871', 'GraDual: Graph-based Dual-modal Representation for Image-Text Matching', 'Joint Matrix Factorization and Manifold-Ranking for Topic-Focused Multi-Document Summarization', 'Cross-Lingual Sentiment Classification with Bilingual Document Representation Learning', 'Neural Sentence Simplification with Semantic Dependency Information', 'Nearest Neighbor Knowledge Distillation for Neural Machine Translation', 'A Measure Based on Optimal Matching in Graph Theory for Document Similarity', 'https://semopenalex.org/source/S4363608991', 'WikiTableEdit: A Benchmark for Table Editing by Natural Language  Instruction', 'The Impact of Family Care on the Subjective Well-Being of the Elderly: The Mediation Role of General Self-Efficacy and Psychological Resilience', 'https://semopenalex.org/source/S62018274', 'Defining and Detecting Vulnerability in Human Evaluation Guidelines: A  Preliminary Study Towards Reliable NLG Evaluation', 'Describe Images in a Boring Way: Towards Cross-Modal Sarcasm Generation', 'Stabilization/solidification of lead- and cadmium-containing tailings for cemented paste backfill by using clinker-free binders', 'https://semopenalex.org/source/S4306419219', 'Dependency-based Mixture Language Models', 'Adverse Drug Events Detection, Extraction and Normalization from Online Comments of Chinese Patent Medicines', 'A Feedback-learning Mechanism Based on the Semantic Topological Network', 'Accurate SHRG-Based Semantic Parsing', 'History Matters: Temporal Knowledge Editing in Large Language Model', 'TransModality: An End2End Fusion Method with Transformer for Multimodal Sentiment Analysis', 'ATSUM: Extracting Attractive Summaries for News Propagation on Microblogs', 'Are all literature citations equally important? Automatic citation strength estimation and its applications', 'The Great Importance of Cross-Document Relationships for Multi-document Summarization', 'Summarization is (Almost) Dead', 'Hierarchical Graph Summarization: Leveraging Hybrid Information through Visible and Invisible Linkage', 'QuoteRec', 'Learning to Mine Chinese Coordinate Terms Using the Web', 'A Comparative Analysis of Knowledge-Intensive and Data-Intensive Semantic Parsers', 'CLOpinionMiner: Opinion Target Extraction in a Cross-Language Scenario', 'Controllable Unsupervised Text Attribute Transfer via Editing Entangled Latent Representation', 'Reducing Approximation and Estimation Errors for Chinese Lexical Processing with Heterogeneous Annotations', 'Multi-Document Summarization via Discriminative Summary Reranking', 'Joint Decoding of Tree Transduction Models for Sentence Compression', 'https://semopenalex.org/source/S162583102', 'Towards a unified approach to document similarity search using manifold-ranking of blocks', 'Phrase-Based Presentation Slides Generation for Academic Papers', 'Document Similarity Search Based on Manifold-Ranking of TextTiles', 'Document-Level Text Simplification: Dataset, Criteria and Baseline', 'Better than Random: Reliable NLG Human Evaluation with Constrained Active Sampling', 'Hierarchical Attention Networks for Sentence Ordering', 'CodeQA: A Question Answering Dataset for Source Code Comprehension', 'https://semopenalex.org/source/S74113319', 'MOVER: Mask, Over-generate and Rank for Hyperbole Generation', 'https://semopenalex.org/source/S4363606692', 'Representation Learning for Aspect Category Detection in Online Reviews', 'Image Matters: A New Dataset and Empirical Study for Multimodal Hyperbole Detection', 'A Neural Approach to Irony Generation', 'Overview of the NLPCC 2018 Shared Task: Grammatical Error Correction', 'Comparing Knowledge-Intensive and Data-Intensive Models for English Resource Semantic Parsing', 'A novel document similarity measure based on earth mover’s distance', 'PosterBot: A System for Generating Posters of Scientific Papers with Neural Models', 'https://semopenalex.org/source/S79460864', 'PKUSUMSUM : A Java Platform for Multilingual Document Summarization', 'Massive Styles Transfer with Limited Labeled Data', 'An Empirical Study of Automatic Post-Editing', 'A Comparative Study of Cross-Lingual Sentiment Classification', 'Exploring Discourse Structure in Document-level Machine Translation', 'PKU Paraphrase Bank: A Sentence-Level Paraphrase Corpus for Chinese', 'AKMiner: Domain-Specific Knowledge Graph Mining from Academic Literatures', 'Re-evaluating Automatic LLM System Ranking for Alignment with Human  Preference', 'SituatedGen: Incorporating Geographical and Temporal Contexts into Generative Commonsense Reasoning', 'Effects of additional ring-fusion site on dual reactivity based dynamic covalent chemistry', 'Single document keyphrase extraction using neighborhood knowledge', 'Manifold-ranking based topic-focused multi-document summarization', 'Graph-based multi-modality learning for topic-focused multi-document summarization', 'ContraSolver: Self-Alignment of Language Models by Resolving Internal  Preference Contradictions', 'Overview of the NLPCC 2018 Shared Task: Single Document Summarization', 'Cross Modal Training for ASR Error Correction with Contrastive Learning', 'Towards Automatic Generation of Entertaining Dialogues in Chinese Crosstalks', 'Constructing a Family Tree of Ten Indo-European Languages with Delexicalized Cross-linguistic Transfer Patterns', 'DeepDial: Passage Completion on Dialogs', 'https://semopenalex.org/source/S4363607764', 'Automated Similarity Metric Generation for Recommendation', 'Themis: Towards Flexible and Interpretable NLG Evaluation', 'Parsing to 1-Endpoint-Crossing, Pagenumber-2 Graphs', 'Combining Content and Context Similarities for Image Retrieval', 'PaCoST: Paired Confidence Significance Testing for Benchmark  Contamination Detection in Large Language Models', 'Learning to Identify Comparative Sentences in Chinese Text', 'https://semopenalex.org/source/S104780363', 'A Simple Information-Based Approach to Unsupervised Domain-Adaptive Aspect-Based Sentiment Analysis', 'IGSQL: Database Schema Interaction Graph Based Neural Model for Context-Dependent Text-to-SQL Generation', 'https://semopenalex.org/source/S4363608767', 'Attention-based LSTM Network for Cross-Lingual Sentiment Classification', 'Learning to Find Comparable Entities on the Web', 'Language Generation via DAG Transduction', 'CUGE: A Chinese Language Understanding and Generation Evaluation Benchmark', 'Is Summary Useful or Not? An Extrinsic Human Evaluation of Text Summaries on Downstream Tasks', 'https://semopenalex.org/source/S4363605144', 'Creative Destruction: Can Language Models Interpret Oxymorons?', 'CrossDial: An Entertaining Dialogue Dataset of Chinese Crosstalk', 'Deep Dependency Substructure-Based Learning for Multidocument Summarization', 'Learning to Recommend Quotes for Writing', 'Incorporating Cross-Document Relationships Between Sentences for Single Document Summarizations', 'Exploiting syntactic and semantic relationships between terms for opinion retrieval', 'Recent advances of neural text generation: Core tasks, datasets, models and challenges', 'Leveraging Diverse Lexical Chains to Construct Essays for Chinese College Entrance Examination', 'COSSUM: Towards Conversation-Oriented Structured Summarization for Automatic Medical Insurance Assessment', 'https://semopenalex.org/source/S174847851', 'Clinical challenges and management of primary renal epithelioid angiomyolipoma of duplex kidney with paraneoplastic syndrome', 'Human-like Summarization Evaluation with ChatGPT', 'Parsing Chinese Sentences with Grammatical Relations', 'Cross-Language Document Summarization Based on Machine Translation Quality Prediction', 'Making Better Use of Bilingual Information for Cross-Lingual AMR Parsing', 'ALCUNA: Large Language Models Meet New Knowledge', 'MultiSumm: Towards a Unified Model for Multi-Lingual Abstractive Summarization', 'Document Similarity Search Based on Generic Summaries', 'Towards Accurate and Efficient Chinese Part-of-Speech Tagging', 'Revisiting Pivot-Based Paraphrase Generation: Language Is Not the Only Optional Pivot', 'OpinSummEval: Revisiting Automated Evaluation for Opinion Summarization', 'An Improved k-means Algorithm for Documents Clustering', 'https://semopenalex.org/source/S106296714', 'Towards a Universal Sentiment Classifier in Multiple languages', 'https://semopenalex.org/source/S2764455111', 'Findings of the Association for Computational Linguistics: ACL 2023', 'https://semopenalex.org/source/S4363608774', 'Automatic Text Simplification&lt;i&gt;Horacio Saggion&lt;/i&gt; (Universitat Pompeu Fabra) Morgan &amp;amp; Claypool (Synthesis Lectures on Human Language Technologies, edited by Graeme Hirst, volume 37), 2017, xvi+121 pp; paperback, ISBN 978-1-62705-868-1; ebook, ISBN 978-1-62705-869-8; doi:10.2200/S00700ED1V01Y201602HLT032', 'https://semopenalex.org/source/S4306400194', 'Images2Poem', 'ParaSCI: A Large Scientific Paraphrase Dataset for Longer Paraphrase Generation', 'MicroScholar: Mining Scholarly Information from Chinese Microblogs', 'A New Re-ranking Method for Generic Chinese Text Summarization and Its Evaluation', 'DSGram: Dynamic Weighting Sub-Metrics for Grammatical Error Correction  in the Era of Large Language Models', 'Abstractive Document Summarization with a Graph-Based Attentional Neural Model', 'https://semopenalex.org/source/S4306525036', 'INS: An Interactive Chinese News Synthesis System', 'Towards a Neural Network Approach to Abstractive Multi-Document Summarization', 'DialSummEval: Revisiting Summarization Evaluation for Dialogues', 'Style-Compress: An LLM-Based Prompt Compression Framework Considering Task-Specific Styles', 'AMRec: An Intelligent System for Academic Method Recommendation', 'Style-Compress: An LLM-Based Prompt Compression Framework Considering  Task-Specific Styles', 'https://semopenalex.org/source/S4363608773', 'Models See Hallucinations: Evaluating the Factuality in Video Captioning', 'https://semopenalex.org/source/S4210169297', 'Exploiting Summarization Data to Help Text Simplification', 'https://semopenalex.org/source/S4363608652', 'RST Discourse Parsing as Text-to-Text Generation', 'Collective Opinion Target Extraction in Chinese Microblogs', 'Evaluating and Mitigating Number Hallucinations in Large Vision-Language  Models: A Consistency Perspective', 'https://semopenalex.org/source/S4393179698', 'BrailleSUM: A News Summarization System for the Blind and Visually Impaired People', 'Point Precisely: Towards Ensuring the Precision of Data in Generated Texts Using Delayed Copy Mechanism', 'Benchmarking Knowledge Boundary for Large Language Model: A Different  Perspective on Model Evaluation', 'How Do Seq2Seq Models Perform on End-to-End Data-to-Text Generation?', 'https://semopenalex.org/source/S30698027', 'Overview of the NLPCC 2015 Shared Task: Weibo-Oriented Chinese News Summarization', 'https://semopenalex.org/source/S4306420508', 'Summarizing the differences in multilingual news', 'https://semopenalex.org/source/S4306419999', 'Exploring the Impact of Vision Features in News Image Captioning', 'https://semopenalex.org/source/S4306400349', 'Beyond topical similarity: a structural similarity measure for retrieving highly similar documents', 'Single document summarization with document expansion', 'PKUTM at TREC 2010 Blog Track', 'A Syntax-Guided Grammatical Error Correction Model with Dependency Tree Correction', 'https://semopenalex.org/source/S4306418267', 'Update Summarization Based on Co-Ranking with Constraints', 'Overview of Baidu Cup 2016: Challenge on Entity Search', 'SRRank: Leveraging Semantic Roles for Extractive Multi-Document Summarization', 'On the Helpfulness of Document Context to Sentence Simplification', 'Semantic Role Labeling for Learner Chinese: the Importance of Syntactic Parsing and L2-L1 Parallel Data', 'Visual Question Generation Under Multi-granularity Cross-Modal Interaction', 'A Data-Driven, Factorization Parser for CCG Dependency Structures', 'Better than Random: Reliable NLG Human Evaluation with Constrained  Active Sampling']</t>
-  </si>
-  <si>
-    <t>['aamas03 : proceedings of the second International Joint Conference on Autonomous Agents and Multiagent Systems, July 14-18, 2003, Melbourne, Australia', 'The Cost of Stability in Network Flow Games', 'The Distortion of Cardinal Preferences in Voting', 'Algorithmic Game Theory', 'Bounds on the Cost of Stabilizing a Cooperative Game', 'Deriving consensus in multiagent systems', 'Leading a Best-Response Teammate in an Ad Hoc Team', 'https://semopenalex.org/source/S4210233839', 'Searching for an alternative plan', 'Computation and Incentives in Social Choice (Dagstuhl Seminar 12101)', 'Dynamics based control with an application to area-sweeping problems', 'https://semopenalex.org/source/S4306417597', 'Emergent coordination through the use of cooperative state-changing rules', 'Adding incentives to file-sharing systems', 'Algorithms for the coalitional manipulation problem', 'Tight bounds for strategyproof classification', 'Proof systems and transformation games', 'https://semopenalex.org/source/S4306402512', 'The role of middle-agents in electronic commerce', 'The Cost of Stability in Coalitional Games', 'https://semopenalex.org/source/S4363608732', 'Passive threats among agents in State Oriented Domains', 'A framework for the interleaving of execution and planning for dynamic tasks by multiple agents', 'https://semopenalex.org/source/S4306420974', 'Strategyproof Peer Selection: Mechanisms, Analyses, and Experiments', 'Using focal point learning to improve tactic coordination in human-machine interactions', 'Teaching and leading an ad hoc teammate: Collaboration without pre-coordination', 'Proof Systems and Transformation Games', 'Consenting agents: negotiation mechanisms for multi-agent systems', 'Musag an agent that learns what you mean', 'Report on the second international joint conference on autonomous agents and multiagent systems', 'Constrained intelligent action: planning under the influence of a master agent', 'Tracking Performance and Forming Study Groups for Prep Courses Using Probabilistic Graphical Models: (Extended Abstract)', 'Best-Response Multiagent Learning in Non-Stationary Environments', 'Multiagent graph coloring: Pareto efficiency, fairness and individual rationality', 'https://semopenalex.org/source/S4306463519', 'https://semopenalex.org/source/S2488191322', 'Verifying plans for multiple agents', 'Dynamics Based Control: An Introduction', 'Using swamps to improve optimal pathfinding', 'Distributed multiagent resource allocation in diminishing marginal return domains', 'Avoid fixed pricing: consume less, earn more, make clients happy', 'An Empirical Investigation of the Adversarial Activity Model', 'https://semopenalex.org/source/S4387284494', 'Multiagent coordination by Extended Markov Tracking', 'https://semopenalex.org/source/S4306400562', 'Subsidies, stability, and restricted cooperation in coalitional games', 'Sharing Rewards in Cooperative Connectivity Games', 'https://semopenalex.org/source/S4210201610', 'Gerrymandering Over Graphs', "Time and the Prisoner's Dilemma", 'Cooperation and conflict resolution via negotiation among autonomous agents in noncooperative domains', "Le banc d'essais ART (Agent Reputation and Trust) pour les modèles de confiance", 'NetNeg: A Hybrid Interactive Architecture for Composing Polyphonic Music in Real Time', 'Manipulation with randomized tie-breaking under Maximin', 'Approximating power indices: theoretical and empirical analysis', 'A (Dis-)information Theory of Revealed and Unrevealed Preferences: Emerging Deception and Skepticism via Theory of Mind', 'https://semopenalex.org/source/S4306401396', 'Agent failures in all-pay auctions', 'A contract net with consultants: an alternative architecture and experimental results', 'Convergence and Quality of Iterative Voting under Non-Scoring Rules: (Extended Abstract)', 'Search Space Reduction Using Swamp Hierarchies', 'On the Approximability of Dodgson and Young Elections', 'https://semopenalex.org/source/S5405189', 'Coalitional skill games', 'https://semopenalex.org/source/S4210191458', 'Synchronization of Multi-Agent Plans', 'https://semopenalex.org/source/S4210167461', 'Designing conventions for automated negotiation', 'The learnability of voting rules', 'Iterative voting and acyclic games', 'https://semopenalex.org/source/S4306401737', 'The cost of stability in weighted voting games', 'https://semopenalex.org/source/S73987262', 'Reaching consensus under a deadline', 'Agents and Peer-to-Peer Computing: Towards P2P-Based Resource Allocation in Competitive Environments', 'Junta Distributions and the Average-Case Complexity of Manipulating Elections', 'Convergence of iterative voting', 'Coordination without communication: experimental validation of focal point techniques', 'Negotiation and task sharing among autonomous agents in cooperative domains', 'Strategyproof Peer Selection.', 'The impact of infocenters on e-marketplaces', 'Multiagent systems, and the search for appropriate foundations', 'Synchronization of multi-agent plans', 'https://semopenalex.org/source/S4306476174', 'Distant Truth: Bias Under Vote Distortion Costs', 'The Gift Exchange Game: Managing Opponent Actions', 'https://semopenalex.org/source/S149709236', 'Evolutionary patterns of agent organizations', 'Mechanisms for Automated Negotiation in State Oriented Domains', 'https://semopenalex.org/source/S2764580927', 'Learning voting trees', 'Negotiation in State-Oriented Domains with incomplete information over goals', 'Autonomous Agents and Multi-Agent Systems: Guest Introduction', 'Approximating power indices', 'An algorithm for the coalitional manipulation problem under Maximin', 'https://semopenalex.org/source/S4306514445', "Planning to please: Following another agent's intended plan", 'Ad Hoc Autonomous Agent Teams: Collaboration without Pre-Coordination', 'Compromise in negotiation: exploiting worth functions over states', 'Mutually supervised learning in multiagent systems', 'https://semopenalex.org/source/S4306401540', 'https://semopenalex.org/source/S4306463230', 'https://semopenalex.org/source/S4306418308', 'Multi-agent planning as a dynamic search for social consensus', 'Research Directions for Service-Oriented Multiagent Systems', 'https://semopenalex.org/source/S4306420577', 'Incomplete Information and Communication in Voting', 'Bounding the Cost of Stability in Games over Interaction Networks', 'Achieving Allocatively-Efficient and Strongly Budget-Balanced Mechanisms in the Network Flow Domain for Bounded-Rational Agents', 'https://semopenalex.org/source/S4377196284', 'Complexity of Strategic Behavior in Multi-Winner Elections', 'Real Candidacy Games: A New Model for Strategic Candidacy', 'Mechanism design for automated negotiation, and its application to task oriented domains', 'Divide and Conquer: Using Geographic Manipulation to Win District-Based Elections', 'Empirical analysis of plurality election equilibria', 'Teaching distributed artificial intelligence', 'Mechanisms for partial information elicitation: the truth, but not the whole truth', 'https://semopenalex.org/source/S4306418390', 'The adversarial activity model for bounded rational agents', 'Communication-Free Interactions among Rational Agents: A Probabilistic Approach', 'NetNeg: A Connectionist-Agent Integrated System for Representing Musical Knowledge', 'Proceedings of the fourth international conference on autonomous agents, Barcelona, Catalonia, Spain, June 3-7, 2000', 'https://semopenalex.org/source/S4306402609', 'Proceedings of the fourth international conference on Autonomous agents', 'https://semopenalex.org/source/S4363604309', 'Cooperation without communication', 'Proceedings of the International Conference on Autonomous Agents: Foreword', 'Rebuilding the Great Pyramids: A Method for Identifying Control Relations in Complex Ownership Structures', 'Beyond Plurality: Truth-Bias in Binary Scoring Rules', 'Analysis of Equilibria in Iterative Voting Schemes', 'Minimal Subsidies in Expense Sharing Games', 'Behaviosites: A Novel Paradigm for Affecting Distributed Behavior', 'Strategyproof peer selection using randomization, partitioning, and apportionment', 'The pricing war continues: on competitive multi-item pricing', 'Coordination and multi-tasking using EMT', 'Strategyproof classification with shared inputs', 'A Local-Dominance Theory of Voting Equilibria', 'Multi-agent planning as search for a consensus that maximizes social welfare', 'An NTU Cooperative Game Theoretic View of Manipulating Elections', 'https://semopenalex.org/source/S4306401019', 'New Approaches to Multi-Agent Planning', 'A broader picture of the complexity of strategic behavior in multi-winner elections', 'https://semopenalex.org/source/S172351290', 'Reaching agreement through partial revelation of preferences', 'https://semopenalex.org/source/S106296714', 'Multi-winner elections: complexity of manipulation, control, and winner-determination', 'The complexity of multiagent systems', 'https://semopenalex.org/source/S4306463626', 'Voting in Cooperative Information Agent Scenarios: Use and Abuse', 'https://semopenalex.org/source/S153467142', 'Knowing What to Ask: A Bayesian Active Learning Approach to the Surveying Problem', 'Reaching Consensus Under a Deadline.', 'Power in threshold network flow games', 'Detecting and Deterring Manipulation in a Cognitive Hierarchy', 'Mechanisms for information elicitation', 'Understanding Mechanism Design—Part 2 of 3: The Vickrey-Clarke-Groves Mechanism', 'Negotiation with incomplete information about worth: Strict versus tolerant mechanisms', 'https://semopenalex.org/source/S4306418977', 'https://semopenalex.org/source/S107325288', 'Agent Failures in All-Pay Auctions', 'https://semopenalex.org/source/S2764455111', 'Plans for Multiple Agents', 'Divide and conquer in multi-agent planning', 'https://semopenalex.org/source/S163019073', 'Minimal subsidies in expense sharing games', 'Unsupervised Symbolic Music Segmentation using Ensemble Temporal Prediction Errors', 'When to Apply the Fifth Commandment: The Effects of Parenting on Genetic and Learning Agents', 'Simulation of Cooperative Behavioral Trends by Local Interaction Rules', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S4363608824', 'Collaboration Promotes Group Resilience in Multi-Agent AI', 'https://semopenalex.org/source/S139930977', 'https://semopenalex.org/source/S4306464767', 'The Agent Reputation and Trust (ART) Testbed Architecture', 'Automated design of scoring rules by learning from examples', 'COOPERATION WITHOUT COMMUNICATION', 'Deals among rational agents', 'https://semopenalex.org/source/S76152103', 'Incentives in effort games', 'Computing cooperative solution concepts in coalitional skill games', 'https://semopenalex.org/source/S4306400216', 'Learning to Identify Winning Coalitions in the PAC model.', 'Junta Distributions and the Average-Case Complexity of Manipulating Elections.', 'https://semopenalex.org/source/S205899252', 'Convergence of Iterative Scoring Rules', 'Rules of encounter: designing conventions for automated negotiation among computers', 'A game theoretic approach to distributed artificial intelligence and the pursuit problem (abstract)', 'https://semopenalex.org/source/S4306525036', 'Using focal point learning to improve human–machine tacit coordination', 'https://semopenalex.org/source/S125501549', 'Bitcoin Mining Pools: A Cooperative Game Theoretic Analysis', 'Plan execution motivation in multi-agent systems', 'The Clarke tax as a consensus mechanism among automated agents', 'The case of the lying postman: Decoys and deception in negotiation', 'Dynamics based control with PSRs', 'Reaching Consensus Under a Deadline', 'https://semopenalex.org/source/S4377196354', 'Power and stability in connectivity games', 'Between Discord and Deadlock: Consensus Under a Deadline.', 'Negotiation and conflict resolution in non-cooperative domains', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S4210177767', 'Complexity of unweighted coalitional manipulation under some common voting rules', 'https://semopenalex.org/source/S4210172589', 'Mergers and collusion in all-pay auctions and crowdsourcing contests', 'https://semopenalex.org/source/S4393179698', 'Sketching techniques for collaborative filtering', 'Approximability and Inapproximability of Dodgson and Young Elections', 'Single-phase agreements among rational agents', 'Strategyproof Peer Selection using Randomization, Partitioning, and Apportionment', 'https://semopenalex.org/source/S4306401020', 'https://semopenalex.org/source/S4306417653', 'A domain theory for task oriented negotiation', 'https://semopenalex.org/source/S4306419999', 'Deals Among Rational Agents', 'Gossip-based aggregation of trust in decentralized reputation systems', 'On the limits of dictatorial classification', 'https://semopenalex.org/source/S4306400349', 'Searching for close alternative plans', 'On the complexity of achieving proportional representation', 'AgentSoft', 'https://semopenalex.org/source/S114241109', 'Effort Games and the Price of Myopia', 'Behaviosites: manipulation of multiagent system behavior through parasitic infection', 'Algorithms for strategyproof classification', 'A local-dominance theory of voting equilibria', 'https://semopenalex.org/source/S196139623', 'Supporting Privacy in Decentralized Additive Reputation Systems', 'https://semopenalex.org/source/S4306462995', 'On the approximability of Dodgson and Young elections', 'Convergence to Equilibria in Plurality Voting', 'On the response of EMT-based control to interacting targets and models', "Le banc d'essais ART (Agent Reputation and Trust) pour les modèles de confiance (article court).", "Learn your opponent's strategy (in polynomial time)!", 'Strategyproof classification', 'Incomplete information and deception in multi-agent negotiation', 'https://semopenalex.org/source/S4306514979', 'The Communication Complexity of Coalition Formation Among Autonomous Agents.', 'https://semopenalex.org/source/S4306419148', 'https://semopenalex.org/source/S4377196475', 'https://semopenalex.org/source/S33562827', 'https://semopenalex.org/source/S4306402636', 'Exploiting Problem Symmetries in State-Based Planners', 'Extensive-Form Argumentation Games.', 'Strategyproof classification under constant hypotheses: a tale of two functions', 'The role of representation in interaction (abstract)', 'https://semopenalex.org/source/S4306507525', 'When to apply the fifth commandment: the effects of parenting on genetic and learning agents', 'The Pricing War Continues: On Competitive Multi-Item Pricing', 'Minimizing Node Expansions in Bidirectional Search with Consistent Heuristics', 'https://semopenalex.org/source/S90199469']</t>
-  </si>
-  <si>
-    <t>['Probabilistic Analysis of MULTIPLE QUICK SELECT', 'A multivariate view of random bucket digital search trees', 'Distributions in a class of Poissonized urns with an application to Apollonian networks', 'https://semopenalex.org/source/S44643521', 'https://semopenalex.org/source/S4210182901', 'Polya Urn Models and Connections to Ran- dom Trees: A Review', 'Insertion depth in power-weight trees', 'The degree Gini index of several classes of random trees and their poissonized counterparts---an evidence for a duality theory', 'Analysis of Boyer-Moore-Horspool string-matching heuristic', 'Perpetuities in Fair Leader Election Algorithms', 'On Nodes of Small Degrees and Degree Profile in Preferential Dynamic Attachment Circuits', 'Exactly Solvable Balanced Tenable Urns with Random Entries via the Analytic Methodology', 'Winning a Tournament According to Bradley-Terry Probability Model', 'Some empirical and theoretical attributes of random multi-hooking networks', 'A model for the spreading of fake news', 'One-sided variations on binary search trees', 'Degrees in random $m$-ary hooking networks', 'Asymptotic Properties of a Leader Election Algorithm', 'Random multi-hooking networks', 'Exact Covariances and Refined Asymptotics in Dichromatic Tenable Balanced Polya Urn Schemes', 'https://semopenalex.org/source/S200334879', 'Corrigendum', 'https://semopenalex.org/source/S4306402512', 'The class of tenable zero-balanced Pólya urn schemes: characterization and Gaussian phases', 'https://semopenalex.org/source/S2764412775', 'Affine Diminishing Urns', 'Asymptotic Properties of Protected Nodes in Random Recursive Trees', 'On the structure of random plane‐oriented recursive trees and their branches', 'On the Joint Behavior of Types of Coupons in Generalized Coupon Collection', 'A stochastic model for solitons', 'https://semopenalex.org/source/S147953040', 'Analysis of swaps in radix selection', 'https://semopenalex.org/source/S4306418406', 'Degrees in random &lt;mml:math xmlns:mml=http://www.w3.org/1998/Math/MathML&gt;&lt;mml:mi&gt;m&lt;/mml:mi&gt;&lt;/mml:math&gt;-ary hooking networks', 'https://semopenalex.org/source/S2765029694', 'Balancing m-ary search trees with compressions on the fringe', 'https://semopenalex.org/source/S150892397', 'Probabilistic analysis of bucket recursive trees', 'https://semopenalex.org/source/S4377196372', 'https://semopenalex.org/source/S156280010', 'On the variety of shapes in digital trees', 'https://semopenalex.org/source/S4210224136', 'A Strong Law for the Height of Random Binary Pyramids', 'One-sided Variations on Tries: Path Imbalance, Climbing, and Key Sampling', 'Random networks grown by fusing edges via urns', 'Distributional analysis of swaps in Quick Select', 'On the Distribution of Leaves in Rooted Subtrees of Recursive Trees', 'SOME NODE DEGREE PROPERTIES OF SERIES–PARALLEL GRAPHS EVOLVING UNDER A STOCHASTIC GROWTH MODEL', 'https://semopenalex.org/source/S160779208', 'Affine diminishing urns', 'The class of tenable zero-balanced Pólya urns with an initially dominant subset of colors', 'Polya-Type Urn Models with Multiple Drawings', 'Distribution of the size of random hash trees, pebbled hash trees and N-trees', 'Limiting Distributions for Path Lengths in Recursive Trees', 'Statistical Inequalities', 'https://semopenalex.org/source/S84409463', 'https://semopenalex.org/source/S18902827', 'Survivors in leader election algorithms', 'https://semopenalex.org/source/S164906323', 'Toward a Formal Derivation of the Expected Behavior of Prefix &lt;i&gt;B&lt;/i&gt;-Trees', 'Asymptotic Joint Normality of Counts of Uncorrelated Motifs in Recursive Trees', 'https://semopenalex.org/source/S7571225', 'Limit laws for the Randić index of random binary tree models', 'On nodes of small degrees and degree profile in preferential dynamic attachment circuits', 'The Sackin index and depth of leaves in generalized Schröder trees', 'Oツリー,Bツリー,接頭Bツリーのストレージのオーバーヘッド 比較分析', 'Age statistics in the Moran population model', 'https://semopenalex.org/source/S90727058', 'Analysis of a generalized Friedman’s urn with multiple drawings', 'Asymptotic Joint Normality of Outdegrees of Nodes in Random Recursive Trees', 'Two-color balanced affine urn models with multiple drawings II: large-index and triangular urns', 'The degree profile and weight in Apollonian networks and &lt;i&gt;k&lt;/i&gt;-trees', "Mixed distributions in Sattolo's algorithm for cyclic permutations via randomization and derandomization", 'On rotations in fringe-balanced binary trees', 'Limit laws for terminal nodes in random circuits with restricted fan-out: a family of graphs generalizing binary search trees', 'Distributions in the Ehrenfest process', 'The Expected Distribution of Degrees in Random Binary Search Trees', 'Bivariate Issues in Leader Election Algorithms with Marshall-Olkin Limit Distribution', 'The containment profile of hyper-recursive trees', 'Analysis of Quickselect Under Yaroslavskiy’s Dual-Pivoting Algorithm', 'The Joint Distribution of Elastic Buckets in Multiway Search Trees', 'https://semopenalex.org/source/S128350725', 'https://semopenalex.org/source/S193011845', 'A SPECTRUM OF SERIES–PARALLEL GRAPHS WITH MULTIPLE EDGE EVOLUTION', 'Two-colour balanced affine urn models with multiple drawings I: central limit theorems', 'Estimating the Pólya process', 'مدلهای آوند پولیاگونه با برداشتهای چندگانه', 'https://semopenalex.org/source/S4306400744', 'On the Variety of Shapes in Digital Trees', 'The continuous-time triangular Pólya process', 'Explicit characterization of moments of balanced triangular Pólya urns by an elementary approach', 'Average-case analysis of multiple Quickselect: An algorithm for finding order statistics', 'Exact and Limiting Distributions in Diagonal Pólya Processes', 'The Power of Choice in the Construction of Recursive Trees', 'On affine multicolor urns grown under multiple drawing', 'Problems and Solutions', 'On the average internal path length of m-ary search trees', 'Profile of Random Exponential Recursive Trees', 'JISC: Adaptive stream processing using just-in-time state completion?', 'https://semopenalex.org/source/S4306463230', 'https://semopenalex.org/source/S171741597', 'https://semopenalex.org/source/S4306536558', 'Probabilistic analysis of maximal gap and total accumulated length in interval division', 'The continuum Pólya-like random walk', 'Distances in random digital search trees', 'Exact and limiting distributions in diagonal Pólya processes', 'On the internal structure of random recursive circuits', 'https://semopenalex.org/source/S180803011', 'An index for betting with examples from games and sports', 'Analysis of an Algorithm for Random Sampling', 'Average-Case Analysis of Cousins in m-ary Tries', 'Polya Urn Models', 'A self-equilibrium Friedman-like urn via stochastic approximation', 'ON CLIMBING TRIES', 'An Efficiency Robust Nonparametric Test for Scale Change for Data from a Gamma Distribution', 'https://semopenalex.org/source/S989097277', 'Analysis of the space of search trees under the random insertion algorithm', 'https://semopenalex.org/source/S2530642067', 'Depths in hooking networks', 'https://semopenalex.org/source/S4210191297', 'https://semopenalex.org/source/S89324355', 'https://semopenalex.org/source/S9093621', 'Average measures in polymer graphs', 'https://semopenalex.org/source/S2764830807', 'https://semopenalex.org/source/S4210186879', 'https://semopenalex.org/source/S4306463075', 'https://semopenalex.org/source/S4306402042', 'STORAGE OVERHEAD OF O-TREES, B-TREES AND PREFIX B-TREES: A COMPARATIVE ANALYSIS', 'https://semopenalex.org/source/S59667848', 'https://semopenalex.org/source/S153560523', 'Phase Changes in Subtree Varieties in Random Recursive and Binary Search Trees', 'Analytic variations on bucket selection and sorting', 'https://semopenalex.org/source/S170765028', 'Dynamic Pólya–Eggenberger urns', 'https://semopenalex.org/source/S4210215866', 'Imbalance in Random Digital Trees', 'A Limit Law for Outputs in Random Recursive Circuits', 'On the distribution for the duration of a randomized leader election algorithm', 'Bar Bets and Generating Functions: The Distribution of the Separation of Two Distinct Card Ranks', 'The oscillatory distribution of distances in random tries', 'On generalized Pólya urn models', 'https://semopenalex.org/source/S165473669', 'The joint distribution of the three types of nodes in uniform binary trees', 'Correction to: Egorychev Method: A Hidden Treasure', 'On tree-growing search strategies', 'https://semopenalex.org/source/S4306401280', 'Degrees in random self-similar bipolar networks', 'https://semopenalex.org/source/S23873141', 'https://semopenalex.org/source/S4306400194', 'Local and global degree profiles of randomly grown self-similar hooking networks under uniform and preferential attachment', 'On the joint distribution of the insertion path length and the number of comparisons in search trees', 'Trees grown under young-age preferential attachment', 'https://semopenalex.org/source/S68047077', 'Distribution of distances in random binary search trees', 'Analysis of quickselect : an algorithm for order statistics', 'SOME PROPERTIES OF BINARY SERIES-PARALLEL GRAPHS', 'ON THE COMBINATORICS OF BINARY SERIES-PARALLEL GRAPHS', 'DEGREE PROFILE OF HIERARCHICAL LATTICE NETWORKS', 'Random sprouts as internet models, and P�lya processes', 'https://semopenalex.org/source/S4210234901', 'Limit distribution of distances in biased random tries', 'EXTREMAL WEIGHTED PATH LENGTHS IN RANDOM BINARY SEARCH TREES', 'The size of random bucket trees via urn models', 'The Department of Statistics at The George Washington University', 'https://semopenalex.org/source/S985303', 'The Degree Profile in Some Classes of Random Graphs that Generalize Recursive Trees', 'DRAWING MULTISETS OF BALLS FROM TENABLE BALANCED LINEAR URNS', 'https://semopenalex.org/source/S4306463937', 'Egorychev Method: A Hidden Treasure', 'https://semopenalex.org/source/S4210172589', 'On the Most Probable Shape of a Search Tree Grown from a Random Permutation', 'On affine multi-color urns grown under multiple drawing', 'Some properties of exponential trees', 'https://semopenalex.org/source/S203441484', 'https://semopenalex.org/source/S4393179698', 'DEGREE-BASED GINI INDEX FOR GRAPHS', 'Distances in random plane-oriented recursive trees', 'Paths in &lt;mml:math xmlns:mml=http://www.w3.org/1998/Math/MathML altimg=si2.gif overflow=scroll&gt;&lt;mml:mi&gt;m&lt;/mml:mi&gt;&lt;/mml:math&gt;-ary interval trees', 'Covariances in Pólya urn schemes', 'https://semopenalex.org/source/S4306400349', 'The Gini index of random trees with an application to caterpillars', 'Exact Covariances and Refined Asymptotics in Dichromatic Tenable Balanced Pólya Urn Schemes', 'The Degree Gini Index of Several Classes of Random Trees and Their Poissonized Counterparts�Evidence for Duality', 'Distributions in the constant-differentials Pólya process', 'On the Variety of Shapes on the Fringe of a Random Recursive Tree', 'An Efficiency Robust Nonparametric Test for Scale Change for Data From a Gamma Distribution', 'DEGREE PROFILE OF &lt;i&gt;m&lt;/i&gt;-ARY SEARCH TREES: A VEHICLE FOR DATA STRUCTURE COMPRESSION', 'Gaussian phases in generalized coupon collection', 'Pólya urns: Probabilistic analysis and statistical questions', 'BUILDING RANDOM TREES FROM BLOCKS', 'Profile of Random Exponential Binary Trees', 'Asymptotic distribution of two-protected nodes in random binary search trees', 'https://semopenalex.org/source/S4306417669', 'https://semopenalex.org/source/S6941720', 'The Class of Tenable Zero-Balanced Pólya Urn Schemes: Characterization and Gaussian Phases', 'https://semopenalex.org/source/S4306402264', 'Phases in the Diffusion of Gases via the Ehrenfest URN Modelx', 'https://semopenalex.org/source/S9424914', 'An Urn Model for Population Mixing and the Phases Within', 'Algorithmics of Nonuniformity', 'Throughput analysis in wireless networks with multiple users and multiple channels', 'https://semopenalex.org/source/S4306402441', 'Distribution of inter-node distances in digital trees', 'https://semopenalex.org/source/S4306463019', 'https://semopenalex.org/source/S117679221', 'The containment profile of hyperrecursive trees', 'Two-color balanced affine urn models with multiple drawings', 'One-sided variations on interval trees', 'https://semopenalex.org/source/S94688346', 'BERNOULLI CONVOLUTION OF THE DEPTH OF NODES IN RECURSIVE TREES WITH GENERAL AFFINITIES', 'Phases in the two-color tenable zero-balanced Pólya process', 'https://semopenalex.org/source/S4386872458', 'https://semopenalex.org/source/S177771411', 'Sorting 1-away permutations with underlying Fibonacci convolutions', 'Characterization and Enumeration of Certain Classes of Tenable Pólya Urns Grown by Drawing Multisets of Balls', 'https://semopenalex.org/source/S110520077']</t>
-  </si>
-  <si>
-    <t>['EIGENVALUES-BASED LSB STEGANALYSIS', 'https://semopenalex.org/source/S4306532254', 'https://semopenalex.org/source/S61310614', 'https://semopenalex.org/source/S4210213119', 'Static network codes using network minimal subgraphs', 'Slepian–Wolf Coding Over Cooperative Relay Networks', 'Symmetric relaying based on partial decoding and the capacity of a class of relay networks', 'On the equivalency of reliability and security metrics for wireline networks', 'An Efficient Precoder Size for Interference Alignment of the $K$ -User Interference Channel', 'https://semopenalex.org/source/S168680287', 'A Scalable Multi-Layered Blockchain Architecture for Enhanced EHR  Sharing and Drug Supply Chain Management', 'Security and privacy-preserving in e-health: A new framework for patient', 'Efficient Polar Code-Based Physical Layer Encryption Scheme', 'Achievable Rate Region for Multiple Access Channel with Correlated Channel States and Cooperating Encoders', 'Multiple Access Channel with Common Message and Secrecy constraint', 'Channel simulation via interactive communications', 'Secret Key Cryptosystem Based on Non-systematic Polar Codes', 'Sum Degrees of Freedom for the K-user Interference Channel Using Antenna Switching.', 'https://semopenalex.org/source/S192650101', 'A Location Privacy-Preserving Method for Spectrum Sharing in Database-Driven Cognitive Radio Networks', 'Key Agreement Over Multiple Access Channel', 'Security enhancement of an auditing scheme for shared cloud data', 'https://semopenalex.org/source/S58852226', 'https://semopenalex.org/source/S63459445', 'https://semopenalex.org/source/S4306402512', 'https://semopenalex.org/source/S139336729', 'Rate regions of secret key sharing in a new source model', 'On the Secrecy Capacity Region of Multiple Access Wire-tap Channel with Common Message', 'Breaking Anonymity of Some Recent Lightweight RFID Authentication Protocols.', 'https://semopenalex.org/source/S141761900', 'An attribute‐based tripartite key agreement protocol', 'https://semopenalex.org/source/S4210191536', 'On the reliable transmission of correlated sources over two-relay network', 'PERFORMANCE COMPARISON OF ADMISSION CONTROL POLICIES FOR NEW CALLS IN SOFT-HANDOFF REGIONS FOR CDMA CELLULAR NETWORKS', 'Over-the-Air Federated Adaptive Data Analysis: Preserving Accuracy via  Opportunistic Differential Privacy', 'Multiple Relay Channels with Delays: With and without Side Information', 'THE KRYPTOKNIGHT FAMILY OF PROTOCOLS: EVALUATION AND ENHANCEMENT', 'Low-Data Complexity Biclique Cryptanalysis of Block Ciphers With Application to Piccolo and HIGHT', 'Dynamic Cube Attack on Grain-v1.', 'Secret Key Cryptosystem based on Polar Codes over Binary Erasure Channel.', 'https://semopenalex.org/source/S120629676', 'https://semopenalex.org/source/S4306400562', 'Cryptanalysis and Improvement of a User Authentication Scheme for Internet of Things Using Elliptic Curve Cryptography.', 'An Improved Truncated Differential Cryptanalysis of Klein', 'An efficient multi-stage secret sharing using bilinear map', 'https://semopenalex.org/source/S49967189', 'https://semopenalex.org/source/S4393919517', 'https://semopenalex.org/source/S4306418363', 'Analysis and Enhancement of Desynchronization Attack on an Ultralightweight RFID Authentication Protocol.', 'Slepian-Wolf coding over cooperative networks', 'A Secure Error-Resilient Lossless Source Coding Scheme Based on Punctured Turbo Codes', 'Comprehensive Comparison of Security Measurement Models', 'On The Achievable Rate Region of a New Wiretap Channel With Side Information', 'On the Security of O-PSI: A Delegated Private Set Intersection on Outsourced Datasets (Extended Version)', 'A new method for variable elimination in systems of inequations', 'Rate Regions of Secret Key Sharing in a New Source Model', 'Achievability proof via output statistics of random binning', 'Power allocation for Incremental-Selective Decode-and-Forward cooperative communications over Rician fading channels', 'Coordination via a relay', 'COMBINING BLOCKCHAIN AND IOT FOR DECENTRALIZED HEALTHCARE DATA MANAGEMENT', 'Multi layer Gelfand Pinsker Strategies for the Generalized Multiple Access Channel', 'https://semopenalex.org/source/S4210183850', 'A MSWF root‐MUSIC based on Pseudo‐noise resampling technique', 'A Lightweight Privacy-preserving Authenticated Key Exchange Scheme for Smart Grid Communications', 'A new secret key agreement scheme in a four-terminal network', 'Perfectly secure index coding', 'Cryptanalysis of Some First Round CAESAR Candidates', 'Multiple Access Wire-tap Channel with Common Message.', 'https://semopenalex.org/source/S2764444581', 'Cooperative relay cognitive interference channel', 'CoRPA: A Novel Efficient Shared Data Auditing Protocol in Cloud Storage', 'https://semopenalex.org/source/S2764692580', 'https://semopenalex.org/source/S4306420161', 'A Joint Encryption-Encoding Scheme Using QC-LDPC Codes Based on Finite Geometry', 'Compress-and-forward strategy for relay channel with causal and non-causal channel state information', 'PKC-PC: A Variant of the McEliece Public Key Cryptosystem based on Polar Codes', 'QoS network coding', 'https://semopenalex.org/source/S82675988', 'Secret Key Cryptosystem based on Polar Codes over Binary Erasure Channel', 'A Bit-Vector Differential Model for the Modular Addition by a Constant.', 'https://semopenalex.org/source/S2485537415', 'Likelihood ratio tests for PSK modulation classification in unknown noise environment', 'Attacks on a Lightweight Mutual Authentication Protocol under EPC C-1 G-2 Standard', 'A novel approach for providing QoS with network coding', 'Breaking anonymity of some recent lightweight RFID authentication protocols', 'Secure channel simulation', 'When is it possible to simulate a DMC channel from another', 'Optimum Power Allocations for Fading Decode-and-Forward Relay Channel', 'The Linear Complexity of the Universal logic Sequences', 'https://semopenalex.org/source/S4306417880', 'On Optimal Online Algorithms for Energy Harvesting Systems With Continuous Energy and Data Arrivals', 'New achievable rate and a certain capacity result for a stochastic two relay network with no interference', 'Key agreement over a state-dependent 3-receiver broadcast channel', '2D Hash Chain robust Random Key Distribution scheme', 'https://semopenalex.org/source/S2480266640', 'Capacity of a more general glass of relay channels', 'Secret key cryptosystem based on polar codes over Binary Erasure Channel', 'https://semopenalex.org/source/S4306515657', 'https://semopenalex.org/source/S4502562', 'A Correlation Measure Based on Vector-Valued $L_p$-Norms', 'AN ADAPTIVE SECURE CHANNEL CODING SCHEME FOR DATA TRANSMISSION OVER LEO SATELLITE CHANNELS', 'A New Method for Variable Elimination in Systems of Inequations', 'Direction-of-Arrival Estimation for Temporally Correlated Narrowband Signals', 'State-Dependent Relay Channel with Private Messages with partial causal and non-causal Channel State Information', 'An Improved Authentication Scheme for Electronic Payment Systems in Global Mobility Networks', 'On the design and security of a lattice-based threshold secret sharing scheme', 'https://semopenalex.org/source/S106148199', 'Automated Dynamic Cube Attack on Block Ciphers: Cryptanalysis of SIMON and KATAN.', 'Successive Secret Key Agreement over Generalized Multiple Access and Broadcast Channels', 'A fuzzy fully distributed trust management system in wireless sensor networks', 'Multiple-access channel with correlated states and cooperating encoders', 'Statistics of Random Binning Based on Tsallis Divergence', 'CAPACITY ANALYSIS OF A CDMA CELLULAR SYSTEM WITH MIXED CELL SIZES AND IMPERFECT POWER CONTROL', 'Modeling gene regulatory networks: Classical models, optimal perturbation for identification of network', 'Desynchronization attack on RAPP ultralightweight authentication protocol', 'Achievability Proof via Output Statistics of Random Binning', 'https://semopenalex.org/source/S4306538080', 'Joint transfer of energy and information in a two-hop relay channel', 'https://semopenalex.org/source/S149016011', 'An LWE-based verifiable threshold secret sharing scheme', 'Paradise of Forking Paths: Revisiting the Adaptive Data Analysis Problem', 'Analysis and Improvement of the securing RFID systems conforming to EPC Class 1 Generation 2 standard.', 'A lightweight identity-based provable data possession supporting users’ identity privacy and traceability', 'https://semopenalex.org/source/S4306418690', 'Designated Verifier Threshold Proxy Signature Scheme without Random Oracles.', 'https://semopenalex.org/source/S120683614', 'A provably secure code‐based short signature scheme and its nontransferable variant', 'A bit-vector differential model for the modular addition by a constant and its applications to differential and impossible-differential cryptanalysis', 'Analytical power allocation for a full‐duplex decode‐and‐forward relay channel', 'On the Secrecy Performance of NOMA Systems with both External and Internal Eavesdroppers', 'An Improved Truncated Di fferential Cryptanalysis of KLEIN.', 'Capacity bounds for multiple access-cognitive interference channel', 'Three-User Cognitive Interference Channel: Capacity Region with Strong Interference', 'An Optimal Transmission Policy for Energy Harvesting Systems with Continuous Energy and Data Arrivals.', 'JHAE: An Authenticated Encryption Mode Based on JH.', 'Information Theoretically Private and Secure Distributed Voting Without a Trusted Authority', 'Efficient method for simplifying and approximating the S-boxes based on power functions', 'https://semopenalex.org/source/S2764855249', 'https://semopenalex.org/source/S2498435459', 'Comments on a lightweight cloud auditing scheme: Security analysis and improvement', 'Optimal Transmission Policies for Multi-Hop Energy Harvesting Systems', 'Comparison of managed decode-and-forward scheme and common decode-and-forward scheme in cooperative communication systems', 'Achievable Rates for a Two-Relay Network with Relays-Transmitter Feedbacks', 'https://semopenalex.org/source/S4306512823', 'https://semopenalex.org/source/S11258463', 'https://semopenalex.org/source/S4306401280', 'Simultaneously generating multiple keys in a four-terminal network', 'Energy Harvesting Systems With Continuous Energy and Data Arrivals: The Optimal Offline and Heuristic Online Algorithms', 'Artemia: A Family of Provably Secure Authenticated Encryption Schemes', 'Unified privacy analysis of new‐found RFID authentication protocols', 'A Hybrid DOS-Tolerant PKC-Based Key Management System for WSNs', 'HUAP: Practical Attribute-based Access Control Supporting Hidden Updatable Access Policies for Resource-Constrained Devices', 'Key Agreement over a Generalized Multiple Access Channel Using Noiseless and Noisy Feedback', 'Security and Privacy Analysis of Song–Mitchell RFID Authentication Protocol', 'https://semopenalex.org/source/S4363608563', 'Integral Cryptanalysis of Round-Reduced Shadow-32 for IoT Nodes', 'https://semopenalex.org/source/S4306529434', 'Achievable rate regions for Relay Channel with Private Messages with states known at the source', 'Public Key Cryptosystem Based on Low Density Lattice Codes', 'On the Equivalency of Reliability and Security Metrics for Wireline Networks', 'A New Secret key Agreement Scheme in a Four-Terminal Network', 'Dynamic cube attack on Grain‐v1', 'Adjustable privacy using autoencoder-based learning structure', 'https://semopenalex.org/source/S97755082', 'Analysis of an RFID Authentication Protocol in Accordance with EPC Standards.', 'A novel approach to radio direction finding and detecting the number of sources simultaneously: DMSAE algorithm', 'Sum Degrees of Freedom of the $K$-user Interference Channel with Blind CSI', 'One-Receiver Two-Eavesdropper Broadcast Channel With Degraded Message Sets', 'A revocable attribute based data sharing scheme resilient to DoS attacks in smart grid', 'A secure and privacy-preserving protocol for holding double auctions in smart grid', 'Empirical coordination in a triangular multiterminal network', 'Degrees of Freedom Rate Region of the $K$-user Interference Channel with Blind CSIT Using Staggered Antenna Switching', 'https://semopenalex.org/source/S4210174276', 'Achievable rate region for broadcast-relay networks with two cooperative relays', 'A Provably Secure Code-based Concurrent Signature Scheme.', 'Secure Channel Simulation', 'A Lightweight Auditing Service for Shared Data with Secure User Revocation in Cloud Storage', 'On The Secrecy of the Cognitive Interference Channel with Partial Channel States', 'Empirical Coordination in a Triangular Multiterminal Network', 'https://semopenalex.org/source/S204223317', 'Multi-layer Gelfand-Pinsker strategies for the generalized multiple-access channel', 'Some new issues on secret sharing schemes', 'Capacity of the State-Dependent Wiretap Channel: Secure Writing on Dirty Paper', 'Information-theoretic privacy-preserving user authentication', 'https://semopenalex.org/source/S164062316', 'Cryptanalysis of full-round SFN Block Cipher a Lightweight Block Cipher, Targeting IoT Systems', 'A Correlation Measure Based on Vector-Valued L&lt;sub&gt;p&lt;/sub&gt; Norms', 'A Bit-Vector Differential Model for the Modular Addition by a Constant', 'A Technique for Deriving One-Shot Achievability Results in Network Information Theory', 'https://semopenalex.org/source/S4306419875', 'An Achievable Rate Region for a Two-Relay Network with Receiver-Transmitter Feedback', 'A novel secret sharing scheme from audio perspective', 'Guess and Determine Attack on Bivium', 'Blind Interference Alignment for the &amp;lt;inline-formula&amp;gt; &amp;lt;tex-math notation=LaTeX&amp;gt;$K$ &amp;lt;/tex-math&amp;gt; &amp;lt;/inline-formula&amp;gt;-User SISO Interference Channel Using Reconfigurable Antennas', 'https://semopenalex.org/source/S48031226', 'Biclique Cryptanalysis of Block Ciphers LBlock and TWINE-80 with Practical Data Complexity', 'A NEW RECURSIVE ALGORITHM FOR UNIVERSAL CODING OF INTEGERS', 'A NEW STATISTICAL TEST BASED ON LINEAR COMPLEXITY PROFILE (LCP)', 'The Capacity Region of p-Transmitter/q-Receiver Multiple-Access Channels with Common Information', 'https://semopenalex.org/source/S175310385', 'Fundamental Limits of Private User Authentication', 'Code-based Strong Designated Verifier Signatures: Security Analysis and a New Construction.', 'https://semopenalex.org/source/S172631016', 'Analysis of design goals of cryptography algorithms based on different components', 'Recursive Linear and Differential Cryptanalysis of Ultralightweight Authentication Protocols.', 'A secure ECC-based privacy preserving data aggregation scheme for smart grids', 'https://semopenalex.org/source/S4306420223', 'Investigation of Some Attacks on GAGE (v1), InGAGE (v1), (v1.03), and CiliPadi (v1) Variants', 'SCALHEALTH: Scalable Blockchain Integration for Secure IoT Healthcare  Systems', 'New Fixed Point Attacks on GOST2 Block Cipher', 'Mitigating Node Capture Attack in Random Key Distribution Schemes through Key Deletion', 'https://semopenalex.org/source/S4363604560', 'An identity-based online/offline secure cloud storage auditing scheme', 'Improved Linear Cryptanalysis of Reduced-round SIMON', 'Activity detection of a PSK in unknown white gaussian noise: optimal and suboptimal invariant detectors', 'Symmetric Semideterministic Relay Networks With No Interference at the Relays', 'Power Allocation and Performance Analysis for Incremental-Selective Decode-and-Forward Cooperative Communications over Nakagami-&amp;lt;i&amp;gt;m&amp;lt;/i&amp;gt; Fading Channels', 'Improving the Rao-Nam secret key cryptosystem using regular EDF-QC-LDPC codes', 'Signal Activity Detection of Phase-Shift Keying Signals', 'Private Authentication: Optimal Information Theoretic Schemes', 'Joint source-channel coding using finite state integer arithmetic codes', 'Physical layer encryption scheme using finite‐length polar codes', 'https://semopenalex.org/source/S4210172892', 'Enhanced cache attack on AES applicable on ARM-based devices with new operating systems', 'Generalised secure distributed source coding with side information', 'https://semopenalex.org/source/S81616010', 'https://semopenalex.org/source/S147316732', 'Addressing Flaws in RFID Authentication Protocols', 'https://semopenalex.org/source/S4306534978', 'An Efficient Multistage Secret Sharing Scheme Using Linear One-way Functions and Bilinear Maps.', 'A successful attack against the DES', 'A new and efficient authentication scheme for vehicular ad hoc networks', 'Game-Based Privacy Analysis of RFID Security Schemes for Confident Au-thentication in IoT.', 'On The Positive Definiteness of Polarity Coincidence Correlation Coefficient Matrix', 'https://semopenalex.org/source/S147953040', 'Using Blockchain to Achieve Decentralized Privacy in IoT Healthcare', 'https://semopenalex.org/source/S2764800400', 'Key splitting: making random key distribution schemes resistant against node capture', 'An achievable rate for relay networks based on compress-and-forward strategy', 'Modified Cache-Template Attack on AES', 'https://semopenalex.org/source/S30889260', 'https://semopenalex.org/source/S45693802', 'Improving GGH Public Key Scheme Using Low Density Lattice Codes.', 'A statistical distributed multipath routing protocol in wireless sensor networks', 'https://semopenalex.org/source/S4210225210', 'Joint Transfer of Energy and Information in a Two-hop Relay Channel', 'Toward an Energy Efficient PKC-Based Key Management System for Wireless Sensor Networks', 'https://semopenalex.org/source/S4306400806', 'Multiple access channel with common message and secrecy constraint', 'Strategies for Optimal Transmission and Delay Reduction in Dynamic Index Coding Problem', 'Breaking KASLR on mobile devices without any use of cache memory (extended version)', 'GLR Detector for Coded Signals in Noise and Interference', 'Effect of unitary transformation on Bayesian information criterion for source numbering in array processing', 'Total break of Zorro using linear and differential attacks', 'https://semopenalex.org/source/S90422530', 'A Flexible Dynamic Traffic Model for Reverse Link CDMA Cellular Networks', 'Key agreement over a 3-receiver broadcast channel', 'QoSNC: A novel approach to QoS-based network coding for fixed networks', 'Attacks on Recent RFID Authentication Protocols', 'Impossible differential attack on seven-round AES-128', 'https://semopenalex.org/source/S4306514253', 'Outage Performance in Secure Cooperative NOMA', 'A NEW APPROACH FOR COHERENT RADAR DETECTION IN PSEUDO- GAUSSIAN INTERFERENCE', 'Squaring attacks on McEliece public-key cryptosystems using quasi-cyclic codes of even dimension', 'Compound Multiple Access Channel with confidential messages', 'A technique for deriving one-shot achievability results in network information theory', 'https://semopenalex.org/source/S4306401954', 'The Capacity of a Class of Linear Deterministic Networks', 'Secrecy Capacity in Large Cooperative Networks in Presence of Eavesdroppers with Unknown Locations', 'A provably secure code‐based concurrent signature scheme', 'Polar code‐based secure channel coding scheme with small key size', 'A Secure and Efficient Chaotic Maps Based Authenticated Key-Exchange Protocol for Smart Grid', 'Channel Simulation via Interactive Communications', 'Achievable Rate Regions for Dirty Tape Channels and Joint Writing on Dirty Paper and Dirty Tape', 'Adaptive secure channel coding based on punctured turbo codes', 'Perfectly Secure Index Coding', 'On the Intelligent Eavesdropping of Differential Frequency Hopping', 'On the secrecy of the cognitive interference channel with partial channel states', 'A new method for Visual Secret Sharing', 'Compress-and-forward strategy for Causal Cognitive Interference Channel', 'https://semopenalex.org/source/S4210222067', 'On Optimal Online Algorithms for Energy Harvesting Systems with Continuous Energy and Data Arrivals', 'Impossible Differential Cryptanalysis of Safer', 'Efficient multistage secret sharing scheme using bilinear map', 'https://semopenalex.org/source/S4306425600', 'A Provably Secure Short Signature Scheme from Coding Theory.', 'Adjustable Privacy Using Autoencoder-Based Learning Structure', 'Generalized Secure Distributed Source Coding with Side Information', 'https://semopenalex.org/source/S173102057', 'Signal activity detection of phase-shift keying signals', 'https://semopenalex.org/source/S4363606450', 'SER of M-PSK modulation in incremental-selective decode-and-forward cooperative communications over Rayleigh fading channels', 'A Secure Key Management Framework for Heterogeneous Wireless Sensor Networks', 'On the Capacity of Interference Channel With Causal and Noncausal Generalized Feedback at the Cognitive Transmitter', 'PolarSig: An efficient digital signature based on polar codes', 'Two RFID Privacy Models in Front of a Court.', 'Non-Asymptotic Output Statistics of Random Binning and Its Applications', 'Improved impossible differential and biclique cryptanalysis of HIGHT', 'Biclique cryptanalysis of the full‐round KLEIN block cipher', 'On the devroye-mitran-tarokh rate region for the cognitive radio channel', 'Energy Harvesting Systems with Continuous Energy and Data Arrivals: the Optimal Offline and a Heuristic Online Algorithms', 'Capacity of channel with energy harvesting transmitter', 'Cryptanalysis of McEliece cryptosystem variants based on quasi‐cyclic low‐density parity check codes', 'Three‐user interference channel with common information: a rate splitting‐based achievability scheme', 'Lossy transmission of correlated sources over multiple‐access wiretap channels', 'Detection of coherent radar signals with unknown Doppler shift', 'Statistical Performance Analysis of MDL Source Enumeration in Array Processing', 'Combining Blockchain and IoT for Decentralized Healthcare Data Management', 'A lightweight hierarchical authentication scheme for internet of things', "Beyond Yao's Millionaires: Secure Multi-Party Computation of  Non-Polynomial Functions", 'https://semopenalex.org/source/S85427048', 'https://semopenalex.org/source/S30128005', 'Achievable Rates for Binary Two-hop Channel with Energy Harvesting Relay and Finite Battery', 'A New Achievable Rate and the Capacity of Some Classes of Multilevel Relay Network', 'Generalized Meet in the Middle Cryptanalysis of Block Ciphers With an Automated Search Algorithm', 'https://semopenalex.org/source/S106296714', 'A Multi-Layer Encoding and Decoding Strategy for Binary Erasure Channel', 'Adaptive detection algorithm for radar signals in autoregressive interference', 'On the Capacity of Causal Cognitive Interference Channel With Delay', 'Information Theoretic Framework for Single and Multi-Server Private Authentication', 'Simulation-Based Traceability Analysis of RFID Authentication Protocols', 'https://semopenalex.org/source/S2764455111', 'Interference Alignment for the K-user Interference Channel with Imperfect CSI', 'The Capacity Region of p -Transmitter/ q -Receiver Multiple-Access Channels With Common Information', 'Coded Secure Multi-Party Computation for Massive Matrices with Adversarial Nodes', 'Leveled Design of Cryptography Algorithms Using Cybernetic Methods for Using in Telemedicine Applications', 'Game-Based Privacy Analysis of RFID Security Schemes for Confident Authentication in IoT', 'https://semopenalex.org/source/S2500830676', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S63392143', 'https://semopenalex.org/source/S4393918193', 'When is it possible to simulate a DMC channel from another?', 'Optimal Transmission Policies for Multi-hop Energy Harvesting Systems', 'Achievable Rates for Binary Two-hop Channel with Energy Harvesting Relay With Finite Battery.', 'Enhancing Privacy of Recent Authentication Schemes for Low-Cost RFID Systems', 'https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S2764709306', 'Desynchronization Attack on RAPP Ultralightweight Authentication Protocol.', 'On the Capacity of &lt;i&gt;M&lt;/i&gt;-ary ASK Two-Hop Channel With Finite Battery Energy Harvesting Relay', 'PKC‐PC: A variant of the McEliece public‐key cryptosystem based on polar codes', 'Learning under Distribution Mismatch and Model Misspecification', 'Biclique Cryptanalysis of the Full-Round KLEIN Block Cipher.', 'Using Blockchain to Achieve Decentralized Privacy In IoT Healthcare', 'Traceability Analysis of Recent RFID Authentication Protocols', 'https://semopenalex.org/source/S182544699', 'Non-asymptotic output statistics of Random Binning and its applications', 'BIA for the K-User Interference Channel Using Reconfigurable Antenna at Receivers', 'https://semopenalex.org/source/S205498627', 'https://semopenalex.org/source/S4306515431', 'https://semopenalex.org/source/S4306401559', 'Improved Linear Cryptanalysis of Round Reduced SIMON.', 'Multi‐layer Gelfand–Pinsker strategies for the generalised multiple‐access channel', 'https://semopenalex.org/source/S2493627025', 'A Fast Multiple-Source Detection and Localization Array Signal Processing Algorithm Using the Spatial Filtering and ML Approach', 'A Secure and efficient elliptic curve based authentication and key agreement protocol suitable for WSN.', 'https://semopenalex.org/source/S4393179698', 'Optimum Decoder for Multiplicative Spread Spectrum Image Watermarking with Laplacian Modeling', 'Physical layer security for some classes of three‐receiver broadcast channels', 'Low Data Complexity Biclique Cryptanalysis of Block Ciphers with Application to Piccolo and HIGHT.', 'Adjustable Privacy using Autoencoder-based Learning Structure', 'Symmetric Relaying Strategy for Two-Relay Networks', 'DETECTION OF A BAND-LIMITED SIGNAL USING AN ORTHONORMAL, FULLY-DECIMATED FILTER-BANK', 'Dynamic and secure key management model for hierarchical heterogeneous sensor networks', 'https://semopenalex.org/source/S72372694', 'Information-Theoretic Secure and Private Voting System', 'https://semopenalex.org/source/S4210192662', 'https://semopenalex.org/source/S196647941', 'https://semopenalex.org/source/S4306400349', 'A New Approach for Coherent Radar Detection in K-Distributed Interference', 'Cryptanalysis of SIMON Variants with Connections', 'Improved Linear Cryptanalysis of Reduced-Round SIMON-32 and SIMON-48', 'Efficient secure channel coding scheme based on low‐density Lattice codes', 'A Joint Encryption-Encoding Scheme using QC-LDPC Codes based on Finite Geometry', 'Total Break of Zorro using Linear and Differential Attacks.', 'https://semopenalex.org/source/S61708620', 'Efficient secure channel coding based on quasi-cyclic low-density parity-check codes', 'Provably secure strong designated verifier signature scheme based on coding theory', 'A Correlation Measure Based on Vector-Valued $L_p$ -Norms', 'Smooth Projective Hash Function From Codes and its Applications', 'Simulation of a Channel with Another Channel', 'Secret Key Agreement Using Conferencing in State- Dependent Multiple Access Channels with An Eavesdropper', 'Modified Cache Template Attack on AES.', 'Designing a Multiple Access Differential Frequency Hopping System with Variable Frequency Transition Function', 'Key management system for WSNs based on hash functions and elliptic curve cryptography', 'Optimum decoder for multiplicative spread spectrum image watermarking with Laplacian modeling', 'Slepian-Wolf Coding over Cooperative Networks', 'Context-Aware Ontology-based Security Measurement Model', 'Secrecy capacity in large cooperative networks in presence of eavesdroppers with unknown locations', 'https://semopenalex.org/source/S4363608346', 'https://semopenalex.org/source/S2764847869', 'Cooperative relay cognitive interference channels with causal channel state information', 'https://semopenalex.org/source/S2764795475', 'Imperfect and Perfect Secrecy in Compound Multiple Access Channel With Confidential Message', 'https://semopenalex.org/source/S4210209864']</t>
-  </si>
-  <si>
-    <t>['New Trends in Database and Information Systems', 'View usability and safety for the answering of top-k queries via materialized views', 'Efficient answering of set containment queries for skewed item distributions', 'https://semopenalex.org/source/S47508943', 'https://semopenalex.org/source/S35593046', 'Benchmarking ETL Workflows', 'https://semopenalex.org/source/S4306418234', 'Metrics for the Prediction of Evolution Impact in ETL Ecosystems: A Case Study', 'Cube Interestingness: Novelty, Relevance, Peculiarity and Surprise', 'A Safari for Deviating GoF Pattern Definitions and Examples on the Web', 'https://semopenalex.org/source/S53932126', 'A Cube Algebra with Comparative Operations: Containment, Overlap, Distance and Usability', 'Data warehouse process management', 'Relational schema optimization for RDF-based knowledge graphs', 'Concept based design of data warehouses', 'https://semopenalex.org/source/S4306402512', 'Extraction, Transformation, and Loading', 'Towards a Benchmark for ETL Workflows.', 'A survey of logical models for OLAP databases', 'Keep Calm and Wait for the Spike! Insights on the Evolution of Amazon Services', 'https://semopenalex.org/source/S4306418406', 'Efficient Deployment of Web Service Workflows', 'Data Warehouse Metadata', 'Data Warehouse Refreshment', 'Towards a benefit-based optimizer for Interactive Data Analysis', 'Towards Quality-Oriented Data Warehouse Usage and Evolution', 'Data Narrative Crafting via a Comprehensive and Well-Founded Process', 'https://semopenalex.org/source/S4210223194', 'https://semopenalex.org/source/S4363607857', 'https://semopenalex.org/source/S4306418168', 'Fundamentals of Data Warehouses', 'RawVis: A System for Efficient In-situ Visual Analytics', 'Modeling and language support for the management of pattern-bases', 'https://semopenalex.org/source/S2764900261', 'An integration-oriented ontology to govern evolution in Big Data ecosystems', 'https://semopenalex.org/source/S4306419842', 'Trading Privacy for Information Loss in the Blink of an Eye', 'https://semopenalex.org/source/S136993123', 'A Conceptual Model for Data Storytelling Highlights in Business Intelligence Environments', 'https://semopenalex.org/source/S4306401490', 'Extraction-Transformation-Loading Processes', 'Data Warehouse Architecture and Quality: Impact and Open Challenges', 'Gravitating to rigidity: Patterns of schema evolution – and its absence – in the lives of tables', 'A Survey of Extractâ€“Transformâ€“Load Technology', 'Supporting the Generation of Data Narratives', 'A Model for Data Warehouse Operational Processes', 'Taxa and super taxa of schema evolution and their relationship to activity, heartbeat and duration', 'DOLAP 2006, ACM 9th International Workshop on Data Warehousing and OLAP, Arlington, Virginia, USA, November 10, 2006, Proceedings', 'Meshing Streaming Updates with Persistent Data in an Active Data Warehouse', 'Schema Evolution for Relational Databases.', 'https://semopenalex.org/source/S4393917539', 'Quality-Driven Data Warehouse Design', 'Graph-driven Federated Data Management', 'Model-Driven Dependability Analysis of WebServices', 'Advances in Databases and Information Systems', 'https://semopenalex.org/source/S4306463409', 'Data Mapping Diagrams for Data Warehouse Design with UML', 'https://semopenalex.org/source/S4306402579', 'Contextual Database Preferences.', 'https://semopenalex.org/source/S4306401926', 'Modelling and analysing reliable service-oriented processes', 'https://semopenalex.org/source/S4210205225', 'https://semopenalex.org/source/S4306401063', 'Scheduling strategies for efficient ETL execution', 'Policy-Regulated Management of ETL Evolution', 'Conceptual Modeling', 'Advances in Conceptual Modeling', 'https://semopenalex.org/source/S193006928', 'https://semopenalex.org/source/S4306401271', 'Rule-Based Management of Schema Changes at ETL Sources', 'Adaptive Indexing for In-situ Visual Exploration and Analytics.', 'Assess Queries for Interactive Analysis of Data Cubes', 'Architecture and quality in data warehouses', 'Cube query interestingness: Novelty, relevance, peculiarity and surprise', 'https://semopenalex.org/source/S4210201492', 'Schedule-Aware Transactions for Ambient Intelligence Environments', 'https://semopenalex.org/source/S4363608845', 'Propagating evolution events in data-centric software artifacts', 'Schema Evolution Survival Guide for Tables: Avoid Rigid Childhood and You’re En Route to a Quiet Life', 'Multidimensional Data Models and Aggregation', 'Computational methods and optimizations for containment and complementarity in web data cubes', 'https://semopenalex.org/source/S96210769', 'Hierarchical Property Set Merging for SPARQL Query Optimization.', 'https://semopenalex.org/source/S62003192', 'https://semopenalex.org/source/S169174478', 'CineCubes: Aiding data workers gain insights from OLAP queries', 'Data Warehouse Practice: An Overview', 'RawVis: Visual Exploration over Raw Data', 'Do People Use Naming Conventions in SQL Programming?', 'Query Processing and Optimization', 'https://semopenalex.org/source/S4210172359', 'Fitness workout for fat interfaces: Be slim, clean, and flexible', 'Managing contextual preferences', 'Computing and Handling Cardinal Direction Information', 'A Survey of Extract–Transform–Load Technology', 'https://semopenalex.org/source/S181659395', 'Schema Evolution and Foreign Keys: Birth, Eviction, Change and Absence', 'https://semopenalex.org/source/S4306419327', 'Open-Source Databases: Within, Outside, or Beyond Lehman’s Laws of Software Evolution?', "Beyond Roll-Up's and Drill-Down's: An Intentional Analytics Model to Reinvent OLAP (long-version)", 'In-situ visual exploration over big raw data', 'https://semopenalex.org/source/S4306508744', 'Optimizing ETL Processes in Data Warehouses', 'Automating the Adaptation of Evolving Data-Intensive Ecosystems', 'https://semopenalex.org/source/S4306420759', 'A method for the mapping of conceptual designs to logical blueprints for ETL processes', 'Hecataeus: A What-If Analysis Tool for Database Schema Evolution', 'Towards a Logical Model for Patterns', 'Blueprints and Measures for ETL Workflows', 'MDM: Governing Evolution in Big Data Ecosystems', 'Architecture and Quality in Data Warehouses', 'Integrated CHOReOS middleware - Enabling large-scale, QoS-aware adaptive choreographies', 'A declarative approach to data narration', 'Computing and managing cardinal direction relations', 'https://semopenalex.org/source/S73024538', 'https://semopenalex.org/source/S11479521', 'Proceedings of the 9th ACM international workshop on Data warehousing and OLAP', 'Towards a Conceptual Model for Data Narratives', 'https://semopenalex.org/source/S1250476', 'Advanced visualization for OLAP', 'Design of the ERATOSTHENES OLAP Server', 'https://semopenalex.org/source/S4306418063', 'Efficient Computation of Containment and Complementarity in RDF Data Cubes.', 'The Traveling Analyst Problem: Definition and preliminary study', 'Fusion Cubes', 'Advances in databases and information systems — Selected papers from ADBIS 2023', 'Schema evolution and foreign keys: a study on usage, heartbeat of change and relationship of foreign keys to table activity', 'How is Life for a Table in an Evolving Relational Schema? Birth, Death and Everything in Between', 'Schema Evolution for Databases and Data Warehouses', 'Near Real Time ETL', 'https://semopenalex.org/source/S35927321', 'Recommending Trips in the Archipelago of Refactorings', 'https://semopenalex.org/source/S106296714', 'Data Warehouse Research: Issues and Projects', 'Advances in conceptual modeling : ER 2012 Workshops : CMS, ECDM-NoCoDA, MoDIC, MORE-BI, RIGiM, SeCoGIS, WISM, Florence, Italy, October 15-18, 2012 : proceedings', 'https://semopenalex.org/source/S51041755', 'Metadata and Data Warehouse Quality', 'Jenga and the Art of Data-Intensive Ecosystems Maintenance.', 'The athletic heart syndrome in web service evolution', 'Beyond roll-up’s and drill-down’s: An intentional analytics model to reinvent OLAP', 'Schema Evolution and Gravitation to Rigidity: A Tale of Calmness in the Lives of Structured Data', 'Deciding the physical implementation of ETL workflows', 'Mining service abstractions (NIER track)', 'ARKTOS: A Tool For Data Cleaning and Transformation in Data Warehouse Environments.', 'https://semopenalex.org/source/S4306505547', 'Resource-aware adaptive indexing for in situ visual exploration and analytics', 'https://semopenalex.org/source/S4306400975', 'Graph-Driven Federated Data Management (Extended Abstract)', 'https://semopenalex.org/source/S78926909', 'Context-Aware Query Processing in Ad-Hoc Environments of Peers', 'Suggesting assess queries for interactive analysis of multidimensional data', 'CoWSAMI: Interface-aware context gathering in ambient intelligence environments', 'CHOReOS Dynamic Development Model Definition (D2.1)', 'State-space optimization of ETL workflows', 'https://semopenalex.org/source/S4210222342', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S4306400551', 'https://semopenalex.org/source/S63392143', 'ETL queues for active data warehousing', 'Arktos: towards the modeling, design, control and execution of ETL processes', 'CHOReOS State of the Art, Baseline, and Beyond (D1.1)', 'Modeling and Storing Context-Aware Preferences', 'Erratum to: Service-oriented middleware for the Future Internet: state of the art and research directions', 'Extraction of Embedded Queries via Static Analysis of Host Code', 'Assessment Methods for the Interestingness of Cube Queries', 'Architecture and quality in data warehouses - An extended repository approach', 'Survival in Schema Evolution: Putting the Lives of Survivor and Dead Tables in Counterpoint', 'Developing Mobile Commerce Applications', 'Modelling and Optimisation Issues for Multidimensional Databases', 'CHOReOS Middleware Specification (D3.1)', 'What-If Analysis for Data Warehouse Evolution', 'https://semopenalex.org/source/S172682790', 'The Road to Highlights is Paved with Good Intentions: Envisioning a Paradigm Shift in OLAP Modeling', 'Interestingness Measures for Exploratory Data Analysis: a Survey', 'Report on the 8th international workshop on quality in databases (QDB10)', 'https://semopenalex.org/source/S140982614', 'https://semopenalex.org/source/S4306463937', 'A taxonomy of ETL activities', 'https://semopenalex.org/source/S4210177767', 'A Framework for Learning Cell Interestingness from Cube Explorations', 'Mining service abstractions.', 'Cross-layer Networking for Peer Databases over Wireless Ad-Hoc Communities', 'Graph-Based Modeling of ETL Activities with Multi-level Transformations and Updates', "Report on the 5 &lt;sup&gt;th&lt;/sup&gt; international workshop on the design and management of data warehouses (DMDW'03)", 'A context‐aware preference database system', 'https://semopenalex.org/source/S4393179698', 'A Study on the Effect of a Table’s Involvement in Foreign Keys to its Schema Evolution', 'CPM: A Cube Presentation Model for OLAP', 'Profiles of Schema Evolution in Free Open Source Software Projects', 'HECATAEUS: Regulating schema evolution', 'https://semopenalex.org/source/S30698027', 'Impact Analysis and Policy-Conforming Rewriting of Evolving Data-Intensive Ecosystems', 'A Presentation Model &amp;amp; Non-Traditional Visualization for OLAP', 'https://semopenalex.org/source/S4377196262', 'https://semopenalex.org/source/S4306400349', 'Adaptive Query Formulation to Handle Database Evolution.', 'Architecture and quality in data warehouses: An extended repository approach', 'Towards quality-oriented data warehouse usage and evolution', 'https://semopenalex.org/source/S204223317', 'LANGUAGE EXTENSIONS FOR THE AUTOMATION OF DATABASE SCHEMA EVOLUTION', 'https://semopenalex.org/source/S4306509343', 'https://semopenalex.org/source/S4210187649', 'Timely Provisioning of Mobile Services in Critical Pervasive Environments', 'Highlighting the Importance of Intentional Aspects in Data Narrative Crafting Processes', 'On the Logical Modeling of ETL Processes', 'Cohesion-Driven Decomposition of Service Interfaces without Access to Source Code', 'Navigating through the archipelago of refactorings', "Report on the International Workshop on Pattern Representation and Management (PaRMa'04)", 'https://semopenalex.org/source/S110231434', 'A Framework for the Design of ETL Scenarios', 'Service Selection for Happy Users: Making User Intuitive Quality Abstractions', 'A generic and customizable framework for the design of ETL scenarios', 'Visual Maps for Data-Intensive Ecosystems', 'Growing up with stability: How open-source relational databases evolve', 'Report on Discussion Group 5: Space for Entrepreneurs and Tourists', 'Supporting Streaming Updates in an Active Data Warehouse', 'Maintenance of top-k materialized views', 'Source Integration', 'Design Metrics for Data Warehouse Evolution', 'Cross-layer routing for peer database querying over mobile ad hoc networks', 'Final CHOReOS Architectural Style and its Relation with the CHOReOS Development Process and IDRE', 'Accelerating Web Service Workflow Execution via Intelligent Allocation of Services to Servers']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/source/S4363607711', 'Attention Enhanced Package Pick-Up Time Prediction via Heterogeneous Behavior Modeling', 'https://semopenalex.org/source/S173527311', 'https://semopenalex.org/source/S69141925', 'Leveraging Imperfect-Orthogonality Aware Scheduling for High Scalability in LPWAN', 'Nationwide Deployment and Operation of a Virtual Arrival Detection System in the Wild', 'Towards Workload-Constrained Efficient Order Assignment in Last-Mile Delivery', 'Spoofing-jamming attack based on cross-technology communication for wireless networks', 'Enabling Global Cooperation for Heterogeneous Networks via Reliable Concurrent Cross Technology Communications', 'https://semopenalex.org/source/S2497375143', '$O^{2}$-SiteRec: Store Site Recommendation under the O2O Model via Multi-graph Attention Networks', 'https://semopenalex.org/source/S63459445', 'Neural network energy management strategy with optimal input features for plug-in hybrid electric vehicles', 'https://semopenalex.org/source/S4363607705', 'WiBeacon', 'https://semopenalex.org/source/S106296714', 'The First Measurement Study of Target Wake Time Mechanism in 802.11ax on COTS Devices', 'A City-Wide Crowdsourcing Delivery System with Reinforcement Learning', 'Federated Learning Based on CTC for Heterogeneous Internet of Things', 'REN: Receiver-Driven Congestion Control Using Explicit Notification for Data Center', 'Partial Symbol Recovery for Interference Resilience in Low-Power Wide Area Networks', 'https://semopenalex.org/source/S4363607857', 'PATR: Periodicity-Aware Trajectory Recovery for Express System via Seq2Seq Model', 'Table of Contents', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S23688054', 'SmallMap: Low-cost Community Road Map Sensing with Uncertain Delivery Behavior', 'A Receiver-Driven Transport Protocol With High Link Utilization Using Anti-ECN Marking in Data Center Networks', 'https://semopenalex.org/source/S2492498579', 'Time Synchronization Based on Cross-Technology Communication for IoT Networks', 'ALWAES', 'WePos', "Artificial Intelligence Approaches for Early Detection and Diagnosis of Alzheimer's Disease: A Review", 'Time-Constrained Actor-Critic Reinforcement Learning for Concurrent Order Dispatch in On-demand Delivery', 'Magnifier: Leveraging the Fine-Grained Hardware Information and Their Temporal Patterns for Concurrent LoRa Decoding', 'Collision-Free Dynamic Convergecast in Low-Duty-Cycle Wireless Sensor Networks', 'RMC: Reordering Marking and Coding for Fine-Grained Load Balancing in Data Centers', 'RPO: Receiver-driven Transport Protocol Using Opportunistic Transmission in Data Center', 'mmSpyVR: Exploiting mmWave Radar for Penetrating Obstacles to Uncover Privacy Vulnerability of Virtual Reality', '$mathrm{W}^{2}$Parking: A Data-Driven Win-Win Contract Parking Sharing Mechanism Under Both Supply and Demand Uncertainties', 'https://semopenalex.org/source/S48860480', 'https://semopenalex.org/source/S4220651530', 'https://semopenalex.org/source/S62238642', 'Asymmetry-Aware Load Balancing With Adaptive Switching Granularity in Data Center', ': Mobility-Driven Integration of Heterogeneous Urban Cyber-Physical Systems Under Disruptive Events&lt;i /&gt;', 'Effects of Dry Periods on Nitrogen and Phosphorus Removal in Runoff Infiltration Devices and Their Biological Succession Patterns', 'Analysis and Prediction of Expansion of Central Cities Based on Nighttime Light Data in Hunan Province, China', 'https://semopenalex.org/source/S4210219751', 'Towards Equitable Assignment: Data-Driven Delivery Zone Partition at Last-mile Logistics', 'Physical-layer CTC from BLE to Wi-Fi with IEEE 802.11ax', 'A Predict-Then-Optimize Couriers Allocation Framework for Emergency Last-mile Logistics', 'Achieving Per-Flow Fairness and High Utilization With Limited Priority Queues in Data Center', 'CSMC', 'https://semopenalex.org/source/S30698027', 'A coordination analysis of stakeholder interests on the new subsidy policy of hydrogen fuel cell vehicles in China: From the perspective of the evolutionary game theory', 'https://semopenalex.org/source/S196647941', 'Multi-sensor Data-driven Route Prediction in Instant Delivery with a 3-Conversion Network', 'ECRLoRa: LoRa Packet Recovery under Low SNR via Edge-Cloud Collaboration', 'mmSpyVR: Exploiting mmWave Radar for Penetrating Obstacles to Uncover  Privacy Vulnerability of Virtual Reality', 'Mitigating Packet Reordering for Random Packet Spraying in Data Center Networks', 'Enabling Large Scale LoRa Parallel Decoding With High-Dimensional and High-Accuracy Features', 'Exploiting Intra- and Inter-Region Relations for Sales Prediction via Graph Convolutional Network', 'Multi-task Conditional Attention Network for Conversion Prediction in Logistics Advertising', 'From Conception to Retirement: A Lifetime Story of a 3-Year-Old Wireless Beacon System in the Wild', 'Multi-Modal Fusion Sensing: A Comprehensive Review of Millimeter-Wave Radar and Its Integration With Other Modalities', 'eShare+: A Data-Driven Balancing Mechanism for Bike Sharing Systems Considering Both Quality of Service and Maintenance', 'https://semopenalex.org/source/S4306401796', 'https://semopenalex.org/source/S4210187496', 'https://semopenalex.org/source/S115004586', 'Adjusting Switching Granularity of Load Balancing for Heterogeneous Datacenter Traffic', 'SmartLOC', 'P2-Loc', 'CrossHAR: Generalizing Cross-dataset Human Activity Recognition via Hierarchical Self-Supervised Pretraining', 'Experience', 'https://semopenalex.org/source/S2480266640', 'https://semopenalex.org/source/S10134376', 'https://semopenalex.org/source/S134216166', 'https://semopenalex.org/source/S4363608767', 'https://semopenalex.org/source/S170502224', 'Hybrid Teaching Platform Design for Ideological and Political Courses Based on K-Means Clustering', 'ECN-based shared bottleneck detection for multi-path TCP', 'https://semopenalex.org/source/S4363608994', 'https://semopenalex.org/source/S4363608339']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/source/S101949793', 'Scattering Along the Specular Direction from the Sea Modeled as a Fractal Surface', 'https://semopenalex.org/source/S4306400993', 'Using GEOBIA for feature extraction from multitemporal SAR images: Preliminary results', 'https://semopenalex.org/source/S117727964', 'An Analytical Formulation for the Correlation of Surface-Scattered Fields at Two Bistatic Radar Receivers', 'Analytical Formulation of Scattering From Anisotropic Power-Law Spectrum Surfaces: Getting Rid of the Cutoff Wavenumber', 'Spaceborne GNSS-Reflectometry for Ship-Detection Applications: Impact of Acquisition Geometry and Polarization', 'Urban Area Mapping Using Multitemporal SAR Images in Combination with Self-Organizing Map Clustering and Object-Based Image Analysis', 'Two-Scale Model for the Evaluation of Sea-Surface Scattering in GNSS-R Ship-Detection Applications', 'Link Budget Analysis for GNSS-R Sea Surface Return in Arbitrary Acquisition Geometries Using BA-PTSM', 'Small Reservoirs Extraction in Semiarid Regions Using Multitemporal Synthetic Aperture Radar Images', 'Coprime synthetic aperture radars', 'Closed-form Polarimetric Two-Scale Model for sea scattering evaluation', 'X-Band SAR Antenna Design for a CubeSat Formation-Flying Remote Sensing Mission', 'https://semopenalex.org/source/S4306498155', 'Cardinal Effect in Bistatic SAR Imagery: Analysis and Physical Interpretation', 'Glacier Monitoring Using Frequency Domain Offset Tracking Applied to Sentinel-1 Images: A Product Performance Comparison', 'Fractal-Based Local Range Slope Estimation from Single SAR Image with Applications to SAR Despeckling and Topographic Mapping', 'Ambiguity problems and their mitigation', 'Feature Extraction From Multitemporal SAR Images Using Selforganizing Map Clustering and Object-Based Image Analysis', 'Despeckling of Multifrequency SAR Data Using Electromagnetic Scattering Models', 'An Analytical Formulation of the Correlation of GNSS-R Signals', 'The Role of Resolution in the Estimation of Fractal Dimension Maps From SAR Data', "Deciphering Earth's Movements: Unveiling Subsidence and Displacement in Capo Colonna Through SAR and CGPS", 'https://semopenalex.org/source/S2764455111', 'Polarimetric Two-Scale Model for the Evaluation of Bistatic Scattering from Anisotropic Sea Surfaces', 'https://semopenalex.org/source/S4306401280', 'Sensitivity analysis of a scattering-based nonlocal means Despeckling Algorithm', 'Electromagnetic Scattering from Fractional Brownian Motion Surfaces via the Small Slope Approximation', 'Bistatic scattering from a canonical building', 'Long-Term Satellite Monitoring of the Slumgullion Landslide Using Space-Borne Synthetic Aperture Radar Sub-Pixel Offset Tracking', 'Time-Domain and Monostatic-like Frequency-Domain Methods for Bistatic SAR Simulation', 'Introduction', 'https://semopenalex.org/source/S4306463440', 'A Novel Analytical Formulation of the Correlation of GNSS-R Signals Scattered by a Natural Fractal Surface', 'Addressing ices in the solar system via their fractal dimension measurement', 'https://semopenalex.org/source/S4363605409', 'Efficient Simulation of Extended-Scene SAR Raw Signals with Any Acquisition Mode', 'https://semopenalex.org/source/S4306402478', 'Acquisition modes', 'Closed-Form Anisotropic Polarimetric Two-Scale Model for Fast Evaluation of Sea Surface Backscattering', 'Assessing Performance of Multitemporal SAR Image Despeckling Filters via a Benchmarking Tool', 'Integrated Infrastructure Monitoring Procedure for Road Network Management', 'https://semopenalex.org/source/S4363608006', 'A Unified Formulation of SAR Raw Signals From Extended Scenes for All Acquisition Modes With Application to Simulation', 'Pol-SARAS: A Fully Polarimetric SAR Raw Signal Simulator for Extended Soil Surfaces', 'Integration of SAR and GEOBIA for the Analysis of Time-Series Data', 'https://semopenalex.org/source/S4363608188', 'https://semopenalex.org/source/S4306402651', 'Benchmarking Framework for Multitemporal SAR Despeckling', 'Railway Bridge Monitoring with Sar: A Case Study', 'Maritime Surveillance Using Spaceborne GNSS-Reflectometry: The Role of the Scattering Configuration and Receiving Polarization Channel', 'Baseline Decorrelation in Bistatic Interferometric SAR Systems Over Bare Soil Surfaces', 'A New Tool for Road Network Deformations Monitoring Through Space-Born SAR Data and In-Situ Instruments', 'https://semopenalex.org/source/S4210178770', 'https://semopenalex.org/source/S2485537415', 'Planning 5G Networks Under EMF Constraints: State of the Art and Vision', 'Flood Detection with SAR: A Review of Techniques and Datasets', 'Sea state and wind speed', 'https://semopenalex.org/source/S4377196294', 'Unsupervised Rapid Flood Mapping Using Sentinel-1 GRD SAR Images', 'A Novel Tool for Unsupervised Flood Mapping Using Sentinel-1 Images', 'https://semopenalex.org/source/S43295729', 'Efficient Processing for Far-From-Transmitter Formation-Flying SAR Receivers', 'https://semopenalex.org/source/S111326731', 'Earth Environmental Monitoring Using Multi-Temporal Synthetic Aperture Radar: A Critical Review of Selected Applications', 'https://semopenalex.org/source/S126920919', 'Bistatic Scattering From Anisotropic Rough Surfaces via a Closed-Form Two-Scale Model', 'Analytical Evaluation of the Baseline Decorrelation in Bistatic Interferometric SAR Systems', 'https://semopenalex.org/source/S4306498310', 'SAR Radiometric Calibration Based on Differential Geometry: From Theory to Experimentation on SAOCOM Imagery', 'Retrieval of high-resolution topography of the Titan’ surface by using Cassini SAR data', 'Scattering-based Despeckling of Multi-frequency SAR Data', 'https://semopenalex.org/source/S2496917176', 'https://semopenalex.org/source/S4306508950', 'Polarimetric Two-Scale Model for Soil Moisture Estimation from Hybrid Compact Polarimetry SAR Data', 'https://semopenalex.org/source/S4210227020', 'https://semopenalex.org/source/S4363604196']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/source/S4210212400', 'Technology for societal change: Evaluating a mobile app addressing the emotional needs of people experiencing homelessness', 'Brainstorm', 'https://semopenalex.org/source/S4306401600', 'Weisst Du wieviel Sternlein stehen? – Building older adults’ confidence in technology use through co-designing digital storytelling', 'https://semopenalex.org/source/S112414500', 'Emotional Factors for Teleaudiology', 'Designing Meaningful, Beneficial and Positive Human Robot Interactions with Older Adults for Increased Wellbeing During Care Activities', 'Using a digital personal recovery resource in routine mental health practice: feasibility, acceptability and outcomes', 'https://semopenalex.org/source/S4210211086', 'Motivational models for validating agile requirements in Software Engineering subjects', 'https://semopenalex.org/source/S4306463409', 'https://semopenalex.org/source/S89276529', 'Evaluating Engagement in Technology-Supported Social Interaction by People Living with Dementia in Residential Care', 'https://semopenalex.org/source/S4306400194', 'Editorial: Designing Technology for Emotions to Improve Mental Health and Wellbeing', 'https://semopenalex.org/source/S4210179225', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S34944277', 'https://semopenalex.org/source/S4306402621', 'A Co-design Approach for Developing and Implementing Smart Health Technologies and Services', 'https://semopenalex.org/source/S201800618', 'Adding Emotions to Models in a Viewpoint Modelling Framework From Agent-Oriented Software Engineering', 'Using Motivational Modelling With an App Designed to Increase Student Performance and Retention', 'https://semopenalex.org/source/S4306525036', 'Interdisciplinary Design Teams Translating Ethnographic Field Data Into Design Models', 'https://semopenalex.org/source/S4306400572', 'Understanding Confidence of Older Adults for Embracing Mobile Technologies']</t>
-  </si>
-  <si>
-    <t>['Promoting Diversity in the Evolution of Biological Sequence Data', 'https://semopenalex.org/source/S4363604921', 'Dungeons, Dragons, and Data Breaches: Analyzing AI Attacks on Various Network Configurations', 'Network Induction Issues', 'All lockdowns are not equal: Reducing epidemic impact through evolutionary computation', 'Vaccine Distribution', 'https://semopenalex.org/source/S99347777', 'What Drives Evolution of Self-Driving Automata?', 'https://semopenalex.org/source/S4210216571', 'AI Versus Epidemics', 'Freezing of gait in Parkinson’s disease: Classification using computational intelligence', 'Conference Report on 2022 IEEE Conference on Computational Intelligence in Bioinformatics and Computational Biology (IEEE CIBCB 2022) [Conference Report]', 'https://semopenalex.org/source/S140556538', 'https://semopenalex.org/source/S4363605353', '2022 IEEE conference on computational intelligence in bioinformatics and computational biology (IEEE CIBCB, 2022)', 'Evolutionary Computation', 'Introduction', 'A multi-objective genetic algorithm for compression of weighted graphs to simplify epidemic analysis', 'Graph Compression', 'Network Induction', 'https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S4210218191', 'https://semopenalex.org/source/S104797584']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/source/S4306400665', 'Improved Ackermannian lower bound for the VASS reachability problem.', 'Parikh’s theorem for infinite alphabets', 'Machine Learning-Based Recommender System for Tweeting Factory in Industry 5.0 Paradigm', 'https://semopenalex.org/source/S118992489', 'Binary Reachability of Timed-register Pushdown Automata and Branching Vector Addition Systems', 'https://semopenalex.org/source/S4306418453', 'New Pumping Technique for 2-Dimensional VASS.', 'https://semopenalex.org/source/S4306418971', 'The reachability problem for Petri nets is not elementary', 'A lower bound for the coverability problem in acyclic pushdown VAS', 'https://semopenalex.org/source/S39012697', 'https://semopenalex.org/source/S4306402524', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S4306402512', 'The Reachability Problem for Petri Nets Is Not Elementary', 'https://semopenalex.org/source/S4377196569', 'New Lower Bounds for Reachability in Vector Addition Systems', 'https://semopenalex.org/source/S141020589', 'Equivariant ideals of polynomials', 'https://semopenalex.org/source/S117153874', 'Improved Lower Bounds for Reachability in Vector Addition Systems.', 'WQO dichotomy for 3-graphs', 'Determinisability of One-Clock Timed Automata', 'Preface', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S147953040', 'Determinisability of register and timed automata', 'https://semopenalex.org/source/S4306420488', 'Determinisability of one-clock timed automata', 'Timed games and deterministic separability', 'https://semopenalex.org/source/S59933527', 'Bi-reachability in Petri nets with data', 'Definable isomorphism problem', 'Nondeterministic and co-Nondeterministic Implies Deterministic, for Data Languages', 'https://semopenalex.org/source/S2764900261', 'Reachability relations of timed pushdown automata', 'https://semopenalex.org/source/S4306401280', 'Reachability in fixed dimension vector addition systems with states', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S114379355', 'New Pumping Technique for 2-dimensional VASS', 'https://semopenalex.org/source/S4306419289', 'Orbit-finite linear programming', 'Parikh Images of Register Automata.', 'Solvability of orbit-finite systems of linear equations', "Parikh's theorem for infinite alphabets", 'Improved Ackermannian lower bound for the Petri nets reachability problem']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/source/S2737955091', 'Augmentation of Additional Arabic Dataset for Jawi Writing and Classification Using Deep Learning', 'Utilizing Edge Device and Streamlit for Comparative Evaluation of CLAHE-Based Underwater Image Enhancement Techniques', 'Performance evaluation of hyper-parameter tuning automation in YOLOV8 and YOLO-NAS for corn leaf disease detection', 'https://semopenalex.org/source/S4306417765', 'Performance Evaluation of Binary Classification of Diabetic Retinopathy through Deep Learning Techniques using Texture Feature', 'https://semopenalex.org/source/S4306401629', 'Pendeteksian Septoria pada Tanaman Tomat dengan Metode Deep Learning berbasis Raspberry Pi', 'https://semopenalex.org/source/S4363607800', 'Impact of CLAHE-based image enhancement for diabetic retinopathy classification through deep learning', 'Performance Evaluation of Coffee Bean Binary Classification Through Deep Learning Techniques', 'Performance Evaluation And Analysis of LBP Utilization In Face Spoofing Detection With Deep Learning', 'Streamlit Application for Helmet Detection Based on YOLOS: Case Study Indonesia', 'Comparative Study of Deep Learning Methods through Improvement of Skin Image Quality of Basal Cell Carcinoma', 'Rancang Bangun Purwarupa Pemilah Sampah Pintar Berbasis Deep Learning', 'https://semopenalex.org/source/S4210183703', 'https://semopenalex.org/source/S4210223945', 'https://semopenalex.org/source/S4363606538', 'Performance Evaluation of Binary Classification of Tuberculosis through Unsharp Masking and Deep Learning Technique', 'Lightweight Pedestrian Detection through Guided Filtering and Deep Learning', 'An Edge AI-Powered Defect Coffee Detector Using Streamlit Web App', 'Students’ emotion classification system through an ensemble approach', 'https://semopenalex.org/source/S4210198570', 'Substraksi Latar Menggunakan Nilai Mean Untuk Klasifikasi Kendaraan Bergerak Berbasis Deep Learning', 'Comparative analysis of deep learning models for detecting face mask', 'Perbandingan Kinerja Deep Learning Dalam Pendeteksian Kerusakan Biji Kopi', 'https://semopenalex.org/source/S4210178035', 'Moving Pedestrian Localization and Detection With Guided Filtering', 'https://semopenalex.org/source/S2485537415', 'https://semopenalex.org/source/S4210187594', 'https://semopenalex.org/source/S2764455111', 'Image Enhancement for Tuberculosis Detection Using Deep Learning', 'https://semopenalex.org/source/S30680879', 'Moving Object Detection for Complex Scenes by Merging BG Modeling and Deep Learning Method', 'Identification of male and female nutmeg seeds based on the shape and texture features of leaf images using the learning vector quantization (LVQ)', 'A Low-cost Raspberry Pi and Deep Learning System for Customer Analysis', 'Web-App based Melanoma Skin Cancer Classification through Streamlit and Deep Learning', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S4210179954', 'https://semopenalex.org/source/S4306498607', 'Hybrid Models for Emotion Classification and Sentiment Analysis in Indonesian Language', 'Embedded-based Tomato Septoria Leaf Detection with Intel Movidius Neural Compute Stick', 'https://semopenalex.org/source/S4210196574', 'Improved Classification of Handwritten Jawi Script Based on Main Part of Script Body', 'Impact of Image Pre-Processing on Skin Cancer Classification Melanoma Through Deep Learning', 'A Deep Learning Method for Early Detection of Diabetic Foot Using Decision Fusion and Thermal Images', 'https://semopenalex.org/source/S4210230916', 'Convolutional Network and Moving Object Analysis for Vehicle Detection in Highway Surveillance Videos', 'Comparison Study of Corn Leaf Disease Detection based on Deep Learning YOLO-v5 and YOLO-v8', 'https://semopenalex.org/source/S2764607890', 'https://semopenalex.org/source/S120348307', 'Effect of CLAHE-based Enhancement on Bean Leaf Disease Classification through Explainable AI', 'Performance Evaluation of Hardhat Image Classification Using Deep Learning and Grad-CAM', 'https://semopenalex.org/source/S4363607821', 'https://semopenalex.org/source/S4306525036', 'Deep anomaly detection through visual attention in surveillance videos', 'https://semopenalex.org/source/S4210205812']</t>
-  </si>
-  <si>
-    <t>['Rotten Green Tests in Java, Pharo and Python', 'https://semopenalex.org/source/S4210192127', 'W. R. Owens, Stuart Sim, and David Walker, eds. Bunyan Studies: A Journal of Reformation and Nonconformist Culture', 'https://semopenalex.org/source/S4377196300', 'W. R. OWENS, STUART SIM, AND DAVID WALKER, EDS. BUNYAN STUDIES: A JOURNAL OF REFORMATION AND NONCONFORMIST CULTURE. NUMBER 22. NORTHUMBRIA UNIVERSITY, 2018. PP. 164.', 'Rotten green tests in Java, Pharo and Python', 'https://semopenalex.org/source/S4363604151', 'The Secret History of HB-2: Bathroom Safety in the Eighteenth Century and Beyond', 'https://semopenalex.org/source/S4306402203', 'https://semopenalex.org/source/S109852484', 'https://semopenalex.org/source/S4306402512', 'https://semopenalex.org/source/S4306463865', 'Pope and the Reformation of the Oral: The Iliad in the History of Mediation', 'Advances in monitoring carbon dioxide exchange between the atmosphere and mine waste derived from ultramafic-hosted mineral deposits; a pilot study at Cassiar, B.C.', 'https://semopenalex.org/source/S73505065', 'https://semopenalex.org/source/S4306462979']</t>
+    <t>['https://semopenalex.org/work/W2000850157', 'https://semopenalex.org/work/W2154216058', 'https://semopenalex.org/work/W2962540522', 'https://semopenalex.org/work/W2039210571', 'https://semopenalex.org/work/W3021831361', 'https://semopenalex.org/work/W171991278', 'https://semopenalex.org/work/W3009745595', 'https://semopenalex.org/work/W2957946622', 'https://semopenalex.org/work/W2738446327', 'https://semopenalex.org/work/W1625275222', 'https://semopenalex.org/work/W2013165801', 'https://semopenalex.org/work/W1963502684', 'https://semopenalex.org/work/W1516345628', 'https://semopenalex.org/work/W2140243124', 'https://semopenalex.org/work/W3082672072', 'https://semopenalex.org/work/W3037521446', 'https://semopenalex.org/work/W3022514883', 'https://semopenalex.org/work/W128593825', 'https://semopenalex.org/work/W2063989480', 'https://semopenalex.org/work/W2937671906', 'https://semopenalex.org/work/W2099077058', 'https://semopenalex.org/work/W2309635847', 'https://semopenalex.org/work/W2114791275', 'https://semopenalex.org/work/W2530516535', 'https://semopenalex.org/work/W2103364709', 'https://semopenalex.org/work/W2110324005', 'https://semopenalex.org/work/W2055827744', 'https://semopenalex.org/work/W2399215436', 'https://semopenalex.org/work/W4205742677', 'https://semopenalex.org/work/W4299834590', 'https://semopenalex.org/work/W2729343995', 'https://semopenalex.org/work/W961274400', 'https://semopenalex.org/work/W3096817374', 'https://semopenalex.org/work/W67119066', 'https://semopenalex.org/work/W2724228083', 'https://semopenalex.org/work/W2166763164', 'https://semopenalex.org/work/W2514533441', 'https://semopenalex.org/work/W2507172825', 'https://semopenalex.org/work/W2005096286', 'https://semopenalex.org/work/W2588193771', 'https://semopenalex.org/work/W1753483902', 'https://semopenalex.org/work/W3081749826', 'https://semopenalex.org/work/W3012737141', 'https://semopenalex.org/work/W3081541487', 'https://semopenalex.org/work/W3082188274', 'https://semopenalex.org/work/W4386220934', 'https://semopenalex.org/work/W2003205683', 'https://semopenalex.org/work/W3114823909', 'https://semopenalex.org/work/W4378234403', 'https://semopenalex.org/work/W2181900851', 'https://semopenalex.org/work/W2143284629', 'https://semopenalex.org/work/W2128135249', 'https://semopenalex.org/work/W2123134063', 'https://semopenalex.org/work/W3126358682', 'https://semopenalex.org/work/W1536091370', 'https://semopenalex.org/work/W2401739586', 'https://semopenalex.org/work/W4394518676', 'https://semopenalex.org/work/W2164985294', 'https://semopenalex.org/work/W3015578022', 'https://semopenalex.org/work/W146984990', 'https://semopenalex.org/work/W2051791551', 'https://semopenalex.org/work/W4251349925', 'https://semopenalex.org/work/W4247737681', 'https://semopenalex.org/work/W2514686722', 'https://semopenalex.org/work/W2163312800', 'https://semopenalex.org/work/W160337249', 'https://semopenalex.org/work/W30482722', 'https://semopenalex.org/work/W2792227230', 'https://semopenalex.org/work/W4400132771', 'https://semopenalex.org/work/W1965117376', 'https://semopenalex.org/work/W2171958563', 'https://semopenalex.org/work/W2122784464', 'https://semopenalex.org/work/W1870353999', 'https://semopenalex.org/work/W3081531507', 'https://semopenalex.org/work/W2003067257', 'https://semopenalex.org/work/W2999466582', 'https://semopenalex.org/work/W188103252', 'https://semopenalex.org/work/W1702815980', 'https://semopenalex.org/work/W4236983726', 'https://semopenalex.org/work/W2143084783', 'https://semopenalex.org/work/W2892078924', 'https://semopenalex.org/work/W4387589621', 'https://semopenalex.org/work/W3024342691', 'https://semopenalex.org/work/W2321428856', 'https://semopenalex.org/work/W3007663200', 'https://semopenalex.org/work/W2033918799', 'https://semopenalex.org/work/W2403047599', 'https://semopenalex.org/work/W1980799317', 'https://semopenalex.org/work/W4237431914', 'https://semopenalex.org/work/W2242995227', 'https://semopenalex.org/work/W3147662830', 'https://semopenalex.org/work/W2968316987', 'https://semopenalex.org/work/W2898552906', 'https://semopenalex.org/work/W2151304280', 'https://semopenalex.org/work/W1817463943', 'https://semopenalex.org/work/W4301447820', 'https://semopenalex.org/work/W1735274207', 'https://semopenalex.org/work/W4226457422', 'https://semopenalex.org/work/W2182446967', 'https://semopenalex.org/work/W2123551394', 'https://semopenalex.org/work/W2072049173', 'https://semopenalex.org/work/W2005357327', 'https://semopenalex.org/work/W2338530657', 'https://semopenalex.org/work/W2149509417', 'https://semopenalex.org/work/W1972453858', 'https://semopenalex.org/work/W2018345398', 'https://semopenalex.org/work/W2766450143', 'https://semopenalex.org/work/W2970449937', 'https://semopenalex.org/work/W2041337419', 'https://semopenalex.org/work/W653390160', 'https://semopenalex.org/work/W202954270', 'https://semopenalex.org/work/W2753693229', 'https://semopenalex.org/work/W2226738307', 'https://semopenalex.org/work/W2591501322', 'https://semopenalex.org/work/W2112753023', 'https://semopenalex.org/work/W4220992118', 'https://semopenalex.org/work/W2095908354', 'https://semopenalex.org/work/W2883183026', 'https://semopenalex.org/work/W562425896', 'https://semopenalex.org/work/W2133946031', 'https://semopenalex.org/work/W4247029563', 'https://semopenalex.org/work/W3011781542', 'https://semopenalex.org/work/W13024336', 'https://semopenalex.org/work/W4312182041', 'https://semopenalex.org/work/W1990740853', 'https://semopenalex.org/work/W4383065806', 'https://semopenalex.org/work/W2018708687', 'https://semopenalex.org/work/W2557406903', 'https://semopenalex.org/work/W2103430250', 'https://semopenalex.org/work/W2141665828', 'https://semopenalex.org/work/W3081685983', 'https://semopenalex.org/work/W2113694234', 'https://semopenalex.org/work/W2138250189', 'https://semopenalex.org/work/W2888859618', 'https://semopenalex.org/work/W3030243522', 'https://semopenalex.org/work/W4281490671', 'https://semopenalex.org/work/W2599387809', 'https://semopenalex.org/work/W2774855312', 'https://semopenalex.org/work/W2004149428', 'https://semopenalex.org/work/W4404250088', 'https://semopenalex.org/work/W2952764074', 'https://semopenalex.org/work/W2741748074', 'https://semopenalex.org/work/W3013847853', 'https://semopenalex.org/work/W3082938327', 'https://semopenalex.org/work/W200396823', 'https://semopenalex.org/work/W2028031999', 'https://semopenalex.org/work/W2096582083', 'https://semopenalex.org/work/W2771147402', 'https://semopenalex.org/work/W2152754828', 'https://semopenalex.org/work/W2044023590', 'https://semopenalex.org/work/W2587222093', 'https://semopenalex.org/work/W2059580911', 'https://semopenalex.org/work/W2166662555', 'https://semopenalex.org/work/W2165195120', 'https://semopenalex.org/work/W3027665269', 'https://semopenalex.org/work/W4300748512', 'https://semopenalex.org/work/W1986257701', 'https://semopenalex.org/work/W1552001157', 'https://semopenalex.org/work/W2922365273', 'https://semopenalex.org/work/W2234365651', 'https://semopenalex.org/work/W2906284509', 'https://semopenalex.org/work/W1527768716', 'https://semopenalex.org/work/W2805444673', 'https://semopenalex.org/work/W73405584', 'https://semopenalex.org/work/W1552561574', 'https://semopenalex.org/work/W3173715284', 'https://semopenalex.org/work/W1729906464', 'https://semopenalex.org/work/W2067686570', 'https://semopenalex.org/work/W2901545557', 'https://semopenalex.org/work/W2023846135', 'https://semopenalex.org/work/W1417422537', 'https://semopenalex.org/work/W54673566', 'https://semopenalex.org/work/W2150505652', 'https://semopenalex.org/work/W3037487054', 'https://semopenalex.org/work/W2113868440', 'https://semopenalex.org/work/W2901026025', 'https://semopenalex.org/work/W2061486817', 'https://semopenalex.org/work/W2034937923', 'https://semopenalex.org/work/W2023479938', 'https://semopenalex.org/work/W2122677844', 'https://semopenalex.org/work/W4210298342', 'https://semopenalex.org/work/W626749138', 'https://semopenalex.org/work/W2105424397', 'https://semopenalex.org/work/W2035958911', 'https://semopenalex.org/work/W4247632977', 'https://semopenalex.org/work/W1912056476', 'https://semopenalex.org/work/W2065302863', 'https://semopenalex.org/work/W1533919275', 'https://semopenalex.org/work/W1979704442', 'https://semopenalex.org/work/W2100777852', 'https://semopenalex.org/work/W2122538412', 'https://semopenalex.org/work/W4360604687', 'https://semopenalex.org/work/W1552374822', 'https://semopenalex.org/work/W2320884143', 'https://semopenalex.org/work/W2124921180', 'https://semopenalex.org/work/W3036157671', 'https://semopenalex.org/work/W49930183', 'https://semopenalex.org/work/W3082943899', 'https://semopenalex.org/work/W2080393976', 'https://semopenalex.org/work/W2073156145', 'https://semopenalex.org/work/W3149746193', 'https://semopenalex.org/work/W1829136368', 'https://semopenalex.org/work/W2968697710', 'https://semopenalex.org/work/W2004009311', 'https://semopenalex.org/work/W2135586389', 'https://semopenalex.org/work/W4364358025', 'https://semopenalex.org/work/W2130391582', 'https://semopenalex.org/work/W2990422891', 'https://semopenalex.org/work/W4392979894', 'https://semopenalex.org/work/W90104346', 'https://semopenalex.org/work/W2901265490', 'https://semopenalex.org/work/W3016154199', 'https://semopenalex.org/work/W2186313366', 'https://semopenalex.org/work/W2029661605', 'https://semopenalex.org/work/W4249463326', 'https://semopenalex.org/work/W4386157387', 'https://semopenalex.org/work/W1041461969', 'https://semopenalex.org/work/W2728862777', 'https://semopenalex.org/work/W2128936252', 'https://semopenalex.org/work/W2049855663', 'https://semopenalex.org/work/W2162395962', 'https://semopenalex.org/work/W2074682051', 'https://semopenalex.org/work/W2593472651', 'https://semopenalex.org/work/W3082574538', 'https://semopenalex.org/work/W1929232145', 'https://semopenalex.org/work/W2001775984', 'https://semopenalex.org/work/W67844065', 'https://semopenalex.org/work/W2619174663', 'https://semopenalex.org/work/W2141115795', 'https://semopenalex.org/work/W3023079907', 'https://semopenalex.org/work/W2093352090', 'https://semopenalex.org/work/W2775903912', 'https://semopenalex.org/work/W2620095341', 'https://semopenalex.org/work/W155674873', 'https://semopenalex.org/work/W1990062657', 'https://semopenalex.org/work/W2173102402', 'https://semopenalex.org/work/W2512077429', 'https://semopenalex.org/work/W2125654576', 'https://semopenalex.org/work/W2274206371', 'https://semopenalex.org/work/W2185694006', 'https://semopenalex.org/work/W4386776420', 'https://semopenalex.org/work/W2752026712', 'https://semopenalex.org/work/W2098589561', 'https://semopenalex.org/work/W4237274094', 'https://semopenalex.org/work/W2959129322', 'https://semopenalex.org/work/W2136645836', 'https://semopenalex.org/work/W2123582261', 'https://semopenalex.org/work/W1990776069', 'https://semopenalex.org/work/W4287815821', 'https://semopenalex.org/work/W2138588147', 'https://semopenalex.org/work/W2017767972', 'https://semopenalex.org/work/W1542429709', 'https://semopenalex.org/work/W3082580655', 'https://semopenalex.org/work/W2074444313', 'https://semopenalex.org/work/W1755261004', 'https://semopenalex.org/work/W2021648931', 'https://semopenalex.org/work/W2799918114', 'https://semopenalex.org/work/W1096039644', 'https://semopenalex.org/work/W2626706700', 'https://semopenalex.org/work/W1972362582', 'https://semopenalex.org/work/W4404250201', 'https://semopenalex.org/work/W2943865318', 'https://semopenalex.org/work/W2736157438', 'https://semopenalex.org/work/W2152670036', 'https://semopenalex.org/work/W2137367494', 'https://semopenalex.org/work/W4244775271', 'https://semopenalex.org/work/W3038115327', 'https://semopenalex.org/work/W2608090064', 'https://semopenalex.org/work/W2009658718', 'https://semopenalex.org/work/W2969940663', 'https://semopenalex.org/work/W4282914661', 'https://semopenalex.org/work/W3127482518', 'https://semopenalex.org/work/W1963759754', 'https://semopenalex.org/work/W2133819144', 'https://semopenalex.org/work/W2407173971', 'https://semopenalex.org/work/W4251952567', 'https://semopenalex.org/work/W4302424645', 'https://semopenalex.org/work/W2804317122', 'https://semopenalex.org/work/W2906330222', 'https://semopenalex.org/work/W2605190822', 'https://semopenalex.org/work/W2038509977', 'https://semopenalex.org/work/W1996261192', 'https://semopenalex.org/work/W2810861266', 'https://semopenalex.org/work/W2117451136', 'https://semopenalex.org/work/W3120515165', 'https://semopenalex.org/work/W2594497686', 'https://semopenalex.org/work/W4295779216', 'https://semopenalex.org/work/W190600666', 'https://semopenalex.org/work/W2085864217', 'https://semopenalex.org/work/W1980476288', 'https://semopenalex.org/work/W2182785605', 'https://semopenalex.org/work/W2038517887', 'https://semopenalex.org/work/W4210813334', 'https://semopenalex.org/work/W2034235801', 'https://semopenalex.org/work/W4320000513', 'https://semopenalex.org/work/W2077513328', 'https://semopenalex.org/work/W1558485007', 'https://semopenalex.org/work/W2023289472', 'https://semopenalex.org/work/W4210257758', 'https://semopenalex.org/work/W3013220518', 'https://semopenalex.org/work/W2745733921', 'https://semopenalex.org/work/W2003148032', 'https://semopenalex.org/work/W2788844524', 'https://semopenalex.org/work/W2026960907', 'https://semopenalex.org/work/W100499533', 'https://semopenalex.org/work/W2804810577', 'https://semopenalex.org/work/W4239519246', 'https://semopenalex.org/work/W3164080097', 'https://semopenalex.org/work/W2740907063', 'https://semopenalex.org/work/W47444322', 'https://semopenalex.org/work/W2182093612', 'https://semopenalex.org/work/W4396695389', 'https://semopenalex.org/work/W201713607', 'https://semopenalex.org/work/W2153940791', 'https://semopenalex.org/work/W2005948381', 'https://semopenalex.org/work/W4235499751', 'https://semopenalex.org/work/W2151573792', 'https://semopenalex.org/work/W2988464819', 'https://semopenalex.org/work/W2584513564', 'https://semopenalex.org/work/W4384263461', 'https://semopenalex.org/work/W3081898781', 'https://semopenalex.org/work/W2104167274', 'https://semopenalex.org/work/W2171671453', 'https://semopenalex.org/work/W2105281328', 'https://semopenalex.org/work/W2024202481', 'https://semopenalex.org/work/W4389476656', 'https://semopenalex.org/work/W3154255967', 'https://semopenalex.org/work/W2616948544', 'https://semopenalex.org/work/W2995567949', 'https://semopenalex.org/work/W2986447659', 'https://semopenalex.org/work/W4238511116', 'https://semopenalex.org/work/W2116449320', 'https://semopenalex.org/work/W3082909461', 'https://semopenalex.org/work/W2019966888', 'https://semopenalex.org/work/W2094867236', 'https://semopenalex.org/work/W2757690399', 'https://semopenalex.org/work/W2133171495', 'https://semopenalex.org/work/W2605122712', 'https://semopenalex.org/work/W2167424492', 'https://semopenalex.org/work/W4405944965', 'https://semopenalex.org/work/W2069469539', 'https://semopenalex.org/work/W2054518304', 'https://semopenalex.org/work/W2016652422', 'https://semopenalex.org/work/W3082121147', 'https://semopenalex.org/work/W2170327195', 'https://semopenalex.org/work/W4248877513', 'https://semopenalex.org/work/W2277916629', 'https://semopenalex.org/work/W4238264174']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W4319980430', 'https://semopenalex.org/work/W2809907824', 'https://semopenalex.org/work/W2754398119', 'https://semopenalex.org/work/W4393424568', 'https://semopenalex.org/work/W3017267450', 'https://semopenalex.org/work/W4393821610', 'https://semopenalex.org/work/W3047312767', 'https://semopenalex.org/work/W2598695409', 'https://semopenalex.org/work/W2784045768', 'https://semopenalex.org/work/W2964346923']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2898811429', 'https://semopenalex.org/work/W4320896439', 'https://semopenalex.org/work/W4400675898', 'https://semopenalex.org/work/W4367628070', 'https://semopenalex.org/work/W3145532460', 'https://semopenalex.org/work/W2158735282', 'https://semopenalex.org/work/W1517398235', 'https://semopenalex.org/work/W4293065025', 'https://semopenalex.org/work/W2145330693', 'https://semopenalex.org/work/W1568212182', 'https://semopenalex.org/work/W1810972023', 'https://semopenalex.org/work/W2044633418', 'https://semopenalex.org/work/W4280592120', 'https://semopenalex.org/work/W4283641599', 'https://semopenalex.org/work/W4287668646', 'https://semopenalex.org/work/W2062032381', 'https://semopenalex.org/work/W1908449836', 'https://semopenalex.org/work/W4213248384', 'https://semopenalex.org/work/W4402426748', 'https://semopenalex.org/work/W3010403426', 'https://semopenalex.org/work/W4312667018', 'https://semopenalex.org/work/W4301582020', 'https://semopenalex.org/work/W3153041448', 'https://semopenalex.org/work/W2119804349', 'https://semopenalex.org/work/W4381713892', 'https://semopenalex.org/work/W2971173586', 'https://semopenalex.org/work/W2171240869', 'https://semopenalex.org/work/W3209991164', 'https://semopenalex.org/work/W2549612717', 'https://semopenalex.org/work/W1851000371', 'https://semopenalex.org/work/W3033737646', 'https://semopenalex.org/work/W3127585016', 'https://semopenalex.org/work/W4229517606', 'https://semopenalex.org/work/W4313563578', 'https://semopenalex.org/work/W2135584970', 'https://semopenalex.org/work/W2340333180', 'https://semopenalex.org/work/W4287667875', 'https://semopenalex.org/work/W3126838471', 'https://semopenalex.org/work/W3119454628', 'https://semopenalex.org/work/W2905847388', 'https://semopenalex.org/work/W2049381173', 'https://semopenalex.org/work/W4406157430', 'https://semopenalex.org/work/W2901106555', 'https://semopenalex.org/work/W2333194490', 'https://semopenalex.org/work/W1593690673', 'https://semopenalex.org/work/W2889555883', 'https://semopenalex.org/work/W3085432304', 'https://semopenalex.org/work/W2330908417', 'https://semopenalex.org/work/W4225781798', 'https://semopenalex.org/work/W4319653723', 'https://semopenalex.org/work/W2967719799', 'https://semopenalex.org/work/W3130260207', 'https://semopenalex.org/work/W4387737248', 'https://semopenalex.org/work/W2293962294', 'https://semopenalex.org/work/W4251429682', 'https://semopenalex.org/work/W2110499608', 'https://semopenalex.org/work/W4240535267', 'https://semopenalex.org/work/W2345531317', 'https://semopenalex.org/work/W2059943739', 'https://semopenalex.org/work/W2900603753', 'https://semopenalex.org/work/W3174473101', 'https://semopenalex.org/work/W3084710058', 'https://semopenalex.org/work/W4287668995', 'https://semopenalex.org/work/W4235240618', 'https://semopenalex.org/work/W2077664520', 'https://semopenalex.org/work/W2967526509', 'https://semopenalex.org/work/W3206231781', 'https://semopenalex.org/work/W2788992245', 'https://semopenalex.org/work/W2142174774', 'https://semopenalex.org/work/W3043915370', 'https://semopenalex.org/work/W4363671915', 'https://semopenalex.org/work/W4249431654', 'https://semopenalex.org/work/W2809425916', 'https://semopenalex.org/work/W3169232032', 'https://semopenalex.org/work/W4288261968', 'https://semopenalex.org/work/W2211800868', 'https://semopenalex.org/work/W2293309991', 'https://semopenalex.org/work/W2530456191', 'https://semopenalex.org/work/W4287235540', 'https://semopenalex.org/work/W3084859057', 'https://semopenalex.org/work/W4287392742', 'https://semopenalex.org/work/W4319264802', 'https://semopenalex.org/work/W3121391869', 'https://semopenalex.org/work/W2055489377', 'https://semopenalex.org/work/W2899596954', 'https://semopenalex.org/work/W4399872440', 'https://semopenalex.org/work/W4318159625', 'https://semopenalex.org/work/W4321796319', 'https://semopenalex.org/work/W3014769903', 'https://semopenalex.org/work/W2272844336', 'https://semopenalex.org/work/W3121852636', 'https://semopenalex.org/work/W2893263830', 'https://semopenalex.org/work/W3110545566', 'https://semopenalex.org/work/W2272672851', 'https://semopenalex.org/work/W2967175067', 'https://semopenalex.org/work/W4312757941', 'https://semopenalex.org/work/W2093284392']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W1999760195', 'https://semopenalex.org/work/W2903944530', 'https://semopenalex.org/work/W3134422373', 'https://semopenalex.org/work/W2897762537', 'https://semopenalex.org/work/W4396568545', 'https://semopenalex.org/work/W2844810377', 'https://semopenalex.org/work/W4367671449', 'https://semopenalex.org/work/W3048792033', 'https://semopenalex.org/work/W4238294234', 'https://semopenalex.org/work/W2996342798', 'https://semopenalex.org/work/W2100407406', 'https://semopenalex.org/work/W2974444355', 'https://semopenalex.org/work/W2996971450', 'https://semopenalex.org/work/W4390737683', 'https://semopenalex.org/work/W2780277126', 'https://semopenalex.org/work/W2979701877', 'https://semopenalex.org/work/W2957110867', 'https://semopenalex.org/work/W2792290921', 'https://semopenalex.org/work/W4206136166', 'https://semopenalex.org/work/W2772966323', 'https://semopenalex.org/work/W2788968669', 'https://semopenalex.org/work/W3202715770', 'https://semopenalex.org/work/W3158463786', 'https://semopenalex.org/work/W2226359063', 'https://semopenalex.org/work/W3205075200', 'https://semopenalex.org/work/W2948196949', 'https://semopenalex.org/work/W2805460435', 'https://semopenalex.org/work/W4406267825', 'https://semopenalex.org/work/W4293863370', 'https://semopenalex.org/work/W2397277866']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2150882603', 'https://semopenalex.org/work/W4206707377', 'https://semopenalex.org/work/W2073791116', 'https://semopenalex.org/work/W4386082512', 'https://semopenalex.org/work/W2469325223', 'https://semopenalex.org/work/W1980119762', 'https://semopenalex.org/work/W3110875274', 'https://semopenalex.org/work/W4287391921', 'https://semopenalex.org/work/W2995556886', 'https://semopenalex.org/work/W4378942243', 'https://semopenalex.org/work/W2972760949', 'https://semopenalex.org/work/W4322099461', 'https://semopenalex.org/work/W4406676443', 'https://semopenalex.org/work/W3083323811', 'https://semopenalex.org/work/W3207608819', 'https://semopenalex.org/work/W4400266996', 'https://semopenalex.org/work/W3203181771', 'https://semopenalex.org/work/W3168652588', 'https://semopenalex.org/work/W4393911083', 'https://semopenalex.org/work/W4290059224', 'https://semopenalex.org/work/W2879029702', 'https://semopenalex.org/work/W4288364801', 'https://semopenalex.org/work/W4210756135', 'https://semopenalex.org/work/W2184966923', 'https://semopenalex.org/work/W4245299688', 'https://semopenalex.org/work/W3202872895', 'https://semopenalex.org/work/W1977295820', 'https://semopenalex.org/work/W4391901288', 'https://semopenalex.org/work/W2038323322', 'https://semopenalex.org/work/W2784298189', 'https://semopenalex.org/work/W4295253548', 'https://semopenalex.org/work/W4284710143', 'https://semopenalex.org/work/W4394931310', 'https://semopenalex.org/work/W294448757', 'https://semopenalex.org/work/W3099785009', 'https://semopenalex.org/work/W4312473456', 'https://semopenalex.org/work/W2022832873', 'https://semopenalex.org/work/W3091415435', 'https://semopenalex.org/work/W4398157632', 'https://semopenalex.org/work/W2039557327', 'https://semopenalex.org/work/W2467368527', 'https://semopenalex.org/work/W3183881674', 'https://semopenalex.org/work/W4398809881', 'https://semopenalex.org/work/W1805881796', 'https://semopenalex.org/work/W3046183292', 'https://semopenalex.org/work/W2090465764', 'https://semopenalex.org/work/W4255912054', 'https://semopenalex.org/work/W2027952077', 'https://semopenalex.org/work/W4285827783', 'https://semopenalex.org/work/W4392617501', 'https://semopenalex.org/work/W1966530006', 'https://semopenalex.org/work/W3176114075', 'https://semopenalex.org/work/W4383046641', 'https://semopenalex.org/work/W3003928672', 'https://semopenalex.org/work/W4287900890', 'https://semopenalex.org/work/W2929118134', 'https://semopenalex.org/work/W2145997469', 'https://semopenalex.org/work/W4399986811', 'https://semopenalex.org/work/W3126679255', 'https://semopenalex.org/work/W2548547123', 'https://semopenalex.org/work/W2898907473', 'https://semopenalex.org/work/W3095459301', 'https://semopenalex.org/work/W3121327306', 'https://semopenalex.org/work/W3004806403', 'https://semopenalex.org/work/W1494996644', 'https://semopenalex.org/work/W4385292569', 'https://semopenalex.org/work/W2464529301', 'https://semopenalex.org/work/W4406193279', 'https://semopenalex.org/work/W816337693', 'https://semopenalex.org/work/W4385804769', 'https://semopenalex.org/work/W4379933304', 'https://semopenalex.org/work/W2552048974', 'https://semopenalex.org/work/W4287776928', 'https://semopenalex.org/work/W2519804223', 'https://semopenalex.org/work/W2996860607', 'https://semopenalex.org/work/W2137100320', 'https://semopenalex.org/work/W3047893908', 'https://semopenalex.org/work/W3110177420', 'https://semopenalex.org/work/W2914677765', 'https://semopenalex.org/work/W2244659594', 'https://semopenalex.org/work/W4200081143', 'https://semopenalex.org/work/W2337546824', 'https://semopenalex.org/work/W2162555816', 'https://semopenalex.org/work/W4368353176', 'https://semopenalex.org/work/W2114925746', 'https://semopenalex.org/work/W4384561507', 'https://semopenalex.org/work/W1997430507', 'https://semopenalex.org/work/W3025540705', 'https://semopenalex.org/work/W3093436911', 'https://semopenalex.org/work/W1753084818', 'https://semopenalex.org/work/W3212849404', 'https://semopenalex.org/work/W3048856089', 'https://semopenalex.org/work/W2171559681', 'https://semopenalex.org/work/W4292798214', 'https://semopenalex.org/work/W4320341743', 'https://semopenalex.org/work/W75304744', 'https://semopenalex.org/work/W3096998353', 'https://semopenalex.org/work/W2760871008', 'https://semopenalex.org/work/W3007227736', 'https://semopenalex.org/work/W2131147042', 'https://semopenalex.org/work/W2157747589', 'https://semopenalex.org/work/W2059502067', 'https://semopenalex.org/work/W2525851376', 'https://semopenalex.org/work/W2466191378', 'https://semopenalex.org/work/W3127829048', 'https://semopenalex.org/work/W3171100434', 'https://semopenalex.org/work/W3156189202', 'https://semopenalex.org/work/W97884251', 'https://semopenalex.org/work/W3034646170', 'https://semopenalex.org/work/W2625157458', 'https://semopenalex.org/work/W4400447326', 'https://semopenalex.org/work/W2086755418', 'https://semopenalex.org/work/W3167824842', 'https://semopenalex.org/work/W4323038488', 'https://semopenalex.org/work/W2786460214', 'https://semopenalex.org/work/W4311007713', 'https://semopenalex.org/work/W3001208429', 'https://semopenalex.org/work/W3096783252', 'https://semopenalex.org/work/W3001949026', 'https://semopenalex.org/work/W169568933', 'https://semopenalex.org/work/W4221159459', 'https://semopenalex.org/work/W4231137968', 'https://semopenalex.org/work/W3174807969', 'https://semopenalex.org/work/W3048770428', 'https://semopenalex.org/work/W4210597606', 'https://semopenalex.org/work/W3210446150', 'https://semopenalex.org/work/W3207505502', 'https://semopenalex.org/work/W3129635911', 'https://semopenalex.org/work/W4406482035', 'https://semopenalex.org/work/W2606709877', 'https://semopenalex.org/work/W4385584193', 'https://semopenalex.org/work/W1972302881', 'https://semopenalex.org/work/W2945856475', 'https://semopenalex.org/work/W3211048833', 'https://semopenalex.org/work/W4287691869', 'https://semopenalex.org/work/W3145938895', 'https://semopenalex.org/work/W2059743020', 'https://semopenalex.org/work/W3008746569', 'https://semopenalex.org/work/W3096308497', 'https://semopenalex.org/work/W4297060365', 'https://semopenalex.org/work/W3015838662', 'https://semopenalex.org/work/W2969671163', 'https://semopenalex.org/work/W2108950108', 'https://semopenalex.org/work/W2152423878', 'https://semopenalex.org/work/W4367297631', 'https://semopenalex.org/work/W4387321281', 'https://semopenalex.org/work/W2122005484', 'https://semopenalex.org/work/W2014168043', 'https://semopenalex.org/work/W3198808971', 'https://semopenalex.org/work/W2898863929', 'https://semopenalex.org/work/W2999276659', 'https://semopenalex.org/work/W3104328743', 'https://semopenalex.org/work/W3173111918', 'https://semopenalex.org/work/W2462370865', 'https://semopenalex.org/work/W2820922764', 'https://semopenalex.org/work/W4286953522', 'https://semopenalex.org/work/W4287123914', 'https://semopenalex.org/work/W1991539813', 'https://semopenalex.org/work/W1587612576', 'https://semopenalex.org/work/W4230850676', 'https://semopenalex.org/work/W3131298139', 'https://semopenalex.org/work/W4283823243', 'https://semopenalex.org/work/W4366342364', 'https://semopenalex.org/work/W2939129451', 'https://semopenalex.org/work/W4284892042', 'https://semopenalex.org/work/W2924522543', 'https://semopenalex.org/work/W1579732497', 'https://semopenalex.org/work/W2403591241', 'https://semopenalex.org/work/W2732107624', 'https://semopenalex.org/work/W2460754307', 'https://semopenalex.org/work/W4324116704', 'https://semopenalex.org/work/W3106951738', 'https://semopenalex.org/work/W2808145095', 'https://semopenalex.org/work/W4287023576', 'https://semopenalex.org/work/W2905242827', 'https://semopenalex.org/work/W3092216346', 'https://semopenalex.org/work/W3007493000', 'https://semopenalex.org/work/W4296070200', 'https://semopenalex.org/work/W2972736078', 'https://semopenalex.org/work/W2004314166', 'https://semopenalex.org/work/W2087611087', 'https://semopenalex.org/work/W2154718966', 'https://semopenalex.org/work/W2804309962', 'https://semopenalex.org/work/W4403635745', 'https://semopenalex.org/work/W2060122457', 'https://semopenalex.org/work/W2117788706', 'https://semopenalex.org/work/W2316889284', 'https://semopenalex.org/work/W1975771789', 'https://semopenalex.org/work/W2899181049', 'https://semopenalex.org/work/W2971872524', 'https://semopenalex.org/work/W3041585044', 'https://semopenalex.org/work/W4384392951', 'https://semopenalex.org/work/W3203846187', 'https://semopenalex.org/work/W3028984135', 'https://semopenalex.org/work/W4384919669', 'https://semopenalex.org/work/W2056591916', 'https://semopenalex.org/work/W2156740813', 'https://semopenalex.org/work/W4384615920', 'https://semopenalex.org/work/W4387799594', 'https://semopenalex.org/work/W1246540336', 'https://semopenalex.org/work/W87063158', 'https://semopenalex.org/work/W4221120919', 'https://semopenalex.org/work/W4287690348', 'https://semopenalex.org/work/W4236853429', 'https://semopenalex.org/work/W2038134612', 'https://semopenalex.org/work/W4323038447', 'https://semopenalex.org/work/W2979711838', 'https://semopenalex.org/work/W4287279053', 'https://semopenalex.org/work/W4297060071', 'https://semopenalex.org/work/W2084071117', 'https://semopenalex.org/work/W2343779160', 'https://semopenalex.org/work/W3008634715', 'https://semopenalex.org/work/W2972393922', 'https://semopenalex.org/work/W2905715248', 'https://semopenalex.org/work/W2297325673', 'https://semopenalex.org/work/W3038185437', 'https://semopenalex.org/work/W4233099794', 'https://semopenalex.org/work/W3049640275', 'https://semopenalex.org/work/W2132391423', 'https://semopenalex.org/work/W4287241484', 'https://semopenalex.org/work/W1982467666', 'https://semopenalex.org/work/W2558974524', 'https://semopenalex.org/work/W3018835489', 'https://semopenalex.org/work/W2546536770', 'https://semopenalex.org/work/W4310562517', 'https://semopenalex.org/work/W2214980064', 'https://semopenalex.org/work/W2096948221', 'https://semopenalex.org/work/W3043093753', 'https://semopenalex.org/work/W3093421867', 'https://semopenalex.org/work/W2463050926', 'https://semopenalex.org/work/W3121924028', 'https://semopenalex.org/work/W3134509799', 'https://semopenalex.org/work/W3210294081', 'https://semopenalex.org/work/W4287746776', 'https://semopenalex.org/work/W3133606938', 'https://semopenalex.org/work/W1965596253', 'https://semopenalex.org/work/W2991253882', 'https://semopenalex.org/work/W4287123862', 'https://semopenalex.org/work/W3005828390', 'https://semopenalex.org/work/W4306703516', 'https://semopenalex.org/work/W2973151896', 'https://semopenalex.org/work/W4403786771', 'https://semopenalex.org/work/W3093453792', 'https://semopenalex.org/work/W4390872486', 'https://semopenalex.org/work/W4403964510', 'https://semopenalex.org/work/W2343495200', 'https://semopenalex.org/work/W2559181347', 'https://semopenalex.org/work/W4283024182', 'https://semopenalex.org/work/W4308083526', 'https://semopenalex.org/work/W4286902665', 'https://semopenalex.org/work/W3106656598', 'https://semopenalex.org/work/W3201845268', 'https://semopenalex.org/work/W1572192454', 'https://semopenalex.org/work/W4287902355', 'https://semopenalex.org/work/W3101755570', 'https://semopenalex.org/work/W3085924585', 'https://semopenalex.org/work/W2472426210', 'https://semopenalex.org/work/W2509887407', 'https://semopenalex.org/work/W4226041925', 'https://semopenalex.org/work/W2739601332', 'https://semopenalex.org/work/W4320341944', 'https://semopenalex.org/work/W2142857396', 'https://semopenalex.org/work/W1966445952', 'https://semopenalex.org/work/W2041454412', 'https://semopenalex.org/work/W3030459553', 'https://semopenalex.org/work/W3216699651', 'https://semopenalex.org/work/W4396243491', 'https://semopenalex.org/work/W2626549485', 'https://semopenalex.org/work/W2911439292', 'https://semopenalex.org/work/W3128789131', 'https://semopenalex.org/work/W4389261110', 'https://semopenalex.org/work/W2572480678', 'https://semopenalex.org/work/W4296596641', 'https://semopenalex.org/work/W2120761625', 'https://semopenalex.org/work/W4377298398', 'https://semopenalex.org/work/W4280611212', 'https://semopenalex.org/work/W2798926091', 'https://semopenalex.org/work/W4226302796', 'https://semopenalex.org/work/W3027839759', 'https://semopenalex.org/work/W3124523586', 'https://semopenalex.org/work/W2123140882', 'https://semopenalex.org/work/W3194018690', 'https://semopenalex.org/work/W4319862456', 'https://semopenalex.org/work/W4382464396', 'https://semopenalex.org/work/W3176780274', 'https://semopenalex.org/work/W144502943', 'https://semopenalex.org/work/W2043475427', 'https://semopenalex.org/work/W3147053158', 'https://semopenalex.org/work/W3097384956', 'https://semopenalex.org/work/W2916044424', 'https://semopenalex.org/work/W4399317854', 'https://semopenalex.org/work/W4391766346', 'https://semopenalex.org/work/W2997497769', 'https://semopenalex.org/work/W2754395205', 'https://semopenalex.org/work/W2941573428', 'https://semopenalex.org/work/W2900566525', 'https://semopenalex.org/work/W4287726151', 'https://semopenalex.org/work/W2951433015', 'https://semopenalex.org/work/W2954507353', 'https://semopenalex.org/work/W2777460464', 'https://semopenalex.org/work/W2473751517', 'https://semopenalex.org/work/W4404395434', 'https://semopenalex.org/work/W3177180018', 'https://semopenalex.org/work/W3128506819', 'https://semopenalex.org/work/W3107781032', 'https://semopenalex.org/work/W3160945783', 'https://semopenalex.org/work/W2163036976', 'https://semopenalex.org/work/W3209796046', 'https://semopenalex.org/work/W3201319033', 'https://semopenalex.org/work/W3101164610', 'https://semopenalex.org/work/W2164297046', 'https://semopenalex.org/work/W3210764291', 'https://semopenalex.org/work/W2026124805', 'https://semopenalex.org/work/W2825911140']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W4386572358', 'https://semopenalex.org/work/W2037815363', 'https://semopenalex.org/work/W4312385873', 'https://semopenalex.org/work/W2012725729', 'https://semopenalex.org/work/W4387714873', 'https://semopenalex.org/work/W4403635673', 'https://semopenalex.org/work/W2335568438', 'https://semopenalex.org/work/W2964765424', 'https://semopenalex.org/work/W2202885265', 'https://semopenalex.org/work/W2889572683', 'https://semopenalex.org/work/W2120547457', 'https://semopenalex.org/work/W3184809481', 'https://semopenalex.org/work/W2970760542', 'https://semopenalex.org/work/W2695892072', 'https://semopenalex.org/work/W4400112330', 'https://semopenalex.org/work/W2158244986', 'https://semopenalex.org/work/W2063160426', 'https://semopenalex.org/work/W3143148447', 'https://semopenalex.org/work/W4399339526', 'https://semopenalex.org/work/W2116800013', 'https://semopenalex.org/work/W2958283264', 'https://semopenalex.org/work/W2110460866', 'https://semopenalex.org/work/W2002064143', 'https://semopenalex.org/work/W2966346292', 'https://semopenalex.org/work/W2907905966', 'https://semopenalex.org/work/W4297989904', 'https://semopenalex.org/work/W4395684973', 'https://semopenalex.org/work/W1989814488', 'https://semopenalex.org/work/W2784241930', 'https://semopenalex.org/work/W2326531986', 'https://semopenalex.org/work/W4387869863', 'https://semopenalex.org/work/W4386528085', 'https://semopenalex.org/work/W4386919989', 'https://semopenalex.org/work/W3210031557', 'https://semopenalex.org/work/W3014966924', 'https://semopenalex.org/work/W4213077479', 'https://semopenalex.org/work/W2466861718', 'https://semopenalex.org/work/W2116843437', 'https://semopenalex.org/work/W1990148059', 'https://semopenalex.org/work/W2046114048', 'https://semopenalex.org/work/W4389961028', 'https://semopenalex.org/work/W2763111898', 'https://semopenalex.org/work/W4296270284', 'https://semopenalex.org/work/W4390938914', 'https://semopenalex.org/work/W4400904607', 'https://semopenalex.org/work/W4205522738', 'https://semopenalex.org/work/W2990794959', 'https://semopenalex.org/work/W2932650350', 'https://semopenalex.org/work/W3139378559', 'https://semopenalex.org/work/W2269062875', 'https://semopenalex.org/work/W4404210445', 'https://semopenalex.org/work/W2916900328', 'https://semopenalex.org/work/W2154565949', 'https://semopenalex.org/work/W2535770837', 'https://semopenalex.org/work/W4403124399', 'https://semopenalex.org/work/W1993621621', 'https://semopenalex.org/work/W2564919106', 'https://semopenalex.org/work/W2966498804', 'https://semopenalex.org/work/W2912046801', 'https://semopenalex.org/work/W3181963703', 'https://semopenalex.org/work/W2143110402', 'https://semopenalex.org/work/W2765287619', 'https://semopenalex.org/work/W4390602383', 'https://semopenalex.org/work/W3196284684', 'https://semopenalex.org/work/W2965197902', 'https://semopenalex.org/work/W4384917079', 'https://semopenalex.org/work/W4367147910', 'https://semopenalex.org/work/W1991496323', 'https://semopenalex.org/work/W1986594812', 'https://semopenalex.org/work/W2988764224', 'https://semopenalex.org/work/W4392513104', 'https://semopenalex.org/work/W2941782253', 'https://semopenalex.org/work/W2557139677', 'https://semopenalex.org/work/W1990178810', 'https://semopenalex.org/work/W1972504394', 'https://semopenalex.org/work/W3160686564', 'https://semopenalex.org/work/W2056907372', 'https://semopenalex.org/work/W4386918818', 'https://semopenalex.org/work/W4389888434', 'https://semopenalex.org/work/W2535549373', 'https://semopenalex.org/work/W2010049933', 'https://semopenalex.org/work/W4399341408', 'https://semopenalex.org/work/W2797953332', 'https://semopenalex.org/work/W3192507507', 'https://semopenalex.org/work/W2557492665', 'https://semopenalex.org/work/W2964505054', 'https://semopenalex.org/work/W4404670877', 'https://semopenalex.org/work/W1556213926', 'https://semopenalex.org/work/W2341987404', 'https://semopenalex.org/work/W4224245749', 'https://semopenalex.org/work/W2804501132', 'https://semopenalex.org/work/W4206824496', 'https://semopenalex.org/work/W4390758153', 'https://semopenalex.org/work/W4388286311', 'https://semopenalex.org/work/W2769916035', 'https://semopenalex.org/work/W3083528472', 'https://semopenalex.org/work/W3013399598', 'https://semopenalex.org/work/W2401510428', 'https://semopenalex.org/work/W2175711660', 'https://semopenalex.org/work/W4385267612', 'https://semopenalex.org/work/W3139325069', 'https://semopenalex.org/work/W2620634483', 'https://semopenalex.org/work/W4293211890', 'https://semopenalex.org/work/W2905349707', 'https://semopenalex.org/work/W3104724617', 'https://semopenalex.org/work/W2058599944', 'https://semopenalex.org/work/W2010955203', 'https://semopenalex.org/work/W4391878166', 'https://semopenalex.org/work/W2951051768', 'https://semopenalex.org/work/W4226250318', 'https://semopenalex.org/work/W2520653549', 'https://semopenalex.org/work/W2562454548', 'https://semopenalex.org/work/W2912334744', 'https://semopenalex.org/work/W4391895094', 'https://semopenalex.org/work/W2036764408', 'https://semopenalex.org/work/W2038007991', 'https://semopenalex.org/work/W3216386918', 'https://semopenalex.org/work/W4380451175', 'https://semopenalex.org/work/W2712995990', 'https://semopenalex.org/work/W2095378229', 'https://semopenalex.org/work/W2121795575', 'https://semopenalex.org/work/W4367148117', 'https://semopenalex.org/work/W3163178830', 'https://semopenalex.org/work/W4402125734', 'https://semopenalex.org/work/W1904270298', 'https://semopenalex.org/work/W4328028090', 'https://semopenalex.org/work/W4389303997', 'https://semopenalex.org/work/W2064850826', 'https://semopenalex.org/work/W4386736850', 'https://semopenalex.org/work/W2383377836', 'https://semopenalex.org/work/W2017065682', 'https://semopenalex.org/work/W4402264038', 'https://semopenalex.org/work/W2038570675', 'https://semopenalex.org/work/W1971616362', 'https://semopenalex.org/work/W1497963603', 'https://semopenalex.org/work/W4390778221', 'https://semopenalex.org/work/W2031326270', 'https://semopenalex.org/work/W2621374881', 'https://semopenalex.org/work/W2887601228', 'https://semopenalex.org/work/W2122864277', 'https://semopenalex.org/work/W2036128771', 'https://semopenalex.org/work/W2391301195', 'https://semopenalex.org/work/W2796524784', 'https://semopenalex.org/work/W2983906786', 'https://semopenalex.org/work/W2589296175', 'https://semopenalex.org/work/W4205304527', 'https://semopenalex.org/work/W2784259369', 'https://semopenalex.org/work/W3117499383', 'https://semopenalex.org/work/W4391429213', 'https://semopenalex.org/work/W2029634930', 'https://semopenalex.org/work/W4225497412', 'https://semopenalex.org/work/W3133466818', 'https://semopenalex.org/work/W1984984026', 'https://semopenalex.org/work/W2605870759', 'https://semopenalex.org/work/W2012087113', 'https://semopenalex.org/work/W2169103252', 'https://semopenalex.org/work/W2168189713', 'https://semopenalex.org/work/W4206221314', 'https://semopenalex.org/work/W4405179870', 'https://semopenalex.org/work/W2066280901', 'https://semopenalex.org/work/W2804609139', 'https://semopenalex.org/work/W2946047926', 'https://semopenalex.org/work/W1492042394', 'https://semopenalex.org/work/W1857828242', 'https://semopenalex.org/work/W2058842944', 'https://semopenalex.org/work/W4367147772', 'https://semopenalex.org/work/W3004718696', 'https://semopenalex.org/work/W2561915240', 'https://semopenalex.org/work/W3012171841', 'https://semopenalex.org/work/W4398152845', 'https://semopenalex.org/work/W4403182200', 'https://semopenalex.org/work/W2982613775', 'https://semopenalex.org/work/W4328011761', 'https://semopenalex.org/work/W4367148069', 'https://semopenalex.org/work/W3206648460', 'https://semopenalex.org/work/W2789498674', 'https://semopenalex.org/work/W2330731982', 'https://semopenalex.org/work/W4389161163', 'https://semopenalex.org/work/W282835794', 'https://semopenalex.org/work/W4399463135', 'https://semopenalex.org/work/W3020423550', 'https://semopenalex.org/work/W4389692495', 'https://semopenalex.org/work/W2052206457', 'https://semopenalex.org/work/W2081488658', 'https://semopenalex.org/work/W2900379070', 'https://semopenalex.org/work/W2143818732', 'https://semopenalex.org/work/W2998591860', 'https://semopenalex.org/work/W2904413102', 'https://semopenalex.org/work/W4288039534', 'https://semopenalex.org/work/W3205428400', 'https://semopenalex.org/work/W4313291203', 'https://semopenalex.org/work/W4360901644', 'https://semopenalex.org/work/W2373453410', 'https://semopenalex.org/work/W2095529201', 'https://semopenalex.org/work/W2566566708', 'https://semopenalex.org/work/W2022326160', 'https://semopenalex.org/work/W2149743901', 'https://semopenalex.org/work/W2949306598', 'https://semopenalex.org/work/W4393174751', 'https://semopenalex.org/work/W4320068529', 'https://semopenalex.org/work/W2995016007', 'https://semopenalex.org/work/W2473454588', 'https://semopenalex.org/work/W2892268308', 'https://semopenalex.org/work/W4328012044', 'https://semopenalex.org/work/W4402835717', 'https://semopenalex.org/work/W2144892219', 'https://semopenalex.org/work/W3143088633', 'https://semopenalex.org/work/W3140868540', 'https://semopenalex.org/work/W4392573792', 'https://semopenalex.org/work/W4295046603', 'https://semopenalex.org/work/W2027931215', 'https://semopenalex.org/work/W2805010740', 'https://semopenalex.org/work/W2047610380', 'https://semopenalex.org/work/W4323644072', 'https://semopenalex.org/work/W3089077757', 'https://semopenalex.org/work/W2134725794', 'https://semopenalex.org/work/W1525424336', 'https://semopenalex.org/work/W2188557470', 'https://semopenalex.org/work/W3152870376', 'https://semopenalex.org/work/W2327416585', 'https://semopenalex.org/work/W2538882601', 'https://semopenalex.org/work/W4388213914', 'https://semopenalex.org/work/W4213097356', 'https://semopenalex.org/work/W2115836030', 'https://semopenalex.org/work/W2539966993', 'https://semopenalex.org/work/W2624719059', 'https://semopenalex.org/work/W2966881022', 'https://semopenalex.org/work/W4379034010', 'https://semopenalex.org/work/W4289203223', 'https://semopenalex.org/work/W4403233403', 'https://semopenalex.org/work/W4399910027', 'https://semopenalex.org/work/W2124863572', 'https://semopenalex.org/work/W2613801228', 'https://semopenalex.org/work/W2556760577', 'https://semopenalex.org/work/W2782998407', 'https://semopenalex.org/work/W4389317944', 'https://semopenalex.org/work/W3112944858', 'https://semopenalex.org/work/W3110950550', 'https://semopenalex.org/work/W2591061174', 'https://semopenalex.org/work/W2906372377', 'https://semopenalex.org/work/W2999941952', 'https://semopenalex.org/work/W2018860951', 'https://semopenalex.org/work/W2115198688', 'https://semopenalex.org/work/W2174090751', 'https://semopenalex.org/work/W4401990766', 'https://semopenalex.org/work/W2013087313', 'https://semopenalex.org/work/W2887046167', 'https://semopenalex.org/work/W4404979988', 'https://semopenalex.org/work/W2113578263', 'https://semopenalex.org/work/W4224994268', 'https://semopenalex.org/work/W2737288996', 'https://semopenalex.org/work/W4387319244', 'https://semopenalex.org/work/W4312265249', 'https://semopenalex.org/work/W2964541684', 'https://semopenalex.org/work/W4385826750', 'https://semopenalex.org/work/W4382119833', 'https://semopenalex.org/work/W1981489703', 'https://semopenalex.org/work/W2017487069', 'https://semopenalex.org/work/W4387697022', 'https://semopenalex.org/work/W2073648968', 'https://semopenalex.org/work/W176895944', 'https://semopenalex.org/work/W3141789341', 'https://semopenalex.org/work/W3085844533', 'https://semopenalex.org/work/W2085741604', 'https://semopenalex.org/work/W4296441394', 'https://semopenalex.org/work/W3167125565', 'https://semopenalex.org/work/W4313534837', 'https://semopenalex.org/work/W2529348703', 'https://semopenalex.org/work/W2921446145', 'https://semopenalex.org/work/W2793708954', 'https://semopenalex.org/work/W1489929835', 'https://semopenalex.org/work/W3018428182', 'https://semopenalex.org/work/W2928810931', 'https://semopenalex.org/work/W3017282193', 'https://semopenalex.org/work/W2782839007', 'https://semopenalex.org/work/W3004954023', 'https://semopenalex.org/work/W2289787480', 'https://semopenalex.org/work/W2530101013', 'https://semopenalex.org/work/W2100819606', 'https://semopenalex.org/work/W2901482574', 'https://semopenalex.org/work/W2977054173', 'https://semopenalex.org/work/W3041302202', 'https://semopenalex.org/work/W4387322936', 'https://semopenalex.org/work/W2810470829', 'https://semopenalex.org/work/W2138141935', 'https://semopenalex.org/work/W2139900006', 'https://semopenalex.org/work/W2334282167', 'https://semopenalex.org/work/W2168624747', 'https://semopenalex.org/work/W1968665462', 'https://semopenalex.org/work/W4226219986', 'https://semopenalex.org/work/W2042556111', 'https://semopenalex.org/work/W2883689704', 'https://semopenalex.org/work/W4388837994', 'https://semopenalex.org/work/W2518984475', 'https://semopenalex.org/work/W3199993893', 'https://semopenalex.org/work/W4313306257', 'https://semopenalex.org/work/W4404576824', 'https://semopenalex.org/work/W4402978247', 'https://semopenalex.org/work/W3133565115', 'https://semopenalex.org/work/W4405937034', 'https://semopenalex.org/work/W4391072497', 'https://semopenalex.org/work/W2593161952', 'https://semopenalex.org/work/W4392024074', 'https://semopenalex.org/work/W4367663134', 'https://semopenalex.org/work/W2903850618', 'https://semopenalex.org/work/W4295127425', 'https://semopenalex.org/work/W2804348493', 'https://semopenalex.org/work/W2037720083', 'https://semopenalex.org/work/W2052995625', 'https://semopenalex.org/work/W3213939512', 'https://semopenalex.org/work/W2351972364', 'https://semopenalex.org/work/W2783829353', 'https://semopenalex.org/work/W4402836042', 'https://semopenalex.org/work/W2804263862', 'https://semopenalex.org/work/W2768917932', 'https://semopenalex.org/work/W2891934018', 'https://semopenalex.org/work/W3133842302', 'https://semopenalex.org/work/W2803338056', 'https://semopenalex.org/work/W4402834371', 'https://semopenalex.org/work/W2045885650', 'https://semopenalex.org/work/W4392607874', 'https://semopenalex.org/work/W2089235671', 'https://semopenalex.org/work/W3196195396', 'https://semopenalex.org/work/W2413354569', 'https://semopenalex.org/work/W2023195652', 'https://semopenalex.org/work/W976487463', 'https://semopenalex.org/work/W2292434057', 'https://semopenalex.org/work/W2393603173', 'https://semopenalex.org/work/W4390777144', 'https://semopenalex.org/work/W3125270863', 'https://semopenalex.org/work/W4401210873', 'https://semopenalex.org/work/W4312643037', 'https://semopenalex.org/work/W4388551259', 'https://semopenalex.org/work/W2181697561', 'https://semopenalex.org/work/W2566656454', 'https://semopenalex.org/work/W2624040609', 'https://semopenalex.org/work/W2077093994', 'https://semopenalex.org/work/W2904825736', 'https://semopenalex.org/work/W2151517333', 'https://semopenalex.org/work/W3088595531', 'https://semopenalex.org/work/W2395017188', 'https://semopenalex.org/work/W4376142881', 'https://semopenalex.org/work/W2473050328', 'https://semopenalex.org/work/W3145628585', 'https://semopenalex.org/work/W2145337100', 'https://semopenalex.org/work/W4328027566', 'https://semopenalex.org/work/W4391326572', 'https://semopenalex.org/work/W2549420274', 'https://semopenalex.org/work/W4282826154', 'https://semopenalex.org/work/W2566503827', 'https://semopenalex.org/work/W4405270053', 'https://semopenalex.org/work/W4210569910', 'https://semopenalex.org/work/W4388953015', 'https://semopenalex.org/work/W4289821472', 'https://semopenalex.org/work/W2258995161', 'https://semopenalex.org/work/W2055837742', 'https://semopenalex.org/work/W4312161546', 'https://semopenalex.org/work/W3090262174', 'https://semopenalex.org/work/W2135168342', 'https://semopenalex.org/work/W2029284131', 'https://semopenalex.org/work/W2298711843', 'https://semopenalex.org/work/W4389076217', 'https://semopenalex.org/work/W2004984354', 'https://semopenalex.org/work/W3001204101', 'https://semopenalex.org/work/W4367148398', 'https://semopenalex.org/work/W2804410540', 'https://semopenalex.org/work/W4282825011', 'https://semopenalex.org/work/W3127926476', 'https://semopenalex.org/work/W2000486418', 'https://semopenalex.org/work/W3186776699', 'https://semopenalex.org/work/W4306793569', 'https://semopenalex.org/work/W4386790563', 'https://semopenalex.org/work/W1990457279', 'https://semopenalex.org/work/W4285207151', 'https://semopenalex.org/work/W2910852288', 'https://semopenalex.org/work/W2779973510', 'https://semopenalex.org/work/W2060045560', 'https://semopenalex.org/work/W4404958656', 'https://semopenalex.org/work/W3193875369', 'https://semopenalex.org/work/W2535129896', 'https://semopenalex.org/work/W2522766745', 'https://semopenalex.org/work/W4367147664', 'https://semopenalex.org/work/W3152943384', 'https://semopenalex.org/work/W2476848331', 'https://semopenalex.org/work/W2066271829', 'https://semopenalex.org/work/W2051236310', 'https://semopenalex.org/work/W2533270794', 'https://semopenalex.org/work/W4288391286', 'https://semopenalex.org/work/W4393252675', 'https://semopenalex.org/work/W3080639911', 'https://semopenalex.org/work/W2911885303', 'https://semopenalex.org/work/W2167929182', 'https://semopenalex.org/work/W2511146638', 'https://semopenalex.org/work/W2389323797', 'https://semopenalex.org/work/W2800613805', 'https://semopenalex.org/work/W2078714953', 'https://semopenalex.org/work/W4388519971', 'https://semopenalex.org/work/W2289776346', 'https://semopenalex.org/work/W4402466985', 'https://semopenalex.org/work/W2997612014', 'https://semopenalex.org/work/W2905049939', 'https://semopenalex.org/work/W2291708615', 'https://semopenalex.org/work/W4400515993', 'https://semopenalex.org/work/W4390763328', 'https://semopenalex.org/work/W4313244937', 'https://semopenalex.org/work/W2915318915', 'https://semopenalex.org/work/W4388675409', 'https://semopenalex.org/work/W4388145646', 'https://semopenalex.org/work/W4379983689', 'https://semopenalex.org/work/W2799485966', 'https://semopenalex.org/work/W4387886204', 'https://semopenalex.org/work/W4226107162', 'https://semopenalex.org/work/W2727836510', 'https://semopenalex.org/work/W2517312722', 'https://semopenalex.org/work/W2035601794', 'https://semopenalex.org/work/W2103606916', 'https://semopenalex.org/work/W2971778528', 'https://semopenalex.org/work/W1781921775', 'https://semopenalex.org/work/W1991274348', 'https://semopenalex.org/work/W2292837460', 'https://semopenalex.org/work/W4386494434', 'https://semopenalex.org/work/W4387714561', 'https://semopenalex.org/work/W2520379429', 'https://semopenalex.org/work/W1967335608', 'https://semopenalex.org/work/W2785923962', 'https://semopenalex.org/work/W3047065943', 'https://semopenalex.org/work/W2109392297', 'https://semopenalex.org/work/W2969688740', 'https://semopenalex.org/work/W4386307089', 'https://semopenalex.org/work/W2920565953', 'https://semopenalex.org/work/W2905616463', 'https://semopenalex.org/work/W2792002389', 'https://semopenalex.org/work/W2289770078', 'https://semopenalex.org/work/W2967537836', 'https://semopenalex.org/work/W3156800857', 'https://semopenalex.org/work/W4225826211', 'https://semopenalex.org/work/W2313795635', 'https://semopenalex.org/work/W4386249920', 'https://semopenalex.org/work/W3129170312', 'https://semopenalex.org/work/W2570577251', 'https://semopenalex.org/work/W2920325736', 'https://semopenalex.org/work/W4213068964', 'https://semopenalex.org/work/W4285211669', 'https://semopenalex.org/work/W2154039139', 'https://semopenalex.org/work/W3147589610', 'https://semopenalex.org/work/W4213429388', 'https://semopenalex.org/work/W2171432711', 'https://semopenalex.org/work/W2118451262', 'https://semopenalex.org/work/W2887358166', 'https://semopenalex.org/work/W4318603270', 'https://semopenalex.org/work/W4387715010', 'https://semopenalex.org/work/W4213269113', 'https://semopenalex.org/work/W2383025629', 'https://semopenalex.org/work/W2794180747', 'https://semopenalex.org/work/W4393034258', 'https://semopenalex.org/work/W3197269278', 'https://semopenalex.org/work/W2118701267', 'https://semopenalex.org/work/W4317555541', 'https://semopenalex.org/work/W4386920013', 'https://semopenalex.org/work/W2986174999', 'https://semopenalex.org/work/W4396783549', 'https://semopenalex.org/work/W2473242321', 'https://semopenalex.org/work/W1968455523', 'https://semopenalex.org/work/W4323663048', 'https://semopenalex.org/work/W3197793222', 'https://semopenalex.org/work/W1978699422', 'https://semopenalex.org/work/W4394858588', 'https://semopenalex.org/work/W2556195709', 'https://semopenalex.org/work/W4205838995', 'https://semopenalex.org/work/W2887838626', 'https://semopenalex.org/work/W2077753966', 'https://semopenalex.org/work/W4210326058', 'https://semopenalex.org/work/W2129096944', 'https://semopenalex.org/work/W4282837228', 'https://semopenalex.org/work/W2151584377', 'https://semopenalex.org/work/W3176567159', 'https://semopenalex.org/work/W2743477693', 'https://semopenalex.org/work/W2290066430', 'https://semopenalex.org/work/W4307405043', 'https://semopenalex.org/work/W2991588661', 'https://semopenalex.org/work/W3016347687', 'https://semopenalex.org/work/W3086256320', 'https://semopenalex.org/work/W4389879531', 'https://semopenalex.org/work/W4285122724', 'https://semopenalex.org/work/W2069882645', 'https://semopenalex.org/work/W1980855612', 'https://semopenalex.org/work/W4386766558', 'https://semopenalex.org/work/W2548217541', 'https://semopenalex.org/work/W4392096060', 'https://semopenalex.org/work/W4312837885', 'https://semopenalex.org/work/W2011087369', 'https://semopenalex.org/work/W2115497161', 'https://semopenalex.org/work/W3134664381', 'https://semopenalex.org/work/W4312427776', 'https://semopenalex.org/work/W4366987396', 'https://semopenalex.org/work/W2972948959', 'https://semopenalex.org/work/W2495190596', 'https://semopenalex.org/work/W2604384156', 'https://semopenalex.org/work/W1963528679', 'https://semopenalex.org/work/W4396604650', 'https://semopenalex.org/work/W4365808277', 'https://semopenalex.org/work/W4406355769', 'https://semopenalex.org/work/W3134544950', 'https://semopenalex.org/work/W4396817519', 'https://semopenalex.org/work/W2719102196', 'https://semopenalex.org/work/W3034006897', 'https://semopenalex.org/work/W4404480496', 'https://semopenalex.org/work/W4296916443', 'https://semopenalex.org/work/W3210281673', 'https://semopenalex.org/work/W1991497382', 'https://semopenalex.org/work/W4386918403', 'https://semopenalex.org/work/W4220782062', 'https://semopenalex.org/work/W2909902231', 'https://semopenalex.org/work/W2024504253', 'https://semopenalex.org/work/W2152003934', 'https://semopenalex.org/work/W4224321673', 'https://semopenalex.org/work/W4285251260', 'https://semopenalex.org/work/W3005600351', 'https://semopenalex.org/work/W2783173327', 'https://semopenalex.org/work/W2141441280', 'https://semopenalex.org/work/W4385214694', 'https://semopenalex.org/work/W2055657753', 'https://semopenalex.org/work/W2167210003', 'https://semopenalex.org/work/W2291553515', 'https://semopenalex.org/work/W3201511537', 'https://semopenalex.org/work/W4285055114', 'https://semopenalex.org/work/W2990735505', 'https://semopenalex.org/work/W4200533036', 'https://semopenalex.org/work/W2912634456', 'https://semopenalex.org/work/W4404459004', 'https://semopenalex.org/work/W3215103574', 'https://semopenalex.org/work/W4391770026', 'https://semopenalex.org/work/W4212902180', 'https://semopenalex.org/work/W2059373588', 'https://semopenalex.org/work/W4401806242', 'https://semopenalex.org/work/W3033096606', 'https://semopenalex.org/work/W3040766658', 'https://semopenalex.org/work/W2518181354', 'https://semopenalex.org/work/W3006413083', 'https://semopenalex.org/work/W2605389968', 'https://semopenalex.org/work/W3142830832', 'https://semopenalex.org/work/W2903985815', 'https://semopenalex.org/work/W2797561181', 'https://semopenalex.org/work/W2023637192', 'https://semopenalex.org/work/W131277285', 'https://semopenalex.org/work/W2519882343', 'https://semopenalex.org/work/W2210737596', 'https://semopenalex.org/work/W4296912939', 'https://semopenalex.org/work/W4213143207', 'https://semopenalex.org/work/W2786607830', 'https://semopenalex.org/work/W3199970339', 'https://semopenalex.org/work/W4312614504', 'https://semopenalex.org/work/W1505692277', 'https://semopenalex.org/work/W2060658651', 'https://semopenalex.org/work/W1964959731', 'https://semopenalex.org/work/W2996592540', 'https://semopenalex.org/work/W2156848415', 'https://semopenalex.org/work/W4367148405', 'https://semopenalex.org/work/W4282831232', 'https://semopenalex.org/work/W2085645466', 'https://semopenalex.org/work/W3200805258', 'https://semopenalex.org/work/W4387023949', 'https://semopenalex.org/work/W2901539986', 'https://semopenalex.org/work/W4386249995', 'https://semopenalex.org/work/W2967954306', 'https://semopenalex.org/work/W2016629668', 'https://semopenalex.org/work/W43217051', 'https://semopenalex.org/work/W3040063675', 'https://semopenalex.org/work/W2964463995', 'https://semopenalex.org/work/W2547677547', 'https://semopenalex.org/work/W2792380105', 'https://semopenalex.org/work/W2891734979', 'https://semopenalex.org/work/W2139368697', 'https://semopenalex.org/work/W4386352842', 'https://semopenalex.org/work/W4318603823', 'https://semopenalex.org/work/W2901820813', 'https://semopenalex.org/work/W3105144424', 'https://semopenalex.org/work/W1972594074', 'https://semopenalex.org/work/W2538847865', 'https://semopenalex.org/work/W2291494764', 'https://semopenalex.org/work/W4392460796', 'https://semopenalex.org/work/W3176436409', 'https://semopenalex.org/work/W3115725655', 'https://semopenalex.org/work/W2101911810', 'https://semopenalex.org/work/W4282836627', 'https://semopenalex.org/work/W4367146924', 'https://semopenalex.org/work/W4386260739', 'https://semopenalex.org/work/W3005715390', 'https://semopenalex.org/work/W2137422967', 'https://semopenalex.org/work/W2737405495', 'https://semopenalex.org/work/W2145101624', 'https://semopenalex.org/work/W4213124543', 'https://semopenalex.org/work/W1966645219', 'https://semopenalex.org/work/W4308342707', 'https://semopenalex.org/work/W2034325389', 'https://semopenalex.org/work/W2076438760', 'https://semopenalex.org/work/W4304203349', 'https://semopenalex.org/work/W3213340154', 'https://semopenalex.org/work/W2344052410', 'https://semopenalex.org/work/W2277015358', 'https://semopenalex.org/work/W2068489330', 'https://semopenalex.org/work/W4387714613', 'https://semopenalex.org/work/W3076344446', 'https://semopenalex.org/work/W2808159133', 'https://semopenalex.org/work/W4393034150', 'https://semopenalex.org/work/W4312235824', 'https://semopenalex.org/work/W4392207726', 'https://semopenalex.org/work/W4388666963', 'https://semopenalex.org/work/W4367148109', 'https://semopenalex.org/work/W2947280819', 'https://semopenalex.org/work/W2100586747', 'https://semopenalex.org/work/W4386361261', 'https://semopenalex.org/work/W4396505344', 'https://semopenalex.org/work/W2119212601', 'https://semopenalex.org/work/W4378805022', 'https://semopenalex.org/work/W4285548139', 'https://semopenalex.org/work/W2528857590', 'https://semopenalex.org/work/W2419608502', 'https://semopenalex.org/work/W4318601869', 'https://semopenalex.org/work/W2533548130', 'https://semopenalex.org/work/W2919497189', 'https://semopenalex.org/work/W4360907566', 'https://semopenalex.org/work/W2168645783', 'https://semopenalex.org/work/W2051784811', 'https://semopenalex.org/work/W2072045292', 'https://semopenalex.org/work/W2551664773', 'https://semopenalex.org/work/W2332928857', 'https://semopenalex.org/work/W2001792450', 'https://semopenalex.org/work/W4229028795', 'https://semopenalex.org/work/W4389471415', 'https://semopenalex.org/work/W2039365023', 'https://semopenalex.org/work/W4392939659', 'https://semopenalex.org/work/W4402834678', 'https://semopenalex.org/work/W2095857057', 'https://semopenalex.org/work/W4393033575', 'https://semopenalex.org/work/W2271825901', 'https://semopenalex.org/work/W2085023162', 'https://semopenalex.org/work/W2118051735', 'https://semopenalex.org/work/W2782853409', 'https://semopenalex.org/work/W2349466730', 'https://semopenalex.org/work/W4212865190', 'https://semopenalex.org/work/W3023366540', 'https://semopenalex.org/work/W2888258411', 'https://semopenalex.org/work/W4401069975', 'https://semopenalex.org/work/W2573269249', 'https://semopenalex.org/work/W2554849750', 'https://semopenalex.org/work/W2114540871', 'https://semopenalex.org/work/W2528623020', 'https://semopenalex.org/work/W4312466007', 'https://semopenalex.org/work/W3144172827', 'https://semopenalex.org/work/W4294690843', 'https://semopenalex.org/work/W4399881765', 'https://semopenalex.org/work/W2753440200', 'https://semopenalex.org/work/W2561275332', 'https://semopenalex.org/work/W4401548819', 'https://semopenalex.org/work/W2757377912', 'https://semopenalex.org/work/W2540006586', 'https://semopenalex.org/work/W2551309437', 'https://semopenalex.org/work/W4391877334', 'https://semopenalex.org/work/W2559992739', 'https://semopenalex.org/work/W4312387367', 'https://semopenalex.org/work/W4388133782', 'https://semopenalex.org/work/W3135039935', 'https://semopenalex.org/work/W4390778218', 'https://semopenalex.org/work/W3156877779', 'https://semopenalex.org/work/W1971957085', 'https://semopenalex.org/work/W4387714660', 'https://semopenalex.org/work/W3214254401', 'https://semopenalex.org/work/W4403646133', 'https://semopenalex.org/work/W2289803878', 'https://semopenalex.org/work/W2109565528', 'https://semopenalex.org/work/W2137563824', 'https://semopenalex.org/work/W2729083427', 'https://semopenalex.org/work/W3005571193', 'https://semopenalex.org/work/W4390204058', 'https://semopenalex.org/work/W4386920758', 'https://semopenalex.org/work/W3006046181', 'https://semopenalex.org/work/W2768420153', 'https://semopenalex.org/work/W3040466764', 'https://semopenalex.org/work/W2028756273', 'https://semopenalex.org/work/W2137121156', 'https://semopenalex.org/work/W4312363564', 'https://semopenalex.org/work/W2076890843', 'https://semopenalex.org/work/W4387714810', 'https://semopenalex.org/work/W4392175577', 'https://semopenalex.org/work/W2321042880', 'https://semopenalex.org/work/W2800408116', 'https://semopenalex.org/work/W2547271336', 'https://semopenalex.org/work/W2130027208', 'https://semopenalex.org/work/W2120904939', 'https://semopenalex.org/work/W4385832244', 'https://semopenalex.org/work/W2104385531', 'https://semopenalex.org/work/W1978499995', 'https://semopenalex.org/work/W1035642985', 'https://semopenalex.org/work/W2759469946', 'https://semopenalex.org/work/W1485445045', 'https://semopenalex.org/work/W2898562797', 'https://semopenalex.org/work/W3094268044', 'https://semopenalex.org/work/W4403724277', 'https://semopenalex.org/work/W2128477511', 'https://semopenalex.org/work/W4311533450', 'https://semopenalex.org/work/W2096177399']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W4226484154', 'https://semopenalex.org/work/W3100717519', 'https://semopenalex.org/work/W4402904139', 'https://semopenalex.org/work/W4390874790', 'https://semopenalex.org/work/W3161716357', 'https://semopenalex.org/work/W4200628991', 'https://semopenalex.org/work/W3013912585', 'https://semopenalex.org/work/W4286911846', 'https://semopenalex.org/work/W3153883354', 'https://semopenalex.org/work/W4385714105', 'https://semopenalex.org/work/W3103017991', 'https://semopenalex.org/work/W4298544123', 'https://semopenalex.org/work/W4394948053', 'https://semopenalex.org/work/W4297748315', 'https://semopenalex.org/work/W4287081849', 'https://semopenalex.org/work/W3215869014', 'https://semopenalex.org/work/W4385002722', 'https://semopenalex.org/work/W4285563099', 'https://semopenalex.org/work/W4287081323', 'https://semopenalex.org/work/W3120808211', 'https://semopenalex.org/work/W2962689474', 'https://semopenalex.org/work/W4385764233', 'https://semopenalex.org/work/W4400527591', 'https://semopenalex.org/work/W4286783899', 'https://semopenalex.org/work/W3212725128', 'https://semopenalex.org/work/W3013080309', 'https://semopenalex.org/work/W2983383098', 'https://semopenalex.org/work/W4200024628', 'https://semopenalex.org/work/W4385484931', 'https://semopenalex.org/work/W3014613652', 'https://semopenalex.org/work/W4394647969', 'https://semopenalex.org/work/W4302012844', 'https://semopenalex.org/work/W4386044088', 'https://semopenalex.org/work/W3209714413', 'https://semopenalex.org/work/W4287854900', 'https://semopenalex.org/work/W4287679359', 'https://semopenalex.org/work/W4252150734', 'https://semopenalex.org/work/W4293585133', 'https://semopenalex.org/work/W4287990567', 'https://semopenalex.org/work/W3022437633', 'https://semopenalex.org/work/W2976881356', 'https://semopenalex.org/work/W4312987540', 'https://semopenalex.org/work/W4312705355', 'https://semopenalex.org/work/W2895638065', 'https://semopenalex.org/work/W4288864169', 'https://semopenalex.org/work/W3126451397', 'https://semopenalex.org/work/W4237531552', 'https://semopenalex.org/work/W3000280594', 'https://semopenalex.org/work/W4320009753', 'https://semopenalex.org/work/W3015075688', 'https://semopenalex.org/work/W4390874573', 'https://semopenalex.org/work/W4400527813', 'https://semopenalex.org/work/W4361807104', 'https://semopenalex.org/work/W2781902187', 'https://semopenalex.org/work/W4394948067', 'https://semopenalex.org/work/W3158336705', 'https://semopenalex.org/work/W3081562204', 'https://semopenalex.org/work/W4200560875', 'https://semopenalex.org/work/W3185096436', 'https://semopenalex.org/work/W3205150709', 'https://semopenalex.org/work/W4391630218', 'https://semopenalex.org/work/W3101597364', 'https://semopenalex.org/work/W4384807954', 'https://semopenalex.org/work/W3185989052', 'https://semopenalex.org/work/W3088160891', 'https://semopenalex.org/work/W4306178227', 'https://semopenalex.org/work/W4395687580', 'https://semopenalex.org/work/W3021881370', 'https://semopenalex.org/work/W4288853838', 'https://semopenalex.org/work/W4391980038', 'https://semopenalex.org/work/W3120604548', 'https://semopenalex.org/work/W4287659757', 'https://semopenalex.org/work/W4289785280', 'https://semopenalex.org/work/W4400527808', 'https://semopenalex.org/work/W4287205368', 'https://semopenalex.org/work/W4312262410', 'https://semopenalex.org/work/W4312541592', 'https://semopenalex.org/work/W3136988982', 'https://semopenalex.org/work/W4396913892', 'https://semopenalex.org/work/W2799020610', 'https://semopenalex.org/work/W4385489024', 'https://semopenalex.org/work/W4398156585', 'https://semopenalex.org/work/W4392488099', 'https://semopenalex.org/work/W4287070342', 'https://semopenalex.org/work/W3195437714', 'https://semopenalex.org/work/W4401415202', 'https://semopenalex.org/work/W3204322065', 'https://semopenalex.org/work/W2996574577', 'https://semopenalex.org/work/W4287208746', 'https://semopenalex.org/work/W4288854368', 'https://semopenalex.org/work/W3008209689', 'https://semopenalex.org/work/W4385801394', 'https://semopenalex.org/work/W3046138787', 'https://semopenalex.org/work/W3158615621', 'https://semopenalex.org/work/W3126473778', 'https://semopenalex.org/work/W3114189270', 'https://semopenalex.org/work/W2913466142', 'https://semopenalex.org/work/W3170528657', 'https://semopenalex.org/work/W4288897652', 'https://semopenalex.org/work/W3175370919', 'https://semopenalex.org/work/W3107972479', 'https://semopenalex.org/work/W3089582082', 'https://semopenalex.org/work/W2995697759', 'https://semopenalex.org/work/W3182129567', 'https://semopenalex.org/work/W3007894033', 'https://semopenalex.org/work/W4392971989', 'https://semopenalex.org/work/W4320036968', 'https://semopenalex.org/work/W4230527737', 'https://semopenalex.org/work/W3209110530', 'https://semopenalex.org/work/W2888163892', 'https://semopenalex.org/work/W4366198559', 'https://semopenalex.org/work/W3210107892', 'https://semopenalex.org/work/W4312903731', 'https://semopenalex.org/work/W4283695942', 'https://semopenalex.org/work/W4287263991', 'https://semopenalex.org/work/W4287864395', 'https://semopenalex.org/work/W4287141413', 'https://semopenalex.org/work/W4287822736', 'https://semopenalex.org/work/W4319336332', 'https://semopenalex.org/work/W4406524575', 'https://semopenalex.org/work/W4224014834', 'https://semopenalex.org/work/W4287271714', 'https://semopenalex.org/work/W2972050850', 'https://semopenalex.org/work/W4287822968', 'https://semopenalex.org/work/W4386044022', 'https://semopenalex.org/work/W3193694068', 'https://semopenalex.org/work/W4289550833', 'https://semopenalex.org/work/W4312293932', 'https://semopenalex.org/work/W2969182950', 'https://semopenalex.org/work/W3139116348', 'https://semopenalex.org/work/W4226112052', 'https://semopenalex.org/work/W4390189793', 'https://semopenalex.org/work/W3136579074', 'https://semopenalex.org/work/W4404988180', 'https://semopenalex.org/work/W4221162127', 'https://semopenalex.org/work/W3013092573', 'https://semopenalex.org/work/W2787117880', 'https://semopenalex.org/work/W2997573805', 'https://semopenalex.org/work/W2937532208', 'https://semopenalex.org/work/W4386114434', 'https://semopenalex.org/work/W4292829106', 'https://semopenalex.org/work/W4301131967', 'https://semopenalex.org/work/W4309873272', 'https://semopenalex.org/work/W3188528620', 'https://semopenalex.org/work/W3156185860', 'https://semopenalex.org/work/W4287068220', 'https://semopenalex.org/work/W4396814528', 'https://semopenalex.org/work/W3139499926', 'https://semopenalex.org/work/W4297823196', 'https://semopenalex.org/work/W2941870244', 'https://semopenalex.org/work/W4200338016', 'https://semopenalex.org/work/W3181073899', 'https://semopenalex.org/work/W3034765865', 'https://semopenalex.org/work/W3207776446', 'https://semopenalex.org/work/W3133932964', 'https://semopenalex.org/work/W3203158837', 'https://semopenalex.org/work/W4287822940', 'https://semopenalex.org/work/W3184989806', 'https://semopenalex.org/work/W3178180605', 'https://semopenalex.org/work/W4390190325', 'https://semopenalex.org/work/W3034875137', 'https://semopenalex.org/work/W4390190222', 'https://semopenalex.org/work/W3187413453', 'https://semopenalex.org/work/W4293161686', 'https://semopenalex.org/work/W3035684383', 'https://semopenalex.org/work/W3137123492', 'https://semopenalex.org/work/W4288023982', 'https://semopenalex.org/work/W4389519214', 'https://semopenalex.org/work/W3035434014', 'https://semopenalex.org/work/W3195626503', 'https://semopenalex.org/work/W4224928639', 'https://semopenalex.org/work/W4386069017', 'https://semopenalex.org/work/W4221139182', 'https://semopenalex.org/work/W2986822919', 'https://semopenalex.org/work/W4251566388', 'https://semopenalex.org/work/W2972424355', 'https://semopenalex.org/work/W4402502660', 'https://semopenalex.org/work/W4400527492', 'https://semopenalex.org/work/W3161569725', 'https://semopenalex.org/work/W3128169604', 'https://semopenalex.org/work/W4392933323']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W4224295260', 'https://semopenalex.org/work/W3158973558', 'https://semopenalex.org/work/W4281670064', 'https://semopenalex.org/work/W3172648176', 'https://semopenalex.org/work/W4200494113', 'https://semopenalex.org/work/W4392473011', 'https://semopenalex.org/work/W4213455810', 'https://semopenalex.org/work/W4399991068']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W4403094633', 'https://semopenalex.org/work/W4390604119', 'https://semopenalex.org/work/W4386065896', 'https://semopenalex.org/work/W4312804251']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W4391680987', 'https://semopenalex.org/work/W4404849982', 'https://semopenalex.org/work/W4391903798', 'https://semopenalex.org/work/W4406802119', 'https://semopenalex.org/work/W4405564152', 'https://semopenalex.org/work/W4396509789', 'https://semopenalex.org/work/W4404839780', 'https://semopenalex.org/work/W4401879044', 'https://semopenalex.org/work/W4405643736', 'https://semopenalex.org/work/W4405718129', 'https://semopenalex.org/work/W4392180008', 'https://semopenalex.org/work/W4406620652']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W3128979101', 'https://semopenalex.org/work/W2965199304', 'https://semopenalex.org/work/W4390214908', 'https://semopenalex.org/work/W4206564787', 'https://semopenalex.org/work/W2949627261', 'https://semopenalex.org/work/W2893252084', 'https://semopenalex.org/work/W2890113545', 'https://semopenalex.org/work/W4387390186', 'https://semopenalex.org/work/W4287125868', 'https://semopenalex.org/work/W2999025119', 'https://semopenalex.org/work/W4225563550', 'https://semopenalex.org/work/W2831356539', 'https://semopenalex.org/work/W4387976170', 'https://semopenalex.org/work/W4283820999', 'https://semopenalex.org/work/W2971887426', 'https://semopenalex.org/work/W4399910979', 'https://semopenalex.org/work/W2896288697', 'https://semopenalex.org/work/W4397028829', 'https://semopenalex.org/work/W2898415992', 'https://semopenalex.org/work/W2918439752', 'https://semopenalex.org/work/W4287830420', 'https://semopenalex.org/work/W4377130595', 'https://semopenalex.org/work/W2911917123', 'https://semopenalex.org/work/W4206480932']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W4391928869', 'https://semopenalex.org/work/W4400410989', 'https://semopenalex.org/work/W4400410445', 'https://semopenalex.org/work/W4391010236', 'https://semopenalex.org/work/W4399070942', 'https://semopenalex.org/work/W4396787938']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W3108935870', 'https://semopenalex.org/work/W3140085153', 'https://semopenalex.org/work/W3008842679', 'https://semopenalex.org/work/W4376171783', 'https://semopenalex.org/work/W3095401597', 'https://semopenalex.org/work/W4362502510', 'https://semopenalex.org/work/W4321503169', 'https://semopenalex.org/work/W4321230650', 'https://semopenalex.org/work/W4283322066', 'https://semopenalex.org/work/W4283320724', 'https://semopenalex.org/work/W4376210033', 'https://semopenalex.org/work/W4362464600', 'https://semopenalex.org/work/W4362464651']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S6725529', 'https://semopenalex.org/source/S103482838', 'https://semopenalex.org/source/S142259175', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S166722454', 'https://semopenalex.org/source/S4306401649', 'https://semopenalex.org/source/S73201230', 'https://semopenalex.org/source/S4306417782', 'https://semopenalex.org/source/S4306522928', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S2764691006', 'https://semopenalex.org/source/S89276529', 'https://semopenalex.org/source/S4220651901', 'https://semopenalex.org/source/S4363608993', 'https://semopenalex.org/source/S4306401163', 'https://semopenalex.org/source/S4306402566', 'https://semopenalex.org/source/S4306401716', 'https://semopenalex.org/source/S4306401353', 'https://semopenalex.org/source/S97147119', 'https://semopenalex.org/source/S94821547', 'https://semopenalex.org/source/S4306508766', 'https://semopenalex.org/source/S4306524001', 'https://semopenalex.org/source/S4363608825', 'https://semopenalex.org/source/S4210170956', 'https://semopenalex.org/source/S130363450', 'https://semopenalex.org/source/S2764465379', 'https://semopenalex.org/source/S4363608709', 'https://semopenalex.org/source/S4306401429', 'https://semopenalex.org/source/S4306498714', 'https://semopenalex.org/source/S4308707206', 'https://semopenalex.org/source/S86033158', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S4306498881', 'https://semopenalex.org/source/S4306401476', 'https://semopenalex.org/source/S4306402512', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S4306400834', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S4306464149']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S116775814', 'https://semopenalex.org/source/S4210197184', 'https://semopenalex.org/source/S4363608757', 'https://semopenalex.org/source/S4387283722', 'https://semopenalex.org/source/S4363607701', 'https://semopenalex.org/source/S4393916651', 'https://semopenalex.org/source/S2764900261', 'https://semopenalex.org/source/S110785341', 'https://semopenalex.org/source/S4306498492', 'https://semopenalex.org/source/S4210215848', 'https://semopenalex.org/source/S185008460', 'https://semopenalex.org/source/S89023782', 'https://semopenalex.org/source/S4210198061', 'https://semopenalex.org/source/S4363607799', 'https://semopenalex.org/source/S182038535', 'https://semopenalex.org/source/S125677163', 'https://semopenalex.org/source/S189700591', 'https://semopenalex.org/source/S4387282845', 'https://semopenalex.org/source/S81330323', 'https://semopenalex.org/source/S155209994', 'https://semopenalex.org/source/S4210175330', 'https://semopenalex.org/source/S4363607879', 'https://semopenalex.org/source/S113449338', 'https://semopenalex.org/source/S137030581', 'https://semopenalex.org/source/S153378518', 'https://semopenalex.org/source/S161516442', 'https://semopenalex.org/source/S2764884854', 'https://semopenalex.org/source/S4210191458', 'https://semopenalex.org/source/S105424869', 'https://semopenalex.org/source/S4363607719', 'https://semopenalex.org/source/S4306417896', 'https://semopenalex.org/source/S157921468', 'https://semopenalex.org/source/S6505649', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S2765052158', 'https://semopenalex.org/source/S2911247321', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S112262039', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S4210217284', 'https://semopenalex.org/source/S2764802425', 'https://semopenalex.org/source/S4363607795', 'https://semopenalex.org/source/S4306506385', 'https://semopenalex.org/source/S2764645039', 'https://semopenalex.org/source/S199944782', 'https://semopenalex.org/source/S2764878997', 'https://semopenalex.org/source/S4306419272', 'https://semopenalex.org/source/S4306463409', 'https://semopenalex.org/source/S4306499256', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S4363607734', 'https://semopenalex.org/source/S166095821', 'https://semopenalex.org/source/S115304631', 'https://semopenalex.org/source/S72873717', 'https://semopenalex.org/source/S110206669', 'https://semopenalex.org/source/S4306420609', 'https://semopenalex.org/source/S414566', 'https://semopenalex.org/source/S4210224179', 'https://semopenalex.org/source/S2765071880', 'https://semopenalex.org/source/S4306535968', 'https://semopenalex.org/source/S4210185969', 'https://semopenalex.org/source/S7560371', 'https://semopenalex.org/source/S4393917449', 'https://semopenalex.org/source/S19610489', 'https://semopenalex.org/source/S4363608128', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S183492911', 'https://semopenalex.org/source/S2596394214', 'https://semopenalex.org/source/S4363607764', 'https://semopenalex.org/source/S98026630', 'https://semopenalex.org/source/S4306401925', 'https://semopenalex.org/source/S4306402512', 'https://semopenalex.org/source/S2764462749', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S4210200093', 'https://semopenalex.org/source/S45693802', 'https://semopenalex.org/source/S4210173141', 'https://semopenalex.org/source/S4306402450', 'https://semopenalex.org/source/S2737939966', 'https://semopenalex.org/source/S169266912', 'https://semopenalex.org/source/S177430994', 'https://semopenalex.org/source/S151820558', 'https://semopenalex.org/source/S184777250', 'https://semopenalex.org/source/S4210172589', 'https://semopenalex.org/source/S115173108', 'https://semopenalex.org/source/S4363608440', 'https://semopenalex.org/source/S4306500161']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S4306400562', 'https://semopenalex.org/source/S4210219776', 'https://semopenalex.org/source/S4306419921', 'https://semopenalex.org/source/S37879656', 'https://semopenalex.org/source/S2738664114', 'https://semopenalex.org/source/S4306417857', 'https://semopenalex.org/source/S4210191760', 'https://semopenalex.org/source/S60711021', 'https://semopenalex.org/source/S4306402641', 'https://semopenalex.org/source/S2764435056', 'https://semopenalex.org/source/S4210170441', 'https://semopenalex.org/source/S85375271', 'https://semopenalex.org/source/S4210177346', 'https://semopenalex.org/source/S157146593', 'https://semopenalex.org/source/S86192639', 'https://semopenalex.org/source/S4210175514', 'https://semopenalex.org/source/S63392143', 'https://semopenalex.org/source/S4210177502', 'https://semopenalex.org/source/S158797327', 'https://semopenalex.org/source/S11065456', 'https://semopenalex.org/source/S4306421051', 'https://semopenalex.org/source/S120348307', 'https://semopenalex.org/source/S64245694', 'https://semopenalex.org/source/S4210174798', 'https://semopenalex.org/source/S1250476', 'https://semopenalex.org/source/S34838331', 'https://semopenalex.org/source/S4306418113', 'https://semopenalex.org/source/S4306420911', 'https://semopenalex.org/source/S153984684', 'https://semopenalex.org/source/S4363605881', 'https://semopenalex.org/source/S207090427', 'https://semopenalex.org/source/S4210184905', 'https://semopenalex.org/source/S4306419875', 'https://semopenalex.org/source/S4306419550', 'https://semopenalex.org/source/S157921468', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S4210175912', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S96783963', 'https://semopenalex.org/source/S101949793', 'https://semopenalex.org/source/S4210197804', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S4210194901', 'https://semopenalex.org/source/S58563349', 'https://semopenalex.org/source/S129236917', 'https://semopenalex.org/source/S4306418564', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S4210233398', 'https://semopenalex.org/source/S4210177528', 'https://semopenalex.org/source/S116972989', 'https://semopenalex.org/source/S52395412', 'https://semopenalex.org/source/S4210187899', 'https://semopenalex.org/source/S4363608934', 'https://semopenalex.org/source/S115004586', 'https://semopenalex.org/source/S4210187232', 'https://semopenalex.org/source/S4306524001', 'https://semopenalex.org/source/S97833917', 'https://semopenalex.org/source/S126644992', 'https://semopenalex.org/source/S4306417563', 'https://semopenalex.org/source/S36560696', 'https://semopenalex.org/source/S4306400483', 'https://semopenalex.org/source/S30128005', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S4306402512', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S186357190', 'https://semopenalex.org/source/S4306402450', 'https://semopenalex.org/source/S136993123', 'https://semopenalex.org/source/S4306421096', 'https://semopenalex.org/source/S147790641', 'https://semopenalex.org/source/S140982614', 'https://semopenalex.org/source/S106148199', 'https://semopenalex.org/source/S157670870', 'https://semopenalex.org/source/S2485537415']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S4363607857', 'https://semopenalex.org/source/S4210231404', 'https://semopenalex.org/source/S10169007', 'https://semopenalex.org/source/S4306533040', 'https://semopenalex.org/source/S81770430', 'https://semopenalex.org/source/S127900037', 'https://semopenalex.org/source/S4363608845', 'https://semopenalex.org/source/S2595131146', 'https://semopenalex.org/source/S30698027', 'https://semopenalex.org/source/S2764900261', 'https://semopenalex.org/source/S4210168194', 'https://semopenalex.org/source/S27924493', 'https://semopenalex.org/source/S4210226185', 'https://semopenalex.org/source/S35927321', 'https://semopenalex.org/source/S4210170305', 'https://semopenalex.org/source/S4363608755', 'https://semopenalex.org/source/S106685023', 'https://semopenalex.org/source/S4306402607', 'https://semopenalex.org/source/S11065456', 'https://semopenalex.org/source/S4210177381', 'https://semopenalex.org/source/S161516442', 'https://semopenalex.org/source/S4210191458', 'https://semopenalex.org/source/S150382113', 'https://semopenalex.org/source/S4363607873', 'https://semopenalex.org/source/S4363608109', 'https://semopenalex.org/source/S4121844', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S4363608762', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S4363607726', 'https://semopenalex.org/source/S4363608094', 'https://semopenalex.org/source/S2764461748', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S33781645', 'https://semopenalex.org/source/S144771191', 'https://semopenalex.org/source/S36033921', 'https://semopenalex.org/source/S129236917', 'https://semopenalex.org/source/S4306402105', 'https://semopenalex.org/source/S71857517', 'https://semopenalex.org/source/S4306531565', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S58832373', 'https://semopenalex.org/source/S4306401843', 'https://semopenalex.org/source/S4306402579', 'https://semopenalex.org/source/S4306402523', 'https://semopenalex.org/source/S110206669', 'https://semopenalex.org/source/S4306400806', 'https://semopenalex.org/source/S191726168', 'https://semopenalex.org/source/S414566', 'https://semopenalex.org/source/S60779006', 'https://semopenalex.org/source/S4363607862', 'https://semopenalex.org/source/S4306401596', 'https://semopenalex.org/source/S4363607707', 'https://semopenalex.org/source/S4306536006', 'https://semopenalex.org/source/S2492086750', 'https://semopenalex.org/source/S78082969', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S4306515065', 'https://semopenalex.org/source/S4363608767', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S4306401809', 'https://semopenalex.org/source/S207319443', 'https://semopenalex.org/source/S186357190', 'https://semopenalex.org/source/S11479521', 'https://semopenalex.org/source/S45693802', 'https://semopenalex.org/source/S4210202905', 'https://semopenalex.org/source/S4306402492', 'https://semopenalex.org/source/S47192491', 'https://semopenalex.org/source/S4210172589', 'https://semopenalex.org/source/S4306500161', 'https://semopenalex.org/source/S2486411021', 'https://semopenalex.org/source/S2485537415']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S107964287', 'https://semopenalex.org/source/S4210211936', 'https://semopenalex.org/source/S4363608199', 'https://semopenalex.org/source/S21313077', 'https://semopenalex.org/source/S144091109', 'https://semopenalex.org/source/S4210212400', 'https://semopenalex.org/source/S137468011', 'https://semopenalex.org/source/S4210224236', 'https://semopenalex.org/source/S201921491', 'https://semopenalex.org/source/S178916657', 'https://semopenalex.org/source/S2764900261', 'https://semopenalex.org/source/S62507282', 'https://semopenalex.org/source/S185008460', 'https://semopenalex.org/source/S179591353', 'https://semopenalex.org/source/S4363607828', 'https://semopenalex.org/source/S4306464320', 'https://semopenalex.org/source/S84339699', 'https://semopenalex.org/source/S68719679', 'https://semopenalex.org/source/S91329792', 'https://semopenalex.org/source/S4306400385', 'https://semopenalex.org/source/S34730769', 'https://semopenalex.org/source/S170217976', 'https://semopenalex.org/source/S41486457', 'https://semopenalex.org/source/S202381698', 'https://semopenalex.org/source/S4306417879', 'https://semopenalex.org/source/S4306462995', 'https://semopenalex.org/source/S45696439', 'https://semopenalex.org/source/S4210195248', 'https://semopenalex.org/source/S2495878607', 'https://semopenalex.org/source/S104717114', 'https://semopenalex.org/source/S4306401722', 'https://semopenalex.org/source/S4210191458', 'https://semopenalex.org/source/S4306462788', 'https://semopenalex.org/source/S2764905038', 'https://semopenalex.org/source/S2764696622', 'https://semopenalex.org/source/S4210171255', 'https://semopenalex.org/source/S4210214825', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S4363608034', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S52732750', 'https://semopenalex.org/source/S4210212310', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S45281609', 'https://semopenalex.org/source/S4210213674', 'https://semopenalex.org/source/S4363608116', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S4210211086', 'https://semopenalex.org/source/S4210212235', 'https://semopenalex.org/source/S4210205812', 'https://semopenalex.org/source/S4363607702', 'https://semopenalex.org/source/S4306463687', 'https://semopenalex.org/source/S2764763012', 'https://semopenalex.org/source/S11296630', 'https://semopenalex.org/source/S4363608918', 'https://semopenalex.org/source/S195488530', 'https://semopenalex.org/source/S4363607712', 'https://semopenalex.org/source/S4210240769', 'https://semopenalex.org/source/S4306463409', 'https://semopenalex.org/source/S4306463708', 'https://semopenalex.org/source/S4306533995', 'https://semopenalex.org/source/S4306419250', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S4306402118', 'https://semopenalex.org/source/S4210169774', 'https://semopenalex.org/source/S975621743', 'https://semopenalex.org/source/S4363607734', 'https://semopenalex.org/source/S4363608837', 'https://semopenalex.org/source/S4306419999', 'https://semopenalex.org/source/S15952048', 'https://semopenalex.org/source/S4210179954', 'https://semopenalex.org/source/S4210226272', 'https://semopenalex.org/source/S4306400806', 'https://semopenalex.org/source/S4306402651', 'https://semopenalex.org/source/S4363607711', 'https://semopenalex.org/source/S131145815', 'https://semopenalex.org/source/S4210233094', 'https://semopenalex.org/source/S56112914', 'https://semopenalex.org/source/S124503262', 'https://semopenalex.org/source/S116420536', 'https://semopenalex.org/source/S131921510', 'https://semopenalex.org/source/S4363607705', 'https://semopenalex.org/source/S4363608614', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S183492911', 'https://semopenalex.org/source/S4363607759', 'https://semopenalex.org/source/S2595095599', 'https://semopenalex.org/source/S4306497580', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S58778951', 'https://semopenalex.org/source/S76152103', 'https://semopenalex.org/source/S133768115', 'https://semopenalex.org/source/S157664362', 'https://semopenalex.org/source/S177430994', 'https://semopenalex.org/source/S92163612', 'https://semopenalex.org/source/S111927887']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2893632568', 'https://semopenalex.org/work/W2951337996']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2535846100', 'https://semopenalex.org/work/W2917509290', 'https://semopenalex.org/work/W2903327589', 'https://semopenalex.org/work/W2952648029', 'https://semopenalex.org/work/W2789779636', 'https://semopenalex.org/work/W2973574727', 'https://semopenalex.org/work/W2579543964', 'https://semopenalex.org/work/W2797304630', 'https://semopenalex.org/work/W3037554454', 'https://semopenalex.org/work/W4230018104', 'https://semopenalex.org/work/W2901496061', 'https://semopenalex.org/work/W2793980407', 'https://semopenalex.org/work/W3022089151', 'https://semopenalex.org/work/W2770068518']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2531687916', 'https://semopenalex.org/work/W2899253255', 'https://semopenalex.org/work/W2738349648', 'https://semopenalex.org/work/W3090190726', 'https://semopenalex.org/work/W2517398904', 'https://semopenalex.org/work/W3136039572', 'https://semopenalex.org/work/W2971488950', 'https://semopenalex.org/work/W2757796760', 'https://semopenalex.org/work/W2966722901', 'https://semopenalex.org/work/W3091137588', 'https://semopenalex.org/work/W2902328474', 'https://semopenalex.org/work/W2411915861']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2158181764', 'https://semopenalex.org/work/W1850858835', 'https://semopenalex.org/work/W2319292411', 'https://semopenalex.org/work/W2116825370', 'https://semopenalex.org/work/W1590316067', 'https://semopenalex.org/work/W2109885309', 'https://semopenalex.org/work/W1973831520', 'https://semopenalex.org/work/W70616053']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2398987174', 'https://semopenalex.org/work/W2001181659', 'https://semopenalex.org/work/W1815020819', 'https://semopenalex.org/work/W1591196343', 'https://semopenalex.org/work/W2155878381', 'https://semopenalex.org/work/W61308258', 'https://semopenalex.org/work/W177260087', 'https://semopenalex.org/work/W2055897235', 'https://semopenalex.org/work/W4236474819', 'https://semopenalex.org/work/W1482090313', 'https://semopenalex.org/work/W4292013335', 'https://semopenalex.org/work/W116884602', 'https://semopenalex.org/work/W2100356383', 'https://semopenalex.org/work/W1510701494', 'https://semopenalex.org/work/W2501927875', 'https://semopenalex.org/work/W1555904986', 'https://semopenalex.org/work/W2768865949', 'https://semopenalex.org/work/W2056596857', 'https://semopenalex.org/work/W2402284853', 'https://semopenalex.org/work/W1536752040', 'https://semopenalex.org/work/W1575252762', 'https://semopenalex.org/work/W1576645054', 'https://semopenalex.org/work/W2157877717', 'https://semopenalex.org/work/W1528198126', 'https://semopenalex.org/work/W1971453213', 'https://semopenalex.org/work/W2126729622', 'https://semopenalex.org/work/W1582766542', 'https://semopenalex.org/work/W2241306549', 'https://semopenalex.org/work/W1481479141', 'https://semopenalex.org/work/W2322381474', 'https://semopenalex.org/work/W2497935614', 'https://semopenalex.org/work/W2258785380', 'https://semopenalex.org/work/W1533819156', 'https://semopenalex.org/work/W2159677278', 'https://semopenalex.org/work/W1976471311', 'https://semopenalex.org/work/W2023461062', 'https://semopenalex.org/work/W2087682696', 'https://semopenalex.org/work/W1489802521', 'https://semopenalex.org/work/W2113401317', 'https://semopenalex.org/work/W2274048031', 'https://semopenalex.org/work/W1584905179', 'https://semopenalex.org/work/W2146830885', 'https://semopenalex.org/work/W1504849558', 'https://semopenalex.org/work/W1575176919', 'https://semopenalex.org/work/W2912169901']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2897786071', 'https://semopenalex.org/work/W2891512295', 'https://semopenalex.org/work/W3021110371', 'https://semopenalex.org/work/W2768870947', 'https://semopenalex.org/work/W2896117075', 'https://semopenalex.org/work/W2972785924', 'https://semopenalex.org/work/W3187215878', 'https://semopenalex.org/work/W2953737621', 'https://semopenalex.org/work/W2748314524', 'https://semopenalex.org/work/W2956698489', 'https://semopenalex.org/work/W2889884420', 'https://semopenalex.org/work/W3159979295', 'https://semopenalex.org/work/W4388516580', 'https://semopenalex.org/work/W2992981726', 'https://semopenalex.org/work/W2954810672', 'https://semopenalex.org/work/W3165640481', 'https://semopenalex.org/work/W2550759882', 'https://semopenalex.org/work/W3006566709', 'https://semopenalex.org/work/W4285110082', 'https://semopenalex.org/work/W1655873221']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W1984905848', 'https://semopenalex.org/work/W2084452057', 'https://semopenalex.org/work/W1522292253', 'https://semopenalex.org/work/W2029593259', 'https://semopenalex.org/work/W2077395955', 'https://semopenalex.org/work/W1912917402', 'https://semopenalex.org/work/W1978468648', 'https://semopenalex.org/work/W2058758829', 'https://semopenalex.org/work/W2014659753', 'https://semopenalex.org/work/W2147427359', 'https://semopenalex.org/work/W2102195169', 'https://semopenalex.org/work/W2057938070', 'https://semopenalex.org/work/W2146661121', 'https://semopenalex.org/work/W1967044695', 'https://semopenalex.org/work/W2032444227', 'https://semopenalex.org/work/W2005155776', 'https://semopenalex.org/work/W1500154637', 'https://semopenalex.org/work/W1983778833', 'https://semopenalex.org/work/W2114233612', 'https://semopenalex.org/work/W3146442409']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/author/A5014866425', 'https://semopenalex.org/author/A5021985940', 'https://semopenalex.org/author/A5007195926', 'https://semopenalex.org/author/A5070920982', 'https://semopenalex.org/author/A5057380928', 'https://semopenalex.org/author/A5080758138', 'https://semopenalex.org/author/A5002385420', 'https://semopenalex.org/author/A5001183868', 'https://semopenalex.org/author/A5072220967', 'https://semopenalex.org/author/A5053771056', 'https://semopenalex.org/author/A5090449185', 'https://semopenalex.org/author/A5058247387', 'https://semopenalex.org/author/A5089975103', 'https://semopenalex.org/author/A5081184066', 'https://semopenalex.org/author/A5075932839', 'https://semopenalex.org/author/A5008995859', 'https://semopenalex.org/author/A5053751744', 'https://semopenalex.org/author/A5103031174', 'https://semopenalex.org/author/A5026577233', 'https://semopenalex.org/author/A5069762894', 'https://semopenalex.org/author/A5038296283', 'https://semopenalex.org/author/A5010474859', 'https://semopenalex.org/author/A5077257267', 'https://semopenalex.org/author/A5056693273', 'https://semopenalex.org/author/A5025631482', 'https://semopenalex.org/author/A5004960011', 'https://semopenalex.org/author/A5048273330', 'https://semopenalex.org/author/A5031511752', 'https://semopenalex.org/author/A5045837667', 'https://semopenalex.org/author/A5073723754', 'https://semopenalex.org/author/A5108261926', 'https://semopenalex.org/author/A5113449899', 'https://semopenalex.org/author/A5041301436', 'https://semopenalex.org/author/A5084821293', 'https://semopenalex.org/author/A5023950939', 'https://semopenalex.org/author/A5088359990', 'https://semopenalex.org/author/A5076497670', 'https://semopenalex.org/author/A5011572373', 'https://semopenalex.org/author/A5018214600', 'https://semopenalex.org/author/A5051593939', 'https://semopenalex.org/author/A5050865451', 'https://semopenalex.org/author/A5051905013', 'https://semopenalex.org/author/A5076283229', 'https://semopenalex.org/author/A5106099412', 'https://semopenalex.org/author/A5057682767', 'https://semopenalex.org/author/A5022335468', 'https://semopenalex.org/author/A5019247404', 'https://semopenalex.org/author/A5029499420', 'https://semopenalex.org/author/A5016671506', 'https://semopenalex.org/author/A5108075115', 'https://semopenalex.org/author/A5105200360', 'https://semopenalex.org/author/A5003945685', 'https://semopenalex.org/author/A5087477331', 'https://semopenalex.org/author/A5028549991', 'https://semopenalex.org/author/A5070832388', 'https://semopenalex.org/author/A5043739847', 'https://semopenalex.org/author/A5080334275', 'https://semopenalex.org/author/A5049148828', 'https://semopenalex.org/author/A5075723995', 'https://semopenalex.org/author/A5013955991', 'https://semopenalex.org/author/A5015327313', 'https://semopenalex.org/author/A5058021214', 'https://semopenalex.org/author/A5084600567', 'https://semopenalex.org/author/A5014610321', 'https://semopenalex.org/author/A5046764771', 'https://semopenalex.org/author/A5086336877', 'https://semopenalex.org/author/A5026157285', 'https://semopenalex.org/author/A5071409817', 'https://semopenalex.org/author/A5111572354', 'https://semopenalex.org/author/A5048660804', 'https://semopenalex.org/author/A5049954115', 'https://semopenalex.org/author/A5110589505', 'https://semopenalex.org/author/A5110328496', 'https://semopenalex.org/author/A5000625068', 'https://semopenalex.org/author/A5057375178', 'https://semopenalex.org/author/A5082591195', 'https://semopenalex.org/author/A5016577686', 'https://semopenalex.org/author/A5009439432', 'https://semopenalex.org/author/A5071834503', 'https://semopenalex.org/author/A5040706665', 'https://semopenalex.org/author/A5086827100', 'https://semopenalex.org/author/A5043204660', 'https://semopenalex.org/author/A5039693029', 'https://semopenalex.org/author/A5011141399', 'https://semopenalex.org/author/A5016964202', 'https://semopenalex.org/author/A5065832212', 'https://semopenalex.org/author/A5036435300', 'https://semopenalex.org/author/A5080127754', 'https://semopenalex.org/author/A5062807811', 'https://semopenalex.org/author/A5044052548', 'https://semopenalex.org/author/A5066907092', 'https://semopenalex.org/author/A5001142566', 'https://semopenalex.org/author/A5105862010', 'https://semopenalex.org/author/A5023469137', 'https://semopenalex.org/author/A5078581206', 'https://semopenalex.org/author/A5055271621', 'https://semopenalex.org/author/A5069650964', 'https://semopenalex.org/author/A5001965218', 'https://semopenalex.org/author/A5050938227', 'https://semopenalex.org/author/A5009207700', 'https://semopenalex.org/author/A5049320278', 'https://semopenalex.org/author/A5065490876', 'https://semopenalex.org/author/A5072706564', 'https://semopenalex.org/author/A5074093929', 'https://semopenalex.org/author/A5035398709', 'https://semopenalex.org/author/A5043305706', 'https://semopenalex.org/author/A5035580428', 'https://semopenalex.org/author/A5022523197', 'https://semopenalex.org/author/A5028596543', 'https://semopenalex.org/author/A5009615869', 'https://semopenalex.org/author/A5106082584', 'https://semopenalex.org/author/A5102610102', 'https://semopenalex.org/author/A5015154091', 'https://semopenalex.org/author/A5033957848', 'https://semopenalex.org/author/A5098014068', 'https://semopenalex.org/author/A5080729232', 'https://semopenalex.org/author/A5040600354', 'https://semopenalex.org/author/A5080836461', 'https://semopenalex.org/author/A5091510486', 'https://semopenalex.org/author/A5040950908', 'https://semopenalex.org/author/A5003446912', 'https://semopenalex.org/author/A5013110001', 'https://semopenalex.org/author/A5017760976', 'https://semopenalex.org/author/A5050062467', 'https://semopenalex.org/author/A5067143355', 'https://semopenalex.org/author/A5076861704', 'https://semopenalex.org/author/A5106076507', 'https://semopenalex.org/author/A5068664163', 'https://semopenalex.org/author/A5110460780', 'https://semopenalex.org/author/A5033311124', 'https://semopenalex.org/author/A5074238659', 'https://semopenalex.org/author/A5032703090', 'https://semopenalex.org/author/A5065696246', 'https://semopenalex.org/author/A5103532312', 'https://semopenalex.org/author/A5016116024', 'https://semopenalex.org/author/A5105909288', 'https://semopenalex.org/author/A5081468313', 'https://semopenalex.org/author/A5100746068', 'https://semopenalex.org/author/A5005993212', 'https://semopenalex.org/author/A5069790131', 'https://semopenalex.org/author/A5074789240', 'https://semopenalex.org/author/A5039651585', 'https://semopenalex.org/author/A5005238560', 'https://semopenalex.org/author/A5045376373', 'https://semopenalex.org/author/A5108282938', 'https://semopenalex.org/author/A5037735021', 'https://semopenalex.org/author/A5032218136', 'https://semopenalex.org/author/A5105388814', 'https://semopenalex.org/author/A5063808461', 'https://semopenalex.org/author/A5079336821', 'https://semopenalex.org/author/A5028491017', 'https://semopenalex.org/author/A5003377833', 'https://semopenalex.org/author/A5109878293', 'https://semopenalex.org/author/A5059658943', 'https://semopenalex.org/author/A5019200294', 'https://semopenalex.org/author/A5041856505', 'https://semopenalex.org/author/A5083984866', 'https://semopenalex.org/author/A5012311258', 'https://semopenalex.org/author/A5087238275', 'https://semopenalex.org/author/A5035549347', 'https://semopenalex.org/author/A5050428872', 'https://semopenalex.org/author/A5018323496', 'https://semopenalex.org/author/A5073656007', 'https://semopenalex.org/author/A5030117072']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/author/A5101619735', 'https://semopenalex.org/author/A5051642217', 'https://semopenalex.org/author/A5078921853', 'https://semopenalex.org/author/A5112907430', 'https://semopenalex.org/author/A5092106609', 'https://semopenalex.org/author/A5017353478', 'https://semopenalex.org/author/A5044578275', 'https://semopenalex.org/author/A5034037954', 'https://semopenalex.org/author/A5089362779', 'https://semopenalex.org/author/A5086346640', 'https://semopenalex.org/author/A5062261441', 'https://semopenalex.org/author/A5086787573', 'https://semopenalex.org/author/A5090529701', 'https://semopenalex.org/author/A5013421545', 'https://semopenalex.org/author/A5004507308', 'https://semopenalex.org/author/A5078555911', 'https://semopenalex.org/author/A5111252081', 'https://semopenalex.org/author/A5084373522', 'https://semopenalex.org/author/A5028395580', 'https://semopenalex.org/author/A5093495936', 'https://semopenalex.org/author/A5040925885', 'https://semopenalex.org/author/A5102720885', 'https://semopenalex.org/author/A5071109276', 'https://semopenalex.org/author/A5089983554', 'https://semopenalex.org/author/A5062553581', 'https://semopenalex.org/author/A5025631312', 'https://semopenalex.org/author/A5020939308', 'https://semopenalex.org/author/A5038581932', 'https://semopenalex.org/author/A5012375687', 'https://semopenalex.org/author/A5101845418', 'https://semopenalex.org/author/A5028750310', 'https://semopenalex.org/author/A5108988435', 'https://semopenalex.org/author/A5075061218', 'https://semopenalex.org/author/A5035247809', 'https://semopenalex.org/author/A5092276800', 'https://semopenalex.org/author/A5031601776', 'https://semopenalex.org/author/A5112596472', 'https://semopenalex.org/author/A5048521450', 'https://semopenalex.org/author/A5078461261', 'https://semopenalex.org/author/A5061675674', 'https://semopenalex.org/author/A5112900377', 'https://semopenalex.org/author/A5093415912', 'https://semopenalex.org/author/A5074316484', 'https://semopenalex.org/author/A5091453565', 'https://semopenalex.org/author/A5015144665', 'https://semopenalex.org/author/A5080374319', 'https://semopenalex.org/author/A5027096307', 'https://semopenalex.org/author/A5023645490', 'https://semopenalex.org/author/A5074486298', 'https://semopenalex.org/author/A5025632720', 'https://semopenalex.org/author/A5024581040', 'https://semopenalex.org/author/A5069922587', 'https://semopenalex.org/author/A5024584252', 'https://semopenalex.org/author/A5042413456', 'https://semopenalex.org/author/A5043204400', 'https://semopenalex.org/author/A5089914165', 'https://semopenalex.org/author/A5092276801', 'https://semopenalex.org/author/A5084631861', 'https://semopenalex.org/author/A5064387363', 'https://semopenalex.org/author/A5001454735', 'https://semopenalex.org/author/A5015356632', 'https://semopenalex.org/author/A5093413149', 'https://semopenalex.org/author/A5091298748', 'https://semopenalex.org/author/A5014205279', 'https://semopenalex.org/author/A5106808077', 'https://semopenalex.org/author/A5006430488', 'https://semopenalex.org/author/A5064622877', 'https://semopenalex.org/author/A5112387040', 'https://semopenalex.org/author/A5114057383', 'https://semopenalex.org/author/A5060768396', 'https://semopenalex.org/author/A5082863339', 'https://semopenalex.org/author/A5051221846', 'https://semopenalex.org/author/A5074393288']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/author/A5044628664', 'https://semopenalex.org/author/A5069815943', 'https://semopenalex.org/author/A5113723639', 'https://semopenalex.org/author/A5074589032', 'https://semopenalex.org/author/A5046366918', 'https://semopenalex.org/author/A5104053258', 'https://semopenalex.org/author/A5040926780', 'https://semopenalex.org/author/A5101223282', 'https://semopenalex.org/author/A5058321053', 'https://semopenalex.org/author/A5041069081', 'https://semopenalex.org/author/A5090735746', 'https://semopenalex.org/author/A5029196810', 'https://semopenalex.org/author/A5055129023', 'https://semopenalex.org/author/A5110867527', 'https://semopenalex.org/author/A5075050367', 'https://semopenalex.org/author/A5081627591', 'https://semopenalex.org/author/A5077656562', 'https://semopenalex.org/author/A5114257544', 'https://semopenalex.org/author/A5111299292', 'https://semopenalex.org/author/A5065215412', 'https://semopenalex.org/author/A5054436767', 'https://semopenalex.org/author/A5074074791', 'https://semopenalex.org/author/A5094966959', 'https://semopenalex.org/author/A5109894548', 'https://semopenalex.org/author/A5072570670', 'https://semopenalex.org/author/A5078249187', 'https://semopenalex.org/author/A5109056620', 'https://semopenalex.org/author/A5025851255', 'https://semopenalex.org/author/A5080362727', 'https://semopenalex.org/author/A5054239026', 'https://semopenalex.org/author/A5073739308', 'https://semopenalex.org/author/A5111957985', 'https://semopenalex.org/author/A5065662869', 'https://semopenalex.org/author/A5057006392', 'https://semopenalex.org/author/A5018309977', 'https://semopenalex.org/author/A5110293736', 'https://semopenalex.org/author/A5101815353', 'https://semopenalex.org/author/A5027434411', 'https://semopenalex.org/author/A5070430119', 'https://semopenalex.org/author/A5088742299', 'https://semopenalex.org/author/A5011271066', 'https://semopenalex.org/author/A5005290550', 'https://semopenalex.org/author/A5028489255', 'https://semopenalex.org/author/A5042185262', 'https://semopenalex.org/author/A5113979090', 'https://semopenalex.org/author/A5045348077', 'https://semopenalex.org/author/A5057833118', 'https://semopenalex.org/author/A5026576007', 'https://semopenalex.org/author/A5040481275', 'https://semopenalex.org/author/A5075748306', 'https://semopenalex.org/author/A5002964350', 'https://semopenalex.org/author/A5040682720', 'https://semopenalex.org/author/A5110244736', 'https://semopenalex.org/author/A5015977158', 'https://semopenalex.org/author/A5113669589', 'https://semopenalex.org/author/A5073803240', 'https://semopenalex.org/author/A5086297102', 'https://semopenalex.org/author/A5094850550', 'https://semopenalex.org/author/A5032040667', 'https://semopenalex.org/author/A5031914716', 'https://semopenalex.org/author/A5027650657', 'https://semopenalex.org/author/A5101843778', 'https://semopenalex.org/author/A5035006986', 'https://semopenalex.org/author/A5006842195', 'https://semopenalex.org/author/A5074567046', 'https://semopenalex.org/author/A5073749152', 'https://semopenalex.org/author/A5007832994', 'https://semopenalex.org/author/A5039203221', 'https://semopenalex.org/author/A5020701887', 'https://semopenalex.org/author/A5062087243', 'https://semopenalex.org/author/A5088803193', 'https://semopenalex.org/author/A5013806560', 'https://semopenalex.org/author/A5015192494', 'https://semopenalex.org/author/A5052558062', 'https://semopenalex.org/author/A5029995660', 'https://semopenalex.org/author/A5035328623', 'https://semopenalex.org/author/A5046291387', 'https://semopenalex.org/author/A5030697774', 'https://semopenalex.org/author/A5072916330', 'https://semopenalex.org/author/A5101159426', 'https://semopenalex.org/author/A5074598788', 'https://semopenalex.org/author/A5011208990', 'https://semopenalex.org/author/A5110879810', 'https://semopenalex.org/author/A5100428572', 'https://semopenalex.org/author/A5077947231', 'https://semopenalex.org/author/A5094850553', 'https://semopenalex.org/author/A5021139451', 'https://semopenalex.org/author/A5088935199', 'https://semopenalex.org/author/A5081846222', 'https://semopenalex.org/author/A5067111142', 'https://semopenalex.org/author/A5004978878', 'https://semopenalex.org/author/A5092591629', 'https://semopenalex.org/author/A5050603750', 'https://semopenalex.org/author/A5042981767', 'https://semopenalex.org/author/A5047034022', 'https://semopenalex.org/author/A5088805136', 'https://semopenalex.org/author/A5035241917', 'https://semopenalex.org/author/A5013164571', 'https://semopenalex.org/author/A5083067976', 'https://semopenalex.org/author/A5004095672', 'https://semopenalex.org/author/A5012057735', 'https://semopenalex.org/author/A5030954130', 'https://semopenalex.org/author/A5005357612', 'https://semopenalex.org/author/A5102845298', 'https://semopenalex.org/author/A5005645577', 'https://semopenalex.org/author/A5091888698', 'https://semopenalex.org/author/A5076209207', 'https://semopenalex.org/author/A5034842369', 'https://semopenalex.org/author/A5100563292', 'https://semopenalex.org/author/A5036018560', 'https://semopenalex.org/author/A5081380385', 'https://semopenalex.org/author/A5026923870', 'https://semopenalex.org/author/A5040457891', 'https://semopenalex.org/author/A5061493594', 'https://semopenalex.org/author/A5004693243', 'https://semopenalex.org/author/A5023532428', 'https://semopenalex.org/author/A5088083982', 'https://semopenalex.org/author/A5100436760', 'https://semopenalex.org/author/A5072444030', 'https://semopenalex.org/author/A5073513391', 'https://semopenalex.org/author/A5019810478', 'https://semopenalex.org/author/A5057143288', 'https://semopenalex.org/author/A5053876673', 'https://semopenalex.org/author/A5046196600', 'https://semopenalex.org/author/A5038024446', 'https://semopenalex.org/author/A5007943091', 'https://semopenalex.org/author/A5057963205', 'https://semopenalex.org/author/A5110866135', 'https://semopenalex.org/author/A5057579122', 'https://semopenalex.org/author/A5073410087', 'https://semopenalex.org/author/A5001240699', 'https://semopenalex.org/author/A5049495092', 'https://semopenalex.org/author/A5057685487', 'https://semopenalex.org/author/A5108609396', 'https://semopenalex.org/author/A5057083638', 'https://semopenalex.org/author/A5039301079', 'https://semopenalex.org/author/A5065466432', 'https://semopenalex.org/author/A5069815367', 'https://semopenalex.org/author/A5030785463', 'https://semopenalex.org/author/A5094850559', 'https://semopenalex.org/author/A5110360335', 'https://semopenalex.org/author/A5094850560', 'https://semopenalex.org/author/A5010169168', 'https://semopenalex.org/author/A5031522111', 'https://semopenalex.org/author/A5009578658', 'https://semopenalex.org/author/A5112770923', 'https://semopenalex.org/author/A5013828217', 'https://semopenalex.org/author/A5003443602', 'https://semopenalex.org/author/A5079894695', 'https://semopenalex.org/author/A5069695344', 'https://semopenalex.org/author/A5072902302', 'https://semopenalex.org/author/A5102146502', 'https://semopenalex.org/author/A5058422878', 'https://semopenalex.org/author/A5100458893', 'https://semopenalex.org/author/A5000563459', 'https://semopenalex.org/author/A5112705691', 'https://semopenalex.org/author/A5100425978', 'https://semopenalex.org/author/A5085424530', 'https://semopenalex.org/author/A5034690905', 'https://semopenalex.org/author/A5002266542', 'https://semopenalex.org/author/A5021792918', 'https://semopenalex.org/author/A5017841368', 'https://semopenalex.org/author/A5009498321', 'https://semopenalex.org/author/A5070309541', 'https://semopenalex.org/author/A5002874750', 'https://semopenalex.org/author/A5013031003', 'https://semopenalex.org/author/A5110568866', 'https://semopenalex.org/author/A5110866136', 'https://semopenalex.org/author/A5067291755', 'https://semopenalex.org/author/A5040530849', 'https://semopenalex.org/author/A5103726315', 'https://semopenalex.org/author/A5062882537', 'https://semopenalex.org/author/A5040540194', 'https://semopenalex.org/author/A5069829960', 'https://semopenalex.org/author/A5061625295', 'https://semopenalex.org/author/A5070478103', 'https://semopenalex.org/author/A5094966948', 'https://semopenalex.org/author/A5042070270', 'https://semopenalex.org/author/A5100928778', 'https://semopenalex.org/author/A5083967897', 'https://semopenalex.org/author/A5063515034', 'https://semopenalex.org/author/A5010466931', 'https://semopenalex.org/author/A5015400278', 'https://semopenalex.org/author/A5054875158', 'https://semopenalex.org/author/A5025012438', 'https://semopenalex.org/author/A5079309664', 'https://semopenalex.org/author/A5110126701', 'https://semopenalex.org/author/A5053715191', 'https://semopenalex.org/author/A5070045696', 'https://semopenalex.org/author/A5083053651', 'https://semopenalex.org/author/A5059675637', 'https://semopenalex.org/author/A5004548068', 'https://semopenalex.org/author/A5029732249', 'https://semopenalex.org/author/A5083689259', 'https://semopenalex.org/author/A5090610271', 'https://semopenalex.org/author/A5032586796', 'https://semopenalex.org/author/A5102135372', 'https://semopenalex.org/author/A5067664620', 'https://semopenalex.org/author/A5113750346', 'https://semopenalex.org/author/A5036580072', 'https://semopenalex.org/author/A5029543403', 'https://semopenalex.org/author/A5063043381', 'https://semopenalex.org/author/A5049348869', 'https://semopenalex.org/author/A5082652832', 'https://semopenalex.org/author/A5084563184', 'https://semopenalex.org/author/A5020223949', 'https://semopenalex.org/author/A5019863108', 'https://semopenalex.org/author/A5109550727', 'https://semopenalex.org/author/A5110970351', 'https://semopenalex.org/author/A5000889165', 'https://semopenalex.org/author/A5087685351', 'https://semopenalex.org/author/A5065516130', 'https://semopenalex.org/author/A5039368373', 'https://semopenalex.org/author/A5049244926', 'https://semopenalex.org/author/A5047925616', 'https://semopenalex.org/author/A5084114117', 'https://semopenalex.org/author/A5086046410', 'https://semopenalex.org/author/A5056612861', 'https://semopenalex.org/author/A5112789076', 'https://semopenalex.org/author/A5054904146', 'https://semopenalex.org/author/A5102775803', 'https://semopenalex.org/author/A5013975143', 'https://semopenalex.org/author/A5100418957', 'https://semopenalex.org/author/A5072028806', 'https://semopenalex.org/author/A5090335855', 'https://semopenalex.org/author/A5094966946', 'https://semopenalex.org/author/A5026619574', 'https://semopenalex.org/author/A5026731126', 'https://semopenalex.org/author/A5082559019', 'https://semopenalex.org/author/A5058658281', 'https://semopenalex.org/author/A5051949776', 'https://semopenalex.org/author/A5101159425', 'https://semopenalex.org/author/A5100426981', 'https://semopenalex.org/author/A5113653050', 'https://semopenalex.org/author/A5113667088', 'https://semopenalex.org/author/A5021496374', 'https://semopenalex.org/author/A5000203614', 'https://semopenalex.org/author/A5111874391', 'https://semopenalex.org/author/A5094966960', 'https://semopenalex.org/author/A5087206674', 'https://semopenalex.org/author/A5052396894', 'https://semopenalex.org/author/A5075931954', 'https://semopenalex.org/author/A5094966957', 'https://semopenalex.org/author/A5112014544', 'https://semopenalex.org/author/A5109232422', 'https://semopenalex.org/author/A5000285989', 'https://semopenalex.org/author/A5032060363', 'https://semopenalex.org/author/A5101159424', 'https://semopenalex.org/author/A5065634430', 'https://semopenalex.org/author/A5063943061', 'https://semopenalex.org/author/A5088120976', 'https://semopenalex.org/author/A5082617098', 'https://semopenalex.org/author/A5005503619', 'https://semopenalex.org/author/A5094966950', 'https://semopenalex.org/author/A5051435891', 'https://semopenalex.org/author/A5100353446', 'https://semopenalex.org/author/A5011147039', 'https://semopenalex.org/author/A5066794150', 'https://semopenalex.org/author/A5054687162', 'https://semopenalex.org/author/A5006412870', 'https://semopenalex.org/author/A5089148668', 'https://semopenalex.org/author/A5109550728', 'https://semopenalex.org/author/A5113716037', 'https://semopenalex.org/author/A5027495637', 'https://semopenalex.org/author/A5021519204', 'https://semopenalex.org/author/A5094966956', 'https://semopenalex.org/author/A5061791546', 'https://semopenalex.org/author/A5047487369', 'https://semopenalex.org/author/A5100678452', 'https://semopenalex.org/author/A5035713595', 'https://semopenalex.org/author/A5113537073', 'https://semopenalex.org/author/A5000527699', 'https://semopenalex.org/author/A5109401743', 'https://semopenalex.org/author/A5035879340', 'https://semopenalex.org/author/A5073590393', 'https://semopenalex.org/author/A5052771319', 'https://semopenalex.org/author/A5001888075', 'https://semopenalex.org/author/A5074596026', 'https://semopenalex.org/author/A5015415192', 'https://semopenalex.org/author/A5051259649', 'https://semopenalex.org/author/A5033142925', 'https://semopenalex.org/author/A5058048101', 'https://semopenalex.org/author/A5060375005', 'https://semopenalex.org/author/A5109557605', 'https://semopenalex.org/author/A5034482692', 'https://semopenalex.org/author/A5065946530', 'https://semopenalex.org/author/A5108112356', 'https://semopenalex.org/author/A5037590981', 'https://semopenalex.org/author/A5075602267', 'https://semopenalex.org/author/A5059726739', 'https://semopenalex.org/author/A5041758250', 'https://semopenalex.org/author/A5094966947', 'https://semopenalex.org/author/A5013290328', 'https://semopenalex.org/author/A5115595642', 'https://semopenalex.org/author/A5025298438', 'https://semopenalex.org/author/A5027345703', 'https://semopenalex.org/author/A5101164166', 'https://semopenalex.org/author/A5033358586', 'https://semopenalex.org/author/A5080593862', 'https://semopenalex.org/author/A5064864099', 'https://semopenalex.org/author/A5025025481', 'https://semopenalex.org/author/A5059663464', 'https://semopenalex.org/author/A5030396947', 'https://semopenalex.org/author/A5103176355', 'https://semopenalex.org/author/A5027994157', 'https://semopenalex.org/author/A5033806544', 'https://semopenalex.org/author/A5052111753', 'https://semopenalex.org/author/A5106680720', 'https://semopenalex.org/author/A5014584767', 'https://semopenalex.org/author/A5024892754', 'https://semopenalex.org/author/A5025998224', 'https://semopenalex.org/author/A5094850554', 'https://semopenalex.org/author/A5111877855', 'https://semopenalex.org/author/A5109550726', 'https://semopenalex.org/author/A5075933702', 'https://semopenalex.org/author/A5042669324', 'https://semopenalex.org/author/A5112770924', 'https://semopenalex.org/author/A5072234007', 'https://semopenalex.org/author/A5050785938', 'https://semopenalex.org/author/A5052097686', 'https://semopenalex.org/author/A5110225216', 'https://semopenalex.org/author/A5031092968', 'https://semopenalex.org/author/A5067216808', 'https://semopenalex.org/author/A5068502658', 'https://semopenalex.org/author/A5012860343', 'https://semopenalex.org/author/A5031002895', 'https://semopenalex.org/author/A5040815520', 'https://semopenalex.org/author/A5038742643', 'https://semopenalex.org/author/A5112318312', 'https://semopenalex.org/author/A5100698896', 'https://semopenalex.org/author/A5069460336', 'https://semopenalex.org/author/A5016900185', 'https://semopenalex.org/author/A5062073470', 'https://semopenalex.org/author/A5088969714', 'https://semopenalex.org/author/A5044848288', 'https://semopenalex.org/author/A5038114517', 'https://semopenalex.org/author/A5076724937', 'https://semopenalex.org/author/A5077149145', 'https://semopenalex.org/author/A5049158387', 'https://semopenalex.org/author/A5070025348', 'https://semopenalex.org/author/A5040178908', 'https://semopenalex.org/author/A5090198878', 'https://semopenalex.org/author/A5013152760', 'https://semopenalex.org/author/A5042204813', 'https://semopenalex.org/author/A5100732392', 'https://semopenalex.org/author/A5069065883', 'https://semopenalex.org/author/A5100390687', 'https://semopenalex.org/author/A5109550729', 'https://semopenalex.org/author/A5100760216', 'https://semopenalex.org/author/A5033256132', 'https://semopenalex.org/author/A5054694688', 'https://semopenalex.org/author/A5101525412', 'https://semopenalex.org/author/A5048205587', 'https://semopenalex.org/author/A5089085275', 'https://semopenalex.org/author/A5008144788', 'https://semopenalex.org/author/A5033517451', 'https://semopenalex.org/author/A5103256649', 'https://semopenalex.org/author/A5091752605', 'https://semopenalex.org/author/A5082861248', 'https://semopenalex.org/author/A5057416433', 'https://semopenalex.org/author/A5035534381', 'https://semopenalex.org/author/A5108866418', 'https://semopenalex.org/author/A5052057125', 'https://semopenalex.org/author/A5037317771', 'https://semopenalex.org/author/A5010873632', 'https://semopenalex.org/author/A5064540278', 'https://semopenalex.org/author/A5113926166', 'https://semopenalex.org/author/A5077182059', 'https://semopenalex.org/author/A5100613030', 'https://semopenalex.org/author/A5014845685', 'https://semopenalex.org/author/A5112385471', 'https://semopenalex.org/author/A5011383988', 'https://semopenalex.org/author/A5062953965', 'https://semopenalex.org/author/A5065938167', 'https://semopenalex.org/author/A5048011759', 'https://semopenalex.org/author/A5108166978', 'https://semopenalex.org/author/A5102756198', 'https://semopenalex.org/author/A5030803226', 'https://semopenalex.org/author/A5000830051', 'https://semopenalex.org/author/A5019071895', 'https://semopenalex.org/author/A5051357966', 'https://semopenalex.org/author/A5058288079', 'https://semopenalex.org/author/A5084014359', 'https://semopenalex.org/author/A5080136207', 'https://semopenalex.org/author/A5102455066', 'https://semopenalex.org/author/A5028279714', 'https://semopenalex.org/author/A5006986556', 'https://semopenalex.org/author/A5057228007', 'https://semopenalex.org/author/A5011958240', 'https://semopenalex.org/author/A5058021734', 'https://semopenalex.org/author/A5040920032', 'https://semopenalex.org/author/A5014053775', 'https://semopenalex.org/author/A5100350849', 'https://semopenalex.org/author/A5044500644', 'https://semopenalex.org/author/A5003775830', 'https://semopenalex.org/author/A5017945484', 'https://semopenalex.org/author/A5050409448', 'https://semopenalex.org/author/A5112307831', 'https://semopenalex.org/author/A5030807574', 'https://semopenalex.org/author/A5038743559', 'https://semopenalex.org/author/A5010413083', 'https://semopenalex.org/author/A5094850562', 'https://semopenalex.org/author/A5064138452', 'https://semopenalex.org/author/A5003399501', 'https://semopenalex.org/author/A5023475606', 'https://semopenalex.org/author/A5064932423', 'https://semopenalex.org/author/A5009197679', 'https://semopenalex.org/author/A5016460678', 'https://semopenalex.org/author/A5112789074', 'https://semopenalex.org/author/A5088485570', 'https://semopenalex.org/author/A5031841696', 'https://semopenalex.org/author/A5082724929', 'https://semopenalex.org/author/A5113502195', 'https://semopenalex.org/author/A5023277983', 'https://semopenalex.org/author/A5062066146', 'https://semopenalex.org/author/A5104016331', 'https://semopenalex.org/author/A5008094693', 'https://semopenalex.org/author/A5058899219', 'https://semopenalex.org/author/A5077839667', 'https://semopenalex.org/author/A5019451172', 'https://semopenalex.org/author/A5044367354', 'https://semopenalex.org/author/A5024594245', 'https://semopenalex.org/author/A5102185302', 'https://semopenalex.org/author/A5081277076', 'https://semopenalex.org/author/A5000810401', 'https://semopenalex.org/author/A5058766860', 'https://semopenalex.org/author/A5091863156', 'https://semopenalex.org/author/A5100329846', 'https://semopenalex.org/author/A5069481232', 'https://semopenalex.org/author/A5035044634', 'https://semopenalex.org/author/A5032514888', 'https://semopenalex.org/author/A5020549462', 'https://semopenalex.org/author/A5047735602', 'https://semopenalex.org/author/A5101725214', 'https://semopenalex.org/author/A5087781429', 'https://semopenalex.org/author/A5101835251', 'https://semopenalex.org/author/A5039019367', 'https://semopenalex.org/author/A5094966954', 'https://semopenalex.org/author/A5013719267', 'https://semopenalex.org/author/A5010139814', 'https://semopenalex.org/author/A5058506527', 'https://semopenalex.org/author/A5101754929', 'https://semopenalex.org/author/A5066368261', 'https://semopenalex.org/author/A5102722569', 'https://semopenalex.org/author/A5044745609', 'https://semopenalex.org/author/A5054677861', 'https://semopenalex.org/author/A5113619301', 'https://semopenalex.org/author/A5094966958', 'https://semopenalex.org/author/A5087025037', 'https://semopenalex.org/author/A5022655755', 'https://semopenalex.org/author/A5094966949', 'https://semopenalex.org/author/A5000045142', 'https://semopenalex.org/author/A5101729519', 'https://semopenalex.org/author/A5043857690', 'https://semopenalex.org/author/A5083755757', 'https://semopenalex.org/author/A5080481085', 'https://semopenalex.org/author/A5025747170', 'https://semopenalex.org/author/A5074788841', 'https://semopenalex.org/author/A5065638410', 'https://semopenalex.org/author/A5102461996', 'https://semopenalex.org/author/A5086959491', 'https://semopenalex.org/author/A5071892402', 'https://semopenalex.org/author/A5108795667', 'https://semopenalex.org/author/A5080195917', 'https://semopenalex.org/author/A5100866986', 'https://semopenalex.org/author/A5040341362', 'https://semopenalex.org/author/A5109618877', 'https://semopenalex.org/author/A5003335464', 'https://semopenalex.org/author/A5100439502', 'https://semopenalex.org/author/A5026925615', 'https://semopenalex.org/author/A5088560930', 'https://semopenalex.org/author/A5101080554', 'https://semopenalex.org/author/A5072728622', 'https://semopenalex.org/author/A5063071825', 'https://semopenalex.org/author/A5100389568', 'https://semopenalex.org/author/A5109040569', 'https://semopenalex.org/author/A5006214623', 'https://semopenalex.org/author/A5087315126', 'https://semopenalex.org/author/A5073780213', 'https://semopenalex.org/author/A5064358069', 'https://semopenalex.org/author/A5023770864', 'https://semopenalex.org/author/A5100308761', 'https://semopenalex.org/author/A5055669214', 'https://semopenalex.org/author/A5062356522', 'https://semopenalex.org/author/A5104808391', 'https://semopenalex.org/author/A5094850563', 'https://semopenalex.org/author/A5056480200', 'https://semopenalex.org/author/A5021385837', 'https://semopenalex.org/author/A5048567127', 'https://semopenalex.org/author/A5111965782', 'https://semopenalex.org/author/A5019114258', 'https://semopenalex.org/author/A5069616469', 'https://semopenalex.org/author/A5020890252', 'https://semopenalex.org/author/A5021976057', 'https://semopenalex.org/author/A5090533480', 'https://semopenalex.org/author/A5032948315', 'https://semopenalex.org/author/A5033778949', 'https://semopenalex.org/author/A5090185743', 'https://semopenalex.org/author/A5046114637', 'https://semopenalex.org/author/A5041359027', 'https://semopenalex.org/author/A5082932410', 'https://semopenalex.org/author/A5108754601', 'https://semopenalex.org/author/A5088731092', 'https://semopenalex.org/author/A5101159427', 'https://semopenalex.org/author/A5010667155', 'https://semopenalex.org/author/A5034996813', 'https://semopenalex.org/author/A5088694364', 'https://semopenalex.org/author/A5077352940', 'https://semopenalex.org/author/A5083932343', 'https://semopenalex.org/author/A5029808771', 'https://semopenalex.org/author/A5028142123', 'https://semopenalex.org/author/A5108795666', 'https://semopenalex.org/author/A5103860234', 'https://semopenalex.org/author/A5016341376', 'https://semopenalex.org/author/A5100531979', 'https://semopenalex.org/author/A5001078030', 'https://semopenalex.org/author/A5107204848', 'https://semopenalex.org/author/A5027348774', 'https://semopenalex.org/author/A5110468084', 'https://semopenalex.org/author/A5083965446', 'https://semopenalex.org/author/A5100382191', 'https://semopenalex.org/author/A5102461997', 'https://semopenalex.org/author/A5001699131', 'https://semopenalex.org/author/A5110866134', 'https://semopenalex.org/author/A5043740841', 'https://semopenalex.org/author/A5050624359', 'https://semopenalex.org/author/A5066279170', 'https://semopenalex.org/author/A5026707758', 'https://semopenalex.org/author/A5094850561', 'https://semopenalex.org/author/A5110432474', 'https://semopenalex.org/author/A5069142363', 'https://semopenalex.org/author/A5111745917', 'https://semopenalex.org/author/A5106121692', 'https://semopenalex.org/author/A5078310286', 'https://semopenalex.org/author/A5112796516', 'https://semopenalex.org/author/A5112770927', 'https://semopenalex.org/author/A5113491971', 'https://semopenalex.org/author/A5033908021', 'https://semopenalex.org/author/A5085413987', 'https://semopenalex.org/author/A5007690829', 'https://semopenalex.org/author/A5084544975', 'https://semopenalex.org/author/A5057391353', 'https://semopenalex.org/author/A5009296051', 'https://semopenalex.org/author/A5028655113', 'https://semopenalex.org/author/A5062058930', 'https://semopenalex.org/author/A5013993834', 'https://semopenalex.org/author/A5054624012', 'https://semopenalex.org/author/A5067334214', 'https://semopenalex.org/author/A5052937413', 'https://semopenalex.org/author/A5070309508', 'https://semopenalex.org/author/A5112789075', 'https://semopenalex.org/author/A5033607252', 'https://semopenalex.org/author/A5076181565', 'https://semopenalex.org/author/A5114085404', 'https://semopenalex.org/author/A5059112151', 'https://semopenalex.org/author/A5075449266', 'https://semopenalex.org/author/A5100307045', 'https://semopenalex.org/author/A5054833334', 'https://semopenalex.org/author/A5056986371', 'https://semopenalex.org/author/A5049740030', 'https://semopenalex.org/author/A5046691620', 'https://semopenalex.org/author/A5048006075', 'https://semopenalex.org/author/A5038398097', 'https://semopenalex.org/author/A5083759644', 'https://semopenalex.org/author/A5027703220', 'https://semopenalex.org/author/A5094966955', 'https://semopenalex.org/author/A5058940849', 'https://semopenalex.org/author/A5020293284', 'https://semopenalex.org/author/A5046907740', 'https://semopenalex.org/author/A5071699360', 'https://semopenalex.org/author/A5061668006', 'https://semopenalex.org/author/A5108134868', 'https://semopenalex.org/author/A5012514876', 'https://semopenalex.org/author/A5103447072', 'https://semopenalex.org/author/A5021964111', 'https://semopenalex.org/author/A5044651647', 'https://semopenalex.org/author/A5074969316', 'https://semopenalex.org/author/A5108854968', 'https://semopenalex.org/author/A5102676712', 'https://semopenalex.org/author/A5081082953', 'https://semopenalex.org/author/A5002400587', 'https://semopenalex.org/author/A5108322148', 'https://semopenalex.org/author/A5032959229', 'https://semopenalex.org/author/A5094850557', 'https://semopenalex.org/author/A5037435544', 'https://semopenalex.org/author/A5014706612', 'https://semopenalex.org/author/A5100681023', 'https://semopenalex.org/author/A5015406329', 'https://semopenalex.org/author/A5011886931', 'https://semopenalex.org/author/A5102836787', 'https://semopenalex.org/author/A5105408906', 'https://semopenalex.org/author/A5065892913', 'https://semopenalex.org/author/A5076222775', 'https://semopenalex.org/author/A5111408885', 'https://semopenalex.org/author/A5054944358', 'https://semopenalex.org/author/A5053204071', 'https://semopenalex.org/author/A5009940583', 'https://semopenalex.org/author/A5112194416', 'https://semopenalex.org/author/A5009982918', 'https://semopenalex.org/author/A5011287069', 'https://semopenalex.org/author/A5100437036', 'https://semopenalex.org/author/A5072385590', 'https://semopenalex.org/author/A5059992565', 'https://semopenalex.org/author/A5108450184', 'https://semopenalex.org/author/A5094850558', 'https://semopenalex.org/author/A5017534073', 'https://semopenalex.org/author/A5028602300', 'https://semopenalex.org/author/A5113164291', 'https://semopenalex.org/author/A5039508234', 'https://semopenalex.org/author/A5011092157', 'https://semopenalex.org/author/A5065844089', 'https://semopenalex.org/author/A5089847337', 'https://semopenalex.org/author/A5005192499', 'https://semopenalex.org/author/A5106691602', 'https://semopenalex.org/author/A5045601109', 'https://semopenalex.org/author/A5112770925', 'https://semopenalex.org/author/A5021047347', 'https://semopenalex.org/author/A5043574831', 'https://semopenalex.org/author/A5055164211', 'https://semopenalex.org/author/A5094850549', 'https://semopenalex.org/author/A5058644115', 'https://semopenalex.org/author/A5017549278', 'https://semopenalex.org/author/A5032100463', 'https://semopenalex.org/author/A5002366144', 'https://semopenalex.org/author/A5076828229', 'https://semopenalex.org/author/A5031901931', 'https://semopenalex.org/author/A5042189562', 'https://semopenalex.org/author/A5100421943', 'https://semopenalex.org/author/A5061880585', 'https://semopenalex.org/author/A5049314735', 'https://semopenalex.org/author/A5029701178', 'https://semopenalex.org/author/A5101535147', 'https://semopenalex.org/author/A5111747866', 'https://semopenalex.org/author/A5100353457', 'https://semopenalex.org/author/A5026800235', 'https://semopenalex.org/author/A5045614803', 'https://semopenalex.org/author/A5006074944', 'https://semopenalex.org/author/A5009158005', 'https://semopenalex.org/author/A5101558388', 'https://semopenalex.org/author/A5050944699', 'https://semopenalex.org/author/A5049803081', 'https://semopenalex.org/author/A5072837074', 'https://semopenalex.org/author/A5087961115', 'https://semopenalex.org/author/A5055397205', 'https://semopenalex.org/author/A5021741380', 'https://semopenalex.org/author/A5020905436', 'https://semopenalex.org/author/A5057180938', 'https://semopenalex.org/author/A5044086454', 'https://semopenalex.org/author/A5059045306', 'https://semopenalex.org/author/A5088241324', 'https://semopenalex.org/author/A5079760641', 'https://semopenalex.org/author/A5103141604', 'https://semopenalex.org/author/A5041317074', 'https://semopenalex.org/author/A5013759413', 'https://semopenalex.org/author/A5075283583', 'https://semopenalex.org/author/A5063124631', 'https://semopenalex.org/author/A5112770926', 'https://semopenalex.org/author/A5112433524', 'https://semopenalex.org/author/A5022809952', 'https://semopenalex.org/author/A5110866138', 'https://semopenalex.org/author/A5078631705', 'https://semopenalex.org/author/A5094966944', 'https://semopenalex.org/author/A5083460317', 'https://semopenalex.org/author/A5103267619', 'https://semopenalex.org/author/A5101941642', 'https://semopenalex.org/author/A5035731144', 'https://semopenalex.org/author/A5049144743', 'https://semopenalex.org/author/A5015181699', 'https://semopenalex.org/author/A5006284497', 'https://semopenalex.org/author/A5086794491', 'https://semopenalex.org/author/A5094966952', 'https://semopenalex.org/author/A5003817085', 'https://semopenalex.org/author/A5039281963', 'https://semopenalex.org/author/A5083002157', 'https://semopenalex.org/author/A5020691490', 'https://semopenalex.org/author/A5007728844', 'https://semopenalex.org/author/A5091510633', 'https://semopenalex.org/author/A5009425558', 'https://semopenalex.org/author/A5074308388', 'https://semopenalex.org/author/A5031513518', 'https://semopenalex.org/author/A5044014333', 'https://semopenalex.org/author/A5029000917', 'https://semopenalex.org/author/A5019187849', 'https://semopenalex.org/author/A5101505215', 'https://semopenalex.org/author/A5039946576', 'https://semopenalex.org/author/A5090679545', 'https://semopenalex.org/author/A5044990862', 'https://semopenalex.org/author/A5087123689', 'https://semopenalex.org/author/A5018037913', 'https://semopenalex.org/author/A5035030619', 'https://semopenalex.org/author/A5021090586', 'https://semopenalex.org/author/A5047323924', 'https://semopenalex.org/author/A5111920218', 'https://semopenalex.org/author/A5091820260', 'https://semopenalex.org/author/A5102832962', 'https://semopenalex.org/author/A5010793783', 'https://semopenalex.org/author/A5100695007', 'https://semopenalex.org/author/A5058473639', 'https://semopenalex.org/author/A5075544010', 'https://semopenalex.org/author/A5094850552', 'https://semopenalex.org/author/A5021048076', 'https://semopenalex.org/author/A5062934322', 'https://semopenalex.org/author/A5044657641', 'https://semopenalex.org/author/A5000004709', 'https://semopenalex.org/author/A5053913249', 'https://semopenalex.org/author/A5057173697', 'https://semopenalex.org/author/A5111246205', 'https://semopenalex.org/author/A5016330520', 'https://semopenalex.org/author/A5010063800', 'https://semopenalex.org/author/A5093323203', 'https://semopenalex.org/author/A5013796744', 'https://semopenalex.org/author/A5001294898', 'https://semop</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/author/A5103223639', 'https://semopenalex.org/author/A5081340873', 'https://semopenalex.org/author/A5066916130', 'https://semopenalex.org/author/A5101194950', 'https://semopenalex.org/author/A5100388627', 'https://semopenalex.org/author/A5085611398', 'https://semopenalex.org/author/A5070152860', 'https://semopenalex.org/author/A5089294104', 'https://semopenalex.org/author/A5049076146', 'https://semopenalex.org/author/A5103047914', 'https://semopenalex.org/author/A5081650066', 'https://semopenalex.org/author/A5049622460', 'https://semopenalex.org/author/A5050308989', 'https://semopenalex.org/author/A5041073042', 'https://semopenalex.org/author/A5023155310', 'https://semopenalex.org/author/A5101601497', 'https://semopenalex.org/author/A5079729956', 'https://semopenalex.org/author/A5100301259', 'https://semopenalex.org/author/A5072002680', 'https://semopenalex.org/author/A5002503342', 'https://semopenalex.org/author/A5032068969', 'https://semopenalex.org/author/A5072432956', 'https://semopenalex.org/author/A5074540830', 'https://semopenalex.org/author/A5040987266', 'https://semopenalex.org/author/A5101011726', 'https://semopenalex.org/author/A5100386104', 'https://semopenalex.org/author/A5102204689', 'https://semopenalex.org/author/A5047271595', 'https://semopenalex.org/author/A5110161847', 'https://semopenalex.org/author/A5076516205', 'https://semopenalex.org/author/A5086338440', 'https://semopenalex.org/author/A5100385498', 'https://semopenalex.org/author/A5101852647', 'https://semopenalex.org/author/A5056526226', 'https://semopenalex.org/author/A5012621594', 'https://semopenalex.org/author/A5100458045', 'https://semopenalex.org/author/A5100405159', 'https://semopenalex.org/author/A5100447531', 'https://semopenalex.org/author/A5081145634', 'https://semopenalex.org/author/A5077008083', 'https://semopenalex.org/author/A5100365555', 'https://semopenalex.org/author/A5053084752', 'https://semopenalex.org/author/A5101468661', 'https://semopenalex.org/author/A5000582109', 'https://semopenalex.org/author/A5100299966', 'https://semopenalex.org/author/A5102020713', 'https://semopenalex.org/author/A5045500611', 'https://semopenalex.org/author/A5006357713', 'https://semopenalex.org/author/A5018128809', 'https://semopenalex.org/author/A5103233342', 'https://semopenalex.org/author/A5061863093', 'https://semopenalex.org/author/A5101637945', 'https://semopenalex.org/author/A5051192643', 'https://semopenalex.org/author/A5100361984', 'https://semopenalex.org/author/A5059396373', 'https://semopenalex.org/author/A5100322125', 'https://semopenalex.org/author/A5040272202', 'https://semopenalex.org/author/A5059555100', 'https://semopenalex.org/author/A5087587101', 'https://semopenalex.org/author/A5085666756', 'https://semopenalex.org/author/A5103286574', 'https://semopenalex.org/author/A5101966381', 'https://semopenalex.org/author/A5102900280', 'https://semopenalex.org/author/A5081036622', 'https://semopenalex.org/author/A5101614814', 'https://semopenalex.org/author/A5027206285', 'https://semopenalex.org/author/A5101983121', 'https://semopenalex.org/author/A5100388609', 'https://semopenalex.org/author/A5085247180', 'https://semopenalex.org/author/A5000019783', 'https://semopenalex.org/author/A5113115887', 'https://semopenalex.org/author/A5005639930', 'https://semopenalex.org/author/A5011667547', 'https://semopenalex.org/author/A5050748634', 'https://semopenalex.org/author/A5100385507', 'https://semopenalex.org/author/A5030490896', 'https://semopenalex.org/author/A5100638997', 'https://semopenalex.org/author/A5039326697', 'https://semopenalex.org/author/A5101812436', 'https://semopenalex.org/author/A5102858698', 'https://semopenalex.org/author/A5100639062', 'https://semopenalex.org/author/A5102014459', 'https://semopenalex.org/author/A5056980315', 'https://semopenalex.org/author/A5101261545', 'https://semopenalex.org/author/A5021631329', 'https://semopenalex.org/author/A5026939932', 'https://semopenalex.org/author/A5056755949', 'https://semopenalex.org/author/A5022905724', 'https://semopenalex.org/author/A5054115813', 'https://semopenalex.org/author/A5101655978', 'https://semopenalex.org/author/A5100633784', 'https://semopenalex.org/author/A5102859232', 'https://semopenalex.org/author/A5088498790', 'https://semopenalex.org/author/A5081449581', 'https://semopenalex.org/author/A5101636662', 'https://semopenalex.org/author/A5000845080', 'https://semopenalex.org/author/A5040203716', 'https://semopenalex.org/author/A5058828089', 'https://semopenalex.org/author/A5100375823', 'https://semopenalex.org/author/A5019450472', 'https://semopenalex.org/author/A5103205784', 'https://semopenalex.org/author/A5036986396', 'https://semopenalex.org/author/A5013325392', 'https://semopenalex.org/author/A5025099559', 'https://semopenalex.org/author/A5101555891', 'https://semopenalex.org/author/A5101617703', 'https://semopenalex.org/author/A5060364305', 'https://semopenalex.org/author/A5100388599', 'https://semopenalex.org/author/A5091706559', 'https://semopenalex.org/author/A5000645139', 'https://semopenalex.org/author/A5110172698', 'https://semopenalex.org/author/A5100753039', 'https://semopenalex.org/author/A5077658936', 'https://semopenalex.org/author/A5100779597', 'https://semopenalex.org/author/A5069809962', 'https://semopenalex.org/author/A5010958113', 'https://semopenalex.org/author/A5068122240', 'https://semopenalex.org/author/A5042235813', 'https://semopenalex.org/author/A5102987690', 'https://semopenalex.org/author/A5011367069', 'https://semopenalex.org/author/A5072456187', 'https://semopenalex.org/author/A5107864790', 'https://semopenalex.org/author/A5100388597', 'https://semopenalex.org/author/A5102717988', 'https://semopenalex.org/author/A5100388716', 'https://semopenalex.org/author/A5100758675', 'https://semopenalex.org/author/A5100608460', 'https://semopenalex.org/author/A5100665833', 'https://semopenalex.org/author/A5081886276', 'https://semopenalex.org/author/A5016401353', 'https://semopenalex.org/author/A5024073253', 'https://semopenalex.org/author/A5021179945', 'https://semopenalex.org/author/A5054753279', 'https://semopenalex.org/author/A5074075949', 'https://semopenalex.org/author/A5048118068', 'https://semopenalex.org/author/A5024456332', 'https://semopenalex.org/author/A5039037722', 'https://semopenalex.org/author/A5073947585', 'https://semopenalex.org/author/A5012561478', 'https://semopenalex.org/author/A5015967363', 'https://semopenalex.org/author/A5100376204', 'https://semopenalex.org/author/A5049142567', 'https://semopenalex.org/author/A5013438083', 'https://semopenalex.org/author/A5042986574', 'https://semopenalex.org/author/A5047965752', 'https://semopenalex.org/author/A5036039721', 'https://semopenalex.org/author/A5006669765', 'https://semopenalex.org/author/A5005604635', 'https://semopenalex.org/author/A5101660937', 'https://semopenalex.org/author/A5109297018', 'https://semopenalex.org/author/A5100738974', 'https://semopenalex.org/author/A5023035566', 'https://semopenalex.org/author/A5100440010', 'https://semopenalex.org/author/A5114213934', 'https://semopenalex.org/author/A5064776947', 'https://semopenalex.org/author/A5025292884', 'https://semopenalex.org/author/A5043546718', 'https://semopenalex.org/author/A5065120715', 'https://semopenalex.org/author/A5044689090', 'https://semopenalex.org/author/A5003031253', 'https://semopenalex.org/author/A5010181158', 'https://semopenalex.org/author/A5068340305', 'https://semopenalex.org/author/A5017334961', 'https://semopenalex.org/author/A5100439996', 'https://semopenalex.org/author/A5028716858', 'https://semopenalex.org/author/A5084868951', 'https://semopenalex.org/author/A5100408010', 'https://semopenalex.org/author/A5007043113', 'https://semopenalex.org/author/A5011086593', 'https://semopenalex.org/author/A5108459503', 'https://semopenalex.org/author/A5101540631', 'https://semopenalex.org/author/A5077610917', 'https://semopenalex.org/author/A5034057959', 'https://semopenalex.org/author/A5019525050', 'https://semopenalex.org/author/A5101308414', 'https://semopenalex.org/author/A5101289775', 'https://semopenalex.org/author/A5015836405', 'https://semopenalex.org/author/A5100388581', 'https://semopenalex.org/author/A5100438174', 'https://semopenalex.org/author/A5100458090', 'https://semopenalex.org/author/A5101264794', 'https://semopenalex.org/author/A5100426931', 'https://semopenalex.org/author/A5076444296', 'https://semopenalex.org/author/A5100610450', 'https://semopenalex.org/author/A5033111691', 'https://semopenalex.org/author/A5075273130', 'https://semopenalex.org/author/A5103234102', 'https://semopenalex.org/author/A5043798385', 'https://semopenalex.org/author/A5115595561', 'https://semopenalex.org/author/A5032062525', 'https://semopenalex.org/author/A5032194564', 'https://semopenalex.org/author/A5101612059', 'https://semopenalex.org/author/A5114778131', 'https://semopenalex.org/author/A5058164381', 'https://semopenalex.org/author/A5100738977', 'https://semopenalex.org/author/A5081420063', 'https://semopenalex.org/author/A5046237164', 'https://semopenalex.org/author/A5084735407', 'https://semopenalex.org/author/A5100409885', 'https://semopenalex.org/author/A5100388576', 'https://semopenalex.org/author/A5100447682', 'https://semopenalex.org/author/A5102222159', 'https://semopenalex.org/author/A5100676331', 'https://semopenalex.org/author/A5030626281', 'https://semopenalex.org/author/A5009071576', 'https://semopenalex.org/author/A5100429004', 'https://semopenalex.org/author/A5050080938', 'https://semopenalex.org/author/A5087492388', 'https://semopenalex.org/author/A5043801432', 'https://semopenalex.org/author/A5002594574', 'https://semopenalex.org/author/A5049100391', 'https://semopenalex.org/author/A5077424533', 'https://semopenalex.org/author/A5100772234', 'https://semopenalex.org/author/A5101556258', 'https://semopenalex.org/author/A5004490190', 'https://semopenalex.org/author/A5009435651', 'https://semopenalex.org/author/A5024821632', 'https://semopenalex.org/author/A5077138780', 'https://semopenalex.org/author/A5100459874', 'https://semopenalex.org/author/A5067163535', 'https://semopenalex.org/author/A5052249316', 'https://semopenalex.org/author/A5002289161', 'https://semopenalex.org/author/A5100327487', 'https://semopenalex.org/author/A5102928967', 'https://semopenalex.org/author/A5074307489', 'https://semopenalex.org/author/A5045087569', 'https://semopenalex.org/author/A5065293581', 'https://semopenalex.org/author/A5090671359', 'https://semopenalex.org/author/A5021222755', 'https://semopenalex.org/author/A5100408160', 'https://semopenalex.org/author/A5009455568', 'https://semopenalex.org/author/A5100367807', 'https://semopenalex.org/author/A5058738211', 'https://semopenalex.org/author/A5100738980', 'https://semopenalex.org/author/A5018031899', 'https://semopenalex.org/author/A5100753041', 'https://semopenalex.org/author/A5084874990', 'https://semopenalex.org/author/A5026927053', 'https://semopenalex.org/author/A5027084532', 'https://semopenalex.org/author/A5000381434', 'https://semopenalex.org/author/A5013103539', 'https://semopenalex.org/author/A5059065212', 'https://semopenalex.org/author/A5103761162', 'https://semopenalex.org/author/A5088725475', 'https://semopenalex.org/author/A5067467896', 'https://semopenalex.org/author/A5041961808', 'https://semopenalex.org/author/A5023093639', 'https://semopenalex.org/author/A5100388617', 'https://semopenalex.org/author/A5100331488', 'https://semopenalex.org/author/A5022677467', 'https://semopenalex.org/author/A5073965511', 'https://semopenalex.org/author/A5100349346', 'https://semopenalex.org/author/A5100523187', 'https://semopenalex.org/author/A5038017715', 'https://semopenalex.org/author/A5100361632', 'https://semopenalex.org/author/A5012469172', 'https://semopenalex.org/author/A5040850915', 'https://semopenalex.org/author/A5100367825', 'https://semopenalex.org/author/A5067395122', 'https://semopenalex.org/author/A5060115298', 'https://semopenalex.org/author/A5100445622', 'https://semopenalex.org/author/A5055149708', 'https://semopenalex.org/author/A5103073505', 'https://semopenalex.org/author/A5107006112', 'https://semopenalex.org/author/A5052981404', 'https://semopenalex.org/author/A5103205468', 'https://semopenalex.org/author/A5075929099', 'https://semopenalex.org/author/A5100443727', 'https://semopenalex.org/author/A5111956187', 'https://semopenalex.org/author/A5069596903', 'https://semopenalex.org/author/A5034794084', 'https://semopenalex.org/author/A5101558050', 'https://semopenalex.org/author/A5043476448', 'https://semopenalex.org/author/A5055422837', 'https://semopenalex.org/author/A5088708850', 'https://semopenalex.org/author/A5052199638', 'https://semopenalex.org/author/A5077984014', 'https://semopenalex.org/author/A5035089987', 'https://semopenalex.org/author/A5058258996', 'https://semopenalex.org/author/A5035359666', 'https://semopenalex.org/author/A5100388644', 'https://semopenalex.org/author/A5100401412', 'https://semopenalex.org/author/A5036120394', 'https://semopenalex.org/author/A5113160035', 'https://semopenalex.org/author/A5033164669', 'https://semopenalex.org/author/A5100394129', 'https://semopenalex.org/author/A5115590096', 'https://semopenalex.org/author/A5069621751', 'https://semopenalex.org/author/A5100447691', 'https://semopenalex.org/author/A5100677820', 'https://semopenalex.org/author/A5052404451', 'https://semopenalex.org/author/A5009487151', 'https://semopenalex.org/author/A5085393851', 'https://semopenalex.org/author/A5065848808', 'https://semopenalex.org/author/A5090627608', 'https://semopenalex.org/author/A5025977354', 'https://semopenalex.org/author/A5100697624', 'https://semopenalex.org/author/A5033163346', 'https://semopenalex.org/author/A5079431306', 'https://semopenalex.org/author/A5005007374', 'https://semopenalex.org/author/A5058257080', 'https://semopenalex.org/author/A5100412598', 'https://semopenalex.org/author/A5088646345', 'https://semopenalex.org/author/A5100349343', 'https://semopenalex.org/author/A5048041198', 'https://semopenalex.org/author/A5025839857', 'https://semopenalex.org/author/A5030997313', 'https://semopenalex.org/author/A5033542967']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2056938644', '2020', 'https://semopenalex.org/work/W4200567986', '2009', 'https://semopenalex.org/work/W3081722247', 'https://semopenalex.org/work/W1538014482', 'https://semopenalex.org/work/W4229332766', 'https://semopenalex.org/work/W1497260915', 'https://semopenalex.org/work/W3042971551', 'https://semopenalex.org/work/W2132176043', 'https://semopenalex.org/work/W1992481796', 'https://semopenalex.org/work/W2259681201', '2008', 'https://semopenalex.org/work/W4312466951', 'https://semopenalex.org/work/W2166474382', 'https://semopenalex.org/work/W2460327056', 'https://semopenalex.org/work/W4283727356', 'https://semopenalex.org/work/W4389542639', 'https://semopenalex.org/work/W2948842040', 'https://semopenalex.org/work/W2883605426', 'https://semopenalex.org/work/W2574426197', 'https://semopenalex.org/work/W2984980523', 'https://semopenalex.org/work/W2002565472', '2019', 'https://semopenalex.org/work/W1975460851', 'https://semopenalex.org/work/W2517469201', 'https://semopenalex.org/work/W2469358968', 'https://semopenalex.org/work/W2729358317', 'https://semopenalex.org/work/W2198531583', 'https://semopenalex.org/work/W4283719869', 'https://semopenalex.org/work/W1500793049', 'https://semopenalex.org/work/W2188075483', 'https://semopenalex.org/work/W2948301006', 'https://semopenalex.org/work/W3119942460', 'https://semopenalex.org/work/W2040041660', 'https://semopenalex.org/work/W4396774950', 'https://semopenalex.org/work/W2906936538', 'https://semopenalex.org/work/W2080778070', 'https://semopenalex.org/work/W2559459321', 'https://semopenalex.org/work/W3094530900', 'https://semopenalex.org/work/W1642534804', 'https://semopenalex.org/work/W4402111012', 'https://semopenalex.org/work/W2201795542', 'https://semopenalex.org/work/W2912718446', 'https://semopenalex.org/work/W2979306097', 'https://semopenalex.org/work/W2895960982', 'https://semopenalex.org/work/W2768867910', 'https://semopenalex.org/work/W2810777165', 'https://semopenalex.org/work/W2980909386', 'https://semopenalex.org/work/W1966638294', 'https://semopenalex.org/work/W577437274', 'https://semopenalex.org/work/W2742357289', 'https://semopenalex.org/work/W4200171350', 'https://semopenalex.org/work/W4405721239', 'https://semopenalex.org/work/W4388442457', 'https://semopenalex.org/work/W3020102474', 'https://semopenalex.org/work/W1990881389', 'https://semopenalex.org/work/W4225665789', '2012', 'https://semopenalex.org/work/W2786699184', '2014', '2013', '2010', 'https://semopenalex.org/work/W2146499289', 'https://semopenalex.org/work/W2916024294', 'https://semopenalex.org/work/W1517780295', '2022', 'https://semopenalex.org/work/W2160324252', '2021', '2016', 'https://semopenalex.org/work/W2509319904', 'https://semopenalex.org/work/W3216430907', '2011', 'https://semopenalex.org/work/W4205142910', '2017', 'https://semopenalex.org/work/W2064795090', 'https://semopenalex.org/work/W2781983165', 'https://semopenalex.org/work/W2080816360', 'https://semopenalex.org/work/W2943023300', 'https://semopenalex.org/work/W2525447956', 'https://semopenalex.org/work/W2898652465', 'https://semopenalex.org/work/W4312342218', 'https://semopenalex.org/work/W2056876297', 'https://semopenalex.org/work/W2108772193', 'https://semopenalex.org/work/W2948077456', 'https://semopenalex.org/work/W2767279489', 'https://semopenalex.org/work/W1970969056', 'https://semopenalex.org/work/W2137973352', 'https://semopenalex.org/work/W2905245385', '2015', '2007', 'https://semopenalex.org/work/W2103141465', 'https://semopenalex.org/work/W2139123718', 'https://semopenalex.org/work/W2898517899', 'https://semopenalex.org/work/W12409091', 'https://semopenalex.org/work/W4386658225', 'https://semopenalex.org/work/W1524855866', 'https://semopenalex.org/work/W2066797554', 'https://semopenalex.org/work/W2102571324', 'https://semopenalex.org/work/W3196969850', 'https://semopenalex.org/work/W3146074607', 'https://semopenalex.org/work/W1997556505', '2018', 'https://semopenalex.org/work/W4389542588', 'https://semopenalex.org/work/W2140663815', '2024', 'https://semopenalex.org/work/W2600317709', 'https://semopenalex.org/work/W4394843643', 'https://semopenalex.org/work/W2974391363', 'https://semopenalex.org/work/W2066079643', 'https://semopenalex.org/work/W2773748254', '2023', 'https://semopenalex.org/work/W2614777946', 'https://semopenalex.org/work/W2013683587', 'https://semopenalex.org/work/W3183223328', 'https://semopenalex.org/work/W2062582789', 'https://semopenalex.org/work/W3003315047', 'https://semopenalex.org/work/W4200300839']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W4396834139', 'https://semopenalex.org/work/W2056107633', 'https://semopenalex.org/work/W4391557816', 'https://semopenalex.org/work/W1980398466', 'https://semopenalex.org/work/W2060079309', 'https://semopenalex.org/work/W2321612665', 'https://semopenalex.org/work/W2149715509', 'https://semopenalex.org/work/W1493840483', 'https://semopenalex.org/work/W2048594604', '2008', 'https://semopenalex.org/work/W1642870482', '2000', 'https://semopenalex.org/work/W2095348061', 'https://semopenalex.org/work/W4246379538', 'https://semopenalex.org/work/W2967203127', 'https://semopenalex.org/work/W2082828794', '2019', '1992', 'https://semopenalex.org/work/W1482898154', 'https://semopenalex.org/work/W1978378406', '1999', 'https://semopenalex.org/work/W2052803038', 'https://semopenalex.org/work/W1963588025', 'https://semopenalex.org/work/W1488675150', 'https://semopenalex.org/work/W2066384515', 'https://semopenalex.org/work/W2034879085', 'https://semopenalex.org/work/W2981960449', 'https://semopenalex.org/work/W2015300509', 'https://semopenalex.org/work/W1994268719', 'https://semopenalex.org/work/W2740307317', 'https://semopenalex.org/work/W2013852366', 'https://semopenalex.org/work/W2064203047', 'https://semopenalex.org/work/W1991387415', 'https://semopenalex.org/work/W1971692815', 'https://semopenalex.org/work/W2911371235', 'https://semopenalex.org/work/W271420439', 'https://semopenalex.org/work/W3099956427', 'https://semopenalex.org/work/W1999301998', 'https://semopenalex.org/work/W1586441079', 'https://semopenalex.org/work/W4391576382', 'https://semopenalex.org/work/W2586297834', 'https://semopenalex.org/work/W2042363186', 'https://semopenalex.org/work/W3186140780', 'https://semopenalex.org/work/W2519868173', 'https://semopenalex.org/work/W3187719451', 'https://semopenalex.org/work/W2019485788', 'https://semopenalex.org/work/W2141743206', 'https://semopenalex.org/work/W2018066983', 'https://semopenalex.org/work/W2024862092', 'https://semopenalex.org/work/W2045093348', 'https://semopenalex.org/work/W1996943196', 'https://semopenalex.org/work/W1998795403', 'https://semopenalex.org/work/W4310675622', 'https://semopenalex.org/work/W1534206021', 'https://semopenalex.org/work/W2159171681', '2002', 'https://semopenalex.org/work/W2059404749', 'https://semopenalex.org/work/W4387369259', 'https://semopenalex.org/work/W3210579564', 'https://semopenalex.org/work/W2907116503', 'https://semopenalex.org/work/W2078772434', 'https://semopenalex.org/work/W2806474598', '1995', 'https://semopenalex.org/work/W4236338365', 'https://semopenalex.org/work/W1483874444', '1990', 'https://semopenalex.org/work/W2103980580', 'https://semopenalex.org/work/W1571746062', 'https://semopenalex.org/work/W59566743', 'https://semopenalex.org/work/W2082384466', 'https://semopenalex.org/work/W2031817635', 'https://semopenalex.org/work/W4287181600', 'https://semopenalex.org/work/W2068795451', 'https://semopenalex.org/work/W2091157920', 'https://semopenalex.org/work/W2063577352', 'https://semopenalex.org/work/W1971442254', 'https://semopenalex.org/work/W4200608769', 'https://semopenalex.org/work/W2088364977', 'https://semopenalex.org/work/W4233343837', 'https://semopenalex.org/work/W587725430', 'https://semopenalex.org/work/W3215761223', 'https://semopenalex.org/work/W1997306318', 'https://semopenalex.org/work/W2015654341', 'https://semopenalex.org/work/W3086185107', 'https://semopenalex.org/work/W2794164678', 'https://semopenalex.org/work/W2294796949', 'https://semopenalex.org/work/W2024118499', 'https://semopenalex.org/work/W2740400228', 'https://semopenalex.org/work/W114265811', 'https://semopenalex.org/work/W1969945850', 'https://semopenalex.org/work/W2047028790', 'https://semopenalex.org/work/W1541797976', 'https://semopenalex.org/work/W2086246711', 'https://semopenalex.org/work/W1626960189', 'https://semopenalex.org/work/W2741097543', 'https://semopenalex.org/work/W2318907015', '2023', 'https://semopenalex.org/work/W2139709384', 'https://semopenalex.org/work/W2026838985', 'https://semopenalex.org/work/W1499410424', 'https://semopenalex.org/work/W3093178321', 'https://semopenalex.org/work/W2188694906', 'https://semopenalex.org/work/W2031648687', 'https://semopenalex.org/work/W3172391588', '2006', 'https://semopenalex.org/work/W155659472', 'https://semopenalex.org/work/W2036899994', 'https://semopenalex.org/work/W2972361592', 'https://semopenalex.org/work/W2794398634', 'https://semopenalex.org/work/W2089282138', 'https://semopenalex.org/work/W3164758514', 'https://semopenalex.org/work/W2902178958', 'https://semopenalex.org/work/W2040609124', 'https://semopenalex.org/work/W1980181148', 'https://semopenalex.org/work/W3123688625', 'https://semopenalex.org/work/W2099159979', 'https://semopenalex.org/work/W2033093837', 'https://semopenalex.org/work/W1538532853', 'https://semopenalex.org/work/W2908219036', 'https://semopenalex.org/work/W1627595726', 'https://semopenalex.org/work/W2068480341', 'https://semopenalex.org/work/W2546727279', 'https://semopenalex.org/work/W1568305781', 'https://semopenalex.org/work/W4386839651', 'https://semopenalex.org/work/W2018524889', 'https://semopenalex.org/work/W765595559', 'https://semopenalex.org/work/W2322341239', 'https://semopenalex.org/work/W2025128474', 'https://semopenalex.org/work/W2034102356', 'https://semopenalex.org/work/W2056299701', 'https://semopenalex.org/work/W3141654796', 'https://semopenalex.org/work/W3134945624', 'https://semopenalex.org/work/W1582123288', 'https://semopenalex.org/work/W1548136344', 'https://semopenalex.org/work/W2018479594', 'https://semopenalex.org/work/W2953838456', '2001', 'https://semopenalex.org/work/W1923840883', 'https://semopenalex.org/work/W3204819535', 'https://semopenalex.org/work/W1998199254', 'https://semopenalex.org/work/W2014780299', 'https://semopenalex.org/work/W2163782890', 'https://semopenalex.org/work/W2403016749', 'https://semopenalex.org/work/W4289550469', 'https://semopenalex.org/work/W2067087217', 'https://semopenalex.org/work/W3013319791', 'https://semopenalex.org/work/W2053743818', 'https://semopenalex.org/work/W1976208484', 'https://semopenalex.org/work/W2184658787', 'https://semopenalex.org/work/W2005047913', 'https://semopenalex.org/work/W4234847110', 'https://semopenalex.org/work/W1571134169', '2014', '2013', 'https://semopenalex.org/work/W1592037243', '2022', 'https://semopenalex.org/work/W2000276917', 'https://semopenalex.org/work/W1972674390', 'https://semopenalex.org/work/W3182865346', 'https://semopenalex.org/work/W1980339999', 'https://semopenalex.org/work/W3048651111', '2011', 'https://semopenalex.org/work/W2159096374', 'https://semopenalex.org/work/W2936573717', 'https://semopenalex.org/work/W4205672682', 'https://semopenalex.org/work/W2066159379', 'https://semopenalex.org/work/W2024647633', '1988', 'https://semopenalex.org/work/W122482311', 'https://semopenalex.org/work/W1529164293', '1996', 'https://semopenalex.org/work/W2072934778', 'https://semopenalex.org/work/W4244974359', 'https://semopenalex.org/work/W2064071960', 'https://semopenalex.org/work/W2036885459', 'https://semopenalex.org/work/W2064750873', 'https://semopenalex.org/work/W2971754524', '1989', 'https://semopenalex.org/work/W2085636994', '2007', 'https://semopenalex.org/work/W2396349253', 'https://semopenalex.org/work/W2954465656', 'https://semopenalex.org/work/W2077125930', 'https://semopenalex.org/work/W1989871831', '2018', 'https://semopenalex.org/work/W2021951536', 'https://semopenalex.org/work/W4391584745', '1998', 'https://semopenalex.org/work/W2408459291', 'https://semopenalex.org/work/W1980538662', 'https://semopenalex.org/work/W4318576546', 'https://semopenalex.org/work/W3022018820', 'https://semopenalex.org/work/W2529218823', 'https://semopenalex.org/work/W4220672614', 'https://semopenalex.org/work/W3107218220', 'https://semopenalex.org/work/W2888133949', 'https://semopenalex.org/work/W2082205855', 'https://semopenalex.org/work/W2079056716', '2020', 'https://semopenalex.org/work/W4252122816', 'https://semopenalex.org/work/W1971669936', 'https://semopenalex.org/work/W2039177656', 'https://semopenalex.org/work/W4391919454', 'https://semopenalex.org/work/W1984581406', 'https://semopenalex.org/work/W2181066623', 'https://semopenalex.org/work/W2916929771', 'https://semopenalex.org/work/W2020339925', 'https://semopenalex.org/work/W2320939443', '2003', 'https://semopenalex.org/work/W2981009321', 'https://semopenalex.org/work/W2029809197', 'https://semopenalex.org/work/W2605361690', 'https://semopenalex.org/work/W3201942466', 'https://semopenalex.org/work/W2986810074', 'https://semopenalex.org/work/W2320355062', 'https://semopenalex.org/work/W2994628337', 'https://semopenalex.org/work/W2118421206', 'https://semopenalex.org/work/W345501370', 'https://semopenalex.org/work/W1518779212', 'https://semopenalex.org/work/W64488262', 'https://semopenalex.org/work/W2060278984', 'https://semopenalex.org/work/W1989356517', 'https://semopenalex.org/work/W2073607636', '2005', 'https://semopenalex.org/work/W2329631935', 'https://semopenalex.org/work/W2009454976', 'https://semopenalex.org/work/W2040936263', '1993', 'https://semopenalex.org/work/W2341377059', 'https://semopenalex.org/work/W2060044229', 'https://semopenalex.org/work/W2006066088', 'https://semopenalex.org/work/W4391684807', 'https://semopenalex.org/work/W2480234826', 'https://semopenalex.org/work/W1997386279', 'https://semopenalex.org/work/W640245575', 'https://semopenalex.org/work/W1990837339', 'https://semopenalex.org/work/W3082374779', 'https://semopenalex.org/work/W2040105294', 'https://semopenalex.org/work/W290569047', '1997', 'https://semopenalex.org/work/W2075668496', 'https://semopenalex.org/work/W2020099687', 'https://semopenalex.org/work/W1975309265', 'https://semopenalex.org/work/W2020712407', 'https://semopenalex.org/work/W2915836981', 'https://semopenalex.org/work/W2189456133', 'https://semopenalex.org/work/W2049819358', '2012', '2010', 'https://semopenalex.org/work/W79922955', 'https://semopenalex.org/work/W1982863708', 'https://semopenalex.org/work/W2087554799', '2016', 'https://semopenalex.org/work/W1532383649', 'https://semopenalex.org/work/W2122646293', 'https://semopenalex.org/work/W1984650460', 'https://semopenalex.org/work/W1967174927', 'https://semopenalex.org/work/W2901921285', 'https://semopenalex.org/work/W2038358052', 'https://semopenalex.org/work/W1524171891', 'https://semopenalex.org/work/W2574243370', 'https://semopenalex.org/work/W4318317915', 'https://semopenalex.org/work/W2052873271', 'https://semopenalex.org/work/W3194232761', 'https://semopenalex.org/work/W2171624691', 'https://semopenalex.org/work/W2009485101', 'https://semopenalex.org/work/W3156243247', 'https://semopenalex.org/work/W1984806471', 'https://semopenalex.org/work/W2790855759', 'https://semopenalex.org/work/W2006143633', 'https://semopenalex.org/work/W2324664326', 'https://semopenalex.org/work/W2058095168', 'https://semopenalex.org/work/W2029526684', 'https://semopenalex.org/work/W2026432018', 'https://semopenalex.org/work/W1588649624', 'https://semopenalex.org/work/W2900728215', 'https://semopenalex.org/work/W2075479682', 'https://semopenalex.org/work/W189886228', 'https://semopenalex.org/work/W1988313245', 'https://semopenalex.org/work/W615969866', 'https://semopenalex.org/work/W2061225966', '2009', 'https://semopenalex.org/work/W4390692864', 'https://semopenalex.org/work/W4200283911', '2004', 'https://semopenalex.org/work/W2147842842', 'https://semopenalex.org/work/W4390590432', 'https://semopenalex.org/work/W2139753795', 'https://semopenalex.org/work/W3055495201', 'https://semopenalex.org/work/W2014778994', 'https://semopenalex.org/work/W2010445406', 'https://semopenalex.org/work/W1569869406', 'https://semopenalex.org/work/W1993189855', 'https://semopenalex.org/work/W4324359863', 'https://semopenalex.org/work/W2027241951', 'https://semopenalex.org/work/W960409938', 'https://semopenalex.org/work/W2081767341', 'https://semopenalex.org/work/W44005048', 'https://semopenalex.org/work/W2012782208', 'https://semopenalex.org/work/W3019575017', 'https://semopenalex.org/work/W2328140270', 'https://semopenalex.org/work/W3041642278', 'https://semopenalex.org/work/W90687014', 'https://semopenalex.org/work/W2991263707', 'https://semopenalex.org/work/W1522203859', 'https://semopenalex.org/work/W3041037395', 'https://semopenalex.org/work/W2117441316', 'https://semopenalex.org/work/W2043459596', 'https://semopenalex.org/work/W37516516', 'https://semopenalex.org/work/W1968243561', 'https://semopenalex.org/work/W1971381096', 'https://semopenalex.org/work/W1627805657', 'https://semopenalex.org/work/W4400238212', 'https://semopenalex.org/work/W2101249352', 'https://semopenalex.org/work/W4394293467', 'https://semopenalex.org/work/W628030466', 'https://semopenalex.org/work/W3161899512', 'https://semopenalex.org/work/W130774596', 'https://semopenalex.org/work/W2004547728', 'https://semopenalex.org/work/W2969418178', 'https://semopenalex.org/work/W2060618382', 'https://semopenalex.org/work/W2913016194', 'https://semopenalex.org/work/W3128935797', 'https://semopenalex.org/work/W2014643492', 'https://semopenalex.org/work/W3214447632', 'https://semopenalex.org/work/W163429763', 'https://semopenalex.org/work/W3164155241', 'https://semopenalex.org/work/W1964555225', '1994', 'https://semopenalex.org/work/W2079988974', 'https://semopenalex.org/work/W4394769646', 'https://semopenalex.org/work/W4390414690', 'https://semopenalex.org/work/W2009119025', 'https://semopenalex.org/work/W228755155', 'https://semopenalex.org/work/W39620704', '1991', 'https://semopenalex.org/work/W2016681672', 'https://semopenalex.org/work/W3016411318', 'https://semopenalex.org/work/W2018135193', 'https://semopenalex.org/work/W2087976428', 'https://semopenalex.org/work/W2128595589', 'https://semopenalex.org/work/W1517481378', 'https://semopenalex.org/work/W1560941242', 'https://semopenalex.org/work/W1964363507', 'https://semopenalex.org/work/W3142609865', 'https://semopenalex.org/work/W4224286726', '2021', 'https://semopenalex.org/work/W1534449133', 'https://semopenalex.org/work/W2054169789', 'https://semopenalex.org/work/W2045865242', '2017', 'https://semopenalex.org/work/W636573060', 'https://semopenalex.org/work/W1993275030', 'https://semopenalex.org/work/W2046072928', 'https://semopenalex.org/work/W2158287526', 'https://semopenalex.org/work/W2154600304', 'https://semopenalex.org/work/W1987911893', 'https://semopenalex.org/work/W4394073022', 'https://semopenalex.org/work/W2120673833', 'https://semopenalex.org/work/W4393866936', 'https://semopenalex.org/work/W2019047238', 'https://semopenalex.org/work/W2928015644', 'https://semopenalex.org/work/W2970442706', '2015', 'https://semopenalex.org/work/W2132391420', 'https://semopenalex.org/work/W3111295426', 'https://semopenalex.org/work/W2086040860', 'https://semopenalex.org/work/W2093931098', 'https://semopenalex.org/work/W4249450441', 'https://semopenalex.org/work/W1984615968', 'https://semopenalex.org/work/W4206649883', 'https://semopenalex.org/work/W190160164', 'https://semopenalex.org/work/W1968149011', '2024', 'https://semopenalex.org/work/W2030939912', 'https://semopenalex.org/work/W2040086856', 'https://semopenalex.org/work/W2368782544']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W1990261461', '2020', 'https://semopenalex.org/work/W4318969761', 'https://semopenalex.org/work/W2159712833', 'https://semopenalex.org/work/W4318969752', 'https://semopenalex.org/work/W2135271216', 'https://semopenalex.org/work/W2996961199', '2008', 'https://semopenalex.org/work/W4239254136', 'https://semopenalex.org/work/W3041964291', 'https://semopenalex.org/work/W4206136645', '2000', 'https://semopenalex.org/work/W2801259407', 'https://semopenalex.org/work/W2729199241', 'https://semopenalex.org/work/W4391020903', 'https://semopenalex.org/work/W2955275107', 'https://semopenalex.org/work/W2127452154', '2003', 'https://semopenalex.org/work/W1555253378', 'https://semopenalex.org/work/W2082820802', '2019', 'https://semopenalex.org/work/W3007496018', 'https://semopenalex.org/work/W2139703143', 'https://semopenalex.org/work/W2547002293', 'https://semopenalex.org/work/W4318970035', 'https://semopenalex.org/work/W2548922933', 'https://semopenalex.org/work/W4210903074', 'https://semopenalex.org/work/W2043900241', 'https://semopenalex.org/work/W2047881046', 'https://semopenalex.org/work/W3163829155', '2005', 'https://semopenalex.org/work/W2921631969', 'https://semopenalex.org/work/W3208795980', 'https://semopenalex.org/work/W2550443172', 'https://semopenalex.org/work/W1589540126', 'https://semopenalex.org/work/W2296064032', 'https://semopenalex.org/work/W2109866355', 'https://semopenalex.org/work/W3168704806', 'https://semopenalex.org/work/W3011958521', 'https://semopenalex.org/work/W4318969650', 'https://semopenalex.org/work/W4378800780', 'https://semopenalex.org/work/W2940819770', 'https://semopenalex.org/work/W4283717476', 'https://semopenalex.org/work/W2543290882', 'https://semopenalex.org/work/W2790642115', 'https://semopenalex.org/work/W2578853648', 'https://semopenalex.org/work/W4393028170', 'https://semopenalex.org/work/W4389507468', 'https://semopenalex.org/work/W2160646603', 'https://semopenalex.org/work/W2127054111', 'https://semopenalex.org/work/W2550636813', 'https://semopenalex.org/work/W2163543978', 'https://semopenalex.org/work/W2039356852', 'https://semopenalex.org/work/W2537332380', 'https://semopenalex.org/work/W4230110652', 'https://semopenalex.org/work/W2100346671', 'https://semopenalex.org/work/W2036723370', '2012', 'https://semopenalex.org/work/W4281566630', 'https://semopenalex.org/work/W3047348337', '2010', 'https://semopenalex.org/work/W2102192776', 'https://semopenalex.org/work/W2164538779', 'https://semopenalex.org/work/W4210873155', 'https://semopenalex.org/work/W2027593698', '2002', '2016', 'https://semopenalex.org/work/W2142294302', 'https://semopenalex.org/work/W3093692137', 'https://semopenalex.org/work/W2974668559', 'https://semopenalex.org/work/W2590423002', 'https://semopenalex.org/work/W4388270026', 'https://semopenalex.org/work/W1574537663', '1995', 'https://semopenalex.org/work/W166240575', 'https://semopenalex.org/work/W2103890758', 'https://semopenalex.org/work/W2497006851', 'https://semopenalex.org/work/W1974354735', 'https://semopenalex.org/work/W3144747272', 'https://semopenalex.org/work/W2160958666', 'https://semopenalex.org/work/W2156453906', 'https://semopenalex.org/work/W2055767683', 'https://semopenalex.org/work/W4391266287', 'https://semopenalex.org/work/W2171052396', 'https://semopenalex.org/work/W815637642', 'https://semopenalex.org/work/W4318970057', 'https://semopenalex.org/work/W4318969871', 'https://semopenalex.org/work/W4281256581', 'https://semopenalex.org/work/W3016817425', 'https://semopenalex.org/work/W2141063168', 'https://semopenalex.org/work/W1835952791', 'https://semopenalex.org/work/W1531649411', 'https://semopenalex.org/work/W4391021065', 'https://semopenalex.org/work/W4253847908', 'https://semopenalex.org/work/W4232849083', 'https://semopenalex.org/work/W2104632120', 'https://semopenalex.org/work/W2900792485', 'https://semopenalex.org/work/W1984879444', 'https://semopenalex.org/work/W2127370747', 'https://semopenalex.org/work/W3047123852', 'https://semopenalex.org/work/W4318969798', 'https://semopenalex.org/work/W2154438608', 'https://semopenalex.org/work/W2469706955', 'https://semopenalex.org/work/W3195484345', 'https://semopenalex.org/work/W2122961745', 'https://semopenalex.org/work/W4318970119', 'https://semopenalex.org/work/W2140669431', 'https://semopenalex.org/work/W2160119788', 'https://semopenalex.org/work/W2749904014', 'https://semopenalex.org/work/W4285786699', '2023', 'https://semopenalex.org/work/W3082230612', 'https://semopenalex.org/work/W2142587013', 'https://semopenalex.org/work/W2982483278', 'https://semopenalex.org/work/W2065425420', '2006', 'https://semopenalex.org/work/W2402648086', 'https://semopenalex.org/work/W2127245662', '2009', 'https://semopenalex.org/work/W2127395347', 'https://semopenalex.org/work/W4285786294', '2004', 'https://semopenalex.org/work/W2982552167', 'https://semopenalex.org/work/W1486164902', 'https://semopenalex.org/work/W2974137617', 'https://semopenalex.org/work/W2143352637', 'https://semopenalex.org/work/W3082483119', 'https://semopenalex.org/work/W3163482829', 'https://semopenalex.org/work/W2806226057', 'https://semopenalex.org/work/W4388269044', 'https://semopenalex.org/work/W2910970594', 'https://semopenalex.org/work/W2777102041', 'https://semopenalex.org/work/W2576038375', 'https://semopenalex.org/work/W4312236298', 'https://semopenalex.org/work/W4318969892', 'https://semopenalex.org/work/W4281962661', 'https://semopenalex.org/work/W2106635847', 'https://semopenalex.org/work/W4281740428', 'https://semopenalex.org/work/W2150450196', 'https://semopenalex.org/work/W2585641736', 'https://semopenalex.org/work/W4318969854', 'https://semopenalex.org/work/W2528925866', 'https://semopenalex.org/work/W3165809824', 'https://semopenalex.org/work/W1581193980', 'https://semopenalex.org/work/W2101836358', 'https://semopenalex.org/work/W1567508215', 'https://semopenalex.org/work/W2172280166', 'https://semopenalex.org/work/W1551825080', 'https://semopenalex.org/work/W4405862515', 'https://semopenalex.org/work/W2096649131', 'https://semopenalex.org/work/W2135111007', 'https://semopenalex.org/work/W2105609818', 'https://semopenalex.org/work/W2105742976', 'https://semopenalex.org/work/W2072604906', 'https://semopenalex.org/work/W4213458662', 'https://semopenalex.org/work/W2024684112', 'https://semopenalex.org/work/W2613874072', 'https://semopenalex.org/work/W2802656234', 'https://semopenalex.org/work/W4318969730', 'https://semopenalex.org/work/W2002217711', 'https://semopenalex.org/work/W2972407922', 'https://semopenalex.org/work/W4287823286', 'https://semopenalex.org/work/W2111184268', 'https://semopenalex.org/work/W3011290436', 'https://semopenalex.org/work/W4213441020', 'https://semopenalex.org/work/W4318970000', 'https://semopenalex.org/work/W2474568886', 'https://semopenalex.org/work/W4233309692', 'https://semopenalex.org/work/W3130793703', 'https://semopenalex.org/work/W1665563077', 'https://semopenalex.org/work/W2030094243', 'https://semopenalex.org/work/W4210944749', 'https://semopenalex.org/work/W4213442901', 'https://semopenalex.org/work/W4388273546', 'https://semopenalex.org/work/W3130882128', 'https://semopenalex.org/work/W1605585784', 'https://semopenalex.org/work/W2909349515', 'https://semopenalex.org/work/W3033571371', 'https://semopenalex.org/work/W2496022852', '2014', '2013', 'https://semopenalex.org/work/W4210869932', 'https://semopenalex.org/work/W2130342838', '2022', 'https://semopenalex.org/work/W2138406631', '2021', 'https://semopenalex.org/work/W2120493426', 'https://semopenalex.org/work/W3087107980', '2017', 'https://semopenalex.org/work/W2138789181', 'https://semopenalex.org/work/W4213448280', 'https://semopenalex.org/work/W3182696462', 'https://semopenalex.org/work/W2165545803', 'https://semopenalex.org/work/W4393062697', 'https://semopenalex.org/work/W2159418816', 'https://semopenalex.org/work/W2101912651', 'https://semopenalex.org/work/W2154924725', 'https://semopenalex.org/work/W4221062726', '1996', 'https://semopenalex.org/work/W2098204276', 'https://semopenalex.org/work/W3204535293', 'https://semopenalex.org/work/W2114326457', 'https://semopenalex.org/work/W3012987257', 'https://semopenalex.org/work/W2920121448', 'https://semopenalex.org/work/W3160912856', 'https://semopenalex.org/work/W2745907626', 'https://semopenalex.org/work/W4285786297', 'https://semopenalex.org/work/W3083229052', 'https://semopenalex.org/work/W2171515050', 'https://semopenalex.org/work/W2097791903', 'https://semopenalex.org/work/W2531274777', '2015', 'https://semopenalex.org/work/W4378805947', '2007', 'https://semopenalex.org/work/W4312798185', 'https://semopenalex.org/work/W3022673459', 'https://semopenalex.org/work/W3174777116', 'https://semopenalex.org/work/W2218588614', 'https://semopenalex.org/work/W2105085354', 'https://semopenalex.org/work/W4210934190', 'https://semopenalex.org/work/W2133705025', 'https://semopenalex.org/work/W2974912160', 'https://semopenalex.org/work/W2954841661', 'https://semopenalex.org/work/W2746421607', '2018', 'https://semopenalex.org/work/W2009832803', 'https://semopenalex.org/work/W1775831620', '2024', 'https://semopenalex.org/work/W1977903638', 'https://semopenalex.org/work/W2052561647', '1998', 'https://semopenalex.org/work/W2126039936', 'https://semopenalex.org/work/W2604848757', 'https://semopenalex.org/work/W2139742340', 'https://semopenalex.org/work/W1494928177']</t>
+  </si>
+  <si>
+    <t>['2006', '2020', '2009', 'https://semopenalex.org/work/W2734683486', 'https://semopenalex.org/work/W3036594918', '2004', 'https://semopenalex.org/work/W3123633695', 'https://semopenalex.org/work/W2319667788', 'https://semopenalex.org/work/W1527780249', '2008', 'https://semopenalex.org/work/W84099738', 'https://semopenalex.org/work/W2955996770', 'https://semopenalex.org/work/W4390951576', 'https://semopenalex.org/work/W2996424405', 'https://semopenalex.org/work/W4285585511', 'https://semopenalex.org/work/W4285149163', 'https://semopenalex.org/work/W2610903992', '2019', 'https://semopenalex.org/work/W4220866607', 'https://semopenalex.org/work/W2894658205', 'https://semopenalex.org/work/W2550600565', 'https://semopenalex.org/work/W1109050', 'https://semopenalex.org/work/W4229365934', 'https://semopenalex.org/work/W579278758', 'https://semopenalex.org/work/W2171009049', 'https://semopenalex.org/work/W4245961146', 'https://semopenalex.org/work/W2246115839', 'https://semopenalex.org/work/W4321792691', 'https://semopenalex.org/work/W2754831193', 'https://semopenalex.org/work/W4400851484', 'https://semopenalex.org/work/W2258710106', 'https://semopenalex.org/work/W4287876838', '2005', 'https://semopenalex.org/work/W3111209168', 'https://semopenalex.org/work/W2130875118', 'https://semopenalex.org/work/W2343633423', 'https://semopenalex.org/work/W2058003955', 'https://semopenalex.org/work/W4213054152', 'https://semopenalex.org/work/W3007487359', 'https://semopenalex.org/work/W1971349525', 'https://semopenalex.org/work/W1756002337', 'https://semopenalex.org/work/W2970509049', 'https://semopenalex.org/work/W3010786249', 'https://semopenalex.org/work/W3187488983', 'https://semopenalex.org/work/W2790216340', 'https://semopenalex.org/work/W2794346483', 'https://semopenalex.org/work/W2142335546', 'https://semopenalex.org/work/W1961387618', 'https://semopenalex.org/work/W3069035240', 'https://semopenalex.org/work/W4376878797', '1994', 'https://semopenalex.org/work/W2783561900', 'https://semopenalex.org/work/W3170390068', '2025', 'https://semopenalex.org/work/W4232171693', 'https://semopenalex.org/work/W3207358793', 'https://semopenalex.org/work/W2010105821', 'https://semopenalex.org/work/W2794552363', '1991', 'https://semopenalex.org/work/W2118255469', 'https://semopenalex.org/work/W2586196676', 'https://semopenalex.org/work/W4394351286', '2012', 'https://semopenalex.org/work/W644371662', 'https://semopenalex.org/work/W2086291403', '2014', '2010', '2013', 'https://semopenalex.org/work/W3129198752', 'https://semopenalex.org/work/W2059263765', 'https://semopenalex.org/work/W333159667', 'https://semopenalex.org/work/W2072306533', '2022', 'https://semopenalex.org/work/W4239059882', '2021', '2016', 'https://semopenalex.org/work/W1549914272', '2011', '2017', 'https://semopenalex.org/work/W4200295656', 'https://semopenalex.org/work/W2947887973', 'https://semopenalex.org/work/W2923244310', 'https://semopenalex.org/work/W4229334755', 'https://semopenalex.org/work/W4300809016', 'https://semopenalex.org/work/W3018966866', 'https://semopenalex.org/work/W2761369579', 'https://semopenalex.org/work/W3205969438', 'https://semopenalex.org/work/W4403148167', 'https://semopenalex.org/work/W2737958970', 'https://semopenalex.org/work/W2124884294', 'https://semopenalex.org/work/W2140290607', '1983', 'https://semopenalex.org/work/W2893305614', '2015', 'https://semopenalex.org/work/W2067220443', 'https://semopenalex.org/work/W103992416', 'https://semopenalex.org/work/W4406613231', 'https://semopenalex.org/work/W4214922121', '2007', 'https://semopenalex.org/work/W1986447757', 'https://semopenalex.org/work/W2069403900', 'https://semopenalex.org/work/W2004089424', 'https://semopenalex.org/work/W4239020865', 'https://semopenalex.org/work/W3120867123', 'https://semopenalex.org/work/W3009651427', 'https://semopenalex.org/work/W2004860585', 'https://semopenalex.org/work/W3047226873', 'https://semopenalex.org/work/W2623352630', 'https://semopenalex.org/work/W4292377875', 'https://semopenalex.org/work/W3001208788', 'https://semopenalex.org/work/W4221004647', '2018', 'https://semopenalex.org/work/W2980431486', '2024', 'https://semopenalex.org/work/W2997254714', 'https://semopenalex.org/work/W2122737845', 'https://semopenalex.org/work/W4292378819', 'https://semopenalex.org/work/W3193926349', 'https://semopenalex.org/work/W3003870406', 'https://semopenalex.org/work/W4321105981', 'https://semopenalex.org/work/W1842188952', 'https://semopenalex.org/work/W4300970433', '2023', 'https://semopenalex.org/work/W2151014511', 'https://semopenalex.org/work/W2165467091', 'https://semopenalex.org/work/W3113261051']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2791275386', '2006', 'https://semopenalex.org/work/W2481729578', 'https://semopenalex.org/work/W4200635145', '2020', 'https://semopenalex.org/work/W4322732827', 'https://semopenalex.org/work/W176670434', 'https://semopenalex.org/work/W2136188588', 'https://semopenalex.org/work/W4402548755', 'https://semopenalex.org/work/W2402441967', 'https://semopenalex.org/work/W4391011167', 'https://semopenalex.org/work/W2246393841', '2004', 'https://semopenalex.org/work/W4296902974', 'https://semopenalex.org/work/W4253642683', 'https://semopenalex.org/work/W2282010801', 'https://semopenalex.org/work/W2786772600', 'https://semopenalex.org/work/W2396037699', '2008', 'https://semopenalex.org/work/W2205191101', 'https://semopenalex.org/work/W1964676816', 'https://semopenalex.org/work/W201066287', 'https://semopenalex.org/work/W4287199679', 'https://semopenalex.org/work/W2921556996', 'https://semopenalex.org/work/W2400864908', '2003', 'https://semopenalex.org/work/W57476147', 'https://semopenalex.org/work/W3026162943', 'https://semopenalex.org/work/W2980624012', 'https://semopenalex.org/work/W4302377316', 'https://semopenalex.org/work/W4400169339', '2019', 'https://semopenalex.org/work/W4375869296', 'https://semopenalex.org/work/W2736149122', 'https://semopenalex.org/work/W1984877205', 'https://semopenalex.org/work/W4311721661', 'https://semopenalex.org/work/W4392903219', 'https://semopenalex.org/work/W110984805', 'https://semopenalex.org/work/W1616031638', 'https://semopenalex.org/work/W4396819389', '2005', 'https://semopenalex.org/work/W2127936745', 'https://semopenalex.org/work/W2508726376', 'https://semopenalex.org/work/W4361193366', 'https://semopenalex.org/work/W4392188516', 'https://semopenalex.org/work/W4280542824', 'https://semopenalex.org/work/W3168497289', 'https://semopenalex.org/work/W2021438034', 'https://semopenalex.org/work/W4400165275', 'https://semopenalex.org/work/W2617659622', 'https://semopenalex.org/work/W4386406820', 'https://semopenalex.org/work/W3005127776', 'https://semopenalex.org/work/W2098962393', 'https://semopenalex.org/work/W3048280215', 'https://semopenalex.org/work/W4404609477', 'https://semopenalex.org/work/W1729130926', 'https://semopenalex.org/work/W4399992019', 'https://semopenalex.org/work/W3009280029', 'https://semopenalex.org/work/W4399991973', 'https://semopenalex.org/work/W4391589175', 'https://semopenalex.org/work/W3031195982', 'https://semopenalex.org/work/W3006009898', 'https://semopenalex.org/work/W4206891293', 'https://semopenalex.org/work/W2095962821', 'https://semopenalex.org/work/W2735097653', '2001', 'https://semopenalex.org/work/W3200101073', 'https://semopenalex.org/work/W341170223', 'https://semopenalex.org/work/W3049587051', 'https://semopenalex.org/work/W2141047835', 'https://semopenalex.org/work/W4406492175', 'https://semopenalex.org/work/W1603914949', 'https://semopenalex.org/work/W3037451085', 'https://semopenalex.org/work/W3135916968', 'https://semopenalex.org/work/W4317487766', 'https://semopenalex.org/work/W2622265924', 'https://semopenalex.org/work/W2918054698', 'https://semopenalex.org/work/W2787015518', 'https://semopenalex.org/work/W2734345462', 'https://semopenalex.org/work/W4206844749', 'https://semopenalex.org/work/W2171302802', 'https://semopenalex.org/work/W4392931449', 'https://semopenalex.org/work/W4401978390', 'https://semopenalex.org/work/W4386439320', '2012', '2014', '2013', 'https://semopenalex.org/work/W4309564724', 'https://semopenalex.org/work/W3037369523', '2010', 'https://semopenalex.org/work/W2261240196', '2002', '2022', 'https://semopenalex.org/work/W4391940378', 'https://semopenalex.org/work/W2538817717', '2021', '2016', 'https://semopenalex.org/work/W2340829226', '2011', '2017', 'https://semopenalex.org/work/W4282823283', 'https://semopenalex.org/work/W4293229595', 'https://semopenalex.org/work/W3089124902', 'https://semopenalex.org/work/W2097450352', 'https://semopenalex.org/work/W2621391193', 'https://semopenalex.org/work/W65353647', 'https://semopenalex.org/work/W2002383345', 'https://semopenalex.org/work/W2498298891', 'https://semopenalex.org/work/W2990368351', 'https://semopenalex.org/work/W2987987546', 'https://semopenalex.org/work/W4360764206', 'https://semopenalex.org/work/W4399985329', 'https://semopenalex.org/work/W4399991937', 'https://semopenalex.org/work/W2056981644', 'https://semopenalex.org/work/W844598165', '2015', 'https://semopenalex.org/work/W4206887950', 'https://semopenalex.org/work/W4312690141', '2007', 'https://semopenalex.org/work/W4386096501', 'https://semopenalex.org/work/W4298259748', 'https://semopenalex.org/work/W4292536319', 'https://semopenalex.org/work/W4385822382', 'https://semopenalex.org/work/W2922616702', 'https://semopenalex.org/work/W4319776757', 'https://semopenalex.org/work/W4255342101', 'https://semopenalex.org/work/W4205871850', 'https://semopenalex.org/work/W4402148308', 'https://semopenalex.org/work/W2613217108', 'https://semopenalex.org/work/W172033102', '2018', 'https://semopenalex.org/work/W3088081769', 'https://semopenalex.org/work/W4400169194', 'https://semopenalex.org/work/W2736540096', '2024', 'https://semopenalex.org/work/W3198527244', 'https://semopenalex.org/work/W4280560758', 'https://semopenalex.org/work/W2123872165', 'https://semopenalex.org/work/W4404569657', '2023', 'https://semopenalex.org/work/W4401568144']</t>
+  </si>
+  <si>
+    <t>['2020', 'https://semopenalex.org/work/W1710751537', 'https://semopenalex.org/work/W2078770126', 'https://semopenalex.org/work/W1997210046', 'https://semopenalex.org/work/W2103982927', 'https://semopenalex.org/work/W2061236588', 'https://semopenalex.org/work/W4385473607', 'https://semopenalex.org/work/W4391272934', 'https://semopenalex.org/work/W2015180219', 'https://semopenalex.org/work/W1517590008', 'https://semopenalex.org/work/W1975513208', 'https://semopenalex.org/work/W1775494561', 'https://semopenalex.org/work/W2980176182', '2008', 'https://semopenalex.org/work/W2129825950', '2000', 'https://semopenalex.org/work/W2085609918', 'https://semopenalex.org/work/W2915945450', 'https://semopenalex.org/work/W2915030750', '2003', 'https://semopenalex.org/work/W4402442861', 'https://semopenalex.org/work/W1991332789', 'https://semopenalex.org/work/W3195402331', 'https://semopenalex.org/work/W1579677221', '2019', 'https://semopenalex.org/work/W2127281178', 'https://semopenalex.org/work/W4296041368', 'https://semopenalex.org/work/W1531484838', 'https://semopenalex.org/work/W2525118715', '1999', '1800', 'https://semopenalex.org/work/W4312240104', 'https://semopenalex.org/work/W2806131721', 'https://semopenalex.org/work/W4313563519', 'https://semopenalex.org/work/W2515946176', '2005', 'https://semopenalex.org/work/W3092639686', 'https://semopenalex.org/work/W2809114684', 'https://semopenalex.org/work/W2953255159', 'https://semopenalex.org/work/W2949504704', 'https://semopenalex.org/work/W2206340513', 'https://semopenalex.org/work/W1556803451', '1993', 'https://semopenalex.org/work/W2123904236', 'https://semopenalex.org/work/W2952092732', 'https://semopenalex.org/work/W4384155490', 'https://semopenalex.org/work/W2077394967', 'https://semopenalex.org/work/W1987557201', 'https://semopenalex.org/work/W1495962746', 'https://semopenalex.org/work/W1994977110', 'https://semopenalex.org/work/W2734789924', 'https://semopenalex.org/work/W4238210800', 'https://semopenalex.org/work/W2132574120', '1997', 'https://semopenalex.org/work/W2122811495', 'https://semopenalex.org/work/W36371468', 'https://semopenalex.org/work/W2171326679', 'https://semopenalex.org/work/W1511466363', 'https://semopenalex.org/work/W1537902892', 'https://semopenalex.org/work/W2523177018', 'https://semopenalex.org/work/W2139525797', '2012', 'https://semopenalex.org/work/W2008078972', '2010', 'https://semopenalex.org/work/W4324007121', 'https://semopenalex.org/work/W2522928308', '2002', 'https://semopenalex.org/work/W3138989164', 'https://semopenalex.org/work/W139130934', '2016', 'https://semopenalex.org/work/W2400762887', 'https://semopenalex.org/work/W2754252703', 'https://semopenalex.org/work/W3136236837', 'https://semopenalex.org/work/W1595761884', '1995', 'https://semopenalex.org/work/W4253646682', 'https://semopenalex.org/work/W4404057326', 'https://semopenalex.org/work/W1792464322', 'https://semopenalex.org/work/W1588297513', 'https://semopenalex.org/work/W2751928463', 'https://semopenalex.org/work/W2123889292', 'https://semopenalex.org/work/W144935353', 'https://semopenalex.org/work/W2173733616', 'https://semopenalex.org/work/W147488175', 'https://semopenalex.org/work/W1811359278', 'https://semopenalex.org/work/W2899402023', 'https://semopenalex.org/work/W1774324140', 'https://semopenalex.org/work/W3158293305', 'https://semopenalex.org/work/W1253240651', 'https://semopenalex.org/work/W2125383988', 'https://semopenalex.org/work/W48558007', 'https://semopenalex.org/work/W4393474997', 'https://semopenalex.org/work/W2115447277', 'https://semopenalex.org/work/W2581324891', 'https://semopenalex.org/work/W1975908943', 'https://semopenalex.org/work/W1475955015', 'https://semopenalex.org/work/W1798073562', 'https://semopenalex.org/work/W2520217242', 'https://semopenalex.org/work/W2008732772', 'https://semopenalex.org/work/W3137115172', 'https://semopenalex.org/work/W1579914521', '2023', 'https://semopenalex.org/work/W2104421582', 'https://semopenalex.org/work/W2778798134', 'https://semopenalex.org/work/W1679509962', 'https://semopenalex.org/work/W2747419197', 'https://semopenalex.org/work/W2047400318', 'https://semopenalex.org/work/W2520300422', 'https://semopenalex.org/work/W2103704182', 'https://semopenalex.org/work/W2778029444', 'https://semopenalex.org/work/W2779900466', '2006', 'https://semopenalex.org/work/W2101874499', '2009', 'https://semopenalex.org/work/W2094034408', '2004', 'https://semopenalex.org/work/W1550675824', 'https://semopenalex.org/work/W1978640117', 'https://semopenalex.org/work/W2912433096', 'https://semopenalex.org/work/W3108668383', 'https://semopenalex.org/work/W2012114748', 'https://semopenalex.org/work/W2008606555', 'https://semopenalex.org/work/W2612371455', 'https://semopenalex.org/work/W2044926733', 'https://semopenalex.org/work/W2039085252', 'https://semopenalex.org/work/W2181042156', 'https://semopenalex.org/work/W2011170798', 'https://semopenalex.org/work/W4387755431', 'https://semopenalex.org/work/W2130495724', 'https://semopenalex.org/work/W2071433880', 'https://semopenalex.org/work/W1593317697', 'https://semopenalex.org/work/W991450633', 'https://semopenalex.org/work/W1595752763', 'https://semopenalex.org/work/W2028893723', 'https://semopenalex.org/work/W2915009967', 'https://semopenalex.org/work/W4398191656', 'https://semopenalex.org/work/W1520649080', 'https://semopenalex.org/work/W3028360334', 'https://semopenalex.org/work/W2921648886', 'https://semopenalex.org/work/W4237909807', 'https://semopenalex.org/work/W2109952361', 'https://semopenalex.org/work/W1996454760', 'https://semopenalex.org/work/W1592700375', 'https://semopenalex.org/work/W1588734579', 'https://semopenalex.org/work/W2734788368', 'https://semopenalex.org/work/W2041544991', 'https://semopenalex.org/work/W2088263927', 'https://semopenalex.org/work/W1572167134', 'https://semopenalex.org/work/W1633377437', 'https://semopenalex.org/work/W2091478774', 'https://semopenalex.org/work/W4403628532', 'https://semopenalex.org/work/W4242041539', 'https://semopenalex.org/work/W4282583221', 'https://semopenalex.org/work/W2154282221', 'https://semopenalex.org/work/W3033698111', 'https://semopenalex.org/work/W2014199531', 'https://semopenalex.org/work/W115310691', 'https://semopenalex.org/work/W173156922', '2001', 'https://semopenalex.org/work/W1574950491', 'https://semopenalex.org/work/W52260594', 'https://semopenalex.org/work/W2189085557', '1994', 'https://semopenalex.org/work/W2928532935', 'https://semopenalex.org/work/W2466104094', 'https://semopenalex.org/work/W4406859981', 'https://semopenalex.org/work/W3009455989', 'https://semopenalex.org/work/W4249900482', 'https://semopenalex.org/work/W2949106240', 'https://semopenalex.org/work/W2963855145', 'https://semopenalex.org/work/W4298063358', 'https://semopenalex.org/work/W2400182190', 'https://semopenalex.org/work/W2123344956', '2014', 'https://semopenalex.org/work/W4242436304', '2013', 'https://semopenalex.org/work/W2118889869', 'https://semopenalex.org/work/W4292761028', 'https://semopenalex.org/work/W1570916159', 'https://semopenalex.org/work/W156157953', 'https://semopenalex.org/work/W2152544235', '2022', '2021', 'https://semopenalex.org/work/W2632860668', 'https://semopenalex.org/work/W3183165251', '2011', 'https://semopenalex.org/work/W2132155852', '2017', 'https://semopenalex.org/work/W2008620714', 'https://semopenalex.org/work/W371525118', 'https://semopenalex.org/work/W89291972', 'https://semopenalex.org/work/W4400976691', '1996', 'https://semopenalex.org/work/W4393943425', 'https://semopenalex.org/work/W2527377534', 'https://semopenalex.org/work/W2098211566', 'https://semopenalex.org/work/W2145761885', 'https://semopenalex.org/work/W2128127301', 'https://semopenalex.org/work/W2112609211', 'https://semopenalex.org/work/W2153339030', 'https://semopenalex.org/work/W2525395252', '2015', 'https://semopenalex.org/work/W2747898780', 'https://semopenalex.org/work/W2087840232', 'https://semopenalex.org/work/W2592423893', 'https://semopenalex.org/work/W2401057219', 'https://semopenalex.org/work/W4394555057', '2007', 'https://semopenalex.org/work/W1978847709', 'https://semopenalex.org/work/W1971941065', 'https://semopenalex.org/work/W2155935413', 'https://semopenalex.org/work/W2166938786', 'https://semopenalex.org/work/W1719093023', 'https://semopenalex.org/work/W1908231796', 'https://semopenalex.org/work/W2739356170', 'https://semopenalex.org/work/W2049801349', 'https://semopenalex.org/work/W2017269495', '2018', 'https://semopenalex.org/work/W3116695505', '2024', 'https://semopenalex.org/work/W1560854026', 'https://semopenalex.org/work/W4400939550', 'https://semopenalex.org/work/W2612962685', 'https://semopenalex.org/work/W2794546965', 'https://semopenalex.org/work/W4282576055', 'https://semopenalex.org/work/W1573454147', 'https://semopenalex.org/work/W205920923', 'https://semopenalex.org/work/W3216444132', '1998', 'https://semopenalex.org/work/W2055963247', 'https://semopenalex.org/work/W2958694015', 'https://semopenalex.org/work/W4393670548', 'https://semopenalex.org/work/W2609404595', 'https://semopenalex.org/work/W1501840263']</t>
+  </si>
+  <si>
+    <t>['2006', 'https://semopenalex.org/work/W2782387490', '2020', 'https://semopenalex.org/work/W2990053912', 'https://semopenalex.org/work/W2063061334', 'https://semopenalex.org/work/W2297368007', '2004', 'https://semopenalex.org/work/W2946095671', 'https://semopenalex.org/work/W2178046500', 'https://semopenalex.org/work/W3091069126', 'https://semopenalex.org/work/W3122248683', 'https://semopenalex.org/work/W2292300819', 'https://semopenalex.org/work/W4251725129', 'https://semopenalex.org/work/W2935701645', 'https://semopenalex.org/work/W2008502382', 'https://semopenalex.org/work/W2884712575', '2019', 'https://semopenalex.org/work/W2523814601', 'https://semopenalex.org/work/W3143690675', 'https://semopenalex.org/work/W2765260951', 'https://semopenalex.org/work/W3138604780', 'https://semopenalex.org/work/W2410070319', 'https://semopenalex.org/work/W2027758022', 'https://semopenalex.org/work/W2547994504', 'https://semopenalex.org/work/W4387044480', 'https://semopenalex.org/work/W2964144552', 'https://semopenalex.org/work/W2765333185', 'https://semopenalex.org/work/W3101498855', 'https://semopenalex.org/work/W2963397319', 'https://semopenalex.org/work/W4288309344', 'https://semopenalex.org/work/W4205329887', 'https://semopenalex.org/work/W4300336860', 'https://semopenalex.org/work/W2952972485', 'https://semopenalex.org/work/W3125007533', 'https://semopenalex.org/work/W2021618975', 'https://semopenalex.org/work/W3124643322', 'https://semopenalex.org/work/W2460699422', 'https://semopenalex.org/work/W4372354605', 'https://semopenalex.org/work/W2910443854', 'https://semopenalex.org/work/W2901245072', 'https://semopenalex.org/work/W2766801893', 'https://semopenalex.org/work/W2895112771', 'https://semopenalex.org/work/W2749697605', 'https://semopenalex.org/work/W2005566507', 'https://semopenalex.org/work/W3153438511', '2012', '2014', 'https://semopenalex.org/work/W4298852941', '2013', 'https://semopenalex.org/work/W2963376802', 'https://semopenalex.org/work/W2288736783', 'https://semopenalex.org/work/W2727591177', 'https://semopenalex.org/work/W2945310620', '2021', '2016', 'https://semopenalex.org/work/W2886048940', 'https://semopenalex.org/work/W2896815268', '2011', 'https://semopenalex.org/work/W3001868690', '2017', 'https://semopenalex.org/work/W2911050507', 'https://semopenalex.org/work/W3127935647', 'https://semopenalex.org/work/W2955483233', 'https://semopenalex.org/work/W2795616157', 'https://semopenalex.org/work/W2945121342', 'https://semopenalex.org/work/W3023611361', '2007', 'https://semopenalex.org/work/W3105149221', 'https://semopenalex.org/work/W4210614302', 'https://semopenalex.org/work/W2897452510', 'https://semopenalex.org/work/W2624071355', 'https://semopenalex.org/work/W2767197761', '2018', 'https://semopenalex.org/work/W2789266699', '2024', 'https://semopenalex.org/work/W2508557130', 'https://semopenalex.org/work/W2964219517', '2023', 'https://semopenalex.org/work/W4404210569', 'https://semopenalex.org/work/W2942347568']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'Minimum variance power spectrum based calibration for improved clutter suppression in PCL on moving platforms', '&amp;lt;title&amp;gt;Passive radar prototypes for multifrequency target detection&amp;lt;/title&amp;gt;', 'Dual Channel Adaptive Antenna Nulling with Auxiliary Selection for Spaceborne Radar', 'Advanced Processing Methods for Passive Bistatic Radar Systems', 'https://semopenalex.org/source/S4306531480', 'Polarimetric Detection Scheme for Passive Radar based on a 2D Auto-Regressive Disturbance Model', 'Security enhancement in small private airports through active and passive radar sensors', 'Antenna Sidelobes Level Control in Transmit Subaperturing MIMO Radar', 'https://semopenalex.org/source/S10936095', 'DVB-T based Passive Bistatic Radar for maritime surveillance', 'Experimental results of polarimetric detection schemes for DVB‐T‐based passive radar', 'https://semopenalex.org/source/S4306418371', 'Forward-Looking Passive Radar With Non-Uniform Linear Array for Automotive Applications', 'VHF Cross-Range Profiling of Aerial Targets Via Passive ISAR: Signal Processing Schemes and Experimental Results', 'On the Use of Reciprocal Filter Against WiFi Packets for Passive Radar', 'Passive Radar: A Challenge Where Resourcefulness Is the Key to Success', 'Passive Radar STAP Detection and DoA Estimation Under Antenna Calibration Errors', 'Eco-friendly dual-band AULOS® passive radar for air and maritime surveillance applications', 'An apodization approach for passive GMTI Radar with Non-Uniform Linear Arrays', 'Exploiting Polarization together with Space-Time Adaptive Processing for GMTI in high resolution SAR images', 'Quasi-Monostatic Versus Near Forward Scatter Geometry in WiFi-Based Passive Radar Sensors', 'Fusing Measurements from Wi-Fi Emission-Based and Passive Radar Sensors for Short-Range Surveillance', 'Lagrange-Polynomial-Interpolation-Based Keystone Transform for a Passive Radar', 'Multi-carrier Adaptive Detection in Polarimetric Passive Radars', 'Performance Prediction of the Loaded Reciprocal Filter for OFDM-based Passive Radar', 'Experimental results for OFDM WiFi-based passive bistatic radar', 'https://semopenalex.org/source/S4306498246', 'https://semopenalex.org/source/S4306418812', '[Front matter]', 'Passive Radar: Past, Present, and Future Challenges', 'A Survey on Fundamental Limits of Integrated Sensing and Communication', 'Threshold Region Performance of Multicarrier Maximum Likelihood Direction of Arrival Estimator', 'Inside front cover', 'A spectral slope-based approach for mitigating bistatic STAP clutter dispersion', 'https://semopenalex.org/source/S4306400194', 'A fast disturbance cancellation scheme for orthogonal frequency division multiplexing‐based passive radar exploiting reciprocal filter', 'Optimization of multistatic passive radar geometry based on CRLB with uncertain observations', 'Exploiting long coherent integration times in DVB-T based passive radar systems', 'Outlier Rejection Approach for Direction of Arrival Estimation in Low SNR Conditions', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S111326731', 'From the expected scientific applications to the functional specifications, products and performance of the SABRINA missions', 'A two-stage approach for direct signal and clutter cancellation in passive radar on moving platforms', 'Exploiting polarimetric diversity in passive radar', 'Facing channel calibration issues affecting passive radar DPCA and STAP for GMTI', 'Foreword to the Special Section on Innovations in Radar Spectrum', 'Passive radar components of ARGUS 3D', 'WiFi-Based Passive Bistatic Radar: Data Processing Schemes and Experimental Results', 'Autoregressive Model Based Polarimetric Adaptive Detection Scheme Part II: Performance Assessment Under Spectral Model Mismatch', 'Polarimetric Passive Radar: A Practical Approach to Parametric Adaptive Detection', 'https://semopenalex.org/source/S189694085', 'https://semopenalex.org/source/S3569471', 'Detection performance assessment of the FM-based AULOS® Passive Radar for air surveillance applications', 'Parasitic Exploitation of Wi-Fi Signals for Indoor Radar Surveillance', 'https://semopenalex.org/source/S4306463440', 'Experimental results for passive bistatic radar based on DVB-T signals', 'Tackling the different target dynamics issues in counter drone operations using passive radar', 'DVB-T-based passive radar for silent surveillance of drones', 'Autoregressive Model Based Polarimetric Adaptive Detection Scheme Part I: Theoretical Derivation and Performance Analysis', 'Range sidelobes reduction filters for WiFi-based passive bistatic radar', 'Experimental evaluation of Supervised Reciprocal Filter Strategies for OFDM-radar signal processing', 'Automatic vehicles classification approaches for WiFi-based Passive Forward Scatter Radar', 'PBR activity at INFOCOM: Adaptive processing techniques and experimental results', 'https://semopenalex.org/source/S4306400806', 'Exploiting polarimetric diversity to mitigate the effect of interferences in FM-based passive radar', 'Preliminary experimental results of polarimetric detection schemes for DVB-T based passive radar', 'https://semopenalex.org/source/S4387286330', 'https://semopenalex.org/source/S4306400024', 'Passive radar for GMTI', 'Exploitation of Long Coherent Integration Times to Improve Drone Detection in DVB-S based Passive Radar', 'Supervised DPCA Scheme Based on Reciprocal Filter for Clutter Cancellation From Moving OFDM Radar', 'Conclusion', 'https://semopenalex.org/source/S153794155', 'Passive radar detection of drones with staring illuminators of opportunity', 'A simple NULA design strategy for target detection and DoA estimation in mobile passive radar', 'Exploiting polarimetric diversity in FM-based PCL', 'Polarimetric passive coherent location', '2D Localization with WiFi Passive Radar and Device-Based Techniques: An Analysis of Target Measurements Accuracy', 'Potentialities and challenges of WiFi-based passive radar', 'https://semopenalex.org/source/S4363608355', 'Foreword to the Special Section on Fully Digital Arrays for Radar', 'Multifrequency integration in FM radio-based passive bistatic radar. Part II: Direction of arrival estimation', "This Month's Covers....", 'WiFi emission-based vs passive radar localization of human targets', 'Polarimetric diversity in reference-free amplitude-based Wi-Fi sensing', 'IEEE aerospace &amp;amp; electronic systems society organization 2019', 'From the EiC: The IEEE Radar Journal is Born', 'Dual Cancelled Channel STAP for Target Detection and DOA Estimation in Passive Radar', 'Cramér‐Rao lower bound with &lt;i&gt;P&lt;/i&gt; &lt;sub&gt;d&lt;/sub&gt; &amp;lt; 1 for target localisation accuracy in multistatic passive radar', 'Passive Detection Using a Staring Radar Illuminator of Opportunity', 'Reference-free Amplitude-based WiFi Passive Sensing', 'Two‐dimensional location of moving targets within local areas using WiFi‐based multistatic passive radar', 'Impact of Beacon Interval on the performance of WiFi-based passive radar against human targets', 'https://semopenalex.org/source/S23688054', 'Spectral slope-based approach for mitigating bistatic space-time adaptive processing clutter dispersion', 'https://semopenalex.org/source/S4210215198', 'Multistatic passive radar geometry optimization for target 3D positioning accuracy', 'Ambiguity Function analysis of WiMAX transmissions for passive radar', 'Passive Radar DPCA Schemes With Adaptive Channel Calibration', 'https://semopenalex.org/source/S4306420046', 'DVB-T based Forward Scatter Radar for Small Target Surveillance', 'https://semopenalex.org/source/S4306402478', 'Enhanced WiFi-based passive ISAR for indoor and outdoor surveillance', 'https://semopenalex.org/source/S4377196266', 'https://semopenalex.org/source/S161080992', 'A Flexible Design Strategy for Three-Element Non-Uniform Linear Arrays', 'Passive Bistatic Radar based on mixed DSSS and OFDM WiFi transmissions', 'DVB‐T based passive radar for simultaneous counter‐drone operations and civil air traffic surveillance', 'Non-linear and adaptive two-dimensional FIR filters for STAP theory and experimental results', 'Computationally effective range migration compensation in PCL systems for maritime surveillance', 'Reduced Order Jammer Cancellation Scheme Based on Double Adaptivity', 'First experimental results for a WiFi-based passive forward scatter radar', 'Performance analysis of a multi-frequency FM based Passive Bistatic Radar', 'Monitoring and surveillance potentialities obtained by splitting the antenna of the COSMO-SkyMed SAR into multiple sub-apertures', 'Passive STAP approaches for GMTI', 'A reduced order jammer cancellation scheme based on double adaptivity', 'A procedure for effective receiver positioning in multistatic passive radar', 'https://semopenalex.org/source/S4306420045', 'Direction of arrival estimation performance comparison of dual cancelled channels space–time adaptive processing techniques', 'Sliding extensive cancellation algorithm for disturbance removal in passive radar', 'Effect of Apodization on SAR Image Understanding', 'A new approach for DVB-T Cross-Ambiguity Function evaluation', 'WiFi-based passive ISAR for high resolution cross-range profiling of moving targets', 'Integrated clutter cancellation and high-resolution imaging of moving targets in Multi-channel SAR', 'EuMW 2022 Special Issue', 'OFDM based WiFi Passive Sensing: a reference-free non-coherent approach', 'https://semopenalex.org/source/S4210193624', 'https://semopenalex.org/source/S141761900', 'https://semopenalex.org/source/S4363608562', 'Exploiting the Properties of Reciprocal Filter in Low-Complexity OFDM Radar Signal Processing Architectures', 'Space-based passive radar enabled by the new generation of geostationary broadcast satellites', 'https://semopenalex.org/source/S4306418573', 'Multi-frequency polarimetric target detection in FM-based passive radar', 'Enabling DPCA via Supervised Reciprocal Filter in OFDM Radar Onboard Moving Platforms', 'https://semopenalex.org/source/S4363608006', 'Passive radar in the high frequency band', 'A Multistage Processing Algorithm for Disturbance Removal and Target Detection in Passive Bistatic Radar', 'WiFi-Based Passive ISAR for High-Resolution Cross-Range Profiling of Moving Targets', 'Space–time constant modulus algorithm for multipath removal on the reference signal exploited by passive bistatic radar', 'Analysis and Emulation of FM Radio Signals for Passive Radar', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S101949793', 'Multi‐carrier and multi‐polarimetric model based adaptive target detector for passive radar systems', 'Disturbance removal in passive radar via sliding extensive cancellation algorithm (ECA-S)', 'Efficient Detection and Imaging of Moving Targets in SAR Images Based on Chirp Scaling', 'Antenna Array for Passive Radar: Configuration Design and Adaptive Approaches to Disturbance Cancellation', 'Localization and tracking of moving targets with WiFi-based passive radar', 'https://semopenalex.org/source/S4404663355', 'Target DoA estimation in passive radar using non-uniform linear arrays and multiple frequency channels', 'Reducing the computational complexity of WiFi-based passive radar processing', 'Ambiguity Function Analysis of Wireless LAN Transmissions for Passive Radar', 'Low-cost solutions for mobile passive radar based on multichannel DPCA and NULA configurations', 'Adaptive beamforming for high-frequency over-the-horizon passive radar', 'Microphone array based classification for security monitoring in unstructured environments', 'https://semopenalex.org/source/S4210171417', 'https://semopenalex.org/source/S4377196107', 'Multiband passive radar for drones detection and localization', 'A simple clutter suppression approach for OFDM-based passive radar exploiting reciprocal filter', 'https://semopenalex.org/source/S193624734', 'Passive radar concept for automotive applications', 'Exploiting the joint distribution of amplitude and monopulse ratio for chi-square fluctuating targets for target DOA estimation', 'Short-range passive radar for small private airports surveillance', 'A practical approach to polarimetric adaptive target detection in Passive Radar', 'Reciprocal-Filter-Based STAP for Passive Radar on Moving Platforms', 'Multifrequency integration in FM radio-based passive bistatic radar. Part I: Target detection', 'Clutter Suppression Using Thresholded Reciprocal Filter in OFDM Radar', 'https://semopenalex.org/source/S153101029', 'Maritime surveillance via multi-frequency DVB-T based passive radar', 'Stand-alone WiFi-based Passive Forward Scatter Radar sensor for vehicles classification', 'Comparing reference‐free WiFi radar sensing approaches for monitoring people and drones', 'Using real data for the implementation of multistatic passive radar geometry optimization procedure', 'DVB-S based Passive Radar for Short Range Security Application', 'Supervised Reciprocal Filter for OFDM Radar Signal Processing', 'Loaded Reciprocal Filter for OFDM-based Passive Radar Signal Processing', 'DVB-T-Based Passive Forward Scatter Radar: Inherent Limitations and Enabling Solutions', 'https://semopenalex.org/source/S183492911', 'Foreword to the Special section on Advances in Radar Imaging', 'A Study for a Space-Based Passive Multi-Channel SAR', 'https://semopenalex.org/source/S4306402512', 'Multi-Frequency Target Detection Techniques for DVB-T Based Passive Radar Sensors', 'https://semopenalex.org/source/S2764455111', 'Parasitic Surveillance Potentialities Based on a GEO-SAR Illuminator', 'Short-range passive radar potentialities', 'https://semopenalex.org/source/S4210172892', 'Non‐coherent adaptive detection in passive radar exploiting polarimetric and frequency diversity', 'Comparison of Clutter and Multipath Cancellation Techniques for Passive Radar', 'Dual adaptive channel STAP: Theory and experimental results', 'Simultaneous short and long range surveillance of drones and aircrafts with DVB-T based Passive Radar', 'https://semopenalex.org/source/S43295729', 'Impact of synchronization on the ambiguity function shape for PBR based on DVB-T signals', 'WiFi-based PCL for monitoring private airfields', 'Detection and 3D localization of ultralight aircrafts and drones with a WiFi-based Passive Radar', 'Comparing phase-locked and non-phase-locked architectures for dual-channel DVB-S passive radar', 'High resolution cross-range profiling with Passive Radar via ISAR processing', 'DVB-T Signal Ambiguity Function Control for Passive Radars', 'A Three-Stage Inter-Channel Calibration Approach for Passive Radar on Moving Platforms Exploiting the Minimum Variance Power Spectrum']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S147316732', 'A Globally Optimal Energy-Efficient Power Control Framework and Its Efficient Implementation in Wireless Interference Networks', 'https://semopenalex.org/source/S4306400562', 'https://semopenalex.org/source/S4363608593', 'https://semopenalex.org/source/S173102057', 'Multi-User Frequency Assignment for Ultra-Reliable mmWave Two-Ray Channels', 'https://semopenalex.org/source/S4210214273', 'Bounds on the Outage Probability in Dependent Rayleigh Fading Channels', 'Neural Network Wiretap Code Design for Multi-Mode Fiber Optical Channels', 'https://semopenalex.org/source/S63459445', 'Bounds on the Ergodic Secret-Key Capacity for Dependent Fading Channels.', 'Building Resilience in Wireless Communication Systems With a Secret-Key  Budget', 'Non-Convex Optimization of Energy Efficient Power Control in Interference Networks via Machine Learning', 'On Fading Channel Dependency Structures with a Positive Zero-Outage Capacity', 'Reinforcement Learning Based Dynamic Power Control for UAV Mobility Management', 'https://semopenalex.org/source/S4363608623', 'A Simple Frequency Diversity Scheme for Ultra-Reliable Communications in Ground Reflection Scenarios', 'Frequency Diversity for Ultra-Reliable and Secure Communications in Sub-THz Two-Ray Scenarios', 'Hierarchical Multi-Agent DRL Based Dynamic Cluster Reconfiguration for  UAV Mobility Management', 'QMKPy: A Python Testbed for the Quadratic Multiple Knapsack Problem', 'Artificial Fast Fading from Reconfigurable Surfaces Enables Ultra-Reliable Communications', 'On Fading Channel Dependency Structures With a Positive Zero-Outage Capacity', 'Bounds on the Secrecy Outage Probability for Dependent Fading Channels', 'Deep Learning Based Resource Allocation: How Much Training Data is Needed?', 'Calculation of Bounds on the Ergodic Capacity for Fading Channels with Dependency Uncertainty', 'https://semopenalex.org/source/S4210218516', 'Flexible Design of Finite Blocklength Wiretap Codes by Autoencoders', 'Learning Based Dynamic Cluster Reconfiguration for UAV Mobility Management with 3D Beamforming', 'https://semopenalex.org/source/S4306400194', 'On the Zero-Outage Secrecy-Capacity of Dependent Fading Wiretap Channels', 'Machine Learning Assisted Wiretapping', 'Reconfigurable Intelligent Surface Phase Hopping for Ultra-Reliable Communications', 'Reliable Communications Over Dependent Fading Wireless Channels.', 'https://semopenalex.org/source/S4393179698', 'https://semopenalex.org/source/S4306401280', 'Measurements of Wiretap Encoded Image Transmissions over Multi-Mode Fibers', 'Reliability Bounds for Dependent Fading Wireless Channels', 'https://semopenalex.org/source/S195231649', 'Reliability and Latency Analysis for Wireless Communication Systems with a Secret-Key Budget', 'https://semopenalex.org/source/S4363607702', 'Achievable Physical-Layer Secrecy in Multi-Mode Fiber Channels using Artificial Noise', 'An efficient frequency diversity scheme for ultra-reliable communications in two-path fading channels', 'Distributed Combinatorial Optimization of Downlink User Assignment in  mmWave Cell-free Massive MIMO Using Graph Neural Networks', 'https://semopenalex.org/source/S4306534978', 'RISnet: A Domain-Knowledge Driven Neural Network Architecture for RIS  Optimization with Mutual Coupling and Partial CSI', 'Approaching Globally Optimal Energy Efficiency in Interference Networks via Machine Learning', 'Securing Data in Multimode Fibers by Exploiting Mode-Dependent Light Propagation Effects', 'https://semopenalex.org/source/S4363607711', 'Reliability and Latency Analysis for Wireless Communication Systems With a Secret-Key Budget', 'Optimal Resource Allocation for Loss-Tolerant Multicast Video Streaming', 'https://semopenalex.org/source/S61310614', 'Reinforcement Learning-Based Global Programming for Energy Efficiency in Multi-Cell Interference Networks', 'https://semopenalex.org/source/S4363607705', 'RISnet: A Scalable Approach for Reconfigurable Intelligent Surface Optimization with Partial CSI', 'Learning Based Dynamic Cluster Reconfiguration for UAV Mobility  Management with 3D Beamforming', 'Copula-Based Bounds for Multi-User Communications–Part I: Average Performance', 'https://semopenalex.org/source/S2764455111', 'Wiretap Code Design by Neural Network Autoencoders', 'https://semopenalex.org/source/S196647941', 'https://semopenalex.org/source/S4306402636', 'https://semopenalex.org/source/S168680287', 'Outage Probability Calculation for Two-Ray Ground Reflection Scenarios with Frequency Diversity', 'https://semopenalex.org/source/S4306402617', 'On the Set of Joint Rayleigh Fading Distributions Achieving Positive Zero-Outage Capacities', 'Copula-Based Bounds for Multi-User Communications–Part II: Outage Performance', 'Reliability and Latency of Wireless Communication Systems with a Secret-Key Budget']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'A Comprehensive Evaluation of Constrained Text Generation for Large Language Models', 'https://semopenalex.org/source/S29980478', 'Evolutionary timeline summarization', 'Combining Content and Context Similarities for Image Retrieval', 'https://semopenalex.org/source/S4363608757', 'QuoteRec', 'Counterfactual Representation Augmentation for Cross-Domain Sentiment Analysis', 'Transition-Based Parsing for Deep Dependency Structures', 'Summarization is (Almost) Dead', 'COSSUM: Towards Conversation-Oriented Structured Summarization for Automatic Medical Insurance Assessment', 'SituatedGen: Incorporating Geographical and Temporal Contexts into Generative Commonsense Reasoning', 'Diversifying Neural Text Generation with Part-of-Speech Guided Softmax and Sampling', 'Bilingual Co-Training for Sentiment Classification of Chinese Product Reviews', 'WikiIns: A High-Quality Dataset for Controlled Text Editing by Natural Language Instruction', 'Parsing Chinese Sentences with Grammatical Relations', 'A Syntax-Guided Grammatical Error Correction Model with Dependency Tree Correction', 'Style-Compress: An LLM-Based Prompt Compression Framework Considering  Task-Specific Styles', 'Towards Accurate and Efficient Chinese Part-of-Speech Tagging', 'Adrenergic α1A receptor modulates cultured urothelium structure', 'Dependency-based Mixture Language Models', 'AMR-To-Text Generation with Graph Transformer', 'Effects of additional ring-fusion site on dual reactivity based dynamic covalent chemistry', 'https://semopenalex.org/source/S4363607979', 'Comparative news summarization using concept-based optimization', 'CLOpinionMiner: Opinion Target Extraction in a Cross-Language Scenario', 'Style-Compress: An LLM-Based Prompt Compression Framework Considering Task-Specific Styles', 'CodeQA: A Question Answering Dataset for Source Code Comprehension', 'Microscale and macroscale strength behaviors of blast furnace slag- cement based materials: Modeling and analysis', 'Cross-Language Document Summarization Based on Machine Translation Quality Prediction', 'Learning a Product Relevance Model from Click-Through Data in E-Commerce', 'Document-Based HITS Model for Multi-document Summarization', 'An Improved k-means Algorithm for Documents Clustering', 'Visual Question Generation Under Multi-granularity Cross-Modal Interaction', 'https://semopenalex.org/source/S4306400194', 'PKUTM participation at TAC 2011 Summarization Track.', 'https://semopenalex.org/source/S4306420508', 'Using Proportional Transportation Distances for Measuring Document Similarity', 'Continual Learning for Neural Machine Translation', 'Neural Text Generation with Part-of-Speech Guided Softmax.', 'https://semopenalex.org/source/S2764825856', 'Evaluating Self-Generated Documents for Enhancing Retrieval-Augmented  Generation with Large Language Models', 'MultiSumm: Towards a Unified Model for Multi-Lingual Abstractive Summarization', 'Social Biases in Automatic Evaluation Metrics for NLG', 'Themis: Towards Flexible and Interpretable NLG Evaluation', 'Extract Salient Words with WordRank for Effective Similarity Search in Text Data', 'https://semopenalex.org/source/S192650101', 'Emotion Classification in Microblog Texts Using Class Sequential Rules', 'Towards a Universal Sentiment Classifier in Multiple languages', 'SUBTOPIC‐BASED MULTIMODALITY RANKING FOR TOPIC‐FOCUSED MULTIDOCUMENT SUMMARIZATION', 'Automatic Slides Generation for Scholarly Papers: A Fine-Grained Dataset and Baselines (Student Abstract)', 'https://semopenalex.org/source/S4306419219', 'Overview of the NLPCC 2017 Shared Task: Single Document Summarization', 'ATSUM: Extracting Attractive Summaries for News Propagation on Microblogs', 'BrailleSUM: A News Summarization System for the Blind and Visually Impaired People', 'Analyzing and Evaluating Correlation Measures in NLG Meta-Evaluation', 'A Neural Approach to Irony Generation', 'Comparing Knowledge-Intensive and Data-Intensive Models for English Resource Semantic Parsing', 'Missing Information, Unresponsive Authors, Experimental Flaws: The Impossibility of Assessing the Reproducibility of Previous Human Evaluations in NLP', 'Better than Random: Reliable NLG Human Evaluation with Constrained  Active Sampling', 'CrossDial: An Entertaining Dialogue Dataset of Chinese Crosstalk', 'BiCWS: Mining Cognitive Differences from Bilingual Web Search Results', 'Re-evaluating Automatic LLM System Ranking for Alignment with Human  Preference', 'Massive Styles Transfer with Limited Labeled Data', 'https://semopenalex.org/source/S62018274', 'Overview of the NLPCC 2023 Shared Task: Chinese Spelling Check', 'https://semopenalex.org/source/S74113319', 'https://semopenalex.org/source/S4210183871', 'Controllable Unsupervised Text Attribute Transfer via Editing Entangled Latent Representation', 'Towards a Neural Network Approach to Abstractive Multi-Document Summarization', 'Themis: A Reference-free NLG Evaluation Language Model with Flexibility and Interpretability', 'Image Matters: A New Dataset and Empirical Study for Multimodal Hyperbole Detection', 'DPP-Based Adversarial Prompt Searching for Lanugage Models', 'Manifold-ranking based topic-focused multi-document summarization', 'Language Generation via DAG Transduction', 'SRRank: Leveraging Semantic Roles for Extractive Multi-Document Summarization', 'Overview of the NLPCC 2015 Shared Task: Weibo-Oriented Chinese News Summarization', 'Learning Diachronic Word Embeddings with Iterative Stable Information Alignment', 'Document Similarity Search Based on Manifold-Ranking of TextTiles', 'Towards a Novel Association Measure via Web Search Results Mining', 'Creative Destruction: Can Language Models Interpret Oxymorons?', 'The Great Importance of Cross-Document Relationships for Multi-document Summarization', 'GraDual: Graph-based Dual-modal Representation for Image-Text Matching', 'https://semopenalex.org/source/S4363606669', 'Better than Random: Reliable NLG Human Evaluation with Constrained Active Sampling', 'Attention-based LSTM Network for Cross-Lingual Sentiment Classification', 'https://semopenalex.org/source/S4363608670', 'Using Bilingual Information for Cross-Language Document Summarization', 'A Comparative Study of Cross-Lingual Sentiment Classification', 'Stabilization/solidification of lead- and cadmium-containing tailings for cemented paste backfill by using clinker-free binders', 'Cross Modal Training for ASR Error Correction with Contrastive Learning', 'Findings of the Association for Computational Linguistics: ACL 2023', 'Greedy Flipping for Constrained Word Deletion', 'History Matters: Temporal Knowledge Editing in Large Language Model', 'SMART-RAG: Selection using Determinantal Matrices for Augmented  Retrieval', 'Collaborative Data Cleaning for Sentiment Classification with Noisy Training Corpus', 'PKUSUMSUM : A Java Platform for Multilingual Document Summarization', 'Visual Information Guided Zero-Shot Paraphrase Generation', 'https://semopenalex.org/source/S155526855', 'Peking: Profiling Syntactic Tree Parsing Techniques for Semantic Graph Parsing', 'Overview of the NLPCC-ICCPOL 2016 Shared Task: Sports News Generation from Live Webcast Scripts', 'https://semopenalex.org/source/S4306420577', 'ContraSolver: Self-Alignment of Language Models by Resolving Internal  Preference Contradictions', 'Document-Level Text Simplification: Dataset, Criteria and Baseline', 'Automatic Text Simplification&lt;i&gt;Horacio Saggion&lt;/i&gt; (Universitat Pompeu Fabra) Morgan &amp;amp; Claypool (Synthesis Lectures on Human Language Technologies, edited by Graeme Hirst, volume 37), 2017, xvi+121 pp; paperback, ISBN 978-1-62705-868-1; ebook, ISBN 978-1-62705-869-8; doi:10.2200/S00700ED1V01Y201602HLT032', 'A Measure Based on Optimal Matching in Graph Theory for Document Similarity', 'https://semopenalex.org/source/S4393179698', 'Semantic Dependency Parsing via Book Embedding', 'https://semopenalex.org/source/S87067389', 'How to Describe Images in a More Funny Way? Towards a Modular Approach to Cross-Modal Sarcasm Generation', 'PPSGen: learning to generate presentation slides for academic papers', 'Are LLM-based Evaluators Confusing NLG Quality Criteria?', 'ALCUNA: Large Language Models Meet New Knowledge', 'CMiner: Opinion Extraction and Summarization for Chinese Microblogs', 'Overview of the NLPCC 2018 Shared Task: Single Document Summarization', 'Peking: Building Semantic Dependency Graphs with a Hybrid Parser', 'Exploiting syntactic and semantic relationships between terms for opinion retrieval', 'Semantic Role Labeling for Learner Chinese: the Importance of Syntactic Parsing and L2-L1 Parallel Data', 'Joint Decoding of Tree Transduction Models for Sentence Compression', 'RST Discourse Parsing as Text-to-Text Generation', 'Point Precisely: Towards Ensuring the Precision of Data in Generated Texts Using Delayed Copy Mechanism', 'PPSGen: Learning-Based Presentation Slides Generation for Academic Papers', 'https://semopenalex.org/source/S4387280317', 'A Comprehensive Evaluation and Analysis Study for Chinese Spelling Check', 'MC-MKE: A Fine-Grained Multimodal Knowledge Editing Benchmark  Emphasizing Modality Consistency', 'Single document keyphrase extraction using neighborhood knowledge', 'Selecting Large Language Model to Fine-tune via Rectified Scaling Law', 'Tweet Timeline Generation with Determinantal Point Processes', 'Chinese Spelling Check with Nearest Neighbors', 'https://semopenalex.org/source/S2729999759', 'Block-Based Similarity Search on the Web Using Manifold-Ranking', 'Representation Learning for Aspect Category Detection in Online Reviews', 'A novel document similarity measure based on earth mover’s distance', 'IGSQL: Database Schema Interaction Graph Based Neural Model for Context-Dependent Text-to-SQL Generation', 'A Comparative Analysis of Knowledge-Intensive and Data-Intensive Semantic Parsers', 'The Impact of Family Care on the Subjective Well-Being of the Elderly: The Mediation Role of General Self-Efficacy and Psychological Resilience', 'https://semopenalex.org/source/S4363608767', 'DeepDial: Passage Completion on Dialogs', 'https://semopenalex.org/source/S4363606692', 'Benchmarking Knowledge Boundary for Large Language Model: A Different  Perspective on Model Evaluation', 'Towards a Unified Approach Based on Affinity Graph to Various Multi-document Summarizations', 'https://semopenalex.org/source/S4306421043', 'Neural Sentence Simplification with Semantic Dependency Information', 'Are all literature citations equally important? Automatic citation strength estimation and its applications', 'Defining and Detecting Vulnerability in Human Evaluation Guidelines: A  Preliminary Study Towards Reliable NLG Evaluation', 'Learning to Identify Comparative Sentences in Chinese Text', 'A Simple Information-Based Approach to Unsupervised Domain-Adaptive Aspect-Based Sentiment Analysis', 'Automatic Labeling of Topic Models Using Text Summaries', 'Overview of the NLPCC 2018 Shared Task: Grammatical Error Correction', 'https://semopenalex.org/source/S4210169297', 'Exploiting neighborhood knowledge for single document summarization and keyphrase extraction', 'Improving Word Embeddings for Antonym Detection Using Thesauri and SentiWordNet', 'Clinical challenges and management of primary renal epithelioid angiomyolipoma of duplex kidney with paraneoplastic syndrome', "x-index: a fantastic new indicator for quantifying a scientist's scientific impact", 'A New Retrieval Model Based on TextTiling for Document Similarity Search', 'Quasi-Second-Order Parsing for 1-Endpoint-Crossing, Pagenumber-2 Graphs', 'Teaching the Pre-trained Model to Generate Simple Texts for Text Simplification', 'INS: An Interactive Chinese News Synthesis System', 'Exploring Discourse Structure in Document-level Machine Translation', 'Learning to Recommend Quotes for Writing', 'Revisiting Pivot-Based Paraphrase Generation: Language Is Not the Only Optional Pivot', 'OpinSummEval: Revisiting Automated Evaluation for Opinion Summarization', 'Deep Dependency Substructure-Based Learning for Multidocument Summarization', 'https://semopenalex.org/source/S4210191458', 'PosterBot: A System for Generating Posters of Scientific Papers with Neural Models', 'Summarizing the differences in multilingual news', 'Is Summary Useful or Not? An Extrinsic Human Evaluation of Text Summaries on Downstream Tasks', 'Reference Matters: Benchmarking Factual Error Correction for Dialogue Summarization with Fine-grained Evaluation Framework', 'Towards a unified approach to document similarity search using manifold-ranking of blocks', 'Data-driven, PCFG-based and Pseudo-PCFG-based Models for Chinese Dependency Parsing', 'Generating Diverse and Descriptive Image Captions Using Visual Paraphrases', 'Adverse Drug Events Detection, Extraction and Normalization from Online Comments of Chinese Patent Medicines', 'https://semopenalex.org/source/S4363608652', 'https://semopenalex.org/source/S4306401280', 'Joint Matrix Factorization and Manifold-Ranking for Topic-Focused Multi-Document Summarization', 'AKMiner: Domain-Specific Knowledge Graph Mining from Academic Literatures', 'https://semopenalex.org/source/S205754296', 'Learning to Find Comparable Entities on the Web', 'SemSUM: Semantic Dependency Guided Neural Abstractive Summarization', 'Using only cross-document relationships for both generic and topic-focused multi-document summarizations', 'Mining and Analyzing the Future Works in Scientific Articles', 'Phrase-Based Presentation Slides Generation for Academic Papers', 'Automated Similarity Metric Generation for Recommendation', 'https://semopenalex.org/source/S4363605144', 'Modeling and prediction of modulus of elasticity of laminated veneer lumber based on laminated plate theory', 'Pre- and In-Parsing Models for Neural Empty Category Detection', 'BAB-QA: A New Neural Model for Emotion Detection in Multi-party Dialogue', 'MOVER: Mask, Over-generate and Rank for Hyperbole Generation', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S4363608852', 'A Data-Driven, Factorization Parser for CCG Dependency Structures', 'PKU Paraphrase Bank: A Sentence-Level Paraphrase Corpus for Chinese', 'Named Entity Recognition in Chinese News Comments on the Web', 'https://semopenalex.org/source/S4306419999', 'https://semopenalex.org/source/S79460864', 'A New Benchmark and Reverse Validation Method for Passage-level Hallucination Detection', 'Leveraging Diverse Lexical Chains to Construct Essays for Chinese College Entrance Examination', 'AMRec: an intelligent system for academic method recommendation', 'Evaluating and Mitigating Number Hallucinations in Large Vision-Language  Models: A Consistency Perspective', 'TransModality: An End2End Fusion Method with Transformer for Multimodal Sentiment Analysis', 'MicroScholar: Mining Scholarly Information from Chinese Microblogs', 'Multi-Document Summarization via Discriminative Summary Reranking', '$B^4$: A Black-Box Scrubbing Attack on LLM Watermarks', 'https://semopenalex.org/source/S4306419142', 'WikiTableEdit: A Benchmark for Table Editing by Natural Language  Instruction', 'Beyond topical similarity: a structural similarity measure for retrieving highly similar documents', 'A Semi-Supervised Approach for Low-Resourced Text Generation', 'WaterPool: A Watermark Mitigating Trade-offs among Imperceptibility,  Efficacy and Robustness', 'https://semopenalex.org/source/S104780363', 'Exploiting Summarization Data to Help Text Simplification', 'A Feedback-learning Mechanism Based on the Semantic Topological Network', 'Exploring the Impact of Vision Features in News Image Captioning', 'Human-like Summarization Evaluation with ChatGPT', 'Hierarchical Attention Networks for Sentence Ordering', 'Towards Constructing Sports News from Live Text Commentary', 'https://semopenalex.org/source/S4363608991', 'On the Helpfulness of Document Context to Sentence Simplification', 'Cross-language document summarization via extraction and ranking of multiple summaries', 'Enhancing Large Language Models in Coding Through Multi-Perspective Self-Consistency', 'DialSummEval: Revisiting Summarization Evaluation for Dialogues', 'Incorporating Cross-Document Relationships Between Sentences for Single Document Summarizations', 'Learning Bilingual Embedding Model for Cross-Language Sentiment Classification', 'https://semopenalex.org/source/S81770430', 'BiRdQA: A Bilingual Dataset for Question Answering on Tricky Riddles', 'Towards Document-Level Paraphrase Generation with Sentence Rewriting and Reordering', 'Neural Content Extraction for Poster Generation of Scientific Papers', 'https://semopenalex.org/source/S30698027', 'Automatic Text Simplification', 'https://semopenalex.org/source/S174847851', 'https://semopenalex.org/source/S4306420006', 'Compressive document summarization via sparse optimization', 'Defining and Detecting Vulnerability in Human Evaluation Guidelines: A Preliminary Study Towards Reliable NLG Evaluation', 'Reducing Approximation and Estimation Errors for Chinese Lexical Processing with Heterogeneous Annotations', 'Overview of Baidu Cup 2016: Challenge on Entity Search', 'Collective Opinion Target Extraction in Chinese Microblogs', 'Describe Images in a Boring Way: Towards Cross-Modal Sarcasm Generation', 'Towards Automatic Construction of News Overview Articles by News Synthesis', 'Hierarchical Graph Summarization: Leveraging Hybrid Information through Visible and Invisible Linkage', 'Towards Automatic Generation of Entertaining Dialogues in Chinese Crosstalks', 'Improving Grammatical Error Correction with Data Augmentation by Editing Latent Representation', 'Phrase-based Compressive Cross-Language Summarization', 'https://semopenalex.org/source/S161516442', 'DSGram: Dynamic Weighting Sub-Metrics for Grammatical Error Correction  in the Era of Large Language Models', 'Nearest Neighbor Knowledge Distillation for Neural Machine Translation', 'EAMA : Entity-Aware Multimodal Alignment Based Approach for News Image  Captioning', 'AMRec: An Intelligent System for Academic Method Recommendation', 'Pushing Paraphrase Away from Original Sentence: A Multi-Round Paraphrase Generation Approach', 'CUGE: A Chinese Language Understanding and Generation Evaluation Benchmark', 'ParaSCI: A Large Scientific Paraphrase Dataset for Longer Paraphrase Generation', 'Timeline Generation through Evolutionary Trans-Temporal Summarization', 'https://semopenalex.org/source/S4363608773', 'https://semopenalex.org/source/S80113298', 'Comparative News Summarization Using Linear Programming', 'Single document summarization with document expansion', 'Update Summarization Based on Co-Ranking with Constraints', 'https://semopenalex.org/source/S4363608774', 'https://semopenalex.org/source/S4363607702', 'Automated Chess Commentator Powered by Neural Chess Engine', 'CC-Riddle: A Question Answering Dataset of Chinese Character Riddles', 'Learning to Mine Chinese Coordinate Terms Using the Web', 'https://semopenalex.org/source/S162583102', 'A Neural Approach to Pun Generation', 'Document Similarity Search Based on Generic Summaries', 'How Do Seq2Seq Models Perform on End-to-End Data-to-Text Generation?', 'https://semopenalex.org/source/S4210197613', 'Accurate SHRG-Based Semantic Parsing', 'Making Better Use of Bilingual Information for Cross-Lingual AMR Parsing', 'Recent advances in document summarization', 'WordRank-Based Lexical Signatures for Finding Lost or Related Web Pages', 'PaCoST: Paired Confidence Significance Testing for Benchmark  Contamination Detection in Large Language Models', 'Graph-based multi-modality learning for topic-focused multi-document summarization', 'Bridging the Domain Gap: Improve Informal Language Translation via Counterfactual Domain Adaptation', 'An Empirical Study of Automatic Post-Editing', 'Evaluating Factuality in Cross-lingual Summarization', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S4363607764', 'Cross-Lingual Sentiment Classification with Bilingual Document Representation Learning', 'SimpleBERT: A Pre-trained Model That Learns to Generate Simple Words', 'https://semopenalex.org/source/S2764455111', 'PKUTM at TREC 2010 Blog Track', 'https://semopenalex.org/source/S4306418267', 'Constructing a Family Tree of Ten Indo-European Languages with Delexicalized Cross-linguistic Transfer Patterns', 'Images2Poem', "&lt;scp&gt;WL&lt;/scp&gt;‐index: Leveraging citation mention number to quantify an individual's scientific impact", 'Learning to Identify Ambiguous and Misleading News Headlines', 'A New Re-ranking Method for Generic Chinese Text Summarization and Its Evaluation', 'Abstractive Document Summarization with a Graph-Based Attentional Neural Model', 'https://semopenalex.org/source/S2501765825', 'Recent advances of neural text generation: Core tasks, datasets, models and challenges', 'A New Dataset and Empirical Study for Sentence Simplification in Chinese', 'https://semopenalex.org/source/S56561474', 'Parsing to 1-Endpoint-Crossing, Pagenumber-2 Graphs', 'Models See Hallucinations: Evaluating the Factuality in Video Captioning']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S163019073', 'Single-phase agreements among rational agents', 'https://semopenalex.org/source/S4306400562', 'The Agent Reputation and Trust (ART) Testbed Architecture', 'Multi-agent planning as a dynamic search for social consensus', 'https://semopenalex.org/source/S4210201610', 'New Approaches to Multi-Agent Planning', 'Strategyproof peer selection using randomization, partitioning, and apportionment', 'https://semopenalex.org/source/S33562827', 'Behaviosites: manipulation of multiagent system behavior through parasitic infection', 'Simulation of Cooperative Behavioral Trends by Local Interaction Rules', 'Agent Failures in All-Pay Auctions', 'Coalitional skill games', 'https://semopenalex.org/source/S4306418308', 'The learnability of voting rules', 'https://semopenalex.org/source/S4306417597', 'Between Discord and Deadlock: Consensus Under a Deadline.', 'The complexity of multiagent systems', "Planning to please: Following another agent's intended plan", 'https://semopenalex.org/source/S4306418390', 'Reaching agreement through partial revelation of preferences', 'Convergence and Quality of Iterative Voting under Non-Scoring Rules: (Extended Abstract)', 'On the complexity of achieving proportional representation', 'Detecting and Deterring Manipulation in a Cognitive Hierarchy', 'Plans for Multiple Agents', 'https://semopenalex.org/source/S4306401019', 'https://semopenalex.org/source/S4306476174', 'https://semopenalex.org/source/S107325288', 'The Clarke tax as a consensus mechanism among automated agents', 'https://semopenalex.org/source/S4306401020', 'Gerrymandering Over Graphs', 'Empirical analysis of plurality election equilibria', 'A local-dominance theory of voting equilibria', 'Verifying plans for multiple agents', 'An algorithm for the coalitional manipulation problem under Maximin', 'COOPERATION WITHOUT COMMUNICATION', 'Junta Distributions and the Average-Case Complexity of Manipulating Elections', 'Convergence of iterative voting', 'https://semopenalex.org/source/S4306514445', 'Distant Truth: Bias Under Vote Distortion Costs', 'The case of the lying postman: Decoys and deception in negotiation', 'Algorithms for the coalitional manipulation problem', 'Tight bounds for strategyproof classification', 'Mechanisms for Automated Negotiation in State Oriented Domains', 'https://semopenalex.org/source/S4210191458', 'Deriving consensus in multiagent systems', 'Voting in Cooperative Information Agent Scenarios: Use and Abuse', 'Bounding the Cost of Stability in Games over Interaction Networks', 'https://semopenalex.org/source/S4306419148', 'Approximating power indices', 'Cooperation and conflict resolution via negotiation among autonomous agents in noncooperative domains', 'Evolutionary patterns of agent organizations', 'Autonomous Agents and Multi-Agent Systems: Guest Introduction', 'Consenting agents: negotiation mechanisms for multi-agent systems', 'aamas03 : proceedings of the second International Joint Conference on Autonomous Agents and Multiagent Systems, July 14-18, 2003, Melbourne, Australia', 'https://semopenalex.org/source/S4306400194', 'Strategyproof Peer Selection using Randomization, Partitioning, and Apportionment', 'An Empirical Investigation of the Adversarial Activity Model', 'Multi-agent planning as search for a consensus that maximizes social welfare', 'The Cost of Stability in Network Flow Games', 'Gossip-based aggregation of trust in decentralized reputation systems', "Le banc d'essais ART (Agent Reputation and Trust) pour les modèles de confiance (article court).", 'The Pricing War Continues: On Competitive Multi-Item Pricing', 'Constrained intelligent action: planning under the influence of a master agent', 'The role of representation in interaction (abstract)', 'Teaching distributed artificial intelligence', 'Divide and conquer in multi-agent planning', 'Approximating power indices: theoretical and empirical analysis', 'Ad Hoc Autonomous Agent Teams: Collaboration without Pre-Coordination', 'https://semopenalex.org/source/S4306401396', 'Incomplete Information and Communication in Voting', 'Research Directions for Service-Oriented Multiagent Systems', 'https://semopenalex.org/source/S172351290', 'Power in threshold network flow games', 'Dynamics based control with an application to area-sweeping problems', 'https://semopenalex.org/source/S106296714', 'Reaching Consensus Under a Deadline', 'Computing cooperative solution concepts in coalitional skill games', 'https://semopenalex.org/source/S4306514979', 'Searching for an alternative plan', 'A contract net with consultants: an alternative architecture and experimental results', 'Mechanisms for information elicitation', 'Collaboration Promotes Group Resilience in Multi-Agent AI', 'On the limits of dictatorial classification', 'Dynamics Based Control: An Introduction', 'On the response of EMT-based control to interacting targets and models', 'Rules of encounter: designing conventions for automated negotiation among computers', 'NetNeg: A Connectionist-Agent Integrated System for Representing Musical Knowledge', 'On the approximability of Dodgson and Young elections', 'Power and stability in connectivity games', 'https://semopenalex.org/source/S4306419999', 'Sketching techniques for collaborative filtering', 'When to Apply the Fifth Commandment: The Effects of Parenting on Genetic and Learning Agents', 'The adversarial activity model for bounded rational agents', 'Incentives in effort games', 'Agents and Peer-to-Peer Computing: Towards P2P-Based Resource Allocation in Competitive Environments', 'Bitcoin Mining Pools: A Cooperative Game Theoretic Analysis', 'Proceedings of the fourth international conference on Autonomous agents', 'Mergers and collusion in all-pay auctions and crowdsourcing contests', 'https://semopenalex.org/source/S4306417653', 'Multi-winner elections: complexity of manipulation, control, and winner-determination', 'https://semopenalex.org/source/S149709236', 'Proof Systems and Transformation Games', 'Learning to Identify Winning Coalitions in the PAC model.', 'A game theoretic approach to distributed artificial intelligence and the pursuit problem (abstract)', 'Learning voting trees', 'https://semopenalex.org/source/S4306402609', 'Complexity of Strategic Behavior in Multi-Winner Elections', 'When to apply the fifth commandment: the effects of parenting on genetic and learning agents', 'Deals Among Rational Agents', 'The Gift Exchange Game: Managing Opponent Actions', 'Algorithms for strategyproof classification', 'https://semopenalex.org/source/S4306463230', 'https://semopenalex.org/source/S90199469', 'Effort Games and the Price of Myopia', 'Approximability and Inapproximability of Dodgson and Young Elections', 'https://semopenalex.org/source/S4306402636', 'Negotiation in State-Oriented Domains with incomplete information over goals', 'Multiagent systems, and the search for appropriate foundations', 'Plan execution motivation in multi-agent systems', 'Behaviosites: A Novel Paradigm for Affecting Distributed Behavior', 'Proceedings of the fourth international conference on autonomous agents, Barcelona, Catalonia, Spain, June 3-7, 2000', 'Best-Response Multiagent Learning in Non-Stationary Environments', 'Understanding Mechanism Design—Part 2 of 3: The Vickrey-Clarke-Groves Mechanism', 'https://semopenalex.org/source/S4306464767', 'The Cost of Stability in Coalitional Games', 'Unsupervised Symbolic Music Segmentation using Ensemble Temporal Prediction Errors', 'Strategyproof classification under constant hypotheses: a tale of two functions', 'https://semopenalex.org/source/S4210167461', 'The Distortion of Cardinal Preferences in Voting', 'Cooperation without communication', 'Negotiation with incomplete information about worth: Strict versus tolerant mechanisms', 'Adding incentives to file-sharing systems', 'https://semopenalex.org/source/S4377196475', 'Compromise in negotiation: exploiting worth functions over states', 'A domain theory for task oriented negotiation', 'Convergence to Equilibria in Plurality Voting', 'A framework for the interleaving of execution and planning for dynamic tasks by multiple agents', 'Minimizing Node Expansions in Bidirectional Search with Consistent Heuristics', 'Strategyproof Peer Selection: Mechanisms, Analyses, and Experiments', 'Proceedings of the International Conference on Autonomous Agents: Foreword', 'Strategyproof classification with shared inputs', 'https://semopenalex.org/source/S4387284494', 'Automated design of scoring rules by learning from examples', 'Junta Distributions and the Average-Case Complexity of Manipulating Elections.', "Time and the Prisoner's Dilemma", 'Coordination without communication: experimental validation of focal point techniques', 'Using focal point learning to improve tactic coordination in human-machine interactions', 'Rebuilding the Great Pyramids: A Method for Identifying Control Relations in Complex Ownership Structures', 'https://semopenalex.org/source/S2488191322', 'https://semopenalex.org/source/S5405189', 'https://semopenalex.org/source/S73987262', 'Agent failures in all-pay auctions', 'Multiagent coordination by Extended Markov Tracking', 'https://semopenalex.org/source/S125501549', 'Complexity of unweighted coalitional manipulation under some common voting rules', "Learn your opponent's strategy (in polynomial time)!", 'https://semopenalex.org/source/S4377196284', 'https://semopenalex.org/source/S4363604309', 'A (Dis-)information Theory of Revealed and Unrevealed Preferences: Emerging Deception and Skepticism via Theory of Mind', 'https://semopenalex.org/source/S4363608824', 'Synchronization of Multi-Agent Plans', 'Using focal point learning to improve human–machine tacit coordination', 'Mechanism design for automated negotiation, and its application to task oriented domains', 'Musag an agent that learns what you mean', 'https://semopenalex.org/source/S4306462995', 'Analysis of Equilibria in Iterative Voting Schemes', 'Search Space Reduction Using Swamp Hierarchies', 'The cost of stability in weighted voting games', 'Dynamics based control with PSRs', 'https://semopenalex.org/source/S114241109', 'Exploiting Problem Symmetries in State-Based Planners', 'Reaching Consensus Under a Deadline.', 'https://semopenalex.org/source/S4306420577', 'Beyond Plurality: Truth-Bias in Binary Scoring Rules', 'Convergence of Iterative Scoring Rules', 'Strategyproof classification', 'https://semopenalex.org/source/S4377196354', 'https://semopenalex.org/source/S4306463519', 'Distributed multiagent resource allocation in diminishing marginal return domains', 'Algorithmic Game Theory', 'https://semopenalex.org/source/S4306401737', 'Deals among rational agents', 'Negotiation and conflict resolution in non-cooperative domains', 'Synchronization of multi-agent plans', 'Emergent coordination through the use of cooperative state-changing rules', 'https://semopenalex.org/source/S4393179698', 'Multiagent graph coloring: Pareto efficiency, fairness and individual rationality', 'A Local-Dominance Theory of Voting Equilibria', 'Achieving Allocatively-Efficient and Strongly Budget-Balanced Mechanisms in the Network Flow Domain for Bounded-Rational Agents', 'https://semopenalex.org/source/S205899252', 'Communication-Free Interactions among Rational Agents: A Probabilistic Approach', 'Mechanisms for partial information elicitation: the truth, but not the whole truth', 'Manipulation with randomized tie-breaking under Maximin', 'https://semopenalex.org/source/S4306463937', 'Sharing Rewards in Cooperative Connectivity Games', 'Using swamps to improve optimal pathfinding', 'Teaching and leading an ad hoc teammate: Collaboration without pre-coordination', 'Supporting Privacy in Decentralized Additive Reputation Systems', 'Designing conventions for automated negotiation', 'Negotiation and task sharing among autonomous agents in cooperative domains', 'Proof systems and transformation games', 'https://semopenalex.org/source/S4306418977', 'https://semopenalex.org/source/S4210177767', 'Passive threats among agents in State Oriented Domains', 'Subsidies, stability, and restricted cooperation in coalitional games', 'https://semopenalex.org/source/S4306401540', 'Mutually supervised learning in multiagent systems', 'Extensive-Form Argumentation Games.', 'The impact of infocenters on e-marketplaces', 'Bounds on the Cost of Stabilizing a Cooperative Game', 'https://semopenalex.org/source/S4363608732', 'https://semopenalex.org/source/S196139623', 'https://semopenalex.org/source/S4306507525', 'https://semopenalex.org/source/S4306420974', 'https://semopenalex.org/source/S4210233839', 'AgentSoft', 'Knowing What to Ask: A Bayesian Active Learning Approach to the Surveying Problem', 'NetNeg: A Hybrid Interactive Architecture for Composing Polyphonic Music in Real Time', 'Minimal Subsidies in Expense Sharing Games', 'Leading a Best-Response Teammate in an Ad Hoc Team', 'Divide and Conquer: Using Geographic Manipulation to Win District-Based Elections', 'Tracking Performance and Forming Study Groups for Prep Courses Using Probabilistic Graphical Models: (Extended Abstract)', 'Computation and Incentives in Social Choice (Dagstuhl Seminar 12101)', 'On the Approximability of Dodgson and Young Elections', 'Incomplete information and deception in multi-agent negotiation', 'Strategyproof Peer Selection.', 'Searching for close alternative plans', 'Report on the second international joint conference on autonomous agents and multiagent systems', 'https://semopenalex.org/source/S2764580927', 'https://semopenalex.org/source/S4306400349', 'Real Candidacy Games: A New Model for Strategic Candidacy', 'https://semopenalex.org/source/S139930977', 'The Communication Complexity of Coalition Formation Among Autonomous Agents.', 'https://semopenalex.org/source/S4306402512', 'Minimal subsidies in expense sharing games', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S153467142', 'A broader picture of the complexity of strategic behavior in multi-winner elections', 'https://semopenalex.org/source/S76152103', 'Reaching consensus under a deadline', 'Iterative voting and acyclic games', 'https://semopenalex.org/source/S4210172589', 'https://semopenalex.org/source/S4306463626', 'An NTU Cooperative Game Theoretic View of Manipulating Elections', 'Coordination and multi-tasking using EMT', 'The pricing war continues: on competitive multi-item pricing', 'Avoid fixed pricing: consume less, earn more, make clients happy', 'The role of middle-agents in electronic commerce', "Le banc d'essais ART (Agent Reputation and Trust) pour les modèles de confiance", 'https://semopenalex.org/source/S4306400216']</t>
+  </si>
+  <si>
+    <t>['A self-equilibrium Friedman-like urn via stochastic approximation', 'https://semopenalex.org/source/S985303', 'Age statistics in the Moran population model', 'The size of random bucket trees via urn models', 'Some properties of exponential trees', 'https://semopenalex.org/source/S4210186879', 'Analytic variations on bucket selection and sorting', 'Survivors in leader election algorithms', 'Distances in random digital search trees', 'The Department of Statistics at The George Washington University', 'Imbalance in Random Digital Trees', 'On the Most Probable Shape of a Search Tree Grown from a Random Permutation', 'On the joint distribution of the insertion path length and the number of comparisons in search trees', 'Degrees in random $m$-ary hooking networks', 'Probabilistic Analysis of MULTIPLE QUICK SELECT', 'A stochastic model for solitons', 'A Limit Law for Outputs in Random Recursive Circuits', 'Random sprouts as internet models, and P�lya processes', 'https://semopenalex.org/source/S164906323', 'The Power of Choice in the Construction of Recursive Trees', 'https://semopenalex.org/source/S4210182901', 'Limit laws for the Randić index of random binary tree models', 'Polya Urn Models', 'The class of tenable zero-balanced Pólya urns with an initially dominant subset of colors', 'Insertion depth in power-weight trees', 'Egorychev Method: A Hidden Treasure', 'https://semopenalex.org/source/S165473669', 'https://semopenalex.org/source/S44643521', 'ON THE COMBINATORICS OF BINARY SERIES-PARALLEL GRAPHS', 'https://semopenalex.org/source/S4306417669', 'Degrees in random self-similar bipolar networks', 'Winning a Tournament According to Bradley-Terry Probability Model', 'On nodes of small degrees and degree profile in preferential dynamic attachment circuits', 'Two-color balanced affine urn models with multiple drawings II: large-index and triangular urns', 'On generalized Pólya urn models', 'https://semopenalex.org/source/S2765029694', 'Probabilistic analysis of maximal gap and total accumulated length in interval division', 'https://semopenalex.org/source/S4306400194', 'Distribution of the size of random hash trees, pebbled hash trees and N-trees', 'Exact Covariances and Refined Asymptotics in Dichromatic Tenable Balanced Polya Urn Schemes', 'https://semopenalex.org/source/S9093621', 'Analysis of a generalized Friedman’s urn with multiple drawings', 'https://semopenalex.org/source/S84409463', 'An Efficiency Robust Nonparametric Test for Scale Change for Data from a Gamma Distribution', 'https://semopenalex.org/source/S4306401280', 'Asymptotic Properties of Protected Nodes in Random Recursive Trees', 'https://semopenalex.org/source/S4210234901', 'Balancing m-ary search trees with compressions on the fringe', 'Average-Case Analysis of Cousins in m-ary Tries', 'Covariances in Pólya urn schemes', 'The continuous-time triangular Pólya process', 'EXTREMAL WEIGHTED PATH LENGTHS IN RANDOM BINARY SEARCH TREES', 'Distributions in a class of Poissonized urns with an application to Apollonian networks', 'Asymptotic distribution of two-protected nodes in random binary search trees', 'https://semopenalex.org/source/S4306402264', 'https://semopenalex.org/source/S4306463075', 'Distribution of inter-node distances in digital trees', 'Exact Covariances and Refined Asymptotics in Dichromatic Tenable Balanced Pólya Urn Schemes', 'مدلهای آوند پولیاگونه با برداشتهای چندگانه', 'On rotations in fringe-balanced binary trees', 'Throughput analysis in wireless networks with multiple users and multiple channels', 'Affine Diminishing Urns', 'https://semopenalex.org/source/S59667848', 'Degrees in random &lt;mml:math xmlns:mml=http://www.w3.org/1998/Math/MathML&gt;&lt;mml:mi&gt;m&lt;/mml:mi&gt;&lt;/mml:math&gt;-ary hooking networks', 'Pólya urns: Probabilistic analysis and statistical questions', 'The joint distribution of the three types of nodes in uniform binary trees', 'https://semopenalex.org/source/S4306463019', 'Polya Urn Models and Connections to Ran- dom Trees: A Review', 'https://semopenalex.org/source/S4306402042', 'Polya-Type Urn Models with Multiple Drawings', 'The Class of Tenable Zero-Balanced Pólya Urn Schemes: Characterization and Gaussian Phases', 'Analysis of quickselect : an algorithm for order statistics', 'Local and global degree profiles of randomly grown self-similar hooking networks under uniform and preferential attachment', 'The Expected Distribution of Degrees in Random Binary Search Trees', 'https://semopenalex.org/source/S200334879', 'https://semopenalex.org/source/S4306463230', 'JISC: Adaptive stream processing using just-in-time state completion?', 'https://semopenalex.org/source/S160779208', 'https://semopenalex.org/source/S23873141', 'The Sackin index and depth of leaves in generalized Schröder trees', 'On the Variety of Shapes on the Fringe of a Random Recursive Tree', 'Toward a Formal Derivation of the Expected Behavior of Prefix &lt;i&gt;B&lt;/i&gt;-Trees', 'An Urn Model for Population Mixing and the Phases Within', 'Distributions in the constant-differentials Pólya process', 'ON CLIMBING TRIES', 'Distribution of distances in random binary search trees', 'Profile of Random Exponential Recursive Trees', 'https://semopenalex.org/source/S4386872458', 'The containment profile of hyperrecursive trees', 'Phases in the two-color tenable zero-balanced Pólya process', 'One-sided variations on binary search trees', 'https://semopenalex.org/source/S6941720', 'https://semopenalex.org/source/S4210224136', 'Analysis of Quickselect Under Yaroslavskiy’s Dual-Pivoting Algorithm', 'Dynamic Pólya–Eggenberger urns', 'Oツリー,Bツリー,接頭Bツリーのストレージのオーバーヘッド 比較分析', 'DEGREE PROFILE OF HIERARCHICAL LATTICE NETWORKS', 'Phase Changes in Subtree Varieties in Random Recursive and Binary Search Trees', 'BUILDING RANDOM TREES FROM BLOCKS', 'A Strong Law for the Height of Random Binary Pyramids', 'Some empirical and theoretical attributes of random multi-hooking networks', 'DEGREE PROFILE OF &lt;i&gt;m&lt;/i&gt;-ARY SEARCH TREES: A VEHICLE FOR DATA STRUCTURE COMPRESSION', 'Correction to: Egorychev Method: A Hidden Treasure', 'Exact and limiting distributions in diagonal Pólya processes', 'On the distribution for the duration of a randomized leader election algorithm', 'Bivariate Issues in Leader Election Algorithms with Marshall-Olkin Limit Distribution', 'Profile of Random Exponential Binary Trees', 'Asymptotic Properties of a Leader Election Algorithm', 'Analysis of swaps in radix selection', 'https://semopenalex.org/source/S989097277', 'Random networks grown by fusing edges via urns', 'Exact and Limiting Distributions in Diagonal Pólya Processes', 'On the variety of shapes in digital trees', 'Two-colour balanced affine urn models with multiple drawings I: central limit theorems', 'Asymptotic Joint Normality of Outdegrees of Nodes in Random Recursive Trees', 'https://semopenalex.org/source/S156280010', 'The degree profile and weight in Apollonian networks and &lt;i&gt;k&lt;/i&gt;-trees', 'https://semopenalex.org/source/S18902827', 'The continuum Pólya-like random walk', 'BERNOULLI CONVOLUTION OF THE DEPTH OF NODES IN RECURSIVE TREES WITH GENERAL AFFINITIES', 'Phases in the Diffusion of Gases via the Ehrenfest URN Modelx', 'Affine diminishing urns', 'DRAWING MULTISETS OF BALLS FROM TENABLE BALANCED LINEAR URNS', 'https://semopenalex.org/source/S180803011', 'A multivariate view of random bucket digital search trees', 'Problems and Solutions', 'Characterization and Enumeration of Certain Classes of Tenable Pólya Urns Grown by Drawing Multisets of Balls', 'Average measures in polymer graphs', 'https://semopenalex.org/source/S2530642067', 'One-sided Variations on Tries: Path Imbalance, Climbing, and Key Sampling', 'Limiting Distributions for Path Lengths in Recursive Trees', 'The Degree Profile in Some Classes of Random Graphs that Generalize Recursive Trees', 'Random multi-hooking networks', 'On the structure of random plane‐oriented recursive trees and their branches', 'On affine multi-color urns grown under multiple drawing', 'The Gini index of random trees with an application to caterpillars', 'https://semopenalex.org/source/S94688346', 'https://semopenalex.org/source/S4393179698', 'The Joint Distribution of Elastic Buckets in Multiway Search Trees', 'Statistical Inequalities', 'https://semopenalex.org/source/S117679221', 'The Degree Gini Index of Several Classes of Random Trees and Their Poissonized Counterparts�Evidence for Duality', 'Asymptotic Joint Normality of Counts of Uncorrelated Motifs in Recursive Trees', 'On the average internal path length of m-ary search trees', 'The oscillatory distribution of distances in random tries', 'https://semopenalex.org/source/S4306463937', 'https://semopenalex.org/source/S4306418406', 'An index for betting with examples from games and sports', 'On the Distribution of Leaves in Rooted Subtrees of Recursive Trees', 'On the internal structure of random recursive circuits', 'https://semopenalex.org/source/S153560523', 'The class of tenable zero-balanced Pólya urn schemes: characterization and Gaussian phases', 'https://semopenalex.org/source/S7571225', 'Algorithmics of Nonuniformity', 'On the Variety of Shapes in Digital Trees', 'https://semopenalex.org/source/S147953040', 'https://semopenalex.org/source/S2764830807', 'https://semopenalex.org/source/S110520077', 'SOME NODE DEGREE PROPERTIES OF SERIES–PARALLEL GRAPHS EVOLVING UNDER A STOCHASTIC GROWTH MODEL', 'Explicit characterization of moments of balanced triangular Pólya urns by an elementary approach', 'Corrigendum', 'STORAGE OVERHEAD OF O-TREES, B-TREES AND PREFIX B-TREES: A COMPARATIVE ANALYSIS', 'Paths in &lt;mml:math xmlns:mml=http://www.w3.org/1998/Math/MathML altimg=si2.gif overflow=scroll&gt;&lt;mml:mi&gt;m&lt;/mml:mi&gt;&lt;/mml:math&gt;-ary interval trees', 'Exactly Solvable Balanced Tenable Urns with Random Entries via the Analytic Methodology', "Mixed distributions in Sattolo's algorithm for cyclic permutations via randomization and derandomization", 'https://semopenalex.org/source/S90727058', 'Two-color balanced affine urn models with multiple drawings', 'Analysis of an Algorithm for Random Sampling', 'https://semopenalex.org/source/S68047077', 'Distances in random plane-oriented recursive trees', 'Bar Bets and Generating Functions: The Distribution of the Separation of Two Distinct Card Ranks', 'Analysis of Boyer-Moore-Horspool string-matching heuristic', 'Limit laws for terminal nodes in random circuits with restricted fan-out: a family of graphs generalizing binary search trees', 'An Efficiency Robust Nonparametric Test for Scale Change for Data From a Gamma Distribution', 'https://semopenalex.org/source/S9424914', 'https://semopenalex.org/source/S203441484', 'https://semopenalex.org/source/S4210191297', 'Sorting 1-away permutations with underlying Fibonacci convolutions', 'https://semopenalex.org/source/S171741597', 'Distributions in the Ehrenfest process', 'https://semopenalex.org/source/S128350725', 'DEGREE-BASED GINI INDEX FOR GRAPHS', 'https://semopenalex.org/source/S2764412775', 'Probabilistic analysis of bucket recursive trees', 'https://semopenalex.org/source/S193011845', 'Average-case analysis of multiple Quickselect: An algorithm for finding order statistics', 'On the Joint Behavior of Types of Coupons in Generalized Coupon Collection', 'The containment profile of hyper-recursive trees', 'https://semopenalex.org/source/S4306536558', 'https://semopenalex.org/source/S89324355', 'On tree-growing search strategies', 'Trees grown under young-age preferential attachment', 'On Nodes of Small Degrees and Degree Profile in Preferential Dynamic Attachment Circuits', 'A SPECTRUM OF SERIES–PARALLEL GRAPHS WITH MULTIPLE EDGE EVOLUTION', 'Limit distribution of distances in biased random tries', 'A model for the spreading of fake news', 'https://semopenalex.org/source/S4306400349', 'https://semopenalex.org/source/S4210215866', 'Analysis of the space of search trees under the random insertion algorithm', 'https://semopenalex.org/source/S4306400744', 'https://semopenalex.org/source/S4306402441', 'https://semopenalex.org/source/S4306402512', 'Distributional analysis of swaps in Quick Select', 'https://semopenalex.org/source/S150892397', 'Estimating the Pólya process', 'One-sided variations on interval trees', 'https://semopenalex.org/source/S177771411', 'Gaussian phases in generalized coupon collection', 'https://semopenalex.org/source/S4210172589', 'https://semopenalex.org/source/S170765028', 'SOME PROPERTIES OF BINARY SERIES-PARALLEL GRAPHS', 'The degree Gini index of several classes of random trees and their poissonized counterparts---an evidence for a duality theory', 'Perpetuities in Fair Leader Election Algorithms', 'https://semopenalex.org/source/S4377196372', 'On affine multicolor urns grown under multiple drawing', 'Depths in hooking networks']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S4306400562', 'A Scalable Multi-Layered Blockchain Architecture for Enhanced EHR  Sharing and Drug Supply Chain Management', 'Analysis and Improvement of the securing RFID systems conforming to EPC Class 1 Generation 2 standard.', 'https://semopenalex.org/source/S173102057', 'Simulation-Based Traceability Analysis of RFID Authentication Protocols', 'A New Secret key Agreement Scheme in a Four-Terminal Network', 'Optimum Power Allocations for Fading Decode-and-Forward Relay Channel', 'An Improved Truncated Differential Cryptanalysis of Klein', 'Designated Verifier Threshold Proxy Signature Scheme without Random Oracles.', 'A Bit-Vector Differential Model for the Modular Addition by a Constant.', 'https://semopenalex.org/source/S63459445', 'https://semopenalex.org/source/S120683614', 'A technique for deriving one-shot achievability results in network information theory', 'A Secure Key Management Framework for Heterogeneous Wireless Sensor Networks', 'Comparison of managed decode-and-forward scheme and common decode-and-forward scheme in cooperative communication systems', 'On Optimal Online Algorithms for Energy Harvesting Systems with Continuous Energy and Data Arrivals', 'https://semopenalex.org/source/S2480266640', 'Likelihood ratio tests for PSK modulation classification in unknown noise environment', 'Achievable Rates for Binary Two-hop Channel with Energy Harvesting Relay With Finite Battery.', 'https://semopenalex.org/source/S63392143', 'Statistical Performance Analysis of MDL Source Enumeration in Array Processing', 'Coordination via a relay', 'https://semopenalex.org/source/S2500830676', 'Multiple Access Wire-tap Channel with Common Message.', 'Channel Simulation via Interactive Communications', 'Adaptive secure channel coding based on punctured turbo codes', 'Cryptanalysis of McEliece cryptosystem variants based on quasi‐cyclic low‐density parity check codes', 'Rate regions of secret key sharing in a new source model', 'On the secrecy of the cognitive interference channel with partial channel states', 'A fuzzy fully distributed trust management system in wireless sensor networks', 'Capacity bounds for multiple access-cognitive interference channel', 'Secrecy Capacity in Large Cooperative Networks in Presence of Eavesdroppers with Unknown Locations', 'Capacity of the State-Dependent Wiretap Channel: Secure Writing on Dirty Paper', 'An Improved Authentication Scheme for Electronic Payment Systems in Global Mobility Networks', 'On Optimal Online Algorithms for Energy Harvesting Systems With Continuous Energy and Data Arrivals', 'https://semopenalex.org/source/S4306400194', 'A Location Privacy-Preserving Method for Spectrum Sharing in Database-Driven Cognitive Radio Networks', 'https://semopenalex.org/source/S11258463', 'https://semopenalex.org/source/S4363608346', 'Squaring attacks on McEliece public-key cryptosystems using quasi-cyclic codes of even dimension', 'Power allocation for Incremental-Selective Decode-and-Forward cooperative communications over Rician fading channels', 'An Efficient Multistage Secret Sharing Scheme Using Linear One-way Functions and Bilinear Maps.', 'Joint Transfer of Energy and Information in a Two-hop Relay Channel', 'Achievable rate region for broadcast-relay networks with two cooperative relays', 'https://semopenalex.org/source/S2764444581', 'Guess and Determine Attack on Bivium', 'Learning under Distribution Mismatch and Model Misspecification', 'Information Theoretic Framework for Single and Multi-Server Private Authentication', 'Improving GGH Public Key Scheme Using Low Density Lattice Codes.', 'A Provably Secure Code-based Concurrent Signature Scheme.', 'Modeling gene regulatory networks: Classical models, optimal perturbation for identification of network', 'https://semopenalex.org/source/S90422530', 'A New Achievable Rate and the Capacity of Some Classes of Multilevel Relay Network', 'https://semopenalex.org/source/S4306529434', 'Non-Asymptotic Output Statistics of Random Binning and Its Applications', 'A New Method for Variable Elimination in Systems of Inequations', 'Multiple access channel with common message and secrecy constraint', 'Adjustable privacy using autoencoder-based learning structure', 'Private Authentication: Optimal Information Theoretic Schemes', 'On the Secrecy Performance of NOMA Systems with both External and Internal Eavesdroppers', 'https://semopenalex.org/source/S192650101', 'https://semopenalex.org/source/S4306401954', 'https://semopenalex.org/source/S2764800400', 'An LWE-based verifiable threshold secret sharing scheme', 'Secret Key Cryptosystem Based on Non-systematic Polar Codes', 'Slepian-Wolf coding over cooperative networks', 'A new secret key agreement scheme in a four-terminal network', 'A lightweight hierarchical authentication scheme for internet of things', 'Multiple Relay Channels with Delays: With and without Side Information', 'Multi-layer Gelfand-Pinsker strategies for the generalized multiple-access channel', 'Power Allocation and Performance Analysis for Incremental-Selective Decode-and-Forward Cooperative Communications over Nakagami-&amp;lt;i&amp;gt;m&amp;lt;/i&amp;gt; Fading Channels', 'An Achievable Rate Region for a Two-Relay Network with Receiver-Transmitter Feedback', 'https://semopenalex.org/source/S85427048', 'https://semopenalex.org/source/S4210191536', 'Information-Theoretic Secure and Private Voting System', 'On The Secrecy of the Cognitive Interference Channel with Partial Channel States', 'A new method for variable elimination in systems of inequations', 'Three‐user interference channel with common information: a rate splitting‐based achievability scheme', 'https://semopenalex.org/source/S49967189', 'Multiple-access channel with correlated states and cooperating encoders', 'On the Capacity of Interference Channel With Causal and Noncausal Generalized Feedback at the Cognitive Transmitter', 'The Capacity of a Class of Linear Deterministic Networks', 'Secure Channel Simulation', 'A NEW RECURSIVE ALGORITHM FOR UNIVERSAL CODING OF INTEGERS', 'Secure channel simulation', 'Energy Harvesting Systems With Continuous Energy and Data Arrivals: The Optimal Offline and Heuristic Online Algorithms', 'Combining Blockchain and IoT for Decentralized Healthcare Data Management', 'Multi‐layer Gelfand–Pinsker strategies for the generalised multiple‐access channel', 'A Fast Multiple-Source Detection and Localization Array Signal Processing Algorithm Using the Spatial Filtering and ML Approach', 'A novel approach to radio direction finding and detecting the number of sources simultaneously: DMSAE algorithm', 'Joint source-channel coding using finite state integer arithmetic codes', 'Recursive Linear and Differential Cryptanalysis of Ultralightweight Authentication Protocols.', 'A Correlation Measure Based on Vector-Valued L&lt;sub&gt;p&lt;/sub&gt; Norms', 'https://semopenalex.org/source/S4363606450', 'Smooth Projective Hash Function From Codes and its Applications', 'Improving the Rao-Nam secret key cryptosystem using regular EDF-QC-LDPC codes', 'https://semopenalex.org/source/S106148199', 'https://semopenalex.org/source/S61708620', 'Cooperative relay cognitive interference channel', 'Enhanced cache attack on AES applicable on ARM-based devices with new operating systems', 'https://semopenalex.org/source/S147316732', 'https://semopenalex.org/source/S2485537415', 'Leveled Design of Cryptography Algorithms Using Cybernetic Methods for Using in Telemedicine Applications', 'Optimum Decoder for Multiplicative Spread Spectrum Image Watermarking with Laplacian Modeling', 'Breaking Anonymity of Some Recent Lightweight RFID Authentication Protocols.', 'JHAE: An Authenticated Encryption Mode Based on JH.', 'Efficient Polar Code-Based Physical Layer Encryption Scheme', 'Investigation of Some Attacks on GAGE (v1), InGAGE (v1), (v1.03), and CiliPadi (v1) Variants', 'Improved impossible differential and biclique cryptanalysis of HIGHT', 'Cryptanalysis of Some First Round CAESAR Candidates', 'Strategies for Optimal Transmission and Delay Reduction in Dynamic Index Coding Problem', 'A Multi-Layer Encoding and Decoding Strategy for Binary Erasure Channel', 'PKC‐PC: A variant of the McEliece public‐key cryptosystem based on polar codes', 'Key management system for WSNs based on hash functions and elliptic curve cryptography', 'A Secure Error-Resilient Lossless Source Coding Scheme Based on Punctured Turbo Codes', 'On the Intelligent Eavesdropping of Differential Frequency Hopping', 'Traceability Analysis of Recent RFID Authentication Protocols', 'Dynamic and secure key management model for hierarchical heterogeneous sensor networks', 'https://semopenalex.org/source/S172631016', 'A Joint Encryption-Encoding Scheme Using QC-LDPC Codes Based on Finite Geometry', 'Artemia: A Family of Provably Secure Authenticated Encryption Schemes', 'Analytical power allocation for a full‐duplex decode‐and‐forward relay channel', 'Secrecy capacity in large cooperative networks in presence of eavesdroppers with unknown locations', 'https://semopenalex.org/source/S4210222067', 'The Capacity Region of p -Transmitter/ q -Receiver Multiple-Access Channels With Common Information', 'Security and privacy-preserving in e-health: A new framework for patient', 'Imperfect and Perfect Secrecy in Compound Multiple Access Channel With Confidential Message', 'Detection of coherent radar signals with unknown Doppler shift', 'On the Capacity of &lt;i&gt;M&lt;/i&gt;-ary ASK Two-Hop Channel With Finite Battery Energy Harvesting Relay', 'Security and Privacy Analysis of Song–Mitchell RFID Authentication Protocol', 'Secret key cryptosystem based on polar codes over Binary Erasure Channel', 'Efficient multistage secret sharing scheme using bilinear map', 'A new method for Visual Secret Sharing', 'A MSWF root‐MUSIC based on Pseudo‐noise resampling technique', 'Provably secure strong designated verifier signature scheme based on coding theory', 'Generalized Meet in the Middle Cryptanalysis of Block Ciphers With an Automated Search Algorithm', 'https://semopenalex.org/source/S4306420223', 'Statistics of Random Binning Based on Tsallis Divergence', 'CAPACITY ANALYSIS OF A CDMA CELLULAR SYSTEM WITH MIXED CELL SIZES AND IMPERFECT POWER CONTROL', 'Total Break of Zorro using Linear and Differential Attacks.', 'Secret Key Agreement Using Conferencing in State- Dependent Multiple Access Channels with An Eavesdropper', 'A revocable attribute based data sharing scheme resilient to DoS attacks in smart grid', 'https://semopenalex.org/source/S141761900', 'https://semopenalex.org/source/S4210174276', 'https://semopenalex.org/source/S4306418690', 'https://semopenalex.org/source/S4306419875', 'Mitigating Node Capture Attack in Random Key Distribution Schemes through Key Deletion', 'Physical layer security for some classes of three‐receiver broadcast channels', 'https://semopenalex.org/source/S4393179698', "Beyond Yao's Millionaires: Secure Multi-Party Computation of  Non-Polynomial Functions", 'https://semopenalex.org/source/S4306532254', 'A Secure and efficient elliptic curve based authentication and key agreement protocol suitable for WSN.', 'Compress-and-forward strategy for Causal Cognitive Interference Channel', 'A provably secure code‐based short signature scheme and its nontransferable variant', 'Information Theoretically Private and Secure Distributed Voting Without a Trusted Authority', 'Three-User Cognitive Interference Channel: Capacity Region with Strong Interference', 'A secure ECC-based privacy preserving data aggregation scheme for smart grids', 'A Joint Encryption-Encoding Scheme using QC-LDPC Codes based on Finite Geometry', 'Public Key Cryptosystem Based on Low Density Lattice Codes', 'The Capacity Region of p-Transmitter/q-Receiver Multiple-Access Channels with Common Information', 'https://semopenalex.org/source/S4306515431', 'https://semopenalex.org/source/S81616010', 'THE KRYPTOKNIGHT FAMILY OF PROTOCOLS: EVALUATION AND ENHANCEMENT', 'Secret Key Cryptosystem based on Polar Codes over Binary Erasure Channel', 'Direction-of-Arrival Estimation for Temporally Correlated Narrowband Signals', 'QoS network coding', 'Optimal Transmission Policies for Multi-Hop Energy Harvesting Systems', 'Breaking anonymity of some recent lightweight RFID authentication protocols', 'Desynchronization attack on RAPP ultralightweight authentication protocol', 'Joint transfer of energy and information in a two-hop relay channel', 'Paradise of Forking Paths: Revisiting the Adaptive Data Analysis Problem', 'Cryptanalysis of SIMON Variants with Connections', 'https://semopenalex.org/source/S48031226', 'https://semopenalex.org/source/S4210209864', 'https://semopenalex.org/source/S72372694', 'https://semopenalex.org/source/S4502562', 'On the Security of O-PSI: A Delegated Private Set Intersection on Outsourced Datasets (Extended Version)', 'A Provably Secure Short Signature Scheme from Coding Theory.', 'A Bit-Vector Differential Model for the Modular Addition by a Constant', 'Cryptanalysis and Improvement of a User Authentication Scheme for Internet of Things Using Elliptic Curve Cryptography.', 'Addressing Flaws in RFID Authentication Protocols', 'State-Dependent Relay Channel with Private Messages with partial causal and non-causal Channel State Information', 'https://semopenalex.org/source/S4306401559', 'Cooperative relay cognitive interference channels with causal channel state information', 'https://semopenalex.org/source/S4210225210', 'https://semopenalex.org/source/S30128005', 'On the Capacity of Causal Cognitive Interference Channel With Delay', 'https://semopenalex.org/source/S2764795475', 'https://semopenalex.org/source/S97755082', 'https://semopenalex.org/source/S4210172892', 'https://semopenalex.org/source/S168680287', 'Some new issues on secret sharing schemes', 'A provably secure code‐based concurrent signature scheme', 'Perfectly secure index coding', 'Total break of Zorro using linear and differential attacks', 'Low-Data Complexity Biclique Cryptanalysis of Block Ciphers With Application to Piccolo and HIGHT', 'https://semopenalex.org/source/S4210213119', 'Low Data Complexity Biclique Cryptanalysis of Block Ciphers with Application to Piccolo and HIGHT.', 'Multiple Access Channel with Common Message and Secrecy constraint', 'On the devroye-mitran-tarokh rate region for the cognitive radio channel', 'When is it possible to simulate a DMC channel from another?', 'On The Positive Definiteness of Polarity Coincidence Correlation Coefficient Matrix', 'Slepian–Wolf Coding Over Cooperative Relay Networks', 'Key Agreement Over Multiple Access Channel', 'When is it possible to simulate a DMC channel from another', 'One-Receiver Two-Eavesdropper Broadcast Channel With Degraded Message Sets', 'Symmetric Relaying Strategy for Two-Relay Networks', 'Adjustable Privacy Using Autoencoder-Based Learning Structure', 'Sum Degrees of Freedom of the $K$-user Interference Channel with Blind CSI', 'Signal Activity Detection of Phase-Shift Keying Signals', 'Improved Linear Cryptanalysis of Round Reduced SIMON.', 'Achievable rate regions for Relay Channel with Private Messages with states known at the source', 'https://semopenalex.org/source/S2764709306', 'A lightweight identity-based provable data possession supporting users’ identity privacy and traceability', 'On the Equivalency of Reliability and Security Metrics for Wireline Networks', 'Generalised secure distributed source coding with side information', 'Efficient method for simplifying and approximating the S-boxes based on power functions', 'Degrees of Freedom Rate Region of the $K$-user Interference Channel with Blind CSIT Using Staggered Antenna Switching', 'Biclique Cryptanalysis of Block Ciphers LBlock and TWINE-80 with Practical Data Complexity', 'https://semopenalex.org/source/S4306425600', 'Adaptive detection algorithm for radar signals in autoregressive interference', 'A Correlation Measure Based on Vector-Valued $L_p$ -Norms', 'Compound Multiple Access Channel with confidential messages', 'https://semopenalex.org/source/S4306417880', 'On the design and security of a lattice-based threshold secret sharing scheme', 'Unified privacy analysis of new‐found RFID authentication protocols', 'A successful attack against the DES', 'Code-based Strong Designated Verifier Signatures: Security Analysis and a New Construction.', 'PERFORMANCE COMPARISON OF ADMISSION CONTROL POLICIES FOR NEW CALLS IN SOFT-HANDOFF REGIONS FOR CDMA CELLULAR NETWORKS', 'https://semopenalex.org/source/S205498627', 'https://semopenalex.org/source/S139336729', 'Using Blockchain to Achieve Decentralized Privacy in IoT Healthcare', 'Comments on a lightweight cloud auditing scheme: Security analysis and improvement', 'Optimum decoder for multiplicative spread spectrum image watermarking with Laplacian modeling', 'Integral Cryptanalysis of Round-Reduced Shadow-32 for IoT Nodes', 'Cryptanalysis of full-round SFN Block Cipher a Lightweight Block Cipher, Targeting IoT Systems', 'https://semopenalex.org/source/S4306401280', 'Achievable Rates for Binary Two-hop Channel with Energy Harvesting Relay and Finite Battery', 'A new and efficient authentication scheme for vehicular ad hoc networks', 'QoSNC: A novel approach to QoS-based network coding for fixed networks', 'https://semopenalex.org/source/S2493627025', 'Rate Regions of Secret Key Sharing in a New Source Model', 'Achievability Proof via Output Statistics of Random Binning', 'On the reliable transmission of correlated sources over two-relay network', 'Static network codes using network minimal subgraphs', 'Improved Linear Cryptanalysis of Reduced-round SIMON', 'https://semopenalex.org/source/S149016011', 'A Flexible Dynamic Traffic Model for Reverse Link CDMA Cellular Networks', 'SCALHEALTH: Scalable Blockchain Integration for Secure IoT Healthcare  Systems', 'Non-asymptotic output statistics of Random Binning and its applications', 'Toward an Energy Efficient PKC-Based Key Management System for Wireless Sensor Networks', 'https://semopenalex.org/source/S4393919517', 'Biclique Cryptanalysis of the Full-Round KLEIN Block Cipher.', 'Analysis of design goals of cryptography algorithms based on different components', 'A Correlation Measure Based on Vector-Valued $L_p$-Norms', 'https://semopenalex.org/source/S106296714', 'Efficient secure channel coding based on quasi-cyclic low-density parity-check codes', 'Energy Harvesting Systems with Continuous Energy and Data Arrivals: the Optimal Offline and a Heuristic Online Algorithms', 'https://semopenalex.org/source/S30889260', 'Efficient secure channel coding scheme based on low‐density Lattice codes', 'PolarSig: An efficient digital signature based on polar codes', 'A NEW APPROACH FOR COHERENT RADAR DETECTION IN PSEUDO- GAUSSIAN INTERFERENCE', 'Key agreement over a state-dependent 3-receiver broadcast channel', 'https://semopenalex.org/source/S4306538080', 'https://semopenalex.org/source/S4306515657', 'Blind Interference Alignment for the &amp;lt;inline-formula&amp;gt; &amp;lt;tex-math notation=LaTeX&amp;gt;$K$ &amp;lt;/tex-math&amp;gt; &amp;lt;/inline-formula&amp;gt;-User SISO Interference Channel Using Reconfigurable Antennas', 'https://semopenalex.org/source/S2764847869', 'https://semopenalex.org/source/S4306400806', 'Coded Secure Multi-Party Computation for Massive Matrices with Adversarial Nodes', 'Capacity of a more general glass of relay channels', 'Designing a Multiple Access Differential Frequency Hopping System with Variable Frequency Transition Function', 'Adjustable Privacy using Autoencoder-based Learning Structure', 'https://semopenalex.org/source/S4306514253', 'A secure and privacy-preserving protocol for holding double auctions in smart grid', 'Analysis of an RFID Authentication Protocol in Accordance with EPC Standards.', 'Channel simulation via interactive communications', 'Activity detection of a PSK in unknown white gaussian noise: optimal and suboptimal invariant detectors', 'https://semopenalex.org/source/S2764692580', 'https://semopenalex.org/source/S82675988', 'Desynchronization Attack on RAPP Ultralightweight Authentication Protocol.', 'SER of M-PSK modulation in incremental-selective decode-and-forward cooperative communications over Rayleigh fading channels', 'Outage Performance in Secure Cooperative NOMA', 'Dynamic cube attack on Grain‐v1', 'https://semopenalex.org/source/S61310614', 'https://semopenalex.org/source/S164062316', 'On The Achievable Rate Region of a New Wiretap Channel With Side Information', 'BIA for the K-User Interference Channel Using Reconfigurable Antenna at Receivers', 'Comprehensive Comparison of Security Measurement Models', 'An achievable rate for relay networks based on compress-and-forward strategy', 'Simultaneously generating multiple keys in a four-terminal network', 'Sum Degrees of Freedom for the K-user Interference Channel Using Antenna Switching.', 'Simulation of a Channel with Another Channel', 'https://semopenalex.org/source/S196647941', 'Successive Secret Key Agreement over Generalized Multiple Access and Broadcast Channels', 'Achievability proof via output statistics of random binning', 'An Optimal Transmission Policy for Energy Harvesting Systems with Continuous Energy and Data Arrivals.', 'Physical layer encryption scheme using finite‐length polar codes', 'A Secure and Efficient Chaotic Maps Based Authenticated Key-Exchange Protocol for Smart Grid', 'https://semopenalex.org/source/S182544699', 'Automated Dynamic Cube Attack on Block Ciphers: Cryptanalysis of SIMON and KATAN.', 'https://semopenalex.org/source/S204223317', 'Information-theoretic privacy-preserving user authentication', 'Analysis and Enhancement of Desynchronization Attack on an Ultralightweight RFID Authentication Protocol.', 'An Efficient Precoder Size for Interference Alignment of the $K$ -User Interference Channel', 'PKC-PC: A Variant of the McEliece Public Key Cryptosystem based on Polar Codes', 'Dynamic Cube Attack on Grain-v1.', 'Fundamental Limits of Private User Authentication', 'Effect of unitary transformation on Bayesian information criterion for source numbering in array processing', 'https://semopenalex.org/source/S4363604560', 'An efficient multi-stage secret sharing using bilinear map', 'Capacity of channel with energy harvesting transmitter', 'CoRPA: A Novel Efficient Shared Data Auditing Protocol in Cloud Storage', 'Game-Based Privacy Analysis of RFID Security Schemes for Confident Authentication in IoT', 'Symmetric Semideterministic Relay Networks With No Interference at the Relays', 'Optimal Transmission Policies for Multi-hop Energy Harvesting Systems', 'New Fixed Point Attacks on GOST2 Block Cipher', 'Generalized Secure Distributed Source Coding with Side Information', 'Empirical Coordination in a Triangular Multiterminal Network', 'COMBINING BLOCKCHAIN AND IOT FOR DECENTRALIZED HEALTHCARE DATA MANAGEMENT', 'A bit-vector differential model for the modular addition by a constant and its applications to differential and impossible-differential cryptanalysis', 'Game-Based Privacy Analysis of RFID Security Schemes for Confident Au-thentication in IoT.', 'Achievable Rate Regions for Dirty Tape Channels and Joint Writing on Dirty Paper and Dirty Tape', 'Signal activity detection of phase-shift keying signals', 'Key Agreement over a Generalized Multiple Access Channel Using Noiseless and Noisy Feedback', 'Impossible differential attack on seven-round AES-128', 'Key agreement over a 3-receiver broadcast channel', 'Two RFID Privacy Models in Front of a Court.', 'A statistical distributed multipath routing protocol in wireless sensor networks', 'Polar code‐based secure channel coding scheme with small key size', 'On the equivalency of reliability and security metrics for wireline networks', 'A Technique for Deriving One-Shot Achievability Results in Network Information Theory', 'A novel secret sharing scheme from audio perspective', 'Compress-and-forward strategy for relay channel with causal and non-causal channel state information', 'GLR Detector for Coded Signals in Noise and Interference', 'Improved Linear Cryptanalysis of Reduced-Round SIMON-32 and SIMON-48', 'Modified Cache-Template Attack on AES', 'New achievable rate and a certain capacity result for a stochastic two relay network with no interference', 'AN ADAPTIVE SECURE CHANNEL CODING SCHEME FOR DATA TRANSMISSION OVER LEO SATELLITE CHANNELS', 'A novel approach for providing QoS with network coding', 'Context-Aware Ontology-based Security Measurement Model', 'https://semopenalex.org/source/S4306418363', 'https://semopenalex.org/source/S120629676', '2D Hash Chain robust Random Key Distribution scheme', 'Using Blockchain to Achieve Decentralized Privacy In IoT Healthcare', 'Enhancing Privacy of Recent Authentication Schemes for Low-Cost RFID Systems', 'https://semopenalex.org/source/S4306420161', 'Secret Key Cryptosystem based on Polar Codes over Binary Erasure Channel.', 'https://semopenalex.org/source/S4210183850', 'Over-the-Air Federated Adaptive Data Analysis: Preserving Accuracy via  Opportunistic Differential Privacy', 'Multi layer Gelfand Pinsker Strategies for the Generalized Multiple Access Channel', 'https://semopenalex.org/source/S4306512823', 'Attacks on a Lightweight Mutual Authentication Protocol under EPC C-1 G-2 Standard', 'The Linear Complexity of the Universal logic Sequences', 'An Improved Truncated Di fferential Cryptanalysis of KLEIN.', 'Security enhancement of an auditing scheme for shared cloud data', 'Breaking KASLR on mobile devices without any use of cache memory (extended version)', 'https://semopenalex.org/source/S4210192662', 'Biclique cryptanalysis of the full‐round KLEIN block cipher', 'Impossible Differential Cryptanalysis of Safer', 'https://semopenalex.org/source/S147953040', 'A Lightweight Auditing Service for Shared Data with Secure User Revocation in Cloud Storage', 'https://semopenalex.org/source/S4306534978', 'https://semopenalex.org/source/S4363608563', 'Interference Alignment for the K-user Interference Channel with Imperfect CSI', 'Key splitting: making random key distribution schemes resistant against node capture', 'https://semopenalex.org/source/S4393918193', 'Achievable Rates for a Two-Relay Network with Relays-Transmitter Feedbacks', 'Symmetric relaying based on partial decoding and the capacity of a class of relay networks', 'DETECTION OF A BAND-LIMITED SIGNAL USING AN ORTHONORMAL, FULLY-DECIMATED FILTER-BANK', 'https://semopenalex.org/source/S58852226', 'Attacks on Recent RFID Authentication Protocols', 'Lossy transmission of correlated sources over multiple‐access wiretap channels', 'Modified Cache Template Attack on AES.', 'https://semopenalex.org/source/S2764855249', 'Perfectly Secure Index Coding', 'A Lightweight Privacy-preserving Authenticated Key Exchange Scheme for Smart Grid Communications', 'HUAP: Practical Attribute-based Access Control Supporting Hidden Updatable Access Policies for Resource-Constrained Devices', 'https://semopenalex.org/source/S2498435459', 'Slepian-Wolf Coding over Cooperative Networks', 'https://semopenalex.org/source/S4306400349', 'On the Secrecy Capacity Region of Multiple Access Wire-tap Channel with Common Message', 'An identity-based online/offline secure cloud storage auditing scheme', 'https://semopenalex.org/source/S4306402512', 'https://semopenalex.org/source/S2764455111', 'https://semopenalex.org/source/S45693802', 'An attribute‐based tripartite key agreement protocol', 'A NEW STATISTICAL TEST BASED ON LINEAR COMPLEXITY PROFILE (LCP)', 'A Hybrid DOS-Tolerant PKC-Based Key Management System for WSNs', 'EIGENVALUES-BASED LSB STEGANALYSIS', 'A New Approach for Coherent Radar Detection in K-Distributed Interference', 'Empirical coordination in a triangular multiterminal network', 'https://semopenalex.org/source/S175310385', 'Achievable Rate Region for Multiple Access Channel with Correlated Channel States and Cooperating Encoders']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306505547', 'https://semopenalex.org/source/S96210769', 'Rule-Based Management of Schema Changes at ETL Sources', 'MDM: Governing Evolution in Big Data Ecosystems', 'Highlighting the Importance of Intentional Aspects in Data Narrative Crafting Processes', 'Schema Evolution for Relational Databases.', "Report on the International Workshop on Pattern Representation and Management (PaRMa'04)", 'LANGUAGE EXTENSIONS FOR THE AUTOMATION OF DATABASE SCHEMA EVOLUTION', 'The Road to Highlights is Paved with Good Intentions: Envisioning a Paradigm Shift in OLAP Modeling', 'CHOReOS State of the Art, Baseline, and Beyond (D1.1)', 'Adaptive Query Formulation to Handle Database Evolution.', 'Resource-aware adaptive indexing for in situ visual exploration and analytics', 'A Model for Data Warehouse Operational Processes', 'https://semopenalex.org/source/S4306418234', 'Data Mapping Diagrams for Data Warehouse Design with UML', 'Report on Discussion Group 5: Space for Entrepreneurs and Tourists', 'https://semopenalex.org/source/S73024538', 'Profiles of Schema Evolution in Free Open Source Software Projects', 'https://semopenalex.org/source/S35927321', 'A declarative approach to data narration', 'Quality-Driven Data Warehouse Design', 'Relational schema optimization for RDF-based knowledge graphs', 'Towards quality-oriented data warehouse usage and evolution', 'https://semopenalex.org/source/S63392143', 'Modelling and analysing reliable service-oriented processes', 'Towards a Conceptual Model for Data Narratives', 'In-situ visual exploration over big raw data', 'Efficient Deployment of Web Service Workflows', 'Growing up with stability: How open-source relational databases evolve', 'https://semopenalex.org/source/S4306401926', 'State-space optimization of ETL workflows', 'https://semopenalex.org/source/S4210201492', 'Accelerating Web Service Workflow Execution via Intelligent Allocation of Services to Servers', 'View usability and safety for the answering of top-k queries via materialized views', 'https://semopenalex.org/source/S1250476', 'Survival in Schema Evolution: Putting the Lives of Survivor and Dead Tables in Counterpoint', 'ARKTOS: A Tool For Data Cleaning and Transformation in Data Warehouse Environments.', 'Advances in conceptual modeling : ER 2012 Workshops : CMS, ECDM-NoCoDA, MoDIC, MORE-BI, RIGiM, SeCoGIS, WISM, Florence, Italy, October 15-18, 2012 : proceedings', 'Data Warehouse Architecture and Quality: Impact and Open Challenges', 'Advanced visualization for OLAP', 'Automating the Adaptation of Evolving Data-Intensive Ecosystems', 'https://semopenalex.org/source/S47508943', 'Computing and Handling Cardinal Direction Information', 'New Trends in Database and Information Systems', 'An integration-oriented ontology to govern evolution in Big Data ecosystems', 'Mining service abstractions (NIER track)', 'https://semopenalex.org/source/S4210205225', 'CHOReOS Middleware Specification (D3.1)', 'https://semopenalex.org/source/S4306400194', 'CoWSAMI: Interface-aware context gathering in ambient intelligence environments', 'A method for the mapping of conceptual designs to logical blueprints for ETL processes', 'Architecture and quality in data warehouses', 'https://semopenalex.org/source/S4306418168', 'Data warehouse process management', 'https://semopenalex.org/source/S4210222342', 'Design Metrics for Data Warehouse Evolution', 'Scheduling strategies for efficient ETL execution', 'Architecture and quality in data warehouses - An extended repository approach', 'Towards a Benchmark for ETL Workflows.', 'Propagating evolution events in data-centric software artifacts', 'A generic and customizable framework for the design of ETL scenarios', 'Computing and managing cardinal direction relations', 'https://semopenalex.org/source/S4306418063', 'Cohesion-Driven Decomposition of Service Interfaces without Access to Source Code', 'Near Real Time ETL', 'Jenga and the Art of Data-Intensive Ecosystems Maintenance.', 'https://semopenalex.org/source/S4306463409', 'Developing Mobile Commerce Applications', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S4210172359', 'https://semopenalex.org/source/S78926909', 'Data Warehouse Research: Issues and Projects', 'Supporting Streaming Updates in an Active Data Warehouse', 'Advances in Databases and Information Systems', 'https://semopenalex.org/source/S51041755', 'Open-Source Databases: Within, Outside, or Beyond Lehman’s Laws of Software Evolution?', 'https://semopenalex.org/source/S4210187649', 'Keep Calm and Wait for the Spike! Insights on the Evolution of Amazon Services', 'https://semopenalex.org/source/S181659395', 'Cube query interestingness: Novelty, relevance, peculiarity and surprise', 'https://semopenalex.org/source/S4306509343', 'https://semopenalex.org/source/S110231434', 'Cross-layer Networking for Peer Databases over Wireless Ad-Hoc Communities', 'Modeling and language support for the management of pattern-bases', 'Data Warehouse Refreshment', 'A context‐aware preference database system', 'Interestingness Measures for Exploratory Data Analysis: a Survey', 'RawVis: Visual Exploration over Raw Data', 'Recommending Trips in the Archipelago of Refactorings', 'Navigating through the archipelago of refactorings', 'Schema Evolution and Foreign Keys: Birth, Eviction, Change and Absence', 'Towards a benefit-based optimizer for Interactive Data Analysis', 'Proceedings of the 9th ACM international workshop on Data warehousing and OLAP', 'https://semopenalex.org/source/S4306401063', 'The Traveling Analyst Problem: Definition and preliminary study', 'DOLAP 2006, ACM 9th International Workshop on Data Warehousing and OLAP, Arlington, Virginia, USA, November 10, 2006, Proceedings', 'Extraction, Transformation, and Loading', 'Managing contextual preferences', 'Trading Privacy for Information Loss in the Blink of an Eye', 'https://semopenalex.org/source/S136993123', 'A Framework for Learning Cell Interestingness from Cube Explorations', 'Metadata and Data Warehouse Quality', 'https://semopenalex.org/source/S169174478', 'https://semopenalex.org/source/S204223317', 'Assess Queries for Interactive Analysis of Data Cubes', 'https://semopenalex.org/source/S4306400975', 'Towards a Logical Model for Patterns', 'Deciding the physical implementation of ETL workflows', 'https://semopenalex.org/source/S4210223194', 'https://semopenalex.org/source/S4363607857', 'On the Logical Modeling of ETL Processes', 'A Conceptual Model for Data Storytelling Highlights in Business Intelligence Environments', 'Data Warehouse Metadata', 'https://semopenalex.org/source/S35593046', 'Fusion Cubes', 'Graph-Based Modeling of ETL Activities with Multi-level Transformations and Updates', 'https://semopenalex.org/source/S4306401271', 'Mining service abstractions.', 'Modelling and Optimisation Issues for Multidimensional Databases', 'https://semopenalex.org/source/S193006928', 'https://semopenalex.org/source/S4363608845', 'Hierarchical Property Set Merging for SPARQL Query Optimization.', 'Modeling and Storing Context-Aware Preferences', 'https://semopenalex.org/source/S30698027', 'https://semopenalex.org/source/S2764900261', 'https://semopenalex.org/source/S4377196262', 'Assessment Methods for the Interestingness of Cube Queries', 'A Study on the Effect of a Table’s Involvement in Foreign Keys to its Schema Evolution', 'Erratum to: Service-oriented middleware for the Future Internet: state of the art and research directions', 'Hecataeus: A What-If Analysis Tool for Database Schema Evolution', 'Benchmarking ETL Workflows', 'Fitness workout for fat interfaces: Be slim, clean, and flexible', 'https://semopenalex.org/source/S4306400551', 'Context-Aware Query Processing in Ad-Hoc Environments of Peers', 'https://semopenalex.org/source/S4306420759', 'Extraction of Embedded Queries via Static Analysis of Host Code', 'Advances in databases and information systems — Selected papers from ADBIS 2023', 'Policy-Regulated Management of ETL Evolution', 'Schedule-Aware Transactions for Ambient Intelligence Environments', 'Meshing Streaming Updates with Persistent Data in an Active Data Warehouse', 'Timely Provisioning of Mobile Services in Critical Pervasive Environments', 'https://semopenalex.org/source/S4306401490', 'Conceptual Modeling', 'CHOReOS Dynamic Development Model Definition (D2.1)', 'Efficient Computation of Containment and Complementarity in RDF Data Cubes.', 'Schema Evolution and Gravitation to Rigidity: A Tale of Calmness in the Lives of Structured Data', 'Data Warehouse Practice: An Overview', 'Service Selection for Happy Users: Making User Intuitive Quality Abstractions', 'Report on the 8th international workshop on quality in databases (QDB10)', 'Do People Use Naming Conventions in SQL Programming?', 'Query Processing and Optimization', 'A Cube Algebra with Comparative Operations: Containment, Overlap, Distance and Usability', 'RawVis: A System for Efficient In-situ Visual Analytics', 'Graph-Driven Federated Data Management (Extended Abstract)', 'https://semopenalex.org/source/S4393179698', 'Graph-driven Federated Data Management', 'Efficient answering of set containment queries for skewed item distributions', 'Blueprints and Measures for ETL Workflows', 'Metrics for the Prediction of Evolution Impact in ETL Ecosystems: A Case Study', 'Model-Driven Dependability Analysis of WebServices', 'Advances in Conceptual Modeling', 'https://semopenalex.org/source/S4306463937', 'Adaptive Indexing for In-situ Visual Exploration and Analytics.', 'https://semopenalex.org/source/S4306418406', 'How is Life for a Table in an Evolving Relational Schema? Birth, Death and Everything in Between', 'A survey of logical models for OLAP databases', 'Taxa and super taxa of schema evolution and their relationship to activity, heartbeat and duration', 'https://semopenalex.org/source/S53932126', 'Optimizing ETL Processes in Data Warehouses', 'ETL queues for active data warehousing', 'A Safari for Deviating GoF Pattern Definitions and Examples on the Web', 'Cross-layer routing for peer database querying over mobile ad hoc networks', 'https://semopenalex.org/source/S62003192', 'Final CHOReOS Architectural Style and its Relation with the CHOReOS Development Process and IDRE', 'What-If Analysis for Data Warehouse Evolution', 'Arktos: towards the modeling, design, control and execution of ETL processes', 'https://semopenalex.org/source/S4306419327', 'https://semopenalex.org/source/S4210177767', 'Architecture and Quality in Data Warehouses', 'Suggesting assess queries for interactive analysis of multidimensional data', 'A Presentation Model &amp;amp; Non-Traditional Visualization for OLAP', 'CineCubes: Aiding data workers gain insights from OLAP queries', 'https://semopenalex.org/source/S172682790', 'Computational methods and optimizations for containment and complementarity in web data cubes', 'Fundamentals of Data Warehouses', 'https://semopenalex.org/source/S4306402579', "Beyond Roll-Up's and Drill-Down's: An Intentional Analytics Model to Reinvent OLAP (long-version)", 'Cube Interestingness: Novelty, Relevance, Peculiarity and Surprise', 'The athletic heart syndrome in web service evolution', 'Schema Evolution Survival Guide for Tables: Avoid Rigid Childhood and You’re En Route to a Quiet Life', 'https://semopenalex.org/source/S4306508744', 'Contextual Database Preferences.', 'Concept based design of data warehouses', 'Supporting the Generation of Data Narratives', 'Impact Analysis and Policy-Conforming Rewriting of Evolving Data-Intensive Ecosystems', 'Schema evolution and foreign keys: a study on usage, heartbeat of change and relationship of foreign keys to table activity', 'HECATAEUS: Regulating schema evolution', 'A Survey of Extractâ€“Transformâ€“Load Technology', "Report on the 5 &lt;sup&gt;th&lt;/sup&gt; international workshop on the design and management of data warehouses (DMDW'03)", 'Maintenance of top-k materialized views', 'https://semopenalex.org/source/S4393917539', 'Beyond roll-up’s and drill-down’s: An intentional analytics model to reinvent OLAP', 'A Framework for the Design of ETL Scenarios', 'Visual Maps for Data-Intensive Ecosystems', 'Multidimensional Data Models and Aggregation', 'https://semopenalex.org/source/S4306400349', 'Design of the ERATOSTHENES OLAP Server', 'CPM: A Cube Presentation Model for OLAP', 'Gravitating to rigidity: Patterns of schema evolution – and its absence – in the lives of tables', 'https://semopenalex.org/source/S4306402512', 'Schema Evolution for Databases and Data Warehouses', 'A taxonomy of ETL activities', 'Data Narrative Crafting via a Comprehensive and Well-Founded Process', 'https://semopenalex.org/source/S11479521', 'Architecture and quality in data warehouses: An extended repository approach', 'Integrated CHOReOS middleware - Enabling large-scale, QoS-aware adaptive choreographies', 'A Survey of Extract–Transform–Load Technology', 'https://semopenalex.org/source/S140982614', 'Towards Quality-Oriented Data Warehouse Usage and Evolution', 'Source Integration', 'https://semopenalex.org/source/S4306419842', 'Extraction-Transformation-Loading Processes']</t>
+  </si>
+  <si>
+    <t>['CSMC', 'The First Measurement Study of Target Wake Time Mechanism in 802.11ax on COTS Devices', 'https://semopenalex.org/source/S4363607857', 'Enabling Global Cooperation for Heterogeneous Networks via Reliable Concurrent Cross Technology Communications', 'WePos', 'https://semopenalex.org/source/S23688054', 'Magnifier: Leveraging the Fine-Grained Hardware Information and Their Temporal Patterns for Concurrent LoRa Decoding', 'https://semopenalex.org/source/S4363608994', 'Table of Contents', 'Leveraging Imperfect-Orthogonality Aware Scheduling for High Scalability in LPWAN', '$O^{2}$-SiteRec: Store Site Recommendation under the O2O Model via Multi-graph Attention Networks', 'Time-Constrained Actor-Critic Reinforcement Learning for Concurrent Order Dispatch in On-demand Delivery', 'Towards Workload-Constrained Efficient Order Assignment in Last-Mile Delivery', ': Mobility-Driven Integration of Heterogeneous Urban Cyber-Physical Systems Under Disruptive Events&lt;i /&gt;', 'https://semopenalex.org/source/S30698027', 'https://semopenalex.org/source/S63459445', 'https://semopenalex.org/source/S10134376', 'CrossHAR: Generalizing Cross-dataset Human Activity Recognition via Hierarchical Self-Supervised Pretraining', 'A City-Wide Crowdsourcing Delivery System with Reinforcement Learning', 'From Conception to Retirement: A Lifetime Story of a 3-Year-Old Wireless Beacon System in the Wild', 'eShare+: A Data-Driven Balancing Mechanism for Bike Sharing Systems Considering Both Quality of Service and Maintenance', 'Experience', 'Multi-Modal Fusion Sensing: A Comprehensive Review of Millimeter-Wave Radar and Its Integration With Other Modalities', 'https://semopenalex.org/source/S62238642', 'https://semopenalex.org/source/S2480266640', 'https://semopenalex.org/source/S2492498579', 'SmallMap: Low-cost Community Road Map Sensing with Uncertain Delivery Behavior', 'https://semopenalex.org/source/S69141925', 'Physical-layer CTC from BLE to Wi-Fi with IEEE 802.11ax', 'Multi-sensor Data-driven Route Prediction in Instant Delivery with a 3-Conversion Network', 'Federated Learning Based on CTC for Heterogeneous Internet of Things', 'Asymmetry-Aware Load Balancing With Adaptive Switching Granularity in Data Center', 'https://semopenalex.org/source/S4210187496', 'Exploiting Intra- and Inter-Region Relations for Sales Prediction via Graph Convolutional Network', 'https://semopenalex.org/source/S4306401796', 'ECN-based shared bottleneck detection for multi-path TCP', 'https://semopenalex.org/source/S170502224', 'Attention Enhanced Package Pick-Up Time Prediction via Heterogeneous Behavior Modeling', 'Partial Symbol Recovery for Interference Resilience in Low-Power Wide Area Networks', 'Nationwide Deployment and Operation of a Virtual Arrival Detection System in the Wild', 'Achieving Per-Flow Fairness and High Utilization With Limited Priority Queues in Data Center', 'ALWAES', 'https://semopenalex.org/source/S4306400194', 'https://semopenalex.org/source/S2497375143', 'https://semopenalex.org/source/S48860480', 'SmartLOC', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S4220651530', 'https://semopenalex.org/source/S4210219751', 'RMC: Reordering Marking and Coding for Fine-Grained Load Balancing in Data Centers', 'Enabling Large Scale LoRa Parallel Decoding With High-Dimensional and High-Accuracy Features', 'A Predict-Then-Optimize Couriers Allocation Framework for Emergency Last-mile Logistics', "Artificial Intelligence Approaches for Early Detection and Diagnosis of Alzheimer's Disease: A Review", 'mmSpyVR: Exploiting mmWave Radar for Penetrating Obstacles to Uncover Privacy Vulnerability of Virtual Reality', 'https://semopenalex.org/source/S173527311', 'Hybrid Teaching Platform Design for Ideological and Political Courses Based on K-Means Clustering', 'Adjusting Switching Granularity of Load Balancing for Heterogeneous Datacenter Traffic', 'https://semopenalex.org/source/S106296714', 'Neural network energy management strategy with optimal input features for plug-in hybrid electric vehicles', 'Towards Equitable Assignment: Data-Driven Delivery Zone Partition at Last-mile Logistics', 'Mitigating Packet Reordering for Random Packet Spraying in Data Center Networks', 'WiBeacon', 'P2-Loc', 'https://semopenalex.org/source/S115004586', 'Analysis and Prediction of Expansion of Central Cities Based on Nighttime Light Data in Hunan Province, China', 'https://semopenalex.org/source/S4363607711', 'mmSpyVR: Exploiting mmWave Radar for Penetrating Obstacles to Uncover  Privacy Vulnerability of Virtual Reality', 'https://semopenalex.org/source/S4363608339', 'https://semopenalex.org/source/S134216166', 'ECRLoRa: LoRa Packet Recovery under Low SNR via Edge-Cloud Collaboration', 'A Receiver-Driven Transport Protocol With High Link Utilization Using Anti-ECN Marking in Data Center Networks', 'https://semopenalex.org/source/S4363607705', 'PATR: Periodicity-Aware Trajectory Recovery for Express System via Seq2Seq Model', 'https://semopenalex.org/source/S4363608767', 'https://semopenalex.org/source/S196647941', 'REN: Receiver-Driven Congestion Control Using Explicit Notification for Data Center', 'A coordination analysis of stakeholder interests on the new subsidy policy of hydrogen fuel cell vehicles in China: From the perspective of the evolutionary game theory', 'RPO: Receiver-driven Transport Protocol Using Opportunistic Transmission in Data Center', '$mathrm{W}^{2}$Parking: A Data-Driven Win-Win Contract Parking Sharing Mechanism Under Both Supply and Demand Uncertainties', 'Effects of Dry Periods on Nitrogen and Phosphorus Removal in Runoff Infiltration Devices and Their Biological Succession Patterns', 'Time Synchronization Based on Cross-Technology Communication for IoT Networks', 'Collision-Free Dynamic Convergecast in Low-Duty-Cycle Wireless Sensor Networks', 'Multi-task Conditional Attention Network for Conversion Prediction in Logistics Advertising', 'Spoofing-jamming attack based on cross-technology communication for wireless networks']</t>
+  </si>
+  <si>
+    <t>['A Novel Tool for Unsupervised Flood Mapping Using Sentinel-1 Images', 'Sensitivity analysis of a scattering-based nonlocal means Despeckling Algorithm', 'Pol-SARAS: A Fully Polarimetric SAR Raw Signal Simulator for Extended Soil Surfaces', 'Earth Environmental Monitoring Using Multi-Temporal Synthetic Aperture Radar: A Critical Review of Selected Applications', 'Despeckling of Multifrequency SAR Data Using Electromagnetic Scattering Models', 'Efficient Processing for Far-From-Transmitter Formation-Flying SAR Receivers', 'https://semopenalex.org/source/S4210227020', 'https://semopenalex.org/source/S4306402478', 'Acquisition modes', 'Two-Scale Model for the Evaluation of Sea-Surface Scattering in GNSS-R Ship-Detection Applications', 'Ambiguity problems and their mitigation', 'Addressing ices in the solar system via their fractal dimension measurement', 'Planning 5G Networks Under EMF Constraints: State of the Art and Vision', 'Maritime Surveillance Using Spaceborne GNSS-Reflectometry: The Role of the Scattering Configuration and Receiving Polarization Channel', 'Integrated Infrastructure Monitoring Procedure for Road Network Management', 'Retrieval of high-resolution topography of the Titan’ surface by using Cassini SAR data', 'The Role of Resolution in the Estimation of Fractal Dimension Maps From SAR Data', 'https://semopenalex.org/source/S4363605409', 'https://semopenalex.org/source/S4306498155', 'Efficient Simulation of Extended-Scene SAR Raw Signals with Any Acquisition Mode', 'https://semopenalex.org/source/S4306498310', 'Analytical Formulation of Scattering From Anisotropic Power-Law Spectrum Surfaces: Getting Rid of the Cutoff Wavenumber', 'Sea state and wind speed', 'Unsupervised Rapid Flood Mapping Using Sentinel-1 GRD SAR Images', 'A New Tool for Road Network Deformations Monitoring Through Space-Born SAR Data and In-Situ Instruments', 'An Analytical Formulation of the Correlation of GNSS-R Signals', 'Long-Term Satellite Monitoring of the Slumgullion Landslide Using Space-Borne Synthetic Aperture Radar Sub-Pixel Offset Tracking', 'X-Band SAR Antenna Design for a CubeSat Formation-Flying Remote Sensing Mission', 'Scattering Along the Specular Direction from the Sea Modeled as a Fractal Surface', 'Flood Detection with SAR: A Review of Techniques and Datasets', 'https://semopenalex.org/source/S4363608006', 'Scattering-based Despeckling of Multi-frequency SAR Data', 'Analytical Evaluation of the Baseline Decorrelation in Bistatic Interferometric SAR Systems', 'https://semopenalex.org/source/S4363604196', 'Bistatic scattering from a canonical building', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S111326731', 'https://semopenalex.org/source/S101949793', 'Feature Extraction From Multitemporal SAR Images Using Selforganizing Map Clustering and Object-Based Image Analysis', 'Fractal-Based Local Range Slope Estimation from Single SAR Image with Applications to SAR Despeckling and Topographic Mapping', 'Closed-form Polarimetric Two-Scale Model for sea scattering evaluation', 'Coprime synthetic aperture radars', 'Polarimetric Two-Scale Model for the Evaluation of Bistatic Scattering from Anisotropic Sea Surfaces', 'https://semopenalex.org/source/S4363608188', 'Integration of SAR and GEOBIA for the Analysis of Time-Series Data', 'Railway Bridge Monitoring with Sar: A Case Study', 'Electromagnetic Scattering from Fractional Brownian Motion Surfaces via the Small Slope Approximation', 'https://semopenalex.org/source/S4306400993', 'Using GEOBIA for feature extraction from multitemporal SAR images: Preliminary results', 'An Analytical Formulation for the Correlation of Surface-Scattered Fields at Two Bistatic Radar Receivers', 'Link Budget Analysis for GNSS-R Sea Surface Return in Arbitrary Acquisition Geometries Using BA-PTSM', 'https://semopenalex.org/source/S4210178770', 'Bistatic Scattering From Anisotropic Rough Surfaces via a Closed-Form Two-Scale Model', 'Urban Area Mapping Using Multitemporal SAR Images in Combination with Self-Organizing Map Clustering and Object-Based Image Analysis', 'https://semopenalex.org/source/S4306463440', 'https://semopenalex.org/source/S117727964', 'Closed-Form Anisotropic Polarimetric Two-Scale Model for Fast Evaluation of Sea Surface Backscattering', 'Benchmarking Framework for Multitemporal SAR Despeckling', 'Baseline Decorrelation in Bistatic Interferometric SAR Systems Over Bare Soil Surfaces', 'https://semopenalex.org/source/S2496917176', 'Time-Domain and Monostatic-like Frequency-Domain Methods for Bistatic SAR Simulation', 'A Unified Formulation of SAR Raw Signals From Extended Scenes for All Acquisition Modes With Application to Simulation', 'https://semopenalex.org/source/S4306402651', 'Introduction', 'https://semopenalex.org/source/S4306508950', 'SAR Radiometric Calibration Based on Differential Geometry: From Theory to Experimentation on SAOCOM Imagery', 'https://semopenalex.org/source/S4377196294', 'Assessing Performance of Multitemporal SAR Image Despeckling Filters via a Benchmarking Tool', 'Glacier Monitoring Using Frequency Domain Offset Tracking Applied to Sentinel-1 Images: A Product Performance Comparison', 'Small Reservoirs Extraction in Semiarid Regions Using Multitemporal Synthetic Aperture Radar Images', 'https://semopenalex.org/source/S2485537415', 'https://semopenalex.org/source/S2764455111', 'A Novel Analytical Formulation of the Correlation of GNSS-R Signals Scattered by a Natural Fractal Surface', "Deciphering Earth's Movements: Unveiling Subsidence and Displacement in Capo Colonna Through SAR and CGPS", 'Polarimetric Two-Scale Model for Soil Moisture Estimation from Hybrid Compact Polarimetry SAR Data', 'https://semopenalex.org/source/S126920919', 'Cardinal Effect in Bistatic SAR Imagery: Analysis and Physical Interpretation', 'https://semopenalex.org/source/S43295729', 'Spaceborne GNSS-Reflectometry for Ship-Detection Applications: Impact of Acquisition Geometry and Polarization']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4210179225', 'https://semopenalex.org/source/S4306525036', 'Technology for societal change: Evaluating a mobile app addressing the emotional needs of people experiencing homelessness', 'Using a digital personal recovery resource in routine mental health practice: feasibility, acceptability and outcomes', 'https://semopenalex.org/source/S4210211086', 'https://semopenalex.org/source/S112414500', 'https://semopenalex.org/source/S34944277', 'https://semopenalex.org/source/S4210212400', 'Motivational models for validating agile requirements in Software Engineering subjects', 'Understanding Confidence of Older Adults for Embracing Mobile Technologies', 'https://semopenalex.org/source/S4306402621', 'https://semopenalex.org/source/S4306401600', 'https://semopenalex.org/source/S4306463409', 'Evaluating Engagement in Technology-Supported Social Interaction by People Living with Dementia in Residential Care', 'Interdisciplinary Design Teams Translating Ethnographic Field Data Into Design Models', 'https://semopenalex.org/source/S4306400572', 'Editorial: Designing Technology for Emotions to Improve Mental Health and Wellbeing', 'Using Motivational Modelling With an App Designed to Increase Student Performance and Retention', 'https://semopenalex.org/source/S201800618', 'Weisst Du wieviel Sternlein stehen? – Building older adults’ confidence in technology use through co-designing digital storytelling', 'Designing Meaningful, Beneficial and Positive Human Robot Interactions with Older Adults for Increased Wellbeing During Care Activities', 'Emotional Factors for Teleaudiology', 'https://semopenalex.org/source/S89276529', 'https://semopenalex.org/source/S4306400194', 'Adding Emotions to Models in a Viewpoint Modelling Framework From Agent-Oriented Software Engineering', 'https://semopenalex.org/source/S4393179698', 'Brainstorm', 'A Co-design Approach for Developing and Implementing Smart Health Technologies and Services']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S4363604921', 'Freezing of gait in Parkinson’s disease: Classification using computational intelligence', 'Evolutionary Computation', 'https://semopenalex.org/source/S4210218191', 'Dungeons, Dragons, and Data Breaches: Analyzing AI Attacks on Various Network Configurations', 'AI Versus Epidemics', 'https://semopenalex.org/source/S4210216571', 'All lockdowns are not equal: Reducing epidemic impact through evolutionary computation', 'Network Induction Issues', 'What Drives Evolution of Self-Driving Automata?', 'Network Induction', 'Conference Report on 2022 IEEE Conference on Computational Intelligence in Bioinformatics and Computational Biology (IEEE CIBCB 2022) [Conference Report]', '2022 IEEE conference on computational intelligence in bioinformatics and computational biology (IEEE CIBCB, 2022)', 'https://semopenalex.org/source/S4363605353', 'https://semopenalex.org/source/S99347777', 'https://semopenalex.org/source/S104797584', 'Vaccine Distribution', 'A multi-objective genetic algorithm for compression of weighted graphs to simplify epidemic analysis', 'Promoting Diversity in the Evolution of Biological Sequence Data', 'Graph Compression', 'https://semopenalex.org/source/S140556538', 'Introduction']</t>
+  </si>
+  <si>
+    <t>['Equivariant ideals of polynomials', 'https://semopenalex.org/source/S118992489', 'https://semopenalex.org/source/S4306419289', 'https://semopenalex.org/source/S147953040', 'Definable isomorphism problem', 'New Lower Bounds for Reachability in Vector Addition Systems', 'https://semopenalex.org/source/S4306420488', 'https://semopenalex.org/source/S4306418971', 'Reachability in fixed dimension vector addition systems with states', 'Improved Lower Bounds for Reachability in Vector Addition Systems.', 'https://semopenalex.org/source/S106296714', 'https://semopenalex.org/source/S2764900261', 'Determinisability of one-clock timed automata', 'https://semopenalex.org/source/S39012697', 'Preface', 'A lower bound for the coverability problem in acyclic pushdown VAS', 'Solvability of orbit-finite systems of linear equations', 'The reachability problem for Petri nets is not elementary', 'https://semopenalex.org/source/S59933527', 'WQO dichotomy for 3-graphs', 'Binary Reachability of Timed-register Pushdown Automata and Branching Vector Addition Systems', 'New Pumping Technique for 2-Dimensional VASS.', 'Timed games and deterministic separability', 'Determinisability of register and timed automata', 'Reachability relations of timed pushdown automata', 'https://semopenalex.org/source/S4306418453', 'Parikh’s theorem for infinite alphabets', 'Determinisability of One-Clock Timed Automata', 'Improved Ackermannian lower bound for the VASS reachability problem.', 'Parikh Images of Register Automata.', 'https://semopenalex.org/source/S114379355', "Parikh's theorem for infinite alphabets", 'https://semopenalex.org/source/S141020589', 'Bi-reachability in Petri nets with data', 'Improved Ackermannian lower bound for the Petri nets reachability problem', 'Nondeterministic and co-Nondeterministic Implies Deterministic, for Data Languages', 'https://semopenalex.org/source/S4306402512', 'The Reachability Problem for Petri Nets Is Not Elementary', 'https://semopenalex.org/source/S4306400194', 'Orbit-finite linear programming', 'https://semopenalex.org/source/S4306400665', 'https://semopenalex.org/source/S4393179698', 'New Pumping Technique for 2-dimensional VASS', 'https://semopenalex.org/source/S4306402524', 'Machine Learning-Based Recommender System for Tweeting Factory in Industry 5.0 Paradigm', 'https://semopenalex.org/source/S117153874', 'https://semopenalex.org/source/S4377196569', 'https://semopenalex.org/source/S4306401280']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S2764607890', 'https://semopenalex.org/source/S4306401629', 'https://semopenalex.org/source/S4210183703', 'Rancang Bangun Purwarupa Pemilah Sampah Pintar Berbasis Deep Learning', 'Effect of CLAHE-based Enhancement on Bean Leaf Disease Classification through Explainable AI', 'https://semopenalex.org/source/S4210205812', 'https://semopenalex.org/source/S4210196574', 'https://semopenalex.org/source/S4210187594', 'Augmentation of Additional Arabic Dataset for Jawi Writing and Classification Using Deep Learning', 'Moving Object Detection for Complex Scenes by Merging BG Modeling and Deep Learning Method', 'Performance Evaluation of Binary Classification of Diabetic Retinopathy through Deep Learning Techniques using Texture Feature', 'Pendeteksian Septoria pada Tanaman Tomat dengan Metode Deep Learning berbasis Raspberry Pi', 'Performance Evaluation of Hardhat Image Classification Using Deep Learning and Grad-CAM', 'Comparison Study of Corn Leaf Disease Detection based on Deep Learning YOLO-v5 and YOLO-v8', 'Comparative analysis of deep learning models for detecting face mask', 'An Edge AI-Powered Defect Coffee Detector Using Streamlit Web App', 'https://semopenalex.org/source/S4363607821', 'Performance Evaluation And Analysis of LBP Utilization In Face Spoofing Detection With Deep Learning', 'Embedded-based Tomato Septoria Leaf Detection with Intel Movidius Neural Compute Stick', 'Substraksi Latar Menggunakan Nilai Mean Untuk Klasifikasi Kendaraan Bergerak Berbasis Deep Learning', 'https://semopenalex.org/source/S4210179954', 'Improved Classification of Handwritten Jawi Script Based on Main Part of Script Body', 'Web-App based Melanoma Skin Cancer Classification through Streamlit and Deep Learning', 'https://semopenalex.org/source/S4306417765', 'Impact of Image Pre-Processing on Skin Cancer Classification Melanoma Through Deep Learning', 'A Deep Learning Method for Early Detection of Diabetic Foot Using Decision Fusion and Thermal Images', 'https://semopenalex.org/source/S4363606538', 'Identification of male and female nutmeg seeds based on the shape and texture features of leaf images using the learning vector quantization (LVQ)', 'https://semopenalex.org/source/S120348307', 'Moving Pedestrian Localization and Detection With Guided Filtering', 'Comparative Study of Deep Learning Methods through Improvement of Skin Image Quality of Basal Cell Carcinoma', 'https://semopenalex.org/source/S2737955091', 'Performance Evaluation of Binary Classification of Tuberculosis through Unsharp Masking and Deep Learning Technique', 'Perbandingan Kinerja Deep Learning Dalam Pendeteksian Kerusakan Biji Kopi', 'https://semopenalex.org/source/S30680879', 'Convolutional Network and Moving Object Analysis for Vehicle Detection in Highway Surveillance Videos', 'https://semopenalex.org/source/S4306498607', 'Image Enhancement for Tuberculosis Detection Using Deep Learning', 'Students’ emotion classification system through an ensemble approach', 'A Low-cost Raspberry Pi and Deep Learning System for Customer Analysis', 'https://semopenalex.org/source/S2764455111', 'Performance evaluation of hyper-parameter tuning automation in YOLOV8 and YOLO-NAS for corn leaf disease detection', 'Deep anomaly detection through visual attention in surveillance videos', 'Performance Evaluation of Coffee Bean Binary Classification Through Deep Learning Techniques', 'https://semopenalex.org/source/S4363607800', 'https://semopenalex.org/source/S4210223945', 'https://semopenalex.org/source/S4210230916', 'Streamlit Application for Helmet Detection Based on YOLOS: Case Study Indonesia', 'Utilizing Edge Device and Streamlit for Comparative Evaluation of CLAHE-Based Underwater Image Enhancement Techniques', 'https://semopenalex.org/source/S4210178035', 'Lightweight Pedestrian Detection through Guided Filtering and Deep Learning', 'Impact of CLAHE-based image enhancement for diabetic retinopathy classification through deep learning', 'https://semopenalex.org/source/S4210198570', 'https://semopenalex.org/source/S4306401280', 'Hybrid Models for Emotion Classification and Sentiment Analysis in Indonesian Language', 'https://semopenalex.org/source/S2485537415']</t>
+  </si>
+  <si>
+    <t>['W. R. OWENS, STUART SIM, AND DAVID WALKER, EDS. BUNYAN STUDIES: A JOURNAL OF REFORMATION AND NONCONFORMIST CULTURE. NUMBER 22. NORTHUMBRIA UNIVERSITY, 2018. PP. 164.', 'Rotten green tests in Java, Pharo and Python', 'https://semopenalex.org/source/S109852484', 'https://semopenalex.org/source/S4363604151', 'Pope and the Reformation of the Oral: The Iliad in the History of Mediation', 'Advances in monitoring carbon dioxide exchange between the atmosphere and mine waste derived from ultramafic-hosted mineral deposits; a pilot study at Cassiar, B.C.', 'The Secret History of HB-2: Bathroom Safety in the Eighteenth Century and Beyond', 'https://semopenalex.org/source/S73505065', 'https://semopenalex.org/source/S4306463865', 'https://semopenalex.org/source/S4210192127', 'Rotten Green Tests in Java, Pharo and Python', 'https://semopenalex.org/source/S4306402512', 'https://semopenalex.org/source/S4306462979', 'https://semopenalex.org/source/S4377196300', 'https://semopenalex.org/source/S4306402203', 'W. R. Owens, Stuart Sim, and David Walker, eds. Bunyan Studies: A Journal of Reformation and Nonconformist Culture']</t>
   </si>
   <si>
     <t>['true']</t>
@@ -466,25 +466,25 @@
     <t>['false']</t>
   </si>
   <si>
-    <t>['https://semopenalex.org/work/W2112866668', 'https://semopenalex.org/work/W2018680103', 'https://semopenalex.org/work/W4287256164', 'https://semopenalex.org/work/W2104091137', 'https://semopenalex.org/work/W1552869711', 'https://semopenalex.org/work/W2213498014', 'https://semopenalex.org/work/W2165331646', 'https://semopenalex.org/work/W2078203941', 'https://semopenalex.org/work/W1775735896', 'https://semopenalex.org/work/W2095121969', 'https://semopenalex.org/work/W2127324110', 'https://semopenalex.org/work/W4400686367', 'https://semopenalex.org/work/W2023804683', 'https://semopenalex.org/work/W2166153231', 'https://semopenalex.org/work/W2903667675', 'https://semopenalex.org/work/W4362508498', 'https://semopenalex.org/work/W3163954017', 'https://semopenalex.org/work/W2101522113', 'https://semopenalex.org/work/W3103575293', 'https://semopenalex.org/work/W2104882822', 'https://semopenalex.org/work/W169488611', 'https://semopenalex.org/work/W43334451', 'https://semopenalex.org/work/W4400052969', 'https://semopenalex.org/work/W2039909063', 'https://semopenalex.org/work/W2396828855', 'https://semopenalex.org/work/W2141801703', 'https://semopenalex.org/work/W4224861303', 'https://semopenalex.org/work/W2077616584', 'https://semopenalex.org/work/W4322832362', 'https://semopenalex.org/work/W2108491840', 'https://semopenalex.org/work/W2017812570', 'https://semopenalex.org/work/W1967770515', 'https://semopenalex.org/work/W1820714040', 'https://semopenalex.org/work/W2035561336', 'https://semopenalex.org/work/W2131459843', 'https://semopenalex.org/work/W2117626227', 'https://semopenalex.org/work/W4403704152', 'https://semopenalex.org/work/W2728552870', 'https://semopenalex.org/work/W2139649788', 'https://semopenalex.org/work/W4289367384', 'https://semopenalex.org/work/W2949618677', 'https://semopenalex.org/work/W2151432162', 'https://semopenalex.org/work/W2131938193', 'https://semopenalex.org/work/W2521295940', 'https://semopenalex.org/work/W2294916470', 'https://semopenalex.org/work/W2186730704', 'https://semopenalex.org/work/W2437887498', 'https://semopenalex.org/work/W3012587348', 'https://semopenalex.org/work/W4297897521', 'https://semopenalex.org/work/W3047457796', 'https://semopenalex.org/work/W4287903453', 'https://semopenalex.org/work/W4298078907', 'https://semopenalex.org/work/W4298174976', 'https://semopenalex.org/work/W2938524150', 'https://semopenalex.org/work/W2034340815', 'https://semopenalex.org/work/W4386728284', 'https://semopenalex.org/work/W2512503502', 'https://semopenalex.org/work/W2151073381', 'https://semopenalex.org/work/W2168204206', 'https://semopenalex.org/work/W3103372211', 'https://semopenalex.org/work/W2109495528', 'https://semopenalex.org/work/W2133075431', 'https://semopenalex.org/work/W2133913871', 'https://semopenalex.org/work/W2767736209', 'https://semopenalex.org/work/W2125836087', 'https://semopenalex.org/work/W1995977330', 'https://semopenalex.org/work/W2143711974', 'https://semopenalex.org/work/W2042583427', 'https://semopenalex.org/work/W4221163077', 'https://semopenalex.org/work/W3183317559', 'https://semopenalex.org/work/W2046546110', 'https://semopenalex.org/work/W2785643816', 'https://semopenalex.org/work/W2085724005', 'https://semopenalex.org/work/W1028196162', 'https://semopenalex.org/work/W4297748597', 'https://semopenalex.org/work/W2984425774', 'https://semopenalex.org/work/W2615249850', 'https://semopenalex.org/work/W2075769341', 'https://semopenalex.org/work/W2051137523', 'https://semopenalex.org/work/W1507181737', 'https://semopenalex.org/work/W2140386412', 'https://semopenalex.org/work/W1530322092', 'https://semopenalex.org/work/W2114028749', 'https://semopenalex.org/work/W2151795643', 'https://semopenalex.org/work/W1982263943', 'https://semopenalex.org/work/W2108934479', 'https://semopenalex.org/work/W2610715436', 'https://semopenalex.org/work/W2106616524', 'https://semopenalex.org/work/W2038042968', 'https://semopenalex.org/work/W2048025952', 'https://semopenalex.org/work/W3015796941', 'https://semopenalex.org/work/W1813016789', 'https://semopenalex.org/work/W4255556357', 'https://semopenalex.org/work/W2770676961', 'https://semopenalex.org/work/W2123717445', 'https://semopenalex.org/work/W2898646732', 'https://semopenalex.org/work/W2241683853', 'https://semopenalex.org/work/W1996041609', 'https://semopenalex.org/work/W3098900881', 'https://semopenalex.org/work/W3106343576', 'https://semopenalex.org/work/W4284707241', 'https://semopenalex.org/work/W3085042870', 'https://semopenalex.org/work/W2115645605', 'https://semopenalex.org/work/W1969115782', 'https://semopenalex.org/work/W4322706631', 'https://semopenalex.org/work/W2025968816', 'https://semopenalex.org/work/W3012817764', 'https://semopenalex.org/work/W195512975', 'https://semopenalex.org/work/W2545039763', 'https://semopenalex.org/work/W4298181338', 'https://semopenalex.org/work/W4312962873', 'https://semopenalex.org/work/W2147674767', 'https://semopenalex.org/work/W2037489965', 'https://semopenalex.org/work/W1992781262', 'https://semopenalex.org/work/W2246672683', 'https://semopenalex.org/work/W3137611772', 'https://semopenalex.org/work/W2187527650', 'https://semopenalex.org/work/W4386362810', 'https://semopenalex.org/work/W4386362571', 'https://semopenalex.org/work/W4396898129', 'https://semopenalex.org/work/W3107843792', 'https://semopenalex.org/work/W2920551025', 'https://semopenalex.org/work/W2162882690', 'https://semopenalex.org/work/W2140311422', 'https://semopenalex.org/work/W2171540325', 'https://semopenalex.org/work/W3106512002', 'https://semopenalex.org/work/W3046488911', 'https://semopenalex.org/work/W4312628239', 'https://semopenalex.org/work/W4283028880', 'https://semopenalex.org/work/W3144738859', 'https://semopenalex.org/work/W2128821548', 'https://semopenalex.org/work/W2166500461', 'https://semopenalex.org/work/W1951572853', 'https://semopenalex.org/work/W2145173682', 'https://semopenalex.org/work/W2141052825', 'https://semopenalex.org/work/W2014068777', 'https://semopenalex.org/work/W1783191689', 'https://semopenalex.org/work/W4288374763', 'https://semopenalex.org/work/W2118345904', 'https://semopenalex.org/work/W1758105233', 'https://semopenalex.org/work/W2902929870', 'https://semopenalex.org/work/W8218751', 'https://semopenalex.org/work/W4225966372', 'https://semopenalex.org/work/W2107462260', 'https://semopenalex.org/work/W4404179957', 'https://semopenalex.org/work/W1967447459', 'https://semopenalex.org/work/W4297229624', 'https://semopenalex.org/work/W2106293056', 'https://semopenalex.org/work/W2119876849', 'https://semopenalex.org/work/W2949567914', 'https://semopenalex.org/work/W2078098401', 'https://semopenalex.org/work/W2140436532', 'https://semopenalex.org/work/W4392903531', 'https://semopenalex.org/work/W4237667777', 'https://semopenalex.org/work/W1997581342', 'https://semopenalex.org/work/W2066478156', 'https://semopenalex.org/work/W2115355054', 'https://semopenalex.org/work/W2160014433', 'https://semopenalex.org/work/W2184680168', 'https://semopenalex.org/work/W2076199721', 'https://semopenalex.org/work/W2940821791', 'https://semopenalex.org/work/W4226253448', 'https://semopenalex.org/work/W2133682680', 'https://semopenalex.org/work/W2077024675', 'https://semopenalex.org/work/W2151961258', 'https://semopenalex.org/work/W4248583122', 'https://semopenalex.org/work/W842176471', 'https://semopenalex.org/work/W2095402672', 'https://semopenalex.org/work/W2005858158', 'https://semopenalex.org/work/W1861730306', 'https://semopenalex.org/work/W2108933378', 'https://semopenalex.org/work/W2185064755', 'https://semopenalex.org/work/W3106431100', 'https://semopenalex.org/work/W2611160010', 'https://semopenalex.org/work/W2950348067', 'https://semopenalex.org/work/W2756070092', 'https://semopenalex.org/work/W2189224346', 'https://semopenalex.org/work/W4394744533', 'https://semopenalex.org/work/W2116180989', 'https://semopenalex.org/work/W4388829566', 'https://semopenalex.org/work/W2113689008', 'https://semopenalex.org/work/W2148131061', 'https://semopenalex.org/work/W2124699087', 'https://semopenalex.org/work/W4301499895', 'https://semopenalex.org/work/W4221012413', 'https://semopenalex.org/work/W1987580879', 'https://semopenalex.org/work/W4405562746', 'https://semopenalex.org/work/W2558578462', 'https://semopenalex.org/work/W2106697542', 'https://semopenalex.org/work/W1964567495', 'https://semopenalex.org/work/W4385652243', 'https://semopenalex.org/work/W2113359099', 'https://semopenalex.org/work/W3036861309', 'https://semopenalex.org/work/W2027932797', 'https://semopenalex.org/work/W2040835538', 'https://semopenalex.org/work/W2951231774', 'https://semopenalex.org/work/W2056448690', 'https://semopenalex.org/work/W2755327666', 'https://semopenalex.org/work/W2019064108', 'https://semopenalex.org/work/W2114059901', 'https://semopenalex.org/work/W2136390628', 'https://semopenalex.org/work/W2963482739', 'https://semopenalex.org/work/W1785723168', 'https://semopenalex.org/work/W1884565435', 'https://semopenalex.org/work/W2952571072', 'https://semopenalex.org/work/W2006665205', 'https://semopenalex.org/work/W2118103599', 'https://semopenalex.org/work/W3203864625', 'https://semopenalex.org/work/W4300799299', 'https://semopenalex.org/work/W4377043292', 'https://semopenalex.org/work/W2120659763', 'https://semopenalex.org/work/W3005113692', 'https://semopenalex.org/work/W2898704942', 'https://semopenalex.org/work/W2164697291', 'https://semopenalex.org/work/W2953215316', 'https://semopenalex.org/work/W205233311', 'https://semopenalex.org/work/W4402699738', 'https://semopenalex.org/work/W2050578629', 'https://semopenalex.org/work/W4376141221', 'https://semopenalex.org/work/W2101094458', 'https://semopenalex.org/work/W1987895141', 'https://semopenalex.org/work/W1985231173', 'https://semopenalex.org/work/W4297966944', 'https://semopenalex.org/work/W4236423474', 'https://semopenalex.org/work/W2115943920', 'https://semopenalex.org/work/W2110043300', 'https://semopenalex.org/work/W2801854492', 'https://semopenalex.org/work/W2084295409', 'https://semopenalex.org/work/W3015206436', 'https://semopenalex.org/work/W2988626048', 'https://semopenalex.org/work/W4386352568', 'https://semopenalex.org/work/W2100556278', 'https://semopenalex.org/work/W1987772002', 'https://semopenalex.org/work/W2086931264', 'https://semopenalex.org/work/W2136497745', 'https://semopenalex.org/work/W2035930173', 'https://semopenalex.org/work/W2003603103', 'https://semopenalex.org/work/W4223992723', 'https://semopenalex.org/work/W606515514', 'https://semopenalex.org/work/W2114391062', 'https://semopenalex.org/work/W4225343232', 'https://semopenalex.org/work/W1975277950', 'https://semopenalex.org/work/W2118343132', 'https://semopenalex.org/work/W2098408658', 'https://semopenalex.org/work/W2889512408', 'https://semopenalex.org/work/W989952323', 'https://semopenalex.org/work/W3165143095', 'https://semopenalex.org/work/W2188413581', 'https://semopenalex.org/work/W1667912148', 'https://semopenalex.org/work/W2764441237', 'https://semopenalex.org/work/W2106903616', 'https://semopenalex.org/work/W1970184235', 'https://semopenalex.org/work/W2979998822', 'https://semopenalex.org/work/W1624008340', 'https://semopenalex.org/work/W2108797761', 'https://semopenalex.org/work/W2108855378', 'https://semopenalex.org/work/W4403926088', 'https://semopenalex.org/work/W2102549524', 'https://semopenalex.org/work/W2110745932', 'https://semopenalex.org/work/W2697509747', 'https://semopenalex.org/work/W2805259552', 'https://semopenalex.org/work/W4304701022', 'https://semopenalex.org/work/W1988343658', 'https://semopenalex.org/work/W2336180720', 'https://semopenalex.org/work/W2163547689', 'https://semopenalex.org/work/W2130767560', 'https://semopenalex.org/work/W2397760318', 'https://semopenalex.org/work/W3043975171', 'https://semopenalex.org/work/W2032099309', 'https://semopenalex.org/work/W1748985154', 'https://semopenalex.org/work/W86912345', 'https://semopenalex.org/work/W4386728259', 'https://semopenalex.org/work/W3010742537', 'https://semopenalex.org/work/W2103254499', 'https://semopenalex.org/work/W2950767750', 'https://semopenalex.org/work/W2500060407', 'https://semopenalex.org/work/W1984866494', 'https://semopenalex.org/work/W2195712461', 'https://semopenalex.org/work/W2137117880', 'https://semopenalex.org/work/W2304264384', 'https://semopenalex.org/work/W3183518399', 'https://semopenalex.org/work/W2153901619', 'https://semopenalex.org/work/W2805042680', 'https://semopenalex.org/work/W2063650998', 'https://semopenalex.org/work/W2035640322', 'https://semopenalex.org/work/W1943126751', 'https://semopenalex.org/work/W2129361591', 'https://semopenalex.org/work/W1843753733', 'https://semopenalex.org/work/W2733144798', 'https://semopenalex.org/work/W4224949960', 'https://semopenalex.org/work/W2097669227', 'https://semopenalex.org/work/W2072116332', 'https://semopenalex.org/work/W2127947685', 'https://semopenalex.org/work/W2143053621', 'https://semopenalex.org/work/W2153058280', 'https://semopenalex.org/work/W2045551387', 'https://semopenalex.org/work/W3115993754', 'https://semopenalex.org/work/W1829543493', 'https://semopenalex.org/work/W2945382159', 'https://semopenalex.org/work/W2171258724', 'https://semopenalex.org/work/W2026055324', 'https://semopenalex.org/work/W1969428279', 'https://semopenalex.org/work/W2002663556', 'https://semopenalex.org/work/W2163889321', 'https://semopenalex.org/work/W2164826027', 'https://semopenalex.org/work/W1817934356', 'https://semopenalex.org/work/W4287666146', 'https://semopenalex.org/work/W1989790075', 'https://semopenalex.org/work/W2123482670', 'https://semopenalex.org/work/W2291045170', 'https://semopenalex.org/work/W2939947188', 'https://semopenalex.org/work/W2017830666', 'https://semopenalex.org/work/W4400572667', 'https://semopenalex.org/work/W2065628492', 'https://semopenalex.org/work/W4304207591', 'https://semopenalex.org/work/W1867432869', 'https://semopenalex.org/work/W1965551074', 'https://semopenalex.org/work/W1995899361', 'https://semopenalex.org/work/W2115596980', 'https://semopenalex.org/work/W1984118997', 'https://semopenalex.org/work/W1996949678', 'https://semopenalex.org/work/W2159063898', 'https://semopenalex.org/work/W2024240534', 'https://semopenalex.org/work/W1571761681', 'https://semopenalex.org/work/W2059916190', 'https://semopenalex.org/work/W615388181', 'https://semopenalex.org/work/W2103969908', 'https://semopenalex.org/work/W2149213383', 'https://semopenalex.org/work/W855221475', 'https://semopenalex.org/work/W2970592033', 'https://semopenalex.org/work/W2673901561', 'https://semopenalex.org/work/W2806687546', 'https://semopenalex.org/work/W1797286681', 'https://semopenalex.org/work/W2899417085', 'https://semopenalex.org/work/W2114885066', 'https://semopenalex.org/work/W1673682542', 'https://semopenalex.org/work/W2185641310', 'https://semopenalex.org/work/W2007670367', 'https://semopenalex.org/work/W3134221682', 'https://semopenalex.org/work/W2170076025', 'https://semopenalex.org/work/W609082053', 'https://semopenalex.org/work/W1975448877', 'https://semopenalex.org/work/W2143623375', 'https://semopenalex.org/work/W2122768752', 'https://semopenalex.org/work/W234261451', 'https://semopenalex.org/work/W2001708147', 'https://semopenalex.org/work/W2131668274', 'https://semopenalex.org/work/W1773125178', 'https://semopenalex.org/work/W2182267970', 'https://semopenalex.org/work/W2117083020', 'https://semopenalex.org/work/W2949657987', 'https://semopenalex.org/work/W2143286465', 'https://semopenalex.org/work/W4287824497', 'https://semopenalex.org/work/W1684154970', 'https://semopenalex.org/work/W4402350832', 'https://semopenalex.org/work/W4297422548', 'https://semopenalex.org/work/W1564509605', 'https://semopenalex.org/work/W2075759694', 'https://semopenalex.org/work/W4297977093', 'https://semopenalex.org/work/W2097084589', 'https://semopenalex.org/work/W2160431219', 'https://semopenalex.org/work/W2072212815', 'https://semopenalex.org/work/W3161900557', 'https://semopenalex.org/work/W1787016751', 'https://semopenalex.org/work/W4309877015', 'https://semopenalex.org/work/W4387322833', 'https://semopenalex.org/work/W1994628498', 'https://semopenalex.org/work/W1964384820', 'https://semopenalex.org/work/W2740763524', 'https://semopenalex.org/work/W2182338449', 'https://semopenalex.org/work/W2112902331', 'https://semopenalex.org/work/W2170432288', 'https://semopenalex.org/work/W3199731519', 'https://semopenalex.org/work/W2149513726', 'https://semopenalex.org/work/W4225288565', 'https://semopenalex.org/work/W3010349365', 'https://semopenalex.org/work/W2112502349', 'https://semopenalex.org/work/W1685599524', 'https://semopenalex.org/work/W4256256581', 'https://semopenalex.org/work/W2044542062', 'https://semopenalex.org/work/W3164197023', 'https://semopenalex.org/work/W1797142048', 'https://semopenalex.org/work/W2746485297', 'https://semopenalex.org/work/W1993524608', 'https://semopenalex.org/work/W4302382703', 'https://semopenalex.org/work/W2164511982', 'https://semopenalex.org/work/W4388235556', 'https://semopenalex.org/work/W3190979825', 'https://semopenalex.org/work/W2148407475', 'https://semopenalex.org/work/W1784288318', 'https://semopenalex.org/work/W835410257', 'https://semopenalex.org/work/W1867833735', 'https://semopenalex.org/work/W2035899572', 'https://semopenalex.org/work/W1990606258', 'https://semopenalex.org/work/W2166197815', 'https://semopenalex.org/work/W2160172952', 'https://semopenalex.org/work/W2487376240', 'https://semopenalex.org/work/W2150474553', 'https://semopenalex.org/work/W2172643935', 'https://semopenalex.org/work/W2085150116', 'https://semopenalex.org/work/W2119248338', 'https://semopenalex.org/work/W2151042992', 'https://semopenalex.org/work/W2162160876', 'https://semopenalex.org/work/W2760778129', 'https://semopenalex.org/work/W2972140606', 'https://semopenalex.org/work/W2151679725', 'https://semopenalex.org/work/W2125239611', 'https://semopenalex.org/work/W1981586887', 'https://semopenalex.org/work/W2168111317', 'https://semopenalex.org/work/W2035239234', 'https://semopenalex.org/work/W4242495832', 'https://semopenalex.org/work/W2013030361', 'https://semopenalex.org/work/W4399062274', 'https://semopenalex.org/work/W2761162478', 'https://semopenalex.org/work/W4388567240', 'https://semopenalex.org/work/W2090955007', 'https://semopenalex.org/work/W2150258751', 'https://semopenalex.org/work/W2950707842', 'https://semopenalex.org/work/W2541647902', 'https://semopenalex.org/work/W3097189301', 'https://semopenalex.org/work/W4386728227', 'https://semopenalex.org/work/W2182388403', 'https://semopenalex.org/work/W2135431044', 'https://semopenalex.org/work/W2963504418', 'https://semopenalex.org/work/W3000267050', 'https://semopenalex.org/work/W2169536566', 'https://semopenalex.org/work/W1577360515', 'https://semopenalex.org/work/W2153608957', 'https://semopenalex.org/work/W4376481204', 'https://semopenalex.org/work/W4309830289', 'https://semopenalex.org/work/W2015282877', 'https://semopenalex.org/work/W2101608590', 'https://semopenalex.org/work/W2949908757', 'https://semopenalex.org/work/W2030896881', 'https://semopenalex.org/work/W3179268546', 'https://semopenalex.org/work/W2890986802', 'https://semopenalex.org/work/W2616097381', 'https://semopenalex.org/work/W1976452778', 'https://semopenalex.org/work/W2100527158', 'https://semopenalex.org/work/W2162696202', 'https://semopenalex.org/work/W2114379490', 'https://semopenalex.org/work/W4288596410', 'https://semopenalex.org/work/W2120952077', 'https://semopenalex.org/work/W2808086194', 'https://semopenalex.org/work/W1565749342', 'https://semopenalex.org/work/W4307934118', 'https://semopenalex.org/work/W1957871232', 'https://semopenalex.org/work/W1991118037', 'https://semopenalex.org/work/W2988564852', 'https://semopenalex.org/work/W2102302018', 'https://semopenalex.org/work/W2137313509', 'https://semopenalex.org/work/W4206389288', 'https://semopenalex.org/work/W2165066371', 'https://semopenalex.org/work/W2027160844', 'https://semopenalex.org/work/W2785502402', 'https://semopenalex.org/work/W2557336675', 'https://semopenalex.org/work/W4388638199', 'https://semopenalex.org/work/W2121529688', 'https://semopenalex.org/work/W2043499328', 'https://semopenalex.org/work/W2441173492', 'https://semopenalex.org/work/W2162485250', 'https://semopenalex.org/work/W2142195632', 'https://semopenalex.org/work/W2944254439', 'https://semopenalex.org/work/W2144099933', 'https://semopenalex.org/work/W2169956538', 'https://semopenalex.org/work/W2135428614', 'https://semopenalex.org/work/W2012992134', 'https://semopenalex.org/work/W4298871721', 'https://semopenalex.org/work/W4379653995', 'https://semopenalex.org/work/W2124085076', 'https://semopenalex.org/work/W4401498566', 'https://semopenalex.org/work/W2057477395', 'https://semopenalex.org/work/W2124480047', 'https://semopenalex.org/work/W2131752107', 'https://semopenalex.org/work/W2127722806', 'https://semopenalex.org/work/W3196466252', 'https://semopenalex.org/work/W2171286517', 'https://semopenalex.org/work/W4232393324', 'https://semopenalex.org/work/W2142780243', 'https://semopenalex.org/work/W2111182668', 'https://semopenalex.org/work/W4387698499', 'https://semopenalex.org/work/W4403618869', 'https://semopenalex.org/work/W1999564901', 'https://semopenalex.org/work/W2160616608', 'https://semopenalex.org/work/W2155624091', 'https://semopenalex.org/work/W1971235196', 'https://semopenalex.org/work/W3094576801', 'https://semopenalex.org/work/W4244875117', 'https://semopenalex.org/work/W4287198234', 'https://semopenalex.org/work/W4294643449', 'https://semopenalex.org/work/W2892539592', 'https://semopenalex.org/work/W3180681495', 'https://semopenalex.org/work/W1857284394', 'https://semopenalex.org/work/W1966326250', 'https://semopenalex.org/work/W4390050192', 'https://semopenalex.org/work/W2138621265', 'https://semopenalex.org/work/W4231953543', 'https://semopenalex.org/work/W2963927825', 'https://semopenalex.org/work/W3026501815', 'https://semopenalex.org/work/W2106900553', 'https://semopenalex.org/work/W2119239701', 'https://semopenalex.org/work/W2898681335', 'https://semopenalex.org/work/W2075739489', 'https://semopenalex.org/work/W4389138629', 'https://semopenalex.org/work/W2159784132', 'https://semopenalex.org/work/W3088822975', 'https://semopenalex.org/work/W2106039030', 'https://semopenalex.org/work/W2170329684', 'https://semopenalex.org/work/W1747115033', 'https://semopenalex.org/work/W2126535187', 'https://semopenalex.org/work/W1982662510', 'https://semopenalex.org/work/W1808004798', 'https://semopenalex.org/work/W2481609999', 'https://semopenalex.org/work/W2116751005', 'https://semopenalex.org/work/W3084462124', 'https://semopenalex.org/work/W1999197804', 'https://semopenalex.org/work/W1814362492', 'https://semopenalex.org/work/W2891725356', 'https://semopenalex.org/work/W2395280900', 'https://semopenalex.org/work/W2092230235', 'https://semopenalex.org/work/W2143780518', 'https://semopenalex.org/work/W2150042449', 'https://semopenalex.org/work/W2337742825', 'https://semopenalex.org/work/W2151821220', 'https://semopenalex.org/work/W1979849178', 'https://semopenalex.org/work/W1828712802', 'https://semopenalex.org/work/W2992547694', 'https://semopenalex.org/work/W2786494993', 'https://semopenalex.org/work/W2094507611', 'https://semopenalex.org/work/W2125505095', 'https://semopenalex.org/work/W2086613112', 'https://semopenalex.org/work/W1891629850', 'https://semopenalex.org/work/W4389078369', 'https://semopenalex.org/work/W1968153028', 'https://semopenalex.org/work/W2128254445', 'https://semopenalex.org/work/W4200630260', 'https://semopenalex.org/work/W3106213621', 'https://semopenalex.org/work/W2162568813', 'https://semopenalex.org/work/W2111557101', 'https://semopenalex.org/work/W3162654685', 'https://semopenalex.org/work/W4226379915', 'https://semopenalex.org/work/W2168015895', 'https://semopenalex.org/work/W3129332190', 'https://semopenalex.org/work/W4400242511', 'https://semopenalex.org/work/W2099441560', 'https://semopenalex.org/work/W2003260793', 'https://semopenalex.org/work/W2958049034', 'https://semopenalex.org/work/W2150591965', 'https://semopenalex.org/work/W2021426840', 'https://semopenalex.org/work/W2939804650', 'https://semopenalex.org/work/W4289306231', 'https://semopenalex.org/work/W1983410565', 'https://semopenalex.org/work/W2025458350', 'https://semopenalex.org/work/W2934437784', 'https://semopenalex.org/work/W2084633773', 'https://semopenalex.org/work/W2129898633', 'https://semopenalex.org/work/W2117070909', 'https://semopenalex.org/work/W2119454020', 'https://semopenalex.org/work/W2127631196', 'https://semopenalex.org/work/W2075899871', 'https://semopenalex.org/work/W2006798507', 'https://semopenalex.org/work/W2134429331', 'https://semopenalex.org/work/W4243743111', 'https://semopenalex.org/work/W1945014867', 'https://semopenalex.org/work/W2149962365', 'https://semopenalex.org/work/W2003520411', 'https://semopenalex.org/work/W2143708007', 'https://semopenalex.org/work/W2018206842', 'https://semopenalex.org/work/W4253923565', 'https://semopenalex.org/work/W2114658777', 'https://semopenalex.org/work/W2147023251', 'https://semopenalex.org/work/W2122883310', 'https://semopenalex.org/work/W2792903117', 'https://semopenalex.org/work/W1864513555', 'https://semopenalex.org/work/W2918802163', 'https://semopenalex.org/work/W4283396505', 'https://semopenalex.org/work/W1696074034', 'https://semopenalex.org/work/W2129859788', 'https://semopenalex.org/work/W2028525469', 'https://semopenalex.org/work/W4362607752', 'https://semopenalex.org/work/W1980527047', 'https://semopenalex.org/work/W4386728290', 'https://semopenalex.org/work/W1990472383', 'https://semopenalex.org/work/W2140333889', 'https://semopenalex.org/work/W1881771041', 'https://semopenalex.org/work/W2618462601', 'https://semopenalex.org/work/W2784488119', 'https://semopenalex.org/work/W1602846904', 'https://semopenalex.org/work/W2182527568', 'https://semopenalex.org/work/W2811277086', 'https://semopenalex.org/work/W1971037148', 'https://semopenalex.org/work/W3206047407', 'https://semopenalex.org/work/W2765225938', 'https://semopenalex.org/work/W2096086749', 'https://semopenalex.org/work/W2107105182', 'https://semopenalex.org/work/W2185477524', 'https://semopenalex.org/work/W4226267095', 'https://semopenalex.org/work/W2167460076', 'https://semopenalex.org/work/W2133118701', 'https://semopenalex.org/work/W2169931542', 'https://semopenalex.org/work/W610096311', 'https://semopenalex.org/work/W4401753946', 'https://semopenalex.org/work/W4313478262', 'https://semopenalex.org/work/W4388118224', 'https://semopenalex.org/work/W3130481183', 'https://semopenalex.org/work/W4200564371', 'https://semopenalex.org/work/W2958959679', 'https://semopenalex.org/work/W2791120428', 'https://semopenalex.org/work/W1492310094', 'https://semopenalex.org/work/W2048467330', 'https://semopenalex.org/work/W4256384691', 'https://semopenalex.org/work/W1989616605', 'https://semopenalex.org/work/W2143766612', 'https://semopenalex.org/work/W619554517', 'https://semopenalex.org/work/W2102592853', 'https://semopenalex.org/work/W2171540875', 'https://semopenalex.org/work/W2663325069', 'https://semopenalex.org/work/W4397026396', 'https://semopenalex.org/work/W2912726147', 'https://semopenalex.org/work/W2963455631', 'https://semopenalex.org/work/W1867912076', 'https://semopenalex.org/work/W2026114584', 'https://semopenalex.org/work/W2144871920', 'https://semopenalex.org/work/W2120280503', 'https://semopenalex.org/work/W2508911234', 'https://semopenalex.org/work/W1963919043', 'https://semopenalex.org/work/W2765307985', 'https://semopenalex.org/work/W1812922818', 'https://semopenalex.org/work/W2138646635', 'https://semopenalex.org/work/W2055673378', 'https://semopenalex.org/work/W2956308890', 'https://semopenalex.org/work/W4224933374', 'https://semopenalex.org/work/W4383472744', 'https://semopenalex.org/work/W1946393290', 'https://semopenalex.org/work/W2101633987', 'https://semopenalex.org/work/W2099928373', 'https://semopenalex.org/work/W2108057985', 'https://semopenalex.org/work/W4233630823', 'https://semopenalex.org/work/W2296243746', 'https://semopenalex.org/work/W2127735446', 'https://semopenalex.org/work/W2293728320', 'https://semopenalex.org/work/W2003410902', 'https://semopenalex.org/work/W2097867503', 'https://semopenalex.org/work/W2210029275', 'https://semopenalex.org/work/W2041220458', 'https://semopenalex.org/work/W2399804733', 'https://semopenalex.org/work/W2132288860', 'https://semopenalex.org/work/W2970012313', 'https://semopenalex.org/work/W2790500092', 'https://semopenalex.org/work/W2054059427', 'https://semopenalex.org/work/W2116018884', 'https://semopenalex.org/work/W2500472126', 'https://semopenalex.org/work/W2334675349', 'https://semopenalex.org/work/W4285201772', 'https://semopenalex.org/work/W2308119766', 'https://semopenalex.org/work/W2117127275', 'https://semopenalex.org/work/W1940162557', 'https://semopenalex.org/work/W2763660685', 'https://semopenalex.org/work/W3005631622', 'https://semopenalex.org/work/W2185221298', 'https://semopenalex.org/work/W2155153848', 'https://semopenalex.org/work/W2140316862', 'https://semopenalex.org/work/W2168793726', 'https://semopenalex.org/work/W4386728368', 'https://semopenalex.org/work/W2137966369', 'https://semopenalex.org/work/W1989282861', 'https://semopenalex.org/work/W2109988731', 'https://semopenalex.org/work/W2007101240', 'https://semopenalex.org/work/W2952777161', 'https://semopenalex.org/work/W2636221734', 'https://semopenalex.org/work/W4315606073', 'https://semopenalex.org/work/W2746198904', 'https://semopenalex.org/work/W2138395721', 'https://semopenalex.org/work/W2150388917', 'https://semopenalex.org/work/W2165018097', 'https://semopenalex.org/work/W1502655780', 'https://semopenalex.org/work/W2096548851', 'https://semopenalex.org/work/W1958624633', 'https://semopenalex.org/work/W4292214108', 'https://semopenalex.org/work/W2143820350', 'https://semopenalex.org/work/W1825244231', 'https://semopenalex.org/work/W2101981713', 'https://semopenalex.org/work/W2184393924', 'https://semopenalex.org/work/W4299652167', 'https://semopenalex.org/work/W2146692894', 'https://semopenalex.org/work/W2104561024', 'https://semopenalex.org/work/W2144185926', 'https://semopenalex.org/work/W2026970166', 'https://semopenalex.org/work/W2701634507', 'https://semopenalex.org/work/W1882111414', 'https://semopenalex.org/work/W2950434959', 'https://semopenalex.org/work/W2293327468', 'https://semopenalex.org/work/W4384811612', 'https://semopenalex.org/work/W2113606224', 'https://semopenalex.org/work/W2293217651', 'https://semopenalex.org/work/W2040652823', 'https://semopenalex.org/work/W2018384246', 'https://semopenalex.org/work/W2283163132', 'https://semopenalex.org/work/W4315606555', 'https://semopenalex.org/work/W2245018327', 'https://semopenalex.org/work/W1814798360', 'https://semopenalex.org/work/W2190195640', 'https://semopenalex.org/work/W1976296868', 'https://semopenalex.org/work/W1881094281', 'https://semopenalex.org/work/W3097663184', 'https://semopenalex.org/work/W2109820484', 'https://semopenalex.org/work/W2145983295', 'https://semopenalex.org/work/W2122128429', 'https://semopenalex.org/work/W2121752514', 'https://semopenalex.org/work/W2085980614', 'https://semopenalex.org/work/W4386728181', 'https://semopenalex.org/work/W1984186332', 'https://semopenalex.org/work/W2166315125', 'https://semopenalex.org/work/W2189600142', 'https://semopenalex.org/work/W2603840323', 'https://semopenalex.org/work/W4390977353', 'https://semopenalex.org/work/W2327976118', 'https://semopenalex.org/work/W2130561641', 'https://semopenalex.org/work/W2161268655', 'https://semopenalex.org/work/W2970159846', 'https://semopenalex.org/work/W2084811516', 'https://semopenalex.org/work/W2159202008', 'https://semopenalex.org/work/W2383111726', 'https://semopenalex.org/work/W1764485696', 'https://semopenalex.org/work/W2463302795', 'https://semopenalex.org/work/W2144570150', 'https://semopenalex.org/work/W2129001064', 'https://semopenalex.org/work/W2159524123', 'https://semopenalex.org/work/W2126409288', 'https://semopenalex.org/work/W2102152654', 'https://semopenalex.org/work/W2145568341', 'https://semopenalex.org/work/W4298016756', 'https://semopenalex.org/work/W4379033886', 'https://semopenalex.org/work/W4308236214', 'https://semopenalex.org/work/W2129623049', 'https://semopenalex.org/work/W4244572215', 'https://semopenalex.org/work/W2111934195', 'https://semopenalex.org/work/W2048853757', 'https://semopenalex.org/work/W2171858716', 'https://semopenalex.org/work/W2108862142', 'https://semopenalex.org/work/W4402502594', 'https://semopenalex.org/work/W2120967246', 'https://semopenalex.org/work/W2977723824', 'https://semopenalex.org/work/W2006713327', 'https://semopenalex.org/work/W2119330876', 'https</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W3029899401', 'https://semopenalex.org/work/W4324150573', 'https://semopenalex.org/work/W3193396842', 'https://semopenalex.org/work/W2736312195', 'https://semopenalex.org/work/W2752493326', 'https://semopenalex.org/work/W2790187313', 'https://semopenalex.org/work/W2913475584', 'https://semopenalex.org/work/W2131570437', 'https://semopenalex.org/work/W2899470128', 'https://semopenalex.org/work/W2752042616', 'https://semopenalex.org/work/W3028790862', 'https://semopenalex.org/work/W4401406766', 'https://semopenalex.org/work/W4400189062', 'https://semopenalex.org/work/W4396832885', 'https://semopenalex.org/work/W2519730427', 'https://semopenalex.org/work/W3003204379', 'https://semopenalex.org/work/W1710215999', 'https://semopenalex.org/work/W3024164567', 'https://semopenalex.org/work/W4224242333', 'https://semopenalex.org/work/W2024357873', 'https://semopenalex.org/work/W2775793881', 'https://semopenalex.org/work/W3190617503', 'https://semopenalex.org/work/W4393067390', 'https://semopenalex.org/work/W3188420011', 'https://semopenalex.org/work/W3163921267', 'https://semopenalex.org/work/W4324151651', 'https://semopenalex.org/work/W2899389394', 'https://semopenalex.org/work/W2940716241', 'https://semopenalex.org/work/W2899305210', 'https://semopenalex.org/work/W2897414246', 'https://semopenalex.org/work/W3028180736', 'https://semopenalex.org/work/W4256454723', 'https://semopenalex.org/work/W4213455276', 'https://semopenalex.org/work/W2068367136', 'https://semopenalex.org/work/W1985142918', 'https://semopenalex.org/work/W1877041815', 'https://semopenalex.org/work/W3163327897', 'https://semopenalex.org/work/W1985504739', 'https://semopenalex.org/work/W3094759305', 'https://semopenalex.org/work/W1993984611', 'https://semopenalex.org/work/W2972419497', 'https://semopenalex.org/work/W2725971658', 'https://semopenalex.org/work/W2885122621', 'https://semopenalex.org/work/W2067004171', 'https://semopenalex.org/work/W2753363725', 'https://semopenalex.org/work/W3163521409', 'https://semopenalex.org/work/W3121775658', 'https://semopenalex.org/work/W2461856634', 'https://semopenalex.org/work/W2929751249', 'https://semopenalex.org/work/W2119929248', 'https://semopenalex.org/work/W3142764819', 'https://semopenalex.org/work/W4404569483', 'https://semopenalex.org/work/W2075286904', 'https://semopenalex.org/work/W4324152586', 'https://semopenalex.org/work/W791468510', 'https://semopenalex.org/work/W4366583934', 'https://semopenalex.org/work/W4389891943', 'https://semopenalex.org/work/W2263778529', 'https://semopenalex.org/work/W2898820983', 'https://semopenalex.org/work/W2752490344', 'https://semopenalex.org/work/W2187647369', 'https://semopenalex.org/work/W4379033872', 'https://semopenalex.org/work/W4400430993', 'https://semopenalex.org/work/W4221065578', 'https://semopenalex.org/work/W2795581336', 'https://semopenalex.org/work/W4241289669', 'https://semopenalex.org/work/W4287071181', 'https://semopenalex.org/work/W2811468211', 'https://semopenalex.org/work/W3194688439', 'https://semopenalex.org/work/W3015284588', 'https://semopenalex.org/work/W4319452484', 'https://semopenalex.org/work/W3201213010', 'https://semopenalex.org/work/W1771936601', 'https://semopenalex.org/work/W2017727997', 'https://semopenalex.org/work/W3034123328', 'https://semopenalex.org/work/W2409578015', 'https://semopenalex.org/work/W3188766356', 'https://semopenalex.org/work/W3062298123', 'https://semopenalex.org/work/W1553133540', 'https://semopenalex.org/work/W2537880674', 'https://semopenalex.org/work/W4402722090', 'https://semopenalex.org/work/W2903417746', 'https://semopenalex.org/work/W2625122753', 'https://semopenalex.org/work/W3177151358', 'https://semopenalex.org/work/W4229043996', 'https://semopenalex.org/work/W4404915142', 'https://semopenalex.org/work/W2902563098', 'https://semopenalex.org/work/W2977979696', 'https://semopenalex.org/work/W4210768549', 'https://semopenalex.org/work/W1484203263', 'https://semopenalex.org/work/W4393877125', 'https://semopenalex.org/work/W2055070571', 'https://semopenalex.org/work/W4402722131', 'https://semopenalex.org/work/W2129488573', 'https://semopenalex.org/work/W3000816869', 'https://semopenalex.org/work/W4232727837', 'https://semopenalex.org/work/W2968293343', 'https://semopenalex.org/work/W4387421144', 'https://semopenalex.org/work/W4404977899', 'https://semopenalex.org/work/W2898627444', 'https://semopenalex.org/work/W2052607251', 'https://semopenalex.org/work/W2978280554', 'https://semopenalex.org/work/W2108512685', 'https://semopenalex.org/work/W4312572845', 'https://semopenalex.org/work/W3206712787', 'https://semopenalex.org/work/W4366549587', 'https://semopenalex.org/work/W2072697691', 'https://semopenalex.org/work/W862033376', 'https://semopenalex.org/work/W3201451193', 'https://semopenalex.org/work/W2088502162', 'https://semopenalex.org/work/W1568803211', 'https://semopenalex.org/work/W2293208404', 'https://semopenalex.org/work/W3193717464', 'https://semopenalex.org/work/W2973132733', 'https://semopenalex.org/work/W2519250278', 'https://semopenalex.org/work/W2567779880', 'https://semopenalex.org/work/W2346027641', 'https://semopenalex.org/work/W4404373433', 'https://semopenalex.org/work/W2102905932', 'https://semopenalex.org/work/W3033839905', 'https://semopenalex.org/work/W2591593006', 'https://semopenalex.org/work/W4310446060', 'https://semopenalex.org/work/W2080327955', 'https://semopenalex.org/work/W2976524236', 'https://semopenalex.org/work/W3110075456', 'https://semopenalex.org/work/W4324150147', 'https://semopenalex.org/work/W2072490274', 'https://semopenalex.org/work/W4233748389', 'https://semopenalex.org/work/W3215451397', 'https://semopenalex.org/work/W4366598255', 'https://semopenalex.org/work/W2898145840', 'https://semopenalex.org/work/W2978827769', 'https://semopenalex.org/work/W3160199101', 'https://semopenalex.org/work/W1834136374', 'https://semopenalex.org/work/W3197280612', 'https://semopenalex.org/work/W2256119246', 'https://semopenalex.org/work/W2611151946', 'https://semopenalex.org/work/W4393752214', 'https://semopenalex.org/work/W3119309106', 'https://semopenalex.org/work/W2057014910', 'https://semopenalex.org/work/W4309619903', 'https://semopenalex.org/work/W3043824623', 'https://semopenalex.org/work/W4394883037', 'https://semopenalex.org/work/W2972702127', 'https://semopenalex.org/work/W4225088745', 'https://semopenalex.org/work/W2294561329', 'https://semopenalex.org/work/W2149683870', 'https://semopenalex.org/work/W2921533080', 'https://semopenalex.org/work/W4404026276', 'https://semopenalex.org/work/W4391423303', 'https://semopenalex.org/work/W3183940262', 'https://semopenalex.org/work/W2165066165', 'https://semopenalex.org/work/W2962975962', 'https://semopenalex.org/work/W2019487042', 'https://semopenalex.org/work/W3035628382', 'https://semopenalex.org/work/W2795503716', 'https://semopenalex.org/work/W2008208122', 'https://semopenalex.org/work/W4391210282', 'https://semopenalex.org/work/W2602429360', 'https://semopenalex.org/work/W3162832522', 'https://semopenalex.org/work/W4389256452', 'https://semopenalex.org/work/W2598459295', 'https://semopenalex.org/work/W2774467220', 'https://semopenalex.org/work/W2942738233', 'https://semopenalex.org/work/W2942324097', 'https://semopenalex.org/work/W4287729941', 'https://semopenalex.org/work/W2754101670', 'https://semopenalex.org/work/W2079488626', 'https://semopenalex.org/work/W3095347735', 'https://semopenalex.org/work/W3143959337', 'https://semopenalex.org/work/W3032662532', 'https://semopenalex.org/work/W3032857618', 'https://semopenalex.org/work/W4393908582', 'https://semopenalex.org/work/W2966384546', 'https://semopenalex.org/work/W4239396382', 'https://semopenalex.org/work/W2753801751', 'https://semopenalex.org/work/W4238249729', 'https://semopenalex.org/work/W3091007149', 'https://semopenalex.org/work/W4211095911', 'https://semopenalex.org/work/W3196785132', 'https://semopenalex.org/work/W4377250056', 'https://semopenalex.org/work/W3121062173', 'https://semopenalex.org/work/W2605978692', 'https://semopenalex.org/work/W4292261957', 'https://semopenalex.org/work/W2089266363', 'https://semopenalex.org/work/W1246643588', 'https://semopenalex.org/work/W2977617583', 'https://semopenalex.org/work/W2909558410', 'https://semopenalex.org/work/W2177601947', 'https://semopenalex.org/work/W2528963299', 'https://semopenalex.org/work/W4214504130', 'https://semopenalex.org/work/W3206366132', 'https://semopenalex.org/work/W4393067517', 'https://semopenalex.org/work/W2752658305', 'https://semopenalex.org/work/W3160545975', 'https://semopenalex.org/work/W4308467568', 'https://semopenalex.org/work/W2007978709', 'https://semopenalex.org/work/W2156243282', 'https://semopenalex.org/work/W2012358521', 'https://semopenalex.org/work/W2751622533', 'https://semopenalex.org/work/W2973140914', 'https://semopenalex.org/work/W4224305168', 'https://semopenalex.org/work/W4241528240', 'https://semopenalex.org/work/W4211259494', 'https://semopenalex.org/work/W3005470382', 'https://semopenalex.org/work/W3112877194', 'https://semopenalex.org/work/W3161974712', 'https://semopenalex.org/work/W2410138785', 'https://semopenalex.org/work/W2033680836', 'https://semopenalex.org/work/W2903849727', 'https://semopenalex.org/work/W4200018492', 'https://semopenalex.org/work/W4366967286', 'https://semopenalex.org/work/W2898822823', 'https://semopenalex.org/work/W2576215493', 'https://semopenalex.org/work/W4307475355', 'https://semopenalex.org/work/W2946308339', 'https://semopenalex.org/work/W2519558346', 'https://semopenalex.org/work/W3162177365', 'https://semopenalex.org/work/W4366583171', 'https://semopenalex.org/work/W2895512277', 'https://semopenalex.org/work/W3095367321', 'https://semopenalex.org/work/W2110284634', 'https://semopenalex.org/work/W2087800309', 'https://semopenalex.org/work/W2752031858', 'https://semopenalex.org/work/W2978422619', 'https://semopenalex.org/work/W2092202628', 'https://semopenalex.org/work/W2973046614', 'https://semopenalex.org/work/W4392429145', 'https://semopenalex.org/work/W2520352456', 'https://semopenalex.org/work/W3030735111', 'https://semopenalex.org/work/W1704771702', 'https://semopenalex.org/work/W4220905243', 'https://semopenalex.org/work/W4389897704', 'https://semopenalex.org/work/W3200245219', 'https://semopenalex.org/work/W2888386951', 'https://semopenalex.org/work/W4224255688', 'https://semopenalex.org/work/W4200616097', 'https://semopenalex.org/work/W2753671526', 'https://semopenalex.org/work/W3112090964', 'https://semopenalex.org/work/W2762577600', 'https://semopenalex.org/work/W4242142265', 'https://semopenalex.org/work/W4387085789', 'https://semopenalex.org/work/W2977911811', 'https://semopenalex.org/work/W2133951180', 'https://semopenalex.org/work/W2610274107', 'https://semopenalex.org/work/W1982984133', 'https://semopenalex.org/work/W2288812598', 'https://semopenalex.org/work/W2054886944', 'https://semopenalex.org/work/W2921194733', 'https://semopenalex.org/work/W2791540051', 'https://semopenalex.org/work/W4251839844', 'https://semopenalex.org/work/W1510660243', 'https://semopenalex.org/work/W2273076933', 'https://semopenalex.org/work/W2602397751', 'https://semopenalex.org/work/W2768260654', 'https://semopenalex.org/work/W2078369692', 'https://semopenalex.org/work/W2975736083', 'https://semopenalex.org/work/W2610676428', 'https://semopenalex.org/work/W2519458229', 'https://semopenalex.org/work/W3095740806', 'https://semopenalex.org/work/W4230032809', 'https://semopenalex.org/work/W3030149602', 'https://semopenalex.org/work/W3047192924', 'https://semopenalex.org/work/W1976594634', 'https://semopenalex.org/work/W4366588423', 'https://semopenalex.org/work/W2972889118', 'https://semopenalex.org/work/W2548042282', 'https://semopenalex.org/work/W2088270376', 'https://semopenalex.org/work/W2033617925', 'https://semopenalex.org/work/W4210450354', 'https://semopenalex.org/work/W2968884122', 'https://semopenalex.org/work/W3009160614', 'https://semopenalex.org/work/W2091382943', 'https://semopenalex.org/work/W3161959528', 'https://semopenalex.org/work/W2751429127', 'https://semopenalex.org/work/W3117330688', 'https://semopenalex.org/work/W3033480106', 'https://semopenalex.org/work/W4387606708', 'https://semopenalex.org/work/W3165155612', 'https://semopenalex.org/work/W3126826400', 'https://semopenalex.org/work/W2037697732', 'https://semopenalex.org/work/W3033866035', 'https://semopenalex.org/work/W3096658838', 'https://semopenalex.org/work/W2551155618', 'https://semopenalex.org/work/W2904910662', 'https://semopenalex.org/work/W2755164339', 'https://semopenalex.org/work/W3163085734', 'https://semopenalex.org/work/W4404873047', 'https://semopenalex.org/work/W1981715407', 'https://semopenalex.org/work/W2896178739', 'https://semopenalex.org/work/W4225133274', 'https://semopenalex.org/work/W3161202338', 'https://semopenalex.org/work/W3203088685', 'https://semopenalex.org/work/W2344158693', 'https://semopenalex.org/work/W4406805368', 'https://semopenalex.org/work/W2793897377', 'https://semopenalex.org/work/W2789478762', 'https://semopenalex.org/work/W4379879736', 'https://semopenalex.org/work/W4283397308', 'https://semopenalex.org/work/W2755506150', 'https://semopenalex.org/work/W3028614762', 'https://semopenalex.org/work/W3141512745', 'https://semopenalex.org/work/W4361189030', 'https://semopenalex.org/work/W3036463368', 'https://semopenalex.org/work/W2465877051', 'https://semopenalex.org/work/W2159491375', 'https://semopenalex.org/work/W2977597077', 'https://semopenalex.org/work/W2121082751', 'https://semopenalex.org/work/W2520661109', 'https://semopenalex.org/work/W2090841027', 'https://semopenalex.org/work/W2901616108', 'https://semopenalex.org/work/W2913594206', 'https://semopenalex.org/work/W4315777028', 'https://semopenalex.org/work/W2136876773', 'https://semopenalex.org/work/W2557881781', 'https://semopenalex.org/work/W2513683703', 'https://semopenalex.org/work/W4200525013', 'https://semopenalex.org/work/W3110591323', 'https://semopenalex.org/work/W4225473762', 'https://semopenalex.org/work/W2102667737', 'https://semopenalex.org/work/W2518694405', 'https://semopenalex.org/work/W3198359754', 'https://semopenalex.org/work/W3202016550', 'https://semopenalex.org/work/W3171875220', 'https://semopenalex.org/work/W3031395001', 'https://semopenalex.org/work/W1998431265', 'https://semopenalex.org/work/W3090583924', 'https://semopenalex.org/work/W2139733095', 'https://semopenalex.org/work/W1993514406', 'https://semopenalex.org/work/W4385856456', 'https://semopenalex.org/work/W2108911539', 'https://semopenalex.org/work/W2169202944', 'https://semopenalex.org/work/W2515389026', 'https://semopenalex.org/work/W2613908791', 'https://semopenalex.org/work/W3178374478', 'https://semopenalex.org/work/W4312646439', 'https://semopenalex.org/work/W4214684069', 'https://semopenalex.org/work/W3130372017', 'https://semopenalex.org/work/W4399763801', 'https://semopenalex.org/work/W2519914856', 'https://semopenalex.org/work/W1522158218', 'https://semopenalex.org/work/W3184531492', 'https://semopenalex.org/work/W3186694431', 'https://semopenalex.org/work/W2798335699', 'https://semopenalex.org/work/W2899333601', 'https://semopenalex.org/work/W1975028026', 'https://semopenalex.org/work/W4214593503', 'https://semopenalex.org/work/W4393102879', 'https://semopenalex.org/work/W2610780371', 'https://semopenalex.org/work/W4312841490', 'https://semopenalex.org/work/W2063007215', 'https://semopenalex.org/work/W2944843734', 'https://semopenalex.org/work/W4324154015', 'https://semopenalex.org/work/W3022986551', 'https://semopenalex.org/work/W2561633795', 'https://semopenalex.org/work/W3182364466', 'https://semopenalex.org/work/W2611685970', 'https://semopenalex.org/work/W4224279084', 'https://semopenalex.org/work/W3030577208', 'https://semopenalex.org/work/W2294361658', 'https://semopenalex.org/work/W2082538501', 'https://semopenalex.org/work/W2810881717', 'https://semopenalex.org/work/W1524596993', 'https://semopenalex.org/work/W3135072684', 'https://semopenalex.org/work/W2972600126', 'https://semopenalex.org/work/W3035727063', 'https://semopenalex.org/work/W1965526182', 'https://semopenalex.org/work/W2346980133', 'https://semopenalex.org/work/W3181801907', 'https://semopenalex.org/work/W2920869031', 'https://semopenalex.org/work/W3196772354', 'https://semopenalex.org/work/W2152557601', 'https://semopenalex.org/work/W4312605566', 'https://semopenalex.org/work/W2346600598', 'https://semopenalex.org/work/W2520077052', 'https://semopenalex.org/work/W2401872729', 'https://semopenalex.org/work/W4307204790', 'https://semopenalex.org/work/W3037695612', 'https://semopenalex.org/work/W2921058600', 'https://semopenalex.org/work/W4386929049', 'https://semopenalex.org/work/W2902941289', 'https://semopenalex.org/work/W2060118520', 'https://semopenalex.org/work/W4230967253', 'https://semopenalex.org/work/W1860259465', 'https://semopenalex.org/work/W3204110051', 'https://semopenalex.org/work/W4312282153', 'https://semopenalex.org/work/W3011317564', 'https://semopenalex.org/work/W4394825420', 'https://semopenalex.org/work/W3003369003', 'https://semopenalex.org/work/W3204393727', 'https://semopenalex.org/work/W3163078982', 'https://semopenalex.org/work/W2737450254', 'https://semopenalex.org/work/W2752561456', 'https://semopenalex.org/work/W4366597679', 'https://semopenalex.org/work/W2114418543', 'https://semopenalex.org/work/W2061583538', 'https://semopenalex.org/work/W4383220643', 'https://semopenalex.org/work/W2318574332', 'https://semopenalex.org/work/W1751138515', 'https://semopenalex.org/work/W2986358413', 'https://semopenalex.org/work/W2898667062', 'https://semopenalex.org/work/W2137846113', 'https://semopenalex.org/work/W3033704563', 'https://semopenalex.org/work/W4386163788', 'https://semopenalex.org/work/W3007521088', 'https://semopenalex.org/work/W2154752229', 'https://semopenalex.org/work/W2972759039', 'https://semopenalex.org/work/W3084729599', 'https://semopenalex.org/work/W4366547357', 'https://semopenalex.org/work/W2981708234', 'https://semopenalex.org/work/W3096988350', 'https://semopenalex.org/work/W4245844025', 'https://semopenalex.org/work/W2738622408', 'https://semopenalex.org/work/W4399126764', 'https://semopenalex.org/work/W2750727230', 'https://semopenalex.org/work/W4294891921', 'https://semopenalex.org/work/W3161889270', 'https://semopenalex.org/work/W2973016298', 'https://semopenalex.org/work/W4234952088']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2000678401', 'https://semopenalex.org/work/W2945694079', 'https://semopenalex.org/work/W2949856979', 'https://semopenalex.org/work/W2138849026', 'https://semopenalex.org/work/W1996889815', 'https://semopenalex.org/work/W2403407377', 'https://semopenalex.org/work/W2007711012', 'https://semopenalex.org/work/W104836782', 'https://semopenalex.org/work/W2767389499', 'https://semopenalex.org/work/W2013409484', 'https://semopenalex.org/work/W4394671034', 'https://semopenalex.org/work/W2001758565', 'https://semopenalex.org/work/W4400140703', 'https://semopenalex.org/work/W2117939945', 'https://semopenalex.org/work/W2560656300', 'https://semopenalex.org/work/W2783474972', 'https://semopenalex.org/work/W2150988180', 'https://semopenalex.org/work/W2164350127', 'https://semopenalex.org/work/W2949241777', 'https://semopenalex.org/work/W2888868723', 'https://semopenalex.org/work/W4400685798', 'https://semopenalex.org/work/W1573832120', 'https://semopenalex.org/work/W4255148416', 'https://semopenalex.org/work/W2074016404', 'https://semopenalex.org/work/W2951667795', 'https://semopenalex.org/work/W2952407455', 'https://semopenalex.org/work/W4300128383', 'https://semopenalex.org/work/W1981701231', 'https://semopenalex.org/work/W1583372918', 'https://semopenalex.org/work/W4404152970', 'https://semopenalex.org/work/W1990566310', 'https://semopenalex.org/work/W2952273918', 'https://semopenalex.org/work/W2403109826', 'https://semopenalex.org/work/W4280560128', 'https://semopenalex.org/work/W4405767326', 'https://semopenalex.org/work/W1592279809', 'https://semopenalex.org/work/W4285771978', 'https://semopenalex.org/work/W2089927779', 'https://semopenalex.org/work/W2962841644', 'https://semopenalex.org/work/W2006123925', 'https://semopenalex.org/work/W4390732531', 'https://semopenalex.org/work/W3098888522', 'https://semopenalex.org/work/W2066471658', 'https://semopenalex.org/work/W2037666581', 'https://semopenalex.org/work/W1583323833', 'https://semopenalex.org/work/W4249496072', 'https://semopenalex.org/work/W83683955', 'https://semopenalex.org/work/W2998711538', 'https://semopenalex.org/work/W1980447851', 'https://semopenalex.org/work/W2067096513', 'https://semopenalex.org/work/W1977188158', 'https://semopenalex.org/work/W1728268450', 'https://semopenalex.org/work/W2065449061', 'https://semopenalex.org/work/W2046150956', 'https://semopenalex.org/work/W1978387225', 'https://semopenalex.org/work/W4389918307', 'https://semopenalex.org/work/W2023872558', 'https://semopenalex.org/work/W2403738873', 'https://semopenalex.org/work/W1986379969', 'https://semopenalex.org/work/W2964309965', 'https://semopenalex.org/work/W2100794909', 'https://semopenalex.org/work/W2153885335', 'https://semopenalex.org/work/W3004591117', 'https://semopenalex.org/work/W1551919361', 'https://semopenalex.org/work/W1579402145', 'https://semopenalex.org/work/W4224629862', 'https://semopenalex.org/work/W2913235017', 'https://semopenalex.org/work/W2101281054', 'https://semopenalex.org/work/W3080579843', 'https://semopenalex.org/work/W4297891663', 'https://semopenalex.org/work/W166851098', 'https://semopenalex.org/work/W164962158', 'https://semopenalex.org/work/W4290885807', 'https://semopenalex.org/work/W2148262713', 'https://semopenalex.org/work/W4256184212', 'https://semopenalex.org/work/W1985177211', 'https://semopenalex.org/work/W2507818253', 'https://semopenalex.org/work/W1487426575', 'https://semopenalex.org/work/W2100745639', 'https://semopenalex.org/work/W2743825404', 'https://semopenalex.org/work/W4298342478', 'https://semopenalex.org/work/W2515664902', 'https://semopenalex.org/work/W2993359351', 'https://semopenalex.org/work/W3015555506', 'https://semopenalex.org/work/W1763880239', 'https://semopenalex.org/work/W2970902883', 'https://semopenalex.org/work/W2040689705', 'https://semopenalex.org/work/W2911569412', 'https://semopenalex.org/work/W1493107308', 'https://semopenalex.org/work/W4308796007', 'https://semopenalex.org/work/W2162070658', 'https://semopenalex.org/work/W2113728843', 'https://semopenalex.org/work/W2081118695', 'https://semopenalex.org/work/W1949484841', 'https://semopenalex.org/work/W1599949305', 'https://semopenalex.org/work/W4299856085', 'https://semopenalex.org/work/W2951807252', 'https://semopenalex.org/work/W2084366058', 'https://semopenalex.org/work/W2036207413', 'https://semopenalex.org/work/W2100755518', 'https://semopenalex.org/work/W2247847117', 'https://semopenalex.org/work/W1480653821', 'https://semopenalex.org/work/W2152616797', 'https://semopenalex.org/work/W4300809055', 'https://semopenalex.org/work/W3159580594', 'https://semopenalex.org/work/W4236166745', 'https://semopenalex.org/work/W2106220493', 'https://semopenalex.org/work/W4296949654', 'https://semopenalex.org/work/W2028560778', 'https://semopenalex.org/work/W2161874062', 'https://semopenalex.org/work/W3186748800', 'https://semopenalex.org/work/W4393950767', 'https://semopenalex.org/work/W4291094382', 'https://semopenalex.org/work/W1980319880', 'https://semopenalex.org/work/W2970729539', 'https://semopenalex.org/work/W2056078401', 'https://semopenalex.org/work/W2931939826', 'https://semopenalex.org/work/W4245405003', 'https://semopenalex.org/work/W2102686643', 'https://semopenalex.org/work/W4361193367', 'https://semopenalex.org/work/W2060173159', 'https://semopenalex.org/work/W2029681858', 'https://semopenalex.org/work/W2949342774', 'https://semopenalex.org/work/W2098637407', 'https://semopenalex.org/work/W3003950686', 'https://semopenalex.org/work/W4379134829', 'https://semopenalex.org/work/W4394662778', 'https://semopenalex.org/work/W2055914237', 'https://semopenalex.org/work/W2061353171', 'https://semopenalex.org/work/W4391472386', 'https://semopenalex.org/work/W2107594015', 'https://semopenalex.org/work/W2949472060', 'https://semopenalex.org/work/W4387346441', 'https://semopenalex.org/work/W206712979', 'https://semopenalex.org/work/W2328920747', 'https://semopenalex.org/work/W1973711904', 'https://semopenalex.org/work/W3008095482', 'https://semopenalex.org/work/W2034645577', 'https://semopenalex.org/work/W1778352006', 'https://semopenalex.org/work/W4205839473', 'https://semopenalex.org/work/W194727567', 'https://semopenalex.org/work/W1931167027', 'https://semopenalex.org/work/W1870153077', 'https://semopenalex.org/work/W2125050665', 'https://semopenalex.org/work/W2023253690', 'https://semopenalex.org/work/W2295258105', 'https://semopenalex.org/work/W2571228349', 'https://semopenalex.org/work/W2951156523', 'https://semopenalex.org/work/W2068027439', 'https://semopenalex.org/work/W3027363685', 'https://semopenalex.org/work/W4399116422', 'https://semopenalex.org/work/W2972814152', 'https://semopenalex.org/work/W4247354967', 'https://semopenalex.org/work/W2152290369', 'https://semopenalex.org/work/W4391891737', 'https://semopenalex.org/work/W2168244089', 'https://semopenalex.org/work/W2406352678', 'https://semopenalex.org/work/W3116535447', 'https://semopenalex.org/work/W2725261268', 'https://semopenalex.org/work/W4387390194', 'https://semopenalex.org/work/W2771643775', 'https://semopenalex.org/work/W4247804386', 'https://semopenalex.org/work/W2082617679', 'https://semopenalex.org/work/W4301381472', 'https://semopenalex.org/work/W2952102457', 'https://semopenalex.org/work/W4405627300', 'https://semopenalex.org/work/W4396661261', 'https://semopenalex.org/work/W2117256127', 'https://semopenalex.org/work/W4394670505', 'https://semopenalex.org/work/W2949607879', 'https://semopenalex.org/work/W1612113233', 'https://semopenalex.org/work/W4287119624', 'https://semopenalex.org/work/W1532769748', 'https://semopenalex.org/work/W2952074783', 'https://semopenalex.org/work/W2975537528', 'https://semopenalex.org/work/W1685547394', 'https://semopenalex.org/work/W1998402272', 'https://semopenalex.org/work/W2096941488', 'https://semopenalex.org/work/W3161644425', 'https://semopenalex.org/work/W2952626446', 'https://semopenalex.org/work/W4239506095', 'https://semopenalex.org/work/W1522994628', 'https://semopenalex.org/work/W3183790410', 'https://semopenalex.org/work/W2789741548', 'https://semopenalex.org/work/W1836666292', 'https://semopenalex.org/work/W4320932337', 'https://semopenalex.org/work/W2046670590', 'https://semopenalex.org/work/W1970244902', 'https://semopenalex.org/work/W1986226106', 'https://semopenalex.org/work/W2569427764', 'https://semopenalex.org/work/W2950851228', 'https://semopenalex.org/work/W4254726953', 'https://semopenalex.org/work/W2027914059', 'https://semopenalex.org/work/W3136413185', 'https://semopenalex.org/work/W2109238704', 'https://semopenalex.org/work/W1907443511', 'https://semopenalex.org/work/W2999064497', 'https://semopenalex.org/work/W2494755989', 'https://semopenalex.org/work/W4235945615', 'https://semopenalex.org/work/W4303107312', 'https://semopenalex.org/work/W3208176611', 'https://semopenalex.org/work/W2180791849', 'https://semopenalex.org/work/W2033561849', 'https://semopenalex.org/work/W1578195936', 'https://semopenalex.org/work/W2951276066', 'https://semopenalex.org/work/W2145318915', 'https://semopenalex.org/work/W2029717679', 'https://semopenalex.org/work/W2437864991', 'https://semopenalex.org/work/W4404649018', 'https://semopenalex.org/work/W3023681931', 'https://semopenalex.org/work/W2129283577', 'https://semopenalex.org/work/W4291327627', 'https://semopenalex.org/work/W2176102619', 'https://semopenalex.org/work/W2292883116', 'https://semopenalex.org/work/W1964336531', 'https://semopenalex.org/work/W2112104566', 'https://semopenalex.org/work/W1508903047', 'https://semopenalex.org/work/W4311710422', 'https://semopenalex.org/work/W2024874686', 'https://semopenalex.org/work/W3152287740', 'https://semopenalex.org/work/W2012023458', 'https://semopenalex.org/work/W4294062259', 'https://semopenalex.org/work/W3121675905', 'https://semopenalex.org/work/W2002319206', 'https://semopenalex.org/work/W2569145132', 'https://semopenalex.org/work/W2031312788', 'https://semopenalex.org/work/W1807705148', 'https://semopenalex.org/work/W2963331449', 'https://semopenalex.org/work/W2377698676', 'https://semopenalex.org/work/W2397505357', 'https://semopenalex.org/work/W2127438386', 'https://semopenalex.org/work/W1964196237', 'https://semopenalex.org/work/W4385469930', 'https://semopenalex.org/work/W2102047759', 'https://semopenalex.org/work/W4289098048', 'https://semopenalex.org/work/W4399283990', 'https://semopenalex.org/work/W4389301894', 'https://semopenalex.org/work/W2912017968', 'https://semopenalex.org/work/W3160682374', 'https://semopenalex.org/work/W4404174222', 'https://semopenalex.org/work/W2127420314', 'https://semopenalex.org/work/W2952535410', 'https://semopenalex.org/work/W1540998622', 'https://semopenalex.org/work/W2922391289', 'https://semopenalex.org/work/W4392537504', 'https://semopenalex.org/work/W2964284126', 'https://semopenalex.org/work/W4301458316', 'https://semopenalex.org/work/W2171302677', 'https://semopenalex.org/work/W2085901867', 'https://semopenalex.org/work/W2398870273', 'https://semopenalex.org/work/W4292140756', 'https://semopenalex.org/work/W2908270252', 'https://semopenalex.org/work/W1803576938', 'https://semopenalex.org/work/W2952971932', 'https://semopenalex.org/work/W2099234771', 'https://semopenalex.org/work/W2330389512', 'https://semopenalex.org/work/W2268530658', 'https://semopenalex.org/work/W1589028142', 'https://semopenalex.org/work/W2076856026', 'https://semopenalex.org/work/W3119081543', 'https://semopenalex.org/work/W4388430529', 'https://semopenalex.org/work/W2904538221', 'https://semopenalex.org/work/W4386114011', 'https://semopenalex.org/work/W2057861520', 'https://semopenalex.org/work/W2890802049', 'https://semopenalex.org/work/W2096776718', 'https://semopenalex.org/work/W2228088547', 'https://semopenalex.org/work/W4394651883', 'https://semopenalex.org/work/W1992370839', 'https://semopenalex.org/work/W2963919789', 'https://semopenalex.org/work/W1725212389', 'https://semopenalex.org/work/W2571890847', 'https://semopenalex.org/work/W2768764062', 'https://semopenalex.org/work/W2319916672', 'https://semopenalex.org/work/W2109075893', 'https://semopenalex.org/work/W4210695268', 'https://semopenalex.org/work/W4385357601', 'https://semopenalex.org/work/W2949127580', 'https://semopenalex.org/work/W2912834256', 'https://semopenalex.org/work/W2590702107', 'https://semopenalex.org/work/W1991315286', 'https://semopenalex.org/work/W2806536945', 'https://semopenalex.org/work/W116433216', 'https://semopenalex.org/work/W2165434229', 'https://semopenalex.org/work/W2156083238', 'https://semopenalex.org/work/W2949194403', 'https://semopenalex.org/work/W2175722859', 'https://semopenalex.org/work/W2963234396', 'https://semopenalex.org/work/W4210537605', 'https://semopenalex.org/work/W4321162376', 'https://semopenalex.org/work/W4302387386', 'https://semopenalex.org/work/W2089184382', 'https://semopenalex.org/work/W2110263320', 'https://semopenalex.org/work/W2952904556', 'https://semopenalex.org/work/W1932482114', 'https://semopenalex.org/work/W2002357371', 'https://semopenalex.org/work/W4363672021', 'https://semopenalex.org/work/W2241785433', 'https://semopenalex.org/work/W3035605716', 'https://semopenalex.org/work/W2098527118', 'https://semopenalex.org/work/W4299881295', 'https://semopenalex.org/work/W209907261', 'https://semopenalex.org/work/W2268144054', 'https://semopenalex.org/work/W2477026011', 'https://semopenalex.org/work/W2953174913', 'https://semopenalex.org/work/W2117450609', 'https://semopenalex.org/work/W2963796874', 'https://semopenalex.org/work/W4400779100', 'https://semopenalex.org/work/W2479720249', 'https://semopenalex.org/work/W4379117654', 'https://semopenalex.org/work/W2040885117', 'https://semopenalex.org/work/W2949755881', 'https://semopenalex.org/work/W4399802014', 'https://semopenalex.org/work/W2294974848', 'https://semopenalex.org/work/W4299986738', 'https://semopenalex.org/work/W2951864268', 'https://semopenalex.org/work/W2952750818', 'https://semopenalex.org/work/W2162892932', 'https://semopenalex.org/work/W3033508120', 'https://semopenalex.org/work/W2963124996', 'https://semopenalex.org/work/W2952204454', 'https://semopenalex.org/work/W3135107566', 'https://semopenalex.org/work/W2569985645', 'https://semopenalex.org/work/W3193628763', 'https://semopenalex.org/work/W2775366288', 'https://semopenalex.org/work/W1982128583', 'https://semopenalex.org/work/W2895641489', 'https://semopenalex.org/work/W2913039569', 'https://semopenalex.org/work/W2950873171', 'https://semopenalex.org/work/W1582081577', 'https://semopenalex.org/work/W4288622558', 'https://semopenalex.org/work/W1995110375', 'https://semopenalex.org/work/W4287866996', 'https://semopenalex.org/work/W2914876106', 'https://semopenalex.org/work/W2126925718', 'https://semopenalex.org/work/W4224134324', 'https://semopenalex.org/work/W4399526822', 'https://semopenalex.org/work/W2080416224', 'https://semopenalex.org/work/W4402223986', 'https://semopenalex.org/work/W2086526821', 'https://semopenalex.org/work/W4394666077', 'https://semopenalex.org/work/W2023382097', 'https://semopenalex.org/work/W2132402436', 'https://semopenalex.org/work/W2406460929', 'https://semopenalex.org/work/W1997775408', 'https://semopenalex.org/work/W4362701421', 'https://semopenalex.org/work/W4309044540', 'https://semopenalex.org/work/W1994724899', 'https://semopenalex.org/work/W4399695439', 'https://semopenalex.org/work/W1988573007', 'https://semopenalex.org/work/W2963798875', 'https://semopenalex.org/work/W3171807150', 'https://semopenalex.org/work/W2950871975', 'https://semopenalex.org/work/W4381586548', 'https://semopenalex.org/work/W4300538486', 'https://semopenalex.org/work/W4309606516', 'https://semopenalex.org/work/W1587992373', 'https://semopenalex.org/work/W2149217499', 'https://semopenalex.org/work/W2098607452', 'https://semopenalex.org/work/W1577839953', 'https://semopenalex.org/work/W3125766893', 'https://semopenalex.org/work/W1996892843', 'https://semopenalex.org/work/W2476743429', 'https://semopenalex.org/work/W3037767105', 'https://semopenalex.org/work/W2138594241', 'https://semopenalex.org/work/W2281083481', 'https://semopenalex.org/work/W2135451559', 'https://semopenalex.org/work/W2107711450', 'https://semopenalex.org/work/W2951443728', 'https://semopenalex.org/work/W3169361559']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2108304242', 'https://semopenalex.org/work/W1969657871', 'https://semopenalex.org/work/W2113043545', 'https://semopenalex.org/work/W2138291705', 'https://semopenalex.org/work/W3187351556', 'https://semopenalex.org/work/W3118215277', 'https://semopenalex.org/work/W4376526615', 'https://semopenalex.org/work/W2230115501', 'https://semopenalex.org/work/W2154510046', 'https://semopenalex.org/work/W2293095660', 'https://semopenalex.org/work/W2212338561', 'https://semopenalex.org/work/W2061231005', 'https://semopenalex.org/work/W2139436497', 'https://semopenalex.org/work/W2895854254', 'https://semopenalex.org/work/W2485878525', 'https://semopenalex.org/work/W3206640136', 'https://semopenalex.org/work/W1823956242', 'https://semopenalex.org/work/W2079466034', 'https://semopenalex.org/work/W1943042767', 'https://semopenalex.org/work/W139668830', 'https://semopenalex.org/work/W3041653159', 'https://semopenalex.org/work/W2884188352', 'https://semopenalex.org/work/W4237620799', 'https://semopenalex.org/work/W3196495759', 'https://semopenalex.org/work/W1517253300', 'https://semopenalex.org/work/W2903177638', 'https://semopenalex.org/work/W2550712691', 'https://semopenalex.org/work/W1840794446', 'https://semopenalex.org/work/W2804891820', 'https://semopenalex.org/work/W3096110661', 'https://semopenalex.org/work/W4401021691', 'https://semopenalex.org/work/W2981465620', 'https://semopenalex.org/work/W2290200834', 'https://semopenalex.org/work/W2884636426', 'https://semopenalex.org/work/W2210223524', 'https://semopenalex.org/work/W4294672356', 'https://semopenalex.org/work/W4396665589', 'https://semopenalex.org/work/W2271801361', 'https://semopenalex.org/work/W6907768', 'https://semopenalex.org/work/W2138922641', 'https://semopenalex.org/work/W2098016930', 'https://semopenalex.org/work/W1999149743', 'https://semopenalex.org/work/W2398987072', 'https://semopenalex.org/work/W2165818457', 'https://semopenalex.org/work/W3089291192', 'https://semopenalex.org/work/W2130803541', 'https://semopenalex.org/work/W2163180953', 'https://semopenalex.org/work/W2804376295', 'https://semopenalex.org/work/W2885100636', 'https://semopenalex.org/work/W48804293', 'https://semopenalex.org/work/W2024786226', 'https://semopenalex.org/work/W2219017076', 'https://semopenalex.org/work/W1560982985', 'https://semopenalex.org/work/W2542642724', 'https://semopenalex.org/work/W2069369796', 'https://semopenalex.org/work/W196228518', 'https://semopenalex.org/work/W4385626270', 'https://semopenalex.org/work/W4392942581', 'https://semopenalex.org/work/W1577463177', 'https://semopenalex.org/work/W4285815179', 'https://semopenalex.org/work/W4396894716', 'https://semopenalex.org/work/W4392713273', 'https://semopenalex.org/work/W2106211998', 'https://semopenalex.org/work/W857122145', 'https://semopenalex.org/work/W2627083872', 'https://semopenalex.org/work/W2161545800', 'https://semopenalex.org/work/W2935942569', 'https://semopenalex.org/work/W2068973986', 'https://semopenalex.org/work/W2161966477', 'https://semopenalex.org/work/W2805153701', 'https://semopenalex.org/work/W3097508557', 'https://semopenalex.org/work/W4285172618', 'https://semopenalex.org/work/W2073709132', 'https://semopenalex.org/work/W1419972110', 'https://semopenalex.org/work/W2748533023', 'https://semopenalex.org/work/W4206307909', 'https://semopenalex.org/work/W4389921335', 'https://semopenalex.org/work/W3004301528', 'https://semopenalex.org/work/W652412083', 'https://semopenalex.org/work/W4252981000', 'https://semopenalex.org/work/W4316659889', 'https://semopenalex.org/work/W2579158977', 'https://semopenalex.org/work/W2119033694', 'https://semopenalex.org/work/W2528842892', 'https://semopenalex.org/work/W2560712448', 'https://semopenalex.org/work/W2171606781', 'https://semopenalex.org/work/W2102190590', 'https://semopenalex.org/work/W2142079724', 'https://semopenalex.org/work/W1516117757', 'https://semopenalex.org/work/W2624802634', 'https://semopenalex.org/work/W4321614042', 'https://semopenalex.org/work/W2085435476', 'https://semopenalex.org/work/W2203509984', 'https://semopenalex.org/work/W2062904953', 'https://semopenalex.org/work/W2150298155', 'https://semopenalex.org/work/W2513883066', 'https://semopenalex.org/work/W2079895649', 'https://semopenalex.org/work/W2340283416', 'https://semopenalex.org/work/W4390187585', 'https://semopenalex.org/work/W1526915766', 'https://semopenalex.org/work/W1986827696', 'https://semopenalex.org/work/W2080996134', 'https://semopenalex.org/work/W2475285031', 'https://semopenalex.org/work/W4392188385', 'https://semopenalex.org/work/W2786606238', 'https://semopenalex.org/work/W1995950498', 'https://semopenalex.org/work/W2001905011', 'https://semopenalex.org/work/W2134768851', 'https://semopenalex.org/work/W2290447772', 'https://semopenalex.org/work/W2145502705', 'https://semopenalex.org/work/W4404030648', 'https://semopenalex.org/work/W4252463735', 'https://semopenalex.org/work/W2596027452', 'https://semopenalex.org/work/W102421301', 'https://semopenalex.org/work/W1969462495', 'https://semopenalex.org/work/W2089241417', 'https://semopenalex.org/work/W1488510230', 'https://semopenalex.org/work/W2095834672', 'https://semopenalex.org/work/W1965382252', 'https://semopenalex.org/work/W2497743975', 'https://semopenalex.org/work/W2029818237', 'https://semopenalex.org/work/W2901316497', 'https://semopenalex.org/work/W2162066092', 'https://semopenalex.org/work/W2166211129', 'https://semopenalex.org/work/W67894965', 'https://semopenalex.org/work/W2407231546', 'https://semopenalex.org/work/W1633573314', 'https://semopenalex.org/work/W2070215238', 'https://semopenalex.org/work/W2147895050', 'https://semopenalex.org/work/W1991853935', 'https://semopenalex.org/work/W2063650982', 'https://semopenalex.org/work/W159035867', 'https://semopenalex.org/work/W4250489070', 'https://semopenalex.org/work/W3206895939', 'https://semopenalex.org/work/W4390188024', 'https://semopenalex.org/work/W2085207404', 'https://semopenalex.org/work/W2917706508', 'https://semopenalex.org/work/W2896727063', 'https://semopenalex.org/work/W2088723639', 'https://semopenalex.org/work/W2034179412', 'https://semopenalex.org/work/W2131405606', 'https://semopenalex.org/work/W2158569759', 'https://semopenalex.org/work/W2742916377', 'https://semopenalex.org/work/W2888177496', 'https://semopenalex.org/work/W4306173842', 'https://semopenalex.org/work/W2039163755', 'https://semopenalex.org/work/W2983014989', 'https://semopenalex.org/work/W2532447822', 'https://semopenalex.org/work/W1991026653', 'https://semopenalex.org/work/W2484374542', 'https://semopenalex.org/work/W2149899452', 'https://semopenalex.org/work/W4401579183', 'https://semopenalex.org/work/W2473052796', 'https://semopenalex.org/work/W4391156256', 'https://semopenalex.org/work/W2153457047', 'https://semopenalex.org/work/W2139255754', 'https://semopenalex.org/work/W2945691872', 'https://semopenalex.org/work/W2159139699', 'https://semopenalex.org/work/W1974886156', 'https://semopenalex.org/work/W2120355631', 'https://semopenalex.org/work/W2104408001', 'https://semopenalex.org/work/W2953533689', 'https://semopenalex.org/work/W4231226382', 'https://semopenalex.org/work/W2998201073', 'https://semopenalex.org/work/W2120216356', 'https://semopenalex.org/work/W2965366155', 'https://semopenalex.org/work/W1979988378', 'https://semopenalex.org/work/W3162144158', 'https://semopenalex.org/work/W2948995623', 'https://semopenalex.org/work/W2111964097', 'https://semopenalex.org/work/W2064476539', 'https://semopenalex.org/work/W2065803961', 'https://semopenalex.org/work/W2356144191', 'https://semopenalex.org/work/W2165300716', 'https://semopenalex.org/work/W2132364404', 'https://semopenalex.org/work/W1857000584', 'https://semopenalex.org/work/W2166520679', 'https://semopenalex.org/work/W2625256202', 'https://semopenalex.org/work/W3095279071', 'https://semopenalex.org/work/W2145701421', 'https://semopenalex.org/work/W4285503152', 'https://semopenalex.org/work/W2809782991', 'https://semopenalex.org/work/W4392577068', 'https://semopenalex.org/work/W2413863213', 'https://semopenalex.org/work/W2512795596', 'https://semopenalex.org/work/W2576879514', 'https://semopenalex.org/work/W2172143183', 'https://semopenalex.org/work/W2166217821', 'https://semopenalex.org/work/W4405935629', 'https://semopenalex.org/work/W1177607589', 'https://semopenalex.org/work/W2530140145', 'https://semopenalex.org/work/W1654176175', 'https://semopenalex.org/work/W4249594017', 'https://semopenalex.org/work/W49611838', 'https://semopenalex.org/work/W2024612964', 'https://semopenalex.org/work/W4405094102', 'https://semopenalex.org/work/W1933806665', 'https://semopenalex.org/work/W2295164153', 'https://semopenalex.org/work/W2995911827', 'https://semopenalex.org/work/W2144918660', 'https://semopenalex.org/work/W2138320177', 'https://semopenalex.org/work/W4401943800', 'https://semopenalex.org/work/W2137861763', 'https://semopenalex.org/work/W2115899637', 'https://semopenalex.org/work/W1994278842', 'https://semopenalex.org/work/W2041334917', 'https://semopenalex.org/work/W3023797106', 'https://semopenalex.org/work/W2044237546', 'https://semopenalex.org/work/W2111759980', 'https://semopenalex.org/work/W1481133633', 'https://semopenalex.org/work/W2055684776', 'https://semopenalex.org/work/W2743920271', 'https://semopenalex.org/work/W2129869483', 'https://semopenalex.org/work/W2401333290', 'https://semopenalex.org/work/W2109186457', 'https://semopenalex.org/work/W4210325270', 'https://semopenalex.org/work/W160837981', 'https://semopenalex.org/work/W4285216643', 'https://semopenalex.org/work/W2122571865', 'https://semopenalex.org/work/W3136727059', 'https://semopenalex.org/work/W2895967513', 'https://semopenalex.org/work/W2744837872', 'https://semopenalex.org/work/W2611767226', 'https://semopenalex.org/work/W2954164432', 'https://semopenalex.org/work/W2501830935', 'https://semopenalex.org/work/W1973125618', 'https://semopenalex.org/work/W2002312562', 'https://semopenalex.org/work/W1549886897', 'https://semopenalex.org/work/W4402830551', 'https://semopenalex.org/work/W858120236', 'https://semopenalex.org/work/W52623672', 'https://semopenalex.org/work/W2074068839', 'https://semopenalex.org/work/W3027319226', 'https://semopenalex.org/work/W1497865469', 'https://semopenalex.org/work/W2755469263', 'https://semopenalex.org/work/W2130832779', 'https://semopenalex.org/work/W2496039851', 'https://semopenalex.org/work/W1494063694', 'https://semopenalex.org/work/W2571158126', 'https://semopenalex.org/work/W3132353162', 'https://semopenalex.org/work/W2768928198', 'https://semopenalex.org/work/W2028754220', 'https://semopenalex.org/work/W2016989291', 'https://semopenalex.org/work/W1986540981', 'https://semopenalex.org/work/W2947626283', 'https://semopenalex.org/work/W1422159917', 'https://semopenalex.org/work/W2554047600', 'https://semopenalex.org/work/W4390512166', 'https://semopenalex.org/work/W2042756792', 'https://semopenalex.org/work/W72692433', 'https://semopenalex.org/work/W2044900380', 'https://semopenalex.org/work/W3129067525', 'https://semopenalex.org/work/W2112535726', 'https://semopenalex.org/work/W2411894725', 'https://semopenalex.org/work/W3107887875', 'https://semopenalex.org/work/W2612282432', 'https://semopenalex.org/work/W2146520711', 'https://semopenalex.org/work/W3017031701', 'https://semopenalex.org/work/W1990193612', 'https://semopenalex.org/work/W2112107898', 'https://semopenalex.org/work/W4285408205', 'https://semopenalex.org/work/W2181791275', 'https://semopenalex.org/work/W2157188908', 'https://semopenalex.org/work/W2786601708', 'https://semopenalex.org/work/W2124054384', 'https://semopenalex.org/work/W4205212276', 'https://semopenalex.org/work/W2886396839', 'https://semopenalex.org/work/W4206807237', 'https://semopenalex.org/work/W4376630019', 'https://semopenalex.org/work/W4405120549', 'https://semopenalex.org/work/W2163881253', 'https://semopenalex.org/work/W2123532445', 'https://semopenalex.org/work/W2147139299', 'https://semopenalex.org/work/W2950468099', 'https://semopenalex.org/work/W4367360059', 'https://semopenalex.org/work/W1923826352', 'https://semopenalex.org/work/W4244005678', 'https://semopenalex.org/work/W4238734812', 'https://semopenalex.org/work/W1791684062', 'https://semopenalex.org/work/W2084854878', 'https://semopenalex.org/work/W2484645626', 'https://semopenalex.org/work/W2907364096', 'https://semopenalex.org/work/W1544888628', 'https://semopenalex.org/work/W1661735121', 'https://semopenalex.org/work/W3160200186', 'https://semopenalex.org/work/W2527344267', 'https://semopenalex.org/work/W4229053674', 'https://semopenalex.org/work/W325059703', 'https://semopenalex.org/work/W2586727473', 'https://semopenalex.org/work/W1531223514', 'https://semopenalex.org/work/W2170201418', 'https://semopenalex.org/work/W2138433001', 'https://semopenalex.org/work/W2146002591', 'https://semopenalex.org/work/W2028566173', 'https://semopenalex.org/work/W2516286998', 'https://semopenalex.org/work/W4286571613', 'https://semopenalex.org/work/W2070269076', 'https://semopenalex.org/work/W2341007259', 'https://semopenalex.org/work/W2564132746', 'https://semopenalex.org/work/W1516689139', 'https://semopenalex.org/work/W1992495634', 'https://semopenalex.org/work/W1998201483', 'https://semopenalex.org/work/W1971283588', 'https://semopenalex.org/work/W2967876484', 'https://semopenalex.org/work/W51211239', 'https://semopenalex.org/work/W2550667658', 'https://semopenalex.org/work/W2288294525', 'https://semopenalex.org/work/W2112979372', 'https://semopenalex.org/work/W4294672395', 'https://semopenalex.org/work/W1506027738', 'https://semopenalex.org/work/W2077200079', 'https://semopenalex.org/work/W1922706319', 'https://semopenalex.org/work/W2064672353', 'https://semopenalex.org/work/W2883395494', 'https://semopenalex.org/work/W1514325539', 'https://semopenalex.org/work/W1569686365', 'https://semopenalex.org/work/W2761828172', 'https://semopenalex.org/work/W2964982644', 'https://semopenalex.org/work/W2608491785', 'https://semopenalex.org/work/W2401583884', 'https://semopenalex.org/work/W2027452379', 'https://semopenalex.org/work/W2612784784', 'https://semopenalex.org/work/W1999631843', 'https://semopenalex.org/work/W4386814402', 'https://semopenalex.org/work/W2034507787', 'https://semopenalex.org/work/W2730743430', 'https://semopenalex.org/work/W2754307650', 'https://semopenalex.org/work/W565256208', 'https://semopenalex.org/work/W4233681091', 'https://semopenalex.org/work/W4296365397', 'https://semopenalex.org/work/W2620890574', 'https://semopenalex.org/work/W2747040169', 'https://semopenalex.org/work/W4253850266', 'https://semopenalex.org/work/W2155718231', 'https://semopenalex.org/work/W149383384', 'https://semopenalex.org/work/W4312778763', 'https://semopenalex.org/work/W2078326945', 'https://semopenalex.org/work/W2536107053', 'https://semopenalex.org/work/W1990091852', 'https://semopenalex.org/work/W1967568969', 'https://semopenalex.org/work/W1518248903', 'https://semopenalex.org/work/W143942840', 'https://semopenalex.org/work/W2066111880', 'https://semopenalex.org/work/W2496567738', 'https://semopenalex.org/work/W2076330335', 'https://semopenalex.org/work/W2786772278', 'https://semopenalex.org/work/W2019708772', 'https://semopenalex.org/work/W4327767801', 'https://semopenalex.org/work/W2167521347', 'https://semopenalex.org/work/W2883856658', 'https://semopenalex.org/work/W2096075530', 'https://semopenalex.org/work/W2144253537', 'https://semopenalex.org/work/W2098948701', 'https://semopenalex.org/work/W3179020455', 'https://semopenalex.org/work/W4255531846', 'https://semopenalex.org/work/W2625986270', 'https://semopenalex.org/work/W2890543403', 'https://semopenalex.org/work/W2945412056', 'https://semopenalex.org/work/W2029131637', 'https://semopenalex.org/work/W1573590416', 'https://semopenalex.org/work/W2103224970', 'https://semopenalex.org/work/W4205613083', 'https://semopenalex.org/work/W2080817506', 'https://semopenalex.org/work/W2136654140', 'https://semopenalex.org/work/W2132053703', 'https://semopenalex.org/work/W2092477317', 'https://semopenalex.org/work/W3085760006', 'https://semopenalex.org/work/W2895817859', 'https://semopenalex.org/work/W214032606', 'https://semopenalex.org/work/W4367360032', 'https://semopenalex.org/work/W2569889271', 'https://semopenalex.org/work/W2062243122', 'https://semopenalex.org/work/W2475545374', 'https://semopenalex.org/work/W2031625065', 'https://semopenalex.org/work/W4230332361', 'https://semopenalex.org/work/W2559559327', 'https://semopenalex.org/work/W2334327213', 'https://semopenalex.org/work/W1870822388', 'https://semopenalex.org/work/W2188362632', 'https://semopenalex.org/work/W4394742902', 'https://semopenalex.org/work/W2202036745', 'https://semopenalex.org/work/W2133522196', 'https://semopenalex.org/work/W2140805995', 'https://semopenalex.org/work/W2170913025', 'https://semopenalex.org/work/W2014241426', 'https://semopenalex.org/work/W2515896452', 'https://semopenalex.org/work/W2293958210', 'https://semopenalex.org/work/W1497099843', 'https://semopenalex.org/work/W2077737077', 'https://semopenalex.org/work/W2495352272', 'https://semopenalex.org/work/W2786657846', 'https://semopenalex.org/work/W2413288731', 'https://semopenalex.org/work/W1910867531', 'https://semopenalex.org/work/W2188799909', 'https://semopenalex.org/work/W2044431283', 'https://semopenalex.org/work/W3092453362', 'https://semopenalex.org/work/W2106421914', 'https://semopenalex.org/work/W4387450689', 'https://semopenalex.org/work/W4401808601', 'https://semopenalex.org/work/W4289655844', 'https://semopenalex.org/work/W3095131015', 'https://semopenalex.org/work/W1978851795', 'https://semopenalex.org/work/W146617261', 'https://semopenalex.org/work/W1501172792', 'https://semopenalex.org/work/W1973148750', 'https://semopenalex.org/work/W2125143433', 'https://semopenalex.org/work/W2184299809', 'https://semopenalex.org/work/W2162338867', 'https://semopenalex.org/work/W402024038', 'https://semopenalex.org/work/W2482354811', 'https://semopenalex.org/work/W2600068329', 'https://semopenalex.org/work/W2755359845', 'https://semopenalex.org/work/W2079664409', 'https://semopenalex.org/work/W2992245431', 'https://semopenalex.org/work/W2749110496', 'https://semopenalex.org/work/W2291113318', 'https://semopenalex.org/work/W2108876125', 'https://semopenalex.org/work/W2033725854', 'https://semopenalex.org/work/W2072553352', 'https://semopenalex.org/work/W2751662694', 'https://semopenalex.org/work/W2101787599', 'https://semopenalex.org/work/W4365802790', 'https://semopenalex.org/work/W2163138922', 'https://semopenalex.org/work/W2094708864', 'https://semopenalex.org/work/W2150650760', 'https://semopenalex.org/work/W2557110996', 'https://semopenalex.org/work/W4253131601', 'https://semopenalex.org/work/W4240245530', 'https://semopenalex.org/work/W2072209700', 'https://semopenalex.org/work/W2068524892', 'https://semopenalex.org/work/W979651393', 'https://semopenalex.org/work/W4400238477', 'https://semopenalex.org/work/W1587236616', 'https://semopenalex.org/work/W2275014257', 'https://semopenalex.org/work/W2075578427', 'https://semopenalex.org/work/W2610600517', 'https://semopenalex.org/work/W1544524730', 'https://semopenalex.org/work/W4387005904', 'https://semopenalex.org/work/W2124870235', 'https://semopenalex.org/work/W2056096508', 'https://semopenalex.org/work/W4205619442', 'https://semopenalex.org/work/W1990019789', 'https://semopenalex.org/work/W3096330417', 'https://semopenalex.org/work/W3130320973', 'https://semopenalex.org/work/W1874259713', 'https://semopenalex.org/work/W2074193071', 'https://semopenalex.org/work/W2157519619', 'https://semopenalex.org/work/W33403252', 'https://semopenalex.org/work/W2124703480', 'https://semopenalex.org/work/W2108162045', 'https://semopenalex.org/work/W2130007135', 'https://semopenalex.org/work/W2024012113', 'https://semopenalex.org/work/W2058293659', 'https://semopenalex.org/work/W2124560301', 'https://semopenalex.org/work/W2062957328', 'https://semopenalex.org/work/W2116314971', 'https://semopenalex.org/work/W2945300184', 'https://semopenalex.org/work/W2941373095', 'https://semopenalex.org/work/W2170741870', 'https://semopenalex.org/work/W2906163189', 'https://semopenalex.org/work/W2968852933', 'https://semopenalex.org/work/W1908879184', 'https://semopenalex.org/work/W2496554705', 'https://semopenalex.org/work/W1995308547', 'https://semopenalex.org/work/W2768649200', 'https://semopenalex.org/work/W2111277352', 'https://semopenalex.org/work/W1508821613', 'https://semopenalex.org/work/W1999508547', 'https://semopenalex.org/work/W1967157693', 'https://semopenalex.org/work/W4247476769', 'https://semopenalex.org/work/W2092005371', 'https://semopenalex.org/work/W2032099346', 'https://semopenalex.org/work/W2161850606', 'https://semopenalex.org/work/W1860740456', 'https://semopenalex.org/work/W4253855517', 'https://semopenalex.org/work/W3016161880', 'https://semopenalex.org/work/W2024336304', 'https://semopenalex.org/work/W3013997466', 'https://semopenalex.org/work/W2095968352', 'https://semopenalex.org/work/W2401687993', 'https://semopenalex.org/work/W2156138095', 'https://semopenalex.org/work/W2125308824', 'https://semopenalex.org/work/W2903194584', 'https://semopenalex.org/work/W2756387886', 'https://semopenalex.org/work/W3157283285', 'https://semopenalex.org/work/W2150998397', 'https://semopenalex.org/work/W2055278155', 'https://semopenalex.org/work/W12268595', 'https://semopenalex.org/work/W2666172191', 'https://semopenalex.org/work/W3200674364', 'https://semopenalex.org/work/W1999134690', 'https://semopenalex.org/work/W2397834607', 'https://semopenalex.org/work/W2538630038', 'https://semopenalex.org/work/W2148646851', 'https://semopenalex.org/work/W2043269074', 'https://semopenalex.org/work/W2145747218', 'https://semopenalex.org/work/W2015849174', 'https://semopenalex.org/work/W2091944075', 'https://semopenalex.org/work/W1608276691', 'https://semopenalex.org/work/W1967677932', 'https://semopenalex.org/work/W3157167113', 'https://semopenalex.org/work/W2982452767', 'https://semopenalex.org/work/W2110574373', 'https://semopenalex.org/work/W2789144447', 'https://semopenalex.org/work/W4240672112', 'https://semopenalex.org/work/W328613600', 'https://semopenalex.org/work/W3175708501', 'https://semopenalex.org/work/W2111424373', 'https://semopenalex.org/work/W4253265224', 'https://semopenalex.org/work/W41465441', 'https://semopenalex.org/work/W2615205062', 'https://semopenalex.org/work/W3021203574', 'https://semopenalex.org/work/W2060283246', 'https://semopenalex.org/work/W2903213374', 'https://semopenalex.org/work/W2134444560', 'https://semopenalex.org/work/W2968293641', 'https://semopenalex.org/work/W1992253076', 'https://semopenalex.org/work/W2041108261', 'https://semopenalex.org/work/W2923039095', 'https://semopenalex.org/work/W2246286794', 'https://semopenalex.org/work/W2288534976', 'https://semopenalex.org/work/W2293459815', 'https://semopenalex.org/work/W1494162500', 'https://semopenalex.org/work/W2160391119', 'https://semopenalex.org/work/W4389321773', 'https://semopenalex.org/work/W126878419', 'https://semopenalex.org/work/W4400946621', 'https://semopenalex.org/work/W2478910470', 'https://semopenalex.org/work/W3206850855', 'https://semopenalex.org/work/W4210708907', 'https://semopenalex.org/work/W2128563460', 'https://semopenalex.org/work/W2147456231', 'https://semopenalex.org/work/W1969516436', 'https://semopenalex.org/work/W2023972619', 'https://semopenalex.org/work/W2161454411', 'https://semopenalex.org/work/W2146033518', 'https://semopenalex.org/work/W2159662334', 'https://semopenalex.org/work/W2109705305', 'https://semopenalex.org/work/W1448329507', 'https://semopenalex.org/work/W2967954143', 'https://semopenalex.org/work/W2789263069', 'https://semopenalex.org/work/W2794572176', 'https://semopenalex.org/work/W2166826477', 'https://semopenalex.org/work/W2165377954', 'https://semopenalex.org/work/W4237745095', 'https://semopenalex.org/work/W4393146711', 'https://semopenalex.org/work/W1982314073', 'https://semopenalex.org/work/W49790452', 'https://semopenalex.org/work/W2025546942', 'https://semopenalex.org/work/W2785105341', 'https://semopenalex.org/work/W4404030068', 'https://semopenalex.org/work/W1979289740', 'https://semopenalex.org/work/W2803258972', 'https://semopenalex.org/work/W2293958373', 'https://semopenalex.org/work/W25440647', 'https://semopenalex.org/work/W2412127048', 'https://semopenalex.org/work/W2910014621', 'https://semopenalex.org/work/W2077174735', 'https://semopenalex.org/work/W2011410844', 'https://semopenalex.org/work/W1993325111', 'https://semopenalex.org/work/W3017143302', 'https://semopenalex.org/work/W2961776981', 'https://semopenalex.org/work/W3211844447', 'https://semopenalex.org/work/W2127414738', 'https://semopenalex.org/work/W2490092534', 'https://semopenalex.org/work/W2494421230', 'https://semopenalex.org/work/W4400946519', 'https://semopenalex.org/work/W2036165062', 'https://semopenalex.org/work/W4366964206', 'https://semopenalex.org/work/W2769445687', 'https://semopenalex.org/work/W1489534528', 'https://semopenalex.org/work/W3211349420', 'https://semopenalex.org/work/W3042004637', 'https://semopenalex.org/work/W2139454561', 'https://semopenalex.org/work/W2204033782', 'https://semopenalex.org/work/W4249963731', 'https://semopenalex.org/work/W4401578804', 'https://semopenalex.org/work/W2754948093', 'https://semopenalex.org/work/W2081189334', 'https://semopenalex.org/work/W2532152395', 'https://semopenalex.org/work/W2902487276', 'https://semopenalex.org/work/W2800308132', 'https://semopenalex.org/work/W1520936229', 'https://semopenalex.org/work/W1574380960', 'https://semopenalex.org/work/W1985701940', 'https://semopenalex.org/work/W4252093019', 'https://semopenalex.org/work/W2480965638', 'https://semopenalex.org/work/W1608886591', 'https://semopenalex.org/work/W2024468903', 'https://semopenalex.org/work/W2966031361', 'https://semopenalex.org/work/W2929921254', 'https://semopenalex.org/work/W2903545243', 'https://semopenalex.org/work/W2405266982', 'https://semopenalex.org/work/W2058904901', 'https://semopenalex.org/work/W2072776346', 'https://semopenalex.org/work/W1538415416', 'https://semopenalex.org/work/W2289584941', 'https://semopenalex.org/work/W2240362173', 'https://semopenalex.org/work/W2052982204', 'https://semopenalex.org/work/W2144750318', 'https://semopenalex.org/work/W2510781223', 'https://semopenalex.org/work/W2034050419', 'https://semopenalex.org/work/W2401381263', 'https://semopenalex.org/work/W2012912450', 'https://semopenalex.org/work/W2108240852', 'https://semopenalex.org/work/W2606501011', 'https://semopenalex.org/work/W1492737188', 'https://semopenalex.org/work/W2135598717', 'https://semopenalex.org/work/W158943908', 'https://semopenalex.org/work/W4206683427', 'https://semopenalex.org/work/W2171510346', 'https://semopenalex.org/work/W1584206897', 'https://semopenalex.org/work/W2107191431', 'https://semopenalex.org/work/W2035518282', 'https://semopenalex.org/work/W2004738891', 'https://semopenalex.org/work/W2289149676', 'https://semopenalex.org/work/W2142484380']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W1938912534', 'https://semopenalex.org/work/W3101678388', 'https://semopenalex.org/work/W2798444339', 'https://semopenalex.org/work/W10552456', 'https://semopenalex.org/work/W1481252923', 'https://semopenalex.org/work/W2167318748', 'https://semopenalex.org/work/W2344677227', 'https://semopenalex.org/work/W4405179263', 'https://semopenalex.org/work/W2502765568', 'https://semopenalex.org/work/W2071898607', 'https://semopenalex.org/work/W3204280976', 'https://semopenalex.org/work/W4387190940', 'https://semopenalex.org/work/W2088840086', 'https://semopenalex.org/work/W3200977970', 'https://semopenalex.org/work/W2250659747', 'https://semopenalex.org/work/W1581844963', 'https://semopenalex.org/work/W4386474911', 'https://semopenalex.org/work/W4312038601', 'https://semopenalex.org/work/W2896561783', 'https://semopenalex.org/work/W3097074140', 'https://semopenalex.org/work/W4402599958', 'https://semopenalex.org/work/W2794632798', 'https://semopenalex.org/work/W2068346480', 'https://semopenalex.org/work/W1600095712', 'https://semopenalex.org/work/W2990998351', 'https://semopenalex.org/work/W4391661476', 'https://semopenalex.org/work/W2557853356', 'https://semopenalex.org/work/W4362502008', 'https://semopenalex.org/work/W3110928664', 'https://semopenalex.org/work/W2915831115', 'https://semopenalex.org/work/W4388320652', 'https://semopenalex.org/work/W2017629483', 'https://semopenalex.org/work/W4243814040', 'https://semopenalex.org/work/W2612035199', 'https://semopenalex.org/work/W2052312648', 'https://semopenalex.org/work/W4384756284', 'https://semopenalex.org/work/W4362655741', 'https://semopenalex.org/work/W1496034358', 'https://semopenalex.org/work/W2427008665', 'https://semopenalex.org/work/W2150013559', 'https://semopenalex.org/work/W2053495332', 'https://semopenalex.org/work/W2905317998', 'https://semopenalex.org/work/W3003707605', 'https://semopenalex.org/work/W2554367017', 'https://semopenalex.org/work/W2040345481', 'https://semopenalex.org/work/W1493881734', 'https://semopenalex.org/work/W4389575826', 'https://semopenalex.org/work/W1753378771', 'https://semopenalex.org/work/W1565188338', 'https://semopenalex.org/work/W2051680663', 'https://semopenalex.org/work/W2909965602', 'https://semopenalex.org/work/W2003420345', 'https://semopenalex.org/work/W2097959755', 'https://semopenalex.org/work/W2808806636', 'https://semopenalex.org/work/W2059788348', 'https://semopenalex.org/work/W4379964950', 'https://semopenalex.org/work/W2468217693', 'https://semopenalex.org/work/W2086824798', 'https://semopenalex.org/work/W4226101170', 'https://semopenalex.org/work/W4406500025', 'https://semopenalex.org/work/W4389509728', 'https://semopenalex.org/work/W2422465781', 'https://semopenalex.org/work/W4401463259', 'https://semopenalex.org/work/W1702322733', 'https://semopenalex.org/work/W3140378604', 'https://semopenalex.org/work/W1508670223', 'https://semopenalex.org/work/W3116763688', 'https://semopenalex.org/work/W2594649443', 'https://semopenalex.org/work/W2084265221', 'https://semopenalex.org/work/W2804252553', 'https://semopenalex.org/work/W2063775187', 'https://semopenalex.org/work/W4287902628', 'https://semopenalex.org/work/W2898238060', 'https://semopenalex.org/work/W2167984494', 'https://semopenalex.org/work/W2916230113', 'https://semopenalex.org/work/W2479269651', 'https://semopenalex.org/work/W2087831714', 'https://semopenalex.org/work/W2613136061', 'https://semopenalex.org/work/W3066802614', 'https://semopenalex.org/work/W2511600948', 'https://semopenalex.org/work/W2032640310', 'https://semopenalex.org/work/W2901563117', 'https://semopenalex.org/work/W4389226119', 'https://semopenalex.org/work/W4252278539', 'https://semopenalex.org/work/W3045638492', 'https://semopenalex.org/work/W2809590475', 'https://semopenalex.org/work/W2899754551', 'https://semopenalex.org/work/W125254009', 'https://semopenalex.org/work/W4317640658', 'https://semopenalex.org/work/W4388040916', 'https://semopenalex.org/work/W2775115790', 'https://semopenalex.org/work/W2344504222', 'https://semopenalex.org/work/W4312911917', 'https://semopenalex.org/work/W4381855531', 'https://semopenalex.org/work/W104210143', 'https://semopenalex.org/work/W4230101435', 'https://semopenalex.org/work/W4401719068', 'https://semopenalex.org/work/W1720341833', 'https://semopenalex.org/work/W2912179439', 'https://semopenalex.org/work/W2092411821', 'https://semopenalex.org/work/W433641300', 'https://semopenalex.org/work/W4391248380', 'https://semopenalex.org/work/W1507165467', 'https://semopenalex.org/work/W4200400669', 'https://semopenalex.org/work/W2107915643', 'https://semopenalex.org/work/W3097918021', 'https://semopenalex.org/work/W1479774717', 'https://semopenalex.org/work/W4393969247', 'https://semopenalex.org/work/W2898587907', 'https://semopenalex.org/work/W3216694898', 'https://semopenalex.org/work/W3038546681', 'https://semopenalex.org/work/W2755922538', 'https://semopenalex.org/work/W2897073097', 'https://semopenalex.org/work/W4401110041', 'https://semopenalex.org/work/W139217162', 'https://semopenalex.org/work/W2506885748', 'https://semopenalex.org/work/W1988741859', 'https://semopenalex.org/work/W4317619163', 'https://semopenalex.org/work/W2025843016', 'https://semopenalex.org/work/W2198834745', 'https://semopenalex.org/work/W1974608646', 'https://semopenalex.org/work/W1566552779', 'https://semopenalex.org/work/W4323923480', 'https://semopenalex.org/work/W1507246359', 'https://semopenalex.org/work/W2005330588', 'https://semopenalex.org/work/W3190788066', 'https://semopenalex.org/work/W2735638814', 'https://semopenalex.org/work/W3122406465', 'https://semopenalex.org/work/W2422976594', 'https://semopenalex.org/work/W3035750004', 'https://semopenalex.org/work/W4399881333', 'https://semopenalex.org/work/W2986139096', 'https://semopenalex.org/work/W4294500063', 'https://semopenalex.org/work/W4289866493', 'https://semopenalex.org/work/W2030563576', 'https://semopenalex.org/work/W1827647151', 'https://semopenalex.org/work/W2125430046', 'https://semopenalex.org/work/W1984186194', 'https://semopenalex.org/work/W4404788249', 'https://semopenalex.org/work/W2284502685', 'https://semopenalex.org/work/W4391973940', 'https://semopenalex.org/work/W3138702399', 'https://semopenalex.org/work/W2515387399', 'https://semopenalex.org/work/W2296703446', 'https://semopenalex.org/work/W4402091088', 'https://semopenalex.org/work/W2775805395', 'https://semopenalex.org/work/W2770240327', 'https://semopenalex.org/work/W3030557354', 'https://semopenalex.org/work/W2467591515', 'https://semopenalex.org/work/W1498712689', 'https://semopenalex.org/work/W3023950320', 'https://semopenalex.org/work/W2733791027', 'https://semopenalex.org/work/W1608885791', 'https://semopenalex.org/work/W2795633027', 'https://semopenalex.org/work/W2610117056', 'https://semopenalex.org/work/W3004495293', 'https://semopenalex.org/work/W3124693625', 'https://semopenalex.org/work/W2032265428', 'https://semopenalex.org/work/W2700566289', 'https://semopenalex.org/work/W4246273094', 'https://semopenalex.org/work/W4376269693', 'https://semopenalex.org/work/W4312953992', 'https://semopenalex.org/work/W2017988065', 'https://semopenalex.org/work/W2920780560', 'https://semopenalex.org/work/W1980418511', 'https://semopenalex.org/work/W4406794085', 'https://semopenalex.org/work/W4220938834', 'https://semopenalex.org/work/W4380136543', 'https://semopenalex.org/work/W2951057438', 'https://semopenalex.org/work/W4394576023', 'https://semopenalex.org/work/W2990317423', 'https://semopenalex.org/work/W4400611446', 'https://semopenalex.org/work/W3026213155', 'https://semopenalex.org/work/W2404446956', 'https://semopenalex.org/work/W1688396929', 'https://semopenalex.org/work/W2150949003', 'https://semopenalex.org/work/W3208070608', 'https://semopenalex.org/work/W2084970449', 'https://semopenalex.org/work/W2141276288', 'https://semopenalex.org/work/W4292848294', 'https://semopenalex.org/work/W2791022910', 'https://semopenalex.org/work/W3024403368', 'https://semopenalex.org/work/W4406261609', 'https://semopenalex.org/work/W2426048753', 'https://semopenalex.org/work/W4289364680', 'https://semopenalex.org/work/W4297725807', 'https://semopenalex.org/work/W3176983082', 'https://semopenalex.org/work/W2920007056', 'https://semopenalex.org/work/W2984000149', 'https://semopenalex.org/work/W4401689701', 'https://semopenalex.org/work/W2076165157', 'https://semopenalex.org/work/W4223526958', 'https://semopenalex.org/work/W4226040560', 'https://semopenalex.org/work/W3111943635', 'https://semopenalex.org/work/W2185480307', 'https://semopenalex.org/work/W3157617328', 'https://semopenalex.org/work/W2149498440', 'https://semopenalex.org/work/W2251316727', 'https://semopenalex.org/work/W1608148813', 'https://semopenalex.org/work/W1664839614', 'https://semopenalex.org/work/W2735964774', 'https://semopenalex.org/work/W1985846348', 'https://semopenalex.org/work/W3098889210', 'https://semopenalex.org/work/W2329646465', 'https://semopenalex.org/work/W2808066670', 'https://semopenalex.org/work/W1507429943', 'https://semopenalex.org/work/W2092295977', 'https://semopenalex.org/work/W4406679155', 'https://semopenalex.org/work/W4388742679', 'https://semopenalex.org/work/W4232691833', 'https://semopenalex.org/work/W79646937', 'https://semopenalex.org/work/W2013042849', 'https://semopenalex.org/work/W2027402731', 'https://semopenalex.org/work/W2422116896', 'https://semopenalex.org/work/W2970882829', 'https://semopenalex.org/work/W1495063990', 'https://semopenalex.org/work/W4402538155', 'https://semopenalex.org/work/W4400812269', 'https://semopenalex.org/work/W2110495371', 'https://semopenalex.org/work/W2152979493', 'https://semopenalex.org/work/W4294707045', 'https://semopenalex.org/work/W2505162744', 'https://semopenalex.org/work/W3175986586', 'https://semopenalex.org/work/W2465409613', 'https://semopenalex.org/work/W4213388674', 'https://semopenalex.org/work/W4388972775', 'https://semopenalex.org/work/W2998494411', 'https://semopenalex.org/work/W2795298263', 'https://semopenalex.org/work/W4283365825', 'https://semopenalex.org/work/W2136344560', 'https://semopenalex.org/work/W2499168780', 'https://semopenalex.org/work/W4231180551', 'https://semopenalex.org/work/W2140346433', 'https://semopenalex.org/work/W4367682485', 'https://semopenalex.org/work/W2484289073', 'https://semopenalex.org/work/W2337491900', 'https://semopenalex.org/work/W4391673335', 'https://semopenalex.org/work/W4390137041', 'https://semopenalex.org/work/W2147228279', 'https://semopenalex.org/work/W2293638396', 'https://semopenalex.org/work/W2735732687', 'https://semopenalex.org/work/W2616473319', 'https://semopenalex.org/work/W1601136399', 'https://semopenalex.org/work/W4381549091', 'https://semopenalex.org/work/W4385285133', 'https://semopenalex.org/work/W3136943238', 'https://semopenalex.org/work/W2981705990', 'https://semopenalex.org/work/W2400388471', 'https://semopenalex.org/work/W4404464211', 'https://semopenalex.org/work/W192156609', 'https://semopenalex.org/work/W2016580264', 'https://semopenalex.org/work/W2330628472', 'https://semopenalex.org/work/W4319053914', 'https://semopenalex.org/work/W2584286364', 'https://semopenalex.org/work/W2615044227', 'https://semopenalex.org/work/W175358687', 'https://semopenalex.org/work/W4405522042', 'https://semopenalex.org/work/W4221002597', 'https://semopenalex.org/work/W2805393243', 'https://semopenalex.org/work/W2131164945', 'https://semopenalex.org/work/W2903414282', 'https://semopenalex.org/work/W4401719105', 'https://semopenalex.org/work/W4377099260', 'https://semopenalex.org/work/W1504659965', 'https://semopenalex.org/work/W4302306230', 'https://semopenalex.org/work/W4220657425', 'https://semopenalex.org/work/W2908443740', 'https://semopenalex.org/work/W4302859022', 'https://semopenalex.org/work/W4309647912', 'https://semopenalex.org/work/W2954580762', 'https://semopenalex.org/work/W4232799872', 'https://semopenalex.org/work/W1487391256', 'https://semopenalex.org/work/W1527508100', 'https://semopenalex.org/work/W2922408557', 'https://semopenalex.org/work/W3013272684', 'https://semopenalex.org/work/W4283718670', 'https://semopenalex.org/work/W4213121575', 'https://semopenalex.org/work/W4312262758', 'https://semopenalex.org/work/W2114238248', 'https://semopenalex.org/work/W4283643625', 'https://semopenalex.org/work/W2900798442', 'https://semopenalex.org/work/W2075258117', 'https://semopenalex.org/work/W4301486307', 'https://semopenalex.org/work/W3090908182', 'https://semopenalex.org/work/W3130665718', 'https://semopenalex.org/work/W4394048733', 'https://semopenalex.org/work/W2499947387', 'https://semopenalex.org/work/W2321758884', 'https://semopenalex.org/work/W4365205158', 'https://semopenalex.org/work/W2965941321', 'https://semopenalex.org/work/W2809627415', 'https://semopenalex.org/work/W3210789515', 'https://semopenalex.org/work/W3107101618', 'https://semopenalex.org/work/W3033848960', 'https://semopenalex.org/work/W2083708758', 'https://semopenalex.org/work/W4317438183', 'https://semopenalex.org/work/W4404788038', 'https://semopenalex.org/work/W3163303484', 'https://semopenalex.org/work/W2923319240', 'https://semopenalex.org/work/W2417471897', 'https://semopenalex.org/work/W1605123443', 'https://semopenalex.org/work/W3153444696', 'https://semopenalex.org/work/W2901915930', 'https://semopenalex.org/work/W2169290493', 'https://semopenalex.org/work/W4399118880', 'https://semopenalex.org/work/W32663231', 'https://semopenalex.org/work/W2550260459', 'https://semopenalex.org/work/W1990240966', 'https://semopenalex.org/work/W2008632807', 'https://semopenalex.org/work/W4401023469', 'https://semopenalex.org/work/W2942454712', 'https://semopenalex.org/work/W2795358293', 'https://semopenalex.org/work/W4400881052', 'https://semopenalex.org/work/W2901185014', 'https://semopenalex.org/work/W2172069600', 'https://semopenalex.org/work/W3211356533', 'https://semopenalex.org/work/W2163121311', 'https://semopenalex.org/work/W2066037774', 'https://semopenalex.org/work/W2587382914', 'https://semopenalex.org/work/W4244365690', 'https://semopenalex.org/work/W2009396504', 'https://semopenalex.org/work/W2796403873', 'https://semopenalex.org/work/W3010046448', 'https://semopenalex.org/work/W2902564735', 'https://semopenalex.org/work/W2050276970', 'https://semopenalex.org/work/W2500329317', 'https://semopenalex.org/work/W4389575859', 'https://semopenalex.org/work/W2048339977', 'https://semopenalex.org/work/W4390570315', 'https://semopenalex.org/work/W4281629096', 'https://semopenalex.org/work/W1660366533', 'https://semopenalex.org/work/W2608436687', 'https://semopenalex.org/work/W3134356917', 'https://semopenalex.org/work/W2998183977', 'https://semopenalex.org/work/W3140552826', 'https://semopenalex.org/work/W2991585802', 'https://semopenalex.org/work/W4385852291', 'https://semopenalex.org/work/W1793399427', 'https://semopenalex.org/work/W4287758300', 'https://semopenalex.org/work/W4402352406', 'https://semopenalex.org/work/W1934576426', 'https://semopenalex.org/work/W2124874701', 'https://semopenalex.org/work/W2138607828', 'https://semopenalex.org/work/W3149145084', 'https://semopenalex.org/work/W2165611534', 'https://semopenalex.org/work/W2065926303', 'https://semopenalex.org/work/W4229056530', 'https://semopenalex.org/work/W1581509591', 'https://semopenalex.org/work/W2953273686', 'https://semopenalex.org/work/W4402594156', 'https://semopenalex.org/work/W2900534295', 'https://semopenalex.org/work/W4399554294', 'https://semopenalex.org/work/W3112151564', 'https://semopenalex.org/work/W2146501308', 'https://semopenalex.org/work/W2778221989', 'https://semopenalex.org/work/W4250640589', 'https://semopenalex.org/work/W4309613628', 'https://semopenalex.org/work/W3066383670', 'https://semopenalex.org/work/W1992237536', 'https://semopenalex.org/work/W2489798131', 'https://semopenalex.org/work/W4309647894', 'https://semopenalex.org/work/W4316672181', 'https://semopenalex.org/work/W2119701885', 'https://semopenalex.org/work/W4402157005', 'https://semopenalex.org/work/W1971405342', 'https://semopenalex.org/work/W1983176793', 'https://semopenalex.org/work/W629466361', 'https://semopenalex.org/work/W4394867508', 'https://semopenalex.org/work/W2131027594', 'https://semopenalex.org/work/W2309229337', 'https://semopenalex.org/work/W2003561941', 'https://semopenalex.org/work/W3161264338', 'https://semopenalex.org/work/W2901968423', 'https://semopenalex.org/work/W1974446585', 'https://semopenalex.org/work/W4405828728', 'https://semopenalex.org/work/W2808185912', 'https://semopenalex.org/work/W3206119617', 'https://semopenalex.org/work/W1484038335', 'https://semopenalex.org/work/W4294578223', 'https://semopenalex.org/work/W4395064999', 'https://semopenalex.org/work/W3077087723', 'https://semopenalex.org/work/W2991082611', 'https://semopenalex.org/work/W4206564475', 'https://semopenalex.org/work/W2735379054', 'https://semopenalex.org/work/W4286794087', 'https://semopenalex.org/work/W2155277804', 'https://semopenalex.org/work/W2006918362', 'https://semopenalex.org/work/W1588641552', 'https://semopenalex.org/work/W1500858206', 'https://semopenalex.org/work/W1609271133', 'https://semopenalex.org/work/W610311842', 'https://semopenalex.org/work/W2915383148', 'https://semopenalex.org/work/W4404252082', 'https://semopenalex.org/work/W51883144', 'https://semopenalex.org/work/W4404037007', 'https://semopenalex.org/work/W2439110316', 'https://semopenalex.org/work/W4309325586', 'https://semopenalex.org/work/W2089975859', 'https://semopenalex.org/work/W2166042493', 'https://semopenalex.org/work/W2491619570', 'https://semopenalex.org/work/W3112593626', 'https://semopenalex.org/work/W2920517911', 'https://semopenalex.org/work/W4387293718', 'https://semopenalex.org/work/W4377234328', 'https://semopenalex.org/work/W4386486628', 'https://semopenalex.org/work/W1563606705', 'https://semopenalex.org/work/W4320909166', 'https://semopenalex.org/work/W4406118666', 'https://semopenalex.org/work/W4252774423', 'https://semopenalex.org/work/W4247657810', 'https://semopenalex.org/work/W2464669661', 'https://semopenalex.org/work/W3041363918', 'https://semopenalex.org/work/W2152170845', 'https://semopenalex.org/work/W4393748815', 'https://semopenalex.org/work/W4402710970', 'https://semopenalex.org/work/W4378768161', 'https://semopenalex.org/work/W4317042649', 'https://semopenalex.org/work/W4316116419', 'https://semopenalex.org/work/W2036885872', 'https://semopenalex.org/work/W2889404430', 'https://semopenalex.org/work/W2007985134', 'https://semopenalex.org/work/W2900517348', 'https://semopenalex.org/work/W2548544249', 'https://semopenalex.org/work/W4389880140', 'https://semopenalex.org/work/W171268263', 'https://semopenalex.org/work/W4309647909', 'https://semopenalex.org/work/W2013870117', 'https://semopenalex.org/work/W3008028280', 'https://semopenalex.org/work/W4221168020', 'https://semopenalex.org/work/W4255591746', 'https://semopenalex.org/work/W4233690695', 'https://semopenalex.org/work/W2515263588', 'https://semopenalex.org/work/W4226214859', 'https://semopenalex.org/work/W4402595291', 'https://semopenalex.org/work/W4389543458', 'https://semopenalex.org/work/W4402713726', 'https://semopenalex.org/work/W2792554287', 'https://semopenalex.org/work/W23340818', 'https://semopenalex.org/work/W4235399974', 'https://semopenalex.org/work/W4406729944', 'https://semopenalex.org/work/W1986302656', 'https://semopenalex.org/work/W2134387352', 'https://semopenalex.org/work/W2806499268', 'https://semopenalex.org/work/W4404411574', 'https://semopenalex.org/work/W2949762754', 'https://semopenalex.org/work/W112461364', 'https://semopenalex.org/work/W2804137108', 'https://semopenalex.org/work/W2612374761', 'https://semopenalex.org/work/W4376061047', 'https://semopenalex.org/work/W4396594158', 'https://semopenalex.org/work/W2359704875', 'https://semopenalex.org/work/W1497322082', 'https://semopenalex.org/work/W1524789227', 'https://semopenalex.org/work/W2296355030', 'https://semopenalex.org/work/W4405305567', 'https://semopenalex.org/work/W2060252439', 'https://semopenalex.org/work/W2551266388', 'https://semopenalex.org/work/W3167737483', 'https://semopenalex.org/work/W4400268996', 'https://semopenalex.org/work/W2805105531', 'https://semopenalex.org/work/W2085892029', 'https://semopenalex.org/work/W3162622638', 'https://semopenalex.org/work/W2165303722', 'https://semopenalex.org/work/W4390456266', 'https://semopenalex.org/work/W2130677504', 'https://semopenalex.org/work/W4404758113', 'https://semopenalex.org/work/W2143252268', 'https://semopenalex.org/work/W4403792402', 'https://semopenalex.org/work/W2950787737', 'https://semopenalex.org/work/W2991281508', 'https://semopenalex.org/work/W2756536429', 'https://semopenalex.org/work/W3082096159', 'https://semopenalex.org/work/W4313267141', 'https://semopenalex.org/work/W2098055383', 'https://semopenalex.org/work/W3121529680', 'https://semopenalex.org/work/W2953012688', 'https://semopenalex.org/work/W3173479430', 'https://semopenalex.org/work/W2730099201', 'https://semopenalex.org/work/W3126556715', 'https://semopenalex.org/work/W3179758589', 'https://semopenalex.org/work/W2077564315', 'https://semopenalex.org/work/W4312710991', 'https://semopenalex.org/work/W2746969608', 'https://semopenalex.org/work/W2908865778', 'https://semopenalex.org/work/W4233194301', 'https://semopenalex.org/work/W2584636165', 'https://semopenalex.org/work/W2924425593', 'https://semopenalex.org/work/W2494607466', 'https://semopenalex.org/work/W4226150381', 'https://semopenalex.org/work/W2052330128', 'https://semopenalex.org/work/W2738171721', 'https://semopenalex.org/work/W2063106869', 'https://semopenalex.org/work/W3176873809', 'https://semopenalex.org/work/W1980320703', 'https://semopenalex.org/work/W4237415699', 'https://semopenalex.org/work/W4288549248', 'https://semopenalex.org/work/W2623350311', 'https://semopenalex.org/work/W3203105904', 'https://semopenalex.org/work/W3139199248', 'https://semopenalex.org/work/W2041919000', 'https://semopenalex.org/work/W2594546957', 'https://semopenalex.org/work/W2045329305', 'https://semopenalex.org/work/W1510296842', 'https://semopenalex.org/work/W3106296980', 'https://semopenalex.org/work/W2919684758', 'https://semopenalex.org/work/W2054374338', 'https://semopenalex.org/work/W2557660464', 'https://semopenalex.org/work/W2990448760', 'https://semopenalex.org/work/W1517726756', 'https://semopenalex.org/work/W4400909999', 'https://semopenalex.org/work/W4287231113', 'https://semopenalex.org/work/W4312471121', 'https://semopenalex.org/work/W4386486604', 'https://semopenalex.org/work/W2118486116', 'https://semopenalex.org/work/W1554846139', 'https://semopenalex.org/work/W2052763829', 'https://semopenalex.org/work/W3001462578', 'https://semopenalex.org/work/W2918375401', 'https://semopenalex.org/work/W3200087552', 'https://semopenalex.org/work/W4392110461', 'https://semopenalex.org/work/W2748668979', 'https://semopenalex.org/work/W2156065383', 'https://semopenalex.org/work/W2000718212', 'https://semopenalex.org/work/W2138167749', 'https://semopenalex.org/work/W1492139710', 'https://semopenalex.org/work/W4380885381', 'https://semopenalex.org/work/W2065468011', 'https://semopenalex.org/work/W4386346214', 'https://semopenalex.org/work/W3015227276', 'https://semopenalex.org/work/W4385270466', 'https://semopenalex.org/work/W4291287572', 'https://semopenalex.org/work/W102169640', 'https://semopenalex.org/work/W2033132959', 'https://semopenalex.org/work/W2478525669', 'https://semopenalex.org/work/W2022462411', 'https://semopenalex.org/work/W2170735098', 'https://semopenalex.org/work/W2133544364', 'https://semopenalex.org/work/W4404735027', 'https://semopenalex.org/work/W3162065424', 'https://semopenalex.org/work/W1968925642', 'https://semopenalex.org/work/W2906612108', 'https://semopenalex.org/work/W2949205410', 'https://semopenalex.org/work/W4404180354', 'https://semopenalex.org/work/W4404370664', 'https://semopenalex.org/work/W2476253347', 'https://semopenalex.org/work/W4285292709', 'https://semopenalex.org/work/W4319792183', 'https://semopenalex.org/work/W4393144966', 'https://semopenalex.org/work/W3103436608', 'https://semopenalex.org/work/W4391766346', 'https://semopenalex.org/work/W2062482216', 'https://semopenalex.org/work/W2089906307', 'https://semopenalex.org/work/W2033368298', 'https://semopenalex.org/work/W206771271', 'https://semopenalex.org/work/W2117052376', 'https://semopenalex.org/work/W4250963083', 'https://semopenalex.org/work/W3177070127', 'https://semopenalex.org/work/W2919204815', 'https://semopenalex.org/work/W1715440516', 'https://semopenalex.org/work/W3012031786', 'https://semopenalex.org/work/W2116893958', 'https://semopenalex.org/work/W4255845198', 'https://semopenalex.org/work/W2089762145', 'https://semopenalex.org/work/W4387427541', 'https://semopenalex.org/work/W3056873248', 'https://semopenalex.org/work/W2903238830', 'https://semopenalex.org/work/W4239052734', 'https://semopenalex.org/work/W2945594129', 'https://semopenalex.org/work/W3124266007', 'https://semopenalex.org/work/W1971179860', 'https://semopenalex.org/work/W75044610', 'https://semopenalex.org/work/W1474354901', 'https://semopenalex.org/work/W4385270603', 'https://semopenalex.org/work/W4388989593', 'https://semopenalex.org/work/W4211034214', 'https://semopenalex.org/work/W2982576723', 'https://semopenalex.org/work/W4362501917', 'https://semopenalex.org/work/W1981719736', 'https://semopenalex.org/work/W4293105619', 'https://semopenalex.org/work/W2344152126', 'https://semopenalex.org/work/W4283121050', 'https://semopenalex.org/work/W3052245613', 'https://semopenalex.org/work/W4393635391', 'https://semopenalex.org/work/W4317438846', 'https://semopenalex.org/work/W4404350797', 'https://semopenalex.org/work/W2102773241', 'https://semopenalex.org/work/W3088922018', 'https://semopenalex.org/work/W2073549416', 'https://semopenalex.org/work/W1995310630', 'https://semopenalex.org/work/W4306706460', 'https://semopenalex.org/work/W2151186309', 'https://semopenalex.org/work/W4394049163', 'https://semopenalex.org/work/W2424120713', 'https://semopenalex.org/work/W4399117352', 'https://semopenalex.org/work/W2025036412', 'https://semopenalex.org/work/W22394099', 'https://semopenalex.org/work/W4403706502', 'https://semopenalex.org/work/W4396628099', 'https://semopenalex.org/work/W2990965235', 'https://semopenalex.org/work/W2184516195', 'https://semopenalex.org/work/W3153580448', 'https://semopenalex.org/work/W2041991478', 'https://semopenalex.org/work/W2046727875', 'https://semopenalex.org/work/W1974715273', 'https://semopenalex.org/work/W2106327888', 'https://semopenalex.org/work/W3122345191', 'https://semopenalex.org/work/W2080485692', 'https://semopenalex.org/work/W2793061613', 'https://semopenalex.org/work/W1892888926', 'https://semopenalex.org/work/W1546420109', 'https://semopenalex.org/work/W3174896615', 'https://semopenalex.org/work/W2912891501', 'https://semopenalex.org/work/W2772476628', 'https://semopenalex.org/work/W3159055025', 'https://semopenalex.org/work/W2440860577', 'https://semopenalex.org/work/W2772495508', 'https://semopenalex.org/work/W2077926445', 'https://semopenalex.org/work/W2126868220', 'https://semopenalex.org/work/W4283708463', 'https://semopenalex.org/work/W2950506233', 'https://semopenalex.org/work/W3012851928', 'https://semopenalex.org/work/W2122476743', 'https://semopenalex.org/work/W2077846458', 'https://semopenalex.org/work/W3105123138', 'https://semopenalex.org/work/W4380433250', 'https://semopenalex.org/work/W2951240690', 'https://semopenalex.org/work/W4404180533', 'https://semopenalex.org/work/W4200386693', 'https://semopenalex.org/work/W1579468036', 'https://semopenalex.org/work/W3214995238', 'https://semopenalex.org/work/W2951520541', 'https://semopenalex.org/work/W4232242059', 'https://semopenalex.org/work/W2734465187', 'https://semopenalex.org/work/W2557438307', 'https://semopenalex.org/work/W1594237328', 'https://semopenalex.org/work/W4306706940', 'https://semopenalex.org/work/W4313007851', 'https://semopenalex.org/work/W4375927790', 'https://semopenalex.org/work/W2020493833', 'https://semopenalex.org/work/W3114057505', 'https://semopenalex.org/work/W2487722436', 'https://semopenalex.org/work/W1984473368', 'https://semopenalex.org/work/W4237499061', 'https://semopenalex.org/work/W2067642869', 'https://semopenalex.org/work/W4285140876', 'https://semopenalex.org/work/W4390784356', 'https://semopenalex.org/work/W2766641608', 'https://semopenalex.org/work/W2773234510', 'https://semopenalex.org/work/W3125272485', 'https://semopenalex.org/work/W4239701257', 'https://semopenalex.org/work/W2901246026', 'https://semopenalex.org/work/W2507120666', 'https://semopenalex.org/work/W4405448580', 'https://semopenalex.org/work/W2021445484', 'https://semopenalex.org/work/W4302806', 'https://semopenalex.org/work/W4391892492', 'https://semopenalex.org/work/W53369794', 'https://semopenalex.org/work/W2036965066']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W3170839080', 'https://semopenalex.org/work/W1510162576', 'https://semopenalex.org/work/W2294615479', 'https://semopenalex.org/work/W2150841563', 'https://semopenalex.org/work/W2963370896', 'https://semopenalex.org/work/W2159051003', 'https://semopenalex.org/work/W2081390115', 'https://semopenalex.org/work/W607271554', 'https://semopenalex.org/work/W2134429709', 'https://semopenalex.org/work/W2401453496', 'https://semopenalex.org/work/W2120688665', 'https://semopenalex.org/work/W1983886629', 'https://semopenalex.org/work/W2121560629', 'https://semopenalex.org/work/W2977681526', 'https://semopenalex.org/work/W111649852', 'https://semopenalex.org/work/W4403125884', 'https://semopenalex.org/work/W4393372746', 'https://semopenalex.org/work/W2053542705', 'https://semopenalex.org/work/W2740465906', 'https://semopenalex.org/work/W2804483632', 'https://semopenalex.org/work/W353286105', 'https://semopenalex.org/work/W4293095112', 'https://semopenalex.org/work/W1986283595', 'https://semopenalex.org/work/W1575472020', 'https://semopenalex.org/work/W4403125826', 'https://semopenalex.org/work/W2186051326', 'https://semopenalex.org/work/W2119790122', 'https://semopenalex.org/work/W2130759412', 'https://semopenalex.org/work/W2991594051', 'https://semopenalex.org/work/W4287123423', 'https://semopenalex.org/work/W2093285662', 'https://semopenalex.org/work/W140514722', 'https://semopenalex.org/work/W2100602544', 'https://semopenalex.org/work/W2120176582', 'https://semopenalex.org/work/W2519141617', 'https://semopenalex.org/work/W4226063036', 'https://semopenalex.org/work/W3110064890', 'https://semopenalex.org/work/W2777618242', 'https://semopenalex.org/work/W2170569478', 'https://semopenalex.org/work/W4297337442', 'https://semopenalex.org/work/W2163018094', 'https://semopenalex.org/work/W2547542267', 'https://semopenalex.org/work/W2104050486', 'https://semopenalex.org/work/W4242119717', 'https://semopenalex.org/work/W2024199747', 'https://semopenalex.org/work/W1549452849', 'https://semopenalex.org/work/W1964585045', 'https://semopenalex.org/work/W2156750105', 'https://semopenalex.org/work/W2586210102', 'https://semopenalex.org/work/W2259162560', 'https://semopenalex.org/work/W2170408115', 'https://semopenalex.org/work/W2565715656', 'https://semopenalex.org/work/W2041523794', 'https://semopenalex.org/work/W1497950644', 'https://semopenalex.org/work/W2108268781', 'https://semopenalex.org/work/W2766626194', 'https://semopenalex.org/work/W2962369188', 'https://semopenalex.org/work/W4388040439', 'https://semopenalex.org/work/W4392190198', 'https://semopenalex.org/work/W2073698175', 'https://semopenalex.org/work/W2111061210', 'https://semopenalex.org/work/W2109381352', 'https://semopenalex.org/work/W2307409170', 'https://semopenalex.org/work/W172504922', 'https://semopenalex.org/work/W1984919799', 'https://semopenalex.org/work/W3103131504', 'https://semopenalex.org/work/W2169420711', 'https://semopenalex.org/work/W2520501437', 'https://semopenalex.org/work/W2519637827', 'https://semopenalex.org/work/W2170360314', 'https://semopenalex.org/work/W4234343174', 'https://semopenalex.org/work/W4388426781', 'https://semopenalex.org/work/W2990440086', 'https://semopenalex.org/work/W2543381794', 'https://semopenalex.org/work/W2157658190', 'https://semopenalex.org/work/W2115153087', 'https://semopenalex.org/work/W4281552421', 'https://semopenalex.org/work/W4298258686', 'https://semopenalex.org/work/W2016076885', 'https://semopenalex.org/work/W4205392516', 'https://semopenalex.org/work/W1964566872', 'https://semopenalex.org/work/W2153789992', 'https://semopenalex.org/work/W2805267222', 'https://semopenalex.org/work/W2105726459', 'https://semopenalex.org/work/W2557898794', 'https://semopenalex.org/work/W2142585384', 'https://semopenalex.org/work/W1821364614', 'https://semopenalex.org/work/W1517747205', 'https://semopenalex.org/work/W2009696065', 'https://semopenalex.org/work/W2155133785', 'https://semopenalex.org/work/W2109869270', 'https://semopenalex.org/work/W4312355809', 'https://semopenalex.org/work/W2111286984', 'https://semopenalex.org/work/W2484159331', 'https://semopenalex.org/work/W2890889532', 'https://semopenalex.org/work/W4309156432', 'https://semopenalex.org/work/W2075944151', 'https://semopenalex.org/work/W4293057541', 'https://semopenalex.org/work/W2984240702', 'https://semopenalex.org/work/W1520987202', 'https://semopenalex.org/work/W2744040211', 'https://semopenalex.org/work/W2561493933', 'https://semopenalex.org/work/W2122418630', 'https://semopenalex.org/work/W2121152778', 'https://semopenalex.org/work/W1499877928', 'https://semopenalex.org/work/W2103177914', 'https://semopenalex.org/work/W2744747563', 'https://semopenalex.org/work/W1571528571', 'https://semopenalex.org/work/W1966525100', 'https://semopenalex.org/work/W4384702653', 'https://semopenalex.org/work/W4242340023', 'https://semopenalex.org/work/W2156403012', 'https://semopenalex.org/work/W2147408807', 'https://semopenalex.org/work/W2118577483', 'https://semopenalex.org/work/W2111597589', 'https://semopenalex.org/work/W2131782464', 'https://semopenalex.org/work/W2100655953', 'https://semopenalex.org/work/W2898585124', 'https://semopenalex.org/work/W1573495318', 'https://semopenalex.org/work/W76792789', 'https://semopenalex.org/work/W2129294850', 'https://semopenalex.org/work/W2139748899', 'https://semopenalex.org/work/W231008114', 'https://semopenalex.org/work/W2032489905', 'https://semopenalex.org/work/W2540423650', 'https://semopenalex.org/work/W3132996686', 'https://semopenalex.org/work/W2169942219', 'https://semopenalex.org/work/W2936711758', 'https://semopenalex.org/work/W2991620042', 'https://semopenalex.org/work/W2001311003', 'https://semopenalex.org/work/W2000911624', 'https://semopenalex.org/work/W2564154611', 'https://semopenalex.org/work/W3047046441', 'https://semopenalex.org/work/W2561426711', 'https://semopenalex.org/work/W2537968228', 'https://semopenalex.org/work/W2602562888', 'https://semopenalex.org/work/W2044345875', 'https://semopenalex.org/work/W1557332815', 'https://semopenalex.org/work/W4403125844', 'https://semopenalex.org/work/W2168508543', 'https://semopenalex.org/work/W1559374953', 'https://semopenalex.org/work/W2105418646', 'https://semopenalex.org/work/W1964144113', 'https://semopenalex.org/work/W3082571674', 'https://semopenalex.org/work/W1946587052', 'https://semopenalex.org/work/W2181451922', 'https://semopenalex.org/work/W3211959202', 'https://semopenalex.org/work/W2947451568', 'https://semopenalex.org/work/W4293231652', 'https://semopenalex.org/work/W2132517057', 'https://semopenalex.org/work/W1580771185', 'https://semopenalex.org/work/W2131892869', 'https://semopenalex.org/work/W2526904862', 'https://semopenalex.org/work/W4250731680', 'https://semopenalex.org/work/W4385269567', 'https://semopenalex.org/work/W1587327301', 'https://semopenalex.org/work/W4288388647', 'https://semopenalex.org/work/W2118554133', 'https://semopenalex.org/work/W2766163374', 'https://semopenalex.org/work/W2503538293', 'https://semopenalex.org/work/W2183481037', 'https://semopenalex.org/work/W2726702715', 'https://semopenalex.org/work/W2500657989', 'https://semopenalex.org/work/W4390659131', 'https://semopenalex.org/work/W1995014228', 'https://semopenalex.org/work/W2395456403', 'https://semopenalex.org/work/W2164128269', 'https://semopenalex.org/work/W2402717311', 'https://semopenalex.org/work/W2115226235', 'https://semopenalex.org/work/W4402979232', 'https://semopenalex.org/work/W2120378573', 'https://semopenalex.org/work/W2157882706', 'https://semopenalex.org/work/W2168565196', 'https://semopenalex.org/work/W2049063621', 'https://semopenalex.org/work/W1941485786', 'https://semopenalex.org/work/W2985541527', 'https://semopenalex.org/work/W4300749330', 'https://semopenalex.org/work/W2118223707', 'https://semopenalex.org/work/W1902058099', 'https://semopenalex.org/work/W2145374144', 'https://semopenalex.org/work/W3081542875', 'https://semopenalex.org/work/W2306195991', 'https://semopenalex.org/work/W2069759240', 'https://semopenalex.org/work/W2117057248', 'https://semopenalex.org/work/W4297915657', 'https://semopenalex.org/work/W2542595939', 'https://semopenalex.org/work/W631061088', 'https://semopenalex.org/work/W2120123683', 'https://semopenalex.org/work/W1993615879', 'https://semopenalex.org/work/W2187283515', 'https://semopenalex.org/work/W2544193641', 'https://semopenalex.org/work/W127067238', 'https://semopenalex.org/work/W2045814693', 'https://semopenalex.org/work/W2966201088', 'https://semopenalex.org/work/W2777410706', 'https://semopenalex.org/work/W2938273607', 'https://semopenalex.org/work/W122055421', 'https://semopenalex.org/work/W2594012298', 'https://semopenalex.org/work/W2164547685', 'https://semopenalex.org/work/W2079751128', 'https://semopenalex.org/work/W4387870553', 'https://semopenalex.org/work/W3047559567', 'https://semopenalex.org/work/W2283285553', 'https://semopenalex.org/work/W3172442072', 'https://semopenalex.org/work/W1903899770', 'https://semopenalex.org/work/W2950354866', 'https://semopenalex.org/work/W2144671362', 'https://semopenalex.org/work/W3209165692', 'https://semopenalex.org/work/W2210837322', 'https://semopenalex.org/work/W2984710244', 'https://semopenalex.org/work/W2754625146', 'https://semopenalex.org/work/W2040812348', 'https://semopenalex.org/work/W4298960349', 'https://semopenalex.org/work/W2501269234', 'https://semopenalex.org/work/W2787268163', 'https://semopenalex.org/work/W4401211153', 'https://semopenalex.org/work/W1990440413', 'https://semopenalex.org/work/W3213239954', 'https://semopenalex.org/work/W2158629557', 'https://semopenalex.org/work/W2171661652', 'https://semopenalex.org/work/W1652026612', 'https://semopenalex.org/work/W2105887457', 'https://semopenalex.org/work/W2009899612', 'https://semopenalex.org/work/W2079439137', 'https://semopenalex.org/work/W4287373267', 'https://semopenalex.org/work/W1590500716', 'https://semopenalex.org/work/W2960904607', 'https://semopenalex.org/work/W2155980659', 'https://semopenalex.org/work/W2153633691', 'https://semopenalex.org/work/W9580097', 'https://semopenalex.org/work/W2132504794', 'https://semopenalex.org/work/W2556526093', 'https://semopenalex.org/work/W4297337508', 'https://semopenalex.org/work/W2519923144', 'https://semopenalex.org/work/W577884598', 'https://semopenalex.org/work/W2039665092', 'https://semopenalex.org/work/W2498643698', 'https://semopenalex.org/work/W3013137731', 'https://semopenalex.org/work/W4200236125', 'https://semopenalex.org/work/W2767802864', 'https://semopenalex.org/work/W2141335099', 'https://semopenalex.org/work/W3110586151', 'https://semopenalex.org/work/W2109953704', 'https://semopenalex.org/work/W2128495863', 'https://semopenalex.org/work/W2787585844', 'https://semopenalex.org/work/W2155684141', 'https://semopenalex.org/work/W2952291158', 'https://semopenalex.org/work/W4406014822', 'https://semopenalex.org/work/W1594843825', 'https://semopenalex.org/work/W2157296879', 'https://semopenalex.org/work/W4391423489', 'https://semopenalex.org/work/W2799937660', 'https://semopenalex.org/work/W2113013005', 'https://semopenalex.org/work/W2940974961', 'https://semopenalex.org/work/W2096326794', 'https://semopenalex.org/work/W2144694721', 'https://semopenalex.org/work/W2517191459', 'https://semopenalex.org/work/W1985449492', 'https://semopenalex.org/work/W2262803801', 'https://semopenalex.org/work/W2069414351', 'https://semopenalex.org/work/W2406076180', 'https://semopenalex.org/work/W4323520954', 'https://semopenalex.org/work/W3159955321', 'https://semopenalex.org/work/W2142060508', 'https://semopenalex.org/work/W2025385583', 'https://semopenalex.org/work/W2133140297', 'https://semopenalex.org/work/W3082221710', 'https://semopenalex.org/work/W2011500828', 'https://semopenalex.org/work/W2772832587', 'https://semopenalex.org/work/W2502226431', 'https://semopenalex.org/work/W2500140119', 'https://semopenalex.org/work/W2987385411', 'https://semopenalex.org/work/W4389544910', 'https://semopenalex.org/work/W2154904090', 'https://semopenalex.org/work/W2051339135', 'https://semopenalex.org/work/W2751093764', 'https://semopenalex.org/work/W2123990342', 'https://semopenalex.org/work/W4400275996', 'https://semopenalex.org/work/W2766251094', 'https://semopenalex.org/work/W2045839277', 'https://semopenalex.org/work/W2142825530', 'https://semopenalex.org/work/W2912877776', 'https://semopenalex.org/work/W2166316728', 'https://semopenalex.org/work/W1974956884', 'https://semopenalex.org/work/W2740951644', 'https://semopenalex.org/work/W4313556225', 'https://semopenalex.org/work/W2144336525', 'https://semopenalex.org/work/W2167823651', 'https://semopenalex.org/work/W2147267176', 'https://semopenalex.org/work/W2200566218', 'https://semopenalex.org/work/W2274023127', 'https://semopenalex.org/work/W1948644485', 'https://semopenalex.org/work/W2124194899', 'https://semopenalex.org/work/W2316602395', 'https://semopenalex.org/work/W2883794401', 'https://semopenalex.org/work/W2144395182', 'https://semopenalex.org/work/W2064860625', 'https://semopenalex.org/work/W2907667788', 'https://semopenalex.org/work/W76204627', 'https://semopenalex.org/work/W2058582862', 'https://semopenalex.org/work/W3108293921', 'https://semopenalex.org/work/W2126671726', 'https://semopenalex.org/work/W2050903539', 'https://semopenalex.org/work/W1555032212', 'https://semopenalex.org/work/W2134398104', 'https://semopenalex.org/work/W2086017364', 'https://semopenalex.org/work/W2125338648', 'https://semopenalex.org/work/W2138882120', 'https://semopenalex.org/work/W2145697554', 'https://semopenalex.org/work/W1543616292', 'https://semopenalex.org/work/W3109245228', 'https://semopenalex.org/work/W2112555124', 'https://semopenalex.org/work/W2114531623', 'https://semopenalex.org/work/W1527501989', 'https://semopenalex.org/work/W2162725450', 'https://semopenalex.org/work/W2331587677', 'https://semopenalex.org/work/W2087901561', 'https://semopenalex.org/work/W2050289103', 'https://semopenalex.org/work/W2137861936', 'https://semopenalex.org/work/W3131306556', 'https://semopenalex.org/work/W2487326631', 'https://semopenalex.org/work/W2542205371', 'https://semopenalex.org/work/W2083144563', 'https://semopenalex.org/work/W3003262222', 'https://semopenalex.org/work/W2094470527', 'https://semopenalex.org/work/W2121543627', 'https://semopenalex.org/work/W4293879554', 'https://semopenalex.org/work/W2997388317', 'https://semopenalex.org/work/W4403125773', 'https://semopenalex.org/work/W3104094101', 'https://semopenalex.org/work/W1896302153', 'https://semopenalex.org/work/W2097877425', 'https://semopenalex.org/work/W2131978527', 'https://semopenalex.org/work/W2020410123', 'https://semopenalex.org/work/W2160548778', 'https://semopenalex.org/work/W1515551736', 'https://semopenalex.org/work/W4403999810', 'https://semopenalex.org/work/W2003278768', 'https://semopenalex.org/work/W2485056264', 'https://semopenalex.org/work/W2903366716', 'https://semopenalex.org/work/W2128284487', 'https://semopenalex.org/work/W2338825247', 'https://semopenalex.org/work/W2136201039', 'https://semopenalex.org/work/W2285513680', 'https://semopenalex.org/work/W2264477554', 'https://semopenalex.org/work/W2146343961', 'https://semopenalex.org/work/W2148858788', 'https://semopenalex.org/work/W2539939386', 'https://semopenalex.org/work/W2908554792', 'https://semopenalex.org/work/W2982349593', 'https://semopenalex.org/work/W2150492409', 'https://semopenalex.org/work/W2113007367', 'https://semopenalex.org/work/W2485105947', 'https://semopenalex.org/work/W2142823500', 'https://semopenalex.org/work/W4300578608', 'https://semopenalex.org/work/W2123103779', 'https://semopenalex.org/work/W2114825970', 'https://semopenalex.org/work/W1528178363', 'https://semopenalex.org/work/W2183124059', 'https://semopenalex.org/work/W1488536841', 'https://semopenalex.org/work/W2049487654', 'https://semopenalex.org/work/W261226932', 'https://semopenalex.org/work/W2111799653', 'https://semopenalex.org/work/W2289612697', 'https://semopenalex.org/work/W2281944404', 'https://semopenalex.org/work/W2240237605', 'https://semopenalex.org/work/W2082153616', 'https://semopenalex.org/work/W2543078219', 'https://semopenalex.org/work/W2071157010', 'https://semopenalex.org/work/W4402834809', 'https://semopenalex.org/work/W1537679252', 'https://semopenalex.org/work/W2050516876', 'https://semopenalex.org/work/W2114936550', 'https://semopenalex.org/work/W2249381504', 'https://semopenalex.org/work/W2106435676', 'https://semopenalex.org/work/W1705117738', 'https://semopenalex.org/work/W2130598176', 'https://semopenalex.org/work/W2138753182', 'https://semopenalex.org/work/W2038834953', 'https://semopenalex.org/work/W1584367909', 'https://semopenalex.org/work/W1990117292', 'https://semopenalex.org/work/W2035169162', 'https://semopenalex.org/work/W2117209463', 'https://semopenalex.org/work/W2012691738', 'https://semopenalex.org/work/W1482510513', 'https://semopenalex.org/work/W1920632762', 'https://semopenalex.org/work/W2900907022', 'https://semopenalex.org/work/W2898585817', 'https://semopenalex.org/work/W2024765053', 'https://semopenalex.org/work/W1910794954', 'https://semopenalex.org/work/W4385269856', 'https://semopenalex.org/work/W2592986199', 'https://semopenalex.org/work/W2955952880', 'https://semopenalex.org/work/W2068561128', 'https://semopenalex.org/work/W2059397589', 'https://semopenalex.org/work/W3029554135', 'https://semopenalex.org/work/W2101944542', 'https://semopenalex.org/work/W2606477497', 'https://semopenalex.org/work/W2103012040', 'https://semopenalex.org/work/W2476150052', 'https://semopenalex.org/work/W2778349219', 'https://semopenalex.org/work/W2398872811', 'https://semopenalex.org/work/W2119126614', 'https://semopenalex.org/work/W2109677119', 'https://semopenalex.org/work/W2790944729', 'https://semopenalex.org/work/W1507972221', 'https://semopenalex.org/work/W2104369716', 'https://semopenalex.org/work/W2808722964', 'https://semopenalex.org/work/W35944550', 'https://semopenalex.org/work/W4297750954', 'https://semopenalex.org/work/W2546318682', 'https://semopenalex.org/work/W2955604282', 'https://semopenalex.org/work/W1548961190', 'https://semopenalex.org/work/W2165961214', 'https://semopenalex.org/work/W2984866899', 'https://semopenalex.org/work/W2490721483', 'https://semopenalex.org/work/W2125753044', 'https://semopenalex.org/work/W2208334390', 'https://semopenalex.org/work/W4298058443', 'https://semopenalex.org/work/W2541172349', 'https://semopenalex.org/work/W4253525662', 'https://semopenalex.org/work/W2215976694', 'https://semopenalex.org/work/W2111822438', 'https://semopenalex.org/work/W2912038406', 'https://semopenalex.org/work/W1989488730', 'https://semopenalex.org/work/W134697830', 'https://semopenalex.org/work/W2016966745', 'https://semopenalex.org/work/W2117259335', 'https://semopenalex.org/work/W2104309106', 'https://semopenalex.org/work/W2166420997', 'https://semopenalex.org/work/W2124777767', 'https://semopenalex.org/work/W1540229220', 'https://semopenalex.org/work/W2186442154', 'https://semopenalex.org/work/W2167408205', 'https://semopenalex.org/work/W3087842236', 'https://semopenalex.org/work/W2127821072', 'https://semopenalex.org/work/W2540556093', 'https://semopenalex.org/work/W1480726488', 'https://semopenalex.org/work/W4393027617', 'https://semopenalex.org/work/W2058548491', 'https://semopenalex.org/work/W3094884854', 'https://semopenalex.org/work/W2245372972', 'https://semopenalex.org/work/W2540524787', 'https://semopenalex.org/work/W1480483209', 'https://semopenalex.org/work/W2169145161', 'https://semopenalex.org/work/W2129039712', 'https://semopenalex.org/work/W2117136963', 'https://semopenalex.org/work/W2123881029', 'https://semopenalex.org/work/W4394744720', 'https://semopenalex.org/work/W1979373413', 'https://semopenalex.org/work/W2501289763', 'https://semopenalex.org/work/W2122367183', 'https://semopenalex.org/work/W2963413120', 'https://semopenalex.org/work/W4294377907', 'https://semopenalex.org/work/W4393100182', 'https://semopenalex.org/work/W2500947436', 'https://semopenalex.org/work/W2486257041', 'https://semopenalex.org/work/W114162058', 'https://semopenalex.org/work/W2134446520', 'https://semopenalex.org/work/W2920046148', 'https://semopenalex.org/work/W2094087606', 'https://semopenalex.org/work/W2988200595', 'https://semopenalex.org/work/W1519109301', 'https://semopenalex.org/work/W2328025858', 'https://semopenalex.org/work/W4281550399', 'https://semopenalex.org/work/W2766982571', 'https://semopenalex.org/work/W1578533435', 'https://semopenalex.org/work/W1485763045', 'https://semopenalex.org/work/W2033822653', 'https://semopenalex.org/work/W3008151205', 'https://semopenalex.org/work/W2150896326', 'https://semopenalex.org/work/W3170931628', 'https://semopenalex.org/work/W2187570332', 'https://semopenalex.org/work/W1652472566', 'https://semopenalex.org/work/W2216412688', 'https://semopenalex.org/work/W3045574610', 'https://semopenalex.org/work/W2395307179', 'https://semopenalex.org/work/W2170895124', 'https://semopenalex.org/work/W2903273798', 'https://semopenalex.org/work/W2964258439', 'https://semopenalex.org/work/W2397258303', 'https://semopenalex.org/work/W2121393816', 'https://semopenalex.org/work/W1572900186', 'https://semopenalex.org/work/W2406959715', 'https://semopenalex.org/work/W1966605510', 'https://semopenalex.org/work/W2065665633', 'https://semopenalex.org/work/W2804775637', 'https://semopenalex.org/work/W2980210197', 'https://semopenalex.org/work/W1561470659', 'https://semopenalex.org/work/W2142547620', 'https://semopenalex.org/work/W1988121863', 'https://semopenalex.org/work/W2954419148', 'https://semopenalex.org/work/W2121912566', 'https://semopenalex.org/work/W1479988666', 'https://semopenalex.org/work/W2132926630', 'https://semopenalex.org/work/W1652028855', 'https://semopenalex.org/work/W2096776475', 'https://semopenalex.org/work/W4311416457', 'https://semopenalex.org/work/W2049150434', 'https://semopenalex.org/work/W2990523197', 'https://semopenalex.org/work/W4391943843', 'https://semopenalex.org/work/W3160943626', 'https://semopenalex.org/work/W2123152632', 'https://semopenalex.org/work/W1624711360', 'https://semopenalex.org/work/W3167854971', 'https://semopenalex.org/work/W2965147014', 'https://semopenalex.org/work/W2156187609', 'https://semopenalex.org/work/W2955440244', 'https://semopenalex.org/work/W1755978909', 'https://semopenalex.org/work/W2023340823', 'https://semopenalex.org/work/W2127377124', 'https://semopenalex.org/work/W1965073859', 'https://semopenalex.org/work/W1982829517', 'https://semopenalex.org/work/W2126253766', 'https://semopenalex.org/work/W4239036698', 'https://semopenalex.org/work/W2155104030', 'https://semopenalex.org/work/W2166053761', 'https://semopenalex.org/work/W2111298585', 'https://semopenalex.org/work/W2111006641', 'https://semopenalex.org/work/W2113612215', 'https://semopenalex.org/work/W1926257802', 'https://semopenalex.org/work/W2157485058', 'https://semopenalex.org/work/W1987549102', 'https://semopenalex.org/work/W1979248073', 'https://semopenalex.org/work/W2160865195', 'https://semopenalex.org/work/W4392543720', 'https://semopenalex.org/work/W2886000389', 'https://semopenalex.org/work/W2970181808', 'https://semopenalex.org/work/W2797091164', 'https://semopenalex.org/work/W2939926333', 'https://semopenalex.org/work/W4233256480', 'https://semopenalex.org/work/W3128859177', 'https://semopenalex.org/work/W2136200992', 'https://semopenalex.org/work/W4247423780', 'https://semopenalex.org/work/W2621345802', 'https://semopenalex.org/work/W88691522', 'https://semopenalex.org/work/W4389941987', 'https://semopenalex.org/work/W2100592435', 'https://semopenalex.org/work/W2162087782', 'https://semopenalex.org/work/W2725423089', 'https://semopenalex.org/work/W1599692521', 'https://semopenalex.org/work/W4385270061', 'https://semopenalex.org/work/W2780417671', 'https://semopenalex.org/work/W59367440', 'https://semopenalex.org/work/W1992351481', 'https://semopenalex.org/work/W1592264855', 'https://semopenalex.org/work/W2757210695', 'https://semopenalex.org/work/W2106703611', 'https://semopenalex.org/work/W3127823319', 'https://semopenalex.org/work/W2919229748', 'https://semopenalex.org/work/W4394116511', 'https://semopenalex.org/work/W2157503216', 'https://semopenalex.org/work/W2991393039', 'https://semopenalex.org/work/W2008563498', 'https://semopenalex.org/work/W4309163001', 'https://semopenalex.org/work/W2882991374', 'https://semopenalex.org/work/W2548572867', 'https://semopenalex.org/work/W2112297062', 'https://semopenalex.org/work/W2119981423', 'https://semopenalex.org/work/W2133799581', 'https://semopenalex.org/work/W2099843108', 'https://semopenalex.org/work/W3112601604', 'https://semopenalex.org/work/W4400351820', 'https://semopenalex.org/work/W2040130740', 'https://semopenalex.org/work/W1514964336', 'https://semopenalex.org/work/W2907559738', 'https://semopenalex.org/work/W3036712996', 'https://semopenalex.org/work/W1582695330', 'https://semopenalex.org/work/W2168071345', 'https://semopenalex.org/work/W2053747988', 'https://semopenalex.org/work/W2159027361', 'https://semopenalex.org/work/W2151624806', 'https://semopenalex.org/work/W1584839339', 'https://semopenalex.org/work/W2130054343', 'https://semopenalex.org/work/W4385270053', 'https://semopenalex.org/work/W2120032717', 'https://semopenalex.org/work/W2057919147', 'https://semopenalex.org/work/W2481171871', 'https://semopenalex.org/work/W3141451211', 'https://semopenalex.org/work/W2010428539', 'https://semopenalex.org/work/W4226404276', 'https://semopenalex.org/work/W3130578691', 'https://semopenalex.org/work/W2047510814', 'https://semopenalex.org/work/W4387753662', 'https://semopenalex.org/work/W2124647579', 'https://semopenalex.org/work/W2040382413', 'https://semopenalex.org/work/W2107590159', 'https://semopenalex.org/work/W2211455504', 'https://semopenalex.org/work/W1991856529', 'https://semopenalex.org/work/W3038827425', 'https://semopenalex.org/work/W2137001054', 'https://semopenalex.org/work/W3030053463', 'https://semopenalex.org/work/W2245851126', 'https://semopenalex.org/work/W2134599441', 'https://semopenalex.org/work/W2773248864', 'https://semopenalex.org/work/W2044819541', 'https://semopenalex.org/work/W3099065439', 'https://semopenalex.org/work/W2785636345', 'https://semopenalex.org/work/W2405519782', 'https://semopenalex.org/work/W1853852256', 'https://semopenalex.org/work/W2594852807', 'https://semopenalex.org/work/W4254943154', 'https://semopenalex.org/work/W2539877332', 'https://semopenalex.org/work/W2109817976', 'https://semopenalex.org/work/W2533450760', 'https://semopenalex.org/work/W2740641633', 'https://semopenalex.org/work/W3209479219', 'https://semopenalex.org/work/W2100157995', 'https://semopenalex.org/work/W2132618617', 'https://semopenalex.org/work/W4404042589', 'https://semopenalex.org/work/W2014991509', 'https://semopenalex.org/work/W4402308683', 'https://semopenalex.org/work/W2081050294', 'https://semopenalex.org/work/W1516912776', 'https://semopenalex.org/work/W2093266144', 'https://semopenalex.org/work/W2134296970', 'https://semopenalex.org/work/W3184029910', 'https://semopenalex.org/work/W1501722245', 'https://semopenalex.org/work/W1982884959', 'https://semopenalex.org/work/W2786775420', 'https://semopenalex.org/work/W2103338957', 'https://semopenalex.org/work/W1522897038', 'https://semopenalex.org/work/W4405784852', 'https://semopenalex.org/work/W2888229508', 'https://semopenalex.org/work/W2592727939', 'https://semopenalex.org/work/W3039950565', 'https://semopenalex.org/work/W1979646344', 'https://semopenalex.org/work/W2108381632', 'https://semopenalex.org/work/W1548041278', 'https://semopenalex.org/work/W2626620811', 'https://semopenalex.org/work/W4389194270', 'https://semopenalex.org/work/W2340681460', 'https://semopenalex.org/work/W2001171358', 'https://semopenalex.org/work/W2336695252', 'https://semopenalex.org/work/W1576078778', 'https://semopenalex.org/work/W1493406030', 'https://semopenalex.org/work/W4321012997', 'https://semopenalex.org/work/W2147739540', 'https://semopenalex.org/work/W1500990290', 'https://semopenalex.org/work/W1993930167', 'https://semopenalex.org/work/W2938788752', 'https://semopenalex.org/work/W2982037468', 'https://semopenalex.org/work/W1973271536', 'https://semopenalex.org/work/W4233368763', 'https://semopenalex.org/work/W4312562684', 'https://semopenalex.org/work/W2938466343', 'https://semopenalex.org/work/W1984310382', 'https://semopenalex.org/work/W2170653766', 'https://semopenalex.org/work/W2128232997', 'https://semopenalex.org/work/W4391019923', 'https://semopenalex.org/work/W2148992129', 'https://semopenalex.org/work/W1570807986', 'https://semopenalex.org/work/W2136846482', 'https://semopenalex.org/work/W3045090494', 'https://semopenalex.org/work/W1579367494', 'https://semopenalex.org/work/W3039606946', 'https://semopenalex.org/work/W2787605814', 'https://semopenalex.org/work/W2148960436', 'https://semopenalex.org/work/W1926884078', 'https://semopenalex.org/work/W2228428948', 'https://semopenalex.org/work/W2094614098', 'https://semopenalex.org/work/W2401532570', 'https://semopenalex.org/work/W2503969748', 'https://semopenalex.org/work/W1921873222', 'https://semopenalex.org/work/W3121431376', 'https://semopenalex.org/work/W3138514506', 'https://semopenalex.org/work/W2339789124', 'https://semopenalex.org/work/W2009381697', 'https://semopenalex.org/work/W2132778805', 'https://semopenalex.org/work/W4327522346', 'https://semopenalex.org/work/W2095197397', 'https://semopenalex.org/work/W4293402261', 'https://semopenalex.org/work/W2119490456', 'https://semopenalex.org/work/W1564216562', 'https://semopenalex.org/work/W2165498322', 'https://semopenalex.org/work/W4406610449', 'https://semopenalex.org/work/W2774349331', 'https://semopenalex.org/work/W2108887907', 'https://semopenalex.org/work/W3160553667', 'https://semopenalex.org/work/W2597976855', 'https://semopenalex.org/work/W2763356713', 'https://semopenalex.org/work/W2903706966', 'https://semopenalex.org/work/W2068783141', 'https://semopenalex.org/work/W2148721912', 'https://semopenalex.org/work/W1979949113', 'https://semopenalex.org/work/W1998332704', 'https://semopenalex.org/work/W2162561109', 'https://semopenalex.org/work/W2020278920', 'https://semopenalex.org/work/W2125116412', 'https://semopenalex.org/work/W1838886282', 'https://semopenalex.org/work/W2156855998', 'https://semopenalex.org/work/W2401530677', 'https://semopenalex.org/work/W4378714244', 'https://semopenalex.org/work/W1976438585', 'https://semopenalex.org/work/W2968841798', 'https://semopenalex.org/work/W2936716896', 'https://semopenalex.org/work/W2141326712', 'https://semopenalex.org/work/W3186300876', 'https://semopenalex.org/work/W4288388712', 'https://semopenalex.org/work/W4401808284', 'https://semopenalex.org/work/W2067085090', 'https://semopenalex.org/work/W3186574068', 'https://semopenalex.org/work/W3113388923', 'https://semopenalex.org/work/W2786519012', 'https://semopenalex.org/work/W2786221602', 'https://semopenalex.org/work/W2104477096', 'https://semopenalex.org/work/W3100661680', 'https://semopenalex.org/work/W4385804783', 'https://semopenalex.org/work/W2786802123', 'https://semopenalex.org/work/W4401808481', 'https://semopenalex.org/work/W2003458572', 'https://semopenalex.org/work/W2131983085', 'https://semopenalex.org/work/W2202129636', 'https://semopenalex.org/work/W4205460318', 'https://semopenalex.org/work/W1986396347', 'https://semopenalex.org/work/W2127876778', 'https://semopenalex.org/work/W2497082396', 'https://semopenalex.org/work/W4250213231', 'https://semopenalex.org/work/W2884671900', 'https://semopenalex.org/work/W1986712311', 'https://semopenalex.org/work/W2938131231', 'https://semopenalex.org/work/W2554661407', 'https://semopenalex.org/work/W1989274606', 'https://semopenalex.org/work/W4323521055', 'https://semopenalex.org/work/W2770889757', 'https://semopenalex.org/work/W2155644198', 'https://semopenalex.org/work/W2279936185', 'https://semopenalex.org/work/W2010409592', 'https://semopenalex.org/work/W2155700637', 'https://semopenalex.org/work/W2164545908', 'https://semopenalex.org/work/W2543636489', 'https://semopenalex.org/work/W4402128386', 'https://semopenalex.org/work/W2983719171', 'https://semopenalex.org/work/W2132560274', 'https://semopenalex.org/work/W4254440377', 'https://semopenalex.org/work/W2774610283', 'https://semopenalex.org/work/W1986398770', 'https://semopenalex.org/work/W2149251866']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W2759844371', 'https://semopenalex.org/work/W3171874410', 'https://semopenalex.org/work/W245480222', 'https://semopenalex.org/work/W2992326856', 'https://semopenalex.org/work/W2749915073', 'https://semopenalex.org/work/W2895365144', 'https://semopenalex.org/work/W1497133195', 'https://semopenalex.org/work/W2475234954', 'https://semopenalex.org/work/W2990740408', 'https://semopenalex.org/work/W3082423688', 'https://semopenalex.org/work/W2485827646', 'https://semopenalex.org/work/W2618538987', 'https://semopenalex.org/work/W2905528077', 'https://semopenalex.org/work/W1542554459', 'https://semopenalex.org/work/W2792530018', 'https://semopenalex.org/work/W2946816105', 'https://semopenalex.org/work/W2485416095', 'https://semopenalex.org/work/W110371783', 'https://semopenalex.org/work/W2768698326', 'https://semopenalex.org/work/W88942648', 'https://semopenalex.org/work/W2525511442', 'https://semopenalex.org/work/W4317743417', 'https://semopenalex.org/work/W3093904374', 'https://semopenalex.org/work/W3004959688', 'https://semopenalex.org/work/W17468934', 'https://semopenalex.org/work/W2521279915', 'https://semopenalex.org/work/W2972771325', 'https://semopenalex.org/work/W2499042039', 'https://semopenalex.org/work/W164245990', 'https://semopenalex.org/work/W1491368226', 'https://semopenalex.org/work/W2934430003', 'https://semopenalex.org/work/W2519725791', 'https://semopenalex.org/work/W2759156905', 'https://semopenalex.org/work/W2403056045', 'https://semopenalex.org/work/W2945130429', 'https://semopenalex.org/work/W4307540197', 'https://semopenalex.org/work/W369652278', 'https://semopenalex.org/work/W2800536240', 'https://semopenalex.org/work/W4402905786', 'https://semopenalex.org/work/W3145615144', 'https://semopenalex.org/work/W2471512599', 'https://semopenalex.org/work/W2618805771', 'https://semopenalex.org/work/W2945468257', 'https://semopenalex.org/work/W2338915076', 'https://semopenalex.org/work/W2751786971', 'https://semopenalex.org/work/W1554337061', 'https://semopenalex.org/work/W3163818535', 'https://semopenalex.org/work/W2620328864', 'https://semopenalex.org/work/W2341278403', 'https://semopenalex.org/work/W620578786', 'https://semopenalex.org/work/W3146451828', 'https://semopenalex.org/work/W2497589022', 'https://semopenalex.org/work/W2404426467', 'https://semopenalex.org/work/W2618579849', 'https://semopenalex.org/work/W2618660430', 'https://semopenalex.org/work/W3093823430', 'https://semopenalex.org/work/W2172124872', 'https://semopenalex.org/work/W2016390608', 'https://semopenalex.org/work/W3140161002', 'https://semopenalex.org/work/W2277087513', 'https://semopenalex.org/work/W2520607372', 'https://semopenalex.org/work/W82707212', 'https://semopenalex.org/work/W2282418302', 'https://semopenalex.org/work/W2995766444', 'https://semopenalex.org/work/W2801765505', 'https://semopenalex.org/work/W2495892083', 'https://semopenalex.org/work/W802645426', 'https://semopenalex.org/work/W4307456085', 'https://semopenalex.org/work/W2142245421', 'https://semopenalex.org/work/W2344732212', 'https://semopenalex.org/work/W4386696286', 'https://semopenalex.org/work/W3201935125', 'https://semopenalex.org/work/W991337960', 'https://semopenalex.org/work/W4388100645', 'https://semopenalex.org/work/W3217720994', 'https://semopenalex.org/work/W2503647715', 'https://semopenalex.org/work/W2277556528', 'https://semopenalex.org/work/W2219349787', 'https://semopenalex.org/work/W2141692554', 'https://semopenalex.org/work/W2502519563', 'https://semopenalex.org/work/W4386141724', 'https://semopenalex.org/work/W2978289855', 'https://semopenalex.org/work/W3032139222', 'https://semopenalex.org/work/W2336060370', 'https://semopenalex.org/work/W205286942', 'https://semopenalex.org/work/W2752853118']</t>
+    <t>['https://semopenalex.org/work/W2153608957', 'https://semopenalex.org/work/W2128722362', 'https://semopenalex.org/work/W2116018884', 'https://semopenalex.org/work/W2159524123', 'https://semopenalex.org/work/W2594176303', 'https://semopenalex.org/work/W2746198904', 'https://semopenalex.org/work/W2512503502', 'https://semopenalex.org/work/W3162627549', 'https://semopenalex.org/work/W2050921210', 'https://semopenalex.org/work/W2487376240', 'https://semopenalex.org/work/W2189600142', 'https://semopenalex.org/work/W3179268546', 'https://semopenalex.org/work/W1808004798', 'https://semopenalex.org/work/W4237667777', 'https://semopenalex.org/work/W4322832362', 'https://semopenalex.org/work/W2023804683', 'https://semopenalex.org/work/W4205889589', 'https://semopenalex.org/work/W2129518598', 'https://semopenalex.org/work/W2141592093', 'https://semopenalex.org/work/W2121529688', 'https://semopenalex.org/work/W2190195640', 'https://semopenalex.org/work/W2122128429', 'https://semopenalex.org/work/W4244875117', 'https://semopenalex.org/work/W2182527568', 'https://semopenalex.org/work/W2476684204', 'https://semopenalex.org/work/W1882111414', 'https://semopenalex.org/work/W2142005762', 'https://semopenalex.org/work/W2988564852', 'https://semopenalex.org/work/W2918802163', 'https://semopenalex.org/work/W1857284394', 'https://semopenalex.org/work/W2327976118', 'https://semopenalex.org/work/W4388829566', 'https://semopenalex.org/work/W2123482670', 'https://semopenalex.org/work/W2169956538', 'https://semopenalex.org/work/W2163547689', 'https://semopenalex.org/work/W1784288318', 'https://semopenalex.org/work/W4399062274', 'https://semopenalex.org/work/W2118420236', 'https://semopenalex.org/work/W3190979825', 'https://semopenalex.org/work/W2106039030', 'https://semopenalex.org/work/W3106213621', 'https://semopenalex.org/work/W2072128484', 'https://semopenalex.org/work/W3194819591', 'https://semopenalex.org/work/W2280892290', 'https://semopenalex.org/work/W2151101268', 'https://semopenalex.org/work/W4283028880', 'https://semopenalex.org/work/W2166315125', 'https://semopenalex.org/work/W2118345904', 'https://semopenalex.org/work/W4388638199', 'https://semopenalex.org/work/W2106233876', 'https://semopenalex.org/work/W4388235556', 'https://semopenalex.org/work/W2048025952', 'https://semopenalex.org/work/W4312628239', 'https://semopenalex.org/work/W4386728284', 'https://semopenalex.org/work/W2140436532', 'https://semopenalex.org/work/W3085042870', 'https://semopenalex.org/work/W2171540325', 'https://semopenalex.org/work/W2147406818', 'https://semopenalex.org/work/W2045551387', 'https://semopenalex.org/work/W3155241911', 'https://semopenalex.org/work/W1964567495', 'https://semopenalex.org/work/W4313525046', 'https://semopenalex.org/work/W2170432288', 'https://semopenalex.org/work/W3015454417', 'https://semopenalex.org/work/W2119454020', 'https://semopenalex.org/work/W2057477395', 'https://semopenalex.org/work/W2102549524', 'https://semopenalex.org/work/W2970159846', 'https://semopenalex.org/work/W2143779229', 'https://semopenalex.org/work/W2020196086', 'https://semopenalex.org/work/W2146692894', 'https://semopenalex.org/work/W1820714040', 'https://semopenalex.org/work/W2158537680', 'https://semopenalex.org/work/W2100279715', 'https://semopenalex.org/work/W2124699087', 'https://semopenalex.org/work/W2277416294', 'https://semopenalex.org/work/W2168204206', 'https://semopenalex.org/work/W4200629809', 'https://semopenalex.org/work/W2021186270', 'https://semopenalex.org/work/W2136497745', 'https://semopenalex.org/work/W2003260793', 'https://semopenalex.org/work/W4287551966', 'https://semopenalex.org/work/W2116180989', 'https://semopenalex.org/work/W1566503145', 'https://semopenalex.org/work/W2084633773', 'https://semopenalex.org/work/W2110745932', 'https://semopenalex.org/work/W3012587348', 'https://semopenalex.org/work/W2160492008', 'https://semopenalex.org/work/W2120889368', 'https://semopenalex.org/work/W4221012413', 'https://semopenalex.org/work/W4301499895', 'https://semopenalex.org/work/W2147993784', 'https://semopenalex.org/work/W2210029275', 'https://semopenalex.org/work/W2135431044', 'https://semopenalex.org/work/W2018384246', 'https://semopenalex.org/work/W2188413581', 'https://semopenalex.org/work/W4401753946', 'https://semopenalex.org/work/W1600396855', 'https://semopenalex.org/work/W2145568341', 'https://semopenalex.org/work/W2615249850', 'https://semopenalex.org/work/W2103637183', 'https://semopenalex.org/work/W3106512002', 'https://semopenalex.org/work/W2902616013', 'https://semopenalex.org/work/W2949657987', 'https://semopenalex.org/work/W4300799299', 'https://semopenalex.org/work/W2103254499', 'https://semopenalex.org/work/W2040652823', 'https://semopenalex.org/work/W2125523397', 'https://semopenalex.org/work/W2186730704', 'https://semopenalex.org/work/W3162654685', 'https://semopenalex.org/work/W2131459843', 'https://semopenalex.org/work/W2104882822', 'https://semopenalex.org/work/W2148907823', 'https://semopenalex.org/work/W2161268655', 'https://semopenalex.org/work/W1867432869', 'https://semopenalex.org/work/W2168111317', 'https://semopenalex.org/work/W2060717066', 'https://semopenalex.org/work/W2400256934', 'https://semopenalex.org/work/W1989282861', 'https://semopenalex.org/work/W1971037148', 'https://semopenalex.org/work/W1787016751', 'https://semopenalex.org/work/W1501647712', 'https://semopenalex.org/work/W2249000025', 'https://semopenalex.org/work/W4400572667', 'https://semopenalex.org/work/W2122883310', 'https://semopenalex.org/work/W2108017142', 'https://semopenalex.org/work/W2159718141', 'https://semopenalex.org/work/W2052867250', 'https://semopenalex.org/work/W2129859788', 'https://semopenalex.org/work/W2040835538', 'https://semopenalex.org/work/W3092177264', 'https://semopenalex.org/work/W2114379490', 'https://semopenalex.org/work/W1824121449', 'https://semopenalex.org/work/W2756070092', 'https://semopenalex.org/work/W2166197815', 'https://semopenalex.org/work/W3103372211', 'https://semopenalex.org/work/W2283163132', 'https://semopenalex.org/work/W3010742537', 'https://semopenalex.org/work/W4386728290', 'https://semopenalex.org/work/W2291045170', 'https://semopenalex.org/work/W2087217507', 'https://semopenalex.org/work/W3214000901', 'https://semopenalex.org/work/W2134429331', 'https://semopenalex.org/work/W2128821548', 'https://semopenalex.org/work/W2018354435', 'https://semopenalex.org/work/W2107882641', 'https://semopenalex.org/work/W2950707842', 'https://semopenalex.org/work/W2131938193', 'https://semopenalex.org/work/W1979849178', 'https://semopenalex.org/work/W1778342465', 'https://semopenalex.org/work/W2178506535', 'https://semopenalex.org/work/W2063650998', 'https://semopenalex.org/work/W2169931542', 'https://semopenalex.org/work/W2733144798', 'https://semopenalex.org/work/W2134671262', 'https://semopenalex.org/work/W2007670367', 'https://semopenalex.org/work/W1828916228', 'https://semopenalex.org/work/W4244572215', 'https://semopenalex.org/work/W2159784132', 'https://semopenalex.org/work/W2141801703', 'https://semopenalex.org/work/W8218751', 'https://semopenalex.org/work/W1747115033', 'https://semopenalex.org/work/W4221163077', 'https://semopenalex.org/work/W2094507611', 'https://semopenalex.org/work/W3015796941', 'https://semopenalex.org/work/W1884565435', 'https://semopenalex.org/work/W2020493940', 'https://semopenalex.org/work/W2111128642', 'https://semopenalex.org/work/W4282004224', 'https://semopenalex.org/work/W2476492488', 'https://semopenalex.org/work/W2153901619', 'https://semopenalex.org/work/W1696074034', 'https://semopenalex.org/work/W2033157981', 'https://semopenalex.org/work/W3107843792', 'https://semopenalex.org/work/W4226163818', 'https://semopenalex.org/work/W3088822975', 'https://semopenalex.org/work/W1985231173', 'https://semopenalex.org/work/W2114658777', 'https://semopenalex.org/work/W4288482042', 'https://semopenalex.org/work/W2096086749', 'https://semopenalex.org/work/W2085980614', 'https://semopenalex.org/work/W2168793726', 'https://semopenalex.org/work/W4223992723', 'https://semopenalex.org/work/W2102152654', 'https://semopenalex.org/work/W3022662194', 'https://semopenalex.org/work/W4287198234', 'https://semopenalex.org/work/W2077616584', 'https://semopenalex.org/work/W4225343232', 'https://semopenalex.org/work/W1992781262', 'https://semopenalex.org/work/W3026367662', 'https://semopenalex.org/work/W4406807628', 'https://semopenalex.org/work/W1999564901', 'https://semopenalex.org/work/W3196466252', 'https://semopenalex.org/work/W3180681495', 'https://semopenalex.org/work/W2334675349', 'https://semopenalex.org/work/W2246672683', 'https://semopenalex.org/work/W1984186332', 'https://semopenalex.org/work/W2112502349', 'https://semopenalex.org/work/W2150388917', 'https://semopenalex.org/work/W2077024675', 'https://semopenalex.org/work/W2792903117', 'https://semopenalex.org/work/W1977211978', 'https://semopenalex.org/work/W4386352568', 'https://semopenalex.org/work/W2135421180', 'https://semopenalex.org/work/W2890986802', 'https://semopenalex.org/work/W656907390', 'https://semopenalex.org/work/W2618462601', 'https://semopenalex.org/work/W1758105233', 'https://semopenalex.org/work/W1988343658', 'https://semopenalex.org/work/W4402350832', 'https://semopenalex.org/work/W3118410217', 'https://semopenalex.org/work/W2161770118', 'https://semopenalex.org/work/W4393531447', 'https://semopenalex.org/work/W2108491840', 'https://semopenalex.org/work/W2133585139', 'https://semopenalex.org/work/W4362508498', 'https://semopenalex.org/work/W2158693223', 'https://semopenalex.org/work/W2127324110', 'https://semopenalex.org/work/W2293327468', 'https://semopenalex.org/work/W2039574235', 'https://semopenalex.org/work/W2027743940', 'https://semopenalex.org/work/W2119248338', 'https://semopenalex.org/work/W4206389288', 'https://semopenalex.org/work/W2764441237', 'https://semopenalex.org/work/W2107105182', 'https://semopenalex.org/work/W1982662510', 'https://semopenalex.org/work/W2120967246', 'https://semopenalex.org/work/W2984425774', 'https://semopenalex.org/work/W2094757833', 'https://semopenalex.org/work/W2395280900', 'https://semopenalex.org/work/W2223218801', 'https://semopenalex.org/work/W2958049034', 'https://semopenalex.org/work/W3134221682', 'https://semopenalex.org/work/W2949567914', 'https://semopenalex.org/work/W1785723168', 'https://semopenalex.org/work/W3112939012', 'https://semopenalex.org/work/W2761162478', 'https://semopenalex.org/work/W4298174976', 'https://semopenalex.org/work/W2722359275', 'https://semopenalex.org/work/W2059944861', 'https://semopenalex.org/work/W2805259552', 'https://semopenalex.org/work/W1984769758', 'https://semopenalex.org/work/W2101608590', 'https://semopenalex.org/work/W2547849178', 'https://semopenalex.org/work/W2133682680', 'https://semopenalex.org/work/W2115355054', 'https://semopenalex.org/work/W2439315773', 'https://semopenalex.org/work/W2054059427', 'https://semopenalex.org/work/W2050578629', 'https://semopenalex.org/work/W2128254445', 'https://semopenalex.org/work/W1868782008', 'https://semopenalex.org/work/W2053078240', 'https://semopenalex.org/work/W2975505367', 'https://semopenalex.org/work/W2065628492', 'https://semopenalex.org/work/W2500060407', 'https://semopenalex.org/work/W2108933378', 'https://semopenalex.org/work/W4297977093', 'https://semopenalex.org/work/W2026114584', 'https://semopenalex.org/work/W4288095457', 'https://semopenalex.org/work/W2131668274', 'https://semopenalex.org/work/W1673682542', 'https://semopenalex.org/work/W2124543240', 'https://semopenalex.org/work/W2293217651', 'https://semopenalex.org/work/W2811277086', 'https://semopenalex.org/work/W4389078369', 'https://semopenalex.org/work/W2085150116', 'https://semopenalex.org/work/W2147674767', 'https://semopenalex.org/work/W1812922818', 'https://semopenalex.org/work/W2140267446', 'https://semopenalex.org/work/W2148407475', 'https://semopenalex.org/work/W1532372374', 'https://semopenalex.org/work/W4283215612', 'https://semopenalex.org/work/W2111934195', 'https://semopenalex.org/work/W2142780243', 'https://semopenalex.org/work/W2012992134', 'https://semopenalex.org/work/W4404963787', 'https://semopenalex.org/work/W4231953543', 'https://semopenalex.org/work/W1813016789', 'https://semopenalex.org/work/W2017812570', 'https://semopenalex.org/work/W4322706631', 'https://semopenalex.org/work/W2106903616', 'https://semopenalex.org/work/W3016021663', 'https://semopenalex.org/work/W2108057985', 'https://semopenalex.org/work/W2135940404', 'https://semopenalex.org/work/W2508911234', 'https://semopenalex.org/work/W2162882690', 'https://semopenalex.org/work/W2021144192', 'https://semopenalex.org/work/W1963919043', 'https://semopenalex.org/work/W2025968816', 'https://semopenalex.org/work/W4386728181', 'https://semopenalex.org/work/W4224861303', 'https://semopenalex.org/work/W1969428279', 'https://semopenalex.org/work/W2106652190', 'https://semopenalex.org/work/W2383111726', 'https://semopenalex.org/work/W2602238908', 'https://semopenalex.org/work/W2160172952', 'https://semopenalex.org/work/W2162696202', 'https://semopenalex.org/work/W2297506387', 'https://semopenalex.org/work/W4403926088', 'https://semopenalex.org/work/W2014068777', 'https://semopenalex.org/work/W2963504418', 'https://semopenalex.org/work/W2006713327', 'https://semopenalex.org/work/W2242734504', 'https://semopenalex.org/work/W2044542062', 'https://semopenalex.org/work/W4405562746', 'https://semopenalex.org/work/W2920910927', 'https://semopenalex.org/work/W4247141155', 'https://semopenalex.org/work/W2017148819', 'https://semopenalex.org/work/W2133887756', 'https://semopenalex.org/work/W4386728227', 'https://semopenalex.org/work/W4313478262', 'https://semopenalex.org/work/W2166805843', 'https://semopenalex.org/work/W3002449320', 'https://semopenalex.org/work/W4312819449', 'https://semopenalex.org/work/W2095121969', 'https://semopenalex.org/work/W4298181338', 'https://semopenalex.org/work/W4289367384', 'https://semopenalex.org/work/W4298025544', 'https://semopenalex.org/work/W1502655780', 'https://semopenalex.org/work/W2021159593', 'https://semopenalex.org/work/W4224933374', 'https://semopenalex.org/work/W2076199721', 'https://semopenalex.org/work/W2769244027', 'https://semopenalex.org/work/W4396898129', 'https://semopenalex.org/work/W2572859442', 'https://semopenalex.org/work/W2054656164', 'https://semopenalex.org/work/W1552869711', 'https://semopenalex.org/work/W2308119766', 'https://semopenalex.org/work/W2128912491', 'https://semopenalex.org/work/W2605257447', 'https://semopenalex.org/work/W2336180720', 'https://semopenalex.org/work/W2143623375', 'https://semopenalex.org/work/W4390050192', 'https://semopenalex.org/work/W1831978873', 'https://semopenalex.org/work/W2046546110', 'https://semopenalex.org/work/W2072116332', 'https://semopenalex.org/work/W2120659763', 'https://semopenalex.org/work/W2150869369', 'https://semopenalex.org/work/W4232393324', 'https://semopenalex.org/work/W4402559984', 'https://semopenalex.org/work/W2572400646', 'https://semopenalex.org/work/W4401750498', 'https://semopenalex.org/work/W2279111001', 'https://semopenalex.org/work/W2111182668', 'https://semopenalex.org/work/W2150474553', 'https://semopenalex.org/work/W1991118037', 'https://semopenalex.org/work/W1812926078', 'https://semopenalex.org/work/W2132288860', 'https://semopenalex.org/work/W1971056102', 'https://semopenalex.org/work/W4256256581', 'https://semopenalex.org/work/W2999073519', 'https://semopenalex.org/work/W4309321321', 'https://semopenalex.org/work/W2003603103', 'https://semopenalex.org/work/W4283760386', 'https://semopenalex.org/work/W2396828855', 'https://semopenalex.org/work/W2500472126', 'https://semopenalex.org/work/W4287230780', 'https://semopenalex.org/work/W1990472383', 'https://semopenalex.org/work/W1976082632', 'https://semopenalex.org/work/W1829543493', 'https://semopenalex.org/work/W2170076025', 'https://semopenalex.org/work/W2149962365', 'https://semopenalex.org/work/W43334451', 'https://semopenalex.org/work/W4312962873', 'https://semopenalex.org/work/W2245018327', 'https://semopenalex.org/work/W2587913063', 'https://semopenalex.org/work/W2092230235', 'https://semopenalex.org/work/W2760778129', 'https://semopenalex.org/work/W3043975171', 'https://semopenalex.org/work/W2898646732', 'https://semopenalex.org/work/W1940162557', 'https://semopenalex.org/work/W4226267095', 'https://semopenalex.org/work/W4242495832', 'https://semopenalex.org/work/W3106431100', 'https://semopenalex.org/work/W2166153231', 'https://semopenalex.org/work/W2143286465', 'https://semopenalex.org/work/W2145983295', 'https://semopenalex.org/work/W2399804733', 'https://semopenalex.org/work/W4400242511', 'https://semopenalex.org/work/W4248583122', 'https://semopenalex.org/work/W2113885710', 'https://semopenalex.org/work/W2053928191', 'https://semopenalex.org/work/W4243743111', 'https://semopenalex.org/work/W2162485250', 'https://semopenalex.org/work/W1990902012', 'https://semopenalex.org/work/W2123717445', 'https://semopenalex.org/work/W2164044612', 'https://semopenalex.org/work/W2063331068', 'https://semopenalex.org/work/W1972847653', 'https://semopenalex.org/work/W3183518399', 'https://semopenalex.org/work/W1577360515', 'https://semopenalex.org/work/W2141480726', 'https://semopenalex.org/work/W2958959679', 'https://semopenalex.org/work/W2098715428', 'https://semopenalex.org/work/W2521295940', 'https://semopenalex.org/work/W2052527654', 'https://semopenalex.org/work/W2963482739', 'https://semopenalex.org/work/W2028525469', 'https://semopenalex.org/work/W2102302018', 'https://semopenalex.org/work/W1764115161', 'https://semopenalex.org/work/W4381304944', 'https://semopenalex.org/work/W4406195226', 'https://semopenalex.org/work/W2142195632', 'https://semopenalex.org/work/W2160616608', 'https://semopenalex.org/work/W2118103599', 'https://semopenalex.org/work/W2018627313', 'https://semopenalex.org/work/W2126043778', 'https://semopenalex.org/work/W4310002000', 'https://semopenalex.org/work/W2115943920', 'https://semopenalex.org/work/W2125836087', 'https://semopenalex.org/work/W2791061193', 'https://semopenalex.org/work/W2137313509', 'https://semopenalex.org/work/W4400686367', 'https://semopenalex.org/work/W4287256164', 'https://semopenalex.org/work/W1585966427', 'https://semopenalex.org/work/W2481609999', 'https://semopenalex.org/work/W2892075135', 'https://semopenalex.org/work/W2115811215', 'https://semopenalex.org/work/W2096939401', 'https://semopenalex.org/work/W1946393290', 'https://semopenalex.org/work/W2953215316', 'https://semopenalex.org/work/W2109495528', 'https://semopenalex.org/work/W3098873033', 'https://semopenalex.org/work/W2078616504', 'https://semopenalex.org/work/W3103575293', 'https://semopenalex.org/work/W2408555870', 'https://semopenalex.org/work/W3163624263', 'https://semopenalex.org/work/W1983410565', 'https://semopenalex.org/work/W2188482746', 'https://semopenalex.org/work/W4299311104', 'https://semopenalex.org/work/W2038042968', 'https://semopenalex.org/work/W2978037608', 'https://semopenalex.org/work/W2123832893', 'https://semopenalex.org/work/W4308236214', 'https://semopenalex.org/work/W1987772002', 'https://semopenalex.org/work/W2096933831', 'https://semopenalex.org/work/W2160846724', 'https://semopenalex.org/work/W2159063898', 'https://semopenalex.org/work/W2184680168', 'https://semopenalex.org/work/W2287663230', 'https://semopenalex.org/work/W1947239887', 'https://semopenalex.org/work/W1967447459', 'https://semopenalex.org/work/W2114885066', 'https://semopenalex.org/work/W2103969908', 'https://semopenalex.org/work/W835410257', 'https://semopenalex.org/work/W2791120428', 'https://semopenalex.org/work/W4253923565', 'https://semopenalex.org/work/W3003820456', 'https://semopenalex.org/work/W2104561024', 'https://semopenalex.org/work/W1684154970', 'https://semopenalex.org/work/W2949908757', 'https://semopenalex.org/work/W4255556357', 'https://semopenalex.org/work/W2765225938', 'https://semopenalex.org/work/W2035899572', 'https://semopenalex.org/work/W3104967842', 'https://semopenalex.org/work/W2568027424', 'https://semopenalex.org/work/W2101522113', 'https://semopenalex.org/work/W4301512502', 'https://semopenalex.org/work/W2102935592', 'https://semopenalex.org/work/W2147023251', 'https://semopenalex.org/work/W4388118224', 'https://semopenalex.org/work/W1867833735', 'https://semopenalex.org/work/W2114028749', 'https://semopenalex.org/work/W2185477524', 'https://semopenalex.org/work/W2019064108', 'https://semopenalex.org/work/W4387322833', 'https://semopenalex.org/work/W2077128747', 'https://semopenalex.org/work/W2034340815', 'https://semopenalex.org/work/W2294916470', 'https://semopenalex.org/work/W2151951544', 'https://semopenalex.org/work/W2167460076', 'https://semopenalex.org/work/W2137477396', 'https://semopenalex.org/work/W1797142048', 'https://semopenalex.org/work/W2982533818', 'https://semopenalex.org/work/W1996956434', 'https://semopenalex.org/work/W2037489965', 'https://semopenalex.org/work/W2099441560', 'https://semopenalex.org/work/W2156984667', 'https://semopenalex.org/work/W2018206842', 'https://semopenalex.org/work/W4223588778', 'https://semopenalex.org/work/W1989790075', 'https://semopenalex.org/work/W218303851', 'https://semopenalex.org/work/W2944254439', 'https://semopenalex.org/work/W252315070', 'https://semopenalex.org/work/W2616097381', 'https://semopenalex.org/work/W2122768752', 'https://semopenalex.org/work/W3030025515', 'https://semopenalex.org/work/W2080412418', 'https://semopenalex.org/work/W2126607152', 'https://semopenalex.org/work/W2170015373', 'https://semopenalex.org/work/W1883544968', 'https://semopenalex.org/work/W2006665205', 'https://semopenalex.org/work/W2673901561', 'https://semopenalex.org/work/W3168228747', 'https://semopenalex.org/work/W2949122408', 'https://semopenalex.org/work/W266384355', 'https://semopenalex.org/work/W2162568813', 'https://semopenalex.org/work/W2107462260', 'https://semopenalex.org/work/W2117127275', 'https://semopenalex.org/work/W2005858158', 'https://semopenalex.org/work/W2949618677', 'https://semopenalex.org/work/W1984866494', 'https://semopenalex.org/work/W2970012313', 'https://semopenalex.org/work/W2115596980', 'https://semopenalex.org/work/W2636221734', 'https://semopenalex.org/work/W605016662', 'https://semopenalex.org/work/W2039712435', 'https://semopenalex.org/work/W1021733493', 'https://semopenalex.org/work/W2952571072', 'https://semopenalex.org/work/W2155485257', 'https://semopenalex.org/work/W1975448877', 'https://semopenalex.org/work/W2891725356', 'https://semopenalex.org/work/W2035239234', 'https://semopenalex.org/work/W2055673378', 'https://semopenalex.org/work/W4307934118', 'https://semopenalex.org/work/W2158228464', 'https://semopenalex.org/work/W4309877015', 'https://semopenalex.org/work/W4289306231', 'https://semopenalex.org/work/W2924551290', 'https://semopenalex.org/work/W989118312', 'https://semopenalex.org/work/W2740763524', 'https://semopenalex.org/work/W2624898243', 'https://semopenalex.org/work/W2151432162', 'https://semopenalex.org/work/W2126409288', 'https://semopenalex.org/work/W2027156706', 'https://semopenalex.org/work/W2007203285', 'https://semopenalex.org/work/W1565749342', 'https://semopenalex.org/work/W4249394463', 'https://semopenalex.org/work/W2138395721', 'https://semopenalex.org/work/W2114391062', 'https://semopenalex.org/work/W2111557101', 'https://semopenalex.org/work/W2141052825', 'https://semopenalex.org/work/W1571761681', 'https://semopenalex.org/work/W2767736209', 'https://semopenalex.org/work/W2098408658', 'https://semopenalex.org/work/W2106697542', 'https://semopenalex.org/work/W2099998345', 'https://semopenalex.org/work/W4226379915', 'https://semopenalex.org/work/W4383472744', 'https://semopenalex.org/work/W1530322092', 'https://semopenalex.org/work/W2293554103', 'https://semopenalex.org/work/W2618786793', 'https://semopenalex.org/work/W2146987051', 'https://semopenalex.org/work/W4400905987', 'https://semopenalex.org/work/W2109153110', 'https://semopenalex.org/work/W2296243746', 'https://semopenalex.org/work/W1988328721', 'https://semopenalex.org/work/W2136275432', 'https://semopenalex.org/work/W2558578462', 'https://semopenalex.org/work/W2109988731', 'https://semopenalex.org/work/W2097076848', 'https://semopenalex.org/work/W2109820484', 'https://semopenalex.org/work/W6747142', 'https://semopenalex.org/work/W2891828336', 'https://semopenalex.org/work/W195512975', 'https://semopenalex.org/work/W2883797206', 'https://semopenalex.org/work/W4224247224', 'https://semopenalex.org/work/W3129332190', 'https://semopenalex.org/work/W3036970724', 'https://semopenalex.org/work/W2116751005', 'https://semopenalex.org/work/W2912726147', 'https://semopenalex.org/work/W4288596410', 'https://semopenalex.org/work/W2032979218', 'https://semopenalex.org/work/W1828712802', 'https://semopenalex.org/work/W989952323', 'https://semopenalex.org/work/W2139649788', 'https://semopenalex.org/work/W4386728307', 'https://semopenalex.org/work/W1809937706', 'https://semopenalex.org/work/W2097867503', 'https://semopenalex.org/work/W4307786837', 'https://semopenalex.org/work/W2015282877', 'https://semopenalex.org/work/W2162031088', 'https://semopenalex.org/work/W2136849809', 'https://semopenalex.org/work/W1976452778', 'https://semopenalex.org/work/W2039091249', 'https://semopenalex.org/work/W2165018097', 'https://semopenalex.org/work/W2112866668', 'https://semopenalex.org/work/W2066062210', 'https://semopenalex.org/work/W2977723824', 'https://semopenalex.org/work/W2185064755', 'https://semopenalex.org/work/W1587379027', 'https://semopenalex.org/work/W2970497931', 'https://semopenalex.org/work/W4401498566', 'https://semopenalex.org/work/W2316293614', 'https://semopenalex.org/work/W1624008340', 'https://semopenalex.org/work/W1995977330', 'https://semopenalex.org/work/W3123138559', 'https://semopenalex.org/work/W2131752107', 'https://semopenalex.org/work/W2182267970', 'https://semopenalex.org/work/W4300587259', 'https://semopenalex.org/work/W3161900557', 'https://semopenalex.org/work/W2106900553', 'https://semopenalex.org/work/W4362607752', 'https://semopenalex.org/work/W2463302795', 'https://semopenalex.org/work/W4292214108', 'https://semopenalex.org/work/W2955178723', 'https://semopenalex.org/work/W3005113692', 'https://semopenalex.org/work/W1968153028', 'https://semopenalex.org/work/W2213498014', 'https://semopenalex.org/work/W2808086194', 'https://semopenalex.org/work/W4297422548', 'https://semopenalex.org/work/W2934437784', 'https://semopenalex.org/work/W2342894014', 'https://semopenalex.org/work/W4309830289', 'https://semopenalex.org/work/W2171258724', 'https://semopenalex.org/work/W2956308890', 'https://semopenalex.org/work/W4379653995', 'https://semopenalex.org/work/W2130794128', 'https://semopenalex.org/work/W2158368814', 'https://semopenalex.org/work/W2136390628', 'https://semopenalex.org/work/W4388483721', 'https://semopenalex.org/work/W1891629850', 'https://semopenalex.org/work/W2624932408', 'https://semopenalex.org/work/W3199731519', 'https://semopenalex.org/work/W2151961258', 'https://semopenalex.org/work/W2127631196', 'https://semopenalex.org/work/W2124085076', 'https://semopenalex.org/work/W2501553433', 'https://semopenalex.org/work/W1965551074', 'https://semopenalex.org/work/W2044764741', 'https://semopenalex.org/work/W2055070400', 'https://semopenalex.org/work/W4297229624', 'https://semopenalex.org/work/W2024240534', 'https://semopenalex.org/work/W3047457796', 'https://semopenalex.org/work/W2151821220', 'https://semopenalex.org/work/W2101633987', 'https://semopenalex.org/work/W2155686486', 'https://semopenalex.org/work/W2066478156', 'https://semopenalex.org/work/W3176828173', 'https://semopenalex.org/work/W2062473949', 'https://semopenalex.org/work/W2117083020', 'https://semopenalex.org/work/W2150143709', 'https://semopenalex.org/work/W2138556535', 'https://semopenalex.org/work/W2112902331', 'https://semopenalex.org/work/W2143708007', 'https://semopenalex.org/work/W3158448776', 'https://semopenalex.org/work/W1945620949', 'https://semopenalex.org/work/W3097663184', 'https://semopenalex.org/work/W4386362571', 'https://semopenalex.org/work/W4403704152', 'https://semopenalex.org/work/W2611160010', 'https://semopenalex.org/work/W4386728259', 'https://semopenalex.org/work/W2150258751', 'https://semopenalex.org/work/W2170329684', 'https://semopenalex.org/work/W2035640322', 'https://semopenalex.org/work/W2963455631', 'https://semopenalex.org/work/W2117687155', 'https://semopenalex.org/work/W2141104431', 'https://semopenalex.org/work/W2164826027', 'https://semopenalex.org/work/W2035561336', 'https://semopenalex.org/work/W2119330876', 'https://semopenalex.org/work/W2949402315', 'https://semopenalex.org/work/W2663325069', 'https://semopenalex.org/work/W2086613112', 'https://semopenalex.org/work/W2033769372', 'https://semopenalex.org/work/W2801854492', 'https://semopenalex.org/work/W2184393924', 'https://semopenalex.org/work/W2124480047', 'https://semopenalex.org/work/W3106343576', 'https://semopenalex.org/work/W2140386412', 'https://semopenalex.org/work/W2162965487', 'https://semopenalex.org/work/W2104091137', 'https://semopenalex.org/work/W2032099309', 'https://semopenalex.org/work/W2140311422', 'https://semopenalex.org/work/W1774599862', 'https://semopenalex.org/work/W2169536566', 'https://semopenalex.org/work/W1965141814', 'https://semopenalex.org/work/W3009810166', 'https://semopenalex.org/work/W1957871232', 'https://semopenalex.org/work/W4387698499', 'https://semopenalex.org/work/W2127735446', 'https://semopenalex.org/work/W2119876849', 'https://semopenalex.org/work/W1987580879', 'https://semopenalex.org/work/W2603840323', 'https://semopenalex.org/work/W2397760318', 'https://semopenalex.org/work/W3026501815', 'https://semopenalex.org/work/W3163954017', 'https://semopenalex.org/work/W2491625832', 'https://semopenalex.org/work/W2940395492', 'https://semopenalex.org/work/W4315606555', 'https://semopenalex.org/work/W4379232433', 'https://semopenalex.org/work/W2096548851', 'https://semopenalex.org/work/W2131745743', 'https://semopenalex.org/work/W2101310031', 'https://semopenalex.org/work/W2746485297', 'https://semopenalex.org/work/W1971235196', 'https://semopenalex.org/work/W1818779082', 'https://semopenalex.org/work/W4397028652', 'https://semopenalex.org/work/W2153058280', 'https://semopenalex.org/work/W2025132922', 'https://semopenalex.org/work/W4304194230', 'https://semopenalex.org/work/W2171540875', 'https://semopenalex.org/work/W4287666146', 'https://semopenalex.org/work/W1507181737', 'https://semopenalex.org/work/W2126230854', 'https://semopenalex.org/work/W2143053621', 'https://semopenalex.org/work/W2159202008', 'https://semopenalex.org/work/W2106616524', 'https://semopenalex.org/work/W2144570150', 'https://semopenalex.org/work/W1685599524', 'https://semopenalex.org/work/W2162160876', 'https://semopenalex.org/work/W4376141221', 'https://semopenalex.org/work/W2110043300', 'https://semopenalex.org/work/W1814362492', 'https://semopenalex.org/work/W1543904160', 'https://semopenalex.org/work/W4404179957', 'https://semopenalex.org/work/W2114059901', 'https://semopenalex.org/work/W2103300762', 'https://semopenalex.org/work/W4200564371', 'https://semopenalex.org/work/W2477294189', 'https://semopenalex.org/work/W2701634507', 'https://semopenalex.org/work/W3103773508', 'https://semopenalex.org/work/W1997581342', 'https://semopenalex.org/work/W2155624091', 'https://semopenalex.org/work/W2140749977', 'https://semopenalex.org/work/W2140807309', 'https://semopenalex.org/work/W2784488119', 'https://semopenalex.org/work/W1984896113', 'https://semopenalex.org/work/W2143780518', 'https://semopenalex.org/work/W2761218667', 'https://semopenalex.org/work/W2163889321', 'https://semopenalex.org/work/W2557336675', 'https://semopenalex.org/work/W2182388403', 'https://semopenalex.org/work/W2968691811', 'https://semopenalex.org/work/W3206047407', 'https://semopenalex.org/work/W949508384', 'https://semopenalex.org/work/W2145876651', 'https://semopenalex.org/work/W2106293056', 'https://semopenalex.org/work/W2294282334', 'https://semopenalex.org/work/W1958624633', 'https://semopenalex.org/work/W3012817764', 'https://semopenalex.org/work/W1825244231', 'https://semopenalex.org/work/W2075650606', 'https://semopenalex.org/work/W2125239611', 'https://semopenalex.org/work/W2068189057', 'https://semopenalex.org/work/W86912345', 'https://semopenalex.org/work/W2166862038', 'https://semopenalex.org/work/W4256384691', 'https://semopenalex.org/work/W3097189301', 'https://semopenalex.org/work/W2086931264', 'https://semopenalex.org/work/W3005631622', 'https://semopenalex.org/work/W1797286681', 'https://semopenalex.org/work/W2135180572', 'https://semopenalex.org/work/W4384811612', 'https://semopenalex.org/work/W2115645605', 'https</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W862033376', 'https://semopenalex.org/work/W4242142265', 'https://semopenalex.org/work/W1484203263', 'https://semopenalex.org/work/W2977911811', 'https://semopenalex.org/work/W4393908582', 'https://semopenalex.org/work/W4404915142', 'https://semopenalex.org/work/W2811468211', 'https://semopenalex.org/work/W3029899401', 'https://semopenalex.org/work/W3143959337', 'https://semopenalex.org/work/W2929751249', 'https://semopenalex.org/work/W3190617503', 'https://semopenalex.org/work/W1985504739', 'https://semopenalex.org/work/W3095347735', 'https://semopenalex.org/work/W2610274107', 'https://semopenalex.org/work/W1834136374', 'https://semopenalex.org/work/W2753671526', 'https://semopenalex.org/work/W4386929049', 'https://semopenalex.org/work/W2102905932', 'https://semopenalex.org/work/W2751622533', 'https://semopenalex.org/work/W2940716241', 'https://semopenalex.org/work/W2898820983', 'https://semopenalex.org/work/W4225088745', 'https://semopenalex.org/work/W4312282153', 'https://semopenalex.org/work/W4211259494', 'https://semopenalex.org/work/W4391423303', 'https://semopenalex.org/work/W4245844025', 'https://semopenalex.org/work/W4324150147', 'https://semopenalex.org/work/W2904910662', 'https://semopenalex.org/work/W1751138515', 'https://semopenalex.org/work/W1710215999', 'https://semopenalex.org/work/W4213455276', 'https://semopenalex.org/work/W4214593503', 'https://semopenalex.org/work/W2751429127', 'https://semopenalex.org/work/W3090583924', 'https://semopenalex.org/work/W2898667062', 'https://semopenalex.org/work/W2033617925', 'https://semopenalex.org/work/W2899389394', 'https://semopenalex.org/work/W2752031858', 'https://semopenalex.org/work/W2075286904', 'https://semopenalex.org/work/W4404026276', 'https://semopenalex.org/work/W4389891943', 'https://semopenalex.org/work/W2513683703', 'https://semopenalex.org/work/W2079488626', 'https://semopenalex.org/work/W2898822823', 'https://semopenalex.org/work/W4287071181', 'https://semopenalex.org/work/W2520352456', 'https://semopenalex.org/work/W3000816869', 'https://semopenalex.org/work/W4404977899', 'https://semopenalex.org/work/W2913594206', 'https://semopenalex.org/work/W2089266363', 'https://semopenalex.org/work/W4389897704', 'https://semopenalex.org/work/W2088502162', 'https://semopenalex.org/work/W2019487042', 'https://semopenalex.org/work/W4393752214', 'https://semopenalex.org/work/W4387085789', 'https://semopenalex.org/work/W4392429145', 'https://semopenalex.org/work/W2605978692', 'https://semopenalex.org/work/W3204393727', 'https://semopenalex.org/work/W2346980133', 'https://semopenalex.org/work/W3037695612', 'https://semopenalex.org/work/W2902941289', 'https://semopenalex.org/work/W2090841027', 'https://semopenalex.org/work/W4256454723', 'https://semopenalex.org/work/W2519914856', 'https://semopenalex.org/work/W4211095911', 'https://semopenalex.org/work/W3035628382', 'https://semopenalex.org/work/W3126826400', 'https://semopenalex.org/work/W2409578015', 'https://semopenalex.org/work/W1981715407', 'https://semopenalex.org/work/W3160199101', 'https://semopenalex.org/work/W3188420011', 'https://semopenalex.org/work/W4307475355', 'https://semopenalex.org/work/W3007521088', 'https://semopenalex.org/work/W2752493326', 'https://semopenalex.org/work/W2465877051', 'https://semopenalex.org/work/W4406805368', 'https://semopenalex.org/work/W1976594634', 'https://semopenalex.org/work/W4315777028', 'https://semopenalex.org/work/W2973132733', 'https://semopenalex.org/work/W3030735111', 'https://semopenalex.org/work/W2088270376', 'https://semopenalex.org/work/W4308467568', 'https://semopenalex.org/work/W2037697732', 'https://semopenalex.org/work/W3110075456', 'https://semopenalex.org/work/W3196772354', 'https://semopenalex.org/work/W2774467220', 'https://semopenalex.org/work/W2791540051', 'https://semopenalex.org/work/W2133951180', 'https://semopenalex.org/work/W2318574332', 'https://semopenalex.org/work/W4396832885', 'https://semopenalex.org/work/W4383220643', 'https://semopenalex.org/work/W2518694405', 'https://semopenalex.org/work/W2072697691', 'https://semopenalex.org/work/W4324152586', 'https://semopenalex.org/work/W2114418543', 'https://semopenalex.org/work/W2110284634', 'https://semopenalex.org/work/W4287729941', 'https://semopenalex.org/work/W2187647369', 'https://semopenalex.org/work/W3204110051', 'https://semopenalex.org/work/W2972600126', 'https://semopenalex.org/work/W4324154015', 'https://semopenalex.org/work/W2121082751', 'https://semopenalex.org/work/W3181801907', 'https://semopenalex.org/work/W4319452484', 'https://semopenalex.org/work/W2888386951', 'https://semopenalex.org/work/W2288812598', 'https://semopenalex.org/work/W4387421144', 'https://semopenalex.org/work/W2520077052', 'https://semopenalex.org/work/W3117330688', 'https://semopenalex.org/work/W2008208122', 'https://semopenalex.org/work/W3163921267', 'https://semopenalex.org/work/W3033480106', 'https://semopenalex.org/work/W2613908791', 'https://semopenalex.org/work/W2177601947', 'https://semopenalex.org/work/W2977617583', 'https://semopenalex.org/work/W2752658305', 'https://semopenalex.org/work/W3161974712', 'https://semopenalex.org/work/W2975736083', 'https://semopenalex.org/work/W4404373433', 'https://semopenalex.org/work/W2981708234', 'https://semopenalex.org/work/W2986358413', 'https://semopenalex.org/work/W2154752229', 'https://semopenalex.org/work/W2972419497', 'https://semopenalex.org/work/W3033839905', 'https://semopenalex.org/work/W1877041815', 'https://semopenalex.org/work/W4200018492', 'https://semopenalex.org/work/W4389256452', 'https://semopenalex.org/work/W2515389026', 'https://semopenalex.org/work/W4283397308', 'https://semopenalex.org/work/W4366549587', 'https://semopenalex.org/work/W3165155612', 'https://semopenalex.org/work/W4394825420', 'https://semopenalex.org/work/W3200245219', 'https://semopenalex.org/work/W2795503716', 'https://semopenalex.org/work/W2611151946', 'https://semopenalex.org/work/W2789478762', 'https://semopenalex.org/work/W4366547357', 'https://semopenalex.org/work/W4324150573', 'https://semopenalex.org/work/W3177151358', 'https://semopenalex.org/work/W2977597077', 'https://semopenalex.org/work/W3171875220', 'https://semopenalex.org/work/W2942324097', 'https://semopenalex.org/work/W3160545975', 'https://semopenalex.org/work/W4377250056', 'https://semopenalex.org/work/W4224255688', 'https://semopenalex.org/work/W4230967253', 'https://semopenalex.org/work/W2978280554', 'https://semopenalex.org/work/W4312646439', 'https://semopenalex.org/work/W2738622408', 'https://semopenalex.org/work/W2754101670', 'https://semopenalex.org/work/W2898627444', 'https://semopenalex.org/work/W2007978709', 'https://semopenalex.org/work/W4386163788', 'https://semopenalex.org/work/W2557881781', 'https://semopenalex.org/work/W4241528240', 'https://semopenalex.org/work/W2899470128', 'https://semopenalex.org/work/W2790187313', 'https://semopenalex.org/work/W2611685970', 'https://semopenalex.org/work/W1246643588', 'https://semopenalex.org/work/W4292261957', 'https://semopenalex.org/work/W4294891921', 'https://semopenalex.org/work/W2131570437', 'https://semopenalex.org/work/W4224242333', 'https://semopenalex.org/work/W3096658838', 'https://semopenalex.org/work/W2598459295', 'https://semopenalex.org/work/W3030149602', 'https://semopenalex.org/work/W4404569483', 'https://semopenalex.org/work/W2344158693', 'https://semopenalex.org/work/W2156243282', 'https://semopenalex.org/work/W2057014910', 'https://semopenalex.org/work/W4399763801', 'https://semopenalex.org/work/W3188766356', 'https://semopenalex.org/work/W2108512685', 'https://semopenalex.org/work/W4220905243', 'https://semopenalex.org/work/W2902563098', 'https://semopenalex.org/work/W2017727997', 'https://semopenalex.org/work/W3028180736', 'https://semopenalex.org/work/W4210450354', 'https://semopenalex.org/work/W1985142918', 'https://semopenalex.org/work/W3033866035', 'https://semopenalex.org/work/W4379879736', 'https://semopenalex.org/work/W3112090964', 'https://semopenalex.org/work/W4366583934', 'https://semopenalex.org/work/W2012358521', 'https://semopenalex.org/work/W3036463368', 'https://semopenalex.org/work/W3162177365', 'https://semopenalex.org/work/W2273076933', 'https://semopenalex.org/work/W3084729599', 'https://semopenalex.org/work/W3194688439', 'https://semopenalex.org/work/W2294361658', 'https://semopenalex.org/work/W2810881717', 'https://semopenalex.org/work/W2901616108', 'https://semopenalex.org/work/W1568803211', 'https://semopenalex.org/work/W2561633795', 'https://semopenalex.org/work/W2256119246', 'https://semopenalex.org/work/W4366583171', 'https://semopenalex.org/work/W4310446060', 'https://semopenalex.org/work/W2921058600', 'https://semopenalex.org/work/W2755164339', 'https://semopenalex.org/work/W2159491375', 'https://semopenalex.org/work/W4366597679', 'https://semopenalex.org/work/W1510660243', 'https://semopenalex.org/work/W2775793881', 'https://semopenalex.org/work/W2903849727', 'https://semopenalex.org/work/W1704771702', 'https://semopenalex.org/work/W4241289669', 'https://semopenalex.org/work/W2913475584', 'https://semopenalex.org/work/W3141512745', 'https://semopenalex.org/work/W3094759305', 'https://semopenalex.org/work/W2033680836', 'https://semopenalex.org/work/W4391210282', 'https://semopenalex.org/work/W2294561329', 'https://semopenalex.org/work/W1522158218', 'https://semopenalex.org/work/W1965526182', 'https://semopenalex.org/work/W2078369692', 'https://semopenalex.org/work/W2897414246', 'https://semopenalex.org/work/W4312572845', 'https://semopenalex.org/work/W3196785132', 'https://semopenalex.org/work/W2793897377', 'https://semopenalex.org/work/W1982984133', 'https://semopenalex.org/work/W2942738233', 'https://semopenalex.org/work/W3203088685', 'https://semopenalex.org/work/W4312841490', 'https://semopenalex.org/work/W4239396382', 'https://semopenalex.org/work/W4230032809', 'https://semopenalex.org/work/W3121062173', 'https://semopenalex.org/work/W4233748389', 'https://semopenalex.org/work/W2102667737', 'https://semopenalex.org/work/W3163521409', 'https://semopenalex.org/work/W3197280612', 'https://semopenalex.org/work/W3215451397', 'https://semopenalex.org/work/W3201213010', 'https://semopenalex.org/work/W2978422619', 'https://semopenalex.org/work/W3034123328', 'https://semopenalex.org/work/W2346027641', 'https://semopenalex.org/work/W2576215493', 'https://semopenalex.org/work/W4224305168', 'https://semopenalex.org/work/W4394883037', 'https://semopenalex.org/work/W2973016298', 'https://semopenalex.org/work/W3003204379', 'https://semopenalex.org/work/W2752561456', 'https://semopenalex.org/work/W2762577600', 'https://semopenalex.org/work/W2896178739', 'https://semopenalex.org/work/W2063007215', 'https://semopenalex.org/work/W4234952088', 'https://semopenalex.org/work/W2903417746', 'https://semopenalex.org/work/W4214504130', 'https://semopenalex.org/work/W2972889118', 'https://semopenalex.org/work/W3186694431', 'https://semopenalex.org/work/W2519458229', 'https://semopenalex.org/work/W3119309106', 'https://semopenalex.org/work/W2977979696', 'https://semopenalex.org/work/W2519730427', 'https://semopenalex.org/work/W3135072684', 'https://semopenalex.org/work/W3015284588', 'https://semopenalex.org/work/W2461856634', 'https://semopenalex.org/work/W2962975962', 'https://semopenalex.org/work/W3182364466', 'https://semopenalex.org/work/W3202016550', 'https://semopenalex.org/work/W4401406766', 'https://semopenalex.org/work/W3162832522', 'https://semopenalex.org/work/W3009160614', 'https://semopenalex.org/work/W3022986551', 'https://semopenalex.org/work/W3033704563', 'https://semopenalex.org/work/W4312605566', 'https://semopenalex.org/work/W2885122621', 'https://semopenalex.org/work/W2602397751', 'https://semopenalex.org/work/W4214684069', 'https://semopenalex.org/work/W2055070571', 'https://semopenalex.org/work/W4229043996', 'https://semopenalex.org/work/W2129488573', 'https://semopenalex.org/work/W2768260654', 'https://semopenalex.org/work/W2752042616', 'https://semopenalex.org/work/W2737450254', 'https://semopenalex.org/work/W2725971658', 'https://semopenalex.org/work/W2108911539', 'https://semopenalex.org/work/W4402722090', 'https://semopenalex.org/work/W3163327897', 'https://semopenalex.org/work/W3178374478', 'https://semopenalex.org/work/W2973140914', 'https://semopenalex.org/work/W1998431265', 'https://semopenalex.org/work/W3035727063', 'https://semopenalex.org/work/W4404873047', 'https://semopenalex.org/work/W3163085734', 'https://semopenalex.org/work/W3096988350', 'https://semopenalex.org/work/W4366967286', 'https://semopenalex.org/work/W2052607251', 'https://semopenalex.org/work/W4379033872', 'https://semopenalex.org/work/W3142764819', 'https://semopenalex.org/work/W3024164567', 'https://semopenalex.org/work/W2087800309', 'https://semopenalex.org/work/W2263778529', 'https://semopenalex.org/work/W2519558346', 'https://semopenalex.org/work/W4366598255', 'https://semopenalex.org/work/W791468510', 'https://semopenalex.org/work/W2567779880', 'https://semopenalex.org/work/W2091382943', 'https://semopenalex.org/work/W3028614762', 'https://semopenalex.org/work/W3193396842', 'https://semopenalex.org/work/W2798335699', 'https://semopenalex.org/work/W2520661109', 'https://semopenalex.org/work/W2548042282', 'https://semopenalex.org/work/W2551155618', 'https://semopenalex.org/work/W4393067390', 'https://semopenalex.org/work/W3201451193', 'https://semopenalex.org/work/W3184531492', 'https://semopenalex.org/work/W3206366132', 'https://semopenalex.org/work/W3206712787', 'https://semopenalex.org/work/W2061583538', 'https://semopenalex.org/work/W4400430993', 'https://semopenalex.org/work/W2909558410', 'https://semopenalex.org/work/W2625122753', 'https://semopenalex.org/work/W3032857618', 'https://semopenalex.org/work/W3003369003', 'https://semopenalex.org/work/W2602429360', 'https://semopenalex.org/work/W3161889270', 'https://semopenalex.org/work/W3011317564', 'https://semopenalex.org/work/W1975028026', 'https://semopenalex.org/work/W2067004171', 'https://semopenalex.org/work/W4200616097', 'https://semopenalex.org/work/W2898145840', 'https://semopenalex.org/work/W2024357873', 'https://semopenalex.org/work/W2968293343', 'https://semopenalex.org/work/W3183940262', 'https://semopenalex.org/work/W2795581336', 'https://semopenalex.org/work/W4309619903', 'https://semopenalex.org/work/W4238249729', 'https://semopenalex.org/work/W2060118520', 'https://semopenalex.org/work/W3047192924', 'https://semopenalex.org/work/W2139733095', 'https://semopenalex.org/work/W2968884122', 'https://semopenalex.org/work/W4251839844', 'https://semopenalex.org/work/W2899333601', 'https://semopenalex.org/work/W2920869031', 'https://semopenalex.org/work/W3032662532', 'https://semopenalex.org/work/W2753801751', 'https://semopenalex.org/work/W3028790862', 'https://semopenalex.org/work/W2054886944', 'https://semopenalex.org/work/W2169202944', 'https://semopenalex.org/work/W2537880674', 'https://semopenalex.org/work/W2137846113', 'https://semopenalex.org/work/W2119929248', 'https://semopenalex.org/work/W3062298123', 'https://semopenalex.org/work/W2895512277', 'https://semopenalex.org/work/W1860259465', 'https://semopenalex.org/work/W2293208404', 'https://semopenalex.org/work/W2899305210', 'https://semopenalex.org/work/W4210768549', 'https://semopenalex.org/work/W2978827769', 'https://semopenalex.org/work/W4400189062', 'https://semopenalex.org/work/W3193717464', 'https://semopenalex.org/work/W4361189030', 'https://semopenalex.org/work/W4399126764', 'https://semopenalex.org/work/W2591593006', 'https://semopenalex.org/work/W3091007149', 'https://semopenalex.org/work/W4225133274', 'https://semopenalex.org/work/W2519250278', 'https://semopenalex.org/work/W2149683870', 'https://semopenalex.org/work/W4387606708', 'https://semopenalex.org/work/W2136876773', 'https://semopenalex.org/work/W4225473762', 'https://semopenalex.org/work/W3031395001', 'https://semopenalex.org/work/W4385856456', 'https://semopenalex.org/work/W2410138785', 'https://semopenalex.org/work/W4324151651', 'https://semopenalex.org/work/W2082538501', 'https://semopenalex.org/work/W2755506150', 'https://semopenalex.org/work/W2165066165', 'https://semopenalex.org/work/W2092202628', 'https://semopenalex.org/work/W2753363725', 'https://semopenalex.org/work/W3110591323', 'https://semopenalex.org/work/W4402722131', 'https://semopenalex.org/work/W2068367136', 'https://semopenalex.org/work/W3095367321', 'https://semopenalex.org/work/W1993984611', 'https://semopenalex.org/work/W2976524236', 'https://semopenalex.org/work/W3112877194', 'https://semopenalex.org/work/W3095740806', 'https://semopenalex.org/work/W4224279084', 'https://semopenalex.org/work/W2972759039', 'https://semopenalex.org/work/W4200525013', 'https://semopenalex.org/work/W2346600598', 'https://semopenalex.org/work/W1553133540', 'https://semopenalex.org/work/W3198359754', 'https://semopenalex.org/work/W3121775658', 'https://semopenalex.org/work/W1993514406', 'https://semopenalex.org/work/W2944843734', 'https://semopenalex.org/work/W3130372017', 'https://semopenalex.org/work/W2152557601', 'https://semopenalex.org/work/W2080327955', 'https://semopenalex.org/work/W2921194733', 'https://semopenalex.org/work/W2972702127', 'https://semopenalex.org/work/W2921533080', 'https://semopenalex.org/work/W4232727837', 'https://semopenalex.org/work/W1771936601', 'https://semopenalex.org/work/W1524596993', 'https://semopenalex.org/work/W2752490344', 'https://semopenalex.org/work/W4393067517', 'https://semopenalex.org/work/W4221065578', 'https://semopenalex.org/work/W2401872729', 'https://semopenalex.org/work/W2750727230', 'https://semopenalex.org/work/W2946308339', 'https://semopenalex.org/work/W2528963299', 'https://semopenalex.org/work/W2973046614', 'https://semopenalex.org/work/W3161959528', 'https://semopenalex.org/work/W2072490274', 'https://semopenalex.org/work/W4366588423', 'https://semopenalex.org/work/W3005470382', 'https://semopenalex.org/work/W4307204790', 'https://semopenalex.org/work/W2610780371', 'https://semopenalex.org/work/W2966384546', 'https://semopenalex.org/work/W3161202338', 'https://semopenalex.org/work/W3163078982', 'https://semopenalex.org/work/W4393102879', 'https://semopenalex.org/work/W3030577208', 'https://semopenalex.org/work/W3043824623', 'https://semopenalex.org/work/W2736312195', 'https://semopenalex.org/work/W2610676428', 'https://semopenalex.org/work/W4393877125']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2999064497', 'https://semopenalex.org/work/W104836782', 'https://semopenalex.org/work/W4385357601', 'https://semopenalex.org/work/W4210537605', 'https://semopenalex.org/work/W4385469930', 'https://semopenalex.org/work/W166851098', 'https://semopenalex.org/work/W4235945615', 'https://semopenalex.org/work/W2789741548', 'https://semopenalex.org/work/W2963796874', 'https://semopenalex.org/work/W4299986738', 'https://semopenalex.org/work/W1992370839', 'https://semopenalex.org/work/W4388430529', 'https://semopenalex.org/work/W4320932337', 'https://semopenalex.org/work/W4256184212', 'https://semopenalex.org/work/W3033508120', 'https://semopenalex.org/work/W2145318915', 'https://semopenalex.org/work/W3121675905', 'https://semopenalex.org/work/W1978387225', 'https://semopenalex.org/work/W2126925718', 'https://semopenalex.org/work/W2949607879', 'https://semopenalex.org/work/W2281083481', 'https://semopenalex.org/work/W3152287740', 'https://semopenalex.org/work/W2117256127', 'https://semopenalex.org/work/W2006123925', 'https://semopenalex.org/work/W1763880239', 'https://semopenalex.org/work/W2074016404', 'https://semopenalex.org/work/W2403109826', 'https://semopenalex.org/work/W2162070658', 'https://semopenalex.org/work/W2113728843', 'https://semopenalex.org/work/W2963798875', 'https://semopenalex.org/work/W2964309965', 'https://semopenalex.org/work/W2175722859', 'https://semopenalex.org/work/W1540998622', 'https://semopenalex.org/work/W2037666581', 'https://semopenalex.org/work/W4296949654', 'https://semopenalex.org/work/W4210695268', 'https://semopenalex.org/work/W2268530658', 'https://semopenalex.org/work/W4405627300', 'https://semopenalex.org/work/W2138849026', 'https://semopenalex.org/work/W2952904556', 'https://semopenalex.org/work/W206712979', 'https://semopenalex.org/work/W2076856026', 'https://semopenalex.org/work/W1982128583', 'https://semopenalex.org/work/W4287866996', 'https://semopenalex.org/work/W4280560128', 'https://semopenalex.org/work/W2569145132', 'https://semopenalex.org/work/W2117939945', 'https://semopenalex.org/work/W2951864268', 'https://semopenalex.org/work/W4254726953', 'https://semopenalex.org/work/W4247804386', 'https://semopenalex.org/work/W2950851228', 'https://semopenalex.org/work/W2890802049', 'https://semopenalex.org/work/W4387390194', 'https://semopenalex.org/work/W1986379969', 'https://semopenalex.org/work/W1964196237', 'https://semopenalex.org/work/W194727567', 'https://semopenalex.org/work/W4300128383', 'https://semopenalex.org/work/W4404152970', 'https://semopenalex.org/work/W2949127580', 'https://semopenalex.org/work/W4288622558', 'https://semopenalex.org/work/W2096776718', 'https://semopenalex.org/work/W1522994628', 'https://semopenalex.org/work/W4363672021', 'https://semopenalex.org/work/W2024874686', 'https://semopenalex.org/work/W4394666077', 'https://semopenalex.org/work/W2950873171', 'https://semopenalex.org/work/W4402223986', 'https://semopenalex.org/work/W2970902883', 'https://semopenalex.org/work/W4308796007', 'https://semopenalex.org/work/W2028560778', 'https://semopenalex.org/work/W4399283990', 'https://semopenalex.org/work/W3098888522', 'https://semopenalex.org/work/W2377698676', 'https://semopenalex.org/work/W2295258105', 'https://semopenalex.org/work/W2080416224', 'https://semopenalex.org/work/W2951667795', 'https://semopenalex.org/work/W2895641489', 'https://semopenalex.org/work/W2241785433', 'https://semopenalex.org/work/W2102047759', 'https://semopenalex.org/work/W2783474972', 'https://semopenalex.org/work/W1996889815', 'https://semopenalex.org/work/W3027363685', 'https://semopenalex.org/work/W2397505357', 'https://semopenalex.org/work/W2138594241', 'https://semopenalex.org/work/W4321162376', 'https://semopenalex.org/work/W2319916672', 'https://semopenalex.org/work/W2964284126', 'https://semopenalex.org/work/W2975537528', 'https://semopenalex.org/work/W2106220493', 'https://semopenalex.org/work/W2056078401', 'https://semopenalex.org/work/W2153885335', 'https://semopenalex.org/work/W2949472060', 'https://semopenalex.org/work/W3015555506', 'https://semopenalex.org/work/W2494755989', 'https://semopenalex.org/work/W2912834256', 'https://semopenalex.org/work/W2127420314', 'https://semopenalex.org/work/W2922391289', 'https://semopenalex.org/work/W2268144054', 'https://semopenalex.org/work/W1803576938', 'https://semopenalex.org/work/W4399526822', 'https://semopenalex.org/work/W2036207413', 'https://semopenalex.org/work/W4285771978', 'https://semopenalex.org/work/W2963234396', 'https://semopenalex.org/work/W4291327627', 'https://semopenalex.org/work/W2002357371', 'https://semopenalex.org/work/W2100755518', 'https://semopenalex.org/work/W2998711538', 'https://semopenalex.org/work/W2110263320', 'https://semopenalex.org/work/W2086526821', 'https://semopenalex.org/work/W2403407377', 'https://semopenalex.org/work/W2913039569', 'https://semopenalex.org/work/W2406352678', 'https://semopenalex.org/work/W2112104566', 'https://semopenalex.org/work/W4294062259', 'https://semopenalex.org/work/W2970729539', 'https://semopenalex.org/work/W4245405003', 'https://semopenalex.org/work/W2972814152', 'https://semopenalex.org/work/W2012023458', 'https://semopenalex.org/work/W2228088547', 'https://semopenalex.org/work/W1990566310', 'https://semopenalex.org/work/W4379117654', 'https://semopenalex.org/work/W2101281054', 'https://semopenalex.org/work/W2023872558', 'https://semopenalex.org/work/W2775366288', 'https://semopenalex.org/work/W2099234771', 'https://semopenalex.org/work/W3159580594', 'https://semopenalex.org/work/W4392537504', 'https://semopenalex.org/work/W4362701421', 'https://semopenalex.org/work/W209907261', 'https://semopenalex.org/work/W1583372918', 'https://semopenalex.org/work/W2507818253', 'https://semopenalex.org/work/W1589028142', 'https://semopenalex.org/work/W2963919789', 'https://semopenalex.org/work/W1980319880', 'https://semopenalex.org/work/W2102686643', 'https://semopenalex.org/work/W2908270252', 'https://semopenalex.org/work/W2951276066', 'https://semopenalex.org/work/W2952273918', 'https://semopenalex.org/work/W2949755881', 'https://semopenalex.org/work/W2292883116', 'https://semopenalex.org/work/W4290885807', 'https://semopenalex.org/work/W2029717679', 'https://semopenalex.org/work/W2002319206', 'https://semopenalex.org/work/W2725261268', 'https://semopenalex.org/work/W3003950686', 'https://semopenalex.org/work/W1977188158', 'https://semopenalex.org/work/W1582081577', 'https://semopenalex.org/work/W2949856979', 'https://semopenalex.org/work/W2247847117', 'https://semopenalex.org/work/W3008095482', 'https://semopenalex.org/work/W2806536945', 'https://semopenalex.org/work/W1996892843', 'https://semopenalex.org/work/W2952626446', 'https://semopenalex.org/work/W2569427764', 'https://semopenalex.org/work/W4309606516', 'https://semopenalex.org/work/W2055914237', 'https://semopenalex.org/work/W1932482114', 'https://semopenalex.org/work/W2031312788', 'https://semopenalex.org/work/W4289098048', 'https://semopenalex.org/work/W2107711450', 'https://semopenalex.org/work/W2029681858', 'https://semopenalex.org/work/W2109238704', 'https://semopenalex.org/work/W2771643775', 'https://semopenalex.org/work/W2952074783', 'https://semopenalex.org/work/W2963331449', 'https://semopenalex.org/work/W2098527118', 'https://semopenalex.org/work/W4239506095', 'https://semopenalex.org/work/W2057861520', 'https://semopenalex.org/work/W2164350127', 'https://semopenalex.org/work/W2098607452', 'https://semopenalex.org/work/W2109075893', 'https://semopenalex.org/work/W2148262713', 'https://semopenalex.org/work/W3035605716', 'https://semopenalex.org/work/W1725212389', 'https://semopenalex.org/work/W4292140756', 'https://semopenalex.org/work/W4399802014', 'https://semopenalex.org/work/W2953174913', 'https://semopenalex.org/work/W2132402436', 'https://semopenalex.org/work/W4394671034', 'https://semopenalex.org/work/W4396661261', 'https://semopenalex.org/work/W2089184382', 'https://semopenalex.org/work/W4301381472', 'https://semopenalex.org/work/W2125050665', 'https://semopenalex.org/work/W2571890847', 'https://semopenalex.org/work/W2914876106', 'https://semopenalex.org/work/W2913235017', 'https://semopenalex.org/work/W2135451559', 'https://semopenalex.org/work/W4379134829', 'https://semopenalex.org/work/W2084366058', 'https://semopenalex.org/work/W4386114011', 'https://semopenalex.org/work/W2963124996', 'https://semopenalex.org/work/W1685547394', 'https://semopenalex.org/work/W1973711904', 'https://semopenalex.org/work/W4236166745', 'https://semopenalex.org/work/W4247354967', 'https://semopenalex.org/work/W4394662778', 'https://semopenalex.org/work/W2952204454', 'https://semopenalex.org/work/W2060173159', 'https://semopenalex.org/work/W4381586548', 'https://semopenalex.org/work/W1981701231', 'https://semopenalex.org/work/W4300809055', 'https://semopenalex.org/work/W2403738873', 'https://semopenalex.org/work/W2149217499', 'https://semopenalex.org/work/W2066471658', 'https://semopenalex.org/work/W4393950767', 'https://semopenalex.org/work/W1949484841', 'https://semopenalex.org/work/W2951156523', 'https://semopenalex.org/work/W2067096513', 'https://semopenalex.org/work/W1998402272', 'https://semopenalex.org/work/W2168244089', 'https://semopenalex.org/work/W1991315286', 'https://semopenalex.org/work/W2949241777', 'https://semopenalex.org/work/W83683955', 'https://semopenalex.org/work/W1577839953', 'https://semopenalex.org/work/W1970244902', 'https://semopenalex.org/work/W2033561849', 'https://semopenalex.org/work/W4361193367', 'https://semopenalex.org/work/W4249496072', 'https://semopenalex.org/work/W4399116422', 'https://semopenalex.org/work/W3116535447', 'https://semopenalex.org/work/W3160682374', 'https://semopenalex.org/work/W2040689705', 'https://semopenalex.org/work/W2162892932', 'https://semopenalex.org/work/W116433216', 'https://semopenalex.org/work/W2328920747', 'https://semopenalex.org/work/W2952535410', 'https://semopenalex.org/work/W4287119624', 'https://semopenalex.org/work/W2117450609', 'https://semopenalex.org/work/W2952971932', 'https://semopenalex.org/work/W2398870273', 'https://semopenalex.org/work/W3161644425', 'https://semopenalex.org/work/W1551919361', 'https://semopenalex.org/work/W2952750818', 'https://semopenalex.org/work/W2931939826', 'https://semopenalex.org/work/W4299856085', 'https://semopenalex.org/work/W4224134324', 'https://semopenalex.org/work/W1579402145', 'https://semopenalex.org/work/W4391891737', 'https://semopenalex.org/work/W4389918307', 'https://semopenalex.org/work/W2950871975', 'https://semopenalex.org/work/W2767389499', 'https://semopenalex.org/work/W4394670505', 'https://semopenalex.org/work/W3004591117', 'https://semopenalex.org/work/W1587992373', 'https://semopenalex.org/work/W2152290369', 'https://semopenalex.org/work/W2034645577', 'https://semopenalex.org/work/W2569985645', 'https://semopenalex.org/work/W2571228349', 'https://semopenalex.org/work/W4404174222', 'https://semopenalex.org/work/W4387346441', 'https://semopenalex.org/work/W2161874062', 'https://semopenalex.org/work/W2888868723', 'https://semopenalex.org/work/W1480653821', 'https://semopenalex.org/work/W2993359351', 'https://semopenalex.org/work/W1508903047', 'https://semopenalex.org/work/W4301458316', 'https://semopenalex.org/work/W3136413185', 'https://semopenalex.org/work/W4298342478', 'https://semopenalex.org/work/W1487426575', 'https://semopenalex.org/work/W2129283577', 'https://semopenalex.org/work/W4400685798', 'https://semopenalex.org/work/W2180791849', 'https://semopenalex.org/work/W4205839473', 'https://semopenalex.org/work/W2949194403', 'https://semopenalex.org/work/W2065449061', 'https://semopenalex.org/work/W2096941488', 'https://semopenalex.org/work/W2945694079', 'https://semopenalex.org/work/W4400140703', 'https://semopenalex.org/work/W1964336531', 'https://semopenalex.org/work/W2085901867', 'https://semopenalex.org/work/W1532769748', 'https://semopenalex.org/work/W2046150956', 'https://semopenalex.org/work/W2437864991', 'https://semopenalex.org/work/W2949342774', 'https://semopenalex.org/work/W164962158', 'https://semopenalex.org/work/W1836666292', 'https://semopenalex.org/work/W2176102619', 'https://semopenalex.org/work/W1728268450', 'https://semopenalex.org/work/W2001758565', 'https://semopenalex.org/work/W2743825404', 'https://semopenalex.org/work/W1807705148', 'https://semopenalex.org/work/W2100794909', 'https://semopenalex.org/work/W4400779100', 'https://semopenalex.org/work/W2061353171', 'https://semopenalex.org/work/W4255148416', 'https://semopenalex.org/work/W1583323833', 'https://semopenalex.org/work/W4394651883', 'https://semopenalex.org/work/W1997775408', 'https://semopenalex.org/work/W1985177211', 'https://semopenalex.org/work/W4297891663', 'https://semopenalex.org/work/W1578195936', 'https://semopenalex.org/work/W1573832120', 'https://semopenalex.org/work/W3119081543', 'https://semopenalex.org/work/W4300538486', 'https://semopenalex.org/work/W1988573007', 'https://semopenalex.org/work/W2150988180', 'https://semopenalex.org/work/W2560656300', 'https://semopenalex.org/work/W2107594015', 'https://semopenalex.org/work/W4404649018', 'https://semopenalex.org/work/W2127438386', 'https://semopenalex.org/work/W2089927779', 'https://semopenalex.org/work/W3183790410', 'https://semopenalex.org/work/W4311710422', 'https://semopenalex.org/work/W4303107312', 'https://semopenalex.org/work/W1612113233', 'https://semopenalex.org/work/W4291094382', 'https://semopenalex.org/work/W2098637407', 'https://semopenalex.org/work/W2027914059', 'https://semopenalex.org/work/W2156083238', 'https://semopenalex.org/work/W1980447851', 'https://semopenalex.org/work/W1907443511', 'https://semopenalex.org/work/W2590702107', 'https://semopenalex.org/work/W3125766893', 'https://semopenalex.org/work/W3023681931', 'https://semopenalex.org/work/W2171302677', 'https://semopenalex.org/work/W1592279809', 'https://semopenalex.org/work/W2040885117', 'https://semopenalex.org/work/W2152616797', 'https://semopenalex.org/work/W4224629862', 'https://semopenalex.org/work/W3171807150', 'https://semopenalex.org/work/W1931167027', 'https://semopenalex.org/work/W2479720249', 'https://semopenalex.org/work/W2165434229', 'https://semopenalex.org/work/W3080579843', 'https://semopenalex.org/work/W1870153077', 'https://semopenalex.org/work/W4309044540', 'https://semopenalex.org/work/W2023253690', 'https://semopenalex.org/work/W4391472386', 'https://semopenalex.org/work/W2082617679', 'https://semopenalex.org/work/W1493107308', 'https://semopenalex.org/work/W2515664902', 'https://semopenalex.org/work/W2952407455', 'https://semopenalex.org/work/W2952102457', 'https://semopenalex.org/work/W1778352006', 'https://semopenalex.org/work/W1995110375', 'https://semopenalex.org/work/W2768764062', 'https://semopenalex.org/work/W2911569412', 'https://semopenalex.org/work/W2000678401', 'https://semopenalex.org/work/W2068027439', 'https://semopenalex.org/work/W3135107566', 'https://semopenalex.org/work/W3169361559', 'https://semopenalex.org/work/W3208176611', 'https://semopenalex.org/work/W4390732531', 'https://semopenalex.org/work/W2912017968', 'https://semopenalex.org/work/W2951443728', 'https://semopenalex.org/work/W2007711012', 'https://semopenalex.org/work/W3193628763', 'https://semopenalex.org/work/W2904538221', 'https://semopenalex.org/work/W4302387386', 'https://semopenalex.org/work/W2294974848', 'https://semopenalex.org/work/W2100745639', 'https://semopenalex.org/work/W2023382097', 'https://semopenalex.org/work/W4405767326', 'https://semopenalex.org/work/W2046670590', 'https://semopenalex.org/work/W4389301894', 'https://semopenalex.org/work/W4299881295', 'https://semopenalex.org/work/W3186748800', 'https://semopenalex.org/work/W1599949305', 'https://semopenalex.org/work/W4399695439', 'https://semopenalex.org/work/W2951807252', 'https://semopenalex.org/work/W1994724899', 'https://semopenalex.org/work/W2477026011', 'https://semopenalex.org/work/W2013409484', 'https://semopenalex.org/work/W1986226106', 'https://semopenalex.org/work/W3037767105', 'https://semopenalex.org/work/W2081118695', 'https://semopenalex.org/work/W2962841644', 'https://semopenalex.org/work/W2406460929', 'https://semopenalex.org/work/W2330389512', 'https://semopenalex.org/work/W2476743429']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2133522196', 'https://semopenalex.org/work/W2411894725', 'https://semopenalex.org/work/W4316659889', 'https://semopenalex.org/work/W2903213374', 'https://semopenalex.org/work/W1514325539', 'https://semopenalex.org/work/W2134768851', 'https://semopenalex.org/work/W2076330335', 'https://semopenalex.org/work/W2550667658', 'https://semopenalex.org/work/W2475545374', 'https://semopenalex.org/work/W1943042767', 'https://semopenalex.org/work/W2111277352', 'https://semopenalex.org/work/W2230115501', 'https://semopenalex.org/work/W3179020455', 'https://semopenalex.org/work/W2884188352', 'https://semopenalex.org/work/W2091944075', 'https://semopenalex.org/work/W4401578804', 'https://semopenalex.org/work/W2184299809', 'https://semopenalex.org/work/W49790452', 'https://semopenalex.org/work/W1986827696', 'https://semopenalex.org/work/W2536107053', 'https://semopenalex.org/work/W2130832779', 'https://semopenalex.org/work/W4286571613', 'https://semopenalex.org/work/W2579158977', 'https://semopenalex.org/work/W2072553352', 'https://semopenalex.org/work/W2749110496', 'https://semopenalex.org/work/W1908879184', 'https://semopenalex.org/work/W2106211998', 'https://semopenalex.org/work/W2965366155', 'https://semopenalex.org/work/W2789144447', 'https://semopenalex.org/work/W2981465620', 'https://semopenalex.org/work/W2982452767', 'https://semopenalex.org/work/W2064672353', 'https://semopenalex.org/work/W33403252', 'https://semopenalex.org/work/W4253265224', 'https://semopenalex.org/work/W2742916377', 'https://semopenalex.org/work/W2108162045', 'https://semopenalex.org/work/W4253855517', 'https://semopenalex.org/work/W4206807237', 'https://semopenalex.org/work/W1910867531', 'https://semopenalex.org/work/W2786606238', 'https://semopenalex.org/work/W4401021691', 'https://semopenalex.org/work/W2154510046', 'https://semopenalex.org/work/W4400238477', 'https://semopenalex.org/work/W1994278842', 'https://semopenalex.org/work/W3157283285', 'https://semopenalex.org/work/W1860740456', 'https://semopenalex.org/work/W2805153701', 'https://semopenalex.org/work/W1448329507', 'https://semopenalex.org/work/W4366964206', 'https://semopenalex.org/work/W2610600517', 'https://semopenalex.org/work/W1995950498', 'https://semopenalex.org/work/W2150298155', 'https://semopenalex.org/work/W1544524730', 'https://semopenalex.org/work/W2084854878', 'https://semopenalex.org/work/W2171510346', 'https://semopenalex.org/work/W2064476539', 'https://semopenalex.org/work/W2495352272', 'https://semopenalex.org/work/W1999134690', 'https://semopenalex.org/work/W2014241426', 'https://semopenalex.org/work/W3132353162', 'https://semopenalex.org/work/W2170201418', 'https://semopenalex.org/work/W2743920271', 'https://semopenalex.org/work/W4404030068', 'https://semopenalex.org/work/W214032606', 'https://semopenalex.org/work/W1661735121', 'https://semopenalex.org/work/W2077174735', 'https://semopenalex.org/work/W1870822388', 'https://semopenalex.org/work/W3162144158', 'https://semopenalex.org/work/W2929921254', 'https://semopenalex.org/work/W2341007259', 'https://semopenalex.org/work/W2608491785', 'https://semopenalex.org/work/W3017143302', 'https://semopenalex.org/work/W2136654140', 'https://semopenalex.org/work/W2995911827', 'https://semopenalex.org/work/W2755469263', 'https://semopenalex.org/work/W2159662334', 'https://semopenalex.org/work/W2124054384', 'https://semopenalex.org/work/W2034050419', 'https://semopenalex.org/work/W48804293', 'https://semopenalex.org/work/W1494162500', 'https://semopenalex.org/work/W1967677932', 'https://semopenalex.org/work/W2288534976', 'https://semopenalex.org/work/W1992495634', 'https://semopenalex.org/work/W2983014989', 'https://semopenalex.org/work/W1506027738', 'https://semopenalex.org/work/W2011410844', 'https://semopenalex.org/work/W2116314971', 'https://semopenalex.org/work/W2043269074', 'https://semopenalex.org/work/W2786657846', 'https://semopenalex.org/work/W2031625065', 'https://semopenalex.org/work/W2065803961', 'https://semopenalex.org/work/W2163881253', 'https://semopenalex.org/work/W2181791275', 'https://semopenalex.org/work/W2412127048', 'https://semopenalex.org/work/W1979289740', 'https://semopenalex.org/work/W3023797106', 'https://semopenalex.org/work/W1986540981', 'https://semopenalex.org/work/W2024336304', 'https://semopenalex.org/work/W2123532445', 'https://semopenalex.org/work/W2293459815', 'https://semopenalex.org/work/W2625986270', 'https://semopenalex.org/work/W2482354811', 'https://semopenalex.org/work/W2112535726', 'https://semopenalex.org/work/W2532447822', 'https://semopenalex.org/work/W2405266982', 'https://semopenalex.org/work/W2111964097', 'https://semopenalex.org/work/W4205212276', 'https://semopenalex.org/work/W328613600', 'https://semopenalex.org/work/W2755359845', 'https://semopenalex.org/work/W2747040169', 'https://semopenalex.org/work/W2356144191', 'https://semopenalex.org/work/W52623672', 'https://semopenalex.org/work/W4392942581', 'https://semopenalex.org/work/W2888177496', 'https://semopenalex.org/work/W4240245530', 'https://semopenalex.org/work/W4392713273', 'https://semopenalex.org/work/W1573590416', 'https://semopenalex.org/work/W2478910470', 'https://semopenalex.org/work/W2968293641', 'https://semopenalex.org/work/W2744837872', 'https://semopenalex.org/work/W1481133633', 'https://semopenalex.org/work/W2148646851', 'https://semopenalex.org/work/W1967568969', 'https://semopenalex.org/work/W2947626283', 'https://semopenalex.org/work/W2803258972', 'https://semopenalex.org/work/W2288294525', 'https://semopenalex.org/work/W2941373095', 'https://semopenalex.org/work/W1857000584', 'https://semopenalex.org/work/W2161850606', 'https://semopenalex.org/work/W2155718231', 'https://semopenalex.org/work/W1991853935', 'https://semopenalex.org/work/W2144253537', 'https://semopenalex.org/work/W4367360032', 'https://semopenalex.org/work/W1923826352', 'https://semopenalex.org/work/W1823956242', 'https://semopenalex.org/work/W2135598717', 'https://semopenalex.org/work/W159035867', 'https://semopenalex.org/work/W2055684776', 'https://semopenalex.org/work/W3016161880', 'https://semopenalex.org/work/W1538415416', 'https://semopenalex.org/work/W1967157693', 'https://semopenalex.org/work/W2527344267', 'https://semopenalex.org/work/W2125143433', 'https://semopenalex.org/work/W4391156256', 'https://semopenalex.org/work/W2748533023', 'https://semopenalex.org/work/W2061231005', 'https://semopenalex.org/work/W2203509984', 'https://semopenalex.org/work/W2072776346', 'https://semopenalex.org/work/W2111759980', 'https://semopenalex.org/work/W2068973986', 'https://semopenalex.org/work/W2167521347', 'https://semopenalex.org/work/W3129067525', 'https://semopenalex.org/work/W2041334917', 'https://semopenalex.org/work/W1569686365', 'https://semopenalex.org/work/W2289149676', 'https://semopenalex.org/work/W2271801361', 'https://semopenalex.org/work/W4396894716', 'https://semopenalex.org/work/W2157188908', 'https://semopenalex.org/work/W4296365397', 'https://semopenalex.org/work/W2159139699', 'https://semopenalex.org/work/W2625256202', 'https://semopenalex.org/work/W1971283588', 'https://semopenalex.org/work/W2786601708', 'https://semopenalex.org/work/W12268595', 'https://semopenalex.org/work/W2768649200', 'https://semopenalex.org/work/W3017031701', 'https://semopenalex.org/work/W2496554705', 'https://semopenalex.org/work/W4400946519', 'https://semopenalex.org/work/W1969462495', 'https://semopenalex.org/work/W2162066092', 'https://semopenalex.org/work/W1982314073', 'https://semopenalex.org/work/W2102190590', 'https://semopenalex.org/work/W3196495759', 'https://semopenalex.org/work/W2998201073', 'https://semopenalex.org/work/W1419972110', 'https://semopenalex.org/work/W149383384', 'https://semopenalex.org/work/W2293095660', 'https://semopenalex.org/work/W4401943800', 'https://semopenalex.org/work/W2163138922', 'https://semopenalex.org/work/W2966031361', 'https://semopenalex.org/work/W2512795596', 'https://semopenalex.org/work/W2612282432', 'https://semopenalex.org/work/W2129869483', 'https://semopenalex.org/work/W2210223524', 'https://semopenalex.org/work/W102421301', 'https://semopenalex.org/work/W1177607589', 'https://semopenalex.org/work/W72692433', 'https://semopenalex.org/work/W2124703480', 'https://semopenalex.org/work/W402024038', 'https://semopenalex.org/work/W2070269076', 'https://semopenalex.org/work/W2165818457', 'https://semopenalex.org/work/W2611767226', 'https://semopenalex.org/work/W2161454411', 'https://semopenalex.org/work/W2166520679', 'https://semopenalex.org/work/W2134444560', 'https://semopenalex.org/work/W1992253076', 'https://semopenalex.org/work/W2923039095', 'https://semopenalex.org/work/W2122571865', 'https://semopenalex.org/work/W2079895649', 'https://semopenalex.org/work/W2564132746', 'https://semopenalex.org/work/W2219017076', 'https://semopenalex.org/work/W2935942569', 'https://semopenalex.org/work/W1516117757', 'https://semopenalex.org/work/W143942840', 'https://semopenalex.org/work/W2166211129', 'https://semopenalex.org/work/W2484374542', 'https://semopenalex.org/work/W2785105341', 'https://semopenalex.org/work/W4394742902', 'https://semopenalex.org/work/W2145502705', 'https://semopenalex.org/work/W857122145', 'https://semopenalex.org/work/W2132053703', 'https://semopenalex.org/work/W1633573314', 'https://semopenalex.org/work/W2132364404', 'https://semopenalex.org/work/W2077200079', 'https://semopenalex.org/work/W4390188024', 'https://semopenalex.org/work/W2158569759', 'https://semopenalex.org/work/W1922706319', 'https://semopenalex.org/work/W41465441', 'https://semopenalex.org/work/W2528842892', 'https://semopenalex.org/work/W858120236', 'https://semopenalex.org/work/W2130803541', 'https://semopenalex.org/work/W2768928198', 'https://semopenalex.org/work/W2098948701', 'https://semopenalex.org/work/W3211349420', 'https://semopenalex.org/work/W1999508547', 'https://semopenalex.org/work/W2115899637', 'https://semopenalex.org/work/W2150998397', 'https://semopenalex.org/work/W979651393', 'https://semopenalex.org/work/W4386814402', 'https://semopenalex.org/work/W2967876484', 'https://semopenalex.org/work/W2401583884', 'https://semopenalex.org/work/W2041108261', 'https://semopenalex.org/work/W2034179412', 'https://semopenalex.org/work/W2600068329', 'https://semopenalex.org/work/W2108876125', 'https://semopenalex.org/work/W49611838', 'https://semopenalex.org/work/W2945300184', 'https://semopenalex.org/work/W4249963731', 'https://semopenalex.org/work/W2025546942', 'https://semopenalex.org/work/W1874259713', 'https://semopenalex.org/work/W2109186457', 'https://semopenalex.org/work/W4253131601', 'https://semopenalex.org/work/W4240672112', 'https://semopenalex.org/work/W2804376295', 'https://semopenalex.org/work/W3200674364', 'https://semopenalex.org/work/W2501830935', 'https://semopenalex.org/work/W1998201483', 'https://semopenalex.org/work/W2756387886', 'https://semopenalex.org/work/W2398987072', 'https://semopenalex.org/work/W4294672356', 'https://semopenalex.org/work/W2128563460', 'https://semopenalex.org/work/W1517253300', 'https://semopenalex.org/work/W4389921335', 'https://semopenalex.org/work/W158943908', 'https://semopenalex.org/work/W2029818237', 'https://semopenalex.org/work/W2954164432', 'https://semopenalex.org/work/W3206640136', 'https://semopenalex.org/work/W2170741870', 'https://semopenalex.org/work/W2413288731', 'https://semopenalex.org/work/W2485878525', 'https://semopenalex.org/work/W1791684062', 'https://semopenalex.org/work/W4252093019', 'https://semopenalex.org/work/W2058293659', 'https://semopenalex.org/work/W2075578427', 'https://semopenalex.org/work/W2903177638', 'https://semopenalex.org/work/W2142079724', 'https://semopenalex.org/work/W2950468099', 'https://semopenalex.org/work/W2160391119', 'https://semopenalex.org/work/W2068524892', 'https://semopenalex.org/work/W2334327213', 'https://semopenalex.org/work/W1973125618', 'https://semopenalex.org/work/W1526915766', 'https://semopenalex.org/work/W4312778763', 'https://semopenalex.org/work/W146617261', 'https://semopenalex.org/work/W2124870235', 'https://semopenalex.org/work/W2139436497', 'https://semopenalex.org/work/W2480965638', 'https://semopenalex.org/work/W2108304242', 'https://semopenalex.org/work/W2188362632', 'https://semopenalex.org/work/W3157167113', 'https://semopenalex.org/work/W2092477317', 'https://semopenalex.org/work/W2062957328', 'https://semopenalex.org/work/W2516286998', 'https://semopenalex.org/work/W2085207404', 'https://semopenalex.org/work/W2039163755', 'https://semopenalex.org/work/W2079664409', 'https://semopenalex.org/work/W2620890574', 'https://semopenalex.org/work/W4404030648', 'https://semopenalex.org/work/W1584206897', 'https://semopenalex.org/work/W1608886591', 'https://semopenalex.org/work/W1560982985', 'https://semopenalex.org/work/W2072209700', 'https://semopenalex.org/work/W2138922641', 'https://semopenalex.org/work/W2161966477', 'https://semopenalex.org/work/W4205613083', 'https://semopenalex.org/work/W2140805995', 'https://semopenalex.org/work/W2070215238', 'https://semopenalex.org/work/W2015849174', 'https://semopenalex.org/work/W1990193612', 'https://semopenalex.org/work/W1969516436', 'https://semopenalex.org/work/W2569889271', 'https://semopenalex.org/work/W565256208', 'https://semopenalex.org/work/W2291113318', 'https://semopenalex.org/work/W2044431283', 'https://semopenalex.org/work/W2104408001', 'https://semopenalex.org/work/W3107887875', 'https://semopenalex.org/work/W2515896452', 'https://semopenalex.org/work/W2538630038', 'https://semopenalex.org/work/W2095968352', 'https://semopenalex.org/work/W2094708864', 'https://semopenalex.org/work/W2153457047', 'https://semopenalex.org/work/W2131405606', 'https://semopenalex.org/work/W2903545243', 'https://semopenalex.org/work/W4376526615', 'https://semopenalex.org/work/W4285503152', 'https://semopenalex.org/work/W1531223514', 'https://semopenalex.org/work/W3187351556', 'https://semopenalex.org/work/W2147895050', 'https://semopenalex.org/work/W2290447772', 'https://semopenalex.org/work/W2023972619', 'https://semopenalex.org/work/W1973148750', 'https://semopenalex.org/work/W2884636426', 'https://semopenalex.org/work/W2497743975', 'https://semopenalex.org/work/W2103224970', 'https://semopenalex.org/work/W3092453362', 'https://semopenalex.org/work/W2275014257', 'https://semopenalex.org/work/W3095131015', 'https://semopenalex.org/work/W2166826477', 'https://semopenalex.org/work/W139668830', 'https://semopenalex.org/work/W2109705305', 'https://semopenalex.org/work/W325059703', 'https://semopenalex.org/work/W4231226382', 'https://semopenalex.org/work/W2036165062', 'https://semopenalex.org/work/W2896727063', 'https://semopenalex.org/work/W2800308132', 'https://semopenalex.org/work/W2028566173', 'https://semopenalex.org/work/W2484645626', 'https://semopenalex.org/work/W2202036745', 'https://semopenalex.org/work/W2062904953', 'https://semopenalex.org/work/W2627083872', 'https://semopenalex.org/work/W2204033782', 'https://semopenalex.org/work/W1933806665', 'https://semopenalex.org/work/W2550712691', 'https://semopenalex.org/work/W2077737077', 'https://semopenalex.org/work/W3118215277', 'https://semopenalex.org/work/W2107191431', 'https://semopenalex.org/work/W2917706508', 'https://semopenalex.org/work/W2290200834', 'https://semopenalex.org/work/W2789263069', 'https://semopenalex.org/work/W2532152395', 'https://semopenalex.org/work/W2058904901', 'https://semopenalex.org/work/W2883395494', 'https://semopenalex.org/work/W2496039851', 'https://semopenalex.org/work/W4206683427', 'https://semopenalex.org/work/W2085435476', 'https://semopenalex.org/work/W1974886156', 'https://semopenalex.org/work/W4289655844', 'https://semopenalex.org/work/W1494063694', 'https://semopenalex.org/work/W2596027452', 'https://semopenalex.org/work/W2557110996', 'https://semopenalex.org/work/W2147456231', 'https://semopenalex.org/work/W4244005678', 'https://semopenalex.org/work/W2019708772', 'https://semopenalex.org/work/W2494421230', 'https://semopenalex.org/work/W2624802634', 'https://semopenalex.org/work/W2012912450', 'https://semopenalex.org/work/W2145701421', 'https://semopenalex.org/work/W2035518282', 'https://semopenalex.org/work/W2240362173', 'https://semopenalex.org/work/W2161545800', 'https://semopenalex.org/work/W2120355631', 'https://semopenalex.org/work/W4376630019', 'https://semopenalex.org/work/W2060283246', 'https://semopenalex.org/work/W3160200186', 'https://semopenalex.org/work/W2170913025', 'https://semopenalex.org/work/W2108240852', 'https://semopenalex.org/work/W1497099843', 'https://semopenalex.org/work/W2295164153', 'https://semopenalex.org/work/W3096330417', 'https://semopenalex.org/work/W1549886897', 'https://semopenalex.org/work/W2401687993', 'https://semopenalex.org/work/W4238734812', 'https://semopenalex.org/work/W196228518', 'https://semopenalex.org/work/W1489534528', 'https://semopenalex.org/work/W1574380960', 'https://semopenalex.org/work/W2056096508', 'https://semopenalex.org/work/W2142484380', 'https://semopenalex.org/work/W1999149743', 'https://semopenalex.org/work/W2055278155', 'https://semopenalex.org/work/W2907364096', 'https://semopenalex.org/work/W2968852933', 'https://semopenalex.org/work/W2138320177', 'https://semopenalex.org/work/W4285408205', 'https://semopenalex.org/work/W2088723639', 'https://semopenalex.org/work/W2165300716', 'https://semopenalex.org/work/W4387005904', 'https://semopenalex.org/work/W3041653159', 'https://semopenalex.org/work/W2124560301', 'https://semopenalex.org/work/W2111424373', 'https://semopenalex.org/work/W2754948093', 'https://semopenalex.org/work/W4250489070', 'https://semopenalex.org/work/W2044237546', 'https://semopenalex.org/work/W2156138095', 'https://semopenalex.org/work/W2895854254', 'https://semopenalex.org/work/W2004738891', 'https://semopenalex.org/work/W2473052796', 'https://semopenalex.org/work/W2171606781', 'https://semopenalex.org/work/W2246286794', 'https://semopenalex.org/work/W25440647', 'https://semopenalex.org/work/W3211844447', 'https://semopenalex.org/work/W2044900380', 'https://semopenalex.org/work/W2137861763', 'https://semopenalex.org/work/W1990091852', 'https://semopenalex.org/work/W2027452379', 'https://semopenalex.org/work/W2125308824', 'https://semopenalex.org/work/W2066111880', 'https://semopenalex.org/work/W4253850266', 'https://semopenalex.org/work/W2496567738', 'https://semopenalex.org/work/W2554047600', 'https://semopenalex.org/work/W2902487276', 'https://semopenalex.org/work/W4392577068', 'https://semopenalex.org/work/W2024786226', 'https://semopenalex.org/work/W2096075530', 'https://semopenalex.org/work/W2110574373', 'https://semopenalex.org/work/W4401808601', 'https://semopenalex.org/work/W4285216643', 'https://semopenalex.org/work/W2475285031', 'https://semopenalex.org/work/W4400946621', 'https://semopenalex.org/work/W2895817859', 'https://semopenalex.org/work/W2906163189', 'https://semopenalex.org/work/W4306173842', 'https://semopenalex.org/work/W51211239', 'https://semopenalex.org/work/W2751662694', 'https://semopenalex.org/work/W1608276691', 'https://semopenalex.org/work/W2073709132', 'https://semopenalex.org/work/W2052982204', 'https://semopenalex.org/work/W4230332361', 'https://semopenalex.org/work/W3085760006', 'https://semopenalex.org/work/W6907768', 'https://semopenalex.org/work/W2886396839', 'https://semopenalex.org/work/W2945691872', 'https://semopenalex.org/work/W3021203574', 'https://semopenalex.org/work/W2112979372', 'https://semopenalex.org/work/W3175708501', 'https://semopenalex.org/work/W2080996134', 'https://semopenalex.org/work/W2530140145', 'https://semopenalex.org/work/W2289584941', 'https://semopenalex.org/work/W1516689139', 'https://semopenalex.org/work/W2560712448', 'https://semopenalex.org/work/W1654176175', 'https://semopenalex.org/work/W2397834607', 'https://semopenalex.org/work/W3027319226', 'https://semopenalex.org/work/W1518248903', 'https://semopenalex.org/work/W2910014621', 'https://semopenalex.org/work/W2024612964', 'https://semopenalex.org/work/W2953533689', 'https://semopenalex.org/work/W1965382252', 'https://semopenalex.org/work/W4387450689', 'https://semopenalex.org/work/W2794572176', 'https://semopenalex.org/work/W2016989291', 'https://semopenalex.org/work/W2095834672', 'https://semopenalex.org/work/W4390512166', 'https://semopenalex.org/work/W2033725854', 'https://semopenalex.org/work/W2042756792', 'https://semopenalex.org/work/W2029131637', 'https://semopenalex.org/work/W2510781223', 'https://semopenalex.org/work/W3096110661', 'https://semopenalex.org/work/W2120216356', 'https://semopenalex.org/work/W2098016930', 'https://semopenalex.org/work/W2113043545', 'https://semopenalex.org/work/W1492737188', 'https://semopenalex.org/work/W2150650760', 'https://semopenalex.org/work/W2139255754', 'https://semopenalex.org/work/W3097508557', 'https://semopenalex.org/work/W3013997466', 'https://semopenalex.org/work/W2149899452', 'https://semopenalex.org/work/W2188799909', 'https://semopenalex.org/work/W160837981', 'https://semopenalex.org/work/W2157519619', 'https://semopenalex.org/work/W2890543403', 'https://semopenalex.org/work/W2146033518', 'https://semopenalex.org/work/W1840794446', 'https://semopenalex.org/work/W2106421914', 'https://semopenalex.org/work/W2992245431', 'https://semopenalex.org/work/W1990019789', 'https://semopenalex.org/work/W2490092534', 'https://semopenalex.org/work/W2144918660', 'https://semopenalex.org/work/W4229053674', 'https://semopenalex.org/work/W2162338867', 'https://semopenalex.org/work/W2139454561', 'https://semopenalex.org/work/W1999631843', 'https://semopenalex.org/work/W2576879514', 'https://semopenalex.org/work/W3130320973', 'https://semopenalex.org/work/W4393146711', 'https://semopenalex.org/work/W2961776981', 'https://semopenalex.org/work/W2293958210', 'https://semopenalex.org/work/W4255531846', 'https://semopenalex.org/work/W2080817506', 'https://semopenalex.org/work/W1995308547', 'https://semopenalex.org/work/W2028754220', 'https://semopenalex.org/work/W652412083', 'https://semopenalex.org/work/W2769445687', 'https://semopenalex.org/work/W1993325111', 'https://semopenalex.org/work/W4210325270', 'https://semopenalex.org/work/W2130007135', 'https://semopenalex.org/work/W4247476769', 'https://semopenalex.org/work/W2571158126', 'https://semopenalex.org/work/W3136727059', 'https://semopenalex.org/work/W2165377954', 'https://semopenalex.org/work/W2340283416', 'https://semopenalex.org/work/W1991026653', 'https://semopenalex.org/work/W2032099346', 'https://semopenalex.org/work/W2062243122', 'https://semopenalex.org/work/W1978851795', 'https://semopenalex.org/work/W2089241417', 'https://semopenalex.org/work/W2172143183', 'https://semopenalex.org/work/W2895967513', 'https://semopenalex.org/work/W2809782991', 'https://semopenalex.org/work/W2754307650', 'https://semopenalex.org/work/W2606501011', 'https://semopenalex.org/work/W4294672395', 'https://semopenalex.org/work/W2138291705', 'https://semopenalex.org/work/W2144750318', 'https://semopenalex.org/work/W2612784784', 'https://semopenalex.org/work/W3042004637', 'https://semopenalex.org/work/W3095279071', 'https://semopenalex.org/work/W3089291192', 'https://semopenalex.org/work/W4237620799', 'https://semopenalex.org/work/W2401381263', 'https://semopenalex.org/work/W2401333290', 'https://semopenalex.org/work/W2069369796', 'https://semopenalex.org/work/W4401579183', 'https://semopenalex.org/work/W2145747218', 'https://semopenalex.org/work/W4389321773', 'https://semopenalex.org/work/W2559559327', 'https://semopenalex.org/work/W2101787599', 'https://semopenalex.org/work/W2786772278', 'https://semopenalex.org/work/W2586727473', 'https://semopenalex.org/work/W1587236616', 'https://semopenalex.org/work/W2901316497', 'https://semopenalex.org/work/W4390187585', 'https://semopenalex.org/work/W3004301528', 'https://semopenalex.org/work/W2063650982', 'https://semopenalex.org/work/W2542642724', 'https://semopenalex.org/work/W1969657871', 'https://semopenalex.org/work/W4252981000', 'https://semopenalex.org/work/W2146002591', 'https://semopenalex.org/work/W2024012113', 'https://semopenalex.org/work/W2885100636', 'https://semopenalex.org/work/W1979988378', 'https://semopenalex.org/work/W126878419', 'https://semopenalex.org/work/W4367360059', 'https://semopenalex.org/work/W2081189334', 'https://semopenalex.org/work/W2761828172', 'https://semopenalex.org/work/W3206895939', 'https://semopenalex.org/work/W4396665589', 'https://semopenalex.org/work/W2024468903', 'https://semopenalex.org/work/W2166217821', 'https://semopenalex.org/work/W4206307909', 'https://semopenalex.org/work/W2964982644', 'https://semopenalex.org/work/W4385626270', 'https://semopenalex.org/work/W2513883066', 'https://semopenalex.org/work/W2034507787', 'https://semopenalex.org/work/W4365802790', 'https://semopenalex.org/work/W2119033694', 'https://semopenalex.org/work/W4285172618', 'https://semopenalex.org/work/W2883856658', 'https://semopenalex.org/work/W4205619442', 'https://semopenalex.org/work/W2967954143', 'https://semopenalex.org/work/W2078326945', 'https://semopenalex.org/work/W2903194584', 'https://semopenalex.org/work/W1497865469', 'https://semopenalex.org/work/W2074068839', 'https://semopenalex.org/work/W2079466034', 'https://semopenalex.org/work/W67894965', 'https://semopenalex.org/work/W2615205062', 'https://semopenalex.org/work/W2948995623', 'https://semopenalex.org/work/W1488510230', 'https://semopenalex.org/work/W2147139299', 'https://semopenalex.org/work/W4321614042', 'https://semopenalex.org/work/W1577463177', 'https://semopenalex.org/work/W4405120549', 'https://semopenalex.org/work/W4249594017', 'https://semopenalex.org/work/W2112107898', 'https://semopenalex.org/work/W4210708907', 'https://semopenalex.org/work/W4252463735', 'https://semopenalex.org/work/W2074193071', 'https://semopenalex.org/work/W1520936229', 'https://semopenalex.org/work/W4233681091', 'https://semopenalex.org/work/W2138433001', 'https://semopenalex.org/work/W2127414738', 'https://semopenalex.org/work/W2092005371', 'https://semopenalex.org/work/W2413863213', 'https://semopenalex.org/work/W2163180953', 'https://semopenalex.org/work/W2804891820', 'https://semopenalex.org/work/W2002312562', 'https://semopenalex.org/work/W2945412056', 'https://semopenalex.org/work/W4327767801', 'https://semopenalex.org/work/W2146520711', 'https://semopenalex.org/work/W2407231546', 'https://semopenalex.org/work/W3206850855', 'https://semopenalex.org/work/W4237745095', 'https://semopenalex.org/work/W2730743430', 'https://semopenalex.org/work/W4392188385', 'https://semopenalex.org/work/W2001905011', 'https://semopenalex.org/work/W4402830551', 'https://semopenalex.org/work/W1501172792', 'https://semopenalex.org/work/W4405094102', 'https://semopenalex.org/work/W1985701940', 'https://semopenalex.org/work/W2293958373', 'https://semopenalex.org/work/W2212338561', 'https://semopenalex.org/work/W1544888628', 'https://semopenalex.org/work/W4285815179', 'https://semopenalex.org/work/W2666172191', 'https://semopenalex.org/work/W1508821613', 'https://semopenalex.org/work/W1422159917', 'https://semopenalex.org/work/W4405935629']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W4404180354', 'https://semopenalex.org/work/W2805393243', 'https://semopenalex.org/work/W2149498440', 'https://semopenalex.org/work/W3121529680', 'https://semopenalex.org/work/W22394099', 'https://semopenalex.org/work/W1479774717', 'https://semopenalex.org/work/W4400268996', 'https://semopenalex.org/work/W4388742679', 'https://semopenalex.org/work/W3077087723', 'https://semopenalex.org/work/W75044610', 'https://semopenalex.org/work/W2610117056', 'https://semopenalex.org/work/W4309613628', 'https://semopenalex.org/work/W2916230113', 'https://semopenalex.org/work/W2155277804', 'https://semopenalex.org/work/W4402599958', 'https://semopenalex.org/work/W2152979493', 'https://semopenalex.org/work/W139217162', 'https://semopenalex.org/work/W4400881052', 'https://semopenalex.org/work/W2073549416', 'https://semopenalex.org/work/W4404788249', 'https://semopenalex.org/work/W2919684758', 'https://semopenalex.org/work/W610311842', 'https://semopenalex.org/work/W1565188338', 'https://semopenalex.org/work/W2793061613', 'https://semopenalex.org/work/W4388989593', 'https://semopenalex.org/work/W3045638492', 'https://semopenalex.org/work/W2796403873', 'https://semopenalex.org/work/W2901246026', 'https://semopenalex.org/work/W2122476743', 'https://semopenalex.org/work/W4394048733', 'https://semopenalex.org/work/W2951057438', 'https://semopenalex.org/work/W4394576023', 'https://semopenalex.org/work/W4255591746', 'https://semopenalex.org/work/W4309647912', 'https://semopenalex.org/work/W2422116896', 'https://semopenalex.org/work/W4405828728', 'https://semopenalex.org/work/W2915383148', 'https://semopenalex.org/work/W3001462578', 'https://semopenalex.org/work/W4387293718', 'https://semopenalex.org/work/W2809590475', 'https://semopenalex.org/work/W4213388674', 'https://semopenalex.org/work/W4401110041', 'https://semopenalex.org/work/W2131027594', 'https://semopenalex.org/work/W2479269651', 'https://semopenalex.org/work/W2052330128', 'https://semopenalex.org/work/W4232799872', 'https://semopenalex.org/work/W1660366533', 'https://semopenalex.org/work/W1974446585', 'https://semopenalex.org/work/W2008632807', 'https://semopenalex.org/work/W2046727875', 'https://semopenalex.org/work/W2920007056', 'https://semopenalex.org/work/W3124693625', 'https://semopenalex.org/work/W1988741859', 'https://semopenalex.org/work/W4395064999', 'https://semopenalex.org/work/W4283708463', 'https://semopenalex.org/work/W4294578223', 'https://semopenalex.org/work/W2138607828', 'https://semopenalex.org/work/W4385270466', 'https://semopenalex.org/work/W2156065383', 'https://semopenalex.org/work/W1566552779', 'https://semopenalex.org/work/W4389880140', 'https://semopenalex.org/work/W2770240327', 'https://semopenalex.org/work/W1493881734', 'https://semopenalex.org/work/W2140346433', 'https://semopenalex.org/work/W4380136543', 'https://semopenalex.org/work/W4288549248', 'https://semopenalex.org/work/W3175986586', 'https://semopenalex.org/work/W4226040560', 'https://semopenalex.org/work/W2478525669', 'https://semopenalex.org/work/W2033132959', 'https://semopenalex.org/work/W3088922018', 'https://semopenalex.org/work/W3066802614', 'https://semopenalex.org/work/W2009396504', 'https://semopenalex.org/work/W2808185912', 'https://semopenalex.org/work/W4400611446', 'https://semopenalex.org/work/W4309325586', 'https://semopenalex.org/work/W4390570315', 'https://semopenalex.org/work/W2036885872', 'https://semopenalex.org/work/W3153580448', 'https://semopenalex.org/work/W2476253347', 'https://semopenalex.org/work/W3110928664', 'https://semopenalex.org/work/W2900798442', 'https://semopenalex.org/work/W1938912534', 'https://semopenalex.org/work/W2778221989', 'https://semopenalex.org/work/W2901185014', 'https://semopenalex.org/work/W4252278539', 'https://semopenalex.org/work/W2136344560', 'https://semopenalex.org/work/W2915831115', 'https://semopenalex.org/work/W2092295977', 'https://semopenalex.org/work/W4289364680', 'https://semopenalex.org/work/W3159055025', 'https://semopenalex.org/work/W1500858206', 'https://semopenalex.org/work/W2908443740', 'https://semopenalex.org/work/W4200386693', 'https://semopenalex.org/work/W3097074140', 'https://semopenalex.org/work/W2616473319', 'https://semopenalex.org/work/W4405522042', 'https://semopenalex.org/work/W2165611534', 'https://semopenalex.org/work/W4403792402', 'https://semopenalex.org/work/W1507246359', 'https://semopenalex.org/work/W2003420345', 'https://semopenalex.org/work/W4391973940', 'https://semopenalex.org/work/W3082096159', 'https://semopenalex.org/work/W2184516195', 'https://semopenalex.org/work/W4293105619', 'https://semopenalex.org/work/W2321758884', 'https://semopenalex.org/work/W3052245613', 'https://semopenalex.org/work/W2117052376', 'https://semopenalex.org/work/W2040345481', 'https://semopenalex.org/work/W2296355030', 'https://semopenalex.org/work/W2198834745', 'https://semopenalex.org/work/W2551266388', 'https://semopenalex.org/work/W4406261609', 'https://semopenalex.org/work/W4362501917', 'https://semopenalex.org/work/W1581509591', 'https://semopenalex.org/work/W2422465781', 'https://semopenalex.org/work/W2116893958', 'https://semopenalex.org/work/W4213121575', 'https://semopenalex.org/work/W2075258117', 'https://semopenalex.org/work/W2901563117', 'https://semopenalex.org/work/W206771271', 'https://semopenalex.org/work/W2912179439', 'https://semopenalex.org/work/W2775115790', 'https://semopenalex.org/work/W2805105531', 'https://semopenalex.org/work/W4231180551', 'https://semopenalex.org/work/W3162065424', 'https://semopenalex.org/work/W2439110316', 'https://semopenalex.org/work/W4401719105', 'https://semopenalex.org/work/W4386474911', 'https://semopenalex.org/work/W3105123138', 'https://semopenalex.org/work/W1601136399', 'https://semopenalex.org/work/W3140378604', 'https://semopenalex.org/work/W2170735098', 'https://semopenalex.org/work/W3103436608', 'https://semopenalex.org/work/W4226150381', 'https://semopenalex.org/work/W4378768161', 'https://semopenalex.org/work/W3177070127', 'https://semopenalex.org/work/W3098889210', 'https://semopenalex.org/work/W2126868220', 'https://semopenalex.org/work/W4393748815', 'https://semopenalex.org/work/W4226214859', 'https://semopenalex.org/work/W4393635391', 'https://semopenalex.org/work/W2068346480', 'https://semopenalex.org/work/W2515387399', 'https://semopenalex.org/work/W1546420109', 'https://semopenalex.org/work/W1702322733', 'https://semopenalex.org/work/W2791022910', 'https://semopenalex.org/work/W4306706940', 'https://semopenalex.org/work/W4393969247', 'https://semopenalex.org/work/W2918375401', 'https://semopenalex.org/work/W1980320703', 'https://semopenalex.org/work/W1974608646', 'https://semopenalex.org/work/W2905317998', 'https://semopenalex.org/work/W2344677227', 'https://semopenalex.org/work/W2991281508', 'https://semopenalex.org/work/W2048339977', 'https://semopenalex.org/work/W4392110461', 'https://semopenalex.org/work/W2484289073', 'https://semopenalex.org/work/W4406729944', 'https://semopenalex.org/work/W3013272684', 'https://semopenalex.org/work/W1985846348', 'https://semopenalex.org/work/W192156609', 'https://semopenalex.org/work/W3140552826', 'https://semopenalex.org/work/W2756536429', 'https://semopenalex.org/work/W4250963083', 'https://semopenalex.org/work/W4316672181', 'https://semopenalex.org/work/W4389509728', 'https://semopenalex.org/work/W4211034214', 'https://semopenalex.org/work/W2920780560', 'https://semopenalex.org/work/W4391248380', 'https://semopenalex.org/work/W3200087552', 'https://semopenalex.org/work/W2772476628', 'https://semopenalex.org/work/W2795633027', 'https://semopenalex.org/work/W4380433250', 'https://semopenalex.org/work/W2151186309', 'https://semopenalex.org/work/W2991585802', 'https://semopenalex.org/work/W4391661476', 'https://semopenalex.org/work/W2041919000', 'https://semopenalex.org/work/W4399554294', 'https://semopenalex.org/work/W2953012688', 'https://semopenalex.org/work/W4316116419', 'https://semopenalex.org/work/W3216694898', 'https://semopenalex.org/work/W2612035199', 'https://semopenalex.org/work/W1984186194', 'https://semopenalex.org/work/W3010046448', 'https://semopenalex.org/work/W4312911917', 'https://semopenalex.org/work/W1983176793', 'https://semopenalex.org/work/W2507120666', 'https://semopenalex.org/work/W4283643625', 'https://semopenalex.org/work/W23340818', 'https://semopenalex.org/work/W3004495293', 'https://semopenalex.org/work/W3112151564', 'https://semopenalex.org/work/W2912891501', 'https://semopenalex.org/work/W4286794087', 'https://semopenalex.org/work/W2118486116', 'https://semopenalex.org/work/W4365205158', 'https://semopenalex.org/work/W125254009', 'https://semopenalex.org/work/W2990448760', 'https://semopenalex.org/work/W3149145084', 'https://semopenalex.org/work/W2505162744', 'https://semopenalex.org/work/W1481252923', 'https://semopenalex.org/work/W2548544249', 'https://semopenalex.org/work/W2125430046', 'https://semopenalex.org/work/W2030563576', 'https://semopenalex.org/work/W1492139710', 'https://semopenalex.org/work/W2076165157', 'https://semopenalex.org/work/W4232691833', 'https://semopenalex.org/work/W2087831714', 'https://semopenalex.org/work/W2746969608', 'https://semopenalex.org/work/W2766641608', 'https://semopenalex.org/work/W4391892492', 'https://semopenalex.org/work/W2467591515', 'https://semopenalex.org/work/W1720341833', 'https://semopenalex.org/work/W4221168020', 'https://semopenalex.org/work/W3038546681', 'https://semopenalex.org/work/W4381855531', 'https://semopenalex.org/work/W4405305567', 'https://semopenalex.org/work/W1496034358', 'https://semopenalex.org/work/W2097959755', 'https://semopenalex.org/work/W2584286364', 'https://semopenalex.org/work/W2134387352', 'https://semopenalex.org/work/W4221002597', 'https://semopenalex.org/work/W2623350311', 'https://semopenalex.org/work/W4362502008', 'https://semopenalex.org/work/W2329646465', 'https://semopenalex.org/work/W3203105904', 'https://semopenalex.org/work/W1986302656', 'https://semopenalex.org/work/W2738171721', 'https://semopenalex.org/work/W2899754551', 'https://semopenalex.org/work/W2990965235', 'https://semopenalex.org/work/W2124874701', 'https://semopenalex.org/work/W4302806', 'https://semopenalex.org/work/W3114057505', 'https://semopenalex.org/work/W4381549091', 'https://semopenalex.org/work/W2098055383', 'https://semopenalex.org/work/W3122406465', 'https://semopenalex.org/work/W4402594156', 'https://semopenalex.org/work/W2146501308', 'https://semopenalex.org/work/W3174896615', 'https://semopenalex.org/work/W4396594158', 'https://semopenalex.org/work/W2080485692', 'https://semopenalex.org/work/W3116763688', 'https://semopenalex.org/work/W4317438183', 'https://semopenalex.org/work/W3214995238', 'https://semopenalex.org/work/W4294707045', 'https://semopenalex.org/work/W2506885748', 'https://semopenalex.org/work/W3162622638', 'https://semopenalex.org/work/W2086824798', 'https://semopenalex.org/work/W4289866493', 'https://semopenalex.org/work/W2051680663', 'https://semopenalex.org/work/W3090908182', 'https://semopenalex.org/work/W2284502685', 'https://semopenalex.org/work/W2748668979', 'https://semopenalex.org/work/W79646937', 'https://semopenalex.org/work/W1984473368', 'https://semopenalex.org/work/W4404252082', 'https://semopenalex.org/work/W1563606705', 'https://semopenalex.org/work/W1517726756', 'https://semopenalex.org/work/W1981719736', 'https://semopenalex.org/work/W2898587907', 'https://semopenalex.org/work/W1495063990', 'https://semopenalex.org/work/W2468217693', 'https://semopenalex.org/work/W3066383670', 'https://semopenalex.org/work/W3126556715', 'https://semopenalex.org/work/W2735732687', 'https://semopenalex.org/work/W4401023469', 'https://semopenalex.org/work/W2795298263', 'https://semopenalex.org/work/W2502765568', 'https://semopenalex.org/work/W3210789515', 'https://semopenalex.org/work/W2515263588', 'https://semopenalex.org/work/W2033368298', 'https://semopenalex.org/work/W2511600948', 'https://semopenalex.org/work/W2077564315', 'https://semopenalex.org/work/W3124266007', 'https://semopenalex.org/work/W4404350797', 'https://semopenalex.org/work/W4404370664', 'https://semopenalex.org/work/W10552456', 'https://semopenalex.org/work/W4402595291', 'https://semopenalex.org/work/W4367682485', 'https://semopenalex.org/work/W3008028280', 'https://semopenalex.org/work/W2141276288', 'https://semopenalex.org/work/W2464669661', 'https://semopenalex.org/work/W4312471121', 'https://semopenalex.org/work/W4313007851', 'https://semopenalex.org/work/W4396628099', 'https://semopenalex.org/work/W4400812269', 'https://semopenalex.org/work/W1664839614', 'https://semopenalex.org/work/W2089975859', 'https://semopenalex.org/work/W4406794085', 'https://semopenalex.org/work/W2337491900', 'https://semopenalex.org/work/W2990317423', 'https://semopenalex.org/work/W3176873809', 'https://semopenalex.org/work/W1484038335', 'https://semopenalex.org/work/W2500329317', 'https://semopenalex.org/work/W2792554287', 'https://semopenalex.org/work/W4391673335', 'https://semopenalex.org/work/W2032640310', 'https://semopenalex.org/work/W4323923480', 'https://semopenalex.org/work/W4244365690', 'https://semopenalex.org/work/W1600095712', 'https://semopenalex.org/work/W2013870117', 'https://semopenalex.org/work/W2615044227', 'https://semopenalex.org/work/W2772495508', 'https://semopenalex.org/work/W2902564735', 'https://semopenalex.org/work/W4220938834', 'https://semopenalex.org/work/W2000718212', 'https://semopenalex.org/work/W2036965066', 'https://semopenalex.org/work/W4319792183', 'https://semopenalex.org/work/W3024403368', 'https://semopenalex.org/work/W2133544364', 'https://semopenalex.org/work/W4386346214', 'https://semopenalex.org/work/W2798444339', 'https://semopenalex.org/work/W4380885381', 'https://semopenalex.org/work/W2991082611', 'https://semopenalex.org/work/W2017629483', 'https://semopenalex.org/work/W4317619163', 'https://semopenalex.org/work/W2901968423', 'https://semopenalex.org/work/W3130665718', 'https://semopenalex.org/work/W2951240690', 'https://semopenalex.org/work/W2889404430', 'https://semopenalex.org/work/W1507429943', 'https://semopenalex.org/work/W2584636165', 'https://semopenalex.org/work/W4291287572', 'https://semopenalex.org/work/W3012851928', 'https://semopenalex.org/work/W2900534295', 'https://semopenalex.org/work/W4402538155', 'https://semopenalex.org/work/W2906612108', 'https://semopenalex.org/work/W2981705990', 'https://semopenalex.org/work/W4389226119', 'https://semopenalex.org/work/W4285292709', 'https://semopenalex.org/work/W1990240966', 'https://semopenalex.org/work/W4399117352', 'https://semopenalex.org/work/W4394049163', 'https://semopenalex.org/work/W1474354901', 'https://semopenalex.org/work/W3173479430', 'https://semopenalex.org/work/W4232242059', 'https://semopenalex.org/work/W2150949003', 'https://semopenalex.org/work/W3041363918', 'https://semopenalex.org/work/W4379964950', 'https://semopenalex.org/work/W2808806636', 'https://semopenalex.org/work/W4229056530', 'https://semopenalex.org/work/W2050276970', 'https://semopenalex.org/work/W3161264338', 'https://semopenalex.org/work/W2896561783', 'https://semopenalex.org/work/W1581844963', 'https://semopenalex.org/work/W1504659965', 'https://semopenalex.org/work/W2102773241', 'https://semopenalex.org/work/W1487391256', 'https://semopenalex.org/work/W2487722436', 'https://semopenalex.org/work/W3111943635', 'https://semopenalex.org/work/W4393144966', 'https://semopenalex.org/work/W4247657810', 'https://semopenalex.org/work/W4237499061', 'https://semopenalex.org/work/W1605123443', 'https://semopenalex.org/work/W2804252553', 'https://semopenalex.org/work/W4243814040', 'https://semopenalex.org/work/W2903414282', 'https://semopenalex.org/work/W2489798131', 'https://semopenalex.org/work/W2169290493', 'https://semopenalex.org/work/W3190788066', 'https://semopenalex.org/work/W2083708758', 'https://semopenalex.org/work/W2084970449', 'https://semopenalex.org/work/W2950506233', 'https://semopenalex.org/work/W2143252268', 'https://semopenalex.org/work/W4302859022', 'https://semopenalex.org/work/W2949205410', 'https://semopenalex.org/work/W4306706460', 'https://semopenalex.org/work/W2808066670', 'https://semopenalex.org/work/W629466361', 'https://semopenalex.org/work/W2359704875', 'https://semopenalex.org/work/W4200400669', 'https://semopenalex.org/work/W4309647909', 'https://semopenalex.org/work/W3030557354', 'https://semopenalex.org/work/W2806499268', 'https://semopenalex.org/work/W3153444696', 'https://semopenalex.org/work/W4250640589', 'https://semopenalex.org/work/W4388972775', 'https://semopenalex.org/work/W4389575859', 'https://semopenalex.org/work/W4404037007', 'https://semopenalex.org/work/W2773234510', 'https://semopenalex.org/work/W4283365825', 'https://semopenalex.org/work/W4402710970', 'https://semopenalex.org/work/W2440860577', 'https://semopenalex.org/work/W2755922538', 'https://semopenalex.org/work/W3134356917', 'https://semopenalex.org/work/W2733791027', 'https://semopenalex.org/work/W2119701885', 'https://semopenalex.org/work/W2945594129', 'https://semopenalex.org/work/W2172069600', 'https://semopenalex.org/work/W2417471897', 'https://semopenalex.org/work/W2150013559', 'https://semopenalex.org/work/W3176983082', 'https://semopenalex.org/work/W4220657425', 'https://semopenalex.org/work/W3026213155', 'https://semopenalex.org/work/W3211356533', 'https://semopenalex.org/work/W2059788348', 'https://semopenalex.org/work/W2138167749', 'https://semopenalex.org/work/W2809627415', 'https://semopenalex.org/work/W4283718670', 'https://semopenalex.org/work/W4387190940', 'https://semopenalex.org/work/W1974715273', 'https://semopenalex.org/work/W2006918362', 'https://semopenalex.org/work/W3033848960', 'https://semopenalex.org/work/W2185480307', 'https://semopenalex.org/work/W4389575826', 'https://semopenalex.org/work/W4312953992', 'https://semopenalex.org/work/W3139199248', 'https://semopenalex.org/work/W2898238060', 'https://semopenalex.org/work/W2984000149', 'https://semopenalex.org/work/W4401463259', 'https://semopenalex.org/work/W4377234328', 'https://semopenalex.org/work/W2499168780', 'https://semopenalex.org/work/W2250659747', 'https://semopenalex.org/work/W4246273094', 'https://semopenalex.org/work/W4294500063', 'https://semopenalex.org/work/W4319053914', 'https://semopenalex.org/work/W1588641552', 'https://semopenalex.org/work/W4401719068', 'https://semopenalex.org/work/W2330628472', 'https://semopenalex.org/work/W4239701257', 'https://semopenalex.org/work/W2923319240', 'https://semopenalex.org/work/W3056873248', 'https://semopenalex.org/work/W2062482216', 'https://semopenalex.org/work/W2071898607', 'https://semopenalex.org/work/W4406500025', 'https://semopenalex.org/work/W2296703446', 'https://semopenalex.org/work/W3208070608', 'https://semopenalex.org/work/W2053495332', 'https://semopenalex.org/work/W4226101170', 'https://semopenalex.org/work/W3138702399', 'https://semopenalex.org/work/W1507165467', 'https://semopenalex.org/work/W4386486628', 'https://semopenalex.org/work/W2041991478', 'https://semopenalex.org/work/W2065468011', 'https://semopenalex.org/work/W4285140876', 'https://semopenalex.org/work/W2130677504', 'https://semopenalex.org/work/W2900517348', 'https://semopenalex.org/work/W2114238248', 'https://semopenalex.org/work/W2954580762', 'https://semopenalex.org/work/W2942454712', 'https://semopenalex.org/work/W175358687', 'https://semopenalex.org/work/W2400388471', 'https://semopenalex.org/work/W2021445484', 'https://semopenalex.org/work/W4377099260', 'https://semopenalex.org/work/W2775805395', 'https://semopenalex.org/work/W2901915930', 'https://semopenalex.org/work/W1971179860', 'https://semopenalex.org/work/W4387427541', 'https://semopenalex.org/work/W4385285133', 'https://semopenalex.org/work/W2166042493', 'https://semopenalex.org/work/W2344152126', 'https://semopenalex.org/work/W2608436687', 'https://semopenalex.org/work/W4302306230', 'https://semopenalex.org/work/W2965941321', 'https://semopenalex.org/work/W3206119617', 'https://semopenalex.org/work/W2067642869', 'https://semopenalex.org/work/W2089762145', 'https://semopenalex.org/work/W2017988065', 'https://semopenalex.org/work/W4297725807', 'https://semopenalex.org/work/W4404411574', 'https://semopenalex.org/work/W53369794', 'https://semopenalex.org/work/W1608885791', 'https://semopenalex.org/work/W51883144', 'https://semopenalex.org/work/W2970882829', 'https://semopenalex.org/work/W2998494411', 'https://semopenalex.org/work/W2344504222', 'https://semopenalex.org/work/W4404788038', 'https://semopenalex.org/work/W4281629096', 'https://semopenalex.org/work/W2013042849', 'https://semopenalex.org/work/W2990998351', 'https://semopenalex.org/work/W4394867508', 'https://semopenalex.org/work/W3204280976', 'https://semopenalex.org/work/W2924425593', 'https://semopenalex.org/work/W2465409613', 'https://semopenalex.org/work/W4401689701', 'https://semopenalex.org/work/W1497322082', 'https://semopenalex.org/work/W4206564475', 'https://semopenalex.org/work/W2077846458', 'https://semopenalex.org/work/W4312710991', 'https://semopenalex.org/work/W4405448580', 'https://semopenalex.org/work/W1992237536', 'https://semopenalex.org/work/W3106296980', 'https://semopenalex.org/work/W2005330588', 'https://semopenalex.org/work/W2613136061', 'https://semopenalex.org/work/W4255845198', 'https://semopenalex.org/work/W2066037774', 'https://semopenalex.org/work/W1892888926', 'https://semopenalex.org/work/W1971405342', 'https://semopenalex.org/work/W2550260459', 'https://semopenalex.org/work/W4376269693', 'https://semopenalex.org/work/W4292848294', 'https://semopenalex.org/work/W4402091088', 'https://semopenalex.org/work/W4402157005', 'https://semopenalex.org/work/W1608148813', 'https://semopenalex.org/work/W2152170845', 'https://semopenalex.org/work/W2052312648', 'https://semopenalex.org/work/W1527508100', 'https://semopenalex.org/work/W4406118666', 'https://semopenalex.org/work/W2594546957', 'https://semopenalex.org/work/W1980418511', 'https://semopenalex.org/work/W1995310630', 'https://semopenalex.org/work/W2949762754', 'https://semopenalex.org/work/W4237415699', 'https://semopenalex.org/work/W2293638396', 'https://semopenalex.org/work/W3012031786', 'https://semopenalex.org/work/W4388320652', 'https://semopenalex.org/work/W4385852291', 'https://semopenalex.org/work/W4404464211', 'https://semopenalex.org/work/W2084265221', 'https://semopenalex.org/work/W4287758300', 'https://semopenalex.org/work/W2986139096', 'https://semopenalex.org/work/W3101678388', 'https://semopenalex.org/work/W2422976594', 'https://semopenalex.org/work/W171268263', 'https://semopenalex.org/work/W2309229337', 'https://semopenalex.org/work/W4283121050', 'https://semopenalex.org/work/W1508670223', 'https://semopenalex.org/work/W4312262758', 'https://semopenalex.org/work/W3003707605', 'https://semopenalex.org/work/W4390137041', 'https://semopenalex.org/work/W4235399974', 'https://semopenalex.org/work/W3136943238', 'https://semopenalex.org/work/W112461364', 'https://semopenalex.org/work/W2165303722', 'https://semopenalex.org/work/W2735379054', 'https://semopenalex.org/work/W1579468036', 'https://semopenalex.org/work/W2982576723', 'https://semopenalex.org/work/W4385270603', 'https://semopenalex.org/work/W1609271133', 'https://semopenalex.org/work/W2022462411', 'https://semopenalex.org/work/W4404180533', 'https://semopenalex.org/work/W4309647894', 'https://semopenalex.org/work/W2052763829', 'https://semopenalex.org/work/W2700566289', 'https://semopenalex.org/work/W1753378771', 'https://semopenalex.org/work/W2804137108', 'https://semopenalex.org/work/W3125272485', 'https://semopenalex.org/work/W2499947387', 'https://semopenalex.org/work/W2951520541', 'https://semopenalex.org/work/W2734465187', 'https://semopenalex.org/work/W2735638814', 'https://semopenalex.org/work/W4313267141', 'https://semopenalex.org/work/W2427008665', 'https://semopenalex.org/work/W2953273686', 'https://semopenalex.org/work/W2085892029', 'https://semopenalex.org/work/W2077926445', 'https://semopenalex.org/work/W2426048753', 'https://semopenalex.org/work/W2594649443', 'https://semopenalex.org/work/W32663231', 'https://semopenalex.org/work/W2131164945', 'https://semopenalex.org/work/W2016580264', 'https://semopenalex.org/work/W2919204815', 'https://semopenalex.org/work/W3035750004', 'https://semopenalex.org/work/W4390456266', 'https://semopenalex.org/work/W2950787737', 'https://semopenalex.org/work/W4239052734', 'https://semopenalex.org/work/W4317438846', 'https://semopenalex.org/work/W4389543458', 'https://semopenalex.org/work/W2107915643', 'https://semopenalex.org/work/W2163121311', 'https://semopenalex.org/work/W2612374761', 'https://semopenalex.org/work/W1827647151', 'https://semopenalex.org/work/W2054374338', 'https://semopenalex.org/work/W4400909999', 'https://semopenalex.org/work/W1498712689', 'https://semopenalex.org/work/W4362655741', 'https://semopenalex.org/work/W4388040916', 'https://semopenalex.org/work/W433641300', 'https://semopenalex.org/work/W3015227276', 'https://semopenalex.org/work/W2922408557', 'https://semopenalex.org/work/W2909965602', 'https://semopenalex.org/work/W2903238830', 'https://semopenalex.org/work/W3200977970', 'https://semopenalex.org/work/W4301486307', 'https://semopenalex.org/work/W3167737483', 'https://semopenalex.org/work/W2730099201', 'https://semopenalex.org/work/W4376061047', 'https://semopenalex.org/work/W2557853356', 'https://semopenalex.org/work/W4287231113', 'https://semopenalex.org/work/W4287902628', 'https://semopenalex.org/work/W4230101435', 'https://semopenalex.org/work/W1594237328', 'https://semopenalex.org/work/W1934576426', 'https://semopenalex.org/work/W2089906307', 'https://semopenalex.org/work/W4404735027', 'https://semopenalex.org/work/W3157617328', 'https://semopenalex.org/work/W2920517911', 'https://semopenalex.org/work/W1524789227', 'https://semopenalex.org/work/W4317640658', 'https://semopenalex.org/work/W2025036412', 'https://semopenalex.org/work/W4233690695', 'https://semopenalex.org/work/W2735964774', 'https://semopenalex.org/work/W2007985134', 'https://semopenalex.org/work/W2110495371', 'https://semopenalex.org/work/W3122345191', 'https://semopenalex.org/work/W2897073097', 'https://semopenalex.org/work/W1968925642', 'https://semopenalex.org/work/W2003561941', 'https://semopenalex.org/work/W2557438307', 'https://semopenalex.org/work/W3097918021', 'https://semopenalex.org/work/W4402352406', 'https://semopenalex.org/work/W4402713726', 'https://semopenalex.org/work/W2020493833', 'https://semopenalex.org/work/W1554846139', 'https://semopenalex.org/work/W4223526958', 'https://semopenalex.org/work/W1793399427', 'https://semopenalex.org/work/W2998183977', 'https://semopenalex.org/work/W3179758589', 'https://semopenalex.org/work/W3107101618', 'https://semopenalex.org/work/W2063106869', 'https://semopenalex.org/work/W2045329305', 'https://semopenalex.org/work/W4404758113', 'https://semopenalex.org/work/W4406679155', 'https://semopenalex.org/work/W4405179263', 'https://semopenalex.org/work/W2167984494', 'https://semopenalex.org/work/W2025843016', 'https://semopenalex.org/work/W2167318748', 'https://semopenalex.org/work/W2908865778', 'https://semopenalex.org/work/W4233194301', 'https://semopenalex.org/work/W4317042649', 'https://semopenalex.org/work/W1715440516', 'https://semopenalex.org/work/W2424120713', 'https://semopenalex.org/work/W2587382914', 'https://semopenalex.org/work/W2106327888', 'https://semopenalex.org/work/W3112593626', 'https://semopenalex.org/work/W4399118880', 'https://semopenalex.org/work/W4252774423', 'https://semopenalex.org/work/W3163303484', 'https://semopenalex.org/work/W2147228279', 'https://semopenalex.org/work/W4399881333', 'https://semopenalex.org/work/W4390784356', 'https://semopenalex.org/work/W2092411821', 'https://semopenalex.org/work/W1688396929', 'https://semopenalex.org/work/W4312038601', 'https://semopenalex.org/work/W4391766346', 'https://semopenalex.org/work/W2027402731', 'https://semopenalex.org/work/W2088840086', 'https://semopenalex.org/work/W2404446956', 'https://semopenalex.org/work/W4403706502', 'https://semopenalex.org/work/W4375927790', 'https://semopenalex.org/work/W2065926303', 'https://semopenalex.org/work/W2494607466', 'https://semopenalex.org/work/W2063775187', 'https://semopenalex.org/work/W4386486604', 'https://semopenalex.org/work/W2794632798', 'https://semopenalex.org/work/W2557660464', 'https://semopenalex.org/work/W3023950320', 'https://semopenalex.org/work/W2032265428', 'https://semopenalex.org/work/W2491619570', 'https://semopenalex.org/work/W2251316727', 'https://semopenalex.org/work/W4320909166', 'https://semopenalex.org/work/W1510296842', 'https://semopenalex.org/work/W2795358293', 'https://semopenalex.org/work/W2554367017', 'https://semopenalex.org/work/W104210143', 'https://semopenalex.org/work/W4384756284', 'https://semopenalex.org/work/W102169640', 'https://semopenalex.org/work/W2060252439']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2170408115', 'https://semopenalex.org/work/W2766982571', 'https://semopenalex.org/work/W2991620042', 'https://semopenalex.org/work/W4385270061', 'https://semopenalex.org/work/W2533450760', 'https://semopenalex.org/work/W2744747563', 'https://semopenalex.org/work/W2543636489', 'https://semopenalex.org/work/W2274023127', 'https://semopenalex.org/work/W2170569478', 'https://semopenalex.org/work/W2606477497', 'https://semopenalex.org/work/W2183481037', 'https://semopenalex.org/work/W631061088', 'https://semopenalex.org/work/W2095197397', 'https://semopenalex.org/work/W2520501437', 'https://semopenalex.org/work/W1485763045', 'https://semopenalex.org/work/W2164128269', 'https://semopenalex.org/work/W2804483632', 'https://semopenalex.org/work/W2038834953', 'https://semopenalex.org/work/W4401211153', 'https://semopenalex.org/work/W2988200595', 'https://semopenalex.org/work/W4323520954', 'https://semopenalex.org/work/W2119126614', 'https://semopenalex.org/work/W2281944404', 'https://semopenalex.org/work/W3039950565', 'https://semopenalex.org/work/W353286105', 'https://semopenalex.org/work/W1992351481', 'https://semopenalex.org/work/W2044819541', 'https://semopenalex.org/work/W4312355809', 'https://semopenalex.org/work/W2109817976', 'https://semopenalex.org/work/W2142825530', 'https://semopenalex.org/work/W2543078219', 'https://semopenalex.org/work/W4406610449', 'https://semopenalex.org/work/W2787585844', 'https://semopenalex.org/work/W4254440377', 'https://semopenalex.org/work/W2045839277', 'https://semopenalex.org/work/W2069414351', 'https://semopenalex.org/work/W2033822653', 'https://semopenalex.org/work/W114162058', 'https://semopenalex.org/work/W2740641633', 'https://semopenalex.org/work/W2109381352', 'https://semopenalex.org/work/W2940974961', 'https://semopenalex.org/work/W3013137731', 'https://semopenalex.org/work/W2109953704', 'https://semopenalex.org/work/W2592727939', 'https://semopenalex.org/work/W4402308683', 'https://semopenalex.org/work/W2490721483', 'https://semopenalex.org/work/W2279936185', 'https://semopenalex.org/work/W2134296970', 'https://semopenalex.org/work/W4389544910', 'https://semopenalex.org/work/W3082221710', 'https://semopenalex.org/work/W4294377907', 'https://semopenalex.org/work/W1548961190', 'https://semopenalex.org/work/W2009381697', 'https://semopenalex.org/work/W2181451922', 'https://semopenalex.org/work/W2544193641', 'https://semopenalex.org/work/W35944550', 'https://semopenalex.org/work/W2131782464', 'https://semopenalex.org/work/W2186051326', 'https://semopenalex.org/work/W2406076180', 'https://semopenalex.org/work/W2920046148', 'https://semopenalex.org/work/W2882991374', 'https://semopenalex.org/work/W3045090494', 'https://semopenalex.org/work/W2500657989', 'https://semopenalex.org/work/W2586210102', 'https://semopenalex.org/work/W1948644485', 'https://semopenalex.org/work/W2187283515', 'https://semopenalex.org/work/W2162087782', 'https://semopenalex.org/work/W1507972221', 'https://semopenalex.org/work/W2045814693', 'https://semopenalex.org/work/W2058582862', 'https://semopenalex.org/work/W2208334390', 'https://semopenalex.org/work/W4242340023', 'https://semopenalex.org/work/W2121152778', 'https://semopenalex.org/work/W2118223707', 'https://semopenalex.org/work/W2157296879', 'https://semopenalex.org/work/W2105887457', 'https://semopenalex.org/work/W2900907022', 'https://semopenalex.org/work/W2119790122', 'https://semopenalex.org/work/W3159955321', 'https://semopenalex.org/work/W1517747205', 'https://semopenalex.org/work/W2014991509', 'https://semopenalex.org/work/W2503538293', 'https://semopenalex.org/work/W2121560629', 'https://semopenalex.org/work/W3094884854', 'https://semopenalex.org/work/W2886000389', 'https://semopenalex.org/work/W2955604282', 'https://semopenalex.org/work/W9580097', 'https://semopenalex.org/work/W2156750105', 'https://semopenalex.org/work/W4293879554', 'https://semopenalex.org/work/W3128859177', 'https://semopenalex.org/work/W2757210695', 'https://semopenalex.org/work/W2912877776', 'https://semopenalex.org/work/W2100157995', 'https://semopenalex.org/work/W1482510513', 'https://semopenalex.org/work/W2073698175', 'https://semopenalex.org/work/W2122367183', 'https://semopenalex.org/work/W2984710244', 'https://semopenalex.org/work/W2938466343', 'https://semopenalex.org/work/W2113013005', 'https://semopenalex.org/work/W1986712311', 'https://semopenalex.org/work/W2501269234', 'https://semopenalex.org/work/W2104477096', 'https://semopenalex.org/work/W1480726488', 'https://semopenalex.org/work/W4242119717', 'https://semopenalex.org/work/W2094470527', 'https://semopenalex.org/work/W2766251094', 'https://semopenalex.org/work/W1652026612', 'https://semopenalex.org/work/W2169145161', 'https://semopenalex.org/work/W2168071345', 'https://semopenalex.org/work/W2395307179', 'https://semopenalex.org/work/W2183124059', 'https://semopenalex.org/work/W2481171871', 'https://semopenalex.org/work/W2123152632', 'https://semopenalex.org/work/W4297337442', 'https://semopenalex.org/work/W2058548491', 'https://semopenalex.org/work/W2331587677', 'https://semopenalex.org/work/W2016076885', 'https://semopenalex.org/work/W4288388647', 'https://semopenalex.org/work/W2136200992', 'https://semopenalex.org/work/W3213239954', 'https://semopenalex.org/work/W2498643698', 'https://semopenalex.org/work/W2785636345', 'https://semopenalex.org/work/W4247423780', 'https://semopenalex.org/work/W2939926333', 'https://semopenalex.org/work/W2100655953', 'https://semopenalex.org/work/W4234343174', 'https://semopenalex.org/work/W4287123423', 'https://semopenalex.org/work/W4312562684', 'https://semopenalex.org/work/W4384702653', 'https://semopenalex.org/work/W2805267222', 'https://semopenalex.org/work/W2884671900', 'https://semopenalex.org/work/W2032489905', 'https://semopenalex.org/work/W2500947436', 'https://semopenalex.org/work/W2101944542', 'https://semopenalex.org/work/W1515551736', 'https://semopenalex.org/work/W2107590159', 'https://semopenalex.org/work/W2108268781', 'https://semopenalex.org/work/W4403999810', 'https://semopenalex.org/work/W2546318682', 'https://semopenalex.org/work/W4402979232', 'https://semopenalex.org/work/W2141335099', 'https://semopenalex.org/work/W2751093764', 'https://semopenalex.org/work/W2289612697', 'https://semopenalex.org/work/W2997388317', 'https://semopenalex.org/work/W2105418646', 'https://semopenalex.org/work/W2142585384', 'https://semopenalex.org/work/W2766163374', 'https://semopenalex.org/work/W2340681460', 'https://semopenalex.org/work/W2156187609', 'https://semopenalex.org/work/W2079439137', 'https://semopenalex.org/work/W1984919799', 'https://semopenalex.org/work/W1982884959', 'https://semopenalex.org/work/W4298258686', 'https://semopenalex.org/work/W2262803801', 'https://semopenalex.org/work/W2774610283', 'https://semopenalex.org/work/W2112297062', 'https://semopenalex.org/work/W2144336525', 'https://semopenalex.org/work/W3186300876', 'https://semopenalex.org/work/W2057919147', 'https://semopenalex.org/work/W2108381632', 'https://semopenalex.org/work/W4298960349', 'https://semopenalex.org/work/W2144395182', 'https://semopenalex.org/work/W2010409592', 'https://semopenalex.org/work/W2912038406', 'https://semopenalex.org/work/W1941485786', 'https://semopenalex.org/work/W3039606946', 'https://semopenalex.org/work/W2133799581', 'https://semopenalex.org/work/W2117057248', 'https://semopenalex.org/work/W2903273798', 'https://semopenalex.org/work/W2134599441', 'https://semopenalex.org/work/W4392543720', 'https://semopenalex.org/work/W3045574610', 'https://semopenalex.org/work/W4300578608', 'https://semopenalex.org/work/W2561493933', 'https://semopenalex.org/work/W3170839080', 'https://semopenalex.org/work/W2799937660', 'https://semopenalex.org/work/W2157882706', 'https://semopenalex.org/work/W2540524787', 'https://semopenalex.org/work/W1549452849', 'https://semopenalex.org/work/W2157658190', 'https://semopenalex.org/work/W2121912566', 'https://semopenalex.org/work/W1557332815', 'https://semopenalex.org/work/W2947451568', 'https://semopenalex.org/work/W2001171358', 'https://semopenalex.org/work/W2147267176', 'https://semopenalex.org/work/W4402834809', 'https://semopenalex.org/work/W2012691738', 'https://semopenalex.org/work/W2787605814', 'https://semopenalex.org/work/W4297750954', 'https://semopenalex.org/work/W1979373413', 'https://semopenalex.org/work/W2401530677', 'https://semopenalex.org/work/W2990440086', 'https://semopenalex.org/work/W4406014822', 'https://semopenalex.org/work/W2165498322', 'https://semopenalex.org/work/W122055421', 'https://semopenalex.org/work/W2594852807', 'https://semopenalex.org/work/W2113007367', 'https://semopenalex.org/work/W2401453496', 'https://semopenalex.org/work/W2122418630', 'https://semopenalex.org/work/W2159051003', 'https://semopenalex.org/work/W2540556093', 'https://semopenalex.org/work/W3104094101', 'https://semopenalex.org/work/W2131978527', 'https://semopenalex.org/work/W3008151205', 'https://semopenalex.org/work/W3081542875', 'https://semopenalex.org/work/W2285513680', 'https://semopenalex.org/work/W76792789', 'https://semopenalex.org/work/W1624711360', 'https://semopenalex.org/work/W2166316728', 'https://semopenalex.org/work/W1564216562', 'https://semopenalex.org/work/W1966605510', 'https://semopenalex.org/work/W2954419148', 'https://semopenalex.org/work/W1990117292', 'https://semopenalex.org/work/W2094087606', 'https://semopenalex.org/work/W1520987202', 'https://semopenalex.org/work/W2165961214', 'https://semopenalex.org/work/W1590500716', 'https://semopenalex.org/work/W3110586151', 'https://semopenalex.org/work/W2962369188', 'https://semopenalex.org/work/W2968841798', 'https://semopenalex.org/work/W4403125844', 'https://semopenalex.org/work/W2117136963', 'https://semopenalex.org/work/W140514722', 'https://semopenalex.org/work/W2405519782', 'https://semopenalex.org/work/W2104369716', 'https://semopenalex.org/work/W1705117738', 'https://semopenalex.org/work/W4393027617', 'https://semopenalex.org/work/W2907559738', 'https://semopenalex.org/work/W3103131504', 'https://semopenalex.org/work/W111649852', 'https://semopenalex.org/work/W2121543627', 'https://semopenalex.org/work/W2888229508', 'https://semopenalex.org/work/W2919229748', 'https://semopenalex.org/work/W2011500828', 'https://semopenalex.org/work/W4281550399', 'https://semopenalex.org/work/W2187570332', 'https://semopenalex.org/work/W4404042589', 'https://semopenalex.org/work/W4233256480', 'https://semopenalex.org/work/W2991393039', 'https://semopenalex.org/work/W2067085090', 'https://semopenalex.org/work/W4226404276', 'https://semopenalex.org/work/W3030053463', 'https://semopenalex.org/work/W1555032212', 'https://semopenalex.org/work/W2725423089', 'https://semopenalex.org/work/W2169942219', 'https://semopenalex.org/work/W2134429709', 'https://semopenalex.org/work/W2977681526', 'https://semopenalex.org/work/W2125753044', 'https://semopenalex.org/work/W4403125773', 'https://semopenalex.org/work/W3036712996', 'https://semopenalex.org/work/W1987549102', 'https://semopenalex.org/work/W2083144563', 'https://semopenalex.org/work/W2537968228', 'https://semopenalex.org/work/W1964585045', 'https://semopenalex.org/work/W2526904862', 'https://semopenalex.org/work/W1599692521', 'https://semopenalex.org/work/W2008563498', 'https://semopenalex.org/work/W2786802123', 'https://semopenalex.org/work/W2111061210', 'https://semopenalex.org/work/W2111799653', 'https://semopenalex.org/work/W1580771185', 'https://semopenalex.org/work/W2485056264', 'https://semopenalex.org/work/W2136201039', 'https://semopenalex.org/work/W2117259335', 'https://semopenalex.org/work/W2081390115', 'https://semopenalex.org/work/W2130054343', 'https://semopenalex.org/work/W2883794401', 'https://semopenalex.org/work/W2402717311', 'https://semopenalex.org/work/W3100661680', 'https://semopenalex.org/work/W1910794954', 'https://semopenalex.org/work/W3130578691', 'https://semopenalex.org/work/W4388426781', 'https://semopenalex.org/work/W2003458572', 'https://semopenalex.org/work/W1989274606', 'https://semopenalex.org/work/W1973271536', 'https://semopenalex.org/work/W2763356713', 'https://semopenalex.org/work/W2159027361', 'https://semopenalex.org/work/W2079751128', 'https://semopenalex.org/work/W2138882120', 'https://semopenalex.org/work/W2487326631', 'https://semopenalex.org/work/W4391943843', 'https://semopenalex.org/work/W2115153087', 'https://semopenalex.org/work/W2240237605', 'https://semopenalex.org/work/W1519109301', 'https://semopenalex.org/work/W4402128386', 'https://semopenalex.org/work/W1926257802', 'https://semopenalex.org/work/W4385270053', 'https://semopenalex.org/work/W4239036698', 'https://semopenalex.org/work/W2983719171', 'https://semopenalex.org/work/W2519141617', 'https://semopenalex.org/work/W2020410123', 'https://semopenalex.org/work/W2777618242', 'https://semopenalex.org/work/W2164545908', 'https://semopenalex.org/work/W3141451211', 'https://semopenalex.org/work/W2157503216', 'https://semopenalex.org/work/W2106703611', 'https://semopenalex.org/work/W3209165692', 'https://semopenalex.org/work/W59367440', 'https://semopenalex.org/work/W2126671726', 'https://semopenalex.org/work/W2328025858', 'https://semopenalex.org/work/W2936716896', 'https://semopenalex.org/work/W2541172349', 'https://semopenalex.org/work/W2127821072', 'https://semopenalex.org/work/W2104309106', 'https://semopenalex.org/work/W2123881029', 'https://semopenalex.org/work/W1896302153', 'https://semopenalex.org/work/W2064860625', 'https://semopenalex.org/work/W2148858788', 'https://semopenalex.org/work/W2119981423', 'https://semopenalex.org/work/W2154904090', 'https://semopenalex.org/work/W2787268163', 'https://semopenalex.org/work/W2245372972', 'https://semopenalex.org/work/W2044345875', 'https://semopenalex.org/work/W4200236125', 'https://semopenalex.org/work/W2982349593', 'https://semopenalex.org/work/W2890889532', 'https://semopenalex.org/work/W4323521055', 'https://semopenalex.org/work/W1902058099', 'https://semopenalex.org/work/W2000911624', 'https://semopenalex.org/work/W2160865195', 'https://semopenalex.org/work/W2200566218', 'https://semopenalex.org/work/W2167408205', 'https://semopenalex.org/work/W1584839339', 'https://semopenalex.org/work/W2294615479', 'https://semopenalex.org/work/W76204627', 'https://semopenalex.org/work/W1998332704', 'https://semopenalex.org/work/W1493406030', 'https://semopenalex.org/work/W1528178363', 'https://semopenalex.org/work/W2109677119', 'https://semopenalex.org/work/W3170931628', 'https://semopenalex.org/work/W1578533435', 'https://semopenalex.org/work/W2950354866', 'https://semopenalex.org/work/W2120688665', 'https://semopenalex.org/work/W3160943626', 'https://semopenalex.org/work/W2215976694', 'https://semopenalex.org/work/W3132996686', 'https://semopenalex.org/work/W2148992129', 'https://semopenalex.org/work/W1984310382', 'https://semopenalex.org/work/W4390659131', 'https://semopenalex.org/work/W2503969748', 'https://semopenalex.org/work/W1838886282', 'https://semopenalex.org/work/W2166053761', 'https://semopenalex.org/work/W2009899612', 'https://semopenalex.org/work/W1579367494', 'https://semopenalex.org/work/W2099843108', 'https://semopenalex.org/work/W4293095112', 'https://semopenalex.org/work/W2955952880', 'https://semopenalex.org/work/W2548572867', 'https://semopenalex.org/work/W2132618617', 'https://semopenalex.org/work/W2164547685', 'https://semopenalex.org/work/W2113612215', 'https://semopenalex.org/work/W4400351820', 'https://semopenalex.org/work/W2163018094', 'https://semopenalex.org/work/W2009696065', 'https://semopenalex.org/work/W1986283595', 'https://semopenalex.org/work/W2502226431', 'https://semopenalex.org/work/W2898585817', 'https://semopenalex.org/work/W2963370896', 'https://semopenalex.org/work/W2307409170', 'https://semopenalex.org/work/W2228428948', 'https://semopenalex.org/work/W2398872811', 'https://semopenalex.org/work/W1946587052', 'https://semopenalex.org/work/W1522897038', 'https://semopenalex.org/work/W2124194899', 'https://semopenalex.org/work/W2053747988', 'https://semopenalex.org/work/W2186442154', 'https://semopenalex.org/work/W2141326712', 'https://semopenalex.org/work/W2120176582', 'https://semopenalex.org/work/W2564154611', 'https://semopenalex.org/work/W2517191459', 'https://semopenalex.org/work/W2111822438', 'https://semopenalex.org/work/W2476150052', 'https://semopenalex.org/work/W2155980659', 'https://semopenalex.org/work/W2137001054', 'https://semopenalex.org/work/W1510162576', 'https://semopenalex.org/work/W4321012997', 'https://semopenalex.org/work/W2150492409', 'https://semopenalex.org/work/W1592264855', 'https://semopenalex.org/work/W1979949113', 'https://semopenalex.org/work/W2936711758', 'https://semopenalex.org/work/W2050289103', 'https://semopenalex.org/work/W2202129636', 'https://semopenalex.org/work/W2124647579', 'https://semopenalex.org/work/W3108293921', 'https://semopenalex.org/work/W2051339135', 'https://semopenalex.org/work/W2137861936', 'https://semopenalex.org/work/W1516912776', 'https://semopenalex.org/work/W2148960436', 'https://semopenalex.org/work/W2766626194', 'https://semopenalex.org/work/W3127823319', 'https://semopenalex.org/work/W1537679252', 'https://semopenalex.org/work/W4250731680', 'https://semopenalex.org/work/W2556526093', 'https://semopenalex.org/work/W2955440244', 'https://semopenalex.org/work/W1499877928', 'https://semopenalex.org/work/W2111006641', 'https://semopenalex.org/work/W2790944729', 'https://semopenalex.org/work/W261226932', 'https://semopenalex.org/work/W2127377124', 'https://semopenalex.org/work/W2170895124', 'https://semopenalex.org/work/W2118554133', 'https://semopenalex.org/work/W1571528571', 'https://semopenalex.org/work/W2155644198', 'https://semopenalex.org/work/W2245851126', 'https://semopenalex.org/work/W4392190198', 'https://semopenalex.org/work/W2126253766', 'https://semopenalex.org/work/W2777410706', 'https://semopenalex.org/work/W2148721912', 'https://semopenalex.org/work/W2106435676', 'https://semopenalex.org/work/W2602562888', 'https://semopenalex.org/work/W2786519012', 'https://semopenalex.org/work/W172504922', 'https://semopenalex.org/work/W1488536841', 'https://semopenalex.org/work/W2170360314', 'https://semopenalex.org/work/W2966201088', 'https://semopenalex.org/work/W4226063036', 'https://semopenalex.org/work/W2626620811', 'https://semopenalex.org/work/W2754625146', 'https://semopenalex.org/work/W2119490456', 'https://semopenalex.org/work/W2336695252', 'https://semopenalex.org/work/W3110064890', 'https://semopenalex.org/work/W2129294850', 'https://semopenalex.org/work/W2740465906', 'https://semopenalex.org/work/W2965147014', 'https://semopenalex.org/work/W2086017364', 'https://semopenalex.org/work/W2114936550', 'https://semopenalex.org/work/W2162561109', 'https://semopenalex.org/work/W607271554', 'https://semopenalex.org/work/W2125116412', 'https://semopenalex.org/work/W1594843825', 'https://semopenalex.org/work/W2984240702', 'https://semopenalex.org/work/W4394744720', 'https://semopenalex.org/work/W2071157010', 'https://semopenalex.org/work/W2170653766', 'https://semopenalex.org/work/W3184029910', 'https://semopenalex.org/work/W2096326794', 'https://semopenalex.org/work/W1497950644', 'https://semopenalex.org/work/W4385269567', 'https://semopenalex.org/work/W2114825970', 'https://semopenalex.org/work/W2155104030', 'https://semopenalex.org/work/W1989488730', 'https://semopenalex.org/work/W2111597589', 'https://semopenalex.org/work/W4205392516', 'https://semopenalex.org/work/W2155684141', 'https://semopenalex.org/work/W4293402261', 'https://semopenalex.org/work/W4394116511', 'https://semopenalex.org/work/W4300749330', 'https://semopenalex.org/work/W2406959715', 'https://semopenalex.org/work/W2112555124', 'https://semopenalex.org/work/W2772832587', 'https://semopenalex.org/work/W1920632762', 'https://semopenalex.org/work/W2804775637', 'https://semopenalex.org/work/W2497082396', 'https://semopenalex.org/work/W2542595939', 'https://semopenalex.org/work/W1584367909', 'https://semopenalex.org/work/W1540229220', 'https://semopenalex.org/work/W4389941987', 'https://semopenalex.org/work/W2049063621', 'https://semopenalex.org/work/W4388040439', 'https://semopenalex.org/work/W4311416457', 'https://semopenalex.org/work/W2134446520', 'https://semopenalex.org/work/W4327522346', 'https://semopenalex.org/work/W2519923144', 'https://semopenalex.org/work/W2982037468', 'https://semopenalex.org/work/W1559374953', 'https://semopenalex.org/work/W1986398770', 'https://semopenalex.org/work/W2069759240', 'https://semopenalex.org/work/W2808722964', 'https://semopenalex.org/work/W2316602395', 'https://semopenalex.org/work/W3167854971', 'https://semopenalex.org/work/W2094614098', 'https://semopenalex.org/work/W4313556225', 'https://semopenalex.org/work/W1821364614', 'https://semopenalex.org/work/W4385269856', 'https://semopenalex.org/work/W2142547620', 'https://semopenalex.org/work/W2149251866', 'https://semopenalex.org/work/W1587327301', 'https://semopenalex.org/work/W3138514506', 'https://semopenalex.org/work/W2093266144', 'https://semopenalex.org/work/W2127876778', 'https://semopenalex.org/work/W2987385411', 'https://semopenalex.org/work/W1993930167', 'https://semopenalex.org/work/W2964258439', 'https://semopenalex.org/work/W3121431376', 'https://semopenalex.org/work/W2114531623', 'https://semopenalex.org/work/W2053542705', 'https://semopenalex.org/work/W2500140119', 'https://semopenalex.org/work/W2132778805', 'https://semopenalex.org/work/W2166420997', 'https://semopenalex.org/work/W2025385583', 'https://semopenalex.org/work/W2168565196', 'https://semopenalex.org/work/W2770889757', 'https://semopenalex.org/work/W1964144113', 'https://semopenalex.org/work/W2171661652', 'https://semopenalex.org/work/W1965073859', 'https://semopenalex.org/work/W1966525100', 'https://semopenalex.org/work/W2132926630', 'https://semopenalex.org/work/W4253525662', 'https://semopenalex.org/work/W1926884078', 'https://semopenalex.org/work/W2150896326', 'https://semopenalex.org/work/W2980210197', 'https://semopenalex.org/work/W3047046441', 'https://semopenalex.org/work/W2557898794', 'https://semopenalex.org/work/W1572900186', 'https://semopenalex.org/work/W2049150434', 'https://semopenalex.org/work/W2024765053', 'https://semopenalex.org/work/W2147408807', 'https://semopenalex.org/work/W2068561128', 'https://semopenalex.org/work/W2539939386', 'https://semopenalex.org/work/W2040382413', 'https://semopenalex.org/work/W1652472566', 'https://semopenalex.org/work/W2162725450', 'https://semopenalex.org/work/W2023340823', 'https://semopenalex.org/work/W3209479219', 'https://semopenalex.org/work/W4401808481', 'https://semopenalex.org/work/W4405784852', 'https://semopenalex.org/work/W2100602544', 'https://semopenalex.org/work/W2096776475', 'https://semopenalex.org/work/W1500990290', 'https://semopenalex.org/work/W2120378573', 'https://semopenalex.org/work/W4403125884', 'https://semopenalex.org/work/W1548041278', 'https://semopenalex.org/work/W2401532570', 'https://semopenalex.org/work/W2145697554', 'https://semopenalex.org/work/W4393100182', 'https://semopenalex.org/work/W2397258303', 'https://semopenalex.org/work/W2103338957', 'https://semopenalex.org/work/W2100592435', 'https://semopenalex.org/work/W1921873222', 'https://semopenalex.org/work/W1995014228', 'https://semopenalex.org/work/W2142060508', 'https://semopenalex.org/work/W3082571674', 'https://semopenalex.org/work/W3109245228', 'https://semopenalex.org/work/W3087842236', 'https://semopenalex.org/work/W2283285553', 'https://semopenalex.org/work/W127067238', 'https://semopenalex.org/work/W2339789124', 'https://semopenalex.org/work/W2898585124', 'https://semopenalex.org/work/W2542205371', 'https://semopenalex.org/work/W2168508543', 'https://semopenalex.org/work/W4233368763', 'https://semopenalex.org/work/W2211455504', 'https://semopenalex.org/work/W2774349331', 'https://semopenalex.org/work/W4293231652', 'https://semopenalex.org/work/W2561426711', 'https://semopenalex.org/work/W2985541527', 'https://semopenalex.org/work/W2097877425', 'https://semopenalex.org/work/W4391423489', 'https://semopenalex.org/work/W4385804783', 'https://semopenalex.org/work/W1991856529', 'https://semopenalex.org/work/W2016966745', 'https://semopenalex.org/work/W2594012298', 'https://semopenalex.org/work/W2047510814', 'https://semopenalex.org/work/W3047559567', 'https://semopenalex.org/work/W2726702715', 'https://semopenalex.org/work/W4254943154', 'https://semopenalex.org/work/W2797091164', 'https://semopenalex.org/work/W3112601604', 'https://semopenalex.org/work/W2153789992', 'https://semopenalex.org/work/W2120123683', 'https://semopenalex.org/work/W2155133785', 'https://semopenalex.org/work/W2786221602', 'https://semopenalex.org/work/W2259162560', 'https://semopenalex.org/work/W2907667788', 'https://semopenalex.org/work/W2157485058', 'https://semopenalex.org/work/W2991594051', 'https://semopenalex.org/work/W2744040211', 'https://semopenalex.org/work/W2120032717', 'https://semopenalex.org/work/W2938131231', 'https://semopenalex.org/work/W2041523794', 'https://semopenalex.org/work/W2132560274', 'https://semopenalex.org/work/W2554661407', 'https://semopenalex.org/work/W2103012040', 'https://semopenalex.org/work/W2145374144', 'https://semopenalex.org/work/W1561470659', 'https://semopenalex.org/work/W4281552421', 'https://semopenalex.org/work/W2035169162', 'https://semopenalex.org/work/W2395456403', 'https://semopenalex.org/work/W1986396347', 'https://semopenalex.org/work/W2540423650', 'https://semopenalex.org/work/W2767802864', 'https://semopenalex.org/work/W4401808284', 'https://semopenalex.org/work/W2003278768', 'https://semopenalex.org/work/W2484159331', 'https://semopenalex.org/work/W2104050486', 'https://semopenalex.org/work/W4287373267', 'https://semopenalex.org/work/W2020278920', 'https://semopenalex.org/work/W2134398104', 'https://semopenalex.org/work/W1985449492', 'https://semopenalex.org/work/W1527501989', 'https://semopenalex.org/work/W4391019923', 'https://semopenalex.org/work/W2123103779', 'https://semopenalex.org/work/W2486257041', 'https://semopenalex.org/work/W2938273607', 'https://semopenalex.org/work/W4400275996', 'https://semopenalex.org/work/W577884598', 'https://semopenalex.org/work/W4389194270', 'https://semopenalex.org/work/W2024199747', 'https://semopenalex.org/work/W1480483209', 'https://semopenalex.org/work/W2908554792', 'https://semopenalex.org/work/W3172442072', 'https://semopenalex.org/work/W2144694721', 'https://semopenalex.org/work/W2111298585', 'https://semopenalex.org/work/W1964566872', 'https://semopenalex.org/work/W4309163001', 'https://semopenalex.org/work/W2963413120', 'https://semopenalex.org/work/W1903899770', 'https://semopenalex.org/work/W2169420711', 'https://semopenalex.org/work/W2970181808', 'https://semopenalex.org/work/W1479988666', 'https://semopenalex.org/work/W2133140297', 'https://semopenalex.org/work/W2158629557', 'https://semopenalex.org/work/W1853852256', 'https://semopenalex.org/work/W2539877332', 'https://semopenalex.org/work/W4403125826', 'https://semopenalex.org/work/W4393372746', 'https://semopenalex.org/work/W2592986199', 'https://semopenalex.org/work/W2118577483', 'https://semopenalex.org/work/W4387753662', 'https://semopenalex.org/work/W2142823500', 'https://semopenalex.org/work/W2050903539', 'https://semopenalex.org/work/W2132517057', 'https://semopenalex.org/work/W2146343961', 'https://semopenalex.org/work/W88691522', 'https://semopenalex.org/work/W2938788752', 'https://semopenalex.org/work/W2068783141', 'https://semopenalex.org/work/W1988121863', 'https://semopenalex.org/work/W2210837322', 'https://semopenalex.org/work/W4250213231', 'https://semopenalex.org/work/W231008114', 'https://semopenalex.org/work/W2565715656', 'https://semopenalex.org/work/W2129039712', 'https://semopenalex.org/work/W2103177914', 'https://semopenalex.org/work/W2264477554', 'https://semopenalex.org/work/W2125338648', 'https://semopenalex.org/work/W2040130740', 'https://semopenalex.org/work/W1993615879', 'https://semopenalex.org/work/W2050516876', 'https://semopenalex.org/work/W2167823651', 'https://semopenalex.org/work/W2065665633', 'https://semopenalex.org/work/W2786775420', 'https://semopenalex.org/work/W2093285662', 'https://semopenalex.org/work/W2139748899', 'https://semopenalex.org/work/W4309156432', 'https://semopenalex.org/work/W2081050294', 'https://semopenalex.org/work/W4297915657', 'https://semopenalex.org/work/W4297337508', 'https://semopenalex.org/work/W2156403012', 'https://semopenalex.org/work/W2128495863', 'https://semopenalex.org/work/W2485105947', 'https://semopenalex.org/work/W2049487654', 'https://semopenalex.org/work/W2773248864', 'https://semopenalex.org/work/W2153633691', 'https://semopenalex.org/work/W2160548778', 'https://semopenalex.org/work/W3029554135', 'https://semopenalex.org/work/W4387870553', 'https://semopenalex.org/work/W1576078778', 'https://semopenalex.org/work/W1990440413', 'https://semopenalex.org/work/W1570807986', 'https://semopenalex.org/work/W2105726459', 'https://semopenalex.org/work/W1976438585', 'https://semopenalex.org/work/W2990523197', 'https://semopenalex.org/work/W2150841563', 'https://semopenalex.org/work/W2960904607', 'https://semopenalex.org/work/W1575472020', 'https://semopenalex.org/work/W2128284487', 'https://semopenalex.org/work/W1573495318', 'https://semopenalex.org/work/W2059397589', 'https://semopenalex.org/work/W2780417671', 'https://semopenalex.org/work/W2109869270', 'https://semopenalex.org/work/W3186574068', 'https://semopenalex.org/work/W3003262222', 'https://semopenalex.org/work/W3038827425', 'https://semopenalex.org/work/W2001311003', 'https://semopenalex.org/work/W4298058443', 'https://semopenalex.org/work/W2010428539', 'https://semopenalex.org/work/W2039665092', 'https://semopenalex.org/work/W2108887907', 'https://semopenalex.org/work/W2040812348', 'https://semopenalex.org/work/W2156855998', 'https://semopenalex.org/work/W2547542267', 'https://semopenalex.org/work/W2111286984', 'https://semopenalex.org/work/W1979248073', 'https://semopenalex.org/work/W2543381794', 'https://semopenalex.org/work/W3113388923', 'https://semopenalex.org/work/W1582695330', 'https://semopenalex.org/work/W2132504794', 'https://semopenalex.org/work/W3131306556', 'https://semopenalex.org/work/W2130598176', 'https://semopenalex.org/work/W2155700637', 'https://semopenalex.org/work/W2249381504', 'https://semopenalex.org/work/W2082153616', 'https://semopenalex.org/work/W1974956884', 'https://semopenalex.org/work/W2740951644', 'https://semopenalex.org/work/W2144671362', 'https://semopenalex.org/work/W2075944151', 'https://semopenalex.org/work/W134697830', 'https://semopenalex.org/work/W2903366716', 'https://semopenalex.org/work/W2136846482', 'https://semopenalex.org/work/W1543616292', 'https://semopenalex.org/work/W2128232997', 'https://semopenalex.org/work/W3160553667', 'https://semopenalex.org/work/W2115226235', 'https://semopenalex.org/work/W4288388712', 'https://semopenalex.org/work/W1983886629', 'https://semopenalex.org/work/W2117209463', 'https://semopenalex.org/work/W1755978909', 'https://semopenalex.org/work/W2903706966', 'https://semopenalex.org/work/W4205460318', 'https://semopenalex.org/work/W1979646344', 'https://semopenalex.org/work/W1652028855', 'https://semopenalex.org/work/W2501289763', 'https://semopenalex.org/work/W2338825247', 'https://semopenalex.org/work/W2621345802', 'https://semopenalex.org/work/W2131983085', 'https://semopenalex.org/work/W2519637827', 'https://semopenalex.org/work/W2147739540', 'https://semopenalex.org/work/W2952291158', 'https://semopenalex.org/work/W2131892869', 'https://semopenalex.org/work/W2151624806', 'https://semopenalex.org/work/W2216412688', 'https://semopenalex.org/work/W2597976855', 'https://semopenalex.org/work/W3211959202', 'https://semopenalex.org/work/W4293057541', 'https://semopenalex.org/work/W2778349219', 'https://semopenalex.org/work/W3099065439', 'https://semopenalex.org/work/W2121393816', 'https://semopenalex.org/work/W1982829517', 'https://semopenalex.org/work/W2130759412', 'https://semopenalex.org/work/W2306195991', 'https://semopenalex.org/work/W4378714244', 'https://semopenalex.org/work/W2087901561', 'https://semopenalex.org/work/W2138753182', 'https://semopenalex.org/work/W2984866899', 'https://semopenalex.org/work/W2124777767', 'https://semopenalex.org/work/W1501722245', 'https://semopenalex.org/work/W2123990342', 'https://semopenalex.org/work/W1514964336']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/work/W2945130429', 'https://semopenalex.org/work/W3145615144', 'https://semopenalex.org/work/W1497133195', 'https://semopenalex.org/work/W2751786971', 'https://semopenalex.org/work/W2485416095', 'https://semopenalex.org/work/W620578786', 'https://semopenalex.org/work/W2945468257', 'https://semopenalex.org/work/W4386696286', 'https://semopenalex.org/work/W3217720994', 'https://semopenalex.org/work/W802645426', 'https://semopenalex.org/work/W205286942', 'https://semopenalex.org/work/W3140161002', 'https://semopenalex.org/work/W3201935125', 'https://semopenalex.org/work/W3093823430', 'https://semopenalex.org/work/W1554337061', 'https://semopenalex.org/work/W2992326856', 'https://semopenalex.org/work/W2471512599', 'https://semopenalex.org/work/W4402905786', 'https://semopenalex.org/work/W2344732212', 'https://semopenalex.org/work/W2338915076', 'https://semopenalex.org/work/W2759156905', 'https://semopenalex.org/work/W2618538987', 'https://semopenalex.org/work/W2499042039', 'https://semopenalex.org/work/W2475234954', 'https://semopenalex.org/work/W3004959688', 'https://semopenalex.org/work/W2521279915', 'https://semopenalex.org/work/W3163818535', 'https://semopenalex.org/work/W2995766444', 'https://semopenalex.org/work/W4307540197', 'https://semopenalex.org/work/W17468934', 'https://semopenalex.org/work/W2277087513', 'https://semopenalex.org/work/W4386141724', 'https://semopenalex.org/work/W2934430003', 'https://semopenalex.org/work/W3082423688', 'https://semopenalex.org/work/W1491368226', 'https://semopenalex.org/work/W2502519563', 'https://semopenalex.org/work/W1542554459', 'https://semopenalex.org/work/W2525511442', 'https://semopenalex.org/work/W2759844371', 'https://semopenalex.org/work/W2172124872', 'https://semopenalex.org/work/W3146451828', 'https://semopenalex.org/work/W2341278403', 'https://semopenalex.org/work/W2142245421', 'https://semopenalex.org/work/W2404426467', 'https://semopenalex.org/work/W2336060370', 'https://semopenalex.org/work/W2497589022', 'https://semopenalex.org/work/W4307456085', 'https://semopenalex.org/work/W3093904374', 'https://semopenalex.org/work/W2768698326', 'https://semopenalex.org/work/W369652278', 'https://semopenalex.org/work/W2618579849', 'https://semopenalex.org/work/W2503647715', 'https://semopenalex.org/work/W2519725791', 'https://semopenalex.org/work/W4317743417', 'https://semopenalex.org/work/W2618660430', 'https://semopenalex.org/work/W2620328864', 'https://semopenalex.org/work/W2219349787', 'https://semopenalex.org/work/W2618805771', 'https://semopenalex.org/work/W88942648', 'https://semopenalex.org/work/W3171874410', 'https://semopenalex.org/work/W2800536240', 'https://semopenalex.org/work/W2520607372', 'https://semopenalex.org/work/W82707212', 'https://semopenalex.org/work/W164245990', 'https://semopenalex.org/work/W2403056045', 'https://semopenalex.org/work/W2946816105', 'https://semopenalex.org/work/W2016390608', 'https://semopenalex.org/work/W4388100645', 'https://semopenalex.org/work/W2282418302', 'https://semopenalex.org/work/W3032139222', 'https://semopenalex.org/work/W2277556528', 'https://semopenalex.org/work/W2485827646', 'https://semopenalex.org/work/W2141692554', 'https://semopenalex.org/work/W2978289855', 'https://semopenalex.org/work/W2990740408', 'https://semopenalex.org/work/W2792530018', 'https://semopenalex.org/work/W2895365144', 'https://semopenalex.org/work/W2495892083', 'https://semopenalex.org/work/W991337960', 'https://semopenalex.org/work/W245480222', 'https://semopenalex.org/work/W110371783', 'https://semopenalex.org/work/W2801765505', 'https://semopenalex.org/work/W2752853118', 'https://semopenalex.org/work/W2749915073', 'https://semopenalex.org/work/W2905528077', 'https://semopenalex.org/work/W2972771325']</t>
   </si>
   <si>
     <t>['23.574468085106382978723404']</t>
@@ -568,19 +568,19 @@
     <t>['2.288888888888888888888889']</t>
   </si>
   <si>
-    <t>['Solubility of light fullerenes in oleic, linoleic, and linolenic acids at 20–80°C', 'https://semopenalex.org/source/S101949793', 'https://semopenalex.org/source/S4210192031', 'https://semopenalex.org/source/S2485537415', 'Time-to-Voltage Converters Based on the Time-Sharing Principle', 'https://semopenalex.org/source/S4210171613', 'https://semopenalex.org/source/S4306401012', 'Tensometric tremorography in high-precision medical diagnostic systems', 'https://semopenalex.org/source/S2738211502', 'https://semopenalex.org/source/S2764455111', 'Bit streaming processing algorithms for intelligent hardware converters', 'Functional Organization of Elements of Stream Converters with Actualization of States', 'https://semopenalex.org/source/S2764696622', 'The analyzer of malonic dialdehyde level in blood based on the method of derivative spectrophotometry', 'https://semopenalex.org/source/S190787756', 'Bit-stream approximating devices based on counters with weight inputs', 'https://semopenalex.org/source/S4306401280', 'Bit Streaming Processing Algorithms for Intelligent Hardware Converters', 'Singular Spectrum Analysis of Tremorograms for Human Neuromotor Reaction Estimation', 'https://semopenalex.org/source/S95954025', 'https://semopenalex.org/source/S4306400806', 'https://semopenalex.org/source/S170838215', 'Flip-flop device with state actuation', 'https://semopenalex.org/source/S120348307', 'https://semopenalex.org/source/S4363608204', 'Means of Automating the Hierarchical Design of Complex Microelectronic Circuits with Uncertainty of Design Rules', 'Bit-Stream Functional Converters for Decentralized Sensor Systems', 'Symmetry in the Bit-Stream Converter Design', 'Non-invasive Method of Intelligent Sensory Control of Hands’ Motor Functions for Bionic Systems', 'Strain Gauge Measuring System for Subsensory Micromotions Analysis as an Element of a Hybrid Human–Machine Interface', 'https://semopenalex.org/source/S4306525036', 'https://semopenalex.org/source/S4210205812']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/work/W4287995927', '2010', 'https://semopenalex.org/work/W2155120496', 'https://semopenalex.org/work/W1995911165', '2006', 'https://semopenalex.org/work/W2079467928', 'https://semopenalex.org/work/W267986905', '2022', 'https://semopenalex.org/work/W1501907046', 'https://semopenalex.org/work/W1526494203', 'https://semopenalex.org/work/W2143294396', 'https://semopenalex.org/work/W1486044218', 'https://semopenalex.org/work/W2112494279', '2000', 'https://semopenalex.org/work/W2545397944', 'https://semopenalex.org/work/W2140088636', 'https://semopenalex.org/work/W2159352174', 'https://semopenalex.org/work/W2156622156', 'https://semopenalex.org/work/W2100751080', 'https://semopenalex.org/work/W2148709344', 'https://semopenalex.org/work/W2117961279', 'https://semopenalex.org/work/W3160339863', 'https://semopenalex.org/work/W2077553762', 'https://semopenalex.org/work/W3133096643', 'https://semopenalex.org/work/W3013565580', 'https://semopenalex.org/work/W2100318950', 'https://semopenalex.org/work/W2542596010', '1998', '1993', '2015', 'https://semopenalex.org/work/W1973226029', 'https://semopenalex.org/work/W1857876440', '2021', '2013', 'https://semopenalex.org/work/W2533821533', 'https://semopenalex.org/work/W2135984143', 'https://semopenalex.org/work/W2169740064', 'https://semopenalex.org/work/W2119697394', 'https://semopenalex.org/work/W1512534226', 'https://semopenalex.org/work/W2164112503', '1999', 'https://semopenalex.org/work/W2168467852', 'https://semopenalex.org/work/W2111527035', 'https://semopenalex.org/work/W2938682662', 'https://semopenalex.org/work/W2903502079', 'https://semopenalex.org/work/W2128338045', 'https://semopenalex.org/work/W2038435493', '2012', 'https://semopenalex.org/work/W1995339988', 'https://semopenalex.org/work/W165651279', '1988', 'https://semopenalex.org/work/W2910170968', 'https://semopenalex.org/work/W2169657554', 'https://semopenalex.org/work/W3044775355', 'https://semopenalex.org/work/W2062289051', 'https://semopenalex.org/work/W95902856', 'https://semopenalex.org/work/W2980049797', 'https://semopenalex.org/work/W2155513644', 'https://semopenalex.org/work/W2126538116', '1992', 'https://semopenalex.org/work/W2104503270', 'https://semopenalex.org/work/W2101701982', 'https://semopenalex.org/work/W2100832259', 'https://semopenalex.org/work/W3021330965', 'https://semopenalex.org/work/W2071598750', 'https://semopenalex.org/work/W2063510054', '2009', 'https://semopenalex.org/work/W4287554719', 'https://semopenalex.org/work/W2112249166', 'https://semopenalex.org/work/W1565820004', 'https://semopenalex.org/work/W1984688127', 'https://semopenalex.org/work/W2148253008', '2020', 'https://semopenalex.org/work/W2583305228', '2017', 'https://semopenalex.org/work/W2096493758', 'https://semopenalex.org/work/W2109527711', 'https://semopenalex.org/work/W2157327492', 'https://semopenalex.org/work/W2148898091', 'https://semopenalex.org/work/W2996178766', 'https://semopenalex.org/work/W2159065725', 'https://semopenalex.org/work/W2113879817', 'https://semopenalex.org/work/W3021660540', 'https://semopenalex.org/work/W2992288311', 'https://semopenalex.org/work/W2102335576', 'https://semopenalex.org/work/W2133784786', 'https://semopenalex.org/work/W2148559798', 'https://semopenalex.org/work/W3171320198', 'https://semopenalex.org/work/W561263531', 'https://semopenalex.org/work/W2105860403', '2014', 'https://semopenalex.org/work/W2171512361', 'https://semopenalex.org/work/W2949956315', '2011', '2016', 'https://semopenalex.org/work/W3034588699', 'https://semopenalex.org/work/W2136242506', 'https://semopenalex.org/work/W2406757508', 'https://semopenalex.org/work/W2073168766', 'https://semopenalex.org/work/W2152878419', 'https://semopenalex.org/work/W2519032806', 'https://semopenalex.org/work/W1980898323', 'https://semopenalex.org/work/W2113379225', 'https://semopenalex.org/work/W4287864943', 'https://semopenalex.org/work/W1759093511', 'https://semopenalex.org/work/W3138964499', 'https://semopenalex.org/work/W2535120631', 'https://semopenalex.org/work/W2129024094', 'https://semopenalex.org/work/W2543542153', 'https://semopenalex.org/work/W2153297840', 'https://semopenalex.org/work/W2128908425', 'https://semopenalex.org/work/W2187117825', 'https://semopenalex.org/work/W4366682612', 'https://semopenalex.org/work/W2113369250', 'https://semopenalex.org/work/W2156653340', 'https://semopenalex.org/work/W1575793749', 'https://semopenalex.org/work/W2156827963', '2019', '2002', 'https://semopenalex.org/work/W2160424479', 'https://semopenalex.org/work/W3013533214', '2004', 'https://semopenalex.org/work/W2103913344', 'https://semopenalex.org/work/W1639744882', 'https://semopenalex.org/work/W2119280123', 'https://semopenalex.org/work/W2122686722', 'https://semopenalex.org/work/W2188900042', 'https://semopenalex.org/work/W85948279', 'https://semopenalex.org/work/W2102483774', 'https://semopenalex.org/work/W3204125990', '2023', 'https://semopenalex.org/work/W3111716100', 'https://semopenalex.org/work/W2125043195', 'https://semopenalex.org/work/W2155595343', 'https://semopenalex.org/work/W2104944945', 'https://semopenalex.org/work/W2141343769', 'https://semopenalex.org/work/W2162430191', 'https://semopenalex.org/work/W3109100560', 'https://semopenalex.org/work/W1963481236', 'https://semopenalex.org/work/W2540607381', 'https://semopenalex.org/work/W2110745821', 'https://semopenalex.org/work/W2162296708', '1996', 'https://semopenalex.org/work/W1983811744', 'https://semopenalex.org/work/W2106992013', 'https://semopenalex.org/work/W399965988', '2008', 'https://semopenalex.org/work/W29298432', 'https://semopenalex.org/work/W2117987129', 'https://semopenalex.org/work/W2188968373', 'https://semopenalex.org/work/W2940211112', 'https://semopenalex.org/work/W3000451224', 'https://semopenalex.org/work/W4309624388', 'https://semopenalex.org/work/W2001134479', 'https://semopenalex.org/work/W1799975161', 'https://semopenalex.org/work/W2129564474', 'https://semopenalex.org/work/W1492922013', 'https://semopenalex.org/work/W2545306824', 'https://semopenalex.org/work/W2724242838', 'https://semopenalex.org/work/W2037645034', 'https://semopenalex.org/work/W2160694029', 'https://semopenalex.org/work/W2151042610', '2005', 'https://semopenalex.org/work/W3015916644', 'https://semopenalex.org/work/W2112075493', 'https://semopenalex.org/work/W4244048931', 'https://semopenalex.org/work/W2754525416', 'https://semopenalex.org/work/W2123194728', 'https://semopenalex.org/work/W3008566568', 'https://semopenalex.org/work/W1979417441', 'https://semopenalex.org/work/W2111537531', '2007', 'https://semopenalex.org/work/W2154690892', 'https://semopenalex.org/work/W2169340764', 'https://semopenalex.org/work/W3096079100', 'https://semopenalex.org/work/W3137295719', '1994', '2018', 'https://semopenalex.org/work/W1600970841', 'https://semopenalex.org/work/W2170874505', 'https://semopenalex.org/work/W2117079392', 'https://semopenalex.org/work/W4289145564', 'https://semopenalex.org/work/W2916161883', '2003', '1991']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/author/A5013110001', 'https://semopenalex.org/author/A5058247387', 'https://semopenalex.org/author/A5075932839', 'https://semopenalex.org/author/A5110460780', 'https://semopenalex.org/author/A5080836461', 'https://semopenalex.org/author/A5090449185', 'https://semopenalex.org/author/A5035580428', 'https://semopenalex.org/author/A5077257267', 'https://semopenalex.org/author/A5105909288', 'https://semopenalex.org/author/A5065832212', 'https://semopenalex.org/author/A5040600354', 'https://semopenalex.org/author/A5003377833', 'https://semopenalex.org/author/A5063808461', 'https://semopenalex.org/author/A5043204660', 'https://semopenalex.org/author/A5036435300', 'https://semopenalex.org/author/A5000625068', 'https://semopenalex.org/author/A5100746068', 'https://semopenalex.org/author/A5028549991', 'https://semopenalex.org/author/A5001965218', 'https://semopenalex.org/author/A5001142566', 'https://semopenalex.org/author/A5086336877', 'https://semopenalex.org/author/A5007195926', 'https://semopenalex.org/author/A5041301436', 'https://semopenalex.org/author/A5031511752', 'https://semopenalex.org/author/A5005993212', 'https://semopenalex.org/author/A5050062467', 'https://semopenalex.org/author/A5039651585', 'https://semopenalex.org/author/A5033311124', 'https://semopenalex.org/author/A5084821293', 'https://semopenalex.org/author/A5049954115', 'https://semopenalex.org/author/A5048273330', 'https://semopenalex.org/author/A5032703090', 'https://semopenalex.org/author/A5001676164', 'https://semopenalex.org/author/A5088359990', 'https://semopenalex.org/author/A5013955991', 'https://semopenalex.org/author/A5087238275', 'https://semopenalex.org/author/A5004960011', 'https://semopenalex.org/author/A5038296283', 'https://semopenalex.org/author/A5080334275', 'https://semopenalex.org/author/A5074093929', 'https://semopenalex.org/author/A5050938227', 'https://semopenalex.org/author/A5066907092', 'https://semopenalex.org/author/A5037735021', 'https://semopenalex.org/author/A5008995859', 'https://semopenalex.org/author/A5025631482', 'https://semopenalex.org/author/A5026577233', 'https://semopenalex.org/author/A5065490876', 'https://semopenalex.org/author/A5009439432', 'https://semopenalex.org/author/A5068664163', 'https://semopenalex.org/author/A5073723754', 'https://semopenalex.org/author/A5080729232', 'https://semopenalex.org/author/A5018323496', 'https://semopenalex.org/author/A5081468313', 'https://semopenalex.org/author/A5076497670', 'https://semopenalex.org/author/A5028596543', 'https://semopenalex.org/author/A5015327313', 'https://semopenalex.org/author/A5040706665', 'https://semopenalex.org/author/A5108075115', 'https://semopenalex.org/author/A5057375178', 'https://semopenalex.org/author/A5091510486', 'https://semopenalex.org/author/A5032218136', 'https://semopenalex.org/author/A5098014068', 'https://semopenalex.org/author/A5022523197', 'https://semopenalex.org/author/A5002385420', 'https://semopenalex.org/author/A5070920982', 'https://semopenalex.org/author/A5049320278', 'https://semopenalex.org/author/A5041856505', 'https://semopenalex.org/author/A5079336821', 'https://semopenalex.org/author/A5051593939', 'https://semopenalex.org/author/A5106099412', 'https://semopenalex.org/author/A5016116024', 'https://semopenalex.org/author/A5016671506', 'https://semopenalex.org/author/A5053751744', 'https://semopenalex.org/author/A5108282938', 'https://semopenalex.org/author/A5111572354', 'https://semopenalex.org/author/A5016577686', 'https://semopenalex.org/author/A5016964202', 'https://semopenalex.org/author/A5028491017', 'https://semopenalex.org/author/A5043305706', 'https://semopenalex.org/author/A5033957848', 'https://semopenalex.org/author/A5045376373', 'https://semopenalex.org/author/A5084600567', 'https://semopenalex.org/author/A5080758138', 'https://semopenalex.org/author/A5005238560', 'https://semopenalex.org/author/A5065696246', 'https://semopenalex.org/author/A5039693029', 'https://semopenalex.org/author/A5105388814', 'https://semopenalex.org/author/A5019247404', 'https://semopenalex.org/author/A5001183868', 'https://semopenalex.org/author/A5110589505', 'https://semopenalex.org/author/A5083984866', 'https://semopenalex.org/author/A5108261926', 'https://semopenalex.org/author/A5055271621', 'https://semopenalex.org/author/A5078581206', 'https://semopenalex.org/author/A5075723995', 'https://semopenalex.org/author/A5030117072', 'https://semopenalex.org/author/A5021985940', 'https://semopenalex.org/author/A5019200294', 'https://semopenalex.org/author/A5014610321', 'https://semopenalex.org/author/A5043739847', 'https://semopenalex.org/author/A5050428872', 'https://semopenalex.org/author/A5050865451', 'https://semopenalex.org/author/A5105200360', 'https://semopenalex.org/author/A5051905013', 'https://semopenalex.org/author/A5067143355', 'https://semopenalex.org/author/A5076283229', 'https://semopenalex.org/author/A5069790131', 'https://semopenalex.org/author/A5071409817', 'https://semopenalex.org/author/A5023950939', 'https://semopenalex.org/author/A5046764771', 'https://semopenalex.org/author/A5056693273', 'https://semopenalex.org/author/A5010474859', 'https://semopenalex.org/author/A5035549347', 'https://semopenalex.org/author/A5062807811', 'https://semopenalex.org/author/A5103031174', 'https://semopenalex.org/author/A5113449899', 'https://semopenalex.org/author/A5009615869', 'https://semopenalex.org/author/A5053771056', 'https://semopenalex.org/author/A5044052548', 'https://semopenalex.org/author/A5003446912', 'https://semopenalex.org/author/A5040950908', 'https://semopenalex.org/author/A5029499420', 'https://semopenalex.org/author/A5069762894', 'https://semopenalex.org/author/A5074238659', 'https://semopenalex.org/author/A5086827100', 'https://semopenalex.org/author/A5049148828', 'https://semopenalex.org/author/A5048660804', 'https://semopenalex.org/author/A5059658943', 'https://semopenalex.org/author/A5022335468', 'https://semopenalex.org/author/A5014866425', 'https://semopenalex.org/author/A5057380928', 'https://semopenalex.org/author/A5102610102', 'https://semopenalex.org/author/A5089975103', 'https://semopenalex.org/author/A5103532312', 'https://semopenalex.org/author/A5003945685', 'https://semopenalex.org/author/A5105862010', 'https://semopenalex.org/author/A5080127754', 'https://semopenalex.org/author/A5012311258', 'https://semopenalex.org/author/A5011141399', 'https://semopenalex.org/author/A5073656007', 'https://semopenalex.org/author/A5026157285', 'https://semopenalex.org/author/A5035398709', 'https://semopenalex.org/author/A5106076507', 'https://semopenalex.org/author/A5017760976', 'https://semopenalex.org/author/A5070832388', 'https://semopenalex.org/author/A5071834503', 'https://semopenalex.org/author/A5109878293', 'https://semopenalex.org/author/A5045837667', 'https://semopenalex.org/author/A5072220967', 'https://semopenalex.org/author/A5072706564', 'https://semopenalex.org/author/A5076861704', 'https://semopenalex.org/author/A5082591195', 'https://semopenalex.org/author/A5058021214', 'https://semopenalex.org/author/A5015154091', 'https://semopenalex.org/author/A5023469137', 'https://semopenalex.org/author/A5081184066', 'https://semopenalex.org/author/A5069650964', 'https://semopenalex.org/author/A5106082584', 'https://semopenalex.org/author/A5009207700', 'https://semopenalex.org/author/A5087477331', 'https://semopenalex.org/author/A5110328496', 'https://semopenalex.org/author/A5011572373', 'https://semopenalex.org/author/A5057682767', 'https://semopenalex.org/author/A5018214600', 'https://semopenalex.org/author/A5074789240']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/author/A5051221846', 'https://semopenalex.org/author/A5075061218', 'https://semopenalex.org/author/A5062261441', 'https://semopenalex.org/author/A5069922587', 'https://semopenalex.org/author/A5091453565', 'https://semopenalex.org/author/A5064622877', 'https://semopenalex.org/author/A5015356632', 'https://semopenalex.org/author/A5038581932', 'https://semopenalex.org/author/A5023645490', 'https://semopenalex.org/author/A5012375687', 'https://semopenalex.org/author/A5078555911', 'https://semopenalex.org/author/A5086346640', 'https://semopenalex.org/author/A5064387363', 'https://semopenalex.org/author/A5024584252', 'https://semopenalex.org/author/A5034037954', 'https://semopenalex.org/author/A5020939308', 'https://semopenalex.org/author/A5089362779', 'https://semopenalex.org/author/A5042413456', 'https://semopenalex.org/author/A5074486298', 'https://semopenalex.org/author/A5089914165', 'https://semopenalex.org/author/A5093413149', 'https://semopenalex.org/author/A5102720885', 'https://semopenalex.org/author/A5061675674', 'https://semopenalex.org/author/A5112900377', 'https://semopenalex.org/author/A5031601776', 'https://semopenalex.org/author/A5004507308', 'https://semopenalex.org/author/A5093415912', 'https://semopenalex.org/author/A5025632720', 'https://semopenalex.org/author/A5078921853', 'https://semopenalex.org/author/A5093495936', 'https://semopenalex.org/author/A5078461261', 'https://semopenalex.org/author/A5017353478', 'https://semopenalex.org/author/A5028395580', 'https://semopenalex.org/author/A5089983554', 'https://semopenalex.org/author/A5108988435', 'https://semopenalex.org/author/A5044578275', 'https://semopenalex.org/author/A5112907430', 'https://semopenalex.org/author/A5101845418', 'https://semopenalex.org/author/A5092276801', 'https://semopenalex.org/author/A5074393288', 'https://semopenalex.org/author/A5001454735', 'https://semopenalex.org/author/A5055792983', 'https://semopenalex.org/author/A5043204400', 'https://semopenalex.org/author/A5090529701', 'https://semopenalex.org/author/A5091298748', 'https://semopenalex.org/author/A5082863339', 'https://semopenalex.org/author/A5060768396', 'https://semopenalex.org/author/A5015144665', 'https://semopenalex.org/author/A5101619735', 'https://semopenalex.org/author/A5106808077', 'https://semopenalex.org/author/A5013421545', 'https://semopenalex.org/author/A5112596472', 'https://semopenalex.org/author/A5092106609', 'https://semopenalex.org/author/A5024581040', 'https://semopenalex.org/author/A5111252081', 'https://semopenalex.org/author/A5025631312', 'https://semopenalex.org/author/A5028750310', 'https://semopenalex.org/author/A5051642217', 'https://semopenalex.org/author/A5084373522', 'https://semopenalex.org/author/A5112387040', 'https://semopenalex.org/author/A5084631861', 'https://semopenalex.org/author/A5062553581', 'https://semopenalex.org/author/A5014205279', 'https://semopenalex.org/author/A5074316484', 'https://semopenalex.org/author/A5035247809', 'https://semopenalex.org/author/A5048521450', 'https://semopenalex.org/author/A5114057383', 'https://semopenalex.org/author/A5092276800', 'https://semopenalex.org/author/A5027096307', 'https://semopenalex.org/author/A5071109276', 'https://semopenalex.org/author/A5086787573', 'https://semopenalex.org/author/A5040925885', 'https://semopenalex.org/author/A5080374319', 'https://semopenalex.org/author/A5006430488']</t>
-  </si>
-  <si>
-    <t>['https://semopenalex.org/author/A5074307489', 'https://semopenalex.org/author/A5052249316', 'https://semopenalex.org/author/A5100638997', 'https://semopenalex.org/author/A5101601497', 'https://semopenalex.org/author/A5070152860', 'https://semopenalex.org/author/A5050308989', 'https://semopenalex.org/author/A5102928967', 'https://semopenalex.org/author/A5041073042', 'https://semopenalex.org/author/A5018128809', 'https://semopenalex.org/author/A5101617703', 'https://semopenalex.org/author/A5040987266', 'https://semopenalex.org/author/A5002594574', 'https://semopenalex.org/author/A5010181158', 'https://semopenalex.org/author/A5073947585', 'https://semopenalex.org/author/A5101637945', 'https://semopenalex.org/author/A5101812436', 'https://semopenalex.org/author/A5100412598', 'https://semopenalex.org/author/A5005639930', 'https://semopenalex.org/author/A5024456332', 'https://semopenalex.org/author/A5021631329', 'https://semopenalex.org/author/A5101558050', 'https://semopenalex.org/author/A5013325392', 'https://semopenalex.org/author/A5072002680', 'https://semopenalex.org/author/A5058828089', 'https://semopenalex.org/author/A5012621594', 'https://semopenalex.org/author/A5033163346', 'https://semopenalex.org/author/A5068340305', 'https://semopenalex.org/author/A5100375823', 'https://semopenalex.org/author/A5115595561', 'https://semopenalex.org/author/A5077138780', 'https://semopenalex.org/author/A5065848808', 'https://semopenalex.org/author/A5100409885', 'https://semopenalex.org/author/A5103205468', 'https://semopenalex.org/author/A5081145634', 'https://semopenalex.org/author/A5019525050', 'https://semopenalex.org/author/A5081420063', 'https://semopenalex.org/author/A5051192643', 'https://semopenalex.org/author/A5044689090', 'https://semopenalex.org/author/A5030997313', 'https://semopenalex.org/author/A5005007374', 'https://semopenalex.org/author/A5047271595', 'https://semopenalex.org/author/A5100408010', 'https://semopenalex.org/author/A5103047914', 'https://semopenalex.org/author/A5100738980', 'https://semopenalex.org/author/A5025839857', 'https://semopenalex.org/author/A5101468661', 'https://semopenalex.org/author/A5100439996', 'https://semopenalex.org/author/A5100386104', 'https://semopenalex.org/author/A5101264794', 'https://semopenalex.org/author/A5100440010', 'https://semopenalex.org/author/A5107006112', 'https://semopenalex.org/author/A5049142567', 'https://semopenalex.org/author/A5017334961', 'https://semopenalex.org/author/A5026927053', 'https://semopenalex.org/author/A5088725475', 'https://semopenalex.org/author/A5049076146', 'https://semopenalex.org/author/A5103205784', 'https://semopenalex.org/author/A5069596903', 'https://semopenalex.org/author/A5109297018', 'https://semopenalex.org/author/A5050080938', 'https://semopenalex.org/author/A5101660937', 'https://semopenalex.org/author/A5110172698', 'https://semopenalex.org/author/A5033542967', 'https://semopenalex.org/author/A5100301259', 'https://semopenalex.org/author/A5007043113', 'https://semopenalex.org/author/A5102717988', 'https://semopenalex.org/author/A5052199638', 'https://semopenalex.org/author/A5000845080', 'https://semopenalex.org/author/A5100772234', 'https://semopenalex.org/author/A5100349343', 'https://semopenalex.org/author/A5000645139', 'https://semopenalex.org/author/A5032068969', 'https://semopenalex.org/author/A5103761162', 'https://semopenalex.org/author/A5067163535', 'https://semopenalex.org/author/A5100385498', 'https://semopenalex.org/author/A5100758675', 'https://semopenalex.org/author/A5103286574', 'https://semopenalex.org/author/A5103073505', 'https://semopenalex.org/author/A5101636662', 'https://semopenalex.org/author/A5101261545', 'https://semopenalex.org/author/A5077610917', 'https://semopenalex.org/author/A5043798385', 'https://semopenalex.org/author/A5086338440', 'https://semopenalex.org/author/A5081036622', 'https://semopenalex.org/author/A5046237164', 'https://semopenalex.org/author/A5100429004', 'https://semopenalex.org/author/A5084735407', 'https://semopenalex.org/author/A5058738211', 'https://semopenalex.org/author/A5011367069', 'https://semopenalex.org/author/A5101289775', 'https://semopenalex.org/author/A5114778131', 'https://semopenalex.org/author/A5100639062', 'https://semopenalex.org/author/A5033111691', 'https://semopenalex.org/author/A5024821632', 'https://semopenalex.org/author/A5100405159', 'https://semopenalex.org/author/A5015967363', 'https://semopenalex.org/author/A5022677467', 'https://semopenalex.org/author/A5032062525', 'https://semopenalex.org/author/A5103233342', 'https://semopenalex.org/author/A5012561478', 'https://semopenalex.org/author/A5039037722', 'https://semopenalex.org/author/A5060115298', 'https://semopenalex.org/author/A5113160035', 'https://semopenalex.org/author/A5026939932', 'https://semopenalex.org/author/A5101983121', 'https://semopenalex.org/author/A5101655978', 'https://semopenalex.org/author/A5009435651', 'https://semopenalex.org/author/A5087492388', 'https://semopenalex.org/author/A5100365555', 'https://semopenalex.org/author/A5067467896', 'https://semopenalex.org/author/A5077984014', 'https://semopenalex.org/author/A5107864790', 'https://semopenalex.org/author/A5058164381', 'https://semopenalex.org/author/A5069621751', 'https://semopenalex.org/author/A5043801432', 'https://semopenalex.org/author/A5100610450', 'https://semopenalex.org/author/A5049100391', 'https://semopenalex.org/author/A5100712724', 'https://semopenalex.org/author/A5101556258', 'https://semopenalex.org/author/A5102900280', 'https://semopenalex.org/author/A5100349346', 'https://semopenalex.org/author/A5108459503', 'https://semopenalex.org/author/A5085666756', 'https://semopenalex.org/author/A5072432956', 'https://semopenalex.org/author/A5015836405', 'https://semopenalex.org/author/A5058258996', 'https://semopenalex.org/author/A5100388597', 'https://semopenalex.org/author/A5100401412', 'https://semopenalex.org/author/A5114213934', 'https://semopenalex.org/author/A5000019783', 'https://semopenalex.org/author/A5040272202', 'https://semopenalex.org/author/A5075929099', 'https://semopenalex.org/author/A5022905724', 'https://semopenalex.org/author/A5076516205', 'https://semopenalex.org/author/A5077658936', 'https://semopenalex.org/author/A5100388576', 'https://semopenalex.org/author/A5100426931', 'https://semopenalex.org/author/A5100676331', 'https://semopenalex.org/author/A5101011726', 'https://semopenalex.org/author/A5025292884', 'https://semopenalex.org/author/A5009487151', 'https://semopenalex.org/author/A5100385507', 'https://semopenalex.org/author/A5000381434', 'https://semopenalex.org/author/A5084874990', 'https://semopenalex.org/author/A5100447691', 'https://semopenalex.org/author/A5013438083', 'https://semopenalex.org/author/A5056526226', 'https://semopenalex.org/author/A5100633784', 'https://semopenalex.org/author/A5091706559', 'https://semopenalex.org/author/A5065293581', 'https://semopenalex.org/author/A5102222159', 'https://semopenalex.org/author/A5101555891', 'https://semopenalex.org/author/A5023155310', 'https://semopenalex.org/author/A5100361984', 'https://semopenalex.org/author/A5035359666', 'https://semopenalex.org/author/A5035089987', 'https://semopenalex.org/author/A5027206285', 'https://semopenalex.org/author/A5009455568', 'https://semopenalex.org/author/A5075273130', 'https://semopenalex.org/author/A5040203716', 'https://semopenalex.org/author/A5055422837', 'https://semopenalex.org/author/A5036120394', 'https://semopenalex.org/author/A5002289161', 'https://semopenalex.org/author/A5034057959', 'https://semopenalex.org/author/A5064776947', 'https://semopenalex.org/author/A5090671359', 'https://semopenalex.org/author/A5073965511', 'https://semopenalex.org/author/A5077008083', 'https://semopenalex.org/author/A5047965752', 'https://semopenalex.org/author/A5045087569', 'https://semopenalex.org/author/A5100299966', 'https://semopenalex.org/author/A5048118068', 'https://semopenalex.org/author/A5100388609', 'https://semopenalex.org/author/A5027084532', 'https://semopenalex.org/author/A5100458045', 'https://semopenalex.org/author/A5023035566', 'https://semopenalex.org/author/A5023093639', 'https://semopenalex.org/author/A5100779597', 'https://semopenalex.org/author/A5055149708', 'https://semopenalex.org/author/A5049622460', 'https://semopenalex.org/author/A5110161847', 'https://semopenalex.org/author/A5054115813', 'https://semopenalex.org/author/A5065120715', 'https://semopenalex.org/author/A5100367825', 'https://semopenalex.org/author/A5032194564', 'https://semopenalex.org/author/A5000582109', 'https://semopenalex.org/author/A5090627608', 'https://semopenalex.org/author/A5100523187', 'https://semopenalex.org/author/A5081340873', 'https://semopenalex.org/author/A5053084752', 'https://semopenalex.org/author/A5088708850', 'https://semopenalex.org/author/A5033164669', 'https://semopenalex.org/author/A5102858698', 'https://semopenalex.org/author/A5039326697', 'https://semopenalex.org/author/A5100388581', 'https://semopenalex.org/author/A5024073253', 'https://semopenalex.org/author/A5058257080', 'https://semopenalex.org/author/A5038017715', 'https://semopenalex.org/author/A5052404451', 'https://semopenalex.org/author/A5056980315', 'https://semopenalex.org/author/A5025977354', 'https://semopenalex.org/author/A5009071576', 'https://semopenalex.org/author/A5050748634', 'https://semopenalex.org/author/A5100608460', 'https://semopenalex.org/author/A5077424533', 'https://semopenalex.org/author/A5102014459', 'https://semopenalex.org/author/A5003031253', 'https://semopenalex.org/author/A5101614814', 'https://semopenalex.org/author/A5102859232', 'https://semopenalex.org/author/A5059065212', 'https://semopenalex.org/author/A5079431306', 'https://semopenalex.org/author/A5042235813', 'https://semopenalex.org/author/A5011086593', 'https://semopenalex.org/author/A5103234102', 'https://semopenalex.org/author/A5074540830', 'https://semopenalex.org/author/A5048041198', 'https://semopenalex.org/author/A5089294104', 'https://semopenalex.org/author/A5102987690', 'https://semopenalex.org/author/A5085247180', 'https://semopenalex.org/author/A5101966381', 'https://semopenalex.org/author/A5088498790', 'https://semopenalex.org/author/A5004490190', 'https://semopenalex.org/author/A5100388599', 'https://semopenalex.org/author/A5100447531', 'https://semopenalex.org/author/A5081650066', 'https://semopenalex.org/author/A5100738977', 'https://semopenalex.org/author/A5100408160', 'https://semopenalex.org/author/A5021179945', 'https://semopenalex.org/author/A5100665833', 'https://semopenalex.org/author/A5030490896', 'https://semopenalex.org/author/A5100388617', 'https://semopenalex.org/author/A5042986574', 'https://semopenalex.org/author/A5100458090', 'https://semopenalex.org/author/A5088646345', 'https://semopenalex.org/author/A5006357713', 'https://semopenalex.org/author/A5019450472', 'https://semopenalex.org/author/A5028716858', 'https://semopenalex.org/author/A5069809962', 'https://semopenalex.org/author/A5100443727', 'https://semopenalex.org/author/A5100331488', 'https://semopenalex.org/author/A5100367807', 'https://semopenalex.org/author/A5101308414', 'https://semopenalex.org/author/A5079729956', 'https://semopenalex.org/author/A5059555100', 'https://semopenalex.org/author/A5034794084', 'https://semopenalex.org/author/A5100388627', 'https://semopenalex.org/author/A5102204689', 'https://semopenalex.org/author/A5052981404', 'https://semopenalex.org/author/A5043476448', 'https://semopenalex.org/author/A5100322125', 'https://semopenalex.org/author/A5100394129', 'https://semopenalex.org/author/A5100753041', 'https://semopenalex.org/author/A5100445622', 'https://semopenalex.org/author/A5100447682', 'https://semopenalex.org/author/A5030626281', 'https://semopenalex.org/author/A5101194950', 'https://semopenalex.org/author/A5040850915', 'https://semopenalex.org/author/A5074075949', 'https://semopenalex.org/author/A5102020713', 'https://semopenalex.org/author/A5100459874', 'https://semopenalex.org/author/A5103223639', 'https://semopenalex.org/author/A5100677820', 'https://semopenalex.org/author/A5085393851', 'https://semopenalex.org/author/A5012469172', 'https://semopenalex.org/author/A5100438174', 'https://semopenalex.org/author/A5101540631', 'https://semopenalex.org/author/A5056755949', 'https://semopenalex.org/author/A5100376204', 'https://semopenalex.org/author/A5068122240', 'https://semopenalex.org/author/A5025099559', 'https://semopenalex.org/author/A5010958113', 'https://semopenalex.org/author/A5100753039', 'https://semopenalex.org/author/A5100697624', 'https://semopenalex.org/author/A5016401353', 'https://semopenalex.org/author/A5072456187', 'https://semopenalex.org/author/A5100388716', 'https://semopenalex.org/author/A5101852647', 'https://semopenalex.org/author/A5081886276', 'https://semopenalex.org/author/A5005604635', 'https://semopenalex.org/author/A5067395122', 'https://semopenalex.org/author/A5054753279', 'https://semopenalex.org/author/A5076444296', 'https://semopenalex.org/author/A5021222755', 'https://semopenalex.org/author/A5101612059', 'https://semopenalex.org/author/A5059396373', 'https://semopenalex.org/author/A5045500611', 'https://semopenalex.org/author/A5036986396', 'https://semopenalex.org/author/A5100327487', 'https://semopenalex.org/author/A5061863093', 'https://semopenalex.org/author/A5041961808', 'https://semopenalex.org/author/A5113115887', 'https://semopenalex.org/author/A5100361632', 'https://semopenalex.org/author/A5111956187', 'https://semopenalex.org/author/A5060364305', 'https://semopenalex.org/author/A5115590096', 'https://semopenalex.org/author/A5085611398', 'https://semopenalex.org/author/A5036039721', 'https://semopenalex.org/author/A5011667547', 'https://semopenalex.org/author/A5081449581', 'https://semopenalex.org/author/A5006669765', 'https://semopenalex.org/author/A5066916130', 'https://semopenalex.org/author/A5084868951', 'https://semopenalex.org/author/A5100388644', 'https://semopenalex.org/author/A5100738974', 'https://semopenalex.org/author/A5002503342', 'https://semopenalex.org/author/A5018031899', 'https://semopenalex.org/author/A5043546718', 'https://semopenalex.org/author/A5013103539', 'https://semopenalex.org/author/A5087587101']</t>
+    <t>['https://semopenalex.org/source/S4306525036', 'Tensometric tremorography in high-precision medical diagnostic systems', 'https://semopenalex.org/source/S4210205812', 'https://semopenalex.org/source/S120348307', 'Strain Gauge Measuring System for Subsensory Micromotions Analysis as an Element of a Hybrid Human–Machine Interface', 'Time-to-Voltage Converters Based on the Time-Sharing Principle', 'https://semopenalex.org/source/S4210171613', 'https://semopenalex.org/source/S4210192031', 'Functional Organization of Elements of Stream Converters with Actualization of States', 'Non-invasive Method of Intelligent Sensory Control of Hands’ Motor Functions for Bionic Systems', 'Symmetry in the Bit-Stream Converter Design', 'Flip-flop device with state actuation', 'Solubility of light fullerenes in oleic, linoleic, and linolenic acids at 20–80°C', 'https://semopenalex.org/source/S2764696622', 'https://semopenalex.org/source/S2764455111', 'Bit streaming processing algorithms for intelligent hardware converters', 'Bit-stream approximating devices based on counters with weight inputs', 'https://semopenalex.org/source/S2738211502', 'Singular Spectrum Analysis of Tremorograms for Human Neuromotor Reaction Estimation', 'https://semopenalex.org/source/S95954025', 'Bit-Stream Functional Converters for Decentralized Sensor Systems', 'https://semopenalex.org/source/S4306401012', 'The analyzer of malonic dialdehyde level in blood based on the method of derivative spectrophotometry', 'https://semopenalex.org/source/S190787756', 'https://semopenalex.org/source/S170838215', 'Means of Automating the Hierarchical Design of Complex Microelectronic Circuits with Uncertainty of Design Rules', 'Bit Streaming Processing Algorithms for Intelligent Hardware Converters', 'https://semopenalex.org/source/S4306400806', 'https://semopenalex.org/source/S4306401280', 'https://semopenalex.org/source/S101949793', 'https://semopenalex.org/source/S4363608204', 'https://semopenalex.org/source/S2485537415']</t>
+  </si>
+  <si>
+    <t>['2020', 'https://semopenalex.org/work/W2162430191', 'https://semopenalex.org/work/W2156622156', 'https://semopenalex.org/work/W1963481236', 'https://semopenalex.org/work/W2038435493', 'https://semopenalex.org/work/W4309624388', 'https://semopenalex.org/work/W1565820004', 'https://semopenalex.org/work/W2110745821', '2008', 'https://semopenalex.org/work/W29298432', 'https://semopenalex.org/work/W2406757508', '2000', 'https://semopenalex.org/work/W2903502079', 'https://semopenalex.org/work/W2157327492', '2003', 'https://semopenalex.org/work/W2148559798', 'https://semopenalex.org/work/W2168467852', '2019', 'https://semopenalex.org/work/W4287554719', '1992', 'https://semopenalex.org/work/W3096079100', '1999', 'https://semopenalex.org/work/W3138964499', 'https://semopenalex.org/work/W2148253008', 'https://semopenalex.org/work/W2153297840', 'https://semopenalex.org/work/W2122686722', '2005', 'https://semopenalex.org/work/W2159065725', '1993', 'https://semopenalex.org/work/W2148709344', 'https://semopenalex.org/work/W3111716100', 'https://semopenalex.org/work/W267986905', 'https://semopenalex.org/work/W1799975161', 'https://semopenalex.org/work/W1486044218', 'https://semopenalex.org/work/W2109527711', 'https://semopenalex.org/work/W2519032806', 'https://semopenalex.org/work/W2133784786', 'https://semopenalex.org/work/W2135984143', 'https://semopenalex.org/work/W2169657554', 'https://semopenalex.org/work/W2103913344', 'https://semopenalex.org/work/W2533821533', 'https://semopenalex.org/work/W2136242506', 'https://semopenalex.org/work/W2543542153', 'https://semopenalex.org/work/W3000451224', 'https://semopenalex.org/work/W4366682612', 'https://semopenalex.org/work/W2155595343', 'https://semopenalex.org/work/W2156827963', 'https://semopenalex.org/work/W2938682662', '2012', 'https://semopenalex.org/work/W3021660540', '2010', 'https://semopenalex.org/work/W2151042610', '2002', '2016', 'https://semopenalex.org/work/W2112494279', 'https://semopenalex.org/work/W2160424479', 'https://semopenalex.org/work/W2111537531', 'https://semopenalex.org/work/W3013533214', 'https://semopenalex.org/work/W1983811744', 'https://semopenalex.org/work/W2910170968', 'https://semopenalex.org/work/W2117961279', 'https://semopenalex.org/work/W3160339863', 'https://semopenalex.org/work/W3133096643', 'https://semopenalex.org/work/W2100832259', 'https://semopenalex.org/work/W2119697394', 'https://semopenalex.org/work/W2542596010', 'https://semopenalex.org/work/W2171512361', 'https://semopenalex.org/work/W1526494203', 'https://semopenalex.org/work/W2062289051', 'https://semopenalex.org/work/W2170874505', 'https://semopenalex.org/work/W2077553762', 'https://semopenalex.org/work/W165651279', 'https://semopenalex.org/work/W2154690892', 'https://semopenalex.org/work/W2155120496', 'https://semopenalex.org/work/W4287864943', 'https://semopenalex.org/work/W4287995927', 'https://semopenalex.org/work/W2125043195', 'https://semopenalex.org/work/W2188968373', 'https://semopenalex.org/work/W2128908425', 'https://semopenalex.org/work/W2112249166', 'https://semopenalex.org/work/W2187117825', 'https://semopenalex.org/work/W2949956315', 'https://semopenalex.org/work/W2129564474', 'https://semopenalex.org/work/W2063510054', 'https://semopenalex.org/work/W3008566568', 'https://semopenalex.org/work/W3034588699', 'https://semopenalex.org/work/W3021330965', 'https://semopenalex.org/work/W399965988', 'https://semopenalex.org/work/W2123194728', '2023', 'https://semopenalex.org/work/W4289145564', 'https://semopenalex.org/work/W3044775355', 'https://semopenalex.org/work/W2545397944', '2006', '2009', 'https://semopenalex.org/work/W2188900042', 'https://semopenalex.org/work/W1995339988', 'https://semopenalex.org/work/W2113879817', '2004', 'https://semopenalex.org/work/W2113379225', 'https://semopenalex.org/work/W2111527035', 'https://semopenalex.org/work/W3171320198', 'https://semopenalex.org/work/W2143294396', 'https://semopenalex.org/work/W2164112503', 'https://semopenalex.org/work/W1512534226', 'https://semopenalex.org/work/W2540607381', 'https://semopenalex.org/work/W1979417441', 'https://semopenalex.org/work/W1995911165', 'https://semopenalex.org/work/W2113369250', 'https://semopenalex.org/work/W2156653340', 'https://semopenalex.org/work/W2155513644', 'https://semopenalex.org/work/W2037645034', 'https://semopenalex.org/work/W2128338045', 'https://semopenalex.org/work/W2104944945', 'https://semopenalex.org/work/W2535120631', 'https://semopenalex.org/work/W2940211112', 'https://semopenalex.org/work/W2162296708', 'https://semopenalex.org/work/W1973226029', 'https://semopenalex.org/work/W2079467928', 'https://semopenalex.org/work/W1984688127', 'https://semopenalex.org/work/W2169740064', 'https://semopenalex.org/work/W2126538116', 'https://semopenalex.org/work/W2101701982', 'https://semopenalex.org/work/W2980049797', 'https://semopenalex.org/work/W1600970841', 'https://semopenalex.org/work/W1857876440', '1994', 'https://semopenalex.org/work/W3137295719', 'https://semopenalex.org/work/W2104503270', 'https://semopenalex.org/work/W2100751080', 'https://semopenalex.org/work/W2545306824', '1991', 'https://semopenalex.org/work/W2073168766', 'https://semopenalex.org/work/W2117987129', 'https://semopenalex.org/work/W1759093511', 'https://semopenalex.org/work/W3013565580', 'https://semopenalex.org/work/W2105860403', 'https://semopenalex.org/work/W2100318950', 'https://semopenalex.org/work/W2119280123', 'https://semopenalex.org/work/W561263531', '2014', '2013', 'https://semopenalex.org/work/W2001134479', '2022', 'https://semopenalex.org/work/W1980898323', '2021', 'https://semopenalex.org/work/W2916161883', '2011', 'https://semopenalex.org/work/W2159352174', '2017', '1988', 'https://semopenalex.org/work/W3015916644', 'https://semopenalex.org/work/W2112075493', 'https://semopenalex.org/work/W3204125990', 'https://semopenalex.org/work/W85948279', 'https://semopenalex.org/work/W2996178766', '1996', 'https://semopenalex.org/work/W2106992013', 'https://semopenalex.org/work/W2117079392', 'https://semopenalex.org/work/W3109100560', 'https://semopenalex.org/work/W2071598750', 'https://semopenalex.org/work/W1639744882', 'https://semopenalex.org/work/W2160694029', '2015', 'https://semopenalex.org/work/W2754525416', 'https://semopenalex.org/work/W2102335576', '2007', 'https://semopenalex.org/work/W2140088636', 'https://semopenalex.org/work/W1492922013', 'https://semopenalex.org/work/W2152878419', 'https://semopenalex.org/work/W2148898091', 'https://semopenalex.org/work/W2169340764', 'https://semopenalex.org/work/W2583305228', 'https://semopenalex.org/work/W2102483774', 'https://semopenalex.org/work/W2129024094', '2018', 'https://semopenalex.org/work/W2992288311', 'https://semopenalex.org/work/W95902856', 'https://semopenalex.org/work/W1575793749', 'https://semopenalex.org/work/W4244048931', 'https://semopenalex.org/work/W2096493758', '1998', 'https://semopenalex.org/work/W1501907046', 'https://semopenalex.org/work/W2724242838', 'https://semopenalex.org/work/W2141343769']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/author/A5014866425', 'https://semopenalex.org/author/A5021985940', 'https://semopenalex.org/author/A5007195926', 'https://semopenalex.org/author/A5070920982', 'https://semopenalex.org/author/A5057380928', 'https://semopenalex.org/author/A5080758138', 'https://semopenalex.org/author/A5001676164', 'https://semopenalex.org/author/A5002385420', 'https://semopenalex.org/author/A5001183868', 'https://semopenalex.org/author/A5072220967', 'https://semopenalex.org/author/A5053771056', 'https://semopenalex.org/author/A5090449185', 'https://semopenalex.org/author/A5058247387', 'https://semopenalex.org/author/A5089975103', 'https://semopenalex.org/author/A5081184066', 'https://semopenalex.org/author/A5075932839', 'https://semopenalex.org/author/A5008995859', 'https://semopenalex.org/author/A5053751744', 'https://semopenalex.org/author/A5103031174', 'https://semopenalex.org/author/A5026577233', 'https://semopenalex.org/author/A5069762894', 'https://semopenalex.org/author/A5038296283', 'https://semopenalex.org/author/A5010474859', 'https://semopenalex.org/author/A5077257267', 'https://semopenalex.org/author/A5056693273', 'https://semopenalex.org/author/A5025631482', 'https://semopenalex.org/author/A5004960011', 'https://semopenalex.org/author/A5048273330', 'https://semopenalex.org/author/A5031511752', 'https://semopenalex.org/author/A5045837667', 'https://semopenalex.org/author/A5073723754', 'https://semopenalex.org/author/A5108261926', 'https://semopenalex.org/author/A5113449899', 'https://semopenalex.org/author/A5041301436', 'https://semopenalex.org/author/A5084821293', 'https://semopenalex.org/author/A5023950939', 'https://semopenalex.org/author/A5088359990', 'https://semopenalex.org/author/A5076497670', 'https://semopenalex.org/author/A5011572373', 'https://semopenalex.org/author/A5018214600', 'https://semopenalex.org/author/A5051593939', 'https://semopenalex.org/author/A5050865451', 'https://semopenalex.org/author/A5051905013', 'https://semopenalex.org/author/A5076283229', 'https://semopenalex.org/author/A5106099412', 'https://semopenalex.org/author/A5057682767', 'https://semopenalex.org/author/A5022335468', 'https://semopenalex.org/author/A5019247404', 'https://semopenalex.org/author/A5029499420', 'https://semopenalex.org/author/A5016671506', 'https://semopenalex.org/author/A5108075115', 'https://semopenalex.org/author/A5105200360', 'https://semopenalex.org/author/A5003945685', 'https://semopenalex.org/author/A5087477331', 'https://semopenalex.org/author/A5028549991', 'https://semopenalex.org/author/A5070832388', 'https://semopenalex.org/author/A5043739847', 'https://semopenalex.org/author/A5080334275', 'https://semopenalex.org/author/A5049148828', 'https://semopenalex.org/author/A5075723995', 'https://semopenalex.org/author/A5013955991', 'https://semopenalex.org/author/A5015327313', 'https://semopenalex.org/author/A5058021214', 'https://semopenalex.org/author/A5084600567', 'https://semopenalex.org/author/A5014610321', 'https://semopenalex.org/author/A5046764771', 'https://semopenalex.org/author/A5086336877', 'https://semopenalex.org/author/A5026157285', 'https://semopenalex.org/author/A5071409817', 'https://semopenalex.org/author/A5111572354', 'https://semopenalex.org/author/A5048660804', 'https://semopenalex.org/author/A5049954115', 'https://semopenalex.org/author/A5110589505', 'https://semopenalex.org/author/A5110328496', 'https://semopenalex.org/author/A5000625068', 'https://semopenalex.org/author/A5057375178', 'https://semopenalex.org/author/A5082591195', 'https://semopenalex.org/author/A5016577686', 'https://semopenalex.org/author/A5009439432', 'https://semopenalex.org/author/A5071834503', 'https://semopenalex.org/author/A5040706665', 'https://semopenalex.org/author/A5086827100', 'https://semopenalex.org/author/A5043204660', 'https://semopenalex.org/author/A5039693029', 'https://semopenalex.org/author/A5011141399', 'https://semopenalex.org/author/A5016964202', 'https://semopenalex.org/author/A5065832212', 'https://semopenalex.org/author/A5036435300', 'https://semopenalex.org/author/A5080127754', 'https://semopenalex.org/author/A5062807811', 'https://semopenalex.org/author/A5044052548', 'https://semopenalex.org/author/A5066907092', 'https://semopenalex.org/author/A5001142566', 'https://semopenalex.org/author/A5105862010', 'https://semopenalex.org/author/A5023469137', 'https://semopenalex.org/author/A5078581206', 'https://semopenalex.org/author/A5055271621', 'https://semopenalex.org/author/A5069650964', 'https://semopenalex.org/author/A5001965218', 'https://semopenalex.org/author/A5050938227', 'https://semopenalex.org/author/A5009207700', 'https://semopenalex.org/author/A5049320278', 'https://semopenalex.org/author/A5065490876', 'https://semopenalex.org/author/A5072706564', 'https://semopenalex.org/author/A5074093929', 'https://semopenalex.org/author/A5035398709', 'https://semopenalex.org/author/A5043305706', 'https://semopenalex.org/author/A5035580428', 'https://semopenalex.org/author/A5022523197', 'https://semopenalex.org/author/A5028596543', 'https://semopenalex.org/author/A5009615869', 'https://semopenalex.org/author/A5106082584', 'https://semopenalex.org/author/A5102610102', 'https://semopenalex.org/author/A5015154091', 'https://semopenalex.org/author/A5033957848', 'https://semopenalex.org/author/A5098014068', 'https://semopenalex.org/author/A5080729232', 'https://semopenalex.org/author/A5040600354', 'https://semopenalex.org/author/A5080836461', 'https://semopenalex.org/author/A5091510486', 'https://semopenalex.org/author/A5040950908', 'https://semopenalex.org/author/A5003446912', 'https://semopenalex.org/author/A5013110001', 'https://semopenalex.org/author/A5017760976', 'https://semopenalex.org/author/A5050062467', 'https://semopenalex.org/author/A5067143355', 'https://semopenalex.org/author/A5076861704', 'https://semopenalex.org/author/A5106076507', 'https://semopenalex.org/author/A5068664163', 'https://semopenalex.org/author/A5110460780', 'https://semopenalex.org/author/A5033311124', 'https://semopenalex.org/author/A5074238659', 'https://semopenalex.org/author/A5032703090', 'https://semopenalex.org/author/A5065696246', 'https://semopenalex.org/author/A5103532312', 'https://semopenalex.org/author/A5016116024', 'https://semopenalex.org/author/A5105909288', 'https://semopenalex.org/author/A5081468313', 'https://semopenalex.org/author/A5100746068', 'https://semopenalex.org/author/A5005993212', 'https://semopenalex.org/author/A5069790131', 'https://semopenalex.org/author/A5074789240', 'https://semopenalex.org/author/A5039651585', 'https://semopenalex.org/author/A5005238560', 'https://semopenalex.org/author/A5045376373', 'https://semopenalex.org/author/A5108282938', 'https://semopenalex.org/author/A5037735021', 'https://semopenalex.org/author/A5032218136', 'https://semopenalex.org/author/A5105388814', 'https://semopenalex.org/author/A5063808461', 'https://semopenalex.org/author/A5079336821', 'https://semopenalex.org/author/A5028491017', 'https://semopenalex.org/author/A5003377833', 'https://semopenalex.org/author/A5109878293', 'https://semopenalex.org/author/A5059658943', 'https://semopenalex.org/author/A5019200294', 'https://semopenalex.org/author/A5041856505', 'https://semopenalex.org/author/A5083984866', 'https://semopenalex.org/author/A5012311258', 'https://semopenalex.org/author/A5087238275', 'https://semopenalex.org/author/A5035549347', 'https://semopenalex.org/author/A5050428872', 'https://semopenalex.org/author/A5018323496', 'https://semopenalex.org/author/A5073656007', 'https://semopenalex.org/author/A5030117072']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/author/A5101619735', 'https://semopenalex.org/author/A5051642217', 'https://semopenalex.org/author/A5078921853', 'https://semopenalex.org/author/A5112907430', 'https://semopenalex.org/author/A5092106609', 'https://semopenalex.org/author/A5017353478', 'https://semopenalex.org/author/A5044578275', 'https://semopenalex.org/author/A5034037954', 'https://semopenalex.org/author/A5089362779', 'https://semopenalex.org/author/A5086346640', 'https://semopenalex.org/author/A5062261441', 'https://semopenalex.org/author/A5086787573', 'https://semopenalex.org/author/A5090529701', 'https://semopenalex.org/author/A5013421545', 'https://semopenalex.org/author/A5004507308', 'https://semopenalex.org/author/A5078555911', 'https://semopenalex.org/author/A5111252081', 'https://semopenalex.org/author/A5084373522', 'https://semopenalex.org/author/A5028395580', 'https://semopenalex.org/author/A5093495936', 'https://semopenalex.org/author/A5040925885', 'https://semopenalex.org/author/A5102720885', 'https://semopenalex.org/author/A5071109276', 'https://semopenalex.org/author/A5089983554', 'https://semopenalex.org/author/A5062553581', 'https://semopenalex.org/author/A5025631312', 'https://semopenalex.org/author/A5055792983', 'https://semopenalex.org/author/A5020939308', 'https://semopenalex.org/author/A5038581932', 'https://semopenalex.org/author/A5012375687', 'https://semopenalex.org/author/A5101845418', 'https://semopenalex.org/author/A5028750310', 'https://semopenalex.org/author/A5108988435', 'https://semopenalex.org/author/A5075061218', 'https://semopenalex.org/author/A5035247809', 'https://semopenalex.org/author/A5092276800', 'https://semopenalex.org/author/A5031601776', 'https://semopenalex.org/author/A5112596472', 'https://semopenalex.org/author/A5048521450', 'https://semopenalex.org/author/A5078461261', 'https://semopenalex.org/author/A5061675674', 'https://semopenalex.org/author/A5112900377', 'https://semopenalex.org/author/A5093415912', 'https://semopenalex.org/author/A5074316484', 'https://semopenalex.org/author/A5091453565', 'https://semopenalex.org/author/A5015144665', 'https://semopenalex.org/author/A5080374319', 'https://semopenalex.org/author/A5027096307', 'https://semopenalex.org/author/A5023645490', 'https://semopenalex.org/author/A5074486298', 'https://semopenalex.org/author/A5025632720', 'https://semopenalex.org/author/A5024581040', 'https://semopenalex.org/author/A5069922587', 'https://semopenalex.org/author/A5024584252', 'https://semopenalex.org/author/A5042413456', 'https://semopenalex.org/author/A5043204400', 'https://semopenalex.org/author/A5089914165', 'https://semopenalex.org/author/A5092276801', 'https://semopenalex.org/author/A5084631861', 'https://semopenalex.org/author/A5064387363', 'https://semopenalex.org/author/A5001454735', 'https://semopenalex.org/author/A5015356632', 'https://semopenalex.org/author/A5093413149', 'https://semopenalex.org/author/A5091298748', 'https://semopenalex.org/author/A5014205279', 'https://semopenalex.org/author/A5106808077', 'https://semopenalex.org/author/A5006430488', 'https://semopenalex.org/author/A5064622877', 'https://semopenalex.org/author/A5112387040', 'https://semopenalex.org/author/A5114057383', 'https://semopenalex.org/author/A5060768396', 'https://semopenalex.org/author/A5082863339', 'https://semopenalex.org/author/A5051221846', 'https://semopenalex.org/author/A5074393288']</t>
+  </si>
+  <si>
+    <t>['https://semopenalex.org/author/A5103223639', 'https://semopenalex.org/author/A5081340873', 'https://semopenalex.org/author/A5066916130', 'https://semopenalex.org/author/A5101194950', 'https://semopenalex.org/author/A5100388627', 'https://semopenalex.org/author/A5085611398', 'https://semopenalex.org/author/A5070152860', 'https://semopenalex.org/author/A5089294104', 'https://semopenalex.org/author/A5049076146', 'https://semopenalex.org/author/A5103047914', 'https://semopenalex.org/author/A5081650066', 'https://semopenalex.org/author/A5049622460', 'https://semopenalex.org/author/A5050308989', 'https://semopenalex.org/author/A5041073042', 'https://semopenalex.org/author/A5023155310', 'https://semopenalex.org/author/A5101601497', 'https://semopenalex.org/author/A5079729956', 'https://semopenalex.org/author/A5100301259', 'https://semopenalex.org/author/A5072002680', 'https://semopenalex.org/author/A5002503342', 'https://semopenalex.org/author/A5032068969', 'https://semopenalex.org/author/A5072432956', 'https://semopenalex.org/author/A5074540830', 'https://semopenalex.org/author/A5040987266', 'https://semopenalex.org/author/A5101011726', 'https://semopenalex.org/author/A5100386104', 'https://semopenalex.org/author/A5102204689', 'https://semopenalex.org/author/A5047271595', 'https://semopenalex.org/author/A5110161847', 'https://semopenalex.org/author/A5076516205', 'https://semopenalex.org/author/A5086338440', 'https://semopenalex.org/author/A5100385498', 'https://semopenalex.org/author/A5101852647', 'https://semopenalex.org/author/A5056526226', 'https://semopenalex.org/author/A5012621594', 'https://semopenalex.org/author/A5100458045', 'https://semopenalex.org/author/A5100405159', 'https://semopenalex.org/author/A5100447531', 'https://semopenalex.org/author/A5081145634', 'https://semopenalex.org/author/A5077008083', 'https://semopenalex.org/author/A5100365555', 'https://semopenalex.org/author/A5053084752', 'https://semopenalex.org/author/A5101468661', 'https://semopenalex.org/author/A5000582109', 'https://semopenalex.org/author/A5100299966', 'https://semopenalex.org/author/A5102020713', 'https://semopenalex.org/author/A5045500611', 'https://semopenalex.org/author/A5006357713', 'https://semopenalex.org/author/A5018128809', 'https://semopenalex.org/author/A5103233342', 'https://semopenalex.org/author/A5061863093', 'https://semopenalex.org/author/A5101637945', 'https://semopenalex.org/author/A5051192643', 'https://semopenalex.org/author/A5100361984', 'https://semopenalex.org/author/A5059396373', 'https://semopenalex.org/author/A5100322125', 'https://semopenalex.org/author/A5040272202', 'https://semopenalex.org/author/A5059555100', 'https://semopenalex.org/author/A5087587101', 'https://semopenalex.org/author/A5085666756', 'https://semopenalex.org/author/A5103286574', 'https://semopenalex.org/author/A5101966381', 'https://semopenalex.org/author/A5102900280', 'https://semopenalex.org/author/A5081036622', 'https://semopenalex.org/author/A5101614814', 'https://semopenalex.org/author/A5027206285', 'https://semopenalex.org/author/A5101983121', 'https://semopenalex.org/author/A5100388609', 'https://semopenalex.org/author/A5085247180', 'https://semopenalex.org/author/A5000019783', 'https://semopenalex.org/author/A5113115887', 'https://semopenalex.org/author/A5005639930', 'https://semopenalex.org/author/A5011667547', 'https://semopenalex.org/author/A5050748634', 'https://semopenalex.org/author/A5100385507', 'https://semopenalex.org/author/A5030490896', 'https://semopenalex.org/author/A5100638997', 'https://semopenalex.org/author/A5039326697', 'https://semopenalex.org/author/A5101812436', 'https://semopenalex.org/author/A5102858698', 'https://semopenalex.org/author/A5100639062', 'https://semopenalex.org/author/A5102014459', 'https://semopenalex.org/author/A5056980315', 'https://semopenalex.org/author/A5101261545', 'https://semopenalex.org/author/A5021631329', 'https://semopenalex.org/author/A5026939932', 'https://semopenalex.org/author/A5056755949', 'https://semopenalex.org/author/A5022905724', 'https://semopenalex.org/author/A5100712724', 'https://semopenalex.org/author/A5054115813', 'https://semopenalex.org/author/A5101655978', 'https://semopenalex.org/author/A5100633784', 'https://semopenalex.org/author/A5102859232', 'https://semopenalex.org/author/A5088498790', 'https://semopenalex.org/author/A5081449581', 'https://semopenalex.org/author/A5101636662', 'https://semopenalex.org/author/A5000845080', 'https://semopenalex.org/author/A5040203716', 'https://semopenalex.org/author/A5058828089', 'https://semopenalex.org/author/A5100375823', 'https://semopenalex.org/author/A5019450472', 'https://semopenalex.org/author/A5103205784', 'https://semopenalex.org/author/A5036986396', 'https://semopenalex.org/author/A5013325392', 'https://semopenalex.org/author/A5025099559', 'https://semopenalex.org/author/A5101555891', 'https://semopenalex.org/author/A5101617703', 'https://semopenalex.org/author/A5060364305', 'https://semopenalex.org/author/A5100388599', 'https://semopenalex.org/author/A5091706559', 'https://semopenalex.org/author/A5000645139', 'https://semopenalex.org/author/A5110172698', 'https://semopenalex.org/author/A5100753039', 'https://semopenalex.org/author/A5077658936', 'https://semopenalex.org/author/A5100779597', 'https://semopenalex.org/author/A5069809962', 'https://semopenalex.org/author/A5010958113', 'https://semopenalex.org/author/A5068122240', 'https://semopenalex.org/author/A5042235813', 'https://semopenalex.org/author/A5102987690', 'https://semopenalex.org/author/A5011367069', 'https://semopenalex.org/author/A5072456187', 'https://semopenalex.org/author/A5107864790', 'https://semopenalex.org/author/A5100388597', 'https://semopenalex.org/author/A5102717988', 'https://semopenalex.org/author/A5100388716', 'https://semopenalex.org/author/A5100758675', 'https://semopenalex.org/author/A5100608460', 'https://semopenalex.org/author/A5100665833', 'https://semopenalex.org/author/A5081886276', 'https://semopenalex.org/author/A5016401353', 'https://semopenalex.org/author/A5024073253', 'https://semopenalex.org/author/A5021179945', 'https://semopenalex.org/author/A5054753279', 'https://semopenalex.org/author/A5074075949', 'https://semopenalex.org/author/A5048118068', 'https://semopenalex.org/author/A5024456332', 'https://semopenalex.org/author/A5039037722', 'https://semopenalex.org/author/A5073947585', 'https://semopenalex.org/author/A5012561478', 'https://semopenalex.org/author/A5015967363', 'https://semopenalex.org/author/A5100376204', 'https://semopenalex.org/author/A5049142567', 'https://semopenalex.org/author/A5013438083', 'https://semopenalex.org/author/A5042986574', 'https://semopenalex.org/author/A5047965752', 'https://semopenalex.org/author/A5036039721', 'https://semopenalex.org/author/A5006669765', 'https://semopenalex.org/author/A5005604635', 'https://semopenalex.org/author/A5101660937', 'https://semopenalex.org/author/A5109297018', 'https://semopenalex.org/author/A5100738974', 'https://semopenalex.org/author/A5023035566', 'https://semopenalex.org/author/A5100440010', 'https://semopenalex.org/author/A5114213934', 'https://semopenalex.org/author/A5064776947', 'https://semopenalex.org/author/A5025292884', 'https://semopenalex.org/author/A5043546718', 'https://semopenalex.org/author/A5065120715', 'https://semopenalex.org/author/A5044689090', 'https://semopenalex.org/author/A5003031253', 'https://semopenalex.org/author/A5010181158', 'https://semopenalex.org/author/A5068340305', 'https://semopenalex.org/author/A5017334961', 'https://semopenalex.org/author/A5100439996', 'https://semopenalex.org/author/A5028716858', 'https://semopenalex.org/author/A5084868951', 'https://semopenalex.org/author/A5100408010', 'https://semopenalex.org/author/A5007043113', 'https://semopenalex.org/author/A5011086593', 'https://semopenalex.org/author/A5108459503', 'https://semopenalex.org/author/A5101540631', 'https://semopenalex.org/author/A5077610917', 'https://semopenalex.org/author/A5034057959', 'https://semopenalex.org/author/A5019525050', 'https://semopenalex.org/author/A5101308414', 'https://semopenalex.org/author/A5101289775', 'https://semopenalex.org/author/A5015836405', 'https://semopenalex.org/author/A5100388581', 'https://semopenalex.org/author/A5100438174', 'https://semopenalex.org/author/A5100458090', 'https://semopenalex.org/author/A5101264794', 'https://semopenalex.org/author/A5100426931', 'https://semopenalex.org/author/A5076444296', 'https://semopenalex.org/author/A5100610450', 'https://semopenalex.org/author/A5033111691', 'https://semopenalex.org/author/A5075273130', 'https://semopenalex.org/author/A5103234102', 'https://semopenalex.org/author/A5043798385', 'https://semopenalex.org/author/A5115595561', 'https://semopenalex.org/author/A5032062525', 'https://semopenalex.org/author/A5032194564', 'https://semopenalex.org/author/A5101612059', 'https://semopenalex.org/author/A5114778131', 'https://semopenalex.org/author/A5058164381', 'https://semopenalex.org/author/A5100738977', 'https://semopenalex.org/author/A5081420063', 'https://semopenalex.org/author/A5046237164', 'https://semopenalex.org/author/A5084735407', 'https://semopenalex.org/author/A5100409885', 'https://semopenalex.org/author/A5100388576', 'https://semopenalex.org/author/A5100447682', 'https://semopenalex.org/author/A5102222159', 'https://semopenalex.org/author/A5100676331', 'https://semopenalex.org/author/A5030626281', 'https://semopenalex.org/author/A5009071576', 'https://semopenalex.org/author/A5100429004', 'https://semopenalex.org/author/A5050080938', 'https://semopenalex.org/author/A5087492388', 'https://semopenalex.org/author/A5043801432', 'https://semopenalex.org/author/A5002594574', 'https://semopenalex.org/author/A5049100391', 'https://semopenalex.org/author/A5077424533', 'https://semopenalex.org/author/A5100772234', 'https://semopenalex.org/author/A5101556258', 'https://semopenalex.org/author/A5004490190', 'https://semopenalex.org/author/A5009435651', 'https://semopenalex.org/author/A5024821632', 'https://semopenalex.org/author/A5077138780', 'https://semopenalex.org/author/A5100459874', 'https://semopenalex.org/author/A5067163535', 'https://semopenalex.org/author/A5052249316', 'https://semopenalex.org/author/A5002289161', 'https://semopenalex.org/author/A5100327487', 'https://semopenalex.org/author/A5102928967', 'https://semopenalex.org/author/A5074307489', 'https://semopenalex.org/author/A5045087569', 'https://semopenalex.org/author/A5065293581', 'https://semopenalex.org/author/A5090671359', 'https://semopenalex.org/author/A5021222755', 'https://semopenalex.org/author/A5100408160', 'https://semopenalex.org/author/A5009455568', 'https://semopenalex.org/author/A5100367807', 'https://semopenalex.org/author/A5058738211', 'https://semopenalex.org/author/A5100738980', 'https://semopenalex.org/author/A5018031899', 'https://semopenalex.org/author/A5100753041', 'https://semopenalex.org/author/A5084874990', 'https://semopenalex.org/author/A5026927053', 'https://semopenalex.org/author/A5027084532', 'https://semopenalex.org/author/A5000381434', 'https://semopenalex.org/author/A5013103539', 'https://semopenalex.org/author/A5059065212', 'https://semopenalex.org/author/A5103761162', 'https://semopenalex.org/author/A5088725475', 'https://semopenalex.org/author/A5067467896', 'https://semopenalex.org/author/A5041961808', 'https://semopenalex.org/author/A5023093639', 'https://semopenalex.org/author/A5100388617', 'https://semopenalex.org/author/A5100331488', 'https://semopenalex.org/author/A5022677467', 'https://semopenalex.org/author/A5073965511', 'https://semopenalex.org/author/A5100349346', 'https://semopenalex.org/author/A5100523187', 'https://semopenalex.org/author/A5038017715', 'https://semopenalex.org/author/A5100361632', 'https://semopenalex.org/author/A5012469172', 'https://semopenalex.org/author/A5040850915', 'https://semopenalex.org/author/A5100367825', 'https://semopenalex.org/author/A5067395122', 'https://semopenalex.org/author/A5060115298', 'https://semopenalex.org/author/A5100445622', 'https://semopenalex.org/author/A5055149708', 'https://semopenalex.org/author/A5103073505', 'https://semopenalex.org/author/A5107006112', 'https://semopenalex.org/author/A5052981404', 'https://semopenalex.org/author/A5103205468', 'https://semopenalex.org/author/A5075929099', 'https://semopenalex.org/author/A5100443727', 'https://semopenalex.org/author/A5111956187', 'https://semopenalex.org/author/A5069596903', 'https://semopenalex.org/author/A5034794084', 'https://semopenalex.org/author/A5101558050', 'https://semopenalex.org/author/A5043476448', 'https://semopenalex.org/author/A5055422837', 'https://semopenalex.org/author/A5088708850', 'https://semopenalex.org/author/A5052199638', 'https://semopenalex.org/author/A5077984014', 'https://semopenalex.org/author/A5035089987', 'https://semopenalex.org/author/A5058258996', 'https://semopenalex.org/author/A5035359666', 'https://semopenalex.org/author/A5100388644', 'https://semopenalex.org/author/A5100401412', 'https://semopenalex.org/author/A5036120394', 'https://semopenalex.org/author/A5113160035', 'https://semopenalex.org/author/A5033164669', 'https://semopenalex.org/author/A5100394129', 'https://semopenalex.org/author/A5115590096', 'https://semopenalex.org/author/A5069621751', 'https://semopenalex.org/author/A5100447691', 'https://semopenalex.org/author/A5100677820', 'https://semopenalex.org/author/A5052404451', 'https://semopenalex.org/author/A5009487151', 'https://semopenalex.org/author/A5085393851', 'https://semopenalex.org/author/A5065848808', 'https://semopenalex.org/author/A5090627608', 'https://semopenalex.org/author/A5025977354', 'https://semopenalex.org/author/A5100697624', 'https://semopenalex.org/author/A5033163346', 'https://semopenalex.org/author/A5079431306', 'https://semopenalex.org/author/A5005007374', 'https://semopenalex.org/author/A5058257080', 'https://semopenalex.org/author/A5100412598', 'https://semopenalex.org/author/A5088646345', 'https://semopenalex.org/author/A5100349343', 'https://semopenalex.org/author/A5048041198', 'https://semopenalex.org/author/A5025839857', 'https://semopenalex.org/author/A5030997313', 'https://semopenalex.org/author/A5033542967']</t>
   </si>
   <si>
     <t>['493']</t>
